--- a/public/operaciones.xlsx
+++ b/public/operaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulm\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{575ECB6C-910D-4817-98CF-804557F421CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66767FBA-3579-4B02-835A-D1C5122275E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5D8B018B-6A98-4322-9D12-F37ABD5F314B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="55">
   <si>
     <t>AEROLINEA</t>
   </si>
@@ -119,15 +119,9 @@
     <t>MHLM</t>
   </si>
   <si>
-    <t>KBOS</t>
-  </si>
-  <si>
     <t>CYYZ</t>
   </si>
   <si>
-    <t>KMCO</t>
-  </si>
-  <si>
     <t>TPA</t>
   </si>
   <si>
@@ -183,6 +177,30 @@
   </si>
   <si>
     <t>KEWR</t>
+  </si>
+  <si>
+    <t>KONT</t>
+  </si>
+  <si>
+    <t>CYUL</t>
+  </si>
+  <si>
+    <t>KLAS</t>
+  </si>
+  <si>
+    <t>KORD</t>
+  </si>
+  <si>
+    <t>MMUN</t>
+  </si>
+  <si>
+    <t>TAG</t>
+  </si>
+  <si>
+    <t>MHRO</t>
+  </si>
+  <si>
+    <t>VOC</t>
   </si>
 </sst>
 </file>
@@ -558,7 +576,7 @@
   <dimension ref="A1:G157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G157"/>
+      <selection sqref="A1:G154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,151 +606,151 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D2">
-        <v>4325</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="E2">
+        <v>1670</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="E3">
-        <v>1670</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.125</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="D3">
+        <v>222</v>
+      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
-        <v>0.15972222222222224</v>
+        <v>0.20972222222222223</v>
       </c>
       <c r="D4">
-        <v>222</v>
+        <v>4313</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.20972222222222223</v>
-      </c>
-      <c r="D5">
-        <v>4313</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="E5">
+        <v>879</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.21041666666666667</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="E6">
-        <v>879</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.21041666666666667</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D6">
+        <v>531</v>
+      </c>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1">
-        <v>0.23541666666666666</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="D7">
-        <v>4309</v>
+        <v>575</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>0.23958333333333334</v>
+        <v>0.22569444444444445</v>
       </c>
       <c r="D8">
-        <v>1266</v>
+        <v>533</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1">
-        <v>0.24652777777777779</v>
+        <v>0.23472222222222222</v>
       </c>
       <c r="D9">
-        <v>456</v>
+        <v>4323</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1">
-        <v>0.25694444444444442</v>
+        <v>0.23541666666666666</v>
       </c>
       <c r="D10">
-        <v>579</v>
+        <v>4309</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.23958333333333334</v>
       </c>
       <c r="D11">
-        <v>366</v>
+        <v>1266</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -741,13 +759,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.24652777777777779</v>
       </c>
       <c r="D12">
-        <v>529</v>
+        <v>456</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -756,43 +774,43 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1">
-        <v>0.2638888888888889</v>
+        <v>0.24652777777777779</v>
       </c>
       <c r="D13">
-        <v>314</v>
+        <v>567</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="E14">
-        <v>4326</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.2638888888888889</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="D14">
+        <v>433</v>
+      </c>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1">
-        <v>0.2673611111111111</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="D15">
-        <v>428</v>
+        <v>579</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -801,13 +819,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1">
-        <v>0.2673611111111111</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D16">
-        <v>626</v>
+        <v>366</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -816,88 +834,88 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D17">
-        <v>561</v>
+        <v>529</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="E18">
+        <v>4326</v>
+      </c>
+      <c r="F18" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D18">
-        <v>591</v>
-      </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>0.2638888888888889</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D19">
-        <v>671</v>
+        <v>428</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="E20">
-        <v>4318</v>
-      </c>
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.28611111111111109</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="D20">
+        <v>650</v>
+      </c>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="E21">
-        <v>1467</v>
-      </c>
-      <c r="F21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.28819444444444448</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D21">
+        <v>561</v>
+      </c>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C22" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D22">
-        <v>621</v>
+        <v>591</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -905,60 +923,60 @@
       <c r="A23" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="E23">
-        <v>323</v>
-      </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.3125</v>
-      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D23">
+        <v>671</v>
+      </c>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1"/>
       <c r="E24">
-        <v>396</v>
+        <v>1467</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G24" s="1">
-        <v>0.3125</v>
+        <v>0.28819444444444448</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="E25">
-        <v>4338</v>
-      </c>
-      <c r="F25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.31527777777777777</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D25">
+        <v>621</v>
+      </c>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1"/>
       <c r="E26">
-        <v>310</v>
+        <v>4330</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G26" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -967,13 +985,13 @@
       </c>
       <c r="C27" s="1"/>
       <c r="E27">
-        <v>440</v>
+        <v>323</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G27" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -982,28 +1000,28 @@
       </c>
       <c r="C28" s="1"/>
       <c r="E28">
-        <v>536</v>
+        <v>396</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G28" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" s="1"/>
       <c r="E29">
-        <v>444</v>
+        <v>884</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G29" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1012,13 +1030,13 @@
       </c>
       <c r="C30" s="1"/>
       <c r="E30">
-        <v>562</v>
+        <v>310</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G30" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1027,13 +1045,13 @@
       </c>
       <c r="C31" s="1"/>
       <c r="E31">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="F31" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="G31" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1042,13 +1060,13 @@
       </c>
       <c r="C32" s="1"/>
       <c r="E32">
-        <v>383</v>
+        <v>440</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G32" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1057,13 +1075,13 @@
       </c>
       <c r="C33" s="1"/>
       <c r="E33">
-        <v>522</v>
+        <v>562</v>
       </c>
       <c r="F33" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G33" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1071,13 +1089,13 @@
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C34" s="1">
-        <v>0.33680555555555558</v>
+        <v>0.3298611111111111</v>
       </c>
       <c r="D34">
-        <v>581</v>
+        <v>549</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -1087,13 +1105,13 @@
       </c>
       <c r="C35" s="1"/>
       <c r="E35">
-        <v>564</v>
+        <v>368</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G35" s="1">
-        <v>0.33680555555555558</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1102,13 +1120,13 @@
       </c>
       <c r="C36" s="1"/>
       <c r="E36">
-        <v>554</v>
+        <v>383</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G36" s="1">
-        <v>0.34027777777777779</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1117,44 +1135,44 @@
       </c>
       <c r="C37" s="1"/>
       <c r="E37">
-        <v>324</v>
+        <v>522</v>
       </c>
       <c r="F37" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G37" s="1">
-        <v>0.34375</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="E38">
-        <v>884</v>
-      </c>
-      <c r="F38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0.35833333333333334</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="D38">
+        <v>601</v>
+      </c>
+      <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>15</v>
       </c>
-      <c r="B39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="D39">
-        <v>551</v>
-      </c>
-      <c r="G39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="E39">
+        <v>564</v>
+      </c>
+      <c r="F39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.33680555555555558</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1162,59 +1180,59 @@
       </c>
       <c r="C40" s="1"/>
       <c r="E40">
-        <v>422</v>
+        <v>454</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G40" s="1">
-        <v>0.36458333333333331</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0.36805555555555558</v>
-      </c>
-      <c r="D41">
-        <v>4053</v>
-      </c>
-      <c r="G41" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="E41">
+        <v>572</v>
+      </c>
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.34027777777777779</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
-      <c r="B42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0.37847222222222221</v>
-      </c>
-      <c r="D42">
-        <v>559</v>
-      </c>
-      <c r="G42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="E42">
+        <v>324</v>
+      </c>
+      <c r="F42" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.34375</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="E43">
-        <v>369</v>
-      </c>
-      <c r="F43" t="s">
-        <v>31</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0.37847222222222221</v>
-      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.37152777777777779</v>
+      </c>
+      <c r="D43">
+        <v>309</v>
+      </c>
+      <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -1222,13 +1240,13 @@
       </c>
       <c r="C44" s="1"/>
       <c r="E44">
-        <v>430</v>
+        <v>526</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G44" s="1">
-        <v>0.37847222222222221</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1237,13 +1255,13 @@
       </c>
       <c r="C45" s="1"/>
       <c r="E45">
-        <v>524</v>
+        <v>369</v>
       </c>
       <c r="F45" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G45" s="1">
-        <v>0.38194444444444442</v>
+        <v>0.37847222222222221</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1252,74 +1270,74 @@
       </c>
       <c r="C46" s="1"/>
       <c r="E46">
-        <v>582</v>
+        <v>430</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G46" s="1">
-        <v>0.39930555555555558</v>
+        <v>0.37847222222222221</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>15</v>
       </c>
-      <c r="B47" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0.41319444444444442</v>
-      </c>
-      <c r="D47">
-        <v>659</v>
-      </c>
-      <c r="G47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="E47">
+        <v>582</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.39930555555555558</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="E48">
-        <v>392</v>
-      </c>
-      <c r="F48" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" s="1">
-        <v>0.41319444444444442</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="D48">
+        <v>741</v>
+      </c>
+      <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C49" s="1">
-        <v>0.4201388888888889</v>
+        <v>0.41319444444444442</v>
       </c>
       <c r="D49">
-        <v>353</v>
+        <v>659</v>
       </c>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0.4236111111111111</v>
-      </c>
-      <c r="D50">
-        <v>731</v>
-      </c>
-      <c r="G50" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="E50">
+        <v>392</v>
+      </c>
+      <c r="F50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.41319444444444442</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -1327,148 +1345,148 @@
       </c>
       <c r="C51" s="1"/>
       <c r="E51">
-        <v>613</v>
+        <v>408</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G51" s="1">
-        <v>0.4236111111111111</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>15</v>
       </c>
-      <c r="B52" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="D52">
-        <v>537</v>
-      </c>
-      <c r="G52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="E52">
+        <v>609</v>
+      </c>
+      <c r="F52" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.4236111111111111</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C53" s="1"/>
       <c r="E53">
-        <v>4053</v>
+        <v>4320</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G53" s="1">
-        <v>0.43055555555555558</v>
+        <v>0.4236111111111111</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="E54">
-        <v>8110</v>
-      </c>
-      <c r="F54" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" s="1">
-        <v>0.4375</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D54">
+        <v>342</v>
+      </c>
+      <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C55" s="1">
-        <v>0.46180555555555558</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="D55">
-        <v>70</v>
+        <v>455</v>
       </c>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>33</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="E56">
-        <v>349</v>
-      </c>
-      <c r="F56" t="s">
-        <v>8</v>
-      </c>
-      <c r="G56" s="1">
-        <v>0.47222222222222221</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D56">
+        <v>327</v>
+      </c>
+      <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C57" s="1"/>
-      <c r="E57">
-        <v>730</v>
-      </c>
-      <c r="F57" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" s="1">
-        <v>0.4861111111111111</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D57">
+        <v>573</v>
+      </c>
+      <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="E58">
-        <v>584</v>
-      </c>
-      <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="1">
-        <v>0.49305555555555558</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="D58">
+        <v>4337</v>
+      </c>
+      <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C59" s="1">
-        <v>0.5</v>
+        <v>0.46180555555555558</v>
       </c>
       <c r="D59">
-        <v>916</v>
+        <v>70</v>
       </c>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C60" s="1"/>
       <c r="E60">
-        <v>424</v>
+        <v>740</v>
       </c>
       <c r="F60" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G60" s="1">
-        <v>0.50347222222222221</v>
+        <v>0.46527777777777773</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -1477,13 +1495,13 @@
       </c>
       <c r="C61" s="1"/>
       <c r="E61">
-        <v>71</v>
+        <v>584</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G61" s="1">
-        <v>0.50347222222222221</v>
+        <v>0.49305555555555558</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -1492,447 +1510,447 @@
       </c>
       <c r="C62" s="1"/>
       <c r="E62">
-        <v>319</v>
+        <v>650</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G62" s="1">
-        <v>0.51041666666666663</v>
+        <v>0.49305555555555558</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>35</v>
-      </c>
-      <c r="B63" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="1">
-        <v>0.51597222222222228</v>
-      </c>
-      <c r="D63">
-        <v>255</v>
-      </c>
-      <c r="G63" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="E63">
+        <v>343</v>
+      </c>
+      <c r="F63" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0.49652777777777779</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>36</v>
-      </c>
-      <c r="B64" t="s">
-        <v>24</v>
-      </c>
-      <c r="C64" s="1">
-        <v>0.52152777777777781</v>
-      </c>
-      <c r="D64">
-        <v>339</v>
-      </c>
-      <c r="G64" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="E64">
+        <v>424</v>
+      </c>
+      <c r="F64" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C65" s="1"/>
       <c r="E65">
-        <v>4340</v>
+        <v>442</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G65" s="1">
-        <v>0.52569444444444446</v>
+        <v>0.50347222222222221</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>14</v>
-      </c>
-      <c r="B66" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="1">
-        <v>0.52847222222222223</v>
-      </c>
-      <c r="D66">
-        <v>816</v>
-      </c>
-      <c r="G66" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="E66">
+        <v>71</v>
+      </c>
+      <c r="F66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>37</v>
-      </c>
-      <c r="B67" t="s">
-        <v>38</v>
-      </c>
-      <c r="C67" s="1">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="D67">
-        <v>1910</v>
-      </c>
-      <c r="G67" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="E67">
+        <v>619</v>
+      </c>
+      <c r="F67" t="s">
+        <v>21</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0.51041666666666663</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>35</v>
-      </c>
-      <c r="C68" s="1"/>
-      <c r="E68">
-        <v>256</v>
-      </c>
-      <c r="F68" t="s">
-        <v>8</v>
-      </c>
-      <c r="G68" s="1">
-        <v>0.5541666666666667</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="D68">
+        <v>339</v>
+      </c>
+      <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C69" s="1">
-        <v>0.55486111111111114</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="D69">
-        <v>1441</v>
+        <v>420</v>
       </c>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C70" s="1">
-        <v>0.56319444444444444</v>
+        <v>0.52847222222222223</v>
       </c>
       <c r="D70">
-        <v>219</v>
+        <v>816</v>
       </c>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>35</v>
+      </c>
+      <c r="B71" t="s">
         <v>36</v>
       </c>
-      <c r="C71" s="1"/>
-      <c r="E71">
-        <v>348</v>
-      </c>
-      <c r="F71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G71" s="1">
-        <v>0.56319444444444444</v>
-      </c>
+      <c r="C71" s="1">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="D71">
+        <v>1910</v>
+      </c>
+      <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>39</v>
-      </c>
-      <c r="B72" t="s">
-        <v>17</v>
-      </c>
-      <c r="C72" s="1">
-        <v>0.56666666666666665</v>
-      </c>
-      <c r="D72">
-        <v>8139</v>
-      </c>
-      <c r="G72" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="E72">
+        <v>421</v>
+      </c>
+      <c r="F72" t="s">
+        <v>53</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.55208333333333337</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C73" s="1">
-        <v>0.58263888888888882</v>
+        <v>0.55486111111111114</v>
       </c>
       <c r="D73">
-        <v>628</v>
+        <v>1441</v>
       </c>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C74" s="1"/>
       <c r="E74">
-        <v>4</v>
+        <v>348</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G74" s="1">
-        <v>0.58333333333333337</v>
+        <v>0.56319444444444444</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>14</v>
-      </c>
-      <c r="C75" s="1"/>
-      <c r="E75">
-        <v>871</v>
-      </c>
-      <c r="F75" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="1">
-        <v>0.58611111111111114</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="D75">
+        <v>8139</v>
+      </c>
+      <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B76" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C76" s="1">
-        <v>0.59791666666666665</v>
+        <v>0.58263888888888882</v>
       </c>
       <c r="D76">
-        <v>1035</v>
+        <v>628</v>
       </c>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C77" s="1"/>
       <c r="E77">
-        <v>1978</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="G77" s="1">
-        <v>0.60763888888888895</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>35</v>
-      </c>
-      <c r="B78" t="s">
-        <v>42</v>
-      </c>
-      <c r="C78" s="1">
-        <v>0.61597222222222225</v>
-      </c>
-      <c r="D78">
-        <v>1031</v>
-      </c>
-      <c r="G78" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="E78">
+        <v>871</v>
+      </c>
+      <c r="F78" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0.58611111111111114</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="1"/>
-      <c r="E79">
-        <v>1468</v>
-      </c>
-      <c r="F79" t="s">
-        <v>8</v>
-      </c>
-      <c r="G79" s="1">
-        <v>0.61805555555555558</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B79" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="D79">
+        <v>1035</v>
+      </c>
+      <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C80" s="1"/>
       <c r="E80">
-        <v>218</v>
+        <v>1978</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G80" s="1">
-        <v>0.61875000000000002</v>
+        <v>0.60763888888888895</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B81" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C81" s="1">
-        <v>0.62222222222222223</v>
+        <v>0.61736111111111114</v>
       </c>
       <c r="D81">
-        <v>4319</v>
+        <v>3151</v>
       </c>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C82" s="1"/>
       <c r="E82">
-        <v>629</v>
+        <v>1468</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G82" s="1">
-        <v>0.63472222222222219</v>
+        <v>0.61805555555555558</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>36</v>
-      </c>
-      <c r="C83" s="1"/>
-      <c r="E83">
-        <v>1104</v>
-      </c>
-      <c r="F83" t="s">
-        <v>25</v>
-      </c>
-      <c r="G83" s="1">
-        <v>0.63958333333333328</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B83" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.61944444444444446</v>
+      </c>
+      <c r="D83">
+        <v>1031</v>
+      </c>
+      <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>9</v>
-      </c>
-      <c r="B84" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="1">
-        <v>0.64166666666666672</v>
-      </c>
-      <c r="D84">
-        <v>1290</v>
-      </c>
-      <c r="G84" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="E84">
+        <v>629</v>
+      </c>
+      <c r="F84" t="s">
+        <v>30</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0.63472222222222219</v>
+      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>15</v>
-      </c>
-      <c r="B85" t="s">
-        <v>18</v>
-      </c>
-      <c r="C85" s="1">
-        <v>0.65277777777777779</v>
-      </c>
-      <c r="D85">
-        <v>382</v>
-      </c>
-      <c r="G85" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="E85">
+        <v>1104</v>
+      </c>
+      <c r="F85" t="s">
+        <v>25</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0.63958333333333328</v>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>15</v>
-      </c>
-      <c r="C86" s="1"/>
-      <c r="E86">
-        <v>317</v>
-      </c>
-      <c r="F86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" s="1">
-        <v>0.65625</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.64166666666666672</v>
+      </c>
+      <c r="D86">
+        <v>1290</v>
+      </c>
+      <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>35</v>
-      </c>
-      <c r="C87" s="1"/>
-      <c r="E87">
-        <v>1032</v>
-      </c>
-      <c r="F87" t="s">
-        <v>42</v>
-      </c>
-      <c r="G87" s="1">
-        <v>0.66111111111111109</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D87">
+        <v>382</v>
+      </c>
+      <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C88" s="1"/>
       <c r="E88">
-        <v>7139</v>
+        <v>317</v>
       </c>
       <c r="F88" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G88" s="1">
-        <v>0.66527777777777775</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>15</v>
-      </c>
-      <c r="B89" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D89">
-        <v>367</v>
-      </c>
-      <c r="G89" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="E89">
+        <v>356</v>
+      </c>
+      <c r="F89" t="s">
+        <v>24</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0.65902777777777777</v>
+      </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>15</v>
-      </c>
-      <c r="B90" t="s">
-        <v>31</v>
-      </c>
-      <c r="C90" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D90">
-        <v>370</v>
-      </c>
-      <c r="G90" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="E90">
+        <v>7139</v>
+      </c>
+      <c r="F90" t="s">
+        <v>26</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0.66527777777777775</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C91" s="1">
-        <v>0.66736111111111107</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D91">
-        <v>4341</v>
+        <v>367</v>
       </c>
       <c r="G91" s="1"/>
     </row>
@@ -1941,163 +1959,163 @@
         <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C92" s="1">
-        <v>0.67361111111111116</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D92">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>15</v>
-      </c>
-      <c r="B93" t="s">
-        <v>25</v>
-      </c>
-      <c r="C93" s="1">
-        <v>0.68055555555555558</v>
-      </c>
-      <c r="D93">
-        <v>441</v>
-      </c>
-      <c r="G93" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="E93">
+        <v>1032</v>
+      </c>
+      <c r="F93" t="s">
+        <v>40</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0.66805555555555551</v>
+      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C94" s="1">
-        <v>0.68472222222222223</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="D94">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" s="1"/>
-      <c r="E95">
-        <v>4322</v>
-      </c>
-      <c r="F95" t="s">
-        <v>43</v>
-      </c>
-      <c r="G95" s="1">
-        <v>0.68611111111111112</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B95" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="D95">
+        <v>441</v>
+      </c>
+      <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C96" s="1">
-        <v>0.6875</v>
+        <v>0.68402777777777779</v>
       </c>
       <c r="D96">
-        <v>311</v>
+        <v>651</v>
       </c>
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C97" s="1">
-        <v>0.6875</v>
+        <v>0.68472222222222223</v>
       </c>
       <c r="D97">
-        <v>318</v>
+        <v>367</v>
       </c>
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>15</v>
-      </c>
-      <c r="B98" t="s">
-        <v>29</v>
-      </c>
-      <c r="C98" s="1">
-        <v>0.69097222222222221</v>
-      </c>
-      <c r="D98">
-        <v>423</v>
-      </c>
-      <c r="G98" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="E98">
+        <v>4328</v>
+      </c>
+      <c r="F98" t="s">
+        <v>41</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0.68611111111111112</v>
+      </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>15</v>
       </c>
       <c r="B99" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C99" s="1">
-        <v>0.69097222222222221</v>
+        <v>0.6875</v>
       </c>
       <c r="D99">
-        <v>555</v>
+        <v>311</v>
       </c>
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100" s="1"/>
-      <c r="E100">
-        <v>1130</v>
-      </c>
-      <c r="F100" t="s">
-        <v>8</v>
-      </c>
-      <c r="G100" s="1">
-        <v>0.69444444444444453</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B100" t="s">
+        <v>21</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="D100">
+        <v>618</v>
+      </c>
+      <c r="G100" s="1"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>7</v>
-      </c>
-      <c r="B101" t="s">
-        <v>13</v>
-      </c>
-      <c r="C101" s="1">
-        <v>0.69722222222222219</v>
-      </c>
-      <c r="D101">
-        <v>4327</v>
-      </c>
-      <c r="G101" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="E101">
+        <v>1130</v>
+      </c>
+      <c r="F101" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0.69444444444444453</v>
+      </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C102" s="1">
-        <v>0.70138888888888884</v>
+        <v>0.69722222222222219</v>
       </c>
       <c r="D102">
-        <v>322</v>
+        <v>4327</v>
       </c>
       <c r="G102" s="1"/>
     </row>
@@ -2105,20 +2123,20 @@
       <c r="A103" t="s">
         <v>15</v>
       </c>
-      <c r="C103" s="1"/>
-      <c r="E103">
-        <v>548</v>
-      </c>
-      <c r="F103" t="s">
-        <v>17</v>
-      </c>
-      <c r="G103" s="1">
-        <v>0.71875</v>
-      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D103">
+        <v>322</v>
+      </c>
+      <c r="G103" s="1"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B104" t="s">
         <v>17</v>
@@ -2137,10 +2155,10 @@
       </c>
       <c r="C105" s="1"/>
       <c r="E105">
-        <v>308</v>
+        <v>530</v>
       </c>
       <c r="F105" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="G105" s="1">
         <v>0.73263888888888884</v>
@@ -2152,10 +2170,10 @@
       </c>
       <c r="C106" s="1"/>
       <c r="E106">
-        <v>560</v>
+        <v>532</v>
       </c>
       <c r="F106" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G106" s="1">
         <v>0.73263888888888884</v>
@@ -2167,10 +2185,10 @@
       </c>
       <c r="C107" s="1"/>
       <c r="E107">
-        <v>617</v>
+        <v>550</v>
       </c>
       <c r="F107" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G107" s="1">
         <v>0.73263888888888884</v>
@@ -2182,10 +2200,10 @@
       </c>
       <c r="C108" s="1"/>
       <c r="E108">
-        <v>620</v>
+        <v>560</v>
       </c>
       <c r="F108" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G108" s="1">
         <v>0.73263888888888884</v>
@@ -2193,78 +2211,78 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C109" s="1"/>
       <c r="E109">
-        <v>366</v>
+        <v>620</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G109" s="1">
-        <v>0.74027777777777781</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>15</v>
-      </c>
-      <c r="C110" s="1"/>
-      <c r="E110">
-        <v>448</v>
-      </c>
-      <c r="F110" t="s">
-        <v>44</v>
-      </c>
-      <c r="G110" s="1">
-        <v>0.74305555555555558</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0.73472222222222228</v>
+      </c>
+      <c r="D110">
+        <v>4321</v>
+      </c>
+      <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C111" s="1"/>
       <c r="E111">
-        <v>534</v>
+        <v>366</v>
       </c>
       <c r="F111" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G111" s="1">
-        <v>0.74305555555555558</v>
+        <v>0.74027777777777781</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C112" s="1"/>
       <c r="E112">
-        <v>4308</v>
+        <v>534</v>
       </c>
       <c r="F112" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G112" s="1">
-        <v>0.74583333333333335</v>
+        <v>0.74305555555555558</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>15</v>
-      </c>
-      <c r="B113" t="s">
-        <v>21</v>
-      </c>
-      <c r="C113" s="1">
-        <v>0.74652777777777779</v>
-      </c>
-      <c r="D113">
-        <v>612</v>
-      </c>
-      <c r="G113" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="E113">
+        <v>4308</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0.74583333333333335</v>
+      </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -2283,18 +2301,18 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>15</v>
-      </c>
-      <c r="C115" s="1"/>
-      <c r="E115">
-        <v>566</v>
-      </c>
-      <c r="F115" t="s">
-        <v>23</v>
-      </c>
-      <c r="G115" s="1">
-        <v>0.77083333333333337</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B115" t="s">
+        <v>21</v>
+      </c>
+      <c r="C115" s="1">
+        <v>0.7631944444444444</v>
+      </c>
+      <c r="D115">
+        <v>4040</v>
+      </c>
+      <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
@@ -2316,7 +2334,7 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C117" s="1">
         <v>0.78125</v>
@@ -2328,16 +2346,16 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B118" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C118" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.78541666666666665</v>
       </c>
       <c r="D118">
-        <v>222</v>
+        <v>4158</v>
       </c>
       <c r="G118" s="1"/>
     </row>
@@ -2345,104 +2363,104 @@
       <c r="A119" t="s">
         <v>15</v>
       </c>
-      <c r="B119" t="s">
-        <v>32</v>
-      </c>
-      <c r="C119" s="1">
-        <v>0.79513888888888884</v>
-      </c>
-      <c r="D119">
-        <v>431</v>
-      </c>
-      <c r="G119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="E119">
+        <v>558</v>
+      </c>
+      <c r="F119" t="s">
+        <v>22</v>
+      </c>
+      <c r="G119" s="1">
+        <v>0.78819444444444442</v>
+      </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C120" s="1">
-        <v>0.80833333333333335</v>
+        <v>0.79027777777777775</v>
       </c>
       <c r="D120">
-        <v>348</v>
+        <v>4331</v>
       </c>
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>15</v>
-      </c>
-      <c r="C121" s="1"/>
-      <c r="E121">
-        <v>670</v>
-      </c>
-      <c r="F121" t="s">
-        <v>23</v>
-      </c>
-      <c r="G121" s="1">
-        <v>0.8125</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B121" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D121">
+        <v>222</v>
+      </c>
+      <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>15</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C122" s="1">
-        <v>0.81944444444444442</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="D122">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C123" s="1"/>
       <c r="E123">
-        <v>932</v>
+        <v>4041</v>
       </c>
       <c r="F123" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G123" s="1">
-        <v>0.82291666666666663</v>
+        <v>0.79513888888888884</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>15</v>
       </c>
-      <c r="B124" t="s">
-        <v>10</v>
-      </c>
-      <c r="C124" s="1">
-        <v>0.82638888888888884</v>
-      </c>
-      <c r="D124">
-        <v>523</v>
-      </c>
-      <c r="G124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="E124">
+        <v>670</v>
+      </c>
+      <c r="F124" t="s">
+        <v>23</v>
+      </c>
+      <c r="G124" s="1">
+        <v>0.8125</v>
+      </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>15</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C125" s="1">
-        <v>0.82986111111111116</v>
+        <v>0.81944444444444442</v>
       </c>
       <c r="D125">
-        <v>583</v>
+        <v>425</v>
       </c>
       <c r="G125" s="1"/>
     </row>
@@ -2451,13 +2469,13 @@
         <v>15</v>
       </c>
       <c r="B126" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C126" s="1">
-        <v>0.84375</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="D126">
-        <v>325</v>
+        <v>523</v>
       </c>
       <c r="G126" s="1"/>
     </row>
@@ -2466,13 +2484,13 @@
         <v>15</v>
       </c>
       <c r="B127" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C127" s="1">
-        <v>0.84375</v>
+        <v>0.82986111111111116</v>
       </c>
       <c r="D127">
-        <v>445</v>
+        <v>583</v>
       </c>
       <c r="G127" s="1"/>
     </row>
@@ -2480,89 +2498,89 @@
       <c r="A128" t="s">
         <v>15</v>
       </c>
-      <c r="C128" s="1"/>
-      <c r="E128">
-        <v>590</v>
-      </c>
-      <c r="F128" t="s">
-        <v>13</v>
-      </c>
-      <c r="G128" s="1">
-        <v>0.85069444444444442</v>
-      </c>
+      <c r="B128" t="s">
+        <v>48</v>
+      </c>
+      <c r="C128" s="1">
+        <v>0.83680555555555558</v>
+      </c>
+      <c r="D128">
+        <v>329</v>
+      </c>
+      <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>15</v>
       </c>
       <c r="B129" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C129" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.84375</v>
       </c>
       <c r="D129">
-        <v>393</v>
+        <v>325</v>
       </c>
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>15</v>
-      </c>
-      <c r="B130" t="s">
-        <v>44</v>
-      </c>
-      <c r="C130" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D130">
-        <v>449</v>
-      </c>
-      <c r="G130" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C130" s="1"/>
+      <c r="E130">
+        <v>4158</v>
+      </c>
+      <c r="F130" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="1">
+        <v>0.84791666666666665</v>
+      </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>14</v>
-      </c>
-      <c r="B131" t="s">
-        <v>12</v>
-      </c>
-      <c r="C131" s="1">
-        <v>0.85972222222222217</v>
-      </c>
-      <c r="D131">
-        <v>881</v>
-      </c>
-      <c r="G131" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C131" s="1"/>
+      <c r="E131">
+        <v>590</v>
+      </c>
+      <c r="F131" t="s">
+        <v>13</v>
+      </c>
+      <c r="G131" s="1">
+        <v>0.85069444444444442</v>
+      </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>33</v>
-      </c>
-      <c r="C132" s="1"/>
-      <c r="E132">
-        <v>352</v>
-      </c>
-      <c r="F132" t="s">
-        <v>24</v>
-      </c>
-      <c r="G132" s="1">
-        <v>0.86041666666666672</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B132" t="s">
+        <v>19</v>
+      </c>
+      <c r="C132" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D132">
+        <v>393</v>
+      </c>
+      <c r="G132" s="1"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B133" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C133" s="1">
-        <v>0.86805555555555558</v>
+        <v>0.85972222222222217</v>
       </c>
       <c r="D133">
-        <v>563</v>
+        <v>881</v>
       </c>
       <c r="G133" s="1"/>
     </row>
@@ -2571,13 +2589,13 @@
         <v>15</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C134" s="1">
-        <v>0.87152777777777779</v>
+        <v>0.86805555555555558</v>
       </c>
       <c r="D134">
-        <v>316</v>
+        <v>443</v>
       </c>
       <c r="G134" s="1"/>
     </row>
@@ -2586,88 +2604,88 @@
         <v>15</v>
       </c>
       <c r="B135" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C135" s="1">
-        <v>0.875</v>
+        <v>0.86805555555555558</v>
       </c>
       <c r="D135">
-        <v>535</v>
+        <v>563</v>
       </c>
       <c r="G135" s="1"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>46</v>
-      </c>
-      <c r="C136" s="1"/>
-      <c r="E136">
-        <v>222</v>
-      </c>
-      <c r="F136" t="s">
-        <v>47</v>
-      </c>
-      <c r="G136" s="1">
-        <v>0.875</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B136" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" s="1">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="D136">
+        <v>316</v>
+      </c>
+      <c r="G136" s="1"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>15</v>
       </c>
       <c r="B137" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C137" s="1">
-        <v>0.87847222222222221</v>
+        <v>0.875</v>
       </c>
       <c r="D137">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="G137" s="1"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>15</v>
-      </c>
-      <c r="B138" t="s">
-        <v>23</v>
-      </c>
-      <c r="C138" s="1">
-        <v>0.87847222222222221</v>
-      </c>
-      <c r="D138">
-        <v>565</v>
-      </c>
-      <c r="G138" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="C138" s="1"/>
+      <c r="E138">
+        <v>222</v>
+      </c>
+      <c r="F138" t="s">
+        <v>45</v>
+      </c>
+      <c r="G138" s="1">
+        <v>0.875</v>
+      </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>15</v>
       </c>
       <c r="B139" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C139" s="1">
         <v>0.87847222222222221</v>
       </c>
       <c r="D139">
-        <v>616</v>
+        <v>409</v>
       </c>
       <c r="G139" s="1"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C140" s="1">
-        <v>0.8881944444444444</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D140">
-        <v>1461</v>
+        <v>527</v>
       </c>
       <c r="G140" s="1"/>
     </row>
@@ -2676,75 +2694,75 @@
         <v>15</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C141" s="1">
-        <v>0.91319444444444442</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D141">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="G141" s="1"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>15</v>
-      </c>
-      <c r="C142" s="1"/>
-      <c r="E142">
-        <v>365</v>
-      </c>
-      <c r="F142" t="s">
-        <v>18</v>
-      </c>
-      <c r="G142" s="1">
-        <v>0.92013888888888884</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="1">
+        <v>0.8881944444444444</v>
+      </c>
+      <c r="D142">
+        <v>1461</v>
+      </c>
+      <c r="G142" s="1"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>15</v>
       </c>
-      <c r="C143" s="1"/>
-      <c r="E143">
-        <v>600</v>
-      </c>
-      <c r="F143" t="s">
-        <v>13</v>
-      </c>
-      <c r="G143" s="1">
-        <v>0.92013888888888884</v>
-      </c>
+      <c r="B143" t="s">
+        <v>21</v>
+      </c>
+      <c r="C143" s="1">
+        <v>0.89236111111111116</v>
+      </c>
+      <c r="D143">
+        <v>608</v>
+      </c>
+      <c r="G143" s="1"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>15</v>
       </c>
-      <c r="C144" s="1"/>
-      <c r="E144">
-        <v>429</v>
-      </c>
-      <c r="F144" t="s">
-        <v>20</v>
-      </c>
-      <c r="G144" s="1">
-        <v>0.92361111111111116</v>
-      </c>
+      <c r="B144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" s="1">
+        <v>0.91319444444444442</v>
+      </c>
+      <c r="D144">
+        <v>585</v>
+      </c>
+      <c r="G144" s="1"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>7</v>
-      </c>
-      <c r="B145" t="s">
-        <v>24</v>
-      </c>
-      <c r="C145" s="1">
-        <v>0.92986111111111114</v>
-      </c>
-      <c r="D145">
-        <v>4339</v>
-      </c>
-      <c r="G145" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C145" s="1"/>
+      <c r="E145">
+        <v>365</v>
+      </c>
+      <c r="F145" t="s">
+        <v>18</v>
+      </c>
+      <c r="G145" s="1">
+        <v>0.92013888888888884</v>
+      </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
@@ -2752,13 +2770,13 @@
       </c>
       <c r="C146" s="1"/>
       <c r="E146">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F146" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G146" s="1">
-        <v>0.93055555555555558</v>
+        <v>0.92013888888888884</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -2767,13 +2785,13 @@
       </c>
       <c r="C147" s="1"/>
       <c r="E147">
-        <v>627</v>
+        <v>429</v>
       </c>
       <c r="F147" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G147" s="1">
-        <v>0.93402777777777779</v>
+        <v>0.92361111111111116</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -2782,13 +2800,13 @@
       </c>
       <c r="C148" s="1"/>
       <c r="E148">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="F148" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G148" s="1">
-        <v>0.9375</v>
+        <v>0.93055555555555558</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -2797,13 +2815,13 @@
       </c>
       <c r="C149" s="1"/>
       <c r="E149">
-        <v>315</v>
+        <v>651</v>
       </c>
       <c r="F149" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G149" s="1">
-        <v>0.94097222222222221</v>
+        <v>0.93402777777777779</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -2812,29 +2830,29 @@
       </c>
       <c r="C150" s="1"/>
       <c r="E150">
-        <v>658</v>
+        <v>315</v>
       </c>
       <c r="F150" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G150" s="1">
-        <v>0.94444444444444442</v>
+        <v>0.94097222222222221</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>9</v>
-      </c>
-      <c r="B151" t="s">
-        <v>48</v>
-      </c>
-      <c r="C151" s="1">
-        <v>0.94930555555555562</v>
-      </c>
-      <c r="D151">
-        <v>1425</v>
-      </c>
-      <c r="G151" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C151" s="1"/>
+      <c r="E151">
+        <v>658</v>
+      </c>
+      <c r="F151" t="s">
+        <v>23</v>
+      </c>
+      <c r="G151" s="1">
+        <v>0.94444444444444442</v>
+      </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
@@ -2842,10 +2860,10 @@
       </c>
       <c r="C152" s="1"/>
       <c r="E152">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F152" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="G152" s="1">
         <v>0.95486111111111116</v>
@@ -2857,28 +2875,27 @@
       </c>
       <c r="C153" s="1"/>
       <c r="E153">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G153" s="1">
-        <v>0.95833333333333337</v>
+        <v>0.95486111111111116</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>7</v>
-      </c>
-      <c r="C154" s="1"/>
-      <c r="E154">
-        <v>4336</v>
-      </c>
-      <c r="F154" t="s">
-        <v>48</v>
-      </c>
-      <c r="G154" s="1">
-        <v>0.97152777777777777</v>
+        <v>14</v>
+      </c>
+      <c r="B154" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" s="1">
+        <v>0.98333333333333339</v>
+      </c>
+      <c r="D154">
+        <v>878</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -2890,7 +2907,7 @@
         <v>326</v>
       </c>
       <c r="F155" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G155" s="1">
         <v>0.97569444444444442</v>
@@ -2919,7 +2936,7 @@
         <v>339</v>
       </c>
       <c r="F157" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G157" s="1">
         <v>0.99583333333333324</v>

--- a/public/operaciones.xlsx
+++ b/public/operaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulm\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66767FBA-3579-4B02-835A-D1C5122275E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054C8757-41F8-4F6C-9B42-8BE94C6E9C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5D8B018B-6A98-4322-9D12-F37ABD5F314B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="49">
   <si>
     <t>AEROLINEA</t>
   </si>
@@ -149,15 +149,9 @@
     <t>KATL</t>
   </si>
   <si>
-    <t>FDX</t>
-  </si>
-  <si>
     <t>AMX</t>
   </si>
   <si>
-    <t>ARM</t>
-  </si>
-  <si>
     <t>KFLL</t>
   </si>
   <si>
@@ -167,9 +161,6 @@
     <t>MHPR</t>
   </si>
   <si>
-    <t>MHTG</t>
-  </si>
-  <si>
     <t>IBE</t>
   </si>
   <si>
@@ -182,25 +173,16 @@
     <t>KONT</t>
   </si>
   <si>
-    <t>CYUL</t>
-  </si>
-  <si>
-    <t>KLAS</t>
-  </si>
-  <si>
-    <t>KORD</t>
-  </si>
-  <si>
-    <t>MMUN</t>
-  </si>
-  <si>
     <t>TAG</t>
   </si>
   <si>
     <t>MHRO</t>
   </si>
   <si>
-    <t>VOC</t>
+    <t>KBOS</t>
+  </si>
+  <si>
+    <t>KMCO</t>
   </si>
 </sst>
 </file>
@@ -576,7 +558,7 @@
   <dimension ref="A1:G157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G154"/>
+      <selection sqref="A1:G152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +651,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1">
         <v>0.22222222222222221</v>
@@ -683,44 +665,44 @@
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="D7">
-        <v>575</v>
-      </c>
-      <c r="G7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="E7">
+        <v>556</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.22916666666666666</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.22569444444444445</v>
-      </c>
-      <c r="D8">
-        <v>533</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="E8">
+        <v>4350</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.22916666666666666</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1">
         <v>0.23472222222222222</v>
       </c>
       <c r="D9">
-        <v>4323</v>
+        <v>4329</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -774,13 +756,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1">
-        <v>0.24652777777777779</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="D13">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -789,13 +771,13 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1">
-        <v>0.25347222222222221</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D14">
-        <v>433</v>
+        <v>366</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -804,13 +786,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1">
-        <v>0.25694444444444442</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D15">
-        <v>579</v>
+        <v>529</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -819,58 +801,58 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="D16">
-        <v>366</v>
+        <v>314</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.26041666666666669</v>
-      </c>
-      <c r="D17">
-        <v>529</v>
-      </c>
-      <c r="G17" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="E17">
+        <v>4326</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.2638888888888889</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="E18">
-        <v>4326</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.2638888888888889</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="D18">
+        <v>428</v>
+      </c>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1">
         <v>0.2673611111111111</v>
       </c>
       <c r="D19">
-        <v>428</v>
+        <v>626</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -879,13 +861,13 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1">
-        <v>0.2673611111111111</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D20">
-        <v>650</v>
+        <v>561</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -894,13 +876,13 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C21" s="1">
         <v>0.27083333333333331</v>
       </c>
       <c r="D21">
-        <v>561</v>
+        <v>591</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -909,30 +891,30 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1">
         <v>0.27083333333333331</v>
       </c>
       <c r="D22">
-        <v>591</v>
+        <v>671</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D23">
-        <v>671</v>
-      </c>
-      <c r="G23" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="E23">
+        <v>4318</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.28611111111111109</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -966,17 +948,17 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1"/>
       <c r="E26">
-        <v>4330</v>
+        <v>321</v>
       </c>
       <c r="F26" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G26" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1011,17 +993,17 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1"/>
       <c r="E29">
-        <v>884</v>
+        <v>4338</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G29" s="1">
-        <v>0.3125</v>
+        <v>0.31527777777777777</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1045,10 +1027,10 @@
       </c>
       <c r="C31" s="1"/>
       <c r="E31">
-        <v>328</v>
+        <v>440</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G31" s="1">
         <v>0.31597222222222221</v>
@@ -1060,10 +1042,10 @@
       </c>
       <c r="C32" s="1"/>
       <c r="E32">
-        <v>440</v>
+        <v>536</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G32" s="1">
         <v>0.31597222222222221</v>
@@ -1075,10 +1057,10 @@
       </c>
       <c r="C33" s="1"/>
       <c r="E33">
-        <v>562</v>
+        <v>444</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="G33" s="1">
         <v>0.32291666666666669</v>
@@ -1088,16 +1070,16 @@
       <c r="A34" t="s">
         <v>15</v>
       </c>
-      <c r="B34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0.3298611111111111</v>
-      </c>
-      <c r="D34">
-        <v>549</v>
-      </c>
-      <c r="G34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="E34">
+        <v>562</v>
+      </c>
+      <c r="F34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -1155,7 +1137,7 @@
         <v>0.33680555555555558</v>
       </c>
       <c r="D38">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="G38" s="1"/>
     </row>
@@ -1180,10 +1162,10 @@
       </c>
       <c r="C40" s="1"/>
       <c r="E40">
-        <v>454</v>
+        <v>554</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="G40" s="1">
         <v>0.34027777777777779</v>
@@ -1195,59 +1177,59 @@
       </c>
       <c r="C41" s="1"/>
       <c r="E41">
-        <v>572</v>
+        <v>324</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G41" s="1">
-        <v>0.34027777777777779</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="E42">
-        <v>324</v>
-      </c>
-      <c r="F42" t="s">
-        <v>27</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0.34375</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.34722222222222221</v>
+      </c>
+      <c r="D42">
+        <v>4053</v>
+      </c>
+      <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0.37152777777777779</v>
-      </c>
-      <c r="D43">
-        <v>309</v>
-      </c>
-      <c r="G43" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="E43">
+        <v>884</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.35833333333333334</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="E44">
-        <v>526</v>
-      </c>
-      <c r="F44" t="s">
-        <v>49</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0.375</v>
-      </c>
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="D44">
+        <v>551</v>
+      </c>
+      <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -1255,74 +1237,74 @@
       </c>
       <c r="C45" s="1"/>
       <c r="E45">
-        <v>369</v>
+        <v>422</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G45" s="1">
-        <v>0.37847222222222221</v>
+        <v>0.36458333333333331</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="E46">
-        <v>430</v>
-      </c>
-      <c r="F46" t="s">
-        <v>30</v>
-      </c>
-      <c r="G46" s="1">
-        <v>0.37847222222222221</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="D46">
+        <v>916</v>
+      </c>
+      <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="E47">
-        <v>582</v>
-      </c>
-      <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="1">
-        <v>0.39930555555555558</v>
-      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.37847222222222221</v>
+      </c>
+      <c r="D47">
+        <v>559</v>
+      </c>
+      <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0.40277777777777773</v>
-      </c>
-      <c r="D48">
-        <v>741</v>
-      </c>
-      <c r="G48" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="E48">
+        <v>369</v>
+      </c>
+      <c r="F48" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.37847222222222221</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>15</v>
       </c>
-      <c r="B49" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="1">
-        <v>0.41319444444444442</v>
-      </c>
-      <c r="D49">
-        <v>659</v>
-      </c>
-      <c r="G49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="E49">
+        <v>430</v>
+      </c>
+      <c r="F49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.37847222222222221</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -1330,13 +1312,13 @@
       </c>
       <c r="C50" s="1"/>
       <c r="E50">
-        <v>392</v>
+        <v>524</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G50" s="1">
-        <v>0.41319444444444442</v>
+        <v>0.38194444444444442</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1345,117 +1327,117 @@
       </c>
       <c r="C51" s="1"/>
       <c r="E51">
-        <v>408</v>
+        <v>582</v>
       </c>
       <c r="F51" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="G51" s="1">
-        <v>0.41666666666666669</v>
+        <v>0.39930555555555558</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C52" s="1"/>
       <c r="E52">
-        <v>609</v>
+        <v>4053</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G52" s="1">
-        <v>0.4236111111111111</v>
+        <v>0.40972222222222221</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="E53">
-        <v>4320</v>
-      </c>
-      <c r="F53" t="s">
-        <v>8</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0.4236111111111111</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="D53">
+        <v>659</v>
+      </c>
+      <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>31</v>
-      </c>
-      <c r="B54" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="D54">
-        <v>342</v>
-      </c>
-      <c r="G54" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="E54">
+        <v>392</v>
+      </c>
+      <c r="F54" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.41319444444444442</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>15</v>
       </c>
-      <c r="B55" t="s">
-        <v>42</v>
-      </c>
-      <c r="C55" s="1">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="D55">
-        <v>455</v>
-      </c>
-      <c r="G55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="E55">
+        <v>611</v>
+      </c>
+      <c r="F55" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.4236111111111111</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C56" s="1">
-        <v>0.4513888888888889</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D56">
-        <v>327</v>
+        <v>537</v>
       </c>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="E57">
+        <v>916</v>
+      </c>
+      <c r="F57" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="1">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="D57">
-        <v>573</v>
-      </c>
-      <c r="G57" s="1"/>
+      <c r="G57" s="1">
+        <v>0.42708333333333331</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B58" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C58" s="1">
-        <v>0.45347222222222222</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="D58">
-        <v>4337</v>
+        <v>342</v>
       </c>
       <c r="G58" s="1"/>
     </row>
@@ -1464,45 +1446,45 @@
         <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C59" s="1">
-        <v>0.46180555555555558</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="D59">
-        <v>70</v>
+        <v>320</v>
       </c>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>32</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="E60">
-        <v>740</v>
-      </c>
-      <c r="F60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" s="1">
-        <v>0.46527777777777773</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="D60">
+        <v>70</v>
+      </c>
+      <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="E61">
-        <v>584</v>
-      </c>
-      <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="1">
-        <v>0.49305555555555558</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D61">
+        <v>771</v>
+      </c>
+      <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -1510,10 +1492,10 @@
       </c>
       <c r="C62" s="1"/>
       <c r="E62">
-        <v>650</v>
+        <v>584</v>
       </c>
       <c r="F62" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="G62" s="1">
         <v>0.49305555555555558</v>
@@ -1555,10 +1537,10 @@
       </c>
       <c r="C65" s="1"/>
       <c r="E65">
-        <v>442</v>
+        <v>71</v>
       </c>
       <c r="F65" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G65" s="1">
         <v>0.50347222222222221</v>
@@ -1570,100 +1552,100 @@
       </c>
       <c r="C66" s="1"/>
       <c r="E66">
-        <v>71</v>
+        <v>319</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G66" s="1">
-        <v>0.50347222222222221</v>
+        <v>0.51041666666666663</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" s="1"/>
-      <c r="E67">
-        <v>619</v>
-      </c>
-      <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" s="1">
-        <v>0.51041666666666663</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="D67">
+        <v>339</v>
+      </c>
+      <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B68" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C68" s="1">
-        <v>0.52152777777777781</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="D68">
-        <v>339</v>
+        <v>420</v>
       </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C69" s="1">
-        <v>0.52777777777777779</v>
+        <v>0.52847222222222223</v>
       </c>
       <c r="D69">
-        <v>420</v>
+        <v>816</v>
       </c>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C70" s="1">
-        <v>0.52847222222222223</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="D70">
-        <v>816</v>
+        <v>1910</v>
       </c>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>35</v>
-      </c>
-      <c r="B71" t="s">
-        <v>36</v>
-      </c>
-      <c r="C71" s="1">
+        <v>32</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="E71">
+        <v>770</v>
+      </c>
+      <c r="F71" t="s">
+        <v>24</v>
+      </c>
+      <c r="G71" s="1">
         <v>0.54861111111111105</v>
       </c>
-      <c r="D71">
-        <v>1910</v>
-      </c>
-      <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C72" s="1"/>
       <c r="E72">
         <v>421</v>
       </c>
       <c r="F72" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G72" s="1">
         <v>0.55208333333333337</v>
@@ -1704,59 +1686,59 @@
         <v>37</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C75" s="1">
-        <v>0.56666666666666665</v>
+        <v>0.58263888888888882</v>
       </c>
       <c r="D75">
-        <v>8139</v>
+        <v>628</v>
       </c>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>38</v>
-      </c>
-      <c r="B76" t="s">
-        <v>30</v>
-      </c>
-      <c r="C76" s="1">
-        <v>0.58263888888888882</v>
-      </c>
-      <c r="D76">
-        <v>628</v>
-      </c>
-      <c r="G76" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="E76">
+        <v>871</v>
+      </c>
+      <c r="F76" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.58611111111111114</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>39</v>
-      </c>
-      <c r="C77" s="1"/>
-      <c r="E77">
-        <v>4</v>
-      </c>
-      <c r="F77" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" s="1">
-        <v>0.58333333333333337</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B77" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="D77">
+        <v>1035</v>
+      </c>
+      <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C78" s="1"/>
       <c r="E78">
-        <v>871</v>
+        <v>1978</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G78" s="1">
-        <v>0.58611111111111114</v>
+        <v>0.60763888888888895</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -1764,118 +1746,118 @@
         <v>34</v>
       </c>
       <c r="B79" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C79" s="1">
-        <v>0.59791666666666665</v>
+        <v>0.61736111111111114</v>
       </c>
       <c r="D79">
-        <v>1035</v>
+        <v>3151</v>
       </c>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C80" s="1"/>
       <c r="E80">
-        <v>1978</v>
+        <v>1468</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="G80" s="1">
-        <v>0.60763888888888895</v>
+        <v>0.61805555555555558</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B81" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C81" s="1">
-        <v>0.61736111111111114</v>
+        <v>0.61944444444444446</v>
       </c>
       <c r="D81">
-        <v>3151</v>
+        <v>1031</v>
       </c>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>9</v>
-      </c>
-      <c r="C82" s="1"/>
-      <c r="E82">
-        <v>1468</v>
-      </c>
-      <c r="F82" t="s">
-        <v>8</v>
-      </c>
-      <c r="G82" s="1">
-        <v>0.61805555555555558</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="D82">
+        <v>4319</v>
+      </c>
+      <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>33</v>
-      </c>
-      <c r="B83" t="s">
-        <v>40</v>
-      </c>
-      <c r="C83" s="1">
-        <v>0.61944444444444446</v>
-      </c>
-      <c r="D83">
-        <v>1031</v>
-      </c>
-      <c r="G83" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="E83">
+        <v>629</v>
+      </c>
+      <c r="F83" t="s">
+        <v>30</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0.63472222222222219</v>
+      </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C84" s="1"/>
       <c r="E84">
-        <v>629</v>
+        <v>1104</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G84" s="1">
-        <v>0.63472222222222219</v>
+        <v>0.63958333333333328</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>34</v>
-      </c>
-      <c r="C85" s="1"/>
-      <c r="E85">
-        <v>1104</v>
-      </c>
-      <c r="F85" t="s">
-        <v>25</v>
-      </c>
-      <c r="G85" s="1">
-        <v>0.63958333333333328</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0.64166666666666672</v>
+      </c>
+      <c r="D85">
+        <v>1290</v>
+      </c>
+      <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C86" s="1">
-        <v>0.64166666666666672</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="D86">
-        <v>1290</v>
+        <v>382</v>
       </c>
       <c r="G86" s="1"/>
     </row>
@@ -1883,239 +1865,239 @@
       <c r="A87" t="s">
         <v>15</v>
       </c>
-      <c r="B87" t="s">
-        <v>18</v>
-      </c>
-      <c r="C87" s="1">
-        <v>0.65277777777777779</v>
-      </c>
-      <c r="D87">
-        <v>382</v>
-      </c>
-      <c r="G87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="E87">
+        <v>317</v>
+      </c>
+      <c r="F87" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0.65625</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C88" s="1"/>
       <c r="E88">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G88" s="1">
-        <v>0.65625</v>
+        <v>0.65902777777777777</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>34</v>
-      </c>
-      <c r="C89" s="1"/>
-      <c r="E89">
-        <v>356</v>
-      </c>
-      <c r="F89" t="s">
-        <v>24</v>
-      </c>
-      <c r="G89" s="1">
-        <v>0.65902777777777777</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D89">
+        <v>367</v>
+      </c>
+      <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>37</v>
-      </c>
-      <c r="C90" s="1"/>
-      <c r="E90">
-        <v>7139</v>
-      </c>
-      <c r="F90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G90" s="1">
-        <v>0.66527777777777775</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B90" t="s">
+        <v>29</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D90">
+        <v>370</v>
+      </c>
+      <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>15</v>
-      </c>
-      <c r="B91" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D91">
-        <v>367</v>
-      </c>
-      <c r="G91" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="E91">
+        <v>1032</v>
+      </c>
+      <c r="F91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0.66805555555555551</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C92" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="D92">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>33</v>
-      </c>
-      <c r="C93" s="1"/>
-      <c r="E93">
-        <v>1032</v>
-      </c>
-      <c r="F93" t="s">
-        <v>40</v>
-      </c>
-      <c r="G93" s="1">
-        <v>0.66805555555555551</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B93" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="D93">
+        <v>441</v>
+      </c>
+      <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B94" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C94" s="1">
-        <v>0.67361111111111116</v>
+        <v>0.68472222222222223</v>
       </c>
       <c r="D94">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>15</v>
-      </c>
-      <c r="B95" t="s">
-        <v>25</v>
-      </c>
-      <c r="C95" s="1">
-        <v>0.68055555555555558</v>
-      </c>
-      <c r="D95">
-        <v>441</v>
-      </c>
-      <c r="G95" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="E95">
+        <v>4322</v>
+      </c>
+      <c r="F95" t="s">
+        <v>39</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0.68611111111111112</v>
+      </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C96" s="1">
-        <v>0.68402777777777779</v>
+        <v>0.6875</v>
       </c>
       <c r="D96">
-        <v>651</v>
+        <v>311</v>
       </c>
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C97" s="1">
-        <v>0.68472222222222223</v>
+        <v>0.6875</v>
       </c>
       <c r="D97">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" s="1"/>
-      <c r="E98">
-        <v>4328</v>
-      </c>
-      <c r="F98" t="s">
-        <v>41</v>
-      </c>
-      <c r="G98" s="1">
-        <v>0.68611111111111112</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B98" t="s">
+        <v>48</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="D98">
+        <v>423</v>
+      </c>
+      <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>15</v>
       </c>
       <c r="B99" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C99" s="1">
-        <v>0.6875</v>
+        <v>0.69097222222222221</v>
       </c>
       <c r="D99">
-        <v>311</v>
+        <v>555</v>
       </c>
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>15</v>
-      </c>
-      <c r="B100" t="s">
-        <v>21</v>
-      </c>
-      <c r="C100" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="D100">
-        <v>618</v>
-      </c>
-      <c r="G100" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="E100">
+        <v>1130</v>
+      </c>
+      <c r="F100" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0.69444444444444453</v>
+      </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" s="1"/>
-      <c r="E101">
-        <v>1130</v>
-      </c>
-      <c r="F101" t="s">
-        <v>8</v>
-      </c>
-      <c r="G101" s="1">
-        <v>0.69444444444444453</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B101" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0.69722222222222219</v>
+      </c>
+      <c r="D101">
+        <v>4327</v>
+      </c>
+      <c r="G101" s="1"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C102" s="1">
-        <v>0.69722222222222219</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="D102">
-        <v>4327</v>
+        <v>322</v>
       </c>
       <c r="G102" s="1"/>
     </row>
@@ -2123,31 +2105,31 @@
       <c r="A103" t="s">
         <v>15</v>
       </c>
-      <c r="B103" t="s">
-        <v>12</v>
-      </c>
-      <c r="C103" s="1">
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="D103">
-        <v>322</v>
-      </c>
-      <c r="G103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="E103">
+        <v>548</v>
+      </c>
+      <c r="F103" t="s">
+        <v>17</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0.71875</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>39</v>
-      </c>
-      <c r="B104" t="s">
-        <v>17</v>
-      </c>
-      <c r="C104" s="1">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D104">
-        <v>4</v>
-      </c>
-      <c r="G104" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="E104">
+        <v>530</v>
+      </c>
+      <c r="F104" t="s">
+        <v>44</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
@@ -2155,10 +2137,10 @@
       </c>
       <c r="C105" s="1"/>
       <c r="E105">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="F105" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="G105" s="1">
         <v>0.73263888888888884</v>
@@ -2170,10 +2152,10 @@
       </c>
       <c r="C106" s="1"/>
       <c r="E106">
-        <v>532</v>
+        <v>617</v>
       </c>
       <c r="F106" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G106" s="1">
         <v>0.73263888888888884</v>
@@ -2185,10 +2167,10 @@
       </c>
       <c r="C107" s="1"/>
       <c r="E107">
-        <v>550</v>
+        <v>620</v>
       </c>
       <c r="F107" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G107" s="1">
         <v>0.73263888888888884</v>
@@ -2196,92 +2178,92 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>15</v>
-      </c>
-      <c r="C108" s="1"/>
-      <c r="E108">
-        <v>560</v>
-      </c>
-      <c r="F108" t="s">
-        <v>22</v>
-      </c>
-      <c r="G108" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B108" t="s">
+        <v>21</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="D108">
+        <v>4351</v>
+      </c>
+      <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C109" s="1"/>
       <c r="E109">
-        <v>620</v>
+        <v>366</v>
       </c>
       <c r="F109" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G109" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.74027777777777781</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>7</v>
-      </c>
-      <c r="B110" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" s="1">
-        <v>0.73472222222222228</v>
-      </c>
-      <c r="D110">
-        <v>4321</v>
-      </c>
-      <c r="G110" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="E110">
+        <v>448</v>
+      </c>
+      <c r="F110" t="s">
+        <v>40</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0.74305555555555558</v>
+      </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C111" s="1"/>
       <c r="E111">
-        <v>366</v>
+        <v>534</v>
       </c>
       <c r="F111" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G111" s="1">
-        <v>0.74027777777777781</v>
+        <v>0.74305555555555558</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C112" s="1"/>
       <c r="E112">
-        <v>534</v>
+        <v>4308</v>
       </c>
       <c r="F112" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G112" s="1">
-        <v>0.74305555555555558</v>
+        <v>0.74583333333333335</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C113" s="1"/>
       <c r="E113">
-        <v>4308</v>
+        <v>528</v>
       </c>
       <c r="F113" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="1">
-        <v>0.74583333333333335</v>
+        <v>0.76041666666666663</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -2290,72 +2272,72 @@
       </c>
       <c r="C114" s="1"/>
       <c r="E114">
-        <v>528</v>
+        <v>566</v>
       </c>
       <c r="F114" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G114" s="1">
-        <v>0.76041666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>54</v>
-      </c>
-      <c r="B115" t="s">
-        <v>21</v>
-      </c>
-      <c r="C115" s="1">
-        <v>0.7631944444444444</v>
-      </c>
-      <c r="D115">
-        <v>4040</v>
-      </c>
-      <c r="G115" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="E115">
+        <v>4312</v>
+      </c>
+      <c r="F115" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" s="1">
+        <v>0.77638888888888891</v>
+      </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" s="1"/>
-      <c r="E116">
-        <v>4312</v>
-      </c>
-      <c r="F116" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116" s="1">
-        <v>0.77638888888888891</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B116" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D116">
+        <v>222</v>
+      </c>
+      <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B117" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C117" s="1">
-        <v>0.78125</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="D117">
-        <v>931</v>
+        <v>431</v>
       </c>
       <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B118" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C118" s="1">
-        <v>0.78541666666666665</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="D118">
-        <v>4158</v>
+        <v>565</v>
       </c>
       <c r="G118" s="1"/>
     </row>
@@ -2365,42 +2347,42 @@
       </c>
       <c r="C119" s="1"/>
       <c r="E119">
-        <v>558</v>
+        <v>670</v>
       </c>
       <c r="F119" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G119" s="1">
-        <v>0.78819444444444442</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B120" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C120" s="1">
-        <v>0.79027777777777775</v>
+        <v>0.81944444444444442</v>
       </c>
       <c r="D120">
-        <v>4331</v>
+        <v>425</v>
       </c>
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B121" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C121" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="D121">
-        <v>222</v>
+        <v>523</v>
       </c>
       <c r="G121" s="1"/>
     </row>
@@ -2409,73 +2391,73 @@
         <v>15</v>
       </c>
       <c r="B122" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C122" s="1">
-        <v>0.79513888888888884</v>
+        <v>0.82986111111111116</v>
       </c>
       <c r="D122">
-        <v>431</v>
+        <v>583</v>
       </c>
       <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>54</v>
-      </c>
-      <c r="C123" s="1"/>
-      <c r="E123">
-        <v>4041</v>
-      </c>
-      <c r="F123" t="s">
-        <v>21</v>
-      </c>
-      <c r="G123" s="1">
-        <v>0.79513888888888884</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B123" t="s">
+        <v>27</v>
+      </c>
+      <c r="C123" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="D123">
+        <v>325</v>
+      </c>
+      <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>15</v>
       </c>
-      <c r="C124" s="1"/>
-      <c r="E124">
-        <v>670</v>
-      </c>
-      <c r="F124" t="s">
-        <v>23</v>
-      </c>
-      <c r="G124" s="1">
-        <v>0.8125</v>
-      </c>
+      <c r="B124" t="s">
+        <v>47</v>
+      </c>
+      <c r="C124" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="D124">
+        <v>445</v>
+      </c>
+      <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>15</v>
       </c>
-      <c r="B125" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" s="1">
-        <v>0.81944444444444442</v>
-      </c>
-      <c r="D125">
-        <v>425</v>
-      </c>
-      <c r="G125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="E125">
+        <v>590</v>
+      </c>
+      <c r="F125" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125" s="1">
+        <v>0.85069444444444442</v>
+      </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>15</v>
       </c>
       <c r="B126" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C126" s="1">
-        <v>0.82638888888888884</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D126">
-        <v>523</v>
+        <v>393</v>
       </c>
       <c r="G126" s="1"/>
     </row>
@@ -2484,28 +2466,28 @@
         <v>15</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C127" s="1">
-        <v>0.82986111111111116</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D127">
-        <v>583</v>
+        <v>449</v>
       </c>
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B128" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C128" s="1">
-        <v>0.83680555555555558</v>
+        <v>0.85972222222222217</v>
       </c>
       <c r="D128">
-        <v>329</v>
+        <v>881</v>
       </c>
       <c r="G128" s="1"/>
     </row>
@@ -2514,73 +2496,73 @@
         <v>15</v>
       </c>
       <c r="B129" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C129" s="1">
-        <v>0.84375</v>
+        <v>0.86805555555555558</v>
       </c>
       <c r="D129">
-        <v>325</v>
+        <v>563</v>
       </c>
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>28</v>
-      </c>
-      <c r="C130" s="1"/>
-      <c r="E130">
-        <v>4158</v>
-      </c>
-      <c r="F130" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="1">
-        <v>0.84791666666666665</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B130" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" s="1">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="D130">
+        <v>316</v>
+      </c>
+      <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>15</v>
       </c>
-      <c r="C131" s="1"/>
-      <c r="E131">
-        <v>590</v>
-      </c>
-      <c r="F131" t="s">
-        <v>13</v>
-      </c>
-      <c r="G131" s="1">
-        <v>0.85069444444444442</v>
-      </c>
+      <c r="B131" t="s">
+        <v>26</v>
+      </c>
+      <c r="C131" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="D131">
+        <v>535</v>
+      </c>
+      <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>15</v>
-      </c>
-      <c r="B132" t="s">
-        <v>19</v>
-      </c>
-      <c r="C132" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D132">
-        <v>393</v>
-      </c>
-      <c r="G132" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C132" s="1"/>
+      <c r="E132">
+        <v>222</v>
+      </c>
+      <c r="F132" t="s">
+        <v>42</v>
+      </c>
+      <c r="G132" s="1">
+        <v>0.875</v>
+      </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C133" s="1">
-        <v>0.85972222222222217</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D133">
-        <v>881</v>
+        <v>525</v>
       </c>
       <c r="G133" s="1"/>
     </row>
@@ -2589,13 +2571,13 @@
         <v>15</v>
       </c>
       <c r="B134" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C134" s="1">
-        <v>0.86805555555555558</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D134">
-        <v>443</v>
+        <v>557</v>
       </c>
       <c r="G134" s="1"/>
     </row>
@@ -2604,28 +2586,28 @@
         <v>15</v>
       </c>
       <c r="B135" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C135" s="1">
-        <v>0.86805555555555558</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D135">
-        <v>563</v>
+        <v>616</v>
       </c>
       <c r="G135" s="1"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C136" s="1">
-        <v>0.87152777777777779</v>
+        <v>0.8881944444444444</v>
       </c>
       <c r="D136">
-        <v>316</v>
+        <v>1461</v>
       </c>
       <c r="G136" s="1"/>
     </row>
@@ -2634,120 +2616,120 @@
         <v>15</v>
       </c>
       <c r="B137" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C137" s="1">
-        <v>0.875</v>
+        <v>0.91319444444444442</v>
       </c>
       <c r="D137">
-        <v>535</v>
+        <v>585</v>
       </c>
       <c r="G137" s="1"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C138" s="1"/>
       <c r="E138">
-        <v>222</v>
+        <v>365</v>
       </c>
       <c r="F138" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G138" s="1">
-        <v>0.875</v>
+        <v>0.92013888888888884</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>15</v>
       </c>
-      <c r="B139" t="s">
-        <v>50</v>
-      </c>
-      <c r="C139" s="1">
-        <v>0.87847222222222221</v>
-      </c>
-      <c r="D139">
-        <v>409</v>
-      </c>
-      <c r="G139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="E139">
+        <v>600</v>
+      </c>
+      <c r="F139" t="s">
+        <v>13</v>
+      </c>
+      <c r="G139" s="1">
+        <v>0.92013888888888884</v>
+      </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>15</v>
       </c>
-      <c r="B140" t="s">
-        <v>49</v>
-      </c>
-      <c r="C140" s="1">
-        <v>0.87847222222222221</v>
-      </c>
-      <c r="D140">
-        <v>527</v>
-      </c>
-      <c r="G140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="E140">
+        <v>429</v>
+      </c>
+      <c r="F140" t="s">
+        <v>20</v>
+      </c>
+      <c r="G140" s="1">
+        <v>0.92361111111111116</v>
+      </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B141" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C141" s="1">
-        <v>0.87847222222222221</v>
+        <v>0.92986111111111114</v>
       </c>
       <c r="D141">
-        <v>565</v>
+        <v>4339</v>
       </c>
       <c r="G141" s="1"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>9</v>
-      </c>
-      <c r="B142" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="1">
-        <v>0.8881944444444444</v>
-      </c>
-      <c r="D142">
-        <v>1461</v>
-      </c>
-      <c r="G142" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C142" s="1"/>
+      <c r="E142">
+        <v>578</v>
+      </c>
+      <c r="F142" t="s">
+        <v>17</v>
+      </c>
+      <c r="G142" s="1">
+        <v>0.93055555555555558</v>
+      </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>15</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" s="1"/>
+      <c r="E143">
+        <v>627</v>
+      </c>
+      <c r="F143" t="s">
         <v>21</v>
       </c>
-      <c r="C143" s="1">
-        <v>0.89236111111111116</v>
-      </c>
-      <c r="D143">
-        <v>608</v>
-      </c>
-      <c r="G143" s="1"/>
+      <c r="G143" s="1">
+        <v>0.93402777777777779</v>
+      </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>15</v>
       </c>
-      <c r="B144" t="s">
-        <v>13</v>
-      </c>
-      <c r="C144" s="1">
-        <v>0.91319444444444442</v>
-      </c>
-      <c r="D144">
-        <v>585</v>
-      </c>
-      <c r="G144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="E144">
+        <v>315</v>
+      </c>
+      <c r="F144" t="s">
+        <v>19</v>
+      </c>
+      <c r="G144" s="1">
+        <v>0.94097222222222221</v>
+      </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
@@ -2755,29 +2737,29 @@
       </c>
       <c r="C145" s="1"/>
       <c r="E145">
-        <v>365</v>
+        <v>658</v>
       </c>
       <c r="F145" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G145" s="1">
-        <v>0.92013888888888884</v>
+        <v>0.94444444444444442</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>15</v>
-      </c>
-      <c r="C146" s="1"/>
-      <c r="E146">
-        <v>580</v>
-      </c>
-      <c r="F146" t="s">
-        <v>13</v>
-      </c>
-      <c r="G146" s="1">
-        <v>0.92013888888888884</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B146" t="s">
+        <v>43</v>
+      </c>
+      <c r="C146" s="1">
+        <v>0.94930555555555562</v>
+      </c>
+      <c r="D146">
+        <v>1425</v>
+      </c>
+      <c r="G146" s="1"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
@@ -2785,13 +2767,13 @@
       </c>
       <c r="C147" s="1"/>
       <c r="E147">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="F147" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G147" s="1">
-        <v>0.92361111111111116</v>
+        <v>0.95486111111111116</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -2800,13 +2782,13 @@
       </c>
       <c r="C148" s="1"/>
       <c r="E148">
-        <v>578</v>
+        <v>457</v>
       </c>
       <c r="F148" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G148" s="1">
-        <v>0.93055555555555558</v>
+        <v>0.95486111111111116</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -2815,13 +2797,13 @@
       </c>
       <c r="C149" s="1"/>
       <c r="E149">
-        <v>651</v>
+        <v>432</v>
       </c>
       <c r="F149" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G149" s="1">
-        <v>0.93402777777777779</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -2830,43 +2812,42 @@
       </c>
       <c r="C150" s="1"/>
       <c r="E150">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="F150" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G150" s="1">
-        <v>0.94097222222222221</v>
+        <v>0.97569444444444442</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>15</v>
-      </c>
-      <c r="C151" s="1"/>
-      <c r="E151">
-        <v>658</v>
-      </c>
-      <c r="F151" t="s">
-        <v>23</v>
-      </c>
-      <c r="G151" s="1">
-        <v>0.94444444444444442</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B151" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" s="1">
+        <v>0.98333333333333339</v>
+      </c>
+      <c r="D151">
+        <v>878</v>
+      </c>
+      <c r="G151" s="1"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>15</v>
-      </c>
-      <c r="C152" s="1"/>
+        <v>9</v>
+      </c>
       <c r="E152">
-        <v>452</v>
+        <v>339</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G152" s="1">
-        <v>0.95486111111111116</v>
+        <v>0.99583333333333324</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -2936,7 +2917,7 @@
         <v>339</v>
       </c>
       <c r="F157" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G157" s="1">
         <v>0.99583333333333324</v>

--- a/public/operaciones.xlsx
+++ b/public/operaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulm\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054C8757-41F8-4F6C-9B42-8BE94C6E9C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BB37EC-F113-40D1-BFA9-5FBB3864065A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5D8B018B-6A98-4322-9D12-F37ABD5F314B}"/>
   </bookViews>
@@ -170,19 +170,19 @@
     <t>KEWR</t>
   </si>
   <si>
-    <t>KONT</t>
-  </si>
-  <si>
-    <t>TAG</t>
-  </si>
-  <si>
-    <t>MHRO</t>
-  </si>
-  <si>
     <t>KBOS</t>
   </si>
   <si>
     <t>KMCO</t>
+  </si>
+  <si>
+    <t>FDX</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>MHTG</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
   <dimension ref="A1:G157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G152"/>
+      <selection sqref="A1:G150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,151 +588,151 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="E2">
-        <v>1670</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.125</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="D2">
+        <v>4156</v>
+      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.15972222222222224</v>
-      </c>
-      <c r="D3">
-        <v>222</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="E3">
+        <v>1670</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1">
-        <v>0.20972222222222223</v>
+        <v>0.15972222222222224</v>
       </c>
       <c r="D4">
-        <v>4313</v>
+        <v>222</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="E5">
-        <v>879</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.21041666666666667</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.20972222222222223</v>
+      </c>
+      <c r="D5">
+        <v>4313</v>
+      </c>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="D6">
-        <v>531</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="E6">
+        <v>879</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.21041666666666667</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="E7">
-        <v>556</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.22916666666666666</v>
-      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D7">
+        <v>575</v>
+      </c>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="E8">
-        <v>4350</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.22916666666666666</v>
-      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.23541666666666666</v>
+      </c>
+      <c r="D8">
+        <v>4309</v>
+      </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
-        <v>0.23472222222222222</v>
+        <v>0.23958333333333334</v>
       </c>
       <c r="D9">
-        <v>4329</v>
+        <v>1266</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1">
-        <v>0.23541666666666666</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="D10">
-        <v>4309</v>
+        <v>579</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1">
-        <v>0.23958333333333334</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D11">
-        <v>1266</v>
+        <v>366</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -741,13 +741,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1">
-        <v>0.24652777777777779</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D12">
-        <v>456</v>
+        <v>529</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -756,43 +756,43 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1">
-        <v>0.25694444444444442</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="D13">
-        <v>579</v>
+        <v>314</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.26041666666666669</v>
-      </c>
-      <c r="D14">
-        <v>366</v>
-      </c>
-      <c r="G14" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="E14">
+        <v>4326</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.2638888888888889</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D15">
-        <v>529</v>
+        <v>428</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -801,43 +801,43 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1">
-        <v>0.2638888888888889</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D16">
-        <v>314</v>
+        <v>626</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="E17">
-        <v>4326</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.2638888888888889</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D17">
+        <v>561</v>
+      </c>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C18" s="1">
-        <v>0.2673611111111111</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D18">
-        <v>428</v>
+        <v>591</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -846,105 +846,105 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1">
-        <v>0.2673611111111111</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D19">
-        <v>626</v>
+        <v>671</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D20">
-        <v>561</v>
-      </c>
-      <c r="G20" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="E20">
+        <v>4318</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.28611111111111109</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D21">
-        <v>591</v>
-      </c>
-      <c r="G21" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="E21">
+        <v>1467</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.28819444444444448</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C22" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="D22">
-        <v>671</v>
+        <v>621</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1"/>
       <c r="E23">
-        <v>4318</v>
+        <v>323</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G23" s="1">
-        <v>0.28611111111111109</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C24" s="1"/>
       <c r="E24">
-        <v>1467</v>
+        <v>396</v>
       </c>
       <c r="F24" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G24" s="1">
-        <v>0.28819444444444448</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="D25">
-        <v>621</v>
-      </c>
-      <c r="G25" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="E25">
+        <v>4338</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.31527777777777777</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -952,13 +952,13 @@
       </c>
       <c r="C26" s="1"/>
       <c r="E26">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G26" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -967,13 +967,13 @@
       </c>
       <c r="C27" s="1"/>
       <c r="E27">
-        <v>323</v>
+        <v>440</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G27" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -982,28 +982,28 @@
       </c>
       <c r="C28" s="1"/>
       <c r="E28">
-        <v>396</v>
+        <v>536</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G28" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C29" s="1"/>
       <c r="E29">
-        <v>4338</v>
+        <v>444</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="G29" s="1">
-        <v>0.31527777777777777</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1012,13 +1012,13 @@
       </c>
       <c r="C30" s="1"/>
       <c r="E30">
-        <v>310</v>
+        <v>562</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G30" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1027,13 +1027,13 @@
       </c>
       <c r="C31" s="1"/>
       <c r="E31">
-        <v>440</v>
+        <v>368</v>
       </c>
       <c r="F31" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G31" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1042,13 +1042,13 @@
       </c>
       <c r="C32" s="1"/>
       <c r="E32">
-        <v>536</v>
+        <v>383</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G32" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1057,29 +1057,29 @@
       </c>
       <c r="C33" s="1"/>
       <c r="E33">
-        <v>444</v>
+        <v>522</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="G33" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="E34">
-        <v>562</v>
-      </c>
-      <c r="F34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0.32291666666666669</v>
-      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="D34">
+        <v>581</v>
+      </c>
+      <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -1087,13 +1087,13 @@
       </c>
       <c r="C35" s="1"/>
       <c r="E35">
-        <v>368</v>
+        <v>564</v>
       </c>
       <c r="F35" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G35" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.33680555555555558</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1102,13 +1102,13 @@
       </c>
       <c r="C36" s="1"/>
       <c r="E36">
-        <v>383</v>
+        <v>554</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G36" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1117,44 +1117,44 @@
       </c>
       <c r="C37" s="1"/>
       <c r="E37">
-        <v>522</v>
+        <v>324</v>
       </c>
       <c r="F37" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G37" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0.33680555555555558</v>
-      </c>
-      <c r="D38">
-        <v>581</v>
-      </c>
-      <c r="G38" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="E38">
+        <v>884</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.35833333333333334</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="E39">
-        <v>564</v>
-      </c>
-      <c r="F39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0.33680555555555558</v>
-      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="D39">
+        <v>551</v>
+      </c>
+      <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1162,74 +1162,74 @@
       </c>
       <c r="C40" s="1"/>
       <c r="E40">
-        <v>554</v>
+        <v>422</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="G40" s="1">
-        <v>0.34027777777777779</v>
+        <v>0.36458333333333331</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="E41">
-        <v>324</v>
-      </c>
-      <c r="F41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0.34375</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="D41">
+        <v>4053</v>
+      </c>
+      <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C42" s="1">
-        <v>0.34722222222222221</v>
+        <v>0.37847222222222221</v>
       </c>
       <c r="D42">
-        <v>4053</v>
+        <v>559</v>
       </c>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C43" s="1"/>
       <c r="E43">
-        <v>884</v>
+        <v>369</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G43" s="1">
-        <v>0.35833333333333334</v>
+        <v>0.37847222222222221</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>15</v>
       </c>
-      <c r="B44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="D44">
-        <v>551</v>
-      </c>
-      <c r="G44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="E44">
+        <v>430</v>
+      </c>
+      <c r="F44" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.37847222222222221</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="C45" s="1"/>
       <c r="E45">
-        <v>422</v>
+        <v>524</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="G45" s="1">
-        <v>0.36458333333333331</v>
+        <v>0.38194444444444442</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="D46">
-        <v>916</v>
-      </c>
-      <c r="G46" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="E46">
+        <v>582</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.39930555555555558</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C47" s="1">
-        <v>0.37847222222222221</v>
+        <v>0.41319444444444442</v>
       </c>
       <c r="D47">
-        <v>559</v>
+        <v>659</v>
       </c>
       <c r="G47" s="1"/>
     </row>
@@ -1282,29 +1282,29 @@
       </c>
       <c r="C48" s="1"/>
       <c r="E48">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G48" s="1">
-        <v>0.37847222222222221</v>
+        <v>0.41319444444444442</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="E49">
-        <v>430</v>
-      </c>
-      <c r="F49" t="s">
-        <v>30</v>
-      </c>
-      <c r="G49" s="1">
-        <v>0.37847222222222221</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="D49">
+        <v>731</v>
+      </c>
+      <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -1312,29 +1312,29 @@
       </c>
       <c r="C50" s="1"/>
       <c r="E50">
-        <v>524</v>
+        <v>613</v>
       </c>
       <c r="F50" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G50" s="1">
-        <v>0.38194444444444442</v>
+        <v>0.4236111111111111</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="E51">
-        <v>582</v>
-      </c>
-      <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="1">
-        <v>0.39930555555555558</v>
-      </c>
+      <c r="B51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D51">
+        <v>537</v>
+      </c>
+      <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -1345,114 +1345,114 @@
         <v>4053</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G52" s="1">
-        <v>0.40972222222222221</v>
+        <v>0.43055555555555558</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C53" s="1">
-        <v>0.41319444444444442</v>
+        <v>0.43611111111111112</v>
       </c>
       <c r="D53">
-        <v>659</v>
+        <v>255</v>
       </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C54" s="1"/>
       <c r="E54">
-        <v>392</v>
+        <v>8110</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G54" s="1">
-        <v>0.41319444444444442</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="1"/>
-      <c r="E55">
-        <v>611</v>
-      </c>
-      <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" s="1">
-        <v>0.4236111111111111</v>
-      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="D55">
+        <v>70</v>
+      </c>
+      <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" t="s">
-        <v>26</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="D56">
-        <v>537</v>
-      </c>
-      <c r="G56" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="E56">
+        <v>256</v>
+      </c>
+      <c r="F56" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.47430555555555554</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C57" s="1"/>
       <c r="E57">
-        <v>916</v>
+        <v>730</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G57" s="1">
-        <v>0.42708333333333331</v>
+        <v>0.4861111111111111</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>31</v>
-      </c>
-      <c r="B58" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="D58">
-        <v>342</v>
-      </c>
-      <c r="G58" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="E58">
+        <v>584</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.49305555555555558</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C59" s="1">
-        <v>0.4513888888888889</v>
+        <v>0.5</v>
       </c>
       <c r="D59">
-        <v>320</v>
+        <v>916</v>
       </c>
       <c r="G59" s="1"/>
     </row>
@@ -1460,31 +1460,31 @@
       <c r="A60" t="s">
         <v>15</v>
       </c>
-      <c r="B60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0.46180555555555558</v>
-      </c>
-      <c r="D60">
-        <v>70</v>
-      </c>
-      <c r="G60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="E60">
+        <v>424</v>
+      </c>
+      <c r="F60" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>32</v>
-      </c>
-      <c r="B61" t="s">
-        <v>24</v>
-      </c>
-      <c r="C61" s="1">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="D61">
-        <v>771</v>
-      </c>
-      <c r="G61" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="E61">
+        <v>71</v>
+      </c>
+      <c r="F61" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -1492,372 +1492,372 @@
       </c>
       <c r="C62" s="1"/>
       <c r="E62">
-        <v>584</v>
+        <v>319</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G62" s="1">
-        <v>0.49305555555555558</v>
+        <v>0.51041666666666663</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" s="1"/>
-      <c r="E63">
-        <v>343</v>
-      </c>
-      <c r="F63" t="s">
-        <v>25</v>
-      </c>
-      <c r="G63" s="1">
-        <v>0.49652777777777779</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="D63">
+        <v>339</v>
+      </c>
+      <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C64" s="1"/>
       <c r="E64">
-        <v>424</v>
+        <v>4340</v>
       </c>
       <c r="F64" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G64" s="1">
-        <v>0.50347222222222221</v>
+        <v>0.52569444444444446</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" s="1"/>
-      <c r="E65">
-        <v>71</v>
-      </c>
-      <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="D65">
+        <v>816</v>
+      </c>
+      <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66" s="1"/>
-      <c r="E66">
-        <v>319</v>
-      </c>
-      <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" s="1">
-        <v>0.51041666666666663</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B66" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="D66">
+        <v>1910</v>
+      </c>
+      <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>34</v>
-      </c>
-      <c r="B67" t="s">
-        <v>24</v>
-      </c>
-      <c r="C67" s="1">
-        <v>0.52152777777777781</v>
-      </c>
-      <c r="D67">
-        <v>339</v>
-      </c>
-      <c r="G67" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="E67">
+        <v>916</v>
+      </c>
+      <c r="F67" t="s">
+        <v>26</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0.55208333333333337</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="C68" s="1">
-        <v>0.52777777777777779</v>
+        <v>0.55486111111111114</v>
       </c>
       <c r="D68">
-        <v>420</v>
+        <v>1441</v>
       </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C69" s="1">
-        <v>0.52847222222222223</v>
+        <v>0.56319444444444444</v>
       </c>
       <c r="D69">
-        <v>816</v>
+        <v>219</v>
       </c>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>35</v>
-      </c>
-      <c r="B70" t="s">
-        <v>36</v>
-      </c>
-      <c r="C70" s="1">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="D70">
-        <v>1910</v>
-      </c>
-      <c r="G70" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="E70">
+        <v>348</v>
+      </c>
+      <c r="F70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.56319444444444444</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>32</v>
-      </c>
-      <c r="C71" s="1"/>
-      <c r="E71">
-        <v>770</v>
-      </c>
-      <c r="F71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G71" s="1">
-        <v>0.54861111111111105</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B71" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="D71">
+        <v>8139</v>
+      </c>
+      <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>45</v>
-      </c>
-      <c r="C72" s="1"/>
-      <c r="E72">
-        <v>421</v>
-      </c>
-      <c r="F72" t="s">
-        <v>46</v>
-      </c>
-      <c r="G72" s="1">
-        <v>0.55208333333333337</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0.5805555555555556</v>
+      </c>
+      <c r="D72">
+        <v>628</v>
+      </c>
+      <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>9</v>
-      </c>
-      <c r="B73" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="1">
-        <v>0.55486111111111114</v>
-      </c>
-      <c r="D73">
-        <v>1441</v>
-      </c>
-      <c r="G73" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.58333333333333337</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C74" s="1"/>
       <c r="E74">
-        <v>348</v>
+        <v>871</v>
       </c>
       <c r="F74" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G74" s="1">
-        <v>0.56319444444444444</v>
+        <v>0.58611111111111114</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B75" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C75" s="1">
-        <v>0.58263888888888882</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="D75">
-        <v>628</v>
+        <v>1035</v>
       </c>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C76" s="1"/>
       <c r="E76">
-        <v>871</v>
+        <v>1978</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G76" s="1">
-        <v>0.58611111111111114</v>
+        <v>0.60763888888888895</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>34</v>
-      </c>
-      <c r="B77" t="s">
-        <v>25</v>
-      </c>
-      <c r="C77" s="1">
-        <v>0.59791666666666665</v>
-      </c>
-      <c r="D77">
-        <v>1035</v>
-      </c>
-      <c r="G77" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="E77">
+        <v>1468</v>
+      </c>
+      <c r="F77" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.61805555555555558</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C78" s="1"/>
       <c r="E78">
-        <v>1978</v>
+        <v>218</v>
       </c>
       <c r="F78" t="s">
         <v>36</v>
       </c>
       <c r="G78" s="1">
-        <v>0.60763888888888895</v>
+        <v>0.61944444444444446</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C79" s="1">
-        <v>0.61736111111111114</v>
+        <v>0.62222222222222223</v>
       </c>
       <c r="D79">
-        <v>3151</v>
+        <v>4319</v>
       </c>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C80" s="1"/>
       <c r="E80">
-        <v>1468</v>
+        <v>629</v>
       </c>
       <c r="F80" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="G80" s="1">
-        <v>0.61805555555555558</v>
+        <v>0.63055555555555554</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>33</v>
-      </c>
-      <c r="B81" t="s">
-        <v>38</v>
-      </c>
-      <c r="C81" s="1">
-        <v>0.61944444444444446</v>
-      </c>
-      <c r="D81">
-        <v>1031</v>
-      </c>
-      <c r="G81" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="E81">
+        <v>1104</v>
+      </c>
+      <c r="F81" t="s">
+        <v>25</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0.63958333333333328</v>
+      </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C82" s="1">
-        <v>0.62222222222222223</v>
+        <v>0.64166666666666672</v>
       </c>
       <c r="D82">
-        <v>4319</v>
+        <v>1290</v>
       </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>37</v>
-      </c>
-      <c r="C83" s="1"/>
-      <c r="E83">
-        <v>629</v>
-      </c>
-      <c r="F83" t="s">
-        <v>30</v>
-      </c>
-      <c r="G83" s="1">
-        <v>0.63472222222222219</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D83">
+        <v>382</v>
+      </c>
+      <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C84" s="1"/>
       <c r="E84">
-        <v>1104</v>
+        <v>317</v>
       </c>
       <c r="F84" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G84" s="1">
-        <v>0.63958333333333328</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>9</v>
-      </c>
-      <c r="B85" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="1">
-        <v>0.64166666666666672</v>
-      </c>
-      <c r="D85">
-        <v>1290</v>
-      </c>
-      <c r="G85" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="E85">
+        <v>7139</v>
+      </c>
+      <c r="F85" t="s">
+        <v>26</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0.66527777777777775</v>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C86" s="1">
-        <v>0.65277777777777779</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D86">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="G86" s="1"/>
     </row>
@@ -1865,44 +1865,44 @@
       <c r="A87" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="1"/>
-      <c r="E87">
-        <v>317</v>
-      </c>
-      <c r="F87" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" s="1">
-        <v>0.65625</v>
-      </c>
+      <c r="B87" t="s">
+        <v>29</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D87">
+        <v>370</v>
+      </c>
+      <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>34</v>
-      </c>
-      <c r="C88" s="1"/>
-      <c r="E88">
-        <v>356</v>
-      </c>
-      <c r="F88" t="s">
-        <v>24</v>
-      </c>
-      <c r="G88" s="1">
-        <v>0.65902777777777777</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B88" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0.66736111111111107</v>
+      </c>
+      <c r="D88">
+        <v>4341</v>
+      </c>
+      <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C89" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="D89">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="G89" s="1"/>
     </row>
@@ -1911,29 +1911,29 @@
         <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C90" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.68055555555555558</v>
       </c>
       <c r="D90">
-        <v>370</v>
+        <v>441</v>
       </c>
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C91" s="1"/>
       <c r="E91">
-        <v>1032</v>
+        <v>4322</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G91" s="1">
-        <v>0.66805555555555551</v>
+        <v>0.68611111111111112</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -1941,13 +1941,13 @@
         <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C92" s="1">
-        <v>0.67361111111111116</v>
+        <v>0.6875</v>
       </c>
       <c r="D92">
-        <v>397</v>
+        <v>311</v>
       </c>
       <c r="G92" s="1"/>
     </row>
@@ -1956,73 +1956,73 @@
         <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C93" s="1">
-        <v>0.68055555555555558</v>
+        <v>0.6875</v>
       </c>
       <c r="D93">
-        <v>441</v>
+        <v>318</v>
       </c>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C94" s="1">
-        <v>0.68472222222222223</v>
+        <v>0.69097222222222221</v>
       </c>
       <c r="D94">
-        <v>367</v>
+        <v>423</v>
       </c>
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" s="1"/>
-      <c r="E95">
-        <v>4322</v>
-      </c>
-      <c r="F95" t="s">
-        <v>39</v>
-      </c>
-      <c r="G95" s="1">
-        <v>0.68611111111111112</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B95" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="D95">
+        <v>555</v>
+      </c>
+      <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>15</v>
-      </c>
-      <c r="B96" t="s">
-        <v>24</v>
-      </c>
-      <c r="C96" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="D96">
-        <v>311</v>
-      </c>
-      <c r="G96" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="E96">
+        <v>1130</v>
+      </c>
+      <c r="F96" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0.69444444444444453</v>
+      </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B97" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C97" s="1">
-        <v>0.6875</v>
+        <v>0.69722222222222219</v>
       </c>
       <c r="D97">
-        <v>318</v>
+        <v>4327</v>
       </c>
       <c r="G97" s="1"/>
     </row>
@@ -2031,13 +2031,13 @@
         <v>15</v>
       </c>
       <c r="B98" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C98" s="1">
-        <v>0.69097222222222221</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="D98">
-        <v>423</v>
+        <v>322</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -2045,61 +2045,61 @@
       <c r="A99" t="s">
         <v>15</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" s="1"/>
+      <c r="E99">
+        <v>548</v>
+      </c>
+      <c r="F99" t="s">
         <v>17</v>
       </c>
-      <c r="C99" s="1">
-        <v>0.69097222222222221</v>
-      </c>
-      <c r="D99">
-        <v>555</v>
-      </c>
-      <c r="G99" s="1"/>
+      <c r="G99" s="1">
+        <v>0.71875</v>
+      </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100" s="1"/>
-      <c r="E100">
-        <v>1130</v>
-      </c>
-      <c r="F100" t="s">
-        <v>8</v>
-      </c>
-      <c r="G100" s="1">
-        <v>0.69444444444444453</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B100" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D100">
+        <v>4</v>
+      </c>
+      <c r="G100" s="1"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>7</v>
-      </c>
-      <c r="B101" t="s">
-        <v>13</v>
-      </c>
-      <c r="C101" s="1">
-        <v>0.69722222222222219</v>
-      </c>
-      <c r="D101">
-        <v>4327</v>
-      </c>
-      <c r="G101" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="E101">
+        <v>308</v>
+      </c>
+      <c r="F101" t="s">
+        <v>24</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>15</v>
       </c>
-      <c r="B102" t="s">
-        <v>12</v>
-      </c>
-      <c r="C102" s="1">
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="D102">
-        <v>322</v>
-      </c>
-      <c r="G102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="E102">
+        <v>560</v>
+      </c>
+      <c r="F102" t="s">
+        <v>22</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
@@ -2107,13 +2107,13 @@
       </c>
       <c r="C103" s="1"/>
       <c r="E103">
-        <v>548</v>
+        <v>617</v>
       </c>
       <c r="F103" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G103" s="1">
-        <v>0.71875</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -2122,10 +2122,10 @@
       </c>
       <c r="C104" s="1"/>
       <c r="E104">
-        <v>530</v>
+        <v>620</v>
       </c>
       <c r="F104" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G104" s="1">
         <v>0.73263888888888884</v>
@@ -2137,13 +2137,13 @@
       </c>
       <c r="C105" s="1"/>
       <c r="E105">
-        <v>560</v>
+        <v>448</v>
       </c>
       <c r="F105" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G105" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.74305555555555558</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -2152,58 +2152,58 @@
       </c>
       <c r="C106" s="1"/>
       <c r="E106">
-        <v>617</v>
+        <v>534</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G106" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.74305555555555558</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C107" s="1"/>
       <c r="E107">
-        <v>620</v>
+        <v>4308</v>
       </c>
       <c r="F107" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.74583333333333335</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B108" t="s">
         <v>21</v>
       </c>
       <c r="C108" s="1">
-        <v>0.73333333333333328</v>
+        <v>0.74652777777777779</v>
       </c>
       <c r="D108">
-        <v>4351</v>
+        <v>612</v>
       </c>
       <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C109" s="1"/>
       <c r="E109">
-        <v>366</v>
+        <v>528</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G109" s="1">
-        <v>0.74027777777777781</v>
+        <v>0.76041666666666663</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -2212,132 +2212,132 @@
       </c>
       <c r="C110" s="1"/>
       <c r="E110">
-        <v>448</v>
+        <v>566</v>
       </c>
       <c r="F110" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="G110" s="1">
-        <v>0.74305555555555558</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C111" s="1"/>
       <c r="E111">
-        <v>534</v>
+        <v>4312</v>
       </c>
       <c r="F111" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G111" s="1">
-        <v>0.74305555555555558</v>
+        <v>0.77638888888888891</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" s="1"/>
-      <c r="E112">
-        <v>4308</v>
-      </c>
-      <c r="F112" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="1">
-        <v>0.74583333333333335</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B112" t="s">
+        <v>48</v>
+      </c>
+      <c r="C112" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="D112">
+        <v>931</v>
+      </c>
+      <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>15</v>
-      </c>
-      <c r="C113" s="1"/>
-      <c r="E113">
-        <v>528</v>
-      </c>
-      <c r="F113" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="1">
-        <v>0.76041666666666663</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D113">
+        <v>222</v>
+      </c>
+      <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>15</v>
       </c>
-      <c r="C114" s="1"/>
-      <c r="E114">
-        <v>566</v>
-      </c>
-      <c r="F114" t="s">
-        <v>23</v>
-      </c>
-      <c r="G114" s="1">
-        <v>0.77083333333333337</v>
-      </c>
+      <c r="B114" t="s">
+        <v>30</v>
+      </c>
+      <c r="C114" s="1">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="D114">
+        <v>431</v>
+      </c>
+      <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C115" s="1"/>
       <c r="E115">
-        <v>4312</v>
+        <v>670</v>
       </c>
       <c r="F115" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G115" s="1">
-        <v>0.77638888888888891</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B116" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C116" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.81944444444444442</v>
       </c>
       <c r="D116">
-        <v>222</v>
+        <v>425</v>
       </c>
       <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>15</v>
-      </c>
-      <c r="B117" t="s">
-        <v>30</v>
-      </c>
-      <c r="C117" s="1">
-        <v>0.79513888888888884</v>
-      </c>
-      <c r="D117">
-        <v>431</v>
-      </c>
-      <c r="G117" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="E117">
+        <v>932</v>
+      </c>
+      <c r="F117" t="s">
+        <v>17</v>
+      </c>
+      <c r="G117" s="1">
+        <v>0.82291666666666663</v>
+      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>15</v>
       </c>
       <c r="B118" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C118" s="1">
-        <v>0.79513888888888884</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="D118">
-        <v>565</v>
+        <v>523</v>
       </c>
       <c r="G118" s="1"/>
     </row>
@@ -2345,29 +2345,29 @@
       <c r="A119" t="s">
         <v>15</v>
       </c>
-      <c r="C119" s="1"/>
-      <c r="E119">
-        <v>670</v>
-      </c>
-      <c r="F119" t="s">
-        <v>23</v>
-      </c>
-      <c r="G119" s="1">
-        <v>0.8125</v>
-      </c>
+      <c r="B119" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" s="1">
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="D119">
+        <v>583</v>
+      </c>
+      <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>15</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C120" s="1">
-        <v>0.81944444444444442</v>
+        <v>0.84375</v>
       </c>
       <c r="D120">
-        <v>425</v>
+        <v>325</v>
       </c>
       <c r="G120" s="1"/>
     </row>
@@ -2376,13 +2376,13 @@
         <v>15</v>
       </c>
       <c r="B121" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C121" s="1">
-        <v>0.82638888888888884</v>
+        <v>0.84375</v>
       </c>
       <c r="D121">
-        <v>523</v>
+        <v>445</v>
       </c>
       <c r="G121" s="1"/>
     </row>
@@ -2390,29 +2390,29 @@
       <c r="A122" t="s">
         <v>15</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" s="1"/>
+      <c r="E122">
+        <v>590</v>
+      </c>
+      <c r="F122" t="s">
         <v>13</v>
       </c>
-      <c r="C122" s="1">
-        <v>0.82986111111111116</v>
-      </c>
-      <c r="D122">
-        <v>583</v>
-      </c>
-      <c r="G122" s="1"/>
+      <c r="G122" s="1">
+        <v>0.85069444444444442</v>
+      </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>15</v>
       </c>
       <c r="B123" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C123" s="1">
-        <v>0.84375</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D123">
-        <v>325</v>
+        <v>393</v>
       </c>
       <c r="G123" s="1"/>
     </row>
@@ -2421,43 +2421,43 @@
         <v>15</v>
       </c>
       <c r="B124" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C124" s="1">
-        <v>0.84375</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D124">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>15</v>
-      </c>
-      <c r="C125" s="1"/>
-      <c r="E125">
-        <v>590</v>
-      </c>
-      <c r="F125" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" s="1">
-        <v>0.85069444444444442</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" s="1">
+        <v>0.85972222222222217</v>
+      </c>
+      <c r="D125">
+        <v>881</v>
+      </c>
+      <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>15</v>
       </c>
       <c r="B126" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C126" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.86805555555555558</v>
       </c>
       <c r="D126">
-        <v>393</v>
+        <v>563</v>
       </c>
       <c r="G126" s="1"/>
     </row>
@@ -2466,58 +2466,58 @@
         <v>15</v>
       </c>
       <c r="B127" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C127" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.87152777777777779</v>
       </c>
       <c r="D127">
-        <v>449</v>
+        <v>316</v>
       </c>
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B128" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C128" s="1">
-        <v>0.85972222222222217</v>
+        <v>0.875</v>
       </c>
       <c r="D128">
-        <v>881</v>
+        <v>535</v>
       </c>
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>15</v>
-      </c>
-      <c r="B129" t="s">
-        <v>22</v>
-      </c>
-      <c r="C129" s="1">
-        <v>0.86805555555555558</v>
-      </c>
-      <c r="D129">
-        <v>563</v>
-      </c>
-      <c r="G129" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C129" s="1"/>
+      <c r="E129">
+        <v>222</v>
+      </c>
+      <c r="F129" t="s">
+        <v>42</v>
+      </c>
+      <c r="G129" s="1">
+        <v>0.875</v>
+      </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>15</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C130" s="1">
-        <v>0.87152777777777779</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D130">
-        <v>316</v>
+        <v>525</v>
       </c>
       <c r="G130" s="1"/>
     </row>
@@ -2526,43 +2526,43 @@
         <v>15</v>
       </c>
       <c r="B131" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C131" s="1">
-        <v>0.875</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D131">
-        <v>535</v>
+        <v>565</v>
       </c>
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>41</v>
-      </c>
-      <c r="C132" s="1"/>
-      <c r="E132">
-        <v>222</v>
-      </c>
-      <c r="F132" t="s">
-        <v>42</v>
-      </c>
-      <c r="G132" s="1">
-        <v>0.875</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B132" t="s">
+        <v>21</v>
+      </c>
+      <c r="C132" s="1">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="D132">
+        <v>616</v>
+      </c>
+      <c r="G132" s="1"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B133" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C133" s="1">
-        <v>0.87847222222222221</v>
+        <v>0.8881944444444444</v>
       </c>
       <c r="D133">
-        <v>525</v>
+        <v>1461</v>
       </c>
       <c r="G133" s="1"/>
     </row>
@@ -2571,13 +2571,13 @@
         <v>15</v>
       </c>
       <c r="B134" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C134" s="1">
-        <v>0.87847222222222221</v>
+        <v>0.91319444444444442</v>
       </c>
       <c r="D134">
-        <v>557</v>
+        <v>585</v>
       </c>
       <c r="G134" s="1"/>
     </row>
@@ -2585,61 +2585,61 @@
       <c r="A135" t="s">
         <v>15</v>
       </c>
-      <c r="B135" t="s">
-        <v>21</v>
-      </c>
-      <c r="C135" s="1">
-        <v>0.87847222222222221</v>
-      </c>
-      <c r="D135">
-        <v>616</v>
-      </c>
-      <c r="G135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="E135">
+        <v>365</v>
+      </c>
+      <c r="F135" t="s">
+        <v>18</v>
+      </c>
+      <c r="G135" s="1">
+        <v>0.92013888888888884</v>
+      </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>9</v>
-      </c>
-      <c r="B136" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" s="1">
-        <v>0.8881944444444444</v>
-      </c>
-      <c r="D136">
-        <v>1461</v>
-      </c>
-      <c r="G136" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C136" s="1"/>
+      <c r="E136">
+        <v>600</v>
+      </c>
+      <c r="F136" t="s">
+        <v>13</v>
+      </c>
+      <c r="G136" s="1">
+        <v>0.92013888888888884</v>
+      </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>15</v>
       </c>
-      <c r="B137" t="s">
-        <v>13</v>
-      </c>
-      <c r="C137" s="1">
-        <v>0.91319444444444442</v>
-      </c>
-      <c r="D137">
-        <v>585</v>
-      </c>
-      <c r="G137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="E137">
+        <v>429</v>
+      </c>
+      <c r="F137" t="s">
+        <v>20</v>
+      </c>
+      <c r="G137" s="1">
+        <v>0.92361111111111116</v>
+      </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>15</v>
-      </c>
-      <c r="C138" s="1"/>
-      <c r="E138">
-        <v>365</v>
-      </c>
-      <c r="F138" t="s">
-        <v>18</v>
-      </c>
-      <c r="G138" s="1">
-        <v>0.92013888888888884</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B138" t="s">
+        <v>24</v>
+      </c>
+      <c r="C138" s="1">
+        <v>0.92986111111111114</v>
+      </c>
+      <c r="D138">
+        <v>4339</v>
+      </c>
+      <c r="G138" s="1"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
@@ -2647,13 +2647,13 @@
       </c>
       <c r="C139" s="1"/>
       <c r="E139">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="F139" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G139" s="1">
-        <v>0.92013888888888884</v>
+        <v>0.93055555555555558</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -2662,29 +2662,29 @@
       </c>
       <c r="C140" s="1"/>
       <c r="E140">
-        <v>429</v>
+        <v>627</v>
       </c>
       <c r="F140" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G140" s="1">
-        <v>0.92361111111111116</v>
+        <v>0.93402777777777779</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>7</v>
-      </c>
-      <c r="B141" t="s">
-        <v>24</v>
-      </c>
-      <c r="C141" s="1">
-        <v>0.92986111111111114</v>
-      </c>
-      <c r="D141">
-        <v>4339</v>
-      </c>
-      <c r="G141" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C141" s="1"/>
+      <c r="E141">
+        <v>574</v>
+      </c>
+      <c r="F141" t="s">
+        <v>26</v>
+      </c>
+      <c r="G141" s="1">
+        <v>0.9375</v>
+      </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
@@ -2692,13 +2692,13 @@
       </c>
       <c r="C142" s="1"/>
       <c r="E142">
-        <v>578</v>
+        <v>315</v>
       </c>
       <c r="F142" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G142" s="1">
-        <v>0.93055555555555558</v>
+        <v>0.94097222222222221</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C143" s="1"/>
       <c r="E143">
-        <v>627</v>
+        <v>658</v>
       </c>
       <c r="F143" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G143" s="1">
-        <v>0.93402777777777779</v>
+        <v>0.94444444444444442</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>15</v>
-      </c>
-      <c r="C144" s="1"/>
-      <c r="E144">
-        <v>315</v>
-      </c>
-      <c r="F144" t="s">
-        <v>19</v>
-      </c>
-      <c r="G144" s="1">
-        <v>0.94097222222222221</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B144" t="s">
+        <v>43</v>
+      </c>
+      <c r="C144" s="1">
+        <v>0.94930555555555562</v>
+      </c>
+      <c r="D144">
+        <v>1425</v>
+      </c>
+      <c r="G144" s="1"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
@@ -2737,43 +2737,43 @@
       </c>
       <c r="C145" s="1"/>
       <c r="E145">
-        <v>658</v>
+        <v>457</v>
       </c>
       <c r="F145" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G145" s="1">
-        <v>0.94444444444444442</v>
+        <v>0.95486111111111116</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>9</v>
-      </c>
-      <c r="B146" t="s">
-        <v>43</v>
-      </c>
-      <c r="C146" s="1">
-        <v>0.94930555555555562</v>
-      </c>
-      <c r="D146">
-        <v>1425</v>
-      </c>
-      <c r="G146" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C146" s="1"/>
+      <c r="E146">
+        <v>432</v>
+      </c>
+      <c r="F146" t="s">
+        <v>30</v>
+      </c>
+      <c r="G146" s="1">
+        <v>0.95833333333333337</v>
+      </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C147" s="1"/>
       <c r="E147">
-        <v>452</v>
+        <v>4336</v>
       </c>
       <c r="F147" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G147" s="1">
-        <v>0.95486111111111116</v>
+        <v>0.97152777777777777</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -2782,43 +2782,42 @@
       </c>
       <c r="C148" s="1"/>
       <c r="E148">
-        <v>457</v>
+        <v>326</v>
       </c>
       <c r="F148" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G148" s="1">
-        <v>0.95486111111111116</v>
+        <v>0.97569444444444442</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>15</v>
-      </c>
-      <c r="C149" s="1"/>
-      <c r="E149">
-        <v>432</v>
-      </c>
-      <c r="F149" t="s">
-        <v>30</v>
-      </c>
-      <c r="G149" s="1">
-        <v>0.95833333333333337</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B149" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" s="1">
+        <v>0.98333333333333339</v>
+      </c>
+      <c r="D149">
+        <v>878</v>
+      </c>
+      <c r="G149" s="1"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>15</v>
-      </c>
-      <c r="C150" s="1"/>
+        <v>9</v>
+      </c>
       <c r="E150">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="F150" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="G150" s="1">
-        <v>0.97569444444444442</v>
+        <v>0.99583333333333324</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">

--- a/public/operaciones.xlsx
+++ b/public/operaciones.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulm\Desktop\Itinerarios_2026-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B22B38A9-50D4-4A34-91A5-69809424BA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45320908-7468-4A1E-8701-508153BCEFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{707B3229-4A17-4CA3-AF85-73CFAE837ACD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1863F7A7-95FE-4C8B-AE25-738BA9109D24}"/>
   </bookViews>
   <sheets>
-    <sheet name="22-01" sheetId="1" r:id="rId1"/>
+    <sheet name="23-01" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="49">
   <si>
     <t>AEROLINEA</t>
   </si>
@@ -68,136 +68,121 @@
     <t>AVA</t>
   </si>
   <si>
-    <t>KONT</t>
-  </si>
-  <si>
     <t>MHLM</t>
   </si>
   <si>
     <t>KLAX</t>
   </si>
   <si>
+    <t>UAL</t>
+  </si>
+  <si>
+    <t>MGGT</t>
+  </si>
+  <si>
+    <t>SKBO</t>
+  </si>
+  <si>
+    <t>MNMG</t>
+  </si>
+  <si>
+    <t>SPJC</t>
+  </si>
+  <si>
+    <t>MROC</t>
+  </si>
+  <si>
+    <t>KSFO</t>
+  </si>
+  <si>
+    <t>KJFK</t>
+  </si>
+  <si>
+    <t>NKS</t>
+  </si>
+  <si>
+    <t>KFLL</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>KMIA</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>MPTO</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>KATL</t>
+  </si>
+  <si>
+    <t>KIAH</t>
+  </si>
+  <si>
+    <t>TSC</t>
+  </si>
+  <si>
+    <t>CYUL</t>
+  </si>
+  <si>
+    <t>AMX</t>
+  </si>
+  <si>
+    <t>MMMX</t>
+  </si>
+  <si>
+    <t>KDFW</t>
+  </si>
+  <si>
+    <t>SKRG</t>
+  </si>
+  <si>
+    <t>KMCO</t>
+  </si>
+  <si>
+    <t>IBE</t>
+  </si>
+  <si>
+    <t>CYYZ</t>
+  </si>
+  <si>
+    <t>KBOS</t>
+  </si>
+  <si>
+    <t>MHPR</t>
+  </si>
+  <si>
+    <t>KEWR</t>
+  </si>
+  <si>
+    <t>DHL</t>
+  </si>
+  <si>
+    <t>AJT</t>
+  </si>
+  <si>
+    <t>TPA</t>
+  </si>
+  <si>
+    <t>MHTG</t>
+  </si>
+  <si>
     <t>KOAK</t>
   </si>
   <si>
-    <t>UAL</t>
+    <t>LEMD</t>
   </si>
   <si>
     <t>SEQM</t>
   </si>
   <si>
-    <t>KJFK</t>
-  </si>
-  <si>
-    <t>MMMX</t>
-  </si>
-  <si>
-    <t>MGGT</t>
-  </si>
-  <si>
-    <t>SKBO</t>
-  </si>
-  <si>
-    <t>SPJC</t>
-  </si>
-  <si>
-    <t>MROC</t>
-  </si>
-  <si>
-    <t>KSFO</t>
-  </si>
-  <si>
-    <t>KMIA</t>
-  </si>
-  <si>
-    <t>MHPR</t>
-  </si>
-  <si>
-    <t>CYYZ</t>
-  </si>
-  <si>
-    <t>KEWR</t>
-  </si>
-  <si>
-    <t>AAL</t>
-  </si>
-  <si>
-    <t>TAG</t>
-  </si>
-  <si>
-    <t>MHRO</t>
-  </si>
-  <si>
-    <t>CMP</t>
-  </si>
-  <si>
-    <t>MPTO</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>KATL</t>
-  </si>
-  <si>
-    <t>KIAH</t>
-  </si>
-  <si>
-    <t>AMX</t>
-  </si>
-  <si>
-    <t>KDFW</t>
-  </si>
-  <si>
-    <t>NKS</t>
-  </si>
-  <si>
-    <t>KFLL</t>
-  </si>
-  <si>
-    <t>SKRG</t>
-  </si>
-  <si>
-    <t>MNMG</t>
-  </si>
-  <si>
-    <t>MMUN</t>
-  </si>
-  <si>
-    <t>VOC</t>
-  </si>
-  <si>
-    <t>IBE</t>
-  </si>
-  <si>
-    <t>CYUL</t>
-  </si>
-  <si>
-    <t>KORD</t>
-  </si>
-  <si>
-    <t>KLAS</t>
-  </si>
-  <si>
-    <t>DHL</t>
-  </si>
-  <si>
-    <t>AJT</t>
-  </si>
-  <si>
-    <t>FDX</t>
-  </si>
-  <si>
     <t>ARM</t>
-  </si>
-  <si>
-    <t>MHTG</t>
-  </si>
-  <si>
-    <t>TPA</t>
-  </si>
-  <si>
-    <t>LEMD</t>
   </si>
 </sst>
 </file>
@@ -572,8 +557,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484CF35C-3428-48A4-856F-9AFC985ED824}">
-  <dimension ref="A1:G152"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9199E53-CE45-4EA6-90D0-20EAA3A14D19}">
+  <dimension ref="A1:G151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,166 +597,166 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1"/>
       <c r="E2">
-        <v>4156</v>
+        <v>1670</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1">
-        <v>8.2638888888888887E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="E3">
-        <v>1670</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.125</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="D3">
+        <v>222</v>
+      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
-        <v>0.15972222222222224</v>
+        <v>0.20972222222222223</v>
       </c>
       <c r="D4">
-        <v>222</v>
+        <v>4313</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.20972222222222223</v>
-      </c>
-      <c r="D5">
-        <v>4313</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="E5">
+        <v>879</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.21041666666666667</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="E6">
-        <v>879</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.21041666666666667</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D6">
+        <v>575</v>
+      </c>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="D7">
-        <v>531</v>
-      </c>
-      <c r="G7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="E7">
+        <v>556</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.22916666666666666</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="D8">
-        <v>575</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="E8">
+        <v>4350</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.22916666666666666</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1">
-        <v>0.22569444444444445</v>
+        <v>0.23541666666666666</v>
       </c>
       <c r="D9">
-        <v>533</v>
+        <v>4309</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>0.23472222222222222</v>
+        <v>0.23958333333333334</v>
       </c>
       <c r="D10">
-        <v>4323</v>
+        <v>1266</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
-        <v>0.23541666666666666</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="D11">
-        <v>4309</v>
+        <v>579</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
       <c r="C12" s="1">
-        <v>0.23958333333333334</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D12">
-        <v>1266</v>
+        <v>366</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -780,13 +765,13 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
-        <v>0.24652777777777779</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D13">
-        <v>456</v>
+        <v>529</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -795,43 +780,43 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>0.24652777777777779</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="D14">
-        <v>567</v>
+        <v>314</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.25347222222222221</v>
-      </c>
-      <c r="D15">
-        <v>433</v>
-      </c>
-      <c r="G15" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="E15">
+        <v>4326</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.2638888888888889</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1">
-        <v>0.25694444444444442</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D16">
-        <v>579</v>
+        <v>428</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -840,13 +825,13 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D17">
-        <v>366</v>
+        <v>626</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -855,88 +840,88 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D18">
-        <v>529</v>
+        <v>561</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="E19">
-        <v>4326</v>
-      </c>
-      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="1">
-        <v>0.2638888888888889</v>
-      </c>
+      <c r="C19" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D19">
+        <v>591</v>
+      </c>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1">
-        <v>0.2673611111111111</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D20">
-        <v>428</v>
+        <v>671</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.2673611111111111</v>
-      </c>
-      <c r="D21">
-        <v>650</v>
-      </c>
-      <c r="G21" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="E21">
+        <v>4318</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.28611111111111109</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D22">
-        <v>561</v>
-      </c>
-      <c r="G22" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="E22">
+        <v>1467</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.28819444444444448</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C23" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="D23">
-        <v>591</v>
+        <v>621</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -944,60 +929,60 @@
       <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D24">
-        <v>671</v>
-      </c>
-      <c r="G24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="E24">
+        <v>323</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C25" s="1"/>
       <c r="E25">
-        <v>1467</v>
+        <v>396</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="G25" s="1">
-        <v>0.28819444444444448</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="D26">
-        <v>621</v>
-      </c>
-      <c r="G26" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="E26">
+        <v>4338</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.31527777777777777</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C27" s="1"/>
       <c r="E27">
-        <v>4330</v>
+        <v>310</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G27" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1006,13 +991,13 @@
       </c>
       <c r="C28" s="1"/>
       <c r="E28">
-        <v>321</v>
+        <v>440</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G28" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1021,13 +1006,13 @@
       </c>
       <c r="C29" s="1"/>
       <c r="E29">
-        <v>323</v>
+        <v>536</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G29" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1036,28 +1021,28 @@
       </c>
       <c r="C30" s="1"/>
       <c r="E30">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G30" s="1">
-        <v>0.3125</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C31" s="1"/>
       <c r="E31">
-        <v>884</v>
+        <v>562</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G31" s="1">
-        <v>0.3125</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1066,13 +1051,13 @@
       </c>
       <c r="C32" s="1"/>
       <c r="E32">
-        <v>310</v>
+        <v>368</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G32" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1081,13 +1066,13 @@
       </c>
       <c r="C33" s="1"/>
       <c r="E33">
-        <v>328</v>
+        <v>383</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="G33" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1096,44 +1081,44 @@
       </c>
       <c r="C34" s="1"/>
       <c r="E34">
-        <v>440</v>
+        <v>522</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G34" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="E35">
-        <v>562</v>
-      </c>
-      <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0.32291666666666669</v>
-      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="D35">
+        <v>581</v>
+      </c>
+      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
-      <c r="B36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0.3298611111111111</v>
-      </c>
-      <c r="D36">
-        <v>549</v>
-      </c>
-      <c r="G36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="E36">
+        <v>564</v>
+      </c>
+      <c r="F36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.33680555555555558</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -1141,13 +1126,13 @@
       </c>
       <c r="C37" s="1"/>
       <c r="E37">
-        <v>368</v>
+        <v>454</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G37" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1156,13 +1141,13 @@
       </c>
       <c r="C38" s="1"/>
       <c r="E38">
-        <v>383</v>
+        <v>554</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G38" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1171,59 +1156,59 @@
       </c>
       <c r="C39" s="1"/>
       <c r="E39">
-        <v>522</v>
+        <v>572</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0.33680555555555558</v>
-      </c>
-      <c r="D40">
-        <v>601</v>
-      </c>
-      <c r="G40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="E40">
+        <v>324</v>
+      </c>
+      <c r="F40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.34375</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C41" s="1"/>
       <c r="E41">
-        <v>564</v>
+        <v>884</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G41" s="1">
-        <v>0.33680555555555558</v>
+        <v>0.35833333333333334</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="E42">
-        <v>454</v>
-      </c>
-      <c r="F42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0.34027777777777779</v>
-      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="D42">
+        <v>551</v>
+      </c>
+      <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -1231,44 +1216,44 @@
       </c>
       <c r="C43" s="1"/>
       <c r="E43">
-        <v>572</v>
+        <v>422</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G43" s="1">
-        <v>0.34027777777777779</v>
+        <v>0.36458333333333331</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="E44">
-        <v>324</v>
-      </c>
-      <c r="F44" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0.34375</v>
-      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.37847222222222221</v>
+      </c>
+      <c r="D44">
+        <v>559</v>
+      </c>
+      <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>9</v>
       </c>
-      <c r="B45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0.37152777777777779</v>
-      </c>
-      <c r="D45">
-        <v>309</v>
-      </c>
-      <c r="G45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="E45">
+        <v>369</v>
+      </c>
+      <c r="F45" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.37847222222222221</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -1276,13 +1261,13 @@
       </c>
       <c r="C46" s="1"/>
       <c r="E46">
-        <v>526</v>
+        <v>430</v>
       </c>
       <c r="F46" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G46" s="1">
-        <v>0.375</v>
+        <v>0.37847222222222221</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1291,13 +1276,13 @@
       </c>
       <c r="C47" s="1"/>
       <c r="E47">
-        <v>369</v>
+        <v>524</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G47" s="1">
-        <v>0.37847222222222221</v>
+        <v>0.38194444444444442</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1306,147 +1291,147 @@
       </c>
       <c r="C48" s="1"/>
       <c r="E48">
-        <v>430</v>
+        <v>582</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G48" s="1">
-        <v>0.37847222222222221</v>
+        <v>0.39930555555555558</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="E49">
-        <v>582</v>
-      </c>
-      <c r="F49" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="1">
-        <v>0.39930555555555558</v>
-      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="D49">
+        <v>659</v>
+      </c>
+      <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0.40277777777777773</v>
-      </c>
-      <c r="D50">
-        <v>741</v>
-      </c>
-      <c r="G50" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="E50">
+        <v>392</v>
+      </c>
+      <c r="F50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.41319444444444442</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
-      <c r="B51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0.41319444444444442</v>
-      </c>
-      <c r="D51">
-        <v>659</v>
-      </c>
-      <c r="G51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="E51">
+        <v>613</v>
+      </c>
+      <c r="F51" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.4236111111111111</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="1"/>
-      <c r="E52">
-        <v>392</v>
-      </c>
-      <c r="F52" t="s">
-        <v>40</v>
-      </c>
-      <c r="G52" s="1">
-        <v>0.41319444444444442</v>
-      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D52">
+        <v>537</v>
+      </c>
+      <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="E53">
-        <v>408</v>
-      </c>
-      <c r="F53" t="s">
-        <v>45</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0.41666666666666669</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="D53">
+        <v>255</v>
+      </c>
+      <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="E54">
-        <v>609</v>
-      </c>
-      <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" s="1">
-        <v>0.4236111111111111</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="D54">
+        <v>916</v>
+      </c>
+      <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="E55">
-        <v>4320</v>
-      </c>
-      <c r="F55" t="s">
-        <v>34</v>
-      </c>
-      <c r="G55" s="1">
-        <v>0.4236111111111111</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="D55">
+        <v>70</v>
+      </c>
+      <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="D56">
-        <v>455</v>
-      </c>
-      <c r="G56" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="E56">
+        <v>256</v>
+      </c>
+      <c r="F56" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.47430555555555554</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C57" s="1">
-        <v>0.4513888888888889</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="D57">
-        <v>320</v>
+        <v>857</v>
       </c>
       <c r="G57" s="1"/>
     </row>
@@ -1454,449 +1439,449 @@
       <c r="A58" t="s">
         <v>9</v>
       </c>
-      <c r="B58" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="D58">
-        <v>327</v>
-      </c>
-      <c r="G58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="E58">
+        <v>584</v>
+      </c>
+      <c r="F58" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.49305555555555558</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>9</v>
       </c>
-      <c r="B59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59" s="1">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="D59">
-        <v>573</v>
-      </c>
-      <c r="G59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="E59">
+        <v>424</v>
+      </c>
+      <c r="F59" t="s">
+        <v>28</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" t="s">
-        <v>26</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0.45347222222222222</v>
-      </c>
-      <c r="D60">
-        <v>4337</v>
-      </c>
-      <c r="G60" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="E60">
+        <v>71</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>9</v>
       </c>
-      <c r="B61" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61" s="1">
-        <v>0.46180555555555558</v>
-      </c>
-      <c r="D61">
-        <v>70</v>
-      </c>
-      <c r="G61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="E61">
+        <v>319</v>
+      </c>
+      <c r="F61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.51041666666666663</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C62" s="1"/>
       <c r="E62">
-        <v>740</v>
+        <v>915</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G62" s="1">
-        <v>0.46527777777777773</v>
+        <v>0.5131944444444444</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="1"/>
-      <c r="E63">
-        <v>584</v>
-      </c>
-      <c r="F63" t="s">
-        <v>8</v>
-      </c>
-      <c r="G63" s="1">
-        <v>0.49305555555555558</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="D63">
+        <v>339</v>
+      </c>
+      <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="1"/>
-      <c r="E64">
-        <v>650</v>
-      </c>
-      <c r="F64" t="s">
-        <v>41</v>
-      </c>
-      <c r="G64" s="1">
-        <v>0.49305555555555558</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="D64">
+        <v>816</v>
+      </c>
+      <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="1"/>
-      <c r="E65">
-        <v>424</v>
-      </c>
-      <c r="F65" t="s">
-        <v>34</v>
-      </c>
-      <c r="G65" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="D65">
+        <v>1910</v>
+      </c>
+      <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C66" s="1"/>
       <c r="E66">
-        <v>442</v>
+        <v>856</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="G66" s="1">
-        <v>0.50347222222222221</v>
+        <v>0.54861111111111105</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" s="1"/>
-      <c r="E67">
-        <v>71</v>
-      </c>
-      <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.55486111111111114</v>
+      </c>
+      <c r="D67">
+        <v>1441</v>
+      </c>
+      <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" s="1"/>
-      <c r="E68">
-        <v>619</v>
-      </c>
-      <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" s="1">
-        <v>0.51041666666666663</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="D68">
+        <v>760</v>
+      </c>
+      <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>27</v>
-      </c>
-      <c r="B69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="E69">
+        <v>348</v>
+      </c>
+      <c r="F69" t="s">
         <v>23</v>
       </c>
-      <c r="C69" s="1">
-        <v>0.52152777777777781</v>
-      </c>
-      <c r="D69">
-        <v>339</v>
-      </c>
-      <c r="G69" s="1"/>
+      <c r="G69" s="1">
+        <v>0.56319444444444444</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C70" s="1">
-        <v>0.52777777777777779</v>
+        <v>0.57847222222222217</v>
       </c>
       <c r="D70">
-        <v>420</v>
+        <v>628</v>
       </c>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>30</v>
-      </c>
-      <c r="B71" t="s">
-        <v>31</v>
-      </c>
-      <c r="C71" s="1">
-        <v>0.52847222222222223</v>
-      </c>
-      <c r="D71">
-        <v>816</v>
-      </c>
-      <c r="G71" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="E71">
+        <v>4</v>
+      </c>
+      <c r="F71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0.58333333333333337</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>32</v>
-      </c>
-      <c r="B72" t="s">
-        <v>33</v>
-      </c>
-      <c r="C72" s="1">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="D72">
-        <v>1910</v>
-      </c>
-      <c r="G72" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="E72">
+        <v>871</v>
+      </c>
+      <c r="F72" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.58611111111111114</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>28</v>
-      </c>
-      <c r="C73" s="1"/>
-      <c r="E73">
-        <v>421</v>
-      </c>
-      <c r="F73" t="s">
-        <v>29</v>
-      </c>
-      <c r="G73" s="1">
-        <v>0.55208333333333337</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B73" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="D73">
+        <v>1035</v>
+      </c>
+      <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>14</v>
-      </c>
-      <c r="B74" t="s">
-        <v>34</v>
-      </c>
-      <c r="C74" s="1">
-        <v>0.55486111111111114</v>
-      </c>
-      <c r="D74">
-        <v>1441</v>
-      </c>
-      <c r="G74" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="E74">
+        <v>1978</v>
+      </c>
+      <c r="F74" t="s">
+        <v>27</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.60763888888888895</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C75" s="1"/>
       <c r="E75">
-        <v>348</v>
+        <v>761</v>
       </c>
       <c r="F75" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G75" s="1">
-        <v>0.56319444444444444</v>
+        <v>0.61111111111111105</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C76" s="1">
-        <v>0.56666666666666665</v>
+        <v>0.61736111111111114</v>
       </c>
       <c r="D76">
-        <v>8139</v>
+        <v>3151</v>
       </c>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C77" s="1">
-        <v>0.57847222222222217</v>
+        <v>0.61805555555555558</v>
       </c>
       <c r="D77">
-        <v>628</v>
+        <v>4053</v>
       </c>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C78" s="1"/>
       <c r="E78">
-        <v>4</v>
+        <v>1468</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G78" s="1">
-        <v>0.58333333333333337</v>
+        <v>0.61805555555555558</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>30</v>
-      </c>
-      <c r="C79" s="1"/>
-      <c r="E79">
-        <v>871</v>
-      </c>
-      <c r="F79" t="s">
-        <v>31</v>
-      </c>
-      <c r="G79" s="1">
-        <v>0.58611111111111114</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="D79">
+        <v>4319</v>
+      </c>
+      <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>27</v>
-      </c>
-      <c r="B80" t="s">
-        <v>36</v>
-      </c>
-      <c r="C80" s="1">
-        <v>0.59791666666666665</v>
-      </c>
-      <c r="D80">
-        <v>1035</v>
-      </c>
-      <c r="G80" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="E80">
+        <v>629</v>
+      </c>
+      <c r="F80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0.63055555555555554</v>
+      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C81" s="1"/>
       <c r="E81">
-        <v>1978</v>
+        <v>1104</v>
       </c>
       <c r="F81" t="s">
         <v>33</v>
       </c>
       <c r="G81" s="1">
-        <v>0.60763888888888895</v>
+        <v>0.63958333333333328</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C82" s="1">
-        <v>0.61736111111111114</v>
+        <v>0.64166666666666672</v>
       </c>
       <c r="D82">
-        <v>3151</v>
+        <v>1290</v>
       </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
         <v>14</v>
       </c>
-      <c r="C83" s="1"/>
-      <c r="E83">
-        <v>1468</v>
-      </c>
-      <c r="F83" t="s">
-        <v>34</v>
-      </c>
-      <c r="G83" s="1">
-        <v>0.61805555555555558</v>
-      </c>
+      <c r="C83" s="1">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D83">
+        <v>382</v>
+      </c>
+      <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>37</v>
-      </c>
-      <c r="B84" t="s">
-        <v>38</v>
-      </c>
-      <c r="C84" s="1">
-        <v>0.61944444444444446</v>
-      </c>
-      <c r="D84">
-        <v>1031</v>
-      </c>
-      <c r="G84" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="E84">
+        <v>317</v>
+      </c>
+      <c r="F84" t="s">
+        <v>25</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0.65625</v>
+      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C85" s="1"/>
       <c r="E85">
-        <v>629</v>
+        <v>356</v>
       </c>
       <c r="F85" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G85" s="1">
-        <v>0.63055555555555554</v>
+        <v>0.65902777777777777</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>27</v>
-      </c>
-      <c r="C86" s="1"/>
-      <c r="E86">
-        <v>1104</v>
-      </c>
-      <c r="F86" t="s">
-        <v>36</v>
-      </c>
-      <c r="G86" s="1">
-        <v>0.63958333333333328</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B86" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D86">
+        <v>367</v>
+      </c>
+      <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B87" t="s">
         <v>34</v>
       </c>
       <c r="C87" s="1">
-        <v>0.64166666666666672</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D87">
-        <v>1290</v>
+        <v>370</v>
       </c>
       <c r="G87" s="1"/>
     </row>
@@ -1905,13 +1890,13 @@
         <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C88" s="1">
-        <v>0.65277777777777779</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="D88">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="G88" s="1"/>
     </row>
@@ -1919,45 +1904,45 @@
       <c r="A89" t="s">
         <v>9</v>
       </c>
-      <c r="C89" s="1"/>
-      <c r="E89">
-        <v>317</v>
-      </c>
-      <c r="F89" t="s">
-        <v>31</v>
-      </c>
-      <c r="G89" s="1">
-        <v>0.65625</v>
-      </c>
+      <c r="B89" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="D89">
+        <v>441</v>
+      </c>
+      <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C90" s="1"/>
       <c r="E90">
-        <v>356</v>
+        <v>4053</v>
       </c>
       <c r="F90" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G90" s="1">
-        <v>0.65902777777777777</v>
+        <v>0.68055555555555558</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C91" s="1"/>
       <c r="E91">
-        <v>7139</v>
+        <v>4322</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="G91" s="1">
-        <v>0.66527777777777775</v>
+        <v>0.68611111111111112</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -1965,13 +1950,13 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C92" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="D92">
-        <v>367</v>
+        <v>311</v>
       </c>
       <c r="G92" s="1"/>
     </row>
@@ -1980,73 +1965,73 @@
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C93" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="D93">
-        <v>370</v>
+        <v>318</v>
       </c>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>37</v>
-      </c>
-      <c r="C94" s="1"/>
-      <c r="E94">
-        <v>1032</v>
-      </c>
-      <c r="F94" t="s">
-        <v>38</v>
-      </c>
-      <c r="G94" s="1">
-        <v>0.66805555555555551</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B94" t="s">
+        <v>35</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="D94">
+        <v>423</v>
+      </c>
+      <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C95" s="1">
-        <v>0.67361111111111116</v>
+        <v>0.69097222222222221</v>
       </c>
       <c r="D95">
-        <v>397</v>
+        <v>555</v>
       </c>
       <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>9</v>
-      </c>
-      <c r="B96" t="s">
-        <v>36</v>
-      </c>
-      <c r="C96" s="1">
-        <v>0.68055555555555558</v>
-      </c>
-      <c r="D96">
-        <v>441</v>
-      </c>
-      <c r="G96" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="E96">
+        <v>1130</v>
+      </c>
+      <c r="F96" t="s">
+        <v>28</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0.69444444444444453</v>
+      </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B97" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C97" s="1">
-        <v>0.68402777777777779</v>
+        <v>0.69722222222222219</v>
       </c>
       <c r="D97">
-        <v>651</v>
+        <v>4327</v>
       </c>
       <c r="G97" s="1"/>
     </row>
@@ -2055,13 +2040,13 @@
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C98" s="1">
-        <v>0.6875</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="D98">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -2069,74 +2054,74 @@
       <c r="A99" t="s">
         <v>9</v>
       </c>
-      <c r="B99" t="s">
-        <v>21</v>
-      </c>
-      <c r="C99" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="D99">
-        <v>618</v>
-      </c>
-      <c r="G99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="E99">
+        <v>548</v>
+      </c>
+      <c r="F99" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0.71875</v>
+      </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C100" s="1"/>
       <c r="E100">
-        <v>1130</v>
+        <v>560</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="G100" s="1">
-        <v>0.69444444444444453</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>7</v>
-      </c>
-      <c r="B101" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="1">
-        <v>0.69722222222222219</v>
-      </c>
-      <c r="D101">
-        <v>4327</v>
-      </c>
-      <c r="G101" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="E101">
+        <v>617</v>
+      </c>
+      <c r="F101" t="s">
+        <v>17</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>9</v>
       </c>
-      <c r="B102" t="s">
-        <v>31</v>
-      </c>
-      <c r="C102" s="1">
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="D102">
-        <v>322</v>
-      </c>
-      <c r="G102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="E102">
+        <v>620</v>
+      </c>
+      <c r="F102" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C103" s="1">
-        <v>0.72916666666666663</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="D103">
-        <v>4</v>
+        <v>4351</v>
       </c>
       <c r="G103" s="1"/>
     </row>
@@ -2146,13 +2131,13 @@
       </c>
       <c r="C104" s="1"/>
       <c r="E104">
-        <v>530</v>
+        <v>448</v>
       </c>
       <c r="F104" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="G104" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.74305555555555558</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -2161,44 +2146,44 @@
       </c>
       <c r="C105" s="1"/>
       <c r="E105">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G105" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.74305555555555558</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C106" s="1"/>
       <c r="E106">
-        <v>550</v>
+        <v>4308</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G106" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.74583333333333335</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>9</v>
       </c>
-      <c r="C107" s="1"/>
-      <c r="E107">
-        <v>560</v>
-      </c>
-      <c r="F107" t="s">
-        <v>22</v>
-      </c>
-      <c r="G107" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+      <c r="B107" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0.74652777777777779</v>
+      </c>
+      <c r="D107">
+        <v>612</v>
+      </c>
+      <c r="G107" s="1"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
@@ -2206,162 +2191,162 @@
       </c>
       <c r="C108" s="1"/>
       <c r="E108">
-        <v>620</v>
+        <v>528</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G108" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.76041666666666663</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>7</v>
-      </c>
-      <c r="B109" t="s">
-        <v>34</v>
-      </c>
-      <c r="C109" s="1">
-        <v>0.73472222222222228</v>
-      </c>
-      <c r="D109">
-        <v>4321</v>
-      </c>
-      <c r="G109" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="E109">
+        <v>566</v>
+      </c>
+      <c r="F109" t="s">
+        <v>19</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0.77083333333333337</v>
+      </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C110" s="1"/>
       <c r="E110">
-        <v>534</v>
+        <v>4312</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G110" s="1">
-        <v>0.74305555555555558</v>
+        <v>0.77638888888888891</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" s="1"/>
-      <c r="E111">
-        <v>4308</v>
-      </c>
-      <c r="F111" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" s="1">
-        <v>0.74583333333333335</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B111" t="s">
+        <v>44</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="D111">
+        <v>931</v>
+      </c>
+      <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" s="1"/>
-      <c r="E112">
-        <v>528</v>
-      </c>
-      <c r="F112" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" s="1">
-        <v>0.76041666666666663</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B112" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D112">
+        <v>222</v>
+      </c>
+      <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C113" s="1">
-        <v>0.7631944444444444</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="D113">
-        <v>4040</v>
+        <v>431</v>
       </c>
       <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" s="1"/>
-      <c r="E114">
-        <v>4312</v>
-      </c>
-      <c r="F114" t="s">
-        <v>8</v>
-      </c>
-      <c r="G114" s="1">
-        <v>0.77638888888888891</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B114" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" s="1">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="D114">
+        <v>565</v>
+      </c>
+      <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>47</v>
-      </c>
-      <c r="B115" t="s">
-        <v>51</v>
-      </c>
-      <c r="C115" s="1">
-        <v>0.78125</v>
-      </c>
-      <c r="D115">
-        <v>931</v>
-      </c>
-      <c r="G115" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="E115">
+        <v>670</v>
+      </c>
+      <c r="F115" t="s">
+        <v>19</v>
+      </c>
+      <c r="G115" s="1">
+        <v>0.8125</v>
+      </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>9</v>
       </c>
-      <c r="C116" s="1"/>
-      <c r="E116">
-        <v>558</v>
-      </c>
-      <c r="F116" t="s">
-        <v>22</v>
-      </c>
-      <c r="G116" s="1">
-        <v>0.78819444444444442</v>
-      </c>
+      <c r="B116" t="s">
+        <v>28</v>
+      </c>
+      <c r="C116" s="1">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="D116">
+        <v>425</v>
+      </c>
+      <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C117" s="1">
-        <v>0.79027777777777775</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="D117">
-        <v>4331</v>
+        <v>523</v>
       </c>
       <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C118" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.82986111111111116</v>
       </c>
       <c r="D118">
-        <v>222</v>
+        <v>583</v>
       </c>
       <c r="G118" s="1"/>
     </row>
@@ -2370,13 +2355,13 @@
         <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C119" s="1">
-        <v>0.79513888888888884</v>
+        <v>0.84375</v>
       </c>
       <c r="D119">
-        <v>431</v>
+        <v>325</v>
       </c>
       <c r="G119" s="1"/>
     </row>
@@ -2385,43 +2370,43 @@
         <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C120" s="1">
-        <v>0.79513888888888884</v>
+        <v>0.84375</v>
       </c>
       <c r="D120">
-        <v>565</v>
+        <v>445</v>
       </c>
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C121" s="1"/>
       <c r="E121">
-        <v>4041</v>
+        <v>590</v>
       </c>
       <c r="F121" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G121" s="1">
-        <v>0.79513888888888884</v>
+        <v>0.85069444444444442</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C122" s="1">
-        <v>0.80625000000000002</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D122">
-        <v>4158</v>
+        <v>393</v>
       </c>
       <c r="G122" s="1"/>
     </row>
@@ -2429,29 +2414,29 @@
       <c r="A123" t="s">
         <v>9</v>
       </c>
-      <c r="C123" s="1"/>
-      <c r="E123">
-        <v>670</v>
-      </c>
-      <c r="F123" t="s">
-        <v>16</v>
-      </c>
-      <c r="G123" s="1">
-        <v>0.8125</v>
-      </c>
+      <c r="B123" t="s">
+        <v>39</v>
+      </c>
+      <c r="C123" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D123">
+        <v>449</v>
+      </c>
+      <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B124" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C124" s="1">
-        <v>0.81944444444444442</v>
+        <v>0.85972222222222217</v>
       </c>
       <c r="D124">
-        <v>425</v>
+        <v>881</v>
       </c>
       <c r="G124" s="1"/>
     </row>
@@ -2460,13 +2445,13 @@
         <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C125" s="1">
-        <v>0.82638888888888884</v>
+        <v>0.86805555555555558</v>
       </c>
       <c r="D125">
-        <v>523</v>
+        <v>563</v>
       </c>
       <c r="G125" s="1"/>
     </row>
@@ -2475,13 +2460,13 @@
         <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C126" s="1">
-        <v>0.82986111111111116</v>
+        <v>0.87152777777777779</v>
       </c>
       <c r="D126">
-        <v>583</v>
+        <v>316</v>
       </c>
       <c r="G126" s="1"/>
     </row>
@@ -2490,88 +2475,88 @@
         <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C127" s="1">
-        <v>0.83680555555555558</v>
+        <v>0.875</v>
       </c>
       <c r="D127">
-        <v>329</v>
+        <v>535</v>
       </c>
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>9</v>
-      </c>
-      <c r="B128" t="s">
-        <v>25</v>
-      </c>
-      <c r="C128" s="1">
-        <v>0.84375</v>
-      </c>
-      <c r="D128">
-        <v>325</v>
-      </c>
-      <c r="G128" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C128" s="1"/>
+      <c r="E128">
+        <v>222</v>
+      </c>
+      <c r="F128" t="s">
+        <v>46</v>
+      </c>
+      <c r="G128" s="1">
+        <v>0.875</v>
+      </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>9</v>
       </c>
-      <c r="C129" s="1"/>
-      <c r="E129">
-        <v>590</v>
-      </c>
-      <c r="F129" t="s">
-        <v>8</v>
-      </c>
-      <c r="G129" s="1">
-        <v>0.85069444444444442</v>
-      </c>
+      <c r="B129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" s="1">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="D129">
+        <v>525</v>
+      </c>
+      <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C130" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D130">
-        <v>393</v>
+        <v>557</v>
       </c>
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C131" s="1">
-        <v>0.85972222222222217</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D131">
-        <v>881</v>
+        <v>616</v>
       </c>
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C132" s="1">
-        <v>0.86805555555555558</v>
+        <v>0.8881944444444444</v>
       </c>
       <c r="D132">
-        <v>443</v>
+        <v>1461</v>
       </c>
       <c r="G132" s="1"/>
     </row>
@@ -2580,165 +2565,165 @@
         <v>9</v>
       </c>
       <c r="B133" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C133" s="1">
-        <v>0.86805555555555558</v>
+        <v>0.91319444444444442</v>
       </c>
       <c r="D133">
-        <v>563</v>
+        <v>585</v>
       </c>
       <c r="G133" s="1"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="C134" s="1"/>
       <c r="E134">
-        <v>4158</v>
+        <v>365</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G134" s="1">
-        <v>0.86875000000000002</v>
+        <v>0.92013888888888884</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>9</v>
       </c>
-      <c r="B135" t="s">
-        <v>31</v>
-      </c>
-      <c r="C135" s="1">
-        <v>0.87152777777777779</v>
-      </c>
-      <c r="D135">
-        <v>316</v>
-      </c>
-      <c r="G135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="E135">
+        <v>600</v>
+      </c>
+      <c r="F135" t="s">
+        <v>8</v>
+      </c>
+      <c r="G135" s="1">
+        <v>0.92013888888888884</v>
+      </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>9</v>
       </c>
-      <c r="B136" t="s">
-        <v>11</v>
-      </c>
-      <c r="C136" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="D136">
-        <v>535</v>
-      </c>
-      <c r="G136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="E136">
+        <v>429</v>
+      </c>
+      <c r="F136" t="s">
+        <v>16</v>
+      </c>
+      <c r="G136" s="1">
+        <v>0.92361111111111116</v>
+      </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>43</v>
-      </c>
-      <c r="C137" s="1"/>
-      <c r="E137">
-        <v>222</v>
-      </c>
-      <c r="F137" t="s">
-        <v>53</v>
-      </c>
-      <c r="G137" s="1">
-        <v>0.875</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B137" t="s">
+        <v>23</v>
+      </c>
+      <c r="C137" s="1">
+        <v>0.92986111111111114</v>
+      </c>
+      <c r="D137">
+        <v>4339</v>
+      </c>
+      <c r="G137" s="1"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>9</v>
       </c>
-      <c r="B138" t="s">
-        <v>45</v>
-      </c>
-      <c r="C138" s="1">
-        <v>0.87847222222222221</v>
-      </c>
-      <c r="D138">
-        <v>409</v>
-      </c>
-      <c r="G138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="E138">
+        <v>578</v>
+      </c>
+      <c r="F138" t="s">
+        <v>13</v>
+      </c>
+      <c r="G138" s="1">
+        <v>0.93055555555555558</v>
+      </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>9</v>
       </c>
-      <c r="B139" t="s">
-        <v>46</v>
-      </c>
-      <c r="C139" s="1">
-        <v>0.87847222222222221</v>
-      </c>
-      <c r="D139">
-        <v>527</v>
-      </c>
-      <c r="G139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="E139">
+        <v>627</v>
+      </c>
+      <c r="F139" t="s">
+        <v>17</v>
+      </c>
+      <c r="G139" s="1">
+        <v>0.93402777777777779</v>
+      </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>14</v>
-      </c>
-      <c r="B140" t="s">
-        <v>34</v>
-      </c>
-      <c r="C140" s="1">
-        <v>0.8881944444444444</v>
-      </c>
-      <c r="D140">
-        <v>1461</v>
-      </c>
-      <c r="G140" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C140" s="1"/>
+      <c r="E140">
+        <v>574</v>
+      </c>
+      <c r="F140" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="1">
+        <v>0.9375</v>
+      </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>9</v>
       </c>
-      <c r="B141" t="s">
-        <v>21</v>
-      </c>
-      <c r="C141" s="1">
-        <v>0.89236111111111116</v>
-      </c>
-      <c r="D141">
-        <v>608</v>
-      </c>
-      <c r="G141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="E141">
+        <v>315</v>
+      </c>
+      <c r="F141" t="s">
+        <v>15</v>
+      </c>
+      <c r="G141" s="1">
+        <v>0.94097222222222221</v>
+      </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>9</v>
       </c>
-      <c r="B142" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="1">
-        <v>0.91319444444444442</v>
-      </c>
-      <c r="D142">
-        <v>585</v>
-      </c>
-      <c r="G142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="E142">
+        <v>658</v>
+      </c>
+      <c r="F142" t="s">
+        <v>19</v>
+      </c>
+      <c r="G142" s="1">
+        <v>0.94444444444444442</v>
+      </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>9</v>
-      </c>
-      <c r="C143" s="1"/>
-      <c r="E143">
-        <v>365</v>
-      </c>
-      <c r="F143" t="s">
-        <v>19</v>
-      </c>
-      <c r="G143" s="1">
-        <v>0.92013888888888884</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B143" t="s">
+        <v>40</v>
+      </c>
+      <c r="C143" s="1">
+        <v>0.94930555555555562</v>
+      </c>
+      <c r="D143">
+        <v>1425</v>
+      </c>
+      <c r="G143" s="1"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
@@ -2746,13 +2731,13 @@
       </c>
       <c r="C144" s="1"/>
       <c r="E144">
-        <v>580</v>
+        <v>452</v>
       </c>
       <c r="F144" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="G144" s="1">
-        <v>0.92013888888888884</v>
+        <v>0.95486111111111116</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -2761,13 +2746,13 @@
       </c>
       <c r="C145" s="1"/>
       <c r="E145">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="F145" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="G145" s="1">
-        <v>0.92361111111111116</v>
+        <v>0.95486111111111116</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -2776,28 +2761,28 @@
       </c>
       <c r="C146" s="1"/>
       <c r="E146">
-        <v>578</v>
+        <v>432</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G146" s="1">
-        <v>0.93055555555555558</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C147" s="1"/>
       <c r="E147">
-        <v>651</v>
+        <v>4336</v>
       </c>
       <c r="F147" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="G147" s="1">
-        <v>0.93402777777777779</v>
+        <v>0.97152777777777777</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -2806,74 +2791,59 @@
       </c>
       <c r="C148" s="1"/>
       <c r="E148">
-        <v>574</v>
+        <v>326</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G148" s="1">
-        <v>0.9375</v>
+        <v>0.97569444444444442</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>9</v>
-      </c>
-      <c r="C149" s="1"/>
-      <c r="E149">
-        <v>315</v>
-      </c>
-      <c r="F149" t="s">
-        <v>40</v>
-      </c>
-      <c r="G149" s="1">
-        <v>0.94097222222222221</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B149" t="s">
+        <v>25</v>
+      </c>
+      <c r="C149" s="1">
+        <v>0.98333333333333339</v>
+      </c>
+      <c r="D149">
+        <v>878</v>
+      </c>
+      <c r="G149" s="1"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>9</v>
-      </c>
-      <c r="C150" s="1"/>
-      <c r="E150">
-        <v>658</v>
-      </c>
-      <c r="F150" t="s">
-        <v>16</v>
-      </c>
-      <c r="G150" s="1">
-        <v>0.94444444444444442</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B150" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" s="1">
+        <v>0.98402777777777772</v>
+      </c>
+      <c r="D150">
+        <v>4156</v>
+      </c>
+      <c r="G150" s="1"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C151" s="1"/>
       <c r="E151">
-        <v>452</v>
+        <v>339</v>
       </c>
       <c r="F151" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G151" s="1">
-        <v>0.95486111111111116</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>30</v>
-      </c>
-      <c r="B152" t="s">
-        <v>31</v>
-      </c>
-      <c r="C152" s="1">
-        <v>0.98333333333333339</v>
-      </c>
-      <c r="D152">
-        <v>878</v>
-      </c>
-      <c r="G152" s="1"/>
+        <v>0.99583333333333324</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/operaciones.xlsx
+++ b/public/operaciones.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulm\Desktop\Itinerarios_2026-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45320908-7468-4A1E-8701-508153BCEFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25FC12C7-C573-46BD-A279-0FA8F81392CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1863F7A7-95FE-4C8B-AE25-738BA9109D24}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E6F5099A-3664-4AAD-B2D5-B7F8504D8A82}"/>
   </bookViews>
   <sheets>
-    <sheet name="23-01" sheetId="1" r:id="rId1"/>
+    <sheet name="24-01" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="52">
   <si>
     <t>AEROLINEA</t>
   </si>
@@ -59,13 +59,19 @@
     <t>ETD</t>
   </si>
   <si>
+    <t>AVA</t>
+  </si>
+  <si>
+    <t>MHPR</t>
+  </si>
+  <si>
     <t>VOS</t>
   </si>
   <si>
     <t>KIAD</t>
   </si>
   <si>
-    <t>AVA</t>
+    <t>KONT</t>
   </si>
   <si>
     <t>MHLM</t>
@@ -74,91 +80,103 @@
     <t>KLAX</t>
   </si>
   <si>
+    <t>KOAK</t>
+  </si>
+  <si>
     <t>UAL</t>
   </si>
   <si>
+    <t>SEQM</t>
+  </si>
+  <si>
+    <t>KJFK</t>
+  </si>
+  <si>
+    <t>MMMX</t>
+  </si>
+  <si>
     <t>MGGT</t>
   </si>
   <si>
     <t>SKBO</t>
   </si>
   <si>
+    <t>SPJC</t>
+  </si>
+  <si>
+    <t>MROC</t>
+  </si>
+  <si>
+    <t>KSFO</t>
+  </si>
+  <si>
+    <t>FFT</t>
+  </si>
+  <si>
+    <t>KIAH</t>
+  </si>
+  <si>
+    <t>NKS</t>
+  </si>
+  <si>
+    <t>KFLL</t>
+  </si>
+  <si>
+    <t>KMIA</t>
+  </si>
+  <si>
+    <t>CYYZ</t>
+  </si>
+  <si>
+    <t>KEWR</t>
+  </si>
+  <si>
+    <t>KDFW</t>
+  </si>
+  <si>
+    <t>KMCO</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>MPTO</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>KATL</t>
+  </si>
+  <si>
+    <t>AMX</t>
+  </si>
+  <si>
+    <t>SKRG</t>
+  </si>
+  <si>
     <t>MNMG</t>
   </si>
   <si>
-    <t>SPJC</t>
-  </si>
-  <si>
-    <t>MROC</t>
-  </si>
-  <si>
-    <t>KSFO</t>
-  </si>
-  <si>
-    <t>KJFK</t>
-  </si>
-  <si>
-    <t>NKS</t>
-  </si>
-  <si>
-    <t>KFLL</t>
-  </si>
-  <si>
-    <t>AAL</t>
-  </si>
-  <si>
-    <t>KMIA</t>
-  </si>
-  <si>
-    <t>CMP</t>
-  </si>
-  <si>
-    <t>MPTO</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>KATL</t>
-  </si>
-  <si>
-    <t>KIAH</t>
-  </si>
-  <si>
-    <t>TSC</t>
+    <t>MMUN</t>
+  </si>
+  <si>
+    <t>VOC</t>
+  </si>
+  <si>
+    <t>IBE</t>
   </si>
   <si>
     <t>CYUL</t>
   </si>
   <si>
-    <t>AMX</t>
-  </si>
-  <si>
-    <t>MMMX</t>
-  </si>
-  <si>
-    <t>KDFW</t>
-  </si>
-  <si>
-    <t>SKRG</t>
-  </si>
-  <si>
-    <t>KMCO</t>
-  </si>
-  <si>
-    <t>IBE</t>
-  </si>
-  <si>
-    <t>CYYZ</t>
-  </si>
-  <si>
-    <t>KBOS</t>
-  </si>
-  <si>
-    <t>MHPR</t>
-  </si>
-  <si>
-    <t>KEWR</t>
+    <t>KORD</t>
+  </si>
+  <si>
+    <t>KLAS</t>
   </si>
   <si>
     <t>DHL</t>
@@ -167,22 +185,13 @@
     <t>AJT</t>
   </si>
   <si>
+    <t>FDX</t>
+  </si>
+  <si>
+    <t>LEMD</t>
+  </si>
+  <si>
     <t>TPA</t>
-  </si>
-  <si>
-    <t>MHTG</t>
-  </si>
-  <si>
-    <t>KOAK</t>
-  </si>
-  <si>
-    <t>LEMD</t>
-  </si>
-  <si>
-    <t>SEQM</t>
-  </si>
-  <si>
-    <t>ARM</t>
   </si>
 </sst>
 </file>
@@ -557,8 +566,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9199E53-CE45-4EA6-90D0-20EAA3A14D19}">
-  <dimension ref="A1:G151"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D6DDD0-CB42-4F31-961F-A25777D78209}">
+  <dimension ref="A1:G156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,76 +606,76 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1"/>
       <c r="E2">
-        <v>1670</v>
+        <v>4156</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1">
-        <v>0.125</v>
+        <v>5.347222222222222E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.15972222222222224</v>
-      </c>
-      <c r="D3">
-        <v>222</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="E3">
+        <v>1670</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1">
-        <v>0.20972222222222223</v>
+        <v>0.15972222222222224</v>
       </c>
       <c r="D4">
-        <v>4313</v>
+        <v>222</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1"/>
       <c r="E5">
-        <v>879</v>
+        <v>224</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1">
-        <v>0.21041666666666667</v>
+        <v>0.20138888888888887</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
-        <v>0.22222222222222221</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="D6">
-        <v>575</v>
+        <v>453</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -674,30 +683,30 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="E7">
-        <v>556</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.22916666666666666</v>
-      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.20972222222222223</v>
+      </c>
+      <c r="D7">
+        <v>4313</v>
+      </c>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1"/>
       <c r="E8">
-        <v>4350</v>
+        <v>879</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G8" s="1">
-        <v>0.22916666666666666</v>
+        <v>0.21041666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -708,40 +717,40 @@
         <v>11</v>
       </c>
       <c r="C9" s="1">
-        <v>0.23541666666666666</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="D9">
-        <v>4309</v>
+        <v>531</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
       <c r="C10" s="1">
-        <v>0.23958333333333334</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="D10">
-        <v>1266</v>
+        <v>575</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="1">
-        <v>0.25694444444444442</v>
+        <v>0.22569444444444445</v>
       </c>
       <c r="D11">
-        <v>579</v>
+        <v>533</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -753,10 +762,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.23472222222222222</v>
       </c>
       <c r="D12">
-        <v>366</v>
+        <v>4323</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -765,28 +774,28 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.23541666666666666</v>
       </c>
       <c r="D13">
-        <v>529</v>
+        <v>4309</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
-        <v>0.2638888888888889</v>
+        <v>0.23958333333333334</v>
       </c>
       <c r="D14">
-        <v>314</v>
+        <v>1266</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -794,211 +803,211 @@
       <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="E15">
-        <v>4326</v>
-      </c>
-      <c r="F15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.2638888888888889</v>
-      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.24652777777777779</v>
+      </c>
+      <c r="D15">
+        <v>456</v>
+      </c>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>0.2673611111111111</v>
+        <v>0.24652777777777779</v>
       </c>
       <c r="D16">
-        <v>428</v>
+        <v>567</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1">
-        <v>0.2673611111111111</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="D17">
-        <v>626</v>
+        <v>433</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="D18">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D19">
-        <v>591</v>
+        <v>366</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C20" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D20">
-        <v>671</v>
+        <v>529</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C21" s="1"/>
       <c r="E21">
-        <v>4318</v>
+        <v>4326</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G21" s="1">
-        <v>0.28611111111111109</v>
+        <v>0.2638888888888889</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="E22">
-        <v>1467</v>
-      </c>
-      <c r="F22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.28819444444444448</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="D22">
+        <v>428</v>
+      </c>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D23">
-        <v>621</v>
+        <v>650</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="E24">
-        <v>323</v>
-      </c>
-      <c r="F24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.3125</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D24">
+        <v>561</v>
+      </c>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="E25">
-        <v>396</v>
-      </c>
-      <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.3125</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D25">
+        <v>591</v>
+      </c>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="E26">
-        <v>4338</v>
-      </c>
-      <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0.31527777777777777</v>
-      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D26">
+        <v>671</v>
+      </c>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C27" s="1"/>
       <c r="E27">
-        <v>310</v>
+        <v>1467</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G27" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.28819444444444448</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="E28">
-        <v>440</v>
-      </c>
-      <c r="F28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0.31597222222222221</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D28">
+        <v>621</v>
+      </c>
+      <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -1006,434 +1015,434 @@
       </c>
       <c r="C29" s="1"/>
       <c r="E29">
-        <v>536</v>
+        <v>4330</v>
       </c>
       <c r="F29" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G29" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C30" s="1"/>
       <c r="E30">
-        <v>444</v>
+        <v>321</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="G30" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C31" s="1"/>
       <c r="E31">
-        <v>562</v>
+        <v>323</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G31" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1"/>
       <c r="E32">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="F32" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G32" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1"/>
       <c r="E33">
-        <v>383</v>
+        <v>884</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G33" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C34" s="1"/>
       <c r="E34">
-        <v>522</v>
+        <v>310</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G34" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0.33680555555555558</v>
-      </c>
-      <c r="D35">
-        <v>581</v>
-      </c>
-      <c r="G35" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="E35">
+        <v>328</v>
+      </c>
+      <c r="F35" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.31597222222222221</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C36" s="1"/>
       <c r="E36">
-        <v>564</v>
+        <v>440</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G36" s="1">
-        <v>0.33680555555555558</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C37" s="1"/>
       <c r="E37">
-        <v>454</v>
+        <v>536</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G37" s="1">
-        <v>0.34027777777777779</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C38" s="1"/>
       <c r="E38">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G38" s="1">
-        <v>0.34027777777777779</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="E39">
-        <v>572</v>
-      </c>
-      <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0.34027777777777779</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="D39">
+        <v>549</v>
+      </c>
+      <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C40" s="1"/>
       <c r="E40">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G40" s="1">
-        <v>0.34375</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C41" s="1"/>
       <c r="E41">
-        <v>884</v>
+        <v>383</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G41" s="1">
-        <v>0.35833333333333334</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="E42">
+        <v>522</v>
+      </c>
+      <c r="F42" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="1">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="D42">
-        <v>551</v>
-      </c>
-      <c r="G42" s="1"/>
+      <c r="G42" s="1">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="E43">
-        <v>422</v>
-      </c>
-      <c r="F43" t="s">
-        <v>35</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0.36458333333333331</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="D43">
+        <v>601</v>
+      </c>
+      <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0.37847222222222221</v>
-      </c>
-      <c r="D44">
-        <v>559</v>
-      </c>
-      <c r="G44" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="E44">
+        <v>564</v>
+      </c>
+      <c r="F44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.33680555555555558</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C45" s="1"/>
       <c r="E45">
-        <v>369</v>
+        <v>454</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="G45" s="1">
-        <v>0.37847222222222221</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C46" s="1"/>
       <c r="E46">
-        <v>430</v>
+        <v>572</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G46" s="1">
-        <v>0.37847222222222221</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C47" s="1"/>
       <c r="E47">
-        <v>524</v>
+        <v>324</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G47" s="1">
-        <v>0.38194444444444442</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C48" s="1"/>
       <c r="E48">
-        <v>582</v>
+        <v>526</v>
       </c>
       <c r="F48" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="G48" s="1">
-        <v>0.39930555555555558</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="1">
-        <v>0.41319444444444442</v>
-      </c>
-      <c r="D49">
-        <v>659</v>
-      </c>
-      <c r="G49" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="E49">
+        <v>369</v>
+      </c>
+      <c r="F49" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.37847222222222221</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C50" s="1"/>
       <c r="E50">
-        <v>392</v>
+        <v>430</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G50" s="1">
-        <v>0.41319444444444442</v>
+        <v>0.37847222222222221</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C51" s="1"/>
       <c r="E51">
-        <v>613</v>
+        <v>582</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G51" s="1">
-        <v>0.4236111111111111</v>
+        <v>0.39930555555555558</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C52" s="1">
-        <v>0.42708333333333331</v>
+        <v>0.41319444444444442</v>
       </c>
       <c r="D52">
-        <v>537</v>
+        <v>659</v>
       </c>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0.43611111111111112</v>
-      </c>
-      <c r="D53">
-        <v>255</v>
-      </c>
-      <c r="G53" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="E53">
+        <v>392</v>
+      </c>
+      <c r="F53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.41319444444444442</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B54" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0.46111111111111108</v>
-      </c>
-      <c r="D54">
-        <v>916</v>
-      </c>
-      <c r="G54" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="E54">
+        <v>408</v>
+      </c>
+      <c r="F54" t="s">
+        <v>45</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.41666666666666669</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C55" s="1">
-        <v>0.46180555555555558</v>
+        <v>0.4201388888888889</v>
       </c>
       <c r="D55">
-        <v>70</v>
+        <v>348</v>
       </c>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="E56">
-        <v>256</v>
-      </c>
-      <c r="F56" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" t="s">
         <v>28</v>
       </c>
-      <c r="G56" s="1">
-        <v>0.47430555555555554</v>
-      </c>
+      <c r="C56" s="1">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="D56">
+        <v>761</v>
+      </c>
+      <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>42</v>
-      </c>
-      <c r="B57" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57" s="1">
-        <v>0.4861111111111111</v>
-      </c>
-      <c r="D57">
-        <v>857</v>
-      </c>
-      <c r="G57" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="E57">
+        <v>609</v>
+      </c>
+      <c r="F57" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.4236111111111111</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -1441,673 +1450,673 @@
       </c>
       <c r="C58" s="1"/>
       <c r="E58">
-        <v>584</v>
+        <v>4320</v>
       </c>
       <c r="F58" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G58" s="1">
-        <v>0.49305555555555558</v>
+        <v>0.4236111111111111</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="1"/>
-      <c r="E59">
-        <v>424</v>
-      </c>
-      <c r="F59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G59" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D59">
+        <v>537</v>
+      </c>
+      <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="E60">
-        <v>71</v>
-      </c>
-      <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="D60">
+        <v>255</v>
+      </c>
+      <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="E61">
-        <v>319</v>
-      </c>
-      <c r="F61" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" s="1">
-        <v>0.51041666666666663</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.43680555555555556</v>
+      </c>
+      <c r="D61">
+        <v>353</v>
+      </c>
+      <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>24</v>
-      </c>
-      <c r="C62" s="1"/>
-      <c r="E62">
-        <v>915</v>
-      </c>
-      <c r="F62" t="s">
-        <v>25</v>
-      </c>
-      <c r="G62" s="1">
-        <v>0.5131944444444444</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D62">
+        <v>455</v>
+      </c>
+      <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
         <v>22</v>
       </c>
-      <c r="B63" t="s">
-        <v>23</v>
-      </c>
       <c r="C63" s="1">
-        <v>0.52152777777777781</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="D63">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C64" s="1">
-        <v>0.52847222222222223</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="D64">
-        <v>816</v>
+        <v>327</v>
       </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C65" s="1">
-        <v>0.54861111111111105</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="D65">
-        <v>1910</v>
+        <v>573</v>
       </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>42</v>
-      </c>
-      <c r="C66" s="1"/>
-      <c r="E66">
-        <v>856</v>
-      </c>
-      <c r="F66" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="1">
-        <v>0.54861111111111105</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="D66">
+        <v>4337</v>
+      </c>
+      <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C67" s="1">
-        <v>0.55486111111111114</v>
+        <v>0.45555555555555555</v>
       </c>
       <c r="D67">
-        <v>1441</v>
+        <v>8139</v>
       </c>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C68" s="1">
-        <v>0.5625</v>
+        <v>0.46180555555555558</v>
       </c>
       <c r="D68">
-        <v>760</v>
+        <v>70</v>
       </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C69" s="1"/>
       <c r="E69">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G69" s="1">
-        <v>0.56319444444444444</v>
+        <v>0.46527777777777779</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>31</v>
-      </c>
-      <c r="B70" t="s">
-        <v>32</v>
-      </c>
-      <c r="C70" s="1">
-        <v>0.57847222222222217</v>
-      </c>
-      <c r="D70">
-        <v>628</v>
-      </c>
-      <c r="G70" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="E70">
+        <v>256</v>
+      </c>
+      <c r="F70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.47430555555555554</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>48</v>
-      </c>
-      <c r="C71" s="1"/>
-      <c r="E71">
-        <v>4</v>
-      </c>
-      <c r="F71" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" s="1">
-        <v>0.58333333333333337</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="D71">
+        <v>342</v>
+      </c>
+      <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C72" s="1"/>
       <c r="E72">
-        <v>871</v>
+        <v>760</v>
       </c>
       <c r="F72" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G72" s="1">
-        <v>0.58611111111111114</v>
+        <v>0.4861111111111111</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>22</v>
-      </c>
-      <c r="B73" t="s">
-        <v>33</v>
-      </c>
-      <c r="C73" s="1">
-        <v>0.59791666666666665</v>
-      </c>
-      <c r="D73">
-        <v>1035</v>
-      </c>
-      <c r="G73" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="E73">
+        <v>584</v>
+      </c>
+      <c r="F73" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.49305555555555558</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C74" s="1"/>
       <c r="E74">
-        <v>1978</v>
+        <v>650</v>
       </c>
       <c r="F74" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G74" s="1">
-        <v>0.60763888888888895</v>
+        <v>0.49305555555555558</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C75" s="1"/>
       <c r="E75">
-        <v>761</v>
+        <v>349</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G75" s="1">
-        <v>0.61111111111111105</v>
+        <v>0.49583333333333335</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>22</v>
-      </c>
-      <c r="B76" t="s">
-        <v>23</v>
-      </c>
-      <c r="C76" s="1">
-        <v>0.61736111111111114</v>
-      </c>
-      <c r="D76">
-        <v>3151</v>
-      </c>
-      <c r="G76" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="E76">
+        <v>424</v>
+      </c>
+      <c r="F76" t="s">
+        <v>25</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>43</v>
-      </c>
-      <c r="B77" t="s">
-        <v>23</v>
-      </c>
-      <c r="C77" s="1">
-        <v>0.61805555555555558</v>
-      </c>
-      <c r="D77">
-        <v>4053</v>
-      </c>
-      <c r="G77" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="E77">
+        <v>442</v>
+      </c>
+      <c r="F77" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C78" s="1"/>
       <c r="E78">
-        <v>1468</v>
+        <v>71</v>
       </c>
       <c r="F78" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G78" s="1">
-        <v>0.61805555555555558</v>
+        <v>0.50347222222222221</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>7</v>
       </c>
-      <c r="B79" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" s="1">
-        <v>0.62222222222222223</v>
-      </c>
-      <c r="D79">
-        <v>4319</v>
-      </c>
-      <c r="G79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="E79">
+        <v>619</v>
+      </c>
+      <c r="F79" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0.51041666666666663</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>31</v>
-      </c>
-      <c r="C80" s="1"/>
-      <c r="E80">
-        <v>629</v>
-      </c>
-      <c r="F80" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" t="s">
         <v>32</v>
       </c>
-      <c r="G80" s="1">
-        <v>0.63055555555555554</v>
-      </c>
+      <c r="C80" s="1">
+        <v>0.51458333333333328</v>
+      </c>
+      <c r="D80">
+        <v>63</v>
+      </c>
+      <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>22</v>
-      </c>
-      <c r="C81" s="1"/>
-      <c r="E81">
-        <v>1104</v>
-      </c>
-      <c r="F81" t="s">
         <v>33</v>
       </c>
-      <c r="G81" s="1">
-        <v>0.63958333333333328</v>
-      </c>
+      <c r="B81" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="D81">
+        <v>339</v>
+      </c>
+      <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B82" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C82" s="1">
-        <v>0.64166666666666672</v>
+        <v>0.52847222222222223</v>
       </c>
       <c r="D82">
-        <v>1290</v>
+        <v>816</v>
       </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>9</v>
-      </c>
-      <c r="B83" t="s">
-        <v>14</v>
-      </c>
-      <c r="C83" s="1">
-        <v>0.65277777777777779</v>
-      </c>
-      <c r="D83">
-        <v>382</v>
-      </c>
-      <c r="G83" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="E83">
+        <v>343</v>
+      </c>
+      <c r="F83" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0.53541666666666665</v>
+      </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84" s="1"/>
-      <c r="E84">
-        <v>317</v>
-      </c>
-      <c r="F84" t="s">
-        <v>25</v>
-      </c>
-      <c r="G84" s="1">
-        <v>0.65625</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B84" t="s">
+        <v>37</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="D84">
+        <v>1910</v>
+      </c>
+      <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>22</v>
-      </c>
-      <c r="C85" s="1"/>
-      <c r="E85">
-        <v>356</v>
-      </c>
-      <c r="F85" t="s">
-        <v>23</v>
-      </c>
-      <c r="G85" s="1">
-        <v>0.65902777777777777</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B85" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0.55486111111111114</v>
+      </c>
+      <c r="D85">
+        <v>1441</v>
+      </c>
+      <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B86" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C86" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.56319444444444444</v>
       </c>
       <c r="D86">
-        <v>367</v>
+        <v>219</v>
       </c>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>9</v>
-      </c>
-      <c r="B87" t="s">
-        <v>34</v>
-      </c>
-      <c r="C87" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D87">
-        <v>370</v>
-      </c>
-      <c r="G87" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="E87">
+        <v>348</v>
+      </c>
+      <c r="F87" t="s">
+        <v>28</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0.56319444444444444</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>9</v>
-      </c>
-      <c r="B88" t="s">
-        <v>15</v>
-      </c>
-      <c r="C88" s="1">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="D88">
-        <v>397</v>
-      </c>
-      <c r="G88" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="E88">
+        <v>62</v>
+      </c>
+      <c r="F88" t="s">
+        <v>32</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0.56666666666666665</v>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B89" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C89" s="1">
-        <v>0.68055555555555558</v>
+        <v>0.5805555555555556</v>
       </c>
       <c r="D89">
-        <v>441</v>
+        <v>628</v>
       </c>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C90" s="1"/>
       <c r="E90">
-        <v>4053</v>
+        <v>871</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G90" s="1">
-        <v>0.68055555555555558</v>
+        <v>0.58611111111111114</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" s="1"/>
-      <c r="E91">
-        <v>4322</v>
-      </c>
-      <c r="F91" t="s">
-        <v>45</v>
-      </c>
-      <c r="G91" s="1">
-        <v>0.68611111111111112</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B91" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="D91">
+        <v>1035</v>
+      </c>
+      <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>9</v>
-      </c>
-      <c r="B92" t="s">
-        <v>23</v>
-      </c>
-      <c r="C92" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="D92">
-        <v>311</v>
-      </c>
-      <c r="G92" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="E92">
+        <v>1978</v>
+      </c>
+      <c r="F92" t="s">
+        <v>37</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0.60763888888888895</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B93" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C93" s="1">
-        <v>0.6875</v>
+        <v>0.61736111111111114</v>
       </c>
       <c r="D93">
-        <v>318</v>
+        <v>3151</v>
       </c>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>9</v>
-      </c>
-      <c r="B94" t="s">
-        <v>35</v>
-      </c>
-      <c r="C94" s="1">
-        <v>0.69097222222222221</v>
-      </c>
-      <c r="D94">
-        <v>423</v>
-      </c>
-      <c r="G94" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="E94">
+        <v>1468</v>
+      </c>
+      <c r="F94" t="s">
+        <v>25</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0.61805555555555558</v>
+      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>9</v>
-      </c>
-      <c r="B95" t="s">
-        <v>13</v>
-      </c>
-      <c r="C95" s="1">
-        <v>0.69097222222222221</v>
-      </c>
-      <c r="D95">
-        <v>555</v>
-      </c>
-      <c r="G95" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="E95">
+        <v>218</v>
+      </c>
+      <c r="F95" t="s">
+        <v>37</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0.61944444444444446</v>
+      </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C96" s="1"/>
       <c r="E96">
-        <v>1130</v>
+        <v>7138</v>
       </c>
       <c r="F96" t="s">
         <v>28</v>
       </c>
       <c r="G96" s="1">
-        <v>0.69444444444444453</v>
+        <v>0.62083333333333335</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>7</v>
-      </c>
-      <c r="B97" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" s="1">
-        <v>0.69722222222222219</v>
-      </c>
-      <c r="D97">
-        <v>4327</v>
-      </c>
-      <c r="G97" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="E97">
+        <v>629</v>
+      </c>
+      <c r="F97" t="s">
+        <v>18</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0.63055555555555554</v>
+      </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>9</v>
-      </c>
-      <c r="B98" t="s">
-        <v>25</v>
-      </c>
-      <c r="C98" s="1">
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="D98">
-        <v>322</v>
-      </c>
-      <c r="G98" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="E98">
+        <v>1104</v>
+      </c>
+      <c r="F98" t="s">
+        <v>31</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0.63958333333333328</v>
+      </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99" s="1"/>
-      <c r="E99">
-        <v>548</v>
-      </c>
-      <c r="F99" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="1">
-        <v>0.71875</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B99" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0.64166666666666672</v>
+      </c>
+      <c r="D99">
+        <v>1290</v>
+      </c>
+      <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100" s="1"/>
-      <c r="E100">
-        <v>560</v>
-      </c>
-      <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B100" t="s">
+        <v>20</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D100">
+        <v>382</v>
+      </c>
+      <c r="G100" s="1"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C101" s="1"/>
       <c r="E101">
-        <v>617</v>
+        <v>317</v>
       </c>
       <c r="F101" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G101" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C102" s="1"/>
       <c r="E102">
-        <v>620</v>
+        <v>356</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G102" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.65902777777777777</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -2115,238 +2124,238 @@
         <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C103" s="1">
-        <v>0.73333333333333328</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D103">
-        <v>4351</v>
+        <v>367</v>
       </c>
       <c r="G103" s="1"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104" s="1"/>
-      <c r="E104">
-        <v>448</v>
-      </c>
-      <c r="F104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" t="s">
         <v>39</v>
       </c>
-      <c r="G104" s="1">
-        <v>0.74305555555555558</v>
-      </c>
+      <c r="C104" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D104">
+        <v>370</v>
+      </c>
+      <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105" s="1"/>
-      <c r="E105">
-        <v>534</v>
-      </c>
-      <c r="F105" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="1">
-        <v>0.74305555555555558</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B105" t="s">
+        <v>40</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="D105">
+        <v>397</v>
+      </c>
+      <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>7</v>
       </c>
-      <c r="C106" s="1"/>
-      <c r="E106">
-        <v>4308</v>
-      </c>
-      <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" s="1">
-        <v>0.74583333333333335</v>
-      </c>
+      <c r="B106" t="s">
+        <v>31</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="D106">
+        <v>441</v>
+      </c>
+      <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B107" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C107" s="1">
-        <v>0.74652777777777779</v>
+        <v>0.68402777777777779</v>
       </c>
       <c r="D107">
-        <v>612</v>
+        <v>651</v>
       </c>
       <c r="G107" s="1"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" s="1"/>
-      <c r="E108">
-        <v>528</v>
-      </c>
-      <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" s="1">
-        <v>0.76041666666666663</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B108" t="s">
+        <v>28</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="D108">
+        <v>311</v>
+      </c>
+      <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109" s="1"/>
-      <c r="E109">
-        <v>566</v>
-      </c>
-      <c r="F109" t="s">
-        <v>19</v>
-      </c>
-      <c r="G109" s="1">
-        <v>0.77083333333333337</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B109" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="D109">
+        <v>618</v>
+      </c>
+      <c r="G109" s="1"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C110" s="1"/>
       <c r="E110">
-        <v>4312</v>
+        <v>1130</v>
       </c>
       <c r="F110" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G110" s="1">
-        <v>0.77638888888888891</v>
+        <v>0.69444444444444453</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C111" s="1">
-        <v>0.78125</v>
+        <v>0.69722222222222219</v>
       </c>
       <c r="D111">
-        <v>931</v>
+        <v>4327</v>
       </c>
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C112" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="D112">
-        <v>222</v>
+        <v>322</v>
       </c>
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>9</v>
-      </c>
-      <c r="B113" t="s">
-        <v>32</v>
-      </c>
-      <c r="C113" s="1">
-        <v>0.79513888888888884</v>
-      </c>
-      <c r="D113">
-        <v>431</v>
-      </c>
-      <c r="G113" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="E113">
+        <v>530</v>
+      </c>
+      <c r="F113" t="s">
+        <v>11</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>9</v>
-      </c>
-      <c r="B114" t="s">
-        <v>19</v>
-      </c>
-      <c r="C114" s="1">
-        <v>0.79513888888888884</v>
-      </c>
-      <c r="D114">
-        <v>565</v>
-      </c>
-      <c r="G114" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="E114">
+        <v>532</v>
+      </c>
+      <c r="F114" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C115" s="1"/>
       <c r="E115">
-        <v>670</v>
+        <v>550</v>
       </c>
       <c r="F115" t="s">
         <v>19</v>
       </c>
       <c r="G115" s="1">
-        <v>0.8125</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>9</v>
-      </c>
-      <c r="B116" t="s">
-        <v>28</v>
-      </c>
-      <c r="C116" s="1">
-        <v>0.81944444444444442</v>
-      </c>
-      <c r="D116">
-        <v>425</v>
-      </c>
-      <c r="G116" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C116" s="1"/>
+      <c r="E116">
+        <v>560</v>
+      </c>
+      <c r="F116" t="s">
+        <v>23</v>
+      </c>
+      <c r="G116" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>9</v>
-      </c>
-      <c r="B117" t="s">
-        <v>11</v>
-      </c>
-      <c r="C117" s="1">
-        <v>0.82638888888888884</v>
-      </c>
-      <c r="D117">
-        <v>523</v>
-      </c>
-      <c r="G117" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="E117">
+        <v>620</v>
+      </c>
+      <c r="F117" t="s">
+        <v>13</v>
+      </c>
+      <c r="G117" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C118" s="1">
-        <v>0.82986111111111116</v>
+        <v>0.73472222222222228</v>
       </c>
       <c r="D118">
-        <v>583</v>
+        <v>4321</v>
       </c>
       <c r="G118" s="1"/>
     </row>
@@ -2354,421 +2363,421 @@
       <c r="A119" t="s">
         <v>9</v>
       </c>
-      <c r="B119" t="s">
-        <v>37</v>
-      </c>
-      <c r="C119" s="1">
-        <v>0.84375</v>
-      </c>
-      <c r="D119">
-        <v>325</v>
-      </c>
-      <c r="G119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="E119">
+        <v>4308</v>
+      </c>
+      <c r="F119" t="s">
+        <v>13</v>
+      </c>
+      <c r="G119" s="1">
+        <v>0.74583333333333335</v>
+      </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>9</v>
-      </c>
-      <c r="B120" t="s">
-        <v>38</v>
-      </c>
-      <c r="C120" s="1">
-        <v>0.84375</v>
-      </c>
-      <c r="D120">
-        <v>445</v>
-      </c>
-      <c r="G120" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C120" s="1"/>
+      <c r="E120">
+        <v>528</v>
+      </c>
+      <c r="F120" t="s">
+        <v>13</v>
+      </c>
+      <c r="G120" s="1">
+        <v>0.76041666666666663</v>
+      </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>9</v>
-      </c>
-      <c r="C121" s="1"/>
-      <c r="E121">
-        <v>590</v>
-      </c>
-      <c r="F121" t="s">
-        <v>8</v>
-      </c>
-      <c r="G121" s="1">
-        <v>0.85069444444444442</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B121" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" s="1">
+        <v>0.7631944444444444</v>
+      </c>
+      <c r="D121">
+        <v>4040</v>
+      </c>
+      <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>9</v>
       </c>
-      <c r="B122" t="s">
-        <v>15</v>
-      </c>
-      <c r="C122" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D122">
-        <v>393</v>
-      </c>
-      <c r="G122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="E122">
+        <v>4312</v>
+      </c>
+      <c r="F122" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="1">
+        <v>0.77638888888888891</v>
+      </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>9</v>
-      </c>
-      <c r="B123" t="s">
-        <v>39</v>
-      </c>
-      <c r="C123" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D123">
-        <v>449</v>
-      </c>
-      <c r="G123" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C123" s="1"/>
+      <c r="E123">
+        <v>558</v>
+      </c>
+      <c r="F123" t="s">
+        <v>23</v>
+      </c>
+      <c r="G123" s="1">
+        <v>0.78819444444444442</v>
+      </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C124" s="1">
-        <v>0.85972222222222217</v>
+        <v>0.79027777777777775</v>
       </c>
       <c r="D124">
-        <v>881</v>
+        <v>4331</v>
       </c>
       <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B125" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C125" s="1">
-        <v>0.86805555555555558</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D125">
-        <v>563</v>
+        <v>222</v>
       </c>
       <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B126" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C126" s="1">
-        <v>0.87152777777777779</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="D126">
-        <v>316</v>
+        <v>431</v>
       </c>
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B127" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C127" s="1">
-        <v>0.875</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="D127">
-        <v>535</v>
+        <v>565</v>
       </c>
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C128" s="1"/>
       <c r="E128">
-        <v>222</v>
+        <v>4041</v>
       </c>
       <c r="F128" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="G128" s="1">
-        <v>0.875</v>
+        <v>0.79513888888888884</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>9</v>
-      </c>
-      <c r="B129" t="s">
-        <v>11</v>
-      </c>
-      <c r="C129" s="1">
-        <v>0.87847222222222221</v>
-      </c>
-      <c r="D129">
-        <v>525</v>
-      </c>
-      <c r="G129" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C129" s="1"/>
+      <c r="E129">
+        <v>670</v>
+      </c>
+      <c r="F129" t="s">
+        <v>17</v>
+      </c>
+      <c r="G129" s="1">
+        <v>0.8125</v>
+      </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C130" s="1">
-        <v>0.87847222222222221</v>
+        <v>0.81944444444444442</v>
       </c>
       <c r="D130">
-        <v>557</v>
+        <v>425</v>
       </c>
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B131" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C131" s="1">
-        <v>0.87847222222222221</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="D131">
-        <v>616</v>
+        <v>523</v>
       </c>
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B132" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C132" s="1">
-        <v>0.8881944444444444</v>
+        <v>0.82986111111111116</v>
       </c>
       <c r="D132">
-        <v>1461</v>
+        <v>583</v>
       </c>
       <c r="G132" s="1"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C133" s="1">
-        <v>0.91319444444444442</v>
+        <v>0.83680555555555558</v>
       </c>
       <c r="D133">
-        <v>585</v>
+        <v>329</v>
       </c>
       <c r="G133" s="1"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>9</v>
-      </c>
-      <c r="C134" s="1"/>
-      <c r="E134">
-        <v>365</v>
-      </c>
-      <c r="F134" t="s">
-        <v>14</v>
-      </c>
-      <c r="G134" s="1">
-        <v>0.92013888888888884</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B134" t="s">
+        <v>29</v>
+      </c>
+      <c r="C134" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="D134">
+        <v>325</v>
+      </c>
+      <c r="G134" s="1"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C135" s="1"/>
       <c r="E135">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="F135" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G135" s="1">
-        <v>0.92013888888888884</v>
+        <v>0.85069444444444442</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>9</v>
-      </c>
-      <c r="C136" s="1"/>
-      <c r="E136">
-        <v>429</v>
-      </c>
-      <c r="F136" t="s">
-        <v>16</v>
-      </c>
-      <c r="G136" s="1">
-        <v>0.92361111111111116</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B136" t="s">
+        <v>40</v>
+      </c>
+      <c r="C136" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D136">
+        <v>393</v>
+      </c>
+      <c r="G136" s="1"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B137" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C137" s="1">
-        <v>0.92986111111111114</v>
+        <v>0.85972222222222217</v>
       </c>
       <c r="D137">
-        <v>4339</v>
+        <v>881</v>
       </c>
       <c r="G137" s="1"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>9</v>
-      </c>
-      <c r="C138" s="1"/>
-      <c r="E138">
-        <v>578</v>
-      </c>
-      <c r="F138" t="s">
-        <v>13</v>
-      </c>
-      <c r="G138" s="1">
-        <v>0.93055555555555558</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B138" t="s">
+        <v>31</v>
+      </c>
+      <c r="C138" s="1">
+        <v>0.86805555555555558</v>
+      </c>
+      <c r="D138">
+        <v>443</v>
+      </c>
+      <c r="G138" s="1"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>9</v>
-      </c>
-      <c r="C139" s="1"/>
-      <c r="E139">
-        <v>627</v>
-      </c>
-      <c r="F139" t="s">
-        <v>17</v>
-      </c>
-      <c r="G139" s="1">
-        <v>0.93402777777777779</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B139" t="s">
+        <v>23</v>
+      </c>
+      <c r="C139" s="1">
+        <v>0.86805555555555558</v>
+      </c>
+      <c r="D139">
+        <v>563</v>
+      </c>
+      <c r="G139" s="1"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>9</v>
-      </c>
-      <c r="C140" s="1"/>
-      <c r="E140">
-        <v>574</v>
-      </c>
-      <c r="F140" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="1">
-        <v>0.9375</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B140" t="s">
+        <v>35</v>
+      </c>
+      <c r="C140" s="1">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="D140">
+        <v>316</v>
+      </c>
+      <c r="G140" s="1"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C141" s="1"/>
       <c r="E141">
-        <v>315</v>
+        <v>222</v>
       </c>
       <c r="F141" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G141" s="1">
-        <v>0.94097222222222221</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>9</v>
-      </c>
-      <c r="C142" s="1"/>
-      <c r="E142">
-        <v>658</v>
-      </c>
-      <c r="F142" t="s">
-        <v>19</v>
-      </c>
-      <c r="G142" s="1">
-        <v>0.94444444444444442</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B142" t="s">
+        <v>45</v>
+      </c>
+      <c r="C142" s="1">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="D142">
+        <v>409</v>
+      </c>
+      <c r="G142" s="1"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B143" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C143" s="1">
-        <v>0.94930555555555562</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D143">
-        <v>1425</v>
+        <v>527</v>
       </c>
       <c r="G143" s="1"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>9</v>
-      </c>
-      <c r="C144" s="1"/>
-      <c r="E144">
-        <v>452</v>
-      </c>
-      <c r="F144" t="s">
-        <v>39</v>
-      </c>
-      <c r="G144" s="1">
-        <v>0.95486111111111116</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B144" t="s">
+        <v>25</v>
+      </c>
+      <c r="C144" s="1">
+        <v>0.8881944444444444</v>
+      </c>
+      <c r="D144">
+        <v>1461</v>
+      </c>
+      <c r="G144" s="1"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>9</v>
-      </c>
-      <c r="C145" s="1"/>
-      <c r="E145">
-        <v>457</v>
-      </c>
-      <c r="F145" t="s">
-        <v>47</v>
-      </c>
-      <c r="G145" s="1">
-        <v>0.95486111111111116</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B145" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" s="1">
+        <v>0.89236111111111116</v>
+      </c>
+      <c r="D145">
+        <v>608</v>
+      </c>
+      <c r="G145" s="1"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>9</v>
-      </c>
-      <c r="C146" s="1"/>
-      <c r="E146">
-        <v>432</v>
-      </c>
-      <c r="F146" t="s">
-        <v>32</v>
-      </c>
-      <c r="G146" s="1">
-        <v>0.95833333333333337</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B146" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146" s="1">
+        <v>0.91319444444444442</v>
+      </c>
+      <c r="D146">
+        <v>585</v>
+      </c>
+      <c r="G146" s="1"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
@@ -2776,74 +2785,149 @@
       </c>
       <c r="C147" s="1"/>
       <c r="E147">
-        <v>4336</v>
+        <v>365</v>
       </c>
       <c r="F147" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G147" s="1">
-        <v>0.97152777777777777</v>
+        <v>0.92013888888888884</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C148" s="1"/>
       <c r="E148">
-        <v>326</v>
+        <v>580</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="G148" s="1">
-        <v>0.97569444444444442</v>
+        <v>0.92013888888888884</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>24</v>
-      </c>
-      <c r="B149" t="s">
-        <v>25</v>
-      </c>
-      <c r="C149" s="1">
-        <v>0.98333333333333339</v>
-      </c>
-      <c r="D149">
-        <v>878</v>
-      </c>
-      <c r="G149" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C149" s="1"/>
+      <c r="E149">
+        <v>429</v>
+      </c>
+      <c r="F149" t="s">
+        <v>21</v>
+      </c>
+      <c r="G149" s="1">
+        <v>0.92361111111111116</v>
+      </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>43</v>
-      </c>
-      <c r="B150" t="s">
-        <v>14</v>
-      </c>
-      <c r="C150" s="1">
-        <v>0.98402777777777772</v>
-      </c>
-      <c r="D150">
-        <v>4156</v>
-      </c>
-      <c r="G150" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C150" s="1"/>
+      <c r="E150">
+        <v>578</v>
+      </c>
+      <c r="F150" t="s">
+        <v>19</v>
+      </c>
+      <c r="G150" s="1">
+        <v>0.93055555555555558</v>
+      </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C151" s="1"/>
       <c r="E151">
-        <v>339</v>
+        <v>651</v>
       </c>
       <c r="F151" t="s">
+        <v>22</v>
+      </c>
+      <c r="G151" s="1">
+        <v>0.93402777777777779</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" s="1"/>
+      <c r="E152">
+        <v>315</v>
+      </c>
+      <c r="F152" t="s">
         <v>40</v>
       </c>
-      <c r="G151" s="1">
-        <v>0.99583333333333324</v>
-      </c>
+      <c r="G152" s="1">
+        <v>0.94097222222222221</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" s="1"/>
+      <c r="E153">
+        <v>658</v>
+      </c>
+      <c r="F153" t="s">
+        <v>17</v>
+      </c>
+      <c r="G153" s="1">
+        <v>0.94444444444444442</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" s="1"/>
+      <c r="E154">
+        <v>452</v>
+      </c>
+      <c r="F154" t="s">
+        <v>8</v>
+      </c>
+      <c r="G154" s="1">
+        <v>0.95486111111111116</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" s="1"/>
+      <c r="E155">
+        <v>457</v>
+      </c>
+      <c r="F155" t="s">
+        <v>16</v>
+      </c>
+      <c r="G155" s="1">
+        <v>0.95486111111111116</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>34</v>
+      </c>
+      <c r="B156" t="s">
+        <v>35</v>
+      </c>
+      <c r="C156" s="1">
+        <v>0.98333333333333339</v>
+      </c>
+      <c r="D156">
+        <v>878</v>
+      </c>
+      <c r="G156" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/operaciones.xlsx
+++ b/public/operaciones.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulm\Desktop\Itinerarios_2026-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25FC12C7-C573-46BD-A279-0FA8F81392CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E71CE13-B581-403B-8451-C4F26E2FAF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E6F5099A-3664-4AAD-B2D5-B7F8504D8A82}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{03D1434B-7F37-4D2B-8FC9-408A6A772728}"/>
   </bookViews>
   <sheets>
-    <sheet name="24-01" sheetId="1" r:id="rId1"/>
+    <sheet name="25-01" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="48">
   <si>
     <t>AEROLINEA</t>
   </si>
@@ -59,139 +59,127 @@
     <t>ETD</t>
   </si>
   <si>
+    <t>VOS</t>
+  </si>
+  <si>
+    <t>KIAD</t>
+  </si>
+  <si>
     <t>AVA</t>
   </si>
   <si>
+    <t>KONT</t>
+  </si>
+  <si>
+    <t>KLAX</t>
+  </si>
+  <si>
+    <t>UAL</t>
+  </si>
+  <si>
+    <t>SEQM</t>
+  </si>
+  <si>
+    <t>MGGT</t>
+  </si>
+  <si>
+    <t>SKBO</t>
+  </si>
+  <si>
+    <t>MNMG</t>
+  </si>
+  <si>
+    <t>SPJC</t>
+  </si>
+  <si>
+    <t>MROC</t>
+  </si>
+  <si>
+    <t>KSFO</t>
+  </si>
+  <si>
+    <t>KJFK</t>
+  </si>
+  <si>
+    <t>MHLM</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>KMIA</t>
+  </si>
+  <si>
+    <t>TAG</t>
+  </si>
+  <si>
+    <t>MHRO</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>MPTO</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>KATL</t>
+  </si>
+  <si>
+    <t>KIAH</t>
+  </si>
+  <si>
+    <t>AMX</t>
+  </si>
+  <si>
+    <t>MMMX</t>
+  </si>
+  <si>
+    <t>KDFW</t>
+  </si>
+  <si>
+    <t>NKS</t>
+  </si>
+  <si>
+    <t>KFLL</t>
+  </si>
+  <si>
+    <t>SKRG</t>
+  </si>
+  <si>
+    <t>KMCO</t>
+  </si>
+  <si>
+    <t>IBE</t>
+  </si>
+  <si>
+    <t>CYYZ</t>
+  </si>
+  <si>
+    <t>KBOS</t>
+  </si>
+  <si>
     <t>MHPR</t>
   </si>
   <si>
-    <t>VOS</t>
-  </si>
-  <si>
-    <t>KIAD</t>
-  </si>
-  <si>
-    <t>KONT</t>
-  </si>
-  <si>
-    <t>MHLM</t>
-  </si>
-  <si>
-    <t>KLAX</t>
+    <t>KEWR</t>
+  </si>
+  <si>
+    <t>DHL</t>
+  </si>
+  <si>
+    <t>TPA</t>
+  </si>
+  <si>
+    <t>AJT</t>
   </si>
   <si>
     <t>KOAK</t>
   </si>
   <si>
-    <t>UAL</t>
-  </si>
-  <si>
-    <t>SEQM</t>
-  </si>
-  <si>
-    <t>KJFK</t>
-  </si>
-  <si>
-    <t>MMMX</t>
-  </si>
-  <si>
-    <t>MGGT</t>
-  </si>
-  <si>
-    <t>SKBO</t>
-  </si>
-  <si>
-    <t>SPJC</t>
-  </si>
-  <si>
-    <t>MROC</t>
-  </si>
-  <si>
-    <t>KSFO</t>
-  </si>
-  <si>
-    <t>FFT</t>
-  </si>
-  <si>
-    <t>KIAH</t>
-  </si>
-  <si>
-    <t>NKS</t>
-  </si>
-  <si>
-    <t>KFLL</t>
-  </si>
-  <si>
-    <t>KMIA</t>
-  </si>
-  <si>
-    <t>CYYZ</t>
-  </si>
-  <si>
-    <t>KEWR</t>
-  </si>
-  <si>
-    <t>KDFW</t>
-  </si>
-  <si>
-    <t>KMCO</t>
-  </si>
-  <si>
-    <t>AAL</t>
-  </si>
-  <si>
-    <t>CMP</t>
-  </si>
-  <si>
-    <t>MPTO</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>KATL</t>
-  </si>
-  <si>
-    <t>AMX</t>
-  </si>
-  <si>
-    <t>SKRG</t>
-  </si>
-  <si>
-    <t>MNMG</t>
-  </si>
-  <si>
-    <t>MMUN</t>
-  </si>
-  <si>
-    <t>VOC</t>
-  </si>
-  <si>
-    <t>IBE</t>
-  </si>
-  <si>
-    <t>CYUL</t>
-  </si>
-  <si>
-    <t>KORD</t>
-  </si>
-  <si>
-    <t>KLAS</t>
-  </si>
-  <si>
-    <t>DHL</t>
-  </si>
-  <si>
-    <t>AJT</t>
-  </si>
-  <si>
-    <t>FDX</t>
-  </si>
-  <si>
     <t>LEMD</t>
-  </si>
-  <si>
-    <t>TPA</t>
   </si>
 </sst>
 </file>
@@ -566,8 +554,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D6DDD0-CB42-4F31-961F-A25777D78209}">
-  <dimension ref="A1:G156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70692E52-3BC1-44B0-98E1-244F763799BB}">
+  <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,76 +594,76 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1"/>
       <c r="E2">
-        <v>4156</v>
+        <v>1670</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1">
-        <v>5.347222222222222E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="E3">
-        <v>1670</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.125</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="D3">
+        <v>222</v>
+      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
-        <v>0.15972222222222224</v>
+        <v>0.20972222222222223</v>
       </c>
       <c r="D4">
-        <v>222</v>
+        <v>4313</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1"/>
       <c r="E5">
-        <v>224</v>
+        <v>879</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1">
-        <v>0.20138888888888887</v>
+        <v>0.21041666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>0.20833333333333334</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="D6">
-        <v>453</v>
+        <v>531</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -683,30 +671,30 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.20972222222222223</v>
-      </c>
-      <c r="D7">
-        <v>4313</v>
-      </c>
-      <c r="G7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="E7">
+        <v>556</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.22916666666666666</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1"/>
       <c r="E8">
-        <v>879</v>
+        <v>4350</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1">
-        <v>0.21041666666666667</v>
+        <v>0.22916666666666666</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -717,40 +705,40 @@
         <v>11</v>
       </c>
       <c r="C9" s="1">
-        <v>0.22222222222222221</v>
+        <v>0.23541666666666666</v>
       </c>
       <c r="D9">
-        <v>531</v>
+        <v>4309</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>0.22222222222222221</v>
+        <v>0.23958333333333334</v>
       </c>
       <c r="D10">
-        <v>575</v>
+        <v>1266</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="1">
-        <v>0.22569444444444445</v>
+        <v>0.24652777777777779</v>
       </c>
       <c r="D11">
-        <v>533</v>
+        <v>456</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -762,10 +750,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="1">
-        <v>0.23472222222222222</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="D12">
-        <v>4323</v>
+        <v>579</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -774,43 +762,43 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1">
-        <v>0.23541666666666666</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D13">
-        <v>4309</v>
+        <v>366</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
-        <v>0.23958333333333334</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D14">
-        <v>1266</v>
+        <v>529</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="1">
-        <v>0.24652777777777779</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="D15">
-        <v>456</v>
+        <v>314</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -818,74 +806,74 @@
       <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.24652777777777779</v>
-      </c>
-      <c r="D16">
-        <v>567</v>
-      </c>
-      <c r="G16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="E16">
+        <v>4326</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.2638888888888889</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
-        <v>0.25347222222222221</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D17">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1">
-        <v>0.25694444444444442</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D18">
-        <v>579</v>
+        <v>626</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D19">
-        <v>366</v>
+        <v>561</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D20">
-        <v>529</v>
+        <v>591</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -893,121 +881,121 @@
       <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="E21">
-        <v>4326</v>
-      </c>
-      <c r="F21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.2638888888888889</v>
-      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D21">
+        <v>671</v>
+      </c>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.2673611111111111</v>
-      </c>
-      <c r="D22">
-        <v>428</v>
-      </c>
-      <c r="G22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="E22">
+        <v>4318</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.28611111111111109</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.2673611111111111</v>
-      </c>
-      <c r="D23">
-        <v>650</v>
-      </c>
-      <c r="G23" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="E23">
+        <v>1467</v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.28819444444444448</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C24" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="D24">
-        <v>561</v>
+        <v>621</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D25">
-        <v>591</v>
-      </c>
-      <c r="G25" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="E25">
+        <v>321</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D26">
-        <v>671</v>
-      </c>
-      <c r="G26" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="E26">
+        <v>323</v>
+      </c>
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C27" s="1"/>
       <c r="E27">
-        <v>1467</v>
+        <v>396</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G27" s="1">
-        <v>0.28819444444444448</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="D28">
-        <v>621</v>
-      </c>
-      <c r="G28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="E28">
+        <v>4338</v>
+      </c>
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.31527777777777777</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -1015,599 +1003,599 @@
       </c>
       <c r="C29" s="1"/>
       <c r="E29">
-        <v>4330</v>
+        <v>310</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G29" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C30" s="1"/>
       <c r="E30">
-        <v>321</v>
+        <v>440</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G30" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C31" s="1"/>
       <c r="E31">
-        <v>323</v>
+        <v>536</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G31" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C32" s="1"/>
       <c r="E32">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="F32" t="s">
         <v>40</v>
       </c>
       <c r="G32" s="1">
-        <v>0.3125</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C33" s="1"/>
       <c r="E33">
-        <v>884</v>
+        <v>562</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G33" s="1">
-        <v>0.3125</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C34" s="1"/>
       <c r="E34">
-        <v>310</v>
+        <v>368</v>
       </c>
       <c r="F34" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G34" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C35" s="1"/>
       <c r="E35">
-        <v>328</v>
+        <v>383</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="G35" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C36" s="1"/>
       <c r="E36">
-        <v>440</v>
+        <v>522</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G36" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="E37">
-        <v>536</v>
-      </c>
-      <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0.31597222222222221</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="D37">
+        <v>581</v>
+      </c>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C38" s="1"/>
       <c r="E38">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G38" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.33680555555555558</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0.3298611111111111</v>
-      </c>
-      <c r="D39">
-        <v>549</v>
-      </c>
-      <c r="G39" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="E39">
+        <v>554</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.34027777777777779</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C40" s="1"/>
       <c r="E40">
-        <v>368</v>
+        <v>324</v>
       </c>
       <c r="F40" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G40" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C41" s="1"/>
       <c r="E41">
-        <v>383</v>
+        <v>884</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G41" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.35833333333333334</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="E42">
-        <v>522</v>
-      </c>
-      <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0.33333333333333331</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="D42">
+        <v>551</v>
+      </c>
+      <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0.33680555555555558</v>
-      </c>
-      <c r="D43">
-        <v>601</v>
-      </c>
-      <c r="G43" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="E43">
+        <v>422</v>
+      </c>
+      <c r="F43" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.36458333333333331</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="E44">
-        <v>564</v>
-      </c>
-      <c r="F44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0.33680555555555558</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="D44">
+        <v>916</v>
+      </c>
+      <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="E45">
-        <v>454</v>
-      </c>
-      <c r="F45" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0.34027777777777779</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.37847222222222221</v>
+      </c>
+      <c r="D45">
+        <v>559</v>
+      </c>
+      <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C46" s="1"/>
       <c r="E46">
-        <v>572</v>
+        <v>369</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G46" s="1">
-        <v>0.34027777777777779</v>
+        <v>0.37847222222222221</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C47" s="1"/>
       <c r="E47">
-        <v>324</v>
+        <v>430</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G47" s="1">
-        <v>0.34375</v>
+        <v>0.37847222222222221</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C48" s="1"/>
       <c r="E48">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F48" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G48" s="1">
-        <v>0.375</v>
+        <v>0.38194444444444442</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C49" s="1"/>
       <c r="E49">
-        <v>369</v>
+        <v>582</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="G49" s="1">
-        <v>0.37847222222222221</v>
+        <v>0.39930555555555558</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="E50">
-        <v>430</v>
-      </c>
-      <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" s="1">
-        <v>0.37847222222222221</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="D50">
+        <v>659</v>
+      </c>
+      <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C51" s="1"/>
       <c r="E51">
-        <v>582</v>
+        <v>392</v>
       </c>
       <c r="F51" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G51" s="1">
-        <v>0.39930555555555558</v>
+        <v>0.41319444444444442</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0.41319444444444442</v>
-      </c>
-      <c r="D52">
-        <v>659</v>
-      </c>
-      <c r="G52" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="E52">
+        <v>611</v>
+      </c>
+      <c r="F52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.4236111111111111</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="E53">
-        <v>392</v>
-      </c>
-      <c r="F53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0.41319444444444442</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D53">
+        <v>537</v>
+      </c>
+      <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C54" s="1"/>
       <c r="E54">
-        <v>408</v>
+        <v>916</v>
       </c>
       <c r="F54" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="G54" s="1">
-        <v>0.41666666666666669</v>
+        <v>0.42708333333333331</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C55" s="1">
-        <v>0.4201388888888889</v>
+        <v>0.44097222222222221</v>
       </c>
       <c r="D55">
-        <v>348</v>
+        <v>4053</v>
       </c>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C56" s="1">
-        <v>0.4236111111111111</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="D56">
-        <v>761</v>
+        <v>320</v>
       </c>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="1"/>
-      <c r="E57">
-        <v>609</v>
-      </c>
-      <c r="F57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" s="1">
-        <v>0.4236111111111111</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="D57">
+        <v>70</v>
+      </c>
+      <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="E58">
-        <v>4320</v>
-      </c>
-      <c r="F58" t="s">
-        <v>25</v>
-      </c>
-      <c r="G58" s="1">
-        <v>0.4236111111111111</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D58">
+        <v>771</v>
+      </c>
+      <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" s="1">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="D59">
-        <v>537</v>
-      </c>
-      <c r="G59" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="E59">
+        <v>584</v>
+      </c>
+      <c r="F59" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.49305555555555558</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>26</v>
-      </c>
-      <c r="B60" t="s">
-        <v>27</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0.43611111111111112</v>
-      </c>
-      <c r="D60">
-        <v>255</v>
-      </c>
-      <c r="G60" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="E60">
+        <v>424</v>
+      </c>
+      <c r="F60" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>24</v>
-      </c>
-      <c r="B61" t="s">
-        <v>28</v>
-      </c>
-      <c r="C61" s="1">
-        <v>0.43680555555555556</v>
-      </c>
-      <c r="D61">
-        <v>353</v>
-      </c>
-      <c r="G61" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="E61">
+        <v>71</v>
+      </c>
+      <c r="F61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="1">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="D62">
-        <v>455</v>
-      </c>
-      <c r="G62" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="E62">
+        <v>4053</v>
+      </c>
+      <c r="F62" t="s">
+        <v>36</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" t="s">
-        <v>22</v>
-      </c>
-      <c r="C63" s="1">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="D63">
-        <v>320</v>
-      </c>
-      <c r="G63" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="E63">
+        <v>319</v>
+      </c>
+      <c r="F63" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0.51041666666666663</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C64" s="1">
-        <v>0.4513888888888889</v>
+        <v>0.52152777777777781</v>
       </c>
       <c r="D64">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C65" s="1">
-        <v>0.4513888888888889</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="D65">
-        <v>573</v>
+        <v>420</v>
       </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C66" s="1">
-        <v>0.45347222222222222</v>
+        <v>0.52847222222222223</v>
       </c>
       <c r="D66">
-        <v>4337</v>
+        <v>816</v>
       </c>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C67" s="1">
-        <v>0.45555555555555555</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="D67">
-        <v>8139</v>
+        <v>1910</v>
       </c>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" t="s">
-        <v>20</v>
-      </c>
-      <c r="C68" s="1">
-        <v>0.46180555555555558</v>
-      </c>
-      <c r="D68">
-        <v>70</v>
-      </c>
-      <c r="G68" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="E68">
+        <v>770</v>
+      </c>
+      <c r="F68" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.54861111111111105</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -1615,747 +1603,747 @@
       </c>
       <c r="C69" s="1"/>
       <c r="E69">
-        <v>352</v>
+        <v>421</v>
       </c>
       <c r="F69" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G69" s="1">
-        <v>0.46527777777777779</v>
+        <v>0.55208333333333337</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>26</v>
-      </c>
-      <c r="C70" s="1"/>
-      <c r="E70">
-        <v>256</v>
-      </c>
-      <c r="F70" t="s">
-        <v>25</v>
-      </c>
-      <c r="G70" s="1">
-        <v>0.47430555555555554</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.55486111111111114</v>
+      </c>
+      <c r="D70">
+        <v>1441</v>
+      </c>
+      <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>24</v>
-      </c>
-      <c r="B71" t="s">
-        <v>31</v>
-      </c>
-      <c r="C71" s="1">
-        <v>0.48333333333333334</v>
-      </c>
-      <c r="D71">
-        <v>342</v>
-      </c>
-      <c r="G71" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="E71">
+        <v>348</v>
+      </c>
+      <c r="F71" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0.56319444444444444</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>48</v>
-      </c>
-      <c r="C72" s="1"/>
-      <c r="E72">
-        <v>760</v>
-      </c>
-      <c r="F72" t="s">
-        <v>28</v>
-      </c>
-      <c r="G72" s="1">
-        <v>0.4861111111111111</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B72" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0.57847222222222217</v>
+      </c>
+      <c r="D72">
+        <v>628</v>
+      </c>
+      <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C73" s="1"/>
       <c r="E73">
-        <v>584</v>
+        <v>871</v>
       </c>
       <c r="F73" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G73" s="1">
-        <v>0.49305555555555558</v>
+        <v>0.58611111111111114</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" s="1"/>
-      <c r="E74">
-        <v>650</v>
-      </c>
-      <c r="F74" t="s">
-        <v>41</v>
-      </c>
-      <c r="G74" s="1">
-        <v>0.49305555555555558</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B74" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="D74">
+        <v>1035</v>
+      </c>
+      <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C75" s="1"/>
       <c r="E75">
-        <v>349</v>
+        <v>1978</v>
       </c>
       <c r="F75" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G75" s="1">
-        <v>0.49583333333333335</v>
+        <v>0.60763888888888895</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="1"/>
-      <c r="E76">
-        <v>424</v>
-      </c>
-      <c r="F76" t="s">
-        <v>25</v>
-      </c>
-      <c r="G76" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B76" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0.61736111111111114</v>
+      </c>
+      <c r="D76">
+        <v>3151</v>
+      </c>
+      <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C77" s="1"/>
       <c r="E77">
-        <v>442</v>
+        <v>1468</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G77" s="1">
-        <v>0.50347222222222221</v>
+        <v>0.61805555555555558</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="1"/>
-      <c r="E78">
-        <v>71</v>
-      </c>
-      <c r="F78" t="s">
-        <v>20</v>
-      </c>
-      <c r="G78" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B78" t="s">
+        <v>35</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.61944444444444446</v>
+      </c>
+      <c r="D78">
+        <v>1031</v>
+      </c>
+      <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>7</v>
       </c>
-      <c r="C79" s="1"/>
-      <c r="E79">
-        <v>619</v>
-      </c>
-      <c r="F79" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" s="1">
-        <v>0.51041666666666663</v>
-      </c>
+      <c r="B79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="D79">
+        <v>4319</v>
+      </c>
+      <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>24</v>
-      </c>
-      <c r="B80" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="E80">
+        <v>629</v>
+      </c>
+      <c r="F80" t="s">
         <v>32</v>
       </c>
-      <c r="C80" s="1">
-        <v>0.51458333333333328</v>
-      </c>
-      <c r="D80">
-        <v>63</v>
-      </c>
-      <c r="G80" s="1"/>
+      <c r="G80" s="1">
+        <v>0.63055555555555554</v>
+      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="E81">
+        <v>1104</v>
+      </c>
+      <c r="F81" t="s">
         <v>33</v>
       </c>
-      <c r="B81" t="s">
-        <v>28</v>
-      </c>
-      <c r="C81" s="1">
-        <v>0.52152777777777781</v>
-      </c>
-      <c r="D81">
-        <v>339</v>
-      </c>
-      <c r="G81" s="1"/>
+      <c r="G81" s="1">
+        <v>0.63958333333333328</v>
+      </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C82" s="1">
-        <v>0.52847222222222223</v>
+        <v>0.64166666666666672</v>
       </c>
       <c r="D82">
-        <v>816</v>
+        <v>1290</v>
       </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>24</v>
-      </c>
-      <c r="C83" s="1"/>
-      <c r="E83">
-        <v>343</v>
-      </c>
-      <c r="F83" t="s">
-        <v>31</v>
-      </c>
-      <c r="G83" s="1">
-        <v>0.53541666666666665</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D83">
+        <v>382</v>
+      </c>
+      <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>36</v>
-      </c>
-      <c r="B84" t="s">
-        <v>37</v>
-      </c>
-      <c r="C84" s="1">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="D84">
-        <v>1910</v>
-      </c>
-      <c r="G84" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="E84">
+        <v>317</v>
+      </c>
+      <c r="F84" t="s">
+        <v>27</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0.65625</v>
+      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>15</v>
-      </c>
-      <c r="B85" t="s">
-        <v>25</v>
-      </c>
-      <c r="C85" s="1">
-        <v>0.55486111111111114</v>
-      </c>
-      <c r="D85">
-        <v>1441</v>
-      </c>
-      <c r="G85" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="E85">
+        <v>356</v>
+      </c>
+      <c r="F85" t="s">
+        <v>23</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0.65902777777777777</v>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C86" s="1">
-        <v>0.56319444444444444</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D86">
-        <v>219</v>
+        <v>367</v>
       </c>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>33</v>
-      </c>
-      <c r="C87" s="1"/>
-      <c r="E87">
-        <v>348</v>
-      </c>
-      <c r="F87" t="s">
-        <v>28</v>
-      </c>
-      <c r="G87" s="1">
-        <v>0.56319444444444444</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B87" t="s">
+        <v>36</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D87">
+        <v>370</v>
+      </c>
+      <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C88" s="1"/>
       <c r="E88">
-        <v>62</v>
+        <v>1032</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G88" s="1">
-        <v>0.56666666666666665</v>
+        <v>0.66805555555555551</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C89" s="1">
-        <v>0.5805555555555556</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="D89">
-        <v>628</v>
+        <v>397</v>
       </c>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>34</v>
-      </c>
-      <c r="C90" s="1"/>
-      <c r="E90">
-        <v>871</v>
-      </c>
-      <c r="F90" t="s">
-        <v>35</v>
-      </c>
-      <c r="G90" s="1">
-        <v>0.58611111111111114</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B90" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="D90">
+        <v>441</v>
+      </c>
+      <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>33</v>
-      </c>
-      <c r="B91" t="s">
-        <v>31</v>
-      </c>
-      <c r="C91" s="1">
-        <v>0.59791666666666665</v>
-      </c>
-      <c r="D91">
-        <v>1035</v>
-      </c>
-      <c r="G91" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="E91">
+        <v>4322</v>
+      </c>
+      <c r="F91" t="s">
+        <v>46</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0.68611111111111112</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>36</v>
-      </c>
-      <c r="C92" s="1"/>
-      <c r="E92">
-        <v>1978</v>
-      </c>
-      <c r="F92" t="s">
-        <v>37</v>
-      </c>
-      <c r="G92" s="1">
-        <v>0.60763888888888895</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B92" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="D92">
+        <v>311</v>
+      </c>
+      <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C93" s="1">
-        <v>0.61736111111111114</v>
+        <v>0.6875</v>
       </c>
       <c r="D93">
-        <v>3151</v>
+        <v>318</v>
       </c>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C94" s="1"/>
-      <c r="E94">
-        <v>1468</v>
-      </c>
-      <c r="F94" t="s">
-        <v>25</v>
-      </c>
-      <c r="G94" s="1">
-        <v>0.61805555555555558</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B94" t="s">
+        <v>37</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="D94">
+        <v>423</v>
+      </c>
+      <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>24</v>
-      </c>
-      <c r="C95" s="1"/>
-      <c r="E95">
-        <v>218</v>
-      </c>
-      <c r="F95" t="s">
-        <v>37</v>
-      </c>
-      <c r="G95" s="1">
-        <v>0.61944444444444446</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="D95">
+        <v>555</v>
+      </c>
+      <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="C96" s="1"/>
       <c r="E96">
-        <v>7138</v>
+        <v>1130</v>
       </c>
       <c r="F96" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G96" s="1">
-        <v>0.62083333333333335</v>
+        <v>0.69444444444444453</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>38</v>
-      </c>
-      <c r="C97" s="1"/>
-      <c r="E97">
-        <v>629</v>
-      </c>
-      <c r="F97" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" s="1">
-        <v>0.63055555555555554</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0.69722222222222219</v>
+      </c>
+      <c r="D97">
+        <v>4327</v>
+      </c>
+      <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>33</v>
-      </c>
-      <c r="C98" s="1"/>
-      <c r="E98">
-        <v>1104</v>
-      </c>
-      <c r="F98" t="s">
-        <v>31</v>
-      </c>
-      <c r="G98" s="1">
-        <v>0.63958333333333328</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>27</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D98">
+        <v>322</v>
+      </c>
+      <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>15</v>
-      </c>
-      <c r="B99" t="s">
-        <v>25</v>
-      </c>
-      <c r="C99" s="1">
-        <v>0.64166666666666672</v>
-      </c>
-      <c r="D99">
-        <v>1290</v>
-      </c>
-      <c r="G99" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="E99">
+        <v>548</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0.71875</v>
+      </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>7</v>
-      </c>
-      <c r="B100" t="s">
-        <v>20</v>
-      </c>
-      <c r="C100" s="1">
-        <v>0.65277777777777779</v>
-      </c>
-      <c r="D100">
-        <v>382</v>
-      </c>
-      <c r="G100" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="E100">
+        <v>530</v>
+      </c>
+      <c r="F100" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C101" s="1"/>
       <c r="E101">
-        <v>317</v>
+        <v>560</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G101" s="1">
-        <v>0.65625</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C102" s="1"/>
       <c r="E102">
-        <v>356</v>
+        <v>617</v>
       </c>
       <c r="F102" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G102" s="1">
-        <v>0.65902777777777777</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>7</v>
-      </c>
-      <c r="B103" t="s">
-        <v>25</v>
-      </c>
-      <c r="C103" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D103">
-        <v>367</v>
-      </c>
-      <c r="G103" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="E103">
+        <v>620</v>
+      </c>
+      <c r="F103" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>7</v>
       </c>
       <c r="B104" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C104" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="D104">
-        <v>370</v>
+        <v>4351</v>
       </c>
       <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>7</v>
-      </c>
-      <c r="B105" t="s">
-        <v>40</v>
-      </c>
-      <c r="C105" s="1">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="D105">
-        <v>397</v>
-      </c>
-      <c r="G105" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="E105">
+        <v>448</v>
+      </c>
+      <c r="F105" t="s">
+        <v>41</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0.74305555555555558</v>
+      </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>7</v>
-      </c>
-      <c r="B106" t="s">
-        <v>31</v>
-      </c>
-      <c r="C106" s="1">
-        <v>0.68055555555555558</v>
-      </c>
-      <c r="D106">
-        <v>441</v>
-      </c>
-      <c r="G106" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="E106">
+        <v>534</v>
+      </c>
+      <c r="F106" t="s">
+        <v>21</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0.74305555555555558</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>7</v>
       </c>
-      <c r="B107" t="s">
-        <v>41</v>
-      </c>
-      <c r="C107" s="1">
-        <v>0.68402777777777779</v>
-      </c>
-      <c r="D107">
-        <v>651</v>
-      </c>
-      <c r="G107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="E107">
+        <v>4308</v>
+      </c>
+      <c r="F107" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0.74583333333333335</v>
+      </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>7</v>
-      </c>
-      <c r="B108" t="s">
-        <v>28</v>
-      </c>
-      <c r="C108" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="D108">
-        <v>311</v>
-      </c>
-      <c r="G108" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="E108">
+        <v>528</v>
+      </c>
+      <c r="F108" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0.76041666666666663</v>
+      </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>7</v>
-      </c>
-      <c r="B109" t="s">
-        <v>22</v>
-      </c>
-      <c r="C109" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="D109">
-        <v>618</v>
-      </c>
-      <c r="G109" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="E109">
+        <v>566</v>
+      </c>
+      <c r="F109" t="s">
+        <v>20</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0.77083333333333337</v>
+      </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C110" s="1"/>
       <c r="E110">
-        <v>1130</v>
+        <v>4312</v>
       </c>
       <c r="F110" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G110" s="1">
-        <v>0.69444444444444453</v>
+        <v>0.77638888888888891</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B111" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C111" s="1">
-        <v>0.69722222222222219</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D111">
-        <v>4327</v>
+        <v>222</v>
       </c>
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C112" s="1">
-        <v>0.70138888888888884</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="D112">
-        <v>322</v>
+        <v>431</v>
       </c>
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" s="1"/>
-      <c r="E113">
-        <v>530</v>
-      </c>
-      <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B113" t="s">
+        <v>20</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="D113">
+        <v>565</v>
+      </c>
+      <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C114" s="1"/>
       <c r="E114">
-        <v>532</v>
+        <v>670</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G114" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115" s="1"/>
-      <c r="E115">
-        <v>550</v>
-      </c>
-      <c r="F115" t="s">
-        <v>19</v>
-      </c>
-      <c r="G115" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B115" t="s">
+        <v>30</v>
+      </c>
+      <c r="C115" s="1">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="D115">
+        <v>425</v>
+      </c>
+      <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" s="1"/>
-      <c r="E116">
-        <v>560</v>
-      </c>
-      <c r="F116" t="s">
-        <v>23</v>
-      </c>
-      <c r="G116" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" s="1">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="D116">
+        <v>523</v>
+      </c>
+      <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117" s="1"/>
-      <c r="E117">
-        <v>620</v>
-      </c>
-      <c r="F117" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="1">
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="D117">
+        <v>583</v>
+      </c>
+      <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C118" s="1">
-        <v>0.73472222222222228</v>
+        <v>0.84375</v>
       </c>
       <c r="D118">
-        <v>4321</v>
+        <v>325</v>
       </c>
       <c r="G118" s="1"/>
     </row>
@@ -2363,44 +2351,44 @@
       <c r="A119" t="s">
         <v>9</v>
       </c>
-      <c r="C119" s="1"/>
-      <c r="E119">
-        <v>4308</v>
-      </c>
-      <c r="F119" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" s="1">
-        <v>0.74583333333333335</v>
-      </c>
+      <c r="B119" t="s">
+        <v>40</v>
+      </c>
+      <c r="C119" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="D119">
+        <v>445</v>
+      </c>
+      <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C120" s="1"/>
       <c r="E120">
-        <v>528</v>
+        <v>590</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G120" s="1">
-        <v>0.76041666666666663</v>
+        <v>0.85069444444444442</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C121" s="1">
-        <v>0.7631944444444444</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D121">
-        <v>4040</v>
+        <v>393</v>
       </c>
       <c r="G121" s="1"/>
     </row>
@@ -2408,210 +2396,210 @@
       <c r="A122" t="s">
         <v>9</v>
       </c>
-      <c r="C122" s="1"/>
-      <c r="E122">
-        <v>4312</v>
-      </c>
-      <c r="F122" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="1">
-        <v>0.77638888888888891</v>
-      </c>
+      <c r="B122" t="s">
+        <v>41</v>
+      </c>
+      <c r="C122" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D122">
+        <v>449</v>
+      </c>
+      <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>7</v>
-      </c>
-      <c r="C123" s="1"/>
-      <c r="E123">
-        <v>558</v>
-      </c>
-      <c r="F123" t="s">
-        <v>23</v>
-      </c>
-      <c r="G123" s="1">
-        <v>0.78819444444444442</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B123" t="s">
+        <v>27</v>
+      </c>
+      <c r="C123" s="1">
+        <v>0.85972222222222217</v>
+      </c>
+      <c r="D123">
+        <v>881</v>
+      </c>
+      <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C124" s="1">
-        <v>0.79027777777777775</v>
+        <v>0.86805555555555558</v>
       </c>
       <c r="D124">
-        <v>4331</v>
+        <v>563</v>
       </c>
       <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C125" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.87152777777777779</v>
       </c>
       <c r="D125">
-        <v>222</v>
+        <v>316</v>
       </c>
       <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C126" s="1">
-        <v>0.79513888888888884</v>
+        <v>0.875</v>
       </c>
       <c r="D126">
-        <v>431</v>
+        <v>535</v>
       </c>
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>7</v>
-      </c>
-      <c r="B127" t="s">
-        <v>17</v>
-      </c>
-      <c r="C127" s="1">
-        <v>0.79513888888888884</v>
-      </c>
-      <c r="D127">
-        <v>565</v>
-      </c>
-      <c r="G127" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="C127" s="1"/>
+      <c r="E127">
+        <v>222</v>
+      </c>
+      <c r="F127" t="s">
+        <v>47</v>
+      </c>
+      <c r="G127" s="1">
+        <v>0.875</v>
+      </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>42</v>
-      </c>
-      <c r="C128" s="1"/>
-      <c r="E128">
-        <v>4041</v>
-      </c>
-      <c r="F128" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" s="1">
-        <v>0.79513888888888884</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B128" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="1">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="D128">
+        <v>525</v>
+      </c>
+      <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129" s="1"/>
-      <c r="E129">
-        <v>670</v>
-      </c>
-      <c r="F129" t="s">
-        <v>17</v>
-      </c>
-      <c r="G129" s="1">
-        <v>0.8125</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B129" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" s="1">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="D129">
+        <v>557</v>
+      </c>
+      <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C130" s="1">
-        <v>0.81944444444444442</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D130">
-        <v>425</v>
+        <v>616</v>
       </c>
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C131" s="1">
-        <v>0.82638888888888884</v>
+        <v>0.8881944444444444</v>
       </c>
       <c r="D131">
-        <v>523</v>
+        <v>1461</v>
       </c>
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C132" s="1">
-        <v>0.82986111111111116</v>
+        <v>0.91319444444444442</v>
       </c>
       <c r="D132">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="G132" s="1"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>7</v>
-      </c>
-      <c r="B133" t="s">
-        <v>44</v>
-      </c>
-      <c r="C133" s="1">
-        <v>0.83680555555555558</v>
-      </c>
-      <c r="D133">
-        <v>329</v>
-      </c>
-      <c r="G133" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C133" s="1"/>
+      <c r="E133">
+        <v>365</v>
+      </c>
+      <c r="F133" t="s">
+        <v>15</v>
+      </c>
+      <c r="G133" s="1">
+        <v>0.92013888888888884</v>
+      </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>7</v>
-      </c>
-      <c r="B134" t="s">
-        <v>29</v>
-      </c>
-      <c r="C134" s="1">
-        <v>0.84375</v>
-      </c>
-      <c r="D134">
-        <v>325</v>
-      </c>
-      <c r="G134" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C134" s="1"/>
+      <c r="E134">
+        <v>600</v>
+      </c>
+      <c r="F134" t="s">
+        <v>8</v>
+      </c>
+      <c r="G134" s="1">
+        <v>0.92013888888888884</v>
+      </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C135" s="1"/>
       <c r="E135">
-        <v>590</v>
+        <v>429</v>
       </c>
       <c r="F135" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G135" s="1">
-        <v>0.85069444444444442</v>
+        <v>0.92361111111111116</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -2619,315 +2607,180 @@
         <v>7</v>
       </c>
       <c r="B136" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C136" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.92986111111111114</v>
       </c>
       <c r="D136">
-        <v>393</v>
+        <v>4339</v>
       </c>
       <c r="G136" s="1"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>34</v>
-      </c>
-      <c r="B137" t="s">
-        <v>35</v>
-      </c>
-      <c r="C137" s="1">
-        <v>0.85972222222222217</v>
-      </c>
-      <c r="D137">
-        <v>881</v>
-      </c>
-      <c r="G137" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C137" s="1"/>
+      <c r="E137">
+        <v>578</v>
+      </c>
+      <c r="F137" t="s">
+        <v>14</v>
+      </c>
+      <c r="G137" s="1">
+        <v>0.93055555555555558</v>
+      </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>7</v>
-      </c>
-      <c r="B138" t="s">
-        <v>31</v>
-      </c>
-      <c r="C138" s="1">
-        <v>0.86805555555555558</v>
-      </c>
-      <c r="D138">
-        <v>443</v>
-      </c>
-      <c r="G138" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C138" s="1"/>
+      <c r="E138">
+        <v>627</v>
+      </c>
+      <c r="F138" t="s">
+        <v>18</v>
+      </c>
+      <c r="G138" s="1">
+        <v>0.93402777777777779</v>
+      </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>7</v>
-      </c>
-      <c r="B139" t="s">
-        <v>23</v>
-      </c>
-      <c r="C139" s="1">
-        <v>0.86805555555555558</v>
-      </c>
-      <c r="D139">
-        <v>563</v>
-      </c>
-      <c r="G139" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C139" s="1"/>
+      <c r="E139">
+        <v>574</v>
+      </c>
+      <c r="F139" t="s">
+        <v>21</v>
+      </c>
+      <c r="G139" s="1">
+        <v>0.9375</v>
+      </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>7</v>
-      </c>
-      <c r="B140" t="s">
-        <v>35</v>
-      </c>
-      <c r="C140" s="1">
-        <v>0.87152777777777779</v>
-      </c>
-      <c r="D140">
-        <v>316</v>
-      </c>
-      <c r="G140" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C140" s="1"/>
+      <c r="E140">
+        <v>315</v>
+      </c>
+      <c r="F140" t="s">
+        <v>16</v>
+      </c>
+      <c r="G140" s="1">
+        <v>0.94097222222222221</v>
+      </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C141" s="1"/>
       <c r="E141">
-        <v>222</v>
+        <v>658</v>
       </c>
       <c r="F141" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G141" s="1">
-        <v>0.875</v>
+        <v>0.94444444444444442</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C142" s="1">
-        <v>0.87847222222222221</v>
+        <v>0.94930555555555562</v>
       </c>
       <c r="D142">
-        <v>409</v>
+        <v>1425</v>
       </c>
       <c r="G142" s="1"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>7</v>
-      </c>
-      <c r="B143" t="s">
-        <v>46</v>
-      </c>
-      <c r="C143" s="1">
-        <v>0.87847222222222221</v>
-      </c>
-      <c r="D143">
-        <v>527</v>
-      </c>
-      <c r="G143" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C143" s="1"/>
+      <c r="E143">
+        <v>452</v>
+      </c>
+      <c r="F143" t="s">
+        <v>41</v>
+      </c>
+      <c r="G143" s="1">
+        <v>0.95486111111111116</v>
+      </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>15</v>
-      </c>
-      <c r="B144" t="s">
-        <v>25</v>
-      </c>
-      <c r="C144" s="1">
-        <v>0.8881944444444444</v>
-      </c>
-      <c r="D144">
-        <v>1461</v>
-      </c>
-      <c r="G144" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C144" s="1"/>
+      <c r="E144">
+        <v>432</v>
+      </c>
+      <c r="F144" t="s">
+        <v>32</v>
+      </c>
+      <c r="G144" s="1">
+        <v>0.95833333333333337</v>
+      </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>7</v>
-      </c>
-      <c r="B145" t="s">
-        <v>22</v>
-      </c>
-      <c r="C145" s="1">
-        <v>0.89236111111111116</v>
-      </c>
-      <c r="D145">
-        <v>608</v>
-      </c>
-      <c r="G145" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C145" s="1"/>
+      <c r="E145">
+        <v>326</v>
+      </c>
+      <c r="F145" t="s">
+        <v>39</v>
+      </c>
+      <c r="G145" s="1">
+        <v>0.97569444444444442</v>
+      </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B146" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C146" s="1">
-        <v>0.91319444444444442</v>
+        <v>0.98333333333333339</v>
       </c>
       <c r="D146">
-        <v>585</v>
+        <v>878</v>
       </c>
       <c r="G146" s="1"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C147" s="1"/>
       <c r="E147">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="F147" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G147" s="1">
-        <v>0.92013888888888884</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>7</v>
-      </c>
-      <c r="C148" s="1"/>
-      <c r="E148">
-        <v>580</v>
-      </c>
-      <c r="F148" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="1">
-        <v>0.92013888888888884</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>7</v>
-      </c>
-      <c r="C149" s="1"/>
-      <c r="E149">
-        <v>429</v>
-      </c>
-      <c r="F149" t="s">
-        <v>21</v>
-      </c>
-      <c r="G149" s="1">
-        <v>0.92361111111111116</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>7</v>
-      </c>
-      <c r="C150" s="1"/>
-      <c r="E150">
-        <v>578</v>
-      </c>
-      <c r="F150" t="s">
-        <v>19</v>
-      </c>
-      <c r="G150" s="1">
-        <v>0.93055555555555558</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>7</v>
-      </c>
-      <c r="C151" s="1"/>
-      <c r="E151">
-        <v>651</v>
-      </c>
-      <c r="F151" t="s">
-        <v>22</v>
-      </c>
-      <c r="G151" s="1">
-        <v>0.93402777777777779</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>7</v>
-      </c>
-      <c r="C152" s="1"/>
-      <c r="E152">
-        <v>315</v>
-      </c>
-      <c r="F152" t="s">
-        <v>40</v>
-      </c>
-      <c r="G152" s="1">
-        <v>0.94097222222222221</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>7</v>
-      </c>
-      <c r="C153" s="1"/>
-      <c r="E153">
-        <v>658</v>
-      </c>
-      <c r="F153" t="s">
-        <v>17</v>
-      </c>
-      <c r="G153" s="1">
-        <v>0.94444444444444442</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>7</v>
-      </c>
-      <c r="C154" s="1"/>
-      <c r="E154">
-        <v>452</v>
-      </c>
-      <c r="F154" t="s">
-        <v>8</v>
-      </c>
-      <c r="G154" s="1">
-        <v>0.95486111111111116</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>7</v>
-      </c>
-      <c r="C155" s="1"/>
-      <c r="E155">
-        <v>457</v>
-      </c>
-      <c r="F155" t="s">
-        <v>16</v>
-      </c>
-      <c r="G155" s="1">
-        <v>0.95486111111111116</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>34</v>
-      </c>
-      <c r="B156" t="s">
-        <v>35</v>
-      </c>
-      <c r="C156" s="1">
-        <v>0.98333333333333339</v>
-      </c>
-      <c r="D156">
-        <v>878</v>
-      </c>
-      <c r="G156" s="1"/>
+        <v>0.99583333333333324</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/operaciones.xlsx
+++ b/public/operaciones.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulm\Desktop\Itinerarios_2026-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E71CE13-B581-403B-8451-C4F26E2FAF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6309BA96-30A0-465C-9BAE-AF39F593AC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{03D1434B-7F37-4D2B-8FC9-408A6A772728}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EB1E3AE6-53BE-48F3-B666-6011DD66B9F8}"/>
   </bookViews>
   <sheets>
-    <sheet name="25-01" sheetId="1" r:id="rId1"/>
+    <sheet name="26-01" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="50">
   <si>
     <t>AEROLINEA</t>
   </si>
@@ -68,7 +68,10 @@
     <t>AVA</t>
   </si>
   <si>
-    <t>KONT</t>
+    <t>MHLM</t>
+  </si>
+  <si>
+    <t>KOAK</t>
   </si>
   <si>
     <t>KLAX</t>
@@ -77,7 +80,10 @@
     <t>UAL</t>
   </si>
   <si>
-    <t>SEQM</t>
+    <t>KJFK</t>
+  </si>
+  <si>
+    <t>MMMX</t>
   </si>
   <si>
     <t>MGGT</t>
@@ -98,10 +104,13 @@
     <t>KSFO</t>
   </si>
   <si>
-    <t>KJFK</t>
-  </si>
-  <si>
-    <t>MHLM</t>
+    <t>NKS</t>
+  </si>
+  <si>
+    <t>KFLL</t>
+  </si>
+  <si>
+    <t>CYYZ</t>
   </si>
   <si>
     <t>AAL</t>
@@ -110,12 +119,6 @@
     <t>KMIA</t>
   </si>
   <si>
-    <t>TAG</t>
-  </si>
-  <si>
-    <t>MHRO</t>
-  </si>
-  <si>
     <t>CMP</t>
   </si>
   <si>
@@ -131,21 +134,18 @@
     <t>KIAH</t>
   </si>
   <si>
+    <t>TSC</t>
+  </si>
+  <si>
+    <t>CYUL</t>
+  </si>
+  <si>
     <t>AMX</t>
   </si>
   <si>
-    <t>MMMX</t>
-  </si>
-  <si>
     <t>KDFW</t>
   </si>
   <si>
-    <t>NKS</t>
-  </si>
-  <si>
-    <t>KFLL</t>
-  </si>
-  <si>
     <t>SKRG</t>
   </si>
   <si>
@@ -155,31 +155,37 @@
     <t>IBE</t>
   </si>
   <si>
-    <t>CYYZ</t>
-  </si>
-  <si>
     <t>KBOS</t>
   </si>
   <si>
     <t>MHPR</t>
   </si>
   <si>
+    <t>TPA</t>
+  </si>
+  <si>
+    <t>AJT</t>
+  </si>
+  <si>
+    <t>MZBZ</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>FDX</t>
+  </si>
+  <si>
+    <t>DHL</t>
+  </si>
+  <si>
+    <t>MHTG</t>
+  </si>
+  <si>
+    <t>LEMD</t>
+  </si>
+  <si>
     <t>KEWR</t>
-  </si>
-  <si>
-    <t>DHL</t>
-  </si>
-  <si>
-    <t>TPA</t>
-  </si>
-  <si>
-    <t>AJT</t>
-  </si>
-  <si>
-    <t>KOAK</t>
-  </si>
-  <si>
-    <t>LEMD</t>
   </si>
 </sst>
 </file>
@@ -554,8 +560,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70692E52-3BC1-44B0-98E1-244F763799BB}">
-  <dimension ref="A1:G147"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D199AB-2B97-4B60-8025-F102C997A8F6}">
+  <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,14 +600,14 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1"/>
       <c r="E2">
         <v>1670</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1">
         <v>0.125</v>
@@ -609,16 +615,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
-        <v>0.15972222222222224</v>
+        <v>0.2076388888888889</v>
       </c>
       <c r="D3">
-        <v>222</v>
+        <v>4156</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -639,14 +645,14 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1"/>
       <c r="E5">
         <v>879</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1">
         <v>0.21041666666666667</v>
@@ -663,20 +669,20 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="D6">
-        <v>531</v>
+        <v>575</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1"/>
       <c r="E7">
-        <v>556</v>
+        <v>4350</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1">
         <v>0.22916666666666666</v>
@@ -686,23 +692,23 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="E8">
-        <v>4350</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.22916666666666666</v>
-      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.23472222222222222</v>
+      </c>
+      <c r="D8">
+        <v>4323</v>
+      </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1">
         <v>0.23541666666666666</v>
@@ -714,10 +720,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
       </c>
       <c r="C10" s="1">
         <v>0.23958333333333334</v>
@@ -732,13 +738,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
         <v>0.24652777777777779</v>
       </c>
       <c r="D11">
-        <v>456</v>
+        <v>567</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -747,13 +753,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1">
-        <v>0.25694444444444442</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="D12">
-        <v>579</v>
+        <v>433</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -762,13 +768,13 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="D13">
-        <v>366</v>
+        <v>579</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -777,13 +783,13 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1">
         <v>0.26041666666666669</v>
       </c>
       <c r="D14">
-        <v>529</v>
+        <v>366</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -792,58 +798,58 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1">
-        <v>0.2638888888888889</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D15">
-        <v>314</v>
+        <v>529</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="E16">
-        <v>4326</v>
-      </c>
-      <c r="F16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="1">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1">
         <v>0.2638888888888889</v>
       </c>
+      <c r="D16">
+        <v>314</v>
+      </c>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.2673611111111111</v>
-      </c>
-      <c r="D17">
-        <v>428</v>
-      </c>
-      <c r="G17" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="E17">
+        <v>4326</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.2638888888888889</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1">
         <v>0.2673611111111111</v>
       </c>
       <c r="D18">
-        <v>626</v>
+        <v>428</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -852,13 +858,13 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D19">
-        <v>561</v>
+        <v>626</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -867,134 +873,134 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D20">
-        <v>591</v>
+        <v>650</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D21">
-        <v>671</v>
-      </c>
-      <c r="G21" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="E21">
+        <v>4156</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.27013888888888887</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="E22">
-        <v>4318</v>
-      </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.28611111111111109</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D22">
+        <v>561</v>
+      </c>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="E23">
-        <v>1467</v>
-      </c>
-      <c r="F23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.28819444444444448</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D23">
+        <v>591</v>
+      </c>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C24" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D24">
-        <v>621</v>
+        <v>671</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1"/>
       <c r="E25">
-        <v>321</v>
+        <v>4318</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G25" s="1">
-        <v>0.3125</v>
+        <v>0.28611111111111109</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C26" s="1"/>
       <c r="E26">
-        <v>323</v>
+        <v>1467</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G26" s="1">
-        <v>0.3125</v>
+        <v>0.28819444444444448</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="E27">
-        <v>396</v>
-      </c>
-      <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0.3125</v>
-      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D27">
+        <v>621</v>
+      </c>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C28" s="1"/>
       <c r="E28">
-        <v>4338</v>
+        <v>321</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G28" s="1">
-        <v>0.31527777777777777</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1003,13 +1009,13 @@
       </c>
       <c r="C29" s="1"/>
       <c r="E29">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G29" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1018,43 +1024,43 @@
       </c>
       <c r="C30" s="1"/>
       <c r="E30">
-        <v>440</v>
+        <v>396</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G30" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C31" s="1"/>
       <c r="E31">
-        <v>536</v>
+        <v>884</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G31" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1"/>
       <c r="E32">
-        <v>444</v>
+        <v>4338</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G32" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.31527777777777777</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1063,13 +1069,13 @@
       </c>
       <c r="C33" s="1"/>
       <c r="E33">
-        <v>562</v>
+        <v>310</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G33" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1078,13 +1084,13 @@
       </c>
       <c r="C34" s="1"/>
       <c r="E34">
-        <v>368</v>
+        <v>440</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G34" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1093,13 +1099,13 @@
       </c>
       <c r="C35" s="1"/>
       <c r="E35">
-        <v>383</v>
+        <v>536</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G35" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1108,44 +1114,44 @@
       </c>
       <c r="C36" s="1"/>
       <c r="E36">
-        <v>522</v>
+        <v>444</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G36" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0.33680555555555558</v>
-      </c>
-      <c r="D37">
-        <v>581</v>
-      </c>
-      <c r="G37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="E37">
+        <v>562</v>
+      </c>
+      <c r="F37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="E38">
-        <v>564</v>
-      </c>
-      <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0.33680555555555558</v>
-      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="D38">
+        <v>549</v>
+      </c>
+      <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1153,13 +1159,13 @@
       </c>
       <c r="C39" s="1"/>
       <c r="E39">
-        <v>554</v>
+        <v>368</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G39" s="1">
-        <v>0.34027777777777779</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1168,28 +1174,28 @@
       </c>
       <c r="C40" s="1"/>
       <c r="E40">
-        <v>324</v>
+        <v>383</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G40" s="1">
-        <v>0.34375</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C41" s="1"/>
       <c r="E41">
-        <v>884</v>
+        <v>522</v>
       </c>
       <c r="F41" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G41" s="1">
-        <v>0.35833333333333334</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1197,13 +1203,13 @@
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C42" s="1">
-        <v>0.3611111111111111</v>
+        <v>0.33680555555555558</v>
       </c>
       <c r="D42">
-        <v>551</v>
+        <v>601</v>
       </c>
       <c r="G42" s="1"/>
     </row>
@@ -1213,44 +1219,44 @@
       </c>
       <c r="C43" s="1"/>
       <c r="E43">
-        <v>422</v>
+        <v>564</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="G43" s="1">
-        <v>0.36458333333333331</v>
+        <v>0.33680555555555558</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="D44">
-        <v>916</v>
-      </c>
-      <c r="G44" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="E44">
+        <v>554</v>
+      </c>
+      <c r="F44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.34027777777777779</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>9</v>
       </c>
-      <c r="B45" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0.37847222222222221</v>
-      </c>
-      <c r="D45">
-        <v>559</v>
-      </c>
-      <c r="G45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="E45">
+        <v>324</v>
+      </c>
+      <c r="F45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.34375</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -1258,29 +1264,29 @@
       </c>
       <c r="C46" s="1"/>
       <c r="E46">
-        <v>369</v>
+        <v>422</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G46" s="1">
-        <v>0.37847222222222221</v>
+        <v>0.36458333333333331</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="E47">
-        <v>430</v>
-      </c>
-      <c r="F47" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47" s="1">
-        <v>0.37847222222222221</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="D47">
+        <v>8111</v>
+      </c>
+      <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -1288,13 +1294,13 @@
       </c>
       <c r="C48" s="1"/>
       <c r="E48">
-        <v>524</v>
+        <v>369</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="G48" s="1">
-        <v>0.38194444444444442</v>
+        <v>0.37847222222222221</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1303,29 +1309,29 @@
       </c>
       <c r="C49" s="1"/>
       <c r="E49">
-        <v>582</v>
+        <v>430</v>
       </c>
       <c r="F49" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G49" s="1">
-        <v>0.39930555555555558</v>
+        <v>0.37847222222222221</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>9</v>
       </c>
-      <c r="B50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0.41319444444444442</v>
-      </c>
-      <c r="D50">
-        <v>659</v>
-      </c>
-      <c r="G50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="E50">
+        <v>524</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.38194444444444442</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -1333,117 +1339,117 @@
       </c>
       <c r="C51" s="1"/>
       <c r="E51">
-        <v>392</v>
+        <v>582</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G51" s="1">
-        <v>0.41319444444444442</v>
+        <v>0.39930555555555558</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="1"/>
-      <c r="E52">
-        <v>611</v>
-      </c>
-      <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" s="1">
-        <v>0.4236111111111111</v>
-      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="D52">
+        <v>659</v>
+      </c>
+      <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
-      <c r="B53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="D53">
-        <v>537</v>
-      </c>
-      <c r="G53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="E53">
+        <v>392</v>
+      </c>
+      <c r="F53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.41319444444444442</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>26</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="E54">
-        <v>916</v>
-      </c>
-      <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="1">
-        <v>0.42708333333333331</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C55" s="1">
-        <v>0.44097222222222221</v>
-      </c>
-      <c r="D55">
-        <v>4053</v>
-      </c>
-      <c r="G55" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="E55">
+        <v>613</v>
+      </c>
+      <c r="F55" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.4236111111111111</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C56" s="1">
-        <v>0.4513888888888889</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D56">
-        <v>320</v>
+        <v>537</v>
       </c>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C57" s="1">
-        <v>0.46180555555555558</v>
+        <v>0.43611111111111112</v>
       </c>
       <c r="D57">
-        <v>70</v>
+        <v>255</v>
       </c>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C58" s="1">
-        <v>0.48958333333333331</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="D58">
-        <v>771</v>
+        <v>320</v>
       </c>
       <c r="G58" s="1"/>
     </row>
@@ -1451,60 +1457,60 @@
       <c r="A59" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="1"/>
-      <c r="E59">
-        <v>584</v>
-      </c>
-      <c r="F59" t="s">
-        <v>8</v>
-      </c>
-      <c r="G59" s="1">
-        <v>0.49305555555555558</v>
-      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D59">
+        <v>327</v>
+      </c>
+      <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="1"/>
-      <c r="E60">
-        <v>424</v>
-      </c>
-      <c r="F60" t="s">
-        <v>30</v>
-      </c>
-      <c r="G60" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="D60">
+        <v>70</v>
+      </c>
+      <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C61" s="1"/>
       <c r="E61">
-        <v>71</v>
+        <v>256</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G61" s="1">
-        <v>0.50347222222222221</v>
+        <v>0.47430555555555554</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C62" s="1"/>
       <c r="E62">
-        <v>4053</v>
+        <v>584</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="G62" s="1">
-        <v>0.50347222222222221</v>
+        <v>0.49305555555555558</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -1513,51 +1519,51 @@
       </c>
       <c r="C63" s="1"/>
       <c r="E63">
-        <v>319</v>
+        <v>424</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G63" s="1">
-        <v>0.51041666666666663</v>
+        <v>0.50347222222222221</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>22</v>
-      </c>
-      <c r="B64" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64" s="1">
-        <v>0.52152777777777781</v>
-      </c>
-      <c r="D64">
-        <v>339</v>
-      </c>
-      <c r="G64" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="E64">
+        <v>71</v>
+      </c>
+      <c r="F64" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C65" s="1">
-        <v>0.52777777777777779</v>
+        <v>0.52152777777777781</v>
       </c>
       <c r="D65">
-        <v>420</v>
+        <v>339</v>
       </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C66" s="1">
         <v>0.52847222222222223</v>
@@ -1569,74 +1575,74 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C67" s="1">
-        <v>0.54861111111111105</v>
+        <v>0.5395833333333333</v>
       </c>
       <c r="D67">
-        <v>1910</v>
+        <v>8138</v>
       </c>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>45</v>
-      </c>
-      <c r="C68" s="1"/>
-      <c r="E68">
-        <v>770</v>
-      </c>
-      <c r="F68" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" s="1">
+        <v>29</v>
+      </c>
+      <c r="B68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" s="1">
         <v>0.54861111111111105</v>
       </c>
+      <c r="D68">
+        <v>1910</v>
+      </c>
+      <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" s="1"/>
-      <c r="E69">
-        <v>421</v>
-      </c>
-      <c r="F69" t="s">
-        <v>25</v>
-      </c>
-      <c r="G69" s="1">
-        <v>0.55208333333333337</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.55486111111111114</v>
+      </c>
+      <c r="D69">
+        <v>1441</v>
+      </c>
+      <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C70" s="1">
-        <v>0.55486111111111114</v>
+        <v>0.5625</v>
       </c>
       <c r="D70">
-        <v>1441</v>
+        <v>760</v>
       </c>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C71" s="1"/>
       <c r="E71">
         <v>348</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G71" s="1">
         <v>0.56319444444444444</v>
@@ -1644,10 +1650,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B72" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C72" s="1">
         <v>0.57847222222222217</v>
@@ -1659,166 +1665,166 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C73" s="1"/>
       <c r="E73">
-        <v>871</v>
+        <v>8138</v>
       </c>
       <c r="F73" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="G73" s="1">
-        <v>0.58611111111111114</v>
+        <v>0.58124999999999993</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>22</v>
-      </c>
-      <c r="B74" t="s">
-        <v>33</v>
-      </c>
-      <c r="C74" s="1">
-        <v>0.59791666666666665</v>
-      </c>
-      <c r="D74">
-        <v>1035</v>
-      </c>
-      <c r="G74" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="E74">
+        <v>871</v>
+      </c>
+      <c r="F74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.58611111111111114</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>28</v>
-      </c>
-      <c r="C75" s="1"/>
-      <c r="E75">
-        <v>1978</v>
-      </c>
-      <c r="F75" t="s">
-        <v>29</v>
-      </c>
-      <c r="G75" s="1">
-        <v>0.60763888888888895</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="D75">
+        <v>1035</v>
+      </c>
+      <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>22</v>
-      </c>
-      <c r="B76" t="s">
-        <v>23</v>
-      </c>
-      <c r="C76" s="1">
-        <v>0.61736111111111114</v>
-      </c>
-      <c r="D76">
-        <v>3151</v>
-      </c>
-      <c r="G76" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="E76">
+        <v>1978</v>
+      </c>
+      <c r="F76" t="s">
+        <v>30</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.60763888888888895</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C77" s="1"/>
       <c r="E77">
-        <v>1468</v>
+        <v>761</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G77" s="1">
-        <v>0.61805555555555558</v>
+        <v>0.61111111111111105</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B78" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C78" s="1">
-        <v>0.61944444444444446</v>
+        <v>0.61736111111111114</v>
       </c>
       <c r="D78">
-        <v>1031</v>
+        <v>3151</v>
       </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79" t="s">
-        <v>14</v>
-      </c>
-      <c r="C79" s="1">
-        <v>0.62222222222222223</v>
-      </c>
-      <c r="D79">
-        <v>4319</v>
-      </c>
-      <c r="G79" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="E79">
+        <v>1468</v>
+      </c>
+      <c r="F79" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0.61805555555555558</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>31</v>
-      </c>
-      <c r="C80" s="1"/>
-      <c r="E80">
-        <v>629</v>
-      </c>
-      <c r="F80" t="s">
-        <v>32</v>
-      </c>
-      <c r="G80" s="1">
-        <v>0.63055555555555554</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="D80">
+        <v>4319</v>
+      </c>
+      <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C81" s="1"/>
       <c r="E81">
-        <v>1104</v>
+        <v>629</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="G81" s="1">
-        <v>0.63958333333333328</v>
+        <v>0.63055555555555554</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>12</v>
-      </c>
-      <c r="B82" t="s">
-        <v>30</v>
-      </c>
-      <c r="C82" s="1">
-        <v>0.64166666666666672</v>
-      </c>
-      <c r="D82">
-        <v>1290</v>
-      </c>
-      <c r="G82" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="E82">
+        <v>1104</v>
+      </c>
+      <c r="F82" t="s">
+        <v>35</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0.63958333333333328</v>
+      </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C83" s="1">
-        <v>0.65277777777777779</v>
+        <v>0.64166666666666672</v>
       </c>
       <c r="D83">
-        <v>382</v>
+        <v>1290</v>
       </c>
       <c r="G83" s="1"/>
     </row>
@@ -1826,83 +1832,83 @@
       <c r="A84" t="s">
         <v>9</v>
       </c>
-      <c r="C84" s="1"/>
-      <c r="E84">
-        <v>317</v>
-      </c>
-      <c r="F84" t="s">
-        <v>27</v>
-      </c>
-      <c r="G84" s="1">
-        <v>0.65625</v>
-      </c>
+      <c r="B84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D84">
+        <v>382</v>
+      </c>
+      <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C85" s="1"/>
       <c r="E85">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="F85" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G85" s="1">
-        <v>0.65902777777777777</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>9</v>
-      </c>
-      <c r="B86" t="s">
-        <v>30</v>
-      </c>
-      <c r="C86" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D86">
-        <v>367</v>
-      </c>
-      <c r="G86" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="E86">
+        <v>356</v>
+      </c>
+      <c r="F86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0.65902777777777777</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C87" s="1">
         <v>0.66666666666666663</v>
       </c>
       <c r="D87">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>34</v>
-      </c>
-      <c r="C88" s="1"/>
-      <c r="E88">
-        <v>1032</v>
-      </c>
-      <c r="F88" t="s">
-        <v>35</v>
-      </c>
-      <c r="G88" s="1">
-        <v>0.66805555555555551</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B88" t="s">
+        <v>36</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D88">
+        <v>370</v>
+      </c>
+      <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C89" s="1">
         <v>0.67361111111111116</v>
@@ -1917,7 +1923,7 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C90" s="1">
         <v>0.68055555555555558</v>
@@ -1936,7 +1942,7 @@
         <v>4322</v>
       </c>
       <c r="F91" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G91" s="1">
         <v>0.68611111111111112</v>
@@ -1947,7 +1953,7 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C92" s="1">
         <v>0.6875</v>
@@ -1962,13 +1968,13 @@
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C93" s="1">
         <v>0.6875</v>
       </c>
       <c r="D93">
-        <v>318</v>
+        <v>610</v>
       </c>
       <c r="G93" s="1"/>
     </row>
@@ -1992,7 +1998,7 @@
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C95" s="1">
         <v>0.69097222222222221</v>
@@ -2004,14 +2010,14 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C96" s="1"/>
       <c r="E96">
         <v>1130</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G96" s="1">
         <v>0.69444444444444453</v>
@@ -2037,7 +2043,7 @@
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C98" s="1">
         <v>0.70138888888888884</v>
@@ -2053,13 +2059,13 @@
       </c>
       <c r="C99" s="1"/>
       <c r="E99">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G99" s="1">
-        <v>0.71875</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -2068,10 +2074,10 @@
       </c>
       <c r="C100" s="1"/>
       <c r="E100">
-        <v>530</v>
+        <v>588</v>
       </c>
       <c r="F100" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G100" s="1">
         <v>0.73263888888888884</v>
@@ -2083,10 +2089,10 @@
       </c>
       <c r="C101" s="1"/>
       <c r="E101">
-        <v>560</v>
+        <v>617</v>
       </c>
       <c r="F101" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G101" s="1">
         <v>0.73263888888888884</v>
@@ -2098,10 +2104,10 @@
       </c>
       <c r="C102" s="1"/>
       <c r="E102">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G102" s="1">
         <v>0.73263888888888884</v>
@@ -2109,33 +2115,33 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="1"/>
-      <c r="E103">
-        <v>620</v>
-      </c>
-      <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B103" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="D103">
+        <v>4351</v>
+      </c>
+      <c r="G103" s="1"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>7</v>
-      </c>
-      <c r="B104" t="s">
-        <v>18</v>
-      </c>
-      <c r="C104" s="1">
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="D104">
-        <v>4351</v>
-      </c>
-      <c r="G104" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="E104">
+        <v>550</v>
+      </c>
+      <c r="F104" t="s">
+        <v>16</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0.73611111111111116</v>
+      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
@@ -2146,7 +2152,7 @@
         <v>448</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G105" s="1">
         <v>0.74305555555555558</v>
@@ -2154,33 +2160,33 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C106" s="1"/>
       <c r="E106">
-        <v>534</v>
+        <v>4308</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G106" s="1">
-        <v>0.74305555555555558</v>
+        <v>0.74583333333333335</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" s="1"/>
-      <c r="E107">
-        <v>4308</v>
-      </c>
-      <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" s="1">
-        <v>0.74583333333333335</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0.74652777777777779</v>
+      </c>
+      <c r="D107">
+        <v>612</v>
+      </c>
+      <c r="G107" s="1"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
@@ -2191,7 +2197,7 @@
         <v>528</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G108" s="1">
         <v>0.76041666666666663</v>
@@ -2206,7 +2212,7 @@
         <v>566</v>
       </c>
       <c r="F109" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G109" s="1">
         <v>0.77083333333333337</v>
@@ -2229,31 +2235,31 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C111" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.78125</v>
       </c>
       <c r="D111">
-        <v>222</v>
+        <v>931</v>
       </c>
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B112" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C112" s="1">
-        <v>0.79513888888888884</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D112">
-        <v>431</v>
+        <v>222</v>
       </c>
       <c r="G112" s="1"/>
     </row>
@@ -2262,13 +2268,13 @@
         <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C113" s="1">
         <v>0.79513888888888884</v>
       </c>
       <c r="D113">
-        <v>565</v>
+        <v>431</v>
       </c>
       <c r="G113" s="1"/>
     </row>
@@ -2276,44 +2282,44 @@
       <c r="A114" t="s">
         <v>9</v>
       </c>
-      <c r="C114" s="1"/>
-      <c r="E114">
-        <v>670</v>
-      </c>
-      <c r="F114" t="s">
-        <v>20</v>
-      </c>
-      <c r="G114" s="1">
-        <v>0.8125</v>
-      </c>
+      <c r="B114" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" s="1">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="D114">
+        <v>565</v>
+      </c>
+      <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>9</v>
       </c>
-      <c r="B115" t="s">
-        <v>30</v>
-      </c>
-      <c r="C115" s="1">
-        <v>0.81944444444444442</v>
-      </c>
-      <c r="D115">
-        <v>425</v>
-      </c>
-      <c r="G115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="E115">
+        <v>670</v>
+      </c>
+      <c r="F115" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115" s="1">
+        <v>0.8125</v>
+      </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C116" s="1">
-        <v>0.82638888888888884</v>
+        <v>0.81944444444444442</v>
       </c>
       <c r="D116">
-        <v>523</v>
+        <v>425</v>
       </c>
       <c r="G116" s="1"/>
     </row>
@@ -2322,13 +2328,13 @@
         <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C117" s="1">
-        <v>0.82986111111111116</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="D117">
-        <v>583</v>
+        <v>523</v>
       </c>
       <c r="G117" s="1"/>
     </row>
@@ -2337,13 +2343,13 @@
         <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C118" s="1">
-        <v>0.84375</v>
+        <v>0.82986111111111116</v>
       </c>
       <c r="D118">
-        <v>325</v>
+        <v>583</v>
       </c>
       <c r="G118" s="1"/>
     </row>
@@ -2352,13 +2358,13 @@
         <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C119" s="1">
         <v>0.84375</v>
       </c>
       <c r="D119">
-        <v>445</v>
+        <v>325</v>
       </c>
       <c r="G119" s="1"/>
     </row>
@@ -2366,74 +2372,74 @@
       <c r="A120" t="s">
         <v>9</v>
       </c>
-      <c r="C120" s="1"/>
-      <c r="E120">
-        <v>590</v>
-      </c>
-      <c r="F120" t="s">
-        <v>8</v>
-      </c>
-      <c r="G120" s="1">
-        <v>0.85069444444444442</v>
-      </c>
+      <c r="B120" t="s">
+        <v>39</v>
+      </c>
+      <c r="C120" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="D120">
+        <v>445</v>
+      </c>
+      <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>9</v>
       </c>
-      <c r="B121" t="s">
-        <v>16</v>
-      </c>
-      <c r="C121" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D121">
-        <v>393</v>
-      </c>
-      <c r="G121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="E121">
+        <v>590</v>
+      </c>
+      <c r="F121" t="s">
+        <v>8</v>
+      </c>
+      <c r="G121" s="1">
+        <v>0.85069444444444442</v>
+      </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C122" s="1">
         <v>0.85416666666666663</v>
       </c>
       <c r="D122">
-        <v>449</v>
+        <v>393</v>
       </c>
       <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C123" s="1">
-        <v>0.85972222222222217</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D123">
-        <v>881</v>
+        <v>449</v>
       </c>
       <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B124" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C124" s="1">
-        <v>0.86805555555555558</v>
+        <v>0.85972222222222217</v>
       </c>
       <c r="D124">
-        <v>563</v>
+        <v>881</v>
       </c>
       <c r="G124" s="1"/>
     </row>
@@ -2442,13 +2448,13 @@
         <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C125" s="1">
-        <v>0.87152777777777779</v>
+        <v>0.86805555555555558</v>
       </c>
       <c r="D125">
-        <v>316</v>
+        <v>563</v>
       </c>
       <c r="G125" s="1"/>
     </row>
@@ -2457,13 +2463,13 @@
         <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C126" s="1">
-        <v>0.875</v>
+        <v>0.87152777777777779</v>
       </c>
       <c r="D126">
-        <v>535</v>
+        <v>316</v>
       </c>
       <c r="G126" s="1"/>
     </row>
@@ -2476,7 +2482,7 @@
         <v>222</v>
       </c>
       <c r="F127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G127" s="1">
         <v>0.875</v>
@@ -2487,7 +2493,7 @@
         <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C128" s="1">
         <v>0.87847222222222221</v>
@@ -2502,13 +2508,13 @@
         <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C129" s="1">
         <v>0.87847222222222221</v>
       </c>
       <c r="D129">
-        <v>557</v>
+        <v>589</v>
       </c>
       <c r="G129" s="1"/>
     </row>
@@ -2517,7 +2523,7 @@
         <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C130" s="1">
         <v>0.87847222222222221</v>
@@ -2529,10 +2535,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B131" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C131" s="1">
         <v>0.8881944444444444</v>
@@ -2566,7 +2572,7 @@
         <v>365</v>
       </c>
       <c r="F133" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G133" s="1">
         <v>0.92013888888888884</v>
@@ -2578,7 +2584,7 @@
       </c>
       <c r="C134" s="1"/>
       <c r="E134">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="F134" t="s">
         <v>8</v>
@@ -2596,7 +2602,7 @@
         <v>429</v>
       </c>
       <c r="F135" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G135" s="1">
         <v>0.92361111111111116</v>
@@ -2607,7 +2613,7 @@
         <v>7</v>
       </c>
       <c r="B136" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C136" s="1">
         <v>0.92986111111111114</v>
@@ -2626,7 +2632,7 @@
         <v>578</v>
       </c>
       <c r="F137" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G137" s="1">
         <v>0.93055555555555558</v>
@@ -2641,7 +2647,7 @@
         <v>627</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G138" s="1">
         <v>0.93402777777777779</v>
@@ -2656,7 +2662,7 @@
         <v>574</v>
       </c>
       <c r="F139" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G139" s="1">
         <v>0.9375</v>
@@ -2671,7 +2677,7 @@
         <v>315</v>
       </c>
       <c r="F140" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G140" s="1">
         <v>0.94097222222222221</v>
@@ -2686,7 +2692,7 @@
         <v>658</v>
       </c>
       <c r="F141" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G141" s="1">
         <v>0.94444444444444442</v>
@@ -2694,18 +2700,18 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>12</v>
-      </c>
-      <c r="B142" t="s">
-        <v>42</v>
-      </c>
-      <c r="C142" s="1">
-        <v>0.94930555555555562</v>
-      </c>
-      <c r="D142">
-        <v>1425</v>
-      </c>
-      <c r="G142" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C142" s="1"/>
+      <c r="E142">
+        <v>452</v>
+      </c>
+      <c r="F142" t="s">
+        <v>40</v>
+      </c>
+      <c r="G142" s="1">
+        <v>0.95486111111111116</v>
+      </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
@@ -2713,28 +2719,28 @@
       </c>
       <c r="C143" s="1"/>
       <c r="E143">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="G143" s="1">
-        <v>0.95486111111111116</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C144" s="1"/>
       <c r="E144">
-        <v>432</v>
+        <v>4336</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G144" s="1">
-        <v>0.95833333333333337</v>
+        <v>0.97152777777777777</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -2746,7 +2752,7 @@
         <v>326</v>
       </c>
       <c r="F145" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="G145" s="1">
         <v>0.97569444444444442</v>
@@ -2754,10 +2760,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B146" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C146" s="1">
         <v>0.98333333333333339</v>
@@ -2766,21 +2772,6 @@
         <v>878</v>
       </c>
       <c r="G146" s="1"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>12</v>
-      </c>
-      <c r="C147" s="1"/>
-      <c r="E147">
-        <v>339</v>
-      </c>
-      <c r="F147" t="s">
-        <v>42</v>
-      </c>
-      <c r="G147" s="1">
-        <v>0.99583333333333324</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/operaciones.xlsx
+++ b/public/operaciones.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulm\Desktop\Itinerarios_2026-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6309BA96-30A0-465C-9BAE-AF39F593AC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3D0221D-A87C-4805-A9CF-226DAB553C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EB1E3AE6-53BE-48F3-B666-6011DD66B9F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0F38ADBD-CF24-42C5-8F55-DDE5EF11A9EA}"/>
   </bookViews>
   <sheets>
-    <sheet name="26-01" sheetId="1" r:id="rId1"/>
+    <sheet name="27-01" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="50">
   <si>
     <t>AEROLINEA</t>
   </si>
@@ -59,24 +59,30 @@
     <t>ETD</t>
   </si>
   <si>
+    <t>AVA</t>
+  </si>
+  <si>
+    <t>MHPR</t>
+  </si>
+  <si>
     <t>VOS</t>
   </si>
   <si>
     <t>KIAD</t>
   </si>
   <si>
-    <t>AVA</t>
+    <t>KONT</t>
   </si>
   <si>
     <t>MHLM</t>
   </si>
   <si>
+    <t>KLAX</t>
+  </si>
+  <si>
     <t>KOAK</t>
   </si>
   <si>
-    <t>KLAX</t>
-  </si>
-  <si>
     <t>UAL</t>
   </si>
   <si>
@@ -92,100 +98,94 @@
     <t>SKBO</t>
   </si>
   <si>
+    <t>SPJC</t>
+  </si>
+  <si>
+    <t>MROC</t>
+  </si>
+  <si>
+    <t>KSFO</t>
+  </si>
+  <si>
+    <t>CYYZ</t>
+  </si>
+  <si>
+    <t>KEWR</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>KMIA</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>MPTO</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>KATL</t>
+  </si>
+  <si>
+    <t>KIAH</t>
+  </si>
+  <si>
+    <t>AMX</t>
+  </si>
+  <si>
+    <t>KDFW</t>
+  </si>
+  <si>
+    <t>NKS</t>
+  </si>
+  <si>
+    <t>KFLL</t>
+  </si>
+  <si>
+    <t>SKRG</t>
+  </si>
+  <si>
     <t>MNMG</t>
   </si>
   <si>
-    <t>SPJC</t>
-  </si>
-  <si>
-    <t>MROC</t>
-  </si>
-  <si>
-    <t>KSFO</t>
-  </si>
-  <si>
-    <t>NKS</t>
-  </si>
-  <si>
-    <t>KFLL</t>
-  </si>
-  <si>
-    <t>CYYZ</t>
-  </si>
-  <si>
-    <t>AAL</t>
-  </si>
-  <si>
-    <t>KMIA</t>
-  </si>
-  <si>
-    <t>CMP</t>
-  </si>
-  <si>
-    <t>MPTO</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>KATL</t>
-  </si>
-  <si>
-    <t>KIAH</t>
-  </si>
-  <si>
-    <t>TSC</t>
+    <t>MMUN</t>
+  </si>
+  <si>
+    <t>VOC</t>
+  </si>
+  <si>
+    <t>IBE</t>
   </si>
   <si>
     <t>CYUL</t>
   </si>
   <si>
-    <t>AMX</t>
-  </si>
-  <si>
-    <t>KDFW</t>
-  </si>
-  <si>
-    <t>SKRG</t>
-  </si>
-  <si>
-    <t>KMCO</t>
-  </si>
-  <si>
-    <t>IBE</t>
-  </si>
-  <si>
-    <t>KBOS</t>
-  </si>
-  <si>
-    <t>MHPR</t>
-  </si>
-  <si>
-    <t>TPA</t>
+    <t>KORD</t>
+  </si>
+  <si>
+    <t>KLAS</t>
+  </si>
+  <si>
+    <t>DHL</t>
   </si>
   <si>
     <t>AJT</t>
   </si>
   <si>
-    <t>MZBZ</t>
+    <t>FDX</t>
   </si>
   <si>
     <t>ARM</t>
   </si>
   <si>
-    <t>FDX</t>
-  </si>
-  <si>
-    <t>DHL</t>
-  </si>
-  <si>
     <t>MHTG</t>
   </si>
   <si>
     <t>LEMD</t>
-  </si>
-  <si>
-    <t>KEWR</t>
   </si>
 </sst>
 </file>
@@ -560,8 +560,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D199AB-2B97-4B60-8025-F102C997A8F6}">
-  <dimension ref="A1:G146"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A16A8F2-4266-49A8-98E1-FAE3B7DC2A54}">
+  <dimension ref="A1:G142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,14 +600,14 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1"/>
       <c r="E2">
         <v>1670</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1">
         <v>0.125</v>
@@ -615,16 +615,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1">
-        <v>0.2076388888888889</v>
+        <v>0.15972222222222224</v>
       </c>
       <c r="D3">
-        <v>4156</v>
+        <v>222</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -636,70 +636,70 @@
         <v>8</v>
       </c>
       <c r="C4" s="1">
-        <v>0.20972222222222223</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="D4">
-        <v>4313</v>
+        <v>453</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="E5">
-        <v>879</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.21041666666666667</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.20972222222222223</v>
+      </c>
+      <c r="D5">
+        <v>4313</v>
+      </c>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="D6">
-        <v>575</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="E6">
+        <v>879</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.21041666666666667</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="E7">
-        <v>4350</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.22916666666666666</v>
-      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D7">
+        <v>531</v>
+      </c>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
-        <v>0.23472222222222222</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="D8">
-        <v>4323</v>
+        <v>575</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -708,28 +708,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1">
-        <v>0.23541666666666666</v>
+        <v>0.22569444444444445</v>
       </c>
       <c r="D9">
-        <v>4309</v>
+        <v>533</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1">
-        <v>0.23958333333333334</v>
+        <v>0.23472222222222222</v>
       </c>
       <c r="D10">
-        <v>1266</v>
+        <v>4323</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -738,88 +738,88 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
-        <v>0.24652777777777779</v>
+        <v>0.23541666666666666</v>
       </c>
       <c r="D11">
-        <v>567</v>
+        <v>4309</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
-        <v>0.25347222222222221</v>
+        <v>0.23958333333333334</v>
       </c>
       <c r="D12">
-        <v>433</v>
+        <v>1266</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="1">
-        <v>0.25694444444444442</v>
+        <v>0.24652777777777779</v>
       </c>
       <c r="D13">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="D14">
-        <v>366</v>
+        <v>433</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="D15">
-        <v>529</v>
+        <v>579</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1">
-        <v>0.2638888888888889</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D16">
-        <v>314</v>
+        <v>366</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -827,35 +827,35 @@
       <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="E17">
-        <v>4326</v>
-      </c>
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.2638888888888889</v>
-      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="D17">
+        <v>529</v>
+      </c>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.2673611111111111</v>
-      </c>
-      <c r="D18">
-        <v>428</v>
-      </c>
-      <c r="G18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="E18">
+        <v>4326</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.2638888888888889</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -864,16 +864,16 @@
         <v>0.2673611111111111</v>
       </c>
       <c r="D19">
-        <v>626</v>
+        <v>428</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1">
         <v>0.2673611111111111</v>
@@ -885,167 +885,167 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="E21">
-        <v>4156</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.27013888888888887</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D21">
+        <v>561</v>
+      </c>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C22" s="1">
         <v>0.27083333333333331</v>
       </c>
       <c r="D22">
-        <v>561</v>
+        <v>591</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1">
         <v>0.27083333333333331</v>
       </c>
       <c r="D23">
-        <v>591</v>
+        <v>671</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D24">
-        <v>671</v>
-      </c>
-      <c r="G24" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="E24">
+        <v>1467</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.28819444444444448</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C25" s="1"/>
       <c r="E25">
-        <v>4318</v>
+        <v>4330</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G25" s="1">
-        <v>0.28611111111111109</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1"/>
       <c r="E26">
-        <v>1467</v>
+        <v>323</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G26" s="1">
-        <v>0.28819444444444448</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="D27">
-        <v>621</v>
-      </c>
-      <c r="G27" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="E27">
+        <v>396</v>
+      </c>
+      <c r="F27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1"/>
       <c r="E28">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G28" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1"/>
       <c r="E29">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="G29" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C30" s="1"/>
       <c r="E30">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G30" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C31" s="1"/>
       <c r="E31">
-        <v>884</v>
+        <v>536</v>
       </c>
       <c r="F31" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G31" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1054,283 +1054,283 @@
       </c>
       <c r="C32" s="1"/>
       <c r="E32">
-        <v>4338</v>
+        <v>562</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G32" s="1">
-        <v>0.31527777777777777</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C33" s="1"/>
       <c r="E33">
-        <v>310</v>
+        <v>368</v>
       </c>
       <c r="F33" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G33" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C34" s="1"/>
       <c r="E34">
-        <v>440</v>
+        <v>522</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G34" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="E35">
-        <v>536</v>
-      </c>
-      <c r="F35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
         <v>10</v>
       </c>
-      <c r="G35" s="1">
-        <v>0.31597222222222221</v>
-      </c>
+      <c r="C35" s="1">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="D35">
+        <v>581</v>
+      </c>
+      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C36" s="1"/>
       <c r="E36">
-        <v>444</v>
+        <v>564</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="G36" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.33680555555555558</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C37" s="1"/>
       <c r="E37">
-        <v>562</v>
+        <v>454</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G37" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0.3298611111111111</v>
-      </c>
-      <c r="D38">
-        <v>549</v>
-      </c>
-      <c r="G38" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="E38">
+        <v>572</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.34027777777777779</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C39" s="1"/>
       <c r="E39">
-        <v>368</v>
+        <v>324</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G39" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C40" s="1"/>
       <c r="E40">
-        <v>383</v>
+        <v>884</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G40" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.35833333333333334</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="E41">
-        <v>522</v>
-      </c>
-      <c r="F41" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0.33333333333333331</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="D41">
+        <v>551</v>
+      </c>
+      <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0.33680555555555558</v>
-      </c>
-      <c r="D42">
-        <v>601</v>
-      </c>
-      <c r="G42" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="E42">
+        <v>526</v>
+      </c>
+      <c r="F42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C43" s="1"/>
       <c r="E43">
-        <v>564</v>
+        <v>369</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G43" s="1">
-        <v>0.33680555555555558</v>
+        <v>0.37847222222222221</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C44" s="1"/>
       <c r="E44">
-        <v>554</v>
+        <v>430</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G44" s="1">
-        <v>0.34027777777777779</v>
+        <v>0.37847222222222221</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C45" s="1"/>
       <c r="E45">
-        <v>324</v>
+        <v>582</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G45" s="1">
-        <v>0.34375</v>
+        <v>0.39930555555555558</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="E46">
-        <v>422</v>
-      </c>
-      <c r="F46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G46" s="1">
-        <v>0.36458333333333331</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="D46">
+        <v>721</v>
+      </c>
+      <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C47" s="1">
-        <v>0.375</v>
+        <v>0.41319444444444442</v>
       </c>
       <c r="D47">
-        <v>8111</v>
+        <v>659</v>
       </c>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C48" s="1"/>
       <c r="E48">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G48" s="1">
-        <v>0.37847222222222221</v>
+        <v>0.41319444444444442</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C49" s="1"/>
       <c r="E49">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="G49" s="1">
-        <v>0.37847222222222221</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C50" s="1"/>
       <c r="E50">
-        <v>524</v>
+        <v>609</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G50" s="1">
-        <v>0.38194444444444442</v>
+        <v>0.4236111111111111</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1339,190 +1339,190 @@
       </c>
       <c r="C51" s="1"/>
       <c r="E51">
-        <v>582</v>
+        <v>4320</v>
       </c>
       <c r="F51" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="G51" s="1">
-        <v>0.39930555555555558</v>
+        <v>0.4236111111111111</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C52" s="1">
-        <v>0.41319444444444442</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D52">
-        <v>659</v>
+        <v>537</v>
       </c>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="E53">
-        <v>392</v>
-      </c>
-      <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0.41319444444444442</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D53">
+        <v>455</v>
+      </c>
+      <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C54" s="1">
-        <v>0.41666666666666669</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>327</v>
       </c>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="E55">
-        <v>613</v>
-      </c>
-      <c r="F55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" s="1">
-        <v>0.4236111111111111</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D55">
+        <v>573</v>
+      </c>
+      <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C56" s="1">
-        <v>0.42708333333333331</v>
+        <v>0.45347222222222222</v>
       </c>
       <c r="D56">
-        <v>537</v>
+        <v>4337</v>
       </c>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C57" s="1">
-        <v>0.43611111111111112</v>
+        <v>0.46180555555555558</v>
       </c>
       <c r="D57">
-        <v>255</v>
+        <v>70</v>
       </c>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="D58">
-        <v>320</v>
-      </c>
-      <c r="G58" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="E58">
+        <v>720</v>
+      </c>
+      <c r="F58" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.4861111111111111</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" s="1">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="D59">
-        <v>327</v>
-      </c>
-      <c r="G59" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="E59">
+        <v>584</v>
+      </c>
+      <c r="F59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.49305555555555558</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0.46180555555555558</v>
-      </c>
-      <c r="D60">
-        <v>70</v>
-      </c>
-      <c r="G60" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="E60">
+        <v>650</v>
+      </c>
+      <c r="F60" t="s">
+        <v>38</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.49305555555555558</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>22</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="E61">
-        <v>256</v>
-      </c>
-      <c r="F61" t="s">
-        <v>31</v>
-      </c>
-      <c r="G61" s="1">
-        <v>0.47430555555555554</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="D61">
+        <v>4301</v>
+      </c>
+      <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C62" s="1"/>
       <c r="E62">
-        <v>584</v>
+        <v>424</v>
       </c>
       <c r="F62" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="G62" s="1">
-        <v>0.49305555555555558</v>
+        <v>0.50347222222222221</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C63" s="1"/>
       <c r="E63">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G63" s="1">
         <v>0.50347222222222221</v>
@@ -1530,14 +1530,14 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C64" s="1"/>
       <c r="E64">
         <v>71</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G64" s="1">
         <v>0.50347222222222221</v>
@@ -1545,138 +1545,138 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>25</v>
-      </c>
-      <c r="B65" t="s">
-        <v>26</v>
-      </c>
-      <c r="C65" s="1">
-        <v>0.52152777777777781</v>
-      </c>
-      <c r="D65">
-        <v>339</v>
-      </c>
-      <c r="G65" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="E65">
+        <v>619</v>
+      </c>
+      <c r="F65" t="s">
+        <v>21</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.51041666666666663</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>27</v>
-      </c>
-      <c r="B66" t="s">
-        <v>28</v>
-      </c>
-      <c r="C66" s="1">
-        <v>0.52847222222222223</v>
-      </c>
-      <c r="D66">
-        <v>816</v>
-      </c>
-      <c r="G66" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="E66">
+        <v>4</v>
+      </c>
+      <c r="F66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.52083333333333337</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B67" t="s">
         <v>26</v>
       </c>
       <c r="C67" s="1">
-        <v>0.5395833333333333</v>
+        <v>0.52152777777777781</v>
       </c>
       <c r="D67">
-        <v>8138</v>
+        <v>339</v>
       </c>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C68" s="1">
-        <v>0.54861111111111105</v>
+        <v>0.52847222222222223</v>
       </c>
       <c r="D68">
-        <v>1910</v>
+        <v>816</v>
       </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C69" s="1">
-        <v>0.55486111111111114</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="D69">
-        <v>1441</v>
+        <v>1910</v>
       </c>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C70" s="1">
-        <v>0.5625</v>
+        <v>0.55486111111111114</v>
       </c>
       <c r="D70">
-        <v>760</v>
+        <v>1441</v>
       </c>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C71" s="1"/>
-      <c r="E71">
-        <v>348</v>
-      </c>
-      <c r="F71" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" t="s">
         <v>26</v>
       </c>
-      <c r="G71" s="1">
-        <v>0.56319444444444444</v>
-      </c>
+      <c r="C71" s="1">
+        <v>0.56041666666666667</v>
+      </c>
+      <c r="D71">
+        <v>8139</v>
+      </c>
+      <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>34</v>
-      </c>
-      <c r="B72" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" s="1">
-        <v>0.57847222222222217</v>
-      </c>
-      <c r="D72">
-        <v>628</v>
-      </c>
-      <c r="G72" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="E72">
+        <v>348</v>
+      </c>
+      <c r="F72" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.56319444444444444</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>45</v>
-      </c>
-      <c r="C73" s="1"/>
-      <c r="E73">
-        <v>8138</v>
-      </c>
-      <c r="F73" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="1">
-        <v>0.58124999999999993</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.5805555555555556</v>
+      </c>
+      <c r="D73">
+        <v>628</v>
+      </c>
+      <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -1698,7 +1698,7 @@
         <v>25</v>
       </c>
       <c r="B75" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C75" s="1">
         <v>0.59791666666666665</v>
@@ -1725,227 +1725,227 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C77" s="1"/>
       <c r="E77">
-        <v>761</v>
+        <v>1468</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G77" s="1">
-        <v>0.61111111111111105</v>
+        <v>0.61805555555555558</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B78" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C78" s="1">
-        <v>0.61736111111111114</v>
+        <v>0.61944444444444446</v>
       </c>
       <c r="D78">
-        <v>3151</v>
+        <v>1031</v>
       </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C79" s="1"/>
       <c r="E79">
-        <v>1468</v>
+        <v>629</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G79" s="1">
-        <v>0.61805555555555558</v>
+        <v>0.63055555555555554</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" t="s">
-        <v>16</v>
-      </c>
-      <c r="C80" s="1">
-        <v>0.62222222222222223</v>
-      </c>
-      <c r="D80">
-        <v>4319</v>
-      </c>
-      <c r="G80" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="E80">
+        <v>1104</v>
+      </c>
+      <c r="F80" t="s">
+        <v>33</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0.63958333333333328</v>
+      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>34</v>
-      </c>
-      <c r="C81" s="1"/>
-      <c r="E81">
-        <v>629</v>
-      </c>
-      <c r="F81" t="s">
         <v>15</v>
       </c>
-      <c r="G81" s="1">
-        <v>0.63055555555555554</v>
-      </c>
+      <c r="B81" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.64166666666666672</v>
+      </c>
+      <c r="D81">
+        <v>1290</v>
+      </c>
+      <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C82" s="1"/>
       <c r="E82">
-        <v>1104</v>
+        <v>7139</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G82" s="1">
-        <v>0.63958333333333328</v>
+        <v>0.66527777777777775</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B83" t="s">
         <v>31</v>
       </c>
       <c r="C83" s="1">
-        <v>0.64166666666666672</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D83">
-        <v>1290</v>
+        <v>367</v>
       </c>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C84" s="1">
-        <v>0.65277777777777779</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D84">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C85" s="1"/>
       <c r="E85">
-        <v>317</v>
+        <v>1032</v>
       </c>
       <c r="F85" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G85" s="1">
-        <v>0.65625</v>
+        <v>0.66805555555555551</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>25</v>
-      </c>
-      <c r="C86" s="1"/>
-      <c r="E86">
-        <v>356</v>
-      </c>
-      <c r="F86" t="s">
-        <v>26</v>
-      </c>
-      <c r="G86" s="1">
-        <v>0.65902777777777777</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B86" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="D86">
+        <v>397</v>
+      </c>
+      <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C87" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.68055555555555558</v>
       </c>
       <c r="D87">
-        <v>367</v>
+        <v>441</v>
       </c>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C88" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.68402777777777779</v>
       </c>
       <c r="D88">
-        <v>370</v>
+        <v>651</v>
       </c>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B89" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C89" s="1">
-        <v>0.67361111111111116</v>
+        <v>0.6875</v>
       </c>
       <c r="D89">
-        <v>397</v>
+        <v>311</v>
       </c>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C90" s="1">
-        <v>0.68055555555555558</v>
+        <v>0.6875</v>
       </c>
       <c r="D90">
-        <v>441</v>
+        <v>618</v>
       </c>
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C91" s="1"/>
       <c r="E91">
-        <v>4322</v>
+        <v>1130</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G91" s="1">
-        <v>0.68611111111111112</v>
+        <v>0.69444444444444453</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -1953,113 +1953,113 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C92" s="1">
-        <v>0.6875</v>
+        <v>0.69722222222222219</v>
       </c>
       <c r="D92">
-        <v>311</v>
+        <v>4327</v>
       </c>
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C93" s="1">
-        <v>0.6875</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="D93">
-        <v>610</v>
+        <v>322</v>
       </c>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B94" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C94" s="1">
-        <v>0.69097222222222221</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D94">
-        <v>423</v>
+        <v>4</v>
       </c>
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>9</v>
-      </c>
-      <c r="B95" t="s">
-        <v>16</v>
-      </c>
-      <c r="C95" s="1">
-        <v>0.69097222222222221</v>
-      </c>
-      <c r="D95">
-        <v>555</v>
-      </c>
-      <c r="G95" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="E95">
+        <v>530</v>
+      </c>
+      <c r="F95" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C96" s="1"/>
       <c r="E96">
-        <v>1130</v>
+        <v>532</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G96" s="1">
-        <v>0.69444444444444453</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>7</v>
       </c>
-      <c r="B97" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" s="1">
-        <v>0.69722222222222219</v>
-      </c>
-      <c r="D97">
-        <v>4327</v>
-      </c>
-      <c r="G97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="E97">
+        <v>550</v>
+      </c>
+      <c r="F97" t="s">
+        <v>18</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>9</v>
-      </c>
-      <c r="B98" t="s">
-        <v>28</v>
-      </c>
-      <c r="C98" s="1">
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="D98">
-        <v>322</v>
-      </c>
-      <c r="G98" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="E98">
+        <v>560</v>
+      </c>
+      <c r="F98" t="s">
+        <v>22</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C99" s="1"/>
       <c r="E99">
-        <v>560</v>
+        <v>615</v>
       </c>
       <c r="F99" t="s">
         <v>21</v>
@@ -2072,30 +2072,30 @@
       <c r="A100" t="s">
         <v>9</v>
       </c>
-      <c r="C100" s="1"/>
-      <c r="E100">
-        <v>588</v>
-      </c>
-      <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+      <c r="B100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.73472222222222228</v>
+      </c>
+      <c r="D100">
+        <v>4321</v>
+      </c>
+      <c r="G100" s="1"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C101" s="1"/>
       <c r="E101">
-        <v>617</v>
+        <v>534</v>
       </c>
       <c r="F101" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G101" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.74305555555555558</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -2104,44 +2104,44 @@
       </c>
       <c r="C102" s="1"/>
       <c r="E102">
-        <v>620</v>
+        <v>4308</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G102" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.74583333333333335</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>7</v>
       </c>
-      <c r="B103" t="s">
-        <v>20</v>
-      </c>
-      <c r="C103" s="1">
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="D103">
-        <v>4351</v>
-      </c>
-      <c r="G103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="E103">
+        <v>528</v>
+      </c>
+      <c r="F103" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0.76041666666666663</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104" s="1"/>
-      <c r="E104">
-        <v>550</v>
-      </c>
-      <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" s="1">
-        <v>0.73611111111111116</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B104" t="s">
+        <v>21</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0.7631944444444444</v>
+      </c>
+      <c r="D104">
+        <v>4040</v>
+      </c>
+      <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
@@ -2149,216 +2149,216 @@
       </c>
       <c r="C105" s="1"/>
       <c r="E105">
-        <v>448</v>
+        <v>4312</v>
       </c>
       <c r="F105" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G105" s="1">
-        <v>0.74305555555555558</v>
+        <v>0.77638888888888891</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" s="1"/>
-      <c r="E106">
-        <v>4308</v>
-      </c>
-      <c r="F106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" s="1">
-        <v>0.74583333333333335</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B106" t="s">
+        <v>48</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="D106">
+        <v>931</v>
+      </c>
+      <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>9</v>
-      </c>
-      <c r="B107" t="s">
-        <v>20</v>
-      </c>
-      <c r="C107" s="1">
-        <v>0.74652777777777779</v>
-      </c>
-      <c r="D107">
-        <v>612</v>
-      </c>
-      <c r="G107" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="E107">
+        <v>558</v>
+      </c>
+      <c r="F107" t="s">
+        <v>22</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0.78819444444444442</v>
+      </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>9</v>
       </c>
-      <c r="C108" s="1"/>
-      <c r="E108">
-        <v>528</v>
-      </c>
-      <c r="F108" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" s="1">
-        <v>0.76041666666666663</v>
-      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0.79027777777777775</v>
+      </c>
+      <c r="D108">
+        <v>4331</v>
+      </c>
+      <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109" s="1"/>
-      <c r="E109">
-        <v>566</v>
-      </c>
-      <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" s="1">
-        <v>0.77083333333333337</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B109" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D109">
+        <v>222</v>
+      </c>
+      <c r="G109" s="1"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>7</v>
       </c>
-      <c r="C110" s="1"/>
-      <c r="E110">
-        <v>4312</v>
-      </c>
-      <c r="F110" t="s">
-        <v>8</v>
-      </c>
-      <c r="G110" s="1">
-        <v>0.77638888888888891</v>
-      </c>
+      <c r="B110" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="D110">
+        <v>431</v>
+      </c>
+      <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B111" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C111" s="1">
-        <v>0.78125</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="D111">
-        <v>931</v>
+        <v>565</v>
       </c>
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>38</v>
-      </c>
-      <c r="B112" t="s">
-        <v>16</v>
-      </c>
-      <c r="C112" s="1">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D112">
-        <v>222</v>
-      </c>
-      <c r="G112" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="E112">
+        <v>4041</v>
+      </c>
+      <c r="F112" t="s">
+        <v>21</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0.79513888888888884</v>
+      </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>9</v>
       </c>
-      <c r="B113" t="s">
-        <v>15</v>
-      </c>
-      <c r="C113" s="1">
-        <v>0.79513888888888884</v>
-      </c>
-      <c r="D113">
-        <v>431</v>
-      </c>
-      <c r="G113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="E113">
+        <v>4300</v>
+      </c>
+      <c r="F113" t="s">
+        <v>17</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0.81180555555555556</v>
+      </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>9</v>
-      </c>
-      <c r="B114" t="s">
-        <v>14</v>
-      </c>
-      <c r="C114" s="1">
-        <v>0.79513888888888884</v>
-      </c>
-      <c r="D114">
-        <v>565</v>
-      </c>
-      <c r="G114" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="E114">
+        <v>670</v>
+      </c>
+      <c r="F114" t="s">
+        <v>16</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0.8125</v>
+      </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>9</v>
-      </c>
-      <c r="C115" s="1"/>
-      <c r="E115">
-        <v>670</v>
-      </c>
-      <c r="F115" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" s="1">
-        <v>0.8125</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B115" t="s">
+        <v>31</v>
+      </c>
+      <c r="C115" s="1">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="D115">
+        <v>425</v>
+      </c>
+      <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B116" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C116" s="1">
-        <v>0.81944444444444442</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="D116">
-        <v>425</v>
+        <v>523</v>
       </c>
       <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C117" s="1">
-        <v>0.82638888888888884</v>
+        <v>0.82986111111111116</v>
       </c>
       <c r="D117">
-        <v>523</v>
+        <v>583</v>
       </c>
       <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C118" s="1">
-        <v>0.82986111111111116</v>
+        <v>0.83680555555555558</v>
       </c>
       <c r="D118">
-        <v>583</v>
+        <v>329</v>
       </c>
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B119" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C119" s="1">
         <v>0.84375</v>
@@ -2370,190 +2370,190 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>9</v>
-      </c>
-      <c r="B120" t="s">
-        <v>39</v>
-      </c>
-      <c r="C120" s="1">
-        <v>0.84375</v>
-      </c>
-      <c r="D120">
-        <v>445</v>
-      </c>
-      <c r="G120" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C120" s="1"/>
+      <c r="E120">
+        <v>590</v>
+      </c>
+      <c r="F120" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="1">
+        <v>0.85069444444444442</v>
+      </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>9</v>
-      </c>
-      <c r="C121" s="1"/>
-      <c r="E121">
-        <v>590</v>
-      </c>
-      <c r="F121" t="s">
-        <v>8</v>
-      </c>
-      <c r="G121" s="1">
-        <v>0.85069444444444442</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B121" t="s">
+        <v>37</v>
+      </c>
+      <c r="C121" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D121">
+        <v>393</v>
+      </c>
+      <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B122" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C122" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.85972222222222217</v>
       </c>
       <c r="D122">
-        <v>393</v>
+        <v>881</v>
       </c>
       <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B123" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C123" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.86805555555555558</v>
       </c>
       <c r="D123">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C124" s="1">
-        <v>0.85972222222222217</v>
+        <v>0.86805555555555558</v>
       </c>
       <c r="D124">
-        <v>881</v>
+        <v>563</v>
       </c>
       <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C125" s="1">
-        <v>0.86805555555555558</v>
+        <v>0.875</v>
       </c>
       <c r="D125">
-        <v>563</v>
+        <v>535</v>
       </c>
       <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>9</v>
-      </c>
-      <c r="B126" t="s">
-        <v>28</v>
-      </c>
-      <c r="C126" s="1">
-        <v>0.87152777777777779</v>
-      </c>
-      <c r="D126">
-        <v>316</v>
-      </c>
-      <c r="G126" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C126" s="1"/>
+      <c r="E126">
+        <v>222</v>
+      </c>
+      <c r="F126" t="s">
+        <v>49</v>
+      </c>
+      <c r="G126" s="1">
+        <v>0.875</v>
+      </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>38</v>
-      </c>
-      <c r="C127" s="1"/>
-      <c r="E127">
-        <v>222</v>
-      </c>
-      <c r="F127" t="s">
-        <v>48</v>
-      </c>
-      <c r="G127" s="1">
-        <v>0.875</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B127" t="s">
+        <v>42</v>
+      </c>
+      <c r="C127" s="1">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="D127">
+        <v>409</v>
+      </c>
+      <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C128" s="1">
         <v>0.87847222222222221</v>
       </c>
       <c r="D128">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C129" s="1">
         <v>0.87847222222222221</v>
       </c>
       <c r="D129">
-        <v>589</v>
+        <v>614</v>
       </c>
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B130" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C130" s="1">
-        <v>0.87847222222222221</v>
+        <v>0.8881944444444444</v>
       </c>
       <c r="D130">
-        <v>616</v>
+        <v>1461</v>
       </c>
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B131" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C131" s="1">
-        <v>0.8881944444444444</v>
+        <v>0.89236111111111116</v>
       </c>
       <c r="D131">
-        <v>1461</v>
+        <v>608</v>
       </c>
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C132" s="1">
         <v>0.91319444444444442</v>
@@ -2565,14 +2565,14 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C133" s="1"/>
       <c r="E133">
         <v>365</v>
       </c>
       <c r="F133" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G133" s="1">
         <v>0.92013888888888884</v>
@@ -2580,14 +2580,14 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C134" s="1"/>
       <c r="E134">
         <v>580</v>
       </c>
       <c r="F134" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G134" s="1">
         <v>0.92013888888888884</v>
@@ -2595,14 +2595,14 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C135" s="1"/>
       <c r="E135">
         <v>429</v>
       </c>
       <c r="F135" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G135" s="1">
         <v>0.92361111111111116</v>
@@ -2612,166 +2612,106 @@
       <c r="A136" t="s">
         <v>7</v>
       </c>
-      <c r="B136" t="s">
-        <v>26</v>
-      </c>
-      <c r="C136" s="1">
-        <v>0.92986111111111114</v>
-      </c>
-      <c r="D136">
-        <v>4339</v>
-      </c>
-      <c r="G136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="E136">
+        <v>578</v>
+      </c>
+      <c r="F136" t="s">
+        <v>18</v>
+      </c>
+      <c r="G136" s="1">
+        <v>0.93055555555555558</v>
+      </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C137" s="1"/>
       <c r="E137">
-        <v>578</v>
+        <v>651</v>
       </c>
       <c r="F137" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G137" s="1">
-        <v>0.93055555555555558</v>
+        <v>0.93402777777777779</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C138" s="1"/>
       <c r="E138">
-        <v>627</v>
+        <v>574</v>
       </c>
       <c r="F138" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G138" s="1">
-        <v>0.93402777777777779</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C139" s="1"/>
       <c r="E139">
-        <v>574</v>
+        <v>315</v>
       </c>
       <c r="F139" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G139" s="1">
-        <v>0.9375</v>
+        <v>0.94097222222222221</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C140" s="1"/>
       <c r="E140">
-        <v>315</v>
+        <v>658</v>
       </c>
       <c r="F140" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G140" s="1">
-        <v>0.94097222222222221</v>
+        <v>0.94444444444444442</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C141" s="1"/>
       <c r="E141">
-        <v>658</v>
+        <v>452</v>
       </c>
       <c r="F141" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G141" s="1">
-        <v>0.94444444444444442</v>
+        <v>0.95486111111111116</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>9</v>
-      </c>
-      <c r="C142" s="1"/>
-      <c r="E142">
-        <v>452</v>
-      </c>
-      <c r="F142" t="s">
-        <v>40</v>
-      </c>
-      <c r="G142" s="1">
-        <v>0.95486111111111116</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>9</v>
-      </c>
-      <c r="C143" s="1"/>
-      <c r="E143">
-        <v>432</v>
-      </c>
-      <c r="F143" t="s">
-        <v>15</v>
-      </c>
-      <c r="G143" s="1">
-        <v>0.95833333333333337</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>7</v>
-      </c>
-      <c r="C144" s="1"/>
-      <c r="E144">
-        <v>4336</v>
-      </c>
-      <c r="F144" t="s">
-        <v>49</v>
-      </c>
-      <c r="G144" s="1">
-        <v>0.97152777777777777</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>9</v>
-      </c>
-      <c r="C145" s="1"/>
-      <c r="E145">
-        <v>326</v>
-      </c>
-      <c r="F145" t="s">
-        <v>24</v>
-      </c>
-      <c r="G145" s="1">
-        <v>0.97569444444444442</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
         <v>27</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B142" t="s">
         <v>28</v>
       </c>
-      <c r="C146" s="1">
+      <c r="C142" s="1">
         <v>0.98333333333333339</v>
       </c>
-      <c r="D146">
+      <c r="D142">
         <v>878</v>
       </c>
-      <c r="G146" s="1"/>
+      <c r="G142" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/operaciones.xlsx
+++ b/public/operaciones.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulm\Desktop\Itinerarios_2026-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3D0221D-A87C-4805-A9CF-226DAB553C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3302BF5-39AE-4863-964D-76746BA65822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0F38ADBD-CF24-42C5-8F55-DDE5EF11A9EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4CCF9AAC-F7A7-4607-8608-F4A2A3C6B185}"/>
   </bookViews>
   <sheets>
-    <sheet name="27-01" sheetId="1" r:id="rId1"/>
+    <sheet name="28-01" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="49">
   <si>
     <t>AEROLINEA</t>
   </si>
@@ -59,133 +59,130 @@
     <t>ETD</t>
   </si>
   <si>
+    <t>VOS</t>
+  </si>
+  <si>
+    <t>KIAD</t>
+  </si>
+  <si>
     <t>AVA</t>
   </si>
   <si>
+    <t>MHLM</t>
+  </si>
+  <si>
+    <t>KLAX</t>
+  </si>
+  <si>
+    <t>UAL</t>
+  </si>
+  <si>
+    <t>MGGT</t>
+  </si>
+  <si>
+    <t>SKBO</t>
+  </si>
+  <si>
+    <t>MNMG</t>
+  </si>
+  <si>
+    <t>SPJC</t>
+  </si>
+  <si>
+    <t>MROC</t>
+  </si>
+  <si>
+    <t>KSFO</t>
+  </si>
+  <si>
+    <t>KJFK</t>
+  </si>
+  <si>
+    <t>NKS</t>
+  </si>
+  <si>
+    <t>KFLL</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>KMIA</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>MPTO</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>KATL</t>
+  </si>
+  <si>
+    <t>KIAH</t>
+  </si>
+  <si>
+    <t>FFT</t>
+  </si>
+  <si>
+    <t>AMX</t>
+  </si>
+  <si>
+    <t>MMMX</t>
+  </si>
+  <si>
+    <t>KDFW</t>
+  </si>
+  <si>
+    <t>SKRG</t>
+  </si>
+  <si>
+    <t>KMCO</t>
+  </si>
+  <si>
+    <t>IBE</t>
+  </si>
+  <si>
+    <t>CYYZ</t>
+  </si>
+  <si>
+    <t>KBOS</t>
+  </si>
+  <si>
     <t>MHPR</t>
   </si>
   <si>
-    <t>VOS</t>
-  </si>
-  <si>
-    <t>KIAD</t>
-  </si>
-  <si>
-    <t>KONT</t>
-  </si>
-  <si>
-    <t>MHLM</t>
-  </si>
-  <si>
-    <t>KLAX</t>
+    <t>KEWR</t>
+  </si>
+  <si>
+    <t>TPA</t>
+  </si>
+  <si>
+    <t>DHL</t>
+  </si>
+  <si>
+    <t>AJT</t>
+  </si>
+  <si>
+    <t>FDX</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>MHTG</t>
   </si>
   <si>
     <t>KOAK</t>
   </si>
   <si>
-    <t>UAL</t>
-  </si>
-  <si>
-    <t>KJFK</t>
-  </si>
-  <si>
-    <t>MMMX</t>
-  </si>
-  <si>
-    <t>MGGT</t>
-  </si>
-  <si>
-    <t>SKBO</t>
-  </si>
-  <si>
-    <t>SPJC</t>
-  </si>
-  <si>
-    <t>MROC</t>
-  </si>
-  <si>
-    <t>KSFO</t>
-  </si>
-  <si>
-    <t>CYYZ</t>
-  </si>
-  <si>
-    <t>KEWR</t>
-  </si>
-  <si>
-    <t>AAL</t>
-  </si>
-  <si>
-    <t>KMIA</t>
-  </si>
-  <si>
-    <t>CMP</t>
-  </si>
-  <si>
-    <t>MPTO</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>KATL</t>
-  </si>
-  <si>
-    <t>KIAH</t>
-  </si>
-  <si>
-    <t>AMX</t>
-  </si>
-  <si>
-    <t>KDFW</t>
-  </si>
-  <si>
-    <t>NKS</t>
-  </si>
-  <si>
-    <t>KFLL</t>
-  </si>
-  <si>
-    <t>SKRG</t>
-  </si>
-  <si>
-    <t>MNMG</t>
-  </si>
-  <si>
-    <t>MMUN</t>
-  </si>
-  <si>
-    <t>VOC</t>
-  </si>
-  <si>
-    <t>IBE</t>
-  </si>
-  <si>
-    <t>CYUL</t>
-  </si>
-  <si>
-    <t>KORD</t>
-  </si>
-  <si>
-    <t>KLAS</t>
-  </si>
-  <si>
-    <t>DHL</t>
-  </si>
-  <si>
-    <t>AJT</t>
-  </si>
-  <si>
-    <t>FDX</t>
-  </si>
-  <si>
-    <t>ARM</t>
-  </si>
-  <si>
-    <t>MHTG</t>
-  </si>
-  <si>
     <t>LEMD</t>
+  </si>
+  <si>
+    <t>SEQM</t>
   </si>
 </sst>
 </file>
@@ -560,8 +557,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A16A8F2-4266-49A8-98E1-FAE3B7DC2A54}">
-  <dimension ref="A1:G142"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F42A6D-4206-4AD5-A0A3-E106030BD639}">
+  <dimension ref="A1:G148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,55 +597,55 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="E2">
-        <v>1670</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.125</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="D2">
+        <v>4156</v>
+      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.15972222222222224</v>
-      </c>
-      <c r="D3">
-        <v>222</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="E3">
+        <v>1670</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
-        <v>0.20833333333333334</v>
+        <v>0.15972222222222224</v>
       </c>
       <c r="D4">
-        <v>453</v>
+        <v>222</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
         <v>0.20972222222222223</v>
@@ -660,14 +657,14 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1"/>
       <c r="E6">
         <v>879</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1">
         <v>0.21041666666666667</v>
@@ -675,16 +672,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <v>0.22222222222222221</v>
       </c>
       <c r="D7">
-        <v>531</v>
+        <v>575</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -693,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
-        <v>0.22222222222222221</v>
+        <v>0.23541666666666666</v>
       </c>
       <c r="D8">
-        <v>575</v>
+        <v>4309</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1">
-        <v>0.22569444444444445</v>
+        <v>0.23958333333333334</v>
       </c>
       <c r="D9">
-        <v>533</v>
+        <v>1266</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -723,13 +720,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1">
-        <v>0.23472222222222222</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="D10">
-        <v>4323</v>
+        <v>579</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -738,43 +735,43 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
-        <v>0.23541666666666666</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D11">
-        <v>4309</v>
+        <v>366</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
-        <v>0.23958333333333334</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D12">
-        <v>1266</v>
+        <v>529</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1">
-        <v>0.24652777777777779</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="D13">
-        <v>567</v>
+        <v>314</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -782,59 +779,59 @@
       <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.25347222222222221</v>
-      </c>
-      <c r="D14">
-        <v>433</v>
-      </c>
-      <c r="G14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="E14">
+        <v>4326</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.2638888888888889</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
-        <v>0.25694444444444442</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D15">
-        <v>579</v>
+        <v>428</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D16">
-        <v>366</v>
+        <v>626</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D17">
-        <v>529</v>
+        <v>561</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -842,29 +839,29 @@
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="E18">
-        <v>4326</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.2638888888888889</v>
-      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D18">
+        <v>591</v>
+      </c>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1">
-        <v>0.2673611111111111</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D19">
-        <v>428</v>
+        <v>671</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -872,132 +869,132 @@
       <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.2673611111111111</v>
-      </c>
-      <c r="D20">
-        <v>650</v>
-      </c>
-      <c r="G20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="E20">
+        <v>4318</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.28611111111111109</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D21">
-        <v>561</v>
-      </c>
-      <c r="G21" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="E21">
+        <v>1467</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.28819444444444448</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="D22">
-        <v>591</v>
+        <v>621</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D23">
-        <v>671</v>
-      </c>
-      <c r="G23" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="E23">
+        <v>323</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1"/>
       <c r="E24">
-        <v>1467</v>
+        <v>396</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G24" s="1">
-        <v>0.28819444444444448</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1"/>
       <c r="E25">
-        <v>4330</v>
+        <v>4338</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G25" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.31527777777777777</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C26" s="1"/>
       <c r="E26">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G26" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C27" s="1"/>
       <c r="E27">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G27" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C28" s="1"/>
       <c r="E28">
-        <v>310</v>
+        <v>536</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G28" s="1">
         <v>0.31597222222222221</v>
@@ -1005,224 +1002,224 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C29" s="1"/>
       <c r="E29">
-        <v>328</v>
+        <v>444</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G29" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C30" s="1"/>
       <c r="E30">
-        <v>440</v>
+        <v>562</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G30" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C31" s="1"/>
       <c r="E31">
-        <v>536</v>
+        <v>368</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G31" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C32" s="1"/>
       <c r="E32">
-        <v>562</v>
+        <v>522</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G32" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="E33">
-        <v>368</v>
-      </c>
-      <c r="F33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0.33333333333333331</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="D33">
+        <v>581</v>
+      </c>
+      <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C34" s="1"/>
       <c r="E34">
-        <v>522</v>
+        <v>564</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G34" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.33680555555555558</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0.33680555555555558</v>
-      </c>
-      <c r="D35">
-        <v>581</v>
-      </c>
-      <c r="G35" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="E35">
+        <v>554</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.34027777777777779</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C36" s="1"/>
       <c r="E36">
-        <v>564</v>
+        <v>324</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G36" s="1">
-        <v>0.33680555555555558</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="E37">
-        <v>454</v>
-      </c>
-      <c r="F37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0.34027777777777779</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.34722222222222221</v>
+      </c>
+      <c r="D37">
+        <v>4053</v>
+      </c>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C38" s="1"/>
       <c r="E38">
-        <v>572</v>
+        <v>884</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G38" s="1">
-        <v>0.34027777777777779</v>
+        <v>0.35833333333333334</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="E39">
-        <v>324</v>
-      </c>
-      <c r="F39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0.34375</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="D39">
+        <v>551</v>
+      </c>
+      <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C40" s="1"/>
       <c r="E40">
-        <v>884</v>
+        <v>422</v>
       </c>
       <c r="F40" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G40" s="1">
-        <v>0.35833333333333334</v>
+        <v>0.36458333333333331</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
         <v>18</v>
       </c>
       <c r="C41" s="1">
-        <v>0.3611111111111111</v>
+        <v>0.37847222222222221</v>
       </c>
       <c r="D41">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C42" s="1"/>
       <c r="E42">
-        <v>526</v>
+        <v>369</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G42" s="1">
-        <v>0.375</v>
+        <v>0.37847222222222221</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C43" s="1"/>
       <c r="E43">
-        <v>369</v>
+        <v>430</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G43" s="1">
         <v>0.37847222222222221</v>
@@ -1230,29 +1227,29 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C44" s="1"/>
       <c r="E44">
-        <v>430</v>
+        <v>524</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G44" s="1">
-        <v>0.37847222222222221</v>
+        <v>0.38194444444444442</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C45" s="1"/>
       <c r="E45">
         <v>582</v>
       </c>
       <c r="F45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G45" s="1">
         <v>0.39930555555555558</v>
@@ -1260,25 +1257,25 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0.40625</v>
-      </c>
-      <c r="D46">
-        <v>721</v>
-      </c>
-      <c r="G46" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="E46">
+        <v>4053</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.40972222222222221</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C47" s="1">
         <v>0.41319444444444442</v>
@@ -1290,14 +1287,14 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C48" s="1"/>
       <c r="E48">
         <v>392</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="G48" s="1">
         <v>0.41319444444444442</v>
@@ -1305,29 +1302,29 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="E49">
-        <v>408</v>
-      </c>
-      <c r="F49" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="1">
-        <v>0.41666666666666669</v>
-      </c>
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="D49">
+        <v>731</v>
+      </c>
+      <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C50" s="1"/>
       <c r="E50">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G50" s="1">
         <v>0.4236111111111111</v>
@@ -1337,181 +1334,181 @@
       <c r="A51" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="E51">
-        <v>4320</v>
-      </c>
-      <c r="F51" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" s="1">
-        <v>0.4236111111111111</v>
-      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D51">
+        <v>537</v>
+      </c>
+      <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C52" s="1">
-        <v>0.42708333333333331</v>
+        <v>0.43611111111111112</v>
       </c>
       <c r="D52">
-        <v>537</v>
+        <v>255</v>
       </c>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="D53">
-        <v>455</v>
-      </c>
-      <c r="G53" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="E53">
+        <v>8110</v>
+      </c>
+      <c r="F53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.4375</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C54" s="1">
-        <v>0.4513888888888889</v>
+        <v>0.46180555555555558</v>
       </c>
       <c r="D54">
-        <v>327</v>
+        <v>70</v>
       </c>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55" s="1">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="D55">
-        <v>573</v>
-      </c>
-      <c r="G55" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="E55">
+        <v>256</v>
+      </c>
+      <c r="F55" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.47430555555555554</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0.45347222222222222</v>
-      </c>
-      <c r="D56">
-        <v>4337</v>
-      </c>
-      <c r="G56" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="E56">
+        <v>730</v>
+      </c>
+      <c r="F56" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.4861111111111111</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" s="1">
-        <v>0.46180555555555558</v>
-      </c>
-      <c r="D57">
-        <v>70</v>
-      </c>
-      <c r="G57" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="E57">
+        <v>584</v>
+      </c>
+      <c r="F57" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.49305555555555558</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="E58">
-        <v>720</v>
-      </c>
-      <c r="F58" t="s">
-        <v>26</v>
-      </c>
-      <c r="G58" s="1">
-        <v>0.4861111111111111</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D58">
+        <v>916</v>
+      </c>
+      <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C59" s="1"/>
       <c r="E59">
-        <v>584</v>
+        <v>424</v>
       </c>
       <c r="F59" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G59" s="1">
-        <v>0.49305555555555558</v>
+        <v>0.50347222222222221</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C60" s="1"/>
       <c r="E60">
-        <v>650</v>
+        <v>71</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G60" s="1">
-        <v>0.49305555555555558</v>
+        <v>0.50347222222222221</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>9</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" s="1"/>
+      <c r="E61">
+        <v>319</v>
+      </c>
+      <c r="F61" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="1">
-        <v>0.49444444444444446</v>
-      </c>
-      <c r="D61">
-        <v>4301</v>
-      </c>
-      <c r="G61" s="1"/>
+      <c r="G61" s="1">
+        <v>0.51041666666666663</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="1"/>
-      <c r="E62">
-        <v>424</v>
-      </c>
-      <c r="F62" t="s">
-        <v>31</v>
-      </c>
-      <c r="G62" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="D62">
+        <v>339</v>
+      </c>
+      <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -1519,250 +1516,250 @@
       </c>
       <c r="C63" s="1"/>
       <c r="E63">
-        <v>442</v>
+        <v>4340</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G63" s="1">
-        <v>0.50347222222222221</v>
+        <v>0.52569444444444446</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="1"/>
-      <c r="E64">
-        <v>71</v>
-      </c>
-      <c r="F64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="D64">
+        <v>816</v>
+      </c>
+      <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="1"/>
-      <c r="E65">
-        <v>619</v>
-      </c>
-      <c r="F65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" s="1">
-        <v>0.51041666666666663</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="D65">
+        <v>1910</v>
+      </c>
+      <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C66" s="1"/>
       <c r="E66">
-        <v>4</v>
+        <v>916</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G66" s="1">
-        <v>0.52083333333333337</v>
+        <v>0.55208333333333337</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C67" s="1">
-        <v>0.52152777777777781</v>
+        <v>0.55486111111111114</v>
       </c>
       <c r="D67">
-        <v>339</v>
+        <v>1441</v>
       </c>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>29</v>
+      </c>
+      <c r="B68" t="s">
         <v>27</v>
       </c>
-      <c r="B68" t="s">
-        <v>28</v>
-      </c>
       <c r="C68" s="1">
-        <v>0.52847222222222223</v>
+        <v>0.56319444444444444</v>
       </c>
       <c r="D68">
-        <v>816</v>
+        <v>219</v>
       </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>29</v>
-      </c>
-      <c r="B69" t="s">
-        <v>30</v>
-      </c>
-      <c r="C69" s="1">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="D69">
-        <v>1910</v>
-      </c>
-      <c r="G69" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="E69">
+        <v>348</v>
+      </c>
+      <c r="F69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.56319444444444444</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C70" s="1">
-        <v>0.55486111111111114</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="D70">
-        <v>1441</v>
+        <v>8139</v>
       </c>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C71" s="1">
-        <v>0.56041666666666667</v>
+        <v>0.5805555555555556</v>
       </c>
       <c r="D71">
-        <v>8139</v>
+        <v>628</v>
       </c>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C72" s="1"/>
       <c r="E72">
-        <v>348</v>
+        <v>4</v>
       </c>
       <c r="F72" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G72" s="1">
-        <v>0.56319444444444444</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>32</v>
-      </c>
-      <c r="B73" t="s">
-        <v>17</v>
-      </c>
-      <c r="C73" s="1">
-        <v>0.5805555555555556</v>
-      </c>
-      <c r="D73">
-        <v>628</v>
-      </c>
-      <c r="G73" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="E73">
+        <v>871</v>
+      </c>
+      <c r="F73" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.58611111111111114</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>27</v>
-      </c>
-      <c r="C74" s="1"/>
-      <c r="E74">
-        <v>871</v>
-      </c>
-      <c r="F74" t="s">
-        <v>28</v>
-      </c>
-      <c r="G74" s="1">
-        <v>0.58611111111111114</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="D74">
+        <v>1035</v>
+      </c>
+      <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>25</v>
-      </c>
-      <c r="B75" t="s">
-        <v>33</v>
-      </c>
-      <c r="C75" s="1">
-        <v>0.59791666666666665</v>
-      </c>
-      <c r="D75">
-        <v>1035</v>
-      </c>
-      <c r="G75" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="E75">
+        <v>1978</v>
+      </c>
+      <c r="F75" t="s">
+        <v>27</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.60763888888888895</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C76" s="1"/>
       <c r="E76">
-        <v>1978</v>
+        <v>1468</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G76" s="1">
-        <v>0.60763888888888895</v>
+        <v>0.61805555555555558</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C77" s="1"/>
       <c r="E77">
-        <v>1468</v>
+        <v>218</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G77" s="1">
-        <v>0.61805555555555558</v>
+        <v>0.61944444444444446</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C78" s="1">
-        <v>0.61944444444444446</v>
+        <v>0.62222222222222223</v>
       </c>
       <c r="D78">
-        <v>1031</v>
+        <v>4319</v>
       </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C79" s="1"/>
       <c r="E79">
         <v>629</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G79" s="1">
         <v>0.63055555555555554</v>
@@ -1770,14 +1767,14 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C80" s="1"/>
       <c r="E80">
         <v>1104</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G80" s="1">
         <v>0.63958333333333328</v>
@@ -1785,10 +1782,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C81" s="1">
         <v>0.64166666666666672</v>
@@ -1800,106 +1797,106 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="C82" s="1"/>
       <c r="E82">
-        <v>7139</v>
+        <v>317</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G82" s="1">
-        <v>0.66527777777777775</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83" t="s">
-        <v>31</v>
-      </c>
-      <c r="C83" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D83">
-        <v>367</v>
-      </c>
-      <c r="G83" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="E83">
+        <v>7139</v>
+      </c>
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0.66527777777777775</v>
+      </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C84" s="1">
         <v>0.66666666666666663</v>
       </c>
       <c r="D84">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>34</v>
-      </c>
-      <c r="C85" s="1"/>
-      <c r="E85">
-        <v>1032</v>
-      </c>
-      <c r="F85" t="s">
-        <v>35</v>
-      </c>
-      <c r="G85" s="1">
-        <v>0.66805555555555551</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B85" t="s">
+        <v>33</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D85">
+        <v>370</v>
+      </c>
+      <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C86" s="1">
-        <v>0.67361111111111116</v>
+        <v>0.66736111111111107</v>
       </c>
       <c r="D86">
-        <v>397</v>
+        <v>4341</v>
       </c>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C87" s="1">
-        <v>0.68055555555555558</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="D87">
-        <v>441</v>
+        <v>397</v>
       </c>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C88" s="1">
-        <v>0.68402777777777779</v>
+        <v>0.68055555555555558</v>
       </c>
       <c r="D88">
-        <v>651</v>
+        <v>441</v>
       </c>
       <c r="G88" s="1"/>
     </row>
@@ -1907,162 +1904,162 @@
       <c r="A89" t="s">
         <v>7</v>
       </c>
-      <c r="B89" t="s">
-        <v>26</v>
-      </c>
-      <c r="C89" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="D89">
-        <v>311</v>
-      </c>
-      <c r="G89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="E89">
+        <v>4322</v>
+      </c>
+      <c r="F89" t="s">
+        <v>46</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0.68611111111111112</v>
+      </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C90" s="1">
         <v>0.6875</v>
       </c>
       <c r="D90">
-        <v>618</v>
+        <v>311</v>
       </c>
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>15</v>
-      </c>
-      <c r="C91" s="1"/>
-      <c r="E91">
-        <v>1130</v>
-      </c>
-      <c r="F91" t="s">
-        <v>31</v>
-      </c>
-      <c r="G91" s="1">
-        <v>0.69444444444444453</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B91" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="D91">
+        <v>318</v>
+      </c>
+      <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C92" s="1">
-        <v>0.69722222222222219</v>
+        <v>0.69097222222222221</v>
       </c>
       <c r="D92">
-        <v>4327</v>
+        <v>423</v>
       </c>
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C93" s="1">
-        <v>0.70138888888888884</v>
+        <v>0.69097222222222221</v>
       </c>
       <c r="D93">
-        <v>322</v>
+        <v>555</v>
       </c>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>47</v>
-      </c>
-      <c r="B94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C94" s="1">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D94">
-        <v>4</v>
-      </c>
-      <c r="G94" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="E94">
+        <v>1130</v>
+      </c>
+      <c r="F94" t="s">
+        <v>28</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0.69444444444444453</v>
+      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>7</v>
       </c>
-      <c r="C95" s="1"/>
-      <c r="E95">
-        <v>530</v>
-      </c>
-      <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0.69722222222222219</v>
+      </c>
+      <c r="D95">
+        <v>4327</v>
+      </c>
+      <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" s="1"/>
-      <c r="E96">
-        <v>532</v>
-      </c>
-      <c r="F96" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D96">
+        <v>322</v>
+      </c>
+      <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C97" s="1"/>
       <c r="E97">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G97" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" s="1"/>
-      <c r="E98">
-        <v>560</v>
-      </c>
-      <c r="F98" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B98" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D98">
+        <v>4</v>
+      </c>
+      <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C99" s="1"/>
       <c r="E99">
-        <v>615</v>
+        <v>308</v>
       </c>
       <c r="F99" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G99" s="1">
         <v>0.73263888888888884</v>
@@ -2072,30 +2069,30 @@
       <c r="A100" t="s">
         <v>9</v>
       </c>
-      <c r="B100" t="s">
-        <v>31</v>
-      </c>
-      <c r="C100" s="1">
-        <v>0.73472222222222228</v>
-      </c>
-      <c r="D100">
-        <v>4321</v>
-      </c>
-      <c r="G100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="E100">
+        <v>560</v>
+      </c>
+      <c r="F100" t="s">
+        <v>18</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C101" s="1"/>
       <c r="E101">
-        <v>534</v>
+        <v>617</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G101" s="1">
-        <v>0.74305555555555558</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -2104,164 +2101,164 @@
       </c>
       <c r="C102" s="1"/>
       <c r="E102">
-        <v>4308</v>
+        <v>620</v>
       </c>
       <c r="F102" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G102" s="1">
-        <v>0.74583333333333335</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C103" s="1"/>
       <c r="E103">
-        <v>528</v>
+        <v>448</v>
       </c>
       <c r="F103" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G103" s="1">
-        <v>0.76041666666666663</v>
+        <v>0.74305555555555558</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>39</v>
-      </c>
-      <c r="B104" t="s">
-        <v>21</v>
-      </c>
-      <c r="C104" s="1">
-        <v>0.7631944444444444</v>
-      </c>
-      <c r="D104">
-        <v>4040</v>
-      </c>
-      <c r="G104" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="E104">
+        <v>534</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0.74305555555555558</v>
+      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C105" s="1"/>
       <c r="E105">
-        <v>4312</v>
+        <v>4308</v>
       </c>
       <c r="F105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G105" s="1">
-        <v>0.77638888888888891</v>
+        <v>0.74583333333333335</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C106" s="1">
-        <v>0.78125</v>
+        <v>0.74652777777777779</v>
       </c>
       <c r="D106">
-        <v>931</v>
+        <v>612</v>
       </c>
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C107" s="1"/>
       <c r="E107">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="F107" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G107" s="1">
-        <v>0.78819444444444442</v>
+        <v>0.76041666666666663</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>9</v>
       </c>
-      <c r="B108" t="s">
-        <v>13</v>
-      </c>
-      <c r="C108" s="1">
-        <v>0.79027777777777775</v>
-      </c>
-      <c r="D108">
-        <v>4331</v>
-      </c>
-      <c r="G108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="E108">
+        <v>566</v>
+      </c>
+      <c r="F108" t="s">
+        <v>19</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0.77083333333333337</v>
+      </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>40</v>
-      </c>
-      <c r="B109" t="s">
-        <v>18</v>
-      </c>
-      <c r="C109" s="1">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D109">
-        <v>222</v>
-      </c>
-      <c r="G109" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="E109">
+        <v>4312</v>
+      </c>
+      <c r="F109" t="s">
+        <v>8</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0.77638888888888891</v>
+      </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B110" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C110" s="1">
-        <v>0.79513888888888884</v>
+        <v>0.78125</v>
       </c>
       <c r="D110">
-        <v>431</v>
+        <v>931</v>
       </c>
       <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B111" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C111" s="1">
-        <v>0.79513888888888884</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D111">
-        <v>565</v>
+        <v>222</v>
       </c>
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>39</v>
-      </c>
-      <c r="C112" s="1"/>
-      <c r="E112">
-        <v>4041</v>
-      </c>
-      <c r="F112" t="s">
-        <v>21</v>
-      </c>
-      <c r="G112" s="1">
+        <v>9</v>
+      </c>
+      <c r="B112" t="s">
+        <v>31</v>
+      </c>
+      <c r="C112" s="1">
         <v>0.79513888888888884</v>
       </c>
+      <c r="D112">
+        <v>431</v>
+      </c>
+      <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
@@ -2269,51 +2266,51 @@
       </c>
       <c r="C113" s="1"/>
       <c r="E113">
-        <v>4300</v>
+        <v>670</v>
       </c>
       <c r="F113" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G113" s="1">
-        <v>0.81180555555555556</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" s="1"/>
-      <c r="E114">
-        <v>670</v>
-      </c>
-      <c r="F114" t="s">
-        <v>16</v>
-      </c>
-      <c r="G114" s="1">
-        <v>0.8125</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B114" t="s">
+        <v>28</v>
+      </c>
+      <c r="C114" s="1">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="D114">
+        <v>425</v>
+      </c>
+      <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>7</v>
-      </c>
-      <c r="B115" t="s">
-        <v>31</v>
-      </c>
-      <c r="C115" s="1">
-        <v>0.81944444444444442</v>
-      </c>
-      <c r="D115">
-        <v>425</v>
-      </c>
-      <c r="G115" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="E115">
+        <v>932</v>
+      </c>
+      <c r="F115" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" s="1">
+        <v>0.82291666666666663</v>
+      </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C116" s="1">
         <v>0.82638888888888884</v>
@@ -2325,10 +2322,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C117" s="1">
         <v>0.82986111111111116</v>
@@ -2340,44 +2337,44 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C118" s="1">
-        <v>0.83680555555555558</v>
+        <v>0.84375</v>
       </c>
       <c r="D118">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C119" s="1">
         <v>0.84375</v>
       </c>
       <c r="D119">
-        <v>325</v>
+        <v>445</v>
       </c>
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C120" s="1"/>
       <c r="E120">
         <v>590</v>
       </c>
       <c r="F120" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G120" s="1">
         <v>0.85069444444444442</v>
@@ -2385,10 +2382,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C121" s="1">
         <v>0.85416666666666663</v>
@@ -2400,40 +2397,40 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C122" s="1">
-        <v>0.85972222222222217</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D122">
-        <v>881</v>
+        <v>449</v>
       </c>
       <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B123" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C123" s="1">
-        <v>0.86805555555555558</v>
+        <v>0.85972222222222217</v>
       </c>
       <c r="D123">
-        <v>443</v>
+        <v>881</v>
       </c>
       <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C124" s="1">
         <v>0.86805555555555558</v>
@@ -2445,115 +2442,115 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C125" s="1">
-        <v>0.875</v>
+        <v>0.87152777777777779</v>
       </c>
       <c r="D125">
-        <v>535</v>
+        <v>316</v>
       </c>
       <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>40</v>
-      </c>
-      <c r="C126" s="1"/>
-      <c r="E126">
-        <v>222</v>
-      </c>
-      <c r="F126" t="s">
-        <v>49</v>
-      </c>
-      <c r="G126" s="1">
+        <v>9</v>
+      </c>
+      <c r="B126" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="1">
         <v>0.875</v>
       </c>
+      <c r="D126">
+        <v>535</v>
+      </c>
+      <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>7</v>
-      </c>
-      <c r="B127" t="s">
-        <v>42</v>
-      </c>
-      <c r="C127" s="1">
-        <v>0.87847222222222221</v>
-      </c>
-      <c r="D127">
-        <v>409</v>
-      </c>
-      <c r="G127" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C127" s="1"/>
+      <c r="E127">
+        <v>222</v>
+      </c>
+      <c r="F127" t="s">
+        <v>47</v>
+      </c>
+      <c r="G127" s="1">
+        <v>0.875</v>
+      </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C128" s="1">
         <v>0.87847222222222221</v>
       </c>
       <c r="D128">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C129" s="1">
         <v>0.87847222222222221</v>
       </c>
       <c r="D129">
-        <v>614</v>
+        <v>565</v>
       </c>
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C130" s="1">
-        <v>0.8881944444444444</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D130">
-        <v>1461</v>
+        <v>616</v>
       </c>
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C131" s="1">
-        <v>0.89236111111111116</v>
+        <v>0.8881944444444444</v>
       </c>
       <c r="D131">
-        <v>608</v>
+        <v>1461</v>
       </c>
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C132" s="1">
         <v>0.91319444444444442</v>
@@ -2565,14 +2562,14 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C133" s="1"/>
       <c r="E133">
         <v>365</v>
       </c>
       <c r="F133" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G133" s="1">
         <v>0.92013888888888884</v>
@@ -2580,14 +2577,14 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C134" s="1"/>
       <c r="E134">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="F134" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G134" s="1">
         <v>0.92013888888888884</v>
@@ -2595,14 +2592,14 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C135" s="1"/>
       <c r="E135">
         <v>429</v>
       </c>
       <c r="F135" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G135" s="1">
         <v>0.92361111111111116</v>
@@ -2612,106 +2609,196 @@
       <c r="A136" t="s">
         <v>7</v>
       </c>
-      <c r="C136" s="1"/>
-      <c r="E136">
-        <v>578</v>
-      </c>
-      <c r="F136" t="s">
-        <v>18</v>
-      </c>
-      <c r="G136" s="1">
-        <v>0.93055555555555558</v>
-      </c>
+      <c r="B136" t="s">
+        <v>23</v>
+      </c>
+      <c r="C136" s="1">
+        <v>0.92986111111111114</v>
+      </c>
+      <c r="D136">
+        <v>4339</v>
+      </c>
+      <c r="G136" s="1"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C137" s="1"/>
       <c r="E137">
-        <v>651</v>
+        <v>578</v>
       </c>
       <c r="F137" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G137" s="1">
-        <v>0.93402777777777779</v>
+        <v>0.93055555555555558</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C138" s="1"/>
       <c r="E138">
-        <v>574</v>
+        <v>627</v>
       </c>
       <c r="F138" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G138" s="1">
-        <v>0.9375</v>
+        <v>0.93402777777777779</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C139" s="1"/>
       <c r="E139">
-        <v>315</v>
+        <v>574</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="G139" s="1">
-        <v>0.94097222222222221</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C140" s="1"/>
       <c r="E140">
-        <v>658</v>
+        <v>315</v>
       </c>
       <c r="F140" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G140" s="1">
-        <v>0.94444444444444442</v>
+        <v>0.94097222222222221</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C141" s="1"/>
       <c r="E141">
-        <v>452</v>
+        <v>658</v>
       </c>
       <c r="F141" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G141" s="1">
-        <v>0.95486111111111116</v>
+        <v>0.94444444444444442</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C142" s="1">
+        <v>0.94930555555555562</v>
+      </c>
+      <c r="D142">
+        <v>1425</v>
+      </c>
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" s="1"/>
+      <c r="E143">
+        <v>457</v>
+      </c>
+      <c r="F143" t="s">
+        <v>48</v>
+      </c>
+      <c r="G143" s="1">
+        <v>0.95486111111111116</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" s="1"/>
+      <c r="E144">
+        <v>432</v>
+      </c>
+      <c r="F144" t="s">
+        <v>31</v>
+      </c>
+      <c r="G144" s="1">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" s="1"/>
+      <c r="E145">
+        <v>4336</v>
+      </c>
+      <c r="F145" t="s">
+        <v>39</v>
+      </c>
+      <c r="G145" s="1">
+        <v>0.97152777777777777</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" s="1"/>
+      <c r="E146">
+        <v>326</v>
+      </c>
+      <c r="F146" t="s">
+        <v>36</v>
+      </c>
+      <c r="G146" s="1">
+        <v>0.97569444444444442</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>24</v>
+      </c>
+      <c r="B147" t="s">
+        <v>25</v>
+      </c>
+      <c r="C147" s="1">
         <v>0.98333333333333339</v>
       </c>
-      <c r="D142">
+      <c r="D147">
         <v>878</v>
       </c>
-      <c r="G142" s="1"/>
+      <c r="G147" s="1"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" s="1"/>
+      <c r="E148">
+        <v>339</v>
+      </c>
+      <c r="F148" t="s">
+        <v>39</v>
+      </c>
+      <c r="G148" s="1">
+        <v>0.99583333333333324</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/operaciones.xlsx
+++ b/public/operaciones.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulm\Desktop\Itinerarios_2026-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3302BF5-39AE-4863-964D-76746BA65822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E894651F-7692-4C88-8EBD-88D6EB73B57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4CCF9AAC-F7A7-4607-8608-F4A2A3C6B185}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{84B68D86-2094-40C8-9BD7-06E75E66D382}"/>
   </bookViews>
   <sheets>
-    <sheet name="28-01" sheetId="1" r:id="rId1"/>
+    <sheet name="29-01" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="54">
   <si>
     <t>AEROLINEA</t>
   </si>
@@ -68,121 +68,136 @@
     <t>AVA</t>
   </si>
   <si>
+    <t>KONT</t>
+  </si>
+  <si>
     <t>MHLM</t>
   </si>
   <si>
     <t>KLAX</t>
   </si>
   <si>
+    <t>KOAK</t>
+  </si>
+  <si>
     <t>UAL</t>
   </si>
   <si>
+    <t>SEQM</t>
+  </si>
+  <si>
+    <t>KJFK</t>
+  </si>
+  <si>
+    <t>MMMX</t>
+  </si>
+  <si>
     <t>MGGT</t>
   </si>
   <si>
     <t>SKBO</t>
   </si>
   <si>
+    <t>SPJC</t>
+  </si>
+  <si>
+    <t>MROC</t>
+  </si>
+  <si>
+    <t>KSFO</t>
+  </si>
+  <si>
+    <t>KMIA</t>
+  </si>
+  <si>
+    <t>MHPR</t>
+  </si>
+  <si>
+    <t>CYYZ</t>
+  </si>
+  <si>
+    <t>KEWR</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>TAG</t>
+  </si>
+  <si>
+    <t>MHRO</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>MPTO</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>KATL</t>
+  </si>
+  <si>
+    <t>KIAH</t>
+  </si>
+  <si>
+    <t>AMX</t>
+  </si>
+  <si>
+    <t>KDFW</t>
+  </si>
+  <si>
+    <t>NKS</t>
+  </si>
+  <si>
+    <t>KFLL</t>
+  </si>
+  <si>
+    <t>SKRG</t>
+  </si>
+  <si>
     <t>MNMG</t>
   </si>
   <si>
-    <t>SPJC</t>
-  </si>
-  <si>
-    <t>MROC</t>
-  </si>
-  <si>
-    <t>KSFO</t>
-  </si>
-  <si>
-    <t>KJFK</t>
-  </si>
-  <si>
-    <t>NKS</t>
-  </si>
-  <si>
-    <t>KFLL</t>
-  </si>
-  <si>
-    <t>AAL</t>
-  </si>
-  <si>
-    <t>KMIA</t>
-  </si>
-  <si>
-    <t>CMP</t>
-  </si>
-  <si>
-    <t>MPTO</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>KATL</t>
-  </si>
-  <si>
-    <t>KIAH</t>
-  </si>
-  <si>
-    <t>FFT</t>
-  </si>
-  <si>
-    <t>AMX</t>
-  </si>
-  <si>
-    <t>MMMX</t>
-  </si>
-  <si>
-    <t>KDFW</t>
-  </si>
-  <si>
-    <t>SKRG</t>
-  </si>
-  <si>
-    <t>KMCO</t>
+    <t>MMUN</t>
+  </si>
+  <si>
+    <t>VOC</t>
   </si>
   <si>
     <t>IBE</t>
   </si>
   <si>
-    <t>CYYZ</t>
-  </si>
-  <si>
-    <t>KBOS</t>
-  </si>
-  <si>
-    <t>MHPR</t>
-  </si>
-  <si>
-    <t>KEWR</t>
+    <t>CYUL</t>
+  </si>
+  <si>
+    <t>KORD</t>
+  </si>
+  <si>
+    <t>KLAS</t>
+  </si>
+  <si>
+    <t>DHL</t>
+  </si>
+  <si>
+    <t>AJT</t>
+  </si>
+  <si>
+    <t>FDX</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>MHTG</t>
   </si>
   <si>
     <t>TPA</t>
   </si>
   <si>
-    <t>DHL</t>
-  </si>
-  <si>
-    <t>AJT</t>
-  </si>
-  <si>
-    <t>FDX</t>
-  </si>
-  <si>
-    <t>ARM</t>
-  </si>
-  <si>
-    <t>MHTG</t>
-  </si>
-  <si>
-    <t>KOAK</t>
-  </si>
-  <si>
     <t>LEMD</t>
-  </si>
-  <si>
-    <t>SEQM</t>
   </si>
 </sst>
 </file>
@@ -557,8 +572,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F42A6D-4206-4AD5-A0A3-E106030BD639}">
-  <dimension ref="A1:G148"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C0FF69-A0C2-4634-93DB-96B575E9203F}">
+  <dimension ref="A1:G152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,29 +612,29 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2.013888888888889E-2</v>
-      </c>
-      <c r="D2">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="E2">
         <v>4156</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1">
+        <v>8.2638888888888887E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1"/>
       <c r="E3">
         <v>1670</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1">
         <v>0.125</v>
@@ -627,10 +642,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1">
         <v>0.15972222222222224</v>
@@ -657,14 +672,14 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1"/>
       <c r="E6">
         <v>879</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G6" s="1">
         <v>0.21041666666666667</v>
@@ -681,82 +696,82 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="D7">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1">
-        <v>0.23541666666666666</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="D8">
-        <v>4309</v>
+        <v>575</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
       <c r="C9" s="1">
-        <v>0.23958333333333334</v>
+        <v>0.22569444444444445</v>
       </c>
       <c r="D9">
-        <v>1266</v>
+        <v>533</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="1">
-        <v>0.25694444444444442</v>
+        <v>0.23472222222222222</v>
       </c>
       <c r="D10">
-        <v>579</v>
+        <v>4323</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.23541666666666666</v>
       </c>
       <c r="D11">
-        <v>366</v>
+        <v>4309</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.23958333333333334</v>
       </c>
       <c r="D12">
-        <v>529</v>
+        <v>1266</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -768,40 +783,40 @@
         <v>15</v>
       </c>
       <c r="C13" s="1">
-        <v>0.2638888888888889</v>
+        <v>0.24652777777777779</v>
       </c>
       <c r="D13">
-        <v>314</v>
+        <v>456</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="E14">
-        <v>4326</v>
-      </c>
-      <c r="F14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.2638888888888889</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.24652777777777779</v>
+      </c>
+      <c r="D14">
+        <v>567</v>
+      </c>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1">
-        <v>0.2673611111111111</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="D15">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -810,13 +825,13 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1">
-        <v>0.2673611111111111</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="D16">
-        <v>626</v>
+        <v>579</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -825,13 +840,13 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D17">
-        <v>561</v>
+        <v>366</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -840,73 +855,73 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D18">
-        <v>591</v>
+        <v>529</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D19">
-        <v>671</v>
-      </c>
-      <c r="G19" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="E19">
+        <v>4326</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.2638888888888889</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="E20">
-        <v>4318</v>
-      </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.28611111111111109</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="D20">
+        <v>428</v>
+      </c>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="E21">
-        <v>1467</v>
-      </c>
-      <c r="F21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.28819444444444448</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="D21">
+        <v>650</v>
+      </c>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D22">
-        <v>621</v>
+        <v>561</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -914,75 +929,75 @@
       <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="E23">
-        <v>323</v>
-      </c>
-      <c r="F23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.3125</v>
-      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D23">
+        <v>591</v>
+      </c>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="E24">
-        <v>396</v>
-      </c>
-      <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.3125</v>
-      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D24">
+        <v>671</v>
+      </c>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1"/>
       <c r="E25">
-        <v>4338</v>
+        <v>1467</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G25" s="1">
-        <v>0.31527777777777777</v>
+        <v>0.28819444444444448</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="E26">
-        <v>310</v>
-      </c>
-      <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0.31597222222222221</v>
-      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D26">
+        <v>621</v>
+      </c>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1"/>
       <c r="E27">
-        <v>440</v>
+        <v>4330</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G27" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -991,13 +1006,13 @@
       </c>
       <c r="C28" s="1"/>
       <c r="E28">
-        <v>536</v>
+        <v>321</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G28" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1006,13 +1021,13 @@
       </c>
       <c r="C29" s="1"/>
       <c r="E29">
-        <v>444</v>
+        <v>323</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G29" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1021,28 +1036,28 @@
       </c>
       <c r="C30" s="1"/>
       <c r="E30">
-        <v>562</v>
+        <v>396</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G30" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C31" s="1"/>
       <c r="E31">
-        <v>368</v>
+        <v>884</v>
       </c>
       <c r="F31" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G31" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1051,29 +1066,29 @@
       </c>
       <c r="C32" s="1"/>
       <c r="E32">
-        <v>522</v>
+        <v>310</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G32" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0.33680555555555558</v>
-      </c>
-      <c r="D33">
-        <v>581</v>
-      </c>
-      <c r="G33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="E33">
+        <v>328</v>
+      </c>
+      <c r="F33" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.31597222222222221</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -1081,13 +1096,13 @@
       </c>
       <c r="C34" s="1"/>
       <c r="E34">
-        <v>564</v>
+        <v>440</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G34" s="1">
-        <v>0.33680555555555558</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1096,104 +1111,104 @@
       </c>
       <c r="C35" s="1"/>
       <c r="E35">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G35" s="1">
-        <v>0.34027777777777779</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="E36">
-        <v>324</v>
-      </c>
-      <c r="F36" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0.34375</v>
-      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="D36">
+        <v>549</v>
+      </c>
+      <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0.34722222222222221</v>
-      </c>
-      <c r="D37">
-        <v>4053</v>
-      </c>
-      <c r="G37" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="E37">
+        <v>368</v>
+      </c>
+      <c r="F37" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C38" s="1"/>
       <c r="E38">
-        <v>884</v>
+        <v>383</v>
       </c>
       <c r="F38" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G38" s="1">
-        <v>0.35833333333333334</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
-      <c r="B39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="D39">
-        <v>551</v>
-      </c>
-      <c r="G39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="E39">
+        <v>522</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="E40">
-        <v>422</v>
-      </c>
-      <c r="F40" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0.36458333333333331</v>
-      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="D40">
+        <v>601</v>
+      </c>
+      <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
-      <c r="B41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0.37847222222222221</v>
-      </c>
-      <c r="D41">
-        <v>559</v>
-      </c>
-      <c r="G41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="E41">
+        <v>564</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.33680555555555558</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -1201,13 +1216,13 @@
       </c>
       <c r="C42" s="1"/>
       <c r="E42">
-        <v>369</v>
+        <v>454</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G42" s="1">
-        <v>0.37847222222222221</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1216,13 +1231,13 @@
       </c>
       <c r="C43" s="1"/>
       <c r="E43">
-        <v>430</v>
+        <v>572</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G43" s="1">
-        <v>0.37847222222222221</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1231,59 +1246,59 @@
       </c>
       <c r="C44" s="1"/>
       <c r="E44">
-        <v>524</v>
+        <v>324</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G44" s="1">
-        <v>0.38194444444444442</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="E45">
-        <v>582</v>
-      </c>
-      <c r="F45" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0.39930555555555558</v>
-      </c>
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.37152777777777779</v>
+      </c>
+      <c r="D45">
+        <v>309</v>
+      </c>
+      <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C46" s="1"/>
       <c r="E46">
-        <v>4053</v>
+        <v>526</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="G46" s="1">
-        <v>0.40972222222222221</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
-      <c r="B47" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0.41319444444444442</v>
-      </c>
-      <c r="D47">
-        <v>659</v>
-      </c>
-      <c r="G47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="E47">
+        <v>369</v>
+      </c>
+      <c r="F47" t="s">
+        <v>39</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.37847222222222221</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -1291,162 +1306,162 @@
       </c>
       <c r="C48" s="1"/>
       <c r="E48">
-        <v>392</v>
+        <v>430</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G48" s="1">
-        <v>0.41319444444444442</v>
+        <v>0.37847222222222221</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="1">
-        <v>0.4236111111111111</v>
-      </c>
-      <c r="D49">
-        <v>731</v>
-      </c>
-      <c r="G49" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="E49">
+        <v>582</v>
+      </c>
+      <c r="F49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.39930555555555558</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="E50">
-        <v>613</v>
-      </c>
-      <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" s="1">
-        <v>0.4236111111111111</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="D50">
+        <v>741</v>
+      </c>
+      <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C51" s="1">
-        <v>0.42708333333333331</v>
+        <v>0.41319444444444442</v>
       </c>
       <c r="D51">
-        <v>537</v>
+        <v>659</v>
       </c>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0.43611111111111112</v>
-      </c>
-      <c r="D52">
-        <v>255</v>
-      </c>
-      <c r="G52" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="E52">
+        <v>392</v>
+      </c>
+      <c r="F52" t="s">
+        <v>40</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.41319444444444442</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C53" s="1"/>
       <c r="E53">
-        <v>8110</v>
+        <v>408</v>
       </c>
       <c r="F53" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="G53" s="1">
-        <v>0.4375</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
-      <c r="B54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0.46180555555555558</v>
-      </c>
-      <c r="D54">
-        <v>70</v>
-      </c>
-      <c r="G54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="E54">
+        <v>609</v>
+      </c>
+      <c r="F54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.4236111111111111</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C55" s="1"/>
       <c r="E55">
-        <v>256</v>
+        <v>4320</v>
       </c>
       <c r="F55" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G55" s="1">
-        <v>0.47430555555555554</v>
+        <v>0.4236111111111111</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>42</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="E56">
-        <v>730</v>
-      </c>
-      <c r="F56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" s="1">
-        <v>0.4861111111111111</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D56">
+        <v>455</v>
+      </c>
+      <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="1"/>
-      <c r="E57">
-        <v>584</v>
-      </c>
-      <c r="F57" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" s="1">
-        <v>0.49305555555555558</v>
-      </c>
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D57">
+        <v>320</v>
+      </c>
+      <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
         <v>25</v>
       </c>
       <c r="C58" s="1">
-        <v>0.5</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="D58">
-        <v>916</v>
+        <v>327</v>
       </c>
       <c r="G58" s="1"/>
     </row>
@@ -1454,179 +1469,179 @@
       <c r="A59" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="1"/>
-      <c r="E59">
-        <v>424</v>
-      </c>
-      <c r="F59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G59" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D59">
+        <v>573</v>
+      </c>
+      <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="E60">
-        <v>71</v>
-      </c>
-      <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="D60">
+        <v>4337</v>
+      </c>
+      <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="1"/>
-      <c r="E61">
-        <v>319</v>
-      </c>
-      <c r="F61" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" s="1">
-        <v>0.51041666666666663</v>
-      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="D61">
+        <v>70</v>
+      </c>
+      <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>22</v>
-      </c>
-      <c r="B62" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="E62">
+        <v>740</v>
+      </c>
+      <c r="F62" t="s">
         <v>23</v>
       </c>
-      <c r="C62" s="1">
-        <v>0.52152777777777781</v>
-      </c>
-      <c r="D62">
-        <v>339</v>
-      </c>
-      <c r="G62" s="1"/>
+      <c r="G62" s="1">
+        <v>0.46527777777777773</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C63" s="1"/>
       <c r="E63">
-        <v>4340</v>
+        <v>584</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G63" s="1">
-        <v>0.52569444444444446</v>
+        <v>0.49305555555555558</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>24</v>
-      </c>
-      <c r="B64" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" s="1">
-        <v>0.52847222222222223</v>
-      </c>
-      <c r="D64">
-        <v>816</v>
-      </c>
-      <c r="G64" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="E64">
+        <v>650</v>
+      </c>
+      <c r="F64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0.49305555555555558</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>26</v>
-      </c>
-      <c r="B65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C65" s="1">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="D65">
-        <v>1910</v>
-      </c>
-      <c r="G65" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="E65">
+        <v>424</v>
+      </c>
+      <c r="F65" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C66" s="1"/>
       <c r="E66">
-        <v>916</v>
+        <v>442</v>
       </c>
       <c r="F66" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G66" s="1">
-        <v>0.55208333333333337</v>
+        <v>0.50347222222222221</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>12</v>
-      </c>
-      <c r="B67" t="s">
-        <v>28</v>
-      </c>
-      <c r="C67" s="1">
-        <v>0.55486111111111114</v>
-      </c>
-      <c r="D67">
-        <v>1441</v>
-      </c>
-      <c r="G67" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="E67">
+        <v>71</v>
+      </c>
+      <c r="F67" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>29</v>
-      </c>
-      <c r="B68" t="s">
-        <v>27</v>
-      </c>
-      <c r="C68" s="1">
-        <v>0.56319444444444444</v>
-      </c>
-      <c r="D68">
-        <v>219</v>
-      </c>
-      <c r="G68" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="E68">
+        <v>619</v>
+      </c>
+      <c r="F68" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.51041666666666663</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>22</v>
-      </c>
-      <c r="C69" s="1"/>
-      <c r="E69">
-        <v>348</v>
-      </c>
-      <c r="F69" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" t="s">
         <v>23</v>
       </c>
-      <c r="G69" s="1">
-        <v>0.56319444444444444</v>
-      </c>
+      <c r="C69" s="1">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="D69">
+        <v>339</v>
+      </c>
+      <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C70" s="1">
-        <v>0.56666666666666665</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="D70">
-        <v>8139</v>
+        <v>420</v>
       </c>
       <c r="G70" s="1"/>
     </row>
@@ -1638,117 +1653,117 @@
         <v>31</v>
       </c>
       <c r="C71" s="1">
-        <v>0.5805555555555556</v>
+        <v>0.52847222222222223</v>
       </c>
       <c r="D71">
-        <v>628</v>
+        <v>816</v>
       </c>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>44</v>
-      </c>
-      <c r="C72" s="1"/>
-      <c r="E72">
-        <v>4</v>
-      </c>
-      <c r="F72" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" s="1">
-        <v>0.58333333333333337</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="D72">
+        <v>1910</v>
+      </c>
+      <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C73" s="1"/>
       <c r="E73">
-        <v>871</v>
+        <v>421</v>
       </c>
       <c r="F73" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G73" s="1">
-        <v>0.58611111111111114</v>
+        <v>0.55208333333333337</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C74" s="1">
-        <v>0.59791666666666665</v>
+        <v>0.55486111111111114</v>
       </c>
       <c r="D74">
-        <v>1035</v>
+        <v>1441</v>
       </c>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C75" s="1"/>
       <c r="E75">
-        <v>1978</v>
+        <v>348</v>
       </c>
       <c r="F75" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G75" s="1">
-        <v>0.60763888888888895</v>
+        <v>0.56319444444444444</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>12</v>
-      </c>
-      <c r="C76" s="1"/>
-      <c r="E76">
-        <v>1468</v>
-      </c>
-      <c r="F76" t="s">
-        <v>28</v>
-      </c>
-      <c r="G76" s="1">
-        <v>0.61805555555555558</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="D76">
+        <v>8139</v>
+      </c>
+      <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>29</v>
-      </c>
-      <c r="C77" s="1"/>
-      <c r="E77">
-        <v>218</v>
-      </c>
-      <c r="F77" t="s">
-        <v>27</v>
-      </c>
-      <c r="G77" s="1">
-        <v>0.61944444444444446</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B77" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.57847222222222217</v>
+      </c>
+      <c r="D77">
+        <v>628</v>
+      </c>
+      <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>7</v>
-      </c>
-      <c r="B78" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" s="1">
-        <v>0.62222222222222223</v>
-      </c>
-      <c r="D78">
-        <v>4319</v>
-      </c>
-      <c r="G78" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="E78">
+        <v>4</v>
+      </c>
+      <c r="F78" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0.58333333333333337</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -1756,132 +1771,132 @@
       </c>
       <c r="C79" s="1"/>
       <c r="E79">
-        <v>629</v>
+        <v>871</v>
       </c>
       <c r="F79" t="s">
         <v>31</v>
       </c>
       <c r="G79" s="1">
-        <v>0.63055555555555554</v>
+        <v>0.58611111111111114</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>22</v>
-      </c>
-      <c r="C80" s="1"/>
-      <c r="E80">
-        <v>1104</v>
-      </c>
-      <c r="F80" t="s">
-        <v>32</v>
-      </c>
-      <c r="G80" s="1">
-        <v>0.63958333333333328</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B80" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="D80">
+        <v>1035</v>
+      </c>
+      <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>12</v>
-      </c>
-      <c r="B81" t="s">
-        <v>28</v>
-      </c>
-      <c r="C81" s="1">
-        <v>0.64166666666666672</v>
-      </c>
-      <c r="D81">
-        <v>1290</v>
-      </c>
-      <c r="G81" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="E81">
+        <v>1978</v>
+      </c>
+      <c r="F81" t="s">
+        <v>33</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0.60763888888888895</v>
+      </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>9</v>
-      </c>
-      <c r="C82" s="1"/>
-      <c r="E82">
-        <v>317</v>
-      </c>
-      <c r="F82" t="s">
-        <v>25</v>
-      </c>
-      <c r="G82" s="1">
-        <v>0.65625</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B82" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.61736111111111114</v>
+      </c>
+      <c r="D82">
+        <v>3151</v>
+      </c>
+      <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C83" s="1"/>
       <c r="E83">
-        <v>7139</v>
+        <v>1468</v>
       </c>
       <c r="F83" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="G83" s="1">
-        <v>0.66527777777777775</v>
+        <v>0.61805555555555558</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B84" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C84" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.61944444444444446</v>
       </c>
       <c r="D84">
-        <v>367</v>
+        <v>1031</v>
       </c>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>9</v>
-      </c>
-      <c r="B85" t="s">
-        <v>33</v>
-      </c>
-      <c r="C85" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D85">
-        <v>370</v>
-      </c>
-      <c r="G85" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="E85">
+        <v>629</v>
+      </c>
+      <c r="F85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0.63055555555555554</v>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" t="s">
-        <v>17</v>
-      </c>
-      <c r="C86" s="1">
-        <v>0.66736111111111107</v>
-      </c>
-      <c r="D86">
-        <v>4341</v>
-      </c>
-      <c r="G86" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="E86">
+        <v>1104</v>
+      </c>
+      <c r="F86" t="s">
+        <v>36</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0.63958333333333328</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B87" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C87" s="1">
-        <v>0.67361111111111116</v>
+        <v>0.64166666666666672</v>
       </c>
       <c r="D87">
-        <v>397</v>
+        <v>1290</v>
       </c>
       <c r="G87" s="1"/>
     </row>
@@ -1890,60 +1905,60 @@
         <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C88" s="1">
-        <v>0.68055555555555558</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="D88">
-        <v>441</v>
+        <v>382</v>
       </c>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C89" s="1"/>
       <c r="E89">
-        <v>4322</v>
+        <v>317</v>
       </c>
       <c r="F89" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G89" s="1">
-        <v>0.68611111111111112</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>9</v>
-      </c>
-      <c r="B90" t="s">
+        <v>27</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="E90">
+        <v>356</v>
+      </c>
+      <c r="F90" t="s">
         <v>23</v>
       </c>
-      <c r="C90" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="D90">
-        <v>311</v>
-      </c>
-      <c r="G90" s="1"/>
+      <c r="G90" s="1">
+        <v>0.65902777777777777</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>9</v>
-      </c>
-      <c r="B91" t="s">
-        <v>17</v>
-      </c>
-      <c r="C91" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="D91">
-        <v>318</v>
-      </c>
-      <c r="G91" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="E91">
+        <v>7139</v>
+      </c>
+      <c r="F91" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0.66527777777777775</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
@@ -1953,10 +1968,10 @@
         <v>34</v>
       </c>
       <c r="C92" s="1">
-        <v>0.69097222222222221</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D92">
-        <v>423</v>
+        <v>367</v>
       </c>
       <c r="G92" s="1"/>
     </row>
@@ -1965,43 +1980,43 @@
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C93" s="1">
-        <v>0.69097222222222221</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D93">
-        <v>555</v>
+        <v>370</v>
       </c>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C94" s="1"/>
       <c r="E94">
-        <v>1130</v>
+        <v>1032</v>
       </c>
       <c r="F94" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G94" s="1">
-        <v>0.69444444444444453</v>
+        <v>0.66805555555555551</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C95" s="1">
-        <v>0.69722222222222219</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="D95">
-        <v>4327</v>
+        <v>397</v>
       </c>
       <c r="G95" s="1"/>
     </row>
@@ -2010,13 +2025,13 @@
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C96" s="1">
-        <v>0.70138888888888884</v>
+        <v>0.68055555555555558</v>
       </c>
       <c r="D96">
-        <v>322</v>
+        <v>441</v>
       </c>
       <c r="G96" s="1"/>
     </row>
@@ -2024,29 +2039,29 @@
       <c r="A97" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="1"/>
-      <c r="E97">
-        <v>548</v>
-      </c>
-      <c r="F97" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" s="1">
-        <v>0.71875</v>
-      </c>
+      <c r="B97" t="s">
+        <v>41</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="D97">
+        <v>651</v>
+      </c>
+      <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C98" s="1">
-        <v>0.72916666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="D98">
-        <v>4</v>
+        <v>311</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -2054,76 +2069,76 @@
       <c r="A99" t="s">
         <v>9</v>
       </c>
-      <c r="C99" s="1"/>
-      <c r="E99">
-        <v>308</v>
-      </c>
-      <c r="F99" t="s">
-        <v>23</v>
-      </c>
-      <c r="G99" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+      <c r="B99" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="D99">
+        <v>618</v>
+      </c>
+      <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C100" s="1"/>
       <c r="E100">
-        <v>560</v>
+        <v>1130</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G100" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.69444444444444453</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" s="1"/>
-      <c r="E101">
-        <v>617</v>
-      </c>
-      <c r="F101" t="s">
-        <v>17</v>
-      </c>
-      <c r="G101" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0.69722222222222219</v>
+      </c>
+      <c r="D101">
+        <v>4327</v>
+      </c>
+      <c r="G101" s="1"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>9</v>
       </c>
-      <c r="C102" s="1"/>
-      <c r="E102">
-        <v>620</v>
-      </c>
-      <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+      <c r="B102" t="s">
+        <v>31</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D102">
+        <v>322</v>
+      </c>
+      <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="1"/>
-      <c r="E103">
-        <v>448</v>
-      </c>
-      <c r="F103" t="s">
-        <v>38</v>
-      </c>
-      <c r="G103" s="1">
-        <v>0.74305555555555558</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B103" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D103">
+        <v>4</v>
+      </c>
+      <c r="G103" s="1"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
@@ -2131,44 +2146,44 @@
       </c>
       <c r="C104" s="1"/>
       <c r="E104">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="F104" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="1">
-        <v>0.74305555555555558</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C105" s="1"/>
       <c r="E105">
-        <v>4308</v>
+        <v>532</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G105" s="1">
-        <v>0.74583333333333335</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>9</v>
       </c>
-      <c r="B106" t="s">
-        <v>17</v>
-      </c>
-      <c r="C106" s="1">
-        <v>0.74652777777777779</v>
-      </c>
-      <c r="D106">
-        <v>612</v>
-      </c>
-      <c r="G106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="E106">
+        <v>550</v>
+      </c>
+      <c r="F106" t="s">
+        <v>18</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
@@ -2176,13 +2191,13 @@
       </c>
       <c r="C107" s="1"/>
       <c r="E107">
-        <v>528</v>
+        <v>560</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G107" s="1">
-        <v>0.76041666666666663</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -2191,132 +2206,132 @@
       </c>
       <c r="C108" s="1"/>
       <c r="E108">
-        <v>566</v>
+        <v>620</v>
       </c>
       <c r="F108" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G108" s="1">
-        <v>0.77083333333333337</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>7</v>
       </c>
-      <c r="C109" s="1"/>
-      <c r="E109">
-        <v>4312</v>
-      </c>
-      <c r="F109" t="s">
-        <v>8</v>
-      </c>
-      <c r="G109" s="1">
-        <v>0.77638888888888891</v>
-      </c>
+      <c r="B109" t="s">
+        <v>34</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0.73472222222222228</v>
+      </c>
+      <c r="D109">
+        <v>4321</v>
+      </c>
+      <c r="G109" s="1"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>41</v>
-      </c>
-      <c r="B110" t="s">
-        <v>45</v>
-      </c>
-      <c r="C110" s="1">
-        <v>0.78125</v>
-      </c>
-      <c r="D110">
-        <v>931</v>
-      </c>
-      <c r="G110" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="E110">
+        <v>534</v>
+      </c>
+      <c r="F110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0.74305555555555558</v>
+      </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>35</v>
-      </c>
-      <c r="B111" t="s">
-        <v>13</v>
-      </c>
-      <c r="C111" s="1">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D111">
-        <v>222</v>
-      </c>
-      <c r="G111" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C111" s="1"/>
+      <c r="E111">
+        <v>4308</v>
+      </c>
+      <c r="F111" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0.74583333333333335</v>
+      </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>9</v>
       </c>
-      <c r="B112" t="s">
-        <v>31</v>
-      </c>
-      <c r="C112" s="1">
-        <v>0.79513888888888884</v>
-      </c>
-      <c r="D112">
-        <v>431</v>
-      </c>
-      <c r="G112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="E112">
+        <v>528</v>
+      </c>
+      <c r="F112" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0.76041666666666663</v>
+      </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" s="1"/>
-      <c r="E113">
-        <v>670</v>
-      </c>
-      <c r="F113" t="s">
-        <v>19</v>
-      </c>
-      <c r="G113" s="1">
-        <v>0.8125</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B113" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0.7631944444444444</v>
+      </c>
+      <c r="D113">
+        <v>4040</v>
+      </c>
+      <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>9</v>
-      </c>
-      <c r="B114" t="s">
-        <v>28</v>
-      </c>
-      <c r="C114" s="1">
-        <v>0.81944444444444442</v>
-      </c>
-      <c r="D114">
-        <v>425</v>
-      </c>
-      <c r="G114" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="E114">
+        <v>4312</v>
+      </c>
+      <c r="F114" t="s">
+        <v>8</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0.77638888888888891</v>
+      </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>41</v>
-      </c>
-      <c r="C115" s="1"/>
-      <c r="E115">
-        <v>932</v>
-      </c>
-      <c r="F115" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" s="1">
-        <v>0.82291666666666663</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B115" t="s">
+        <v>51</v>
+      </c>
+      <c r="C115" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="D115">
+        <v>931</v>
+      </c>
+      <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C116" s="1">
-        <v>0.82638888888888884</v>
+        <v>0.78541666666666665</v>
       </c>
       <c r="D116">
-        <v>523</v>
+        <v>4158</v>
       </c>
       <c r="G116" s="1"/>
     </row>
@@ -2324,44 +2339,44 @@
       <c r="A117" t="s">
         <v>9</v>
       </c>
-      <c r="B117" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="1">
-        <v>0.82986111111111116</v>
-      </c>
-      <c r="D117">
-        <v>583</v>
-      </c>
-      <c r="G117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="E117">
+        <v>558</v>
+      </c>
+      <c r="F117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G117" s="1">
+        <v>0.78819444444444442</v>
+      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B118" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C118" s="1">
-        <v>0.84375</v>
+        <v>0.79027777777777775</v>
       </c>
       <c r="D118">
-        <v>325</v>
+        <v>4331</v>
       </c>
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B119" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C119" s="1">
-        <v>0.84375</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D119">
-        <v>445</v>
+        <v>222</v>
       </c>
       <c r="G119" s="1"/>
     </row>
@@ -2369,59 +2384,59 @@
       <c r="A120" t="s">
         <v>9</v>
       </c>
-      <c r="C120" s="1"/>
-      <c r="E120">
-        <v>590</v>
-      </c>
-      <c r="F120" t="s">
-        <v>8</v>
-      </c>
-      <c r="G120" s="1">
-        <v>0.85069444444444442</v>
-      </c>
+      <c r="B120" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" s="1">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="D120">
+        <v>431</v>
+      </c>
+      <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>9</v>
-      </c>
-      <c r="B121" t="s">
-        <v>15</v>
-      </c>
-      <c r="C121" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D121">
-        <v>393</v>
-      </c>
-      <c r="G121" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="C121" s="1"/>
+      <c r="E121">
+        <v>4041</v>
+      </c>
+      <c r="F121" t="s">
+        <v>21</v>
+      </c>
+      <c r="G121" s="1">
+        <v>0.79513888888888884</v>
+      </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>9</v>
       </c>
-      <c r="B122" t="s">
-        <v>38</v>
-      </c>
-      <c r="C122" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D122">
-        <v>449</v>
-      </c>
-      <c r="G122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="E122">
+        <v>670</v>
+      </c>
+      <c r="F122" t="s">
+        <v>16</v>
+      </c>
+      <c r="G122" s="1">
+        <v>0.8125</v>
+      </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C123" s="1">
-        <v>0.85972222222222217</v>
+        <v>0.81944444444444442</v>
       </c>
       <c r="D123">
-        <v>881</v>
+        <v>425</v>
       </c>
       <c r="G123" s="1"/>
     </row>
@@ -2430,13 +2445,13 @@
         <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C124" s="1">
-        <v>0.86805555555555558</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="D124">
-        <v>563</v>
+        <v>523</v>
       </c>
       <c r="G124" s="1"/>
     </row>
@@ -2445,13 +2460,13 @@
         <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C125" s="1">
-        <v>0.87152777777777779</v>
+        <v>0.82986111111111116</v>
       </c>
       <c r="D125">
-        <v>316</v>
+        <v>583</v>
       </c>
       <c r="G125" s="1"/>
     </row>
@@ -2460,88 +2475,88 @@
         <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C126" s="1">
-        <v>0.875</v>
+        <v>0.83680555555555558</v>
       </c>
       <c r="D126">
-        <v>535</v>
+        <v>329</v>
       </c>
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>35</v>
-      </c>
-      <c r="C127" s="1"/>
-      <c r="E127">
-        <v>222</v>
-      </c>
-      <c r="F127" t="s">
-        <v>47</v>
-      </c>
-      <c r="G127" s="1">
-        <v>0.875</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B127" t="s">
+        <v>25</v>
+      </c>
+      <c r="C127" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="D127">
+        <v>325</v>
+      </c>
+      <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>9</v>
-      </c>
-      <c r="B128" t="s">
-        <v>11</v>
-      </c>
-      <c r="C128" s="1">
-        <v>0.87847222222222221</v>
-      </c>
-      <c r="D128">
-        <v>525</v>
-      </c>
-      <c r="G128" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="C128" s="1"/>
+      <c r="E128">
+        <v>4158</v>
+      </c>
+      <c r="F128" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" s="1">
+        <v>0.84791666666666665</v>
+      </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>9</v>
       </c>
-      <c r="B129" t="s">
-        <v>19</v>
-      </c>
-      <c r="C129" s="1">
-        <v>0.87847222222222221</v>
-      </c>
-      <c r="D129">
-        <v>565</v>
-      </c>
-      <c r="G129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="E129">
+        <v>590</v>
+      </c>
+      <c r="F129" t="s">
+        <v>8</v>
+      </c>
+      <c r="G129" s="1">
+        <v>0.85069444444444442</v>
+      </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C130" s="1">
-        <v>0.87847222222222221</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D130">
-        <v>616</v>
+        <v>393</v>
       </c>
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B131" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C131" s="1">
-        <v>0.8881944444444444</v>
+        <v>0.85972222222222217</v>
       </c>
       <c r="D131">
-        <v>1461</v>
+        <v>881</v>
       </c>
       <c r="G131" s="1"/>
     </row>
@@ -2550,13 +2565,13 @@
         <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C132" s="1">
-        <v>0.91319444444444442</v>
+        <v>0.86805555555555558</v>
       </c>
       <c r="D132">
-        <v>585</v>
+        <v>443</v>
       </c>
       <c r="G132" s="1"/>
     </row>
@@ -2564,151 +2579,151 @@
       <c r="A133" t="s">
         <v>9</v>
       </c>
-      <c r="C133" s="1"/>
-      <c r="E133">
-        <v>365</v>
-      </c>
-      <c r="F133" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" s="1">
-        <v>0.92013888888888884</v>
-      </c>
+      <c r="B133" t="s">
+        <v>22</v>
+      </c>
+      <c r="C133" s="1">
+        <v>0.86805555555555558</v>
+      </c>
+      <c r="D133">
+        <v>563</v>
+      </c>
+      <c r="G133" s="1"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>9</v>
       </c>
-      <c r="C134" s="1"/>
-      <c r="E134">
-        <v>600</v>
-      </c>
-      <c r="F134" t="s">
-        <v>8</v>
-      </c>
-      <c r="G134" s="1">
-        <v>0.92013888888888884</v>
-      </c>
+      <c r="B134" t="s">
+        <v>31</v>
+      </c>
+      <c r="C134" s="1">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="D134">
+        <v>316</v>
+      </c>
+      <c r="G134" s="1"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>9</v>
       </c>
-      <c r="C135" s="1"/>
-      <c r="E135">
-        <v>429</v>
-      </c>
-      <c r="F135" t="s">
-        <v>16</v>
-      </c>
-      <c r="G135" s="1">
-        <v>0.92361111111111116</v>
-      </c>
+      <c r="B135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="D135">
+        <v>535</v>
+      </c>
+      <c r="G135" s="1"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>7</v>
-      </c>
-      <c r="B136" t="s">
-        <v>23</v>
-      </c>
-      <c r="C136" s="1">
-        <v>0.92986111111111114</v>
-      </c>
-      <c r="D136">
-        <v>4339</v>
-      </c>
-      <c r="G136" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="C136" s="1"/>
+      <c r="E136">
+        <v>222</v>
+      </c>
+      <c r="F136" t="s">
+        <v>53</v>
+      </c>
+      <c r="G136" s="1">
+        <v>0.875</v>
+      </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>9</v>
       </c>
-      <c r="C137" s="1"/>
-      <c r="E137">
-        <v>578</v>
-      </c>
-      <c r="F137" t="s">
-        <v>13</v>
-      </c>
-      <c r="G137" s="1">
-        <v>0.93055555555555558</v>
-      </c>
+      <c r="B137" t="s">
+        <v>45</v>
+      </c>
+      <c r="C137" s="1">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="D137">
+        <v>409</v>
+      </c>
+      <c r="G137" s="1"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>9</v>
       </c>
-      <c r="C138" s="1"/>
-      <c r="E138">
-        <v>627</v>
-      </c>
-      <c r="F138" t="s">
-        <v>17</v>
-      </c>
-      <c r="G138" s="1">
-        <v>0.93402777777777779</v>
-      </c>
+      <c r="B138" t="s">
+        <v>46</v>
+      </c>
+      <c r="C138" s="1">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="D138">
+        <v>527</v>
+      </c>
+      <c r="G138" s="1"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>9</v>
-      </c>
-      <c r="C139" s="1"/>
-      <c r="E139">
-        <v>574</v>
-      </c>
-      <c r="F139" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="1">
-        <v>0.9375</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B139" t="s">
+        <v>34</v>
+      </c>
+      <c r="C139" s="1">
+        <v>0.8881944444444444</v>
+      </c>
+      <c r="D139">
+        <v>1461</v>
+      </c>
+      <c r="G139" s="1"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>9</v>
       </c>
-      <c r="C140" s="1"/>
-      <c r="E140">
-        <v>315</v>
-      </c>
-      <c r="F140" t="s">
-        <v>15</v>
-      </c>
-      <c r="G140" s="1">
-        <v>0.94097222222222221</v>
-      </c>
+      <c r="B140" t="s">
+        <v>21</v>
+      </c>
+      <c r="C140" s="1">
+        <v>0.89236111111111116</v>
+      </c>
+      <c r="D140">
+        <v>608</v>
+      </c>
+      <c r="G140" s="1"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>9</v>
       </c>
-      <c r="C141" s="1"/>
-      <c r="E141">
-        <v>658</v>
-      </c>
-      <c r="F141" t="s">
-        <v>19</v>
-      </c>
-      <c r="G141" s="1">
-        <v>0.94444444444444442</v>
-      </c>
+      <c r="B141" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="1">
+        <v>0.91319444444444442</v>
+      </c>
+      <c r="D141">
+        <v>585</v>
+      </c>
+      <c r="G141" s="1"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>12</v>
-      </c>
-      <c r="B142" t="s">
-        <v>39</v>
-      </c>
-      <c r="C142" s="1">
-        <v>0.94930555555555562</v>
-      </c>
-      <c r="D142">
-        <v>1425</v>
-      </c>
-      <c r="G142" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C142" s="1"/>
+      <c r="E142">
+        <v>365</v>
+      </c>
+      <c r="F142" t="s">
+        <v>19</v>
+      </c>
+      <c r="G142" s="1">
+        <v>0.92013888888888884</v>
+      </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
@@ -2716,13 +2731,13 @@
       </c>
       <c r="C143" s="1"/>
       <c r="E143">
-        <v>457</v>
+        <v>580</v>
       </c>
       <c r="F143" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="G143" s="1">
-        <v>0.95486111111111116</v>
+        <v>0.92013888888888884</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -2731,28 +2746,28 @@
       </c>
       <c r="C144" s="1"/>
       <c r="E144">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G144" s="1">
-        <v>0.95833333333333337</v>
+        <v>0.92361111111111116</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C145" s="1"/>
       <c r="E145">
-        <v>4336</v>
+        <v>578</v>
       </c>
       <c r="F145" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G145" s="1">
-        <v>0.97152777777777777</v>
+        <v>0.93055555555555558</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -2761,44 +2776,104 @@
       </c>
       <c r="C146" s="1"/>
       <c r="E146">
-        <v>326</v>
+        <v>651</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G146" s="1">
-        <v>0.97569444444444442</v>
+        <v>0.93402777777777779</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>24</v>
-      </c>
-      <c r="B147" t="s">
-        <v>25</v>
-      </c>
-      <c r="C147" s="1">
-        <v>0.98333333333333339</v>
-      </c>
-      <c r="D147">
-        <v>878</v>
-      </c>
-      <c r="G147" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C147" s="1"/>
+      <c r="E147">
+        <v>574</v>
+      </c>
+      <c r="F147" t="s">
+        <v>11</v>
+      </c>
+      <c r="G147" s="1">
+        <v>0.9375</v>
+      </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C148" s="1"/>
       <c r="E148">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G148" s="1">
-        <v>0.99583333333333324</v>
-      </c>
+        <v>0.94097222222222221</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149" s="1"/>
+      <c r="E149">
+        <v>658</v>
+      </c>
+      <c r="F149" t="s">
+        <v>16</v>
+      </c>
+      <c r="G149" s="1">
+        <v>0.94444444444444442</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" s="1"/>
+      <c r="E150">
+        <v>452</v>
+      </c>
+      <c r="F150" t="s">
+        <v>24</v>
+      </c>
+      <c r="G150" s="1">
+        <v>0.95486111111111116</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" s="1"/>
+      <c r="E151">
+        <v>457</v>
+      </c>
+      <c r="F151" t="s">
+        <v>15</v>
+      </c>
+      <c r="G151" s="1">
+        <v>0.95486111111111116</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>30</v>
+      </c>
+      <c r="B152" t="s">
+        <v>31</v>
+      </c>
+      <c r="C152" s="1">
+        <v>0.98333333333333339</v>
+      </c>
+      <c r="D152">
+        <v>878</v>
+      </c>
+      <c r="G152" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/operaciones.xlsx
+++ b/public/operaciones.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulm\Desktop\Itinerarios_2026-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E894651F-7692-4C88-8EBD-88D6EB73B57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AE192B0-3BCB-4A1E-8D2E-13F35DB4DB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{84B68D86-2094-40C8-9BD7-06E75E66D382}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EE31FA6F-D9A7-492E-9190-E18B51EF2D5F}"/>
   </bookViews>
   <sheets>
-    <sheet name="29-01" sheetId="1" r:id="rId1"/>
+    <sheet name="30-01" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="49">
   <si>
     <t>AEROLINEA</t>
   </si>
@@ -68,136 +68,121 @@
     <t>AVA</t>
   </si>
   <si>
-    <t>KONT</t>
-  </si>
-  <si>
     <t>MHLM</t>
   </si>
   <si>
     <t>KLAX</t>
   </si>
   <si>
+    <t>UAL</t>
+  </si>
+  <si>
+    <t>SEQM</t>
+  </si>
+  <si>
+    <t>MGGT</t>
+  </si>
+  <si>
+    <t>SKBO</t>
+  </si>
+  <si>
+    <t>MNMG</t>
+  </si>
+  <si>
+    <t>SPJC</t>
+  </si>
+  <si>
+    <t>MROC</t>
+  </si>
+  <si>
+    <t>KSFO</t>
+  </si>
+  <si>
+    <t>KJFK</t>
+  </si>
+  <si>
+    <t>NKS</t>
+  </si>
+  <si>
+    <t>KFLL</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>KMIA</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>MPTO</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>KATL</t>
+  </si>
+  <si>
+    <t>KIAH</t>
+  </si>
+  <si>
+    <t>TSC</t>
+  </si>
+  <si>
+    <t>CYUL</t>
+  </si>
+  <si>
+    <t>AMX</t>
+  </si>
+  <si>
+    <t>MMMX</t>
+  </si>
+  <si>
+    <t>KDFW</t>
+  </si>
+  <si>
+    <t>SKRG</t>
+  </si>
+  <si>
+    <t>KMCO</t>
+  </si>
+  <si>
+    <t>IBE</t>
+  </si>
+  <si>
+    <t>CYYZ</t>
+  </si>
+  <si>
+    <t>KBOS</t>
+  </si>
+  <si>
+    <t>MHPR</t>
+  </si>
+  <si>
+    <t>KEWR</t>
+  </si>
+  <si>
+    <t>TPA</t>
+  </si>
+  <si>
+    <t>DHL</t>
+  </si>
+  <si>
+    <t>AJT</t>
+  </si>
+  <si>
+    <t>MHTG</t>
+  </si>
+  <si>
     <t>KOAK</t>
   </si>
   <si>
-    <t>UAL</t>
-  </si>
-  <si>
-    <t>SEQM</t>
-  </si>
-  <si>
-    <t>KJFK</t>
-  </si>
-  <si>
-    <t>MMMX</t>
-  </si>
-  <si>
-    <t>MGGT</t>
-  </si>
-  <si>
-    <t>SKBO</t>
-  </si>
-  <si>
-    <t>SPJC</t>
-  </si>
-  <si>
-    <t>MROC</t>
-  </si>
-  <si>
-    <t>KSFO</t>
-  </si>
-  <si>
-    <t>KMIA</t>
-  </si>
-  <si>
-    <t>MHPR</t>
-  </si>
-  <si>
-    <t>CYYZ</t>
-  </si>
-  <si>
-    <t>KEWR</t>
-  </si>
-  <si>
-    <t>AAL</t>
-  </si>
-  <si>
-    <t>TAG</t>
-  </si>
-  <si>
-    <t>MHRO</t>
-  </si>
-  <si>
-    <t>CMP</t>
-  </si>
-  <si>
-    <t>MPTO</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>KATL</t>
-  </si>
-  <si>
-    <t>KIAH</t>
-  </si>
-  <si>
-    <t>AMX</t>
-  </si>
-  <si>
-    <t>KDFW</t>
-  </si>
-  <si>
-    <t>NKS</t>
-  </si>
-  <si>
-    <t>KFLL</t>
-  </si>
-  <si>
-    <t>SKRG</t>
-  </si>
-  <si>
-    <t>MNMG</t>
-  </si>
-  <si>
-    <t>MMUN</t>
-  </si>
-  <si>
-    <t>VOC</t>
-  </si>
-  <si>
-    <t>IBE</t>
-  </si>
-  <si>
-    <t>CYUL</t>
-  </si>
-  <si>
-    <t>KORD</t>
-  </si>
-  <si>
-    <t>KLAS</t>
-  </si>
-  <si>
-    <t>DHL</t>
-  </si>
-  <si>
-    <t>AJT</t>
-  </si>
-  <si>
-    <t>FDX</t>
+    <t>LEMD</t>
   </si>
   <si>
     <t>ARM</t>
-  </si>
-  <si>
-    <t>MHTG</t>
-  </si>
-  <si>
-    <t>TPA</t>
-  </si>
-  <si>
-    <t>LEMD</t>
   </si>
 </sst>
 </file>
@@ -572,8 +557,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C0FF69-A0C2-4634-93DB-96B575E9203F}">
-  <dimension ref="A1:G152"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB2EA14-AF6F-4C03-BA9A-EF3DC3EDB02F}">
+  <dimension ref="A1:G151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,29 +597,29 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="E2">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7.8472222222222221E-2</v>
+      </c>
+      <c r="D2">
         <v>4156</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1">
-        <v>8.2638888888888887E-2</v>
-      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1"/>
       <c r="E3">
         <v>1670</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1">
         <v>0.125</v>
@@ -642,10 +627,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1">
         <v>0.15972222222222224</v>
@@ -672,14 +657,14 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1"/>
       <c r="E6">
         <v>879</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G6" s="1">
         <v>0.21041666666666667</v>
@@ -696,7 +681,7 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="D7">
-        <v>531</v>
+        <v>575</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -704,74 +689,74 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="D8">
-        <v>575</v>
-      </c>
-      <c r="G8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="E8">
+        <v>556</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.22916666666666666</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.22569444444444445</v>
-      </c>
-      <c r="D9">
-        <v>533</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="E9">
+        <v>4350</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.22916666666666666</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>0.23472222222222222</v>
+        <v>0.23541666666666666</v>
       </c>
       <c r="D10">
-        <v>4323</v>
+        <v>4309</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1">
-        <v>0.23541666666666666</v>
+        <v>0.23958333333333334</v>
       </c>
       <c r="D11">
-        <v>4309</v>
+        <v>1266</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
-        <v>0.23958333333333334</v>
+        <v>0.24652777777777779</v>
       </c>
       <c r="D12">
-        <v>1266</v>
+        <v>456</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -780,13 +765,13 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
-        <v>0.24652777777777779</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="D13">
-        <v>456</v>
+        <v>579</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -795,13 +780,13 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>0.24652777777777779</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D14">
-        <v>567</v>
+        <v>366</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -810,13 +795,13 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1">
-        <v>0.25347222222222221</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D15">
-        <v>433</v>
+        <v>529</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -825,73 +810,73 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1">
-        <v>0.25694444444444442</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="D16">
-        <v>579</v>
+        <v>314</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.26041666666666669</v>
-      </c>
-      <c r="D17">
-        <v>366</v>
-      </c>
-      <c r="G17" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="E17">
+        <v>4326</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.2638888888888889</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D18">
-        <v>529</v>
+        <v>428</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="E19">
-        <v>4326</v>
-      </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.2638888888888889</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="D19">
+        <v>626</v>
+      </c>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1">
-        <v>0.2673611111111111</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D20">
-        <v>428</v>
+        <v>561</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -900,13 +885,13 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C21" s="1">
-        <v>0.2673611111111111</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D21">
-        <v>650</v>
+        <v>591</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -915,104 +900,104 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
         <v>0.27083333333333331</v>
       </c>
       <c r="D22">
-        <v>561</v>
+        <v>671</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D23">
-        <v>591</v>
-      </c>
-      <c r="G23" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="E23">
+        <v>4318</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.28611111111111109</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D24">
-        <v>671</v>
-      </c>
-      <c r="G24" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="E24">
+        <v>1467</v>
+      </c>
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.28819444444444448</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="E25">
-        <v>1467</v>
-      </c>
-      <c r="F25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.28819444444444448</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D25">
+        <v>621</v>
+      </c>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="D26">
-        <v>621</v>
-      </c>
-      <c r="G26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="E26">
+        <v>323</v>
+      </c>
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C27" s="1"/>
       <c r="E27">
-        <v>4330</v>
+        <v>396</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G27" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1"/>
       <c r="E28">
-        <v>321</v>
+        <v>4338</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G28" s="1">
-        <v>0.3125</v>
+        <v>0.31527777777777777</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1021,13 +1006,13 @@
       </c>
       <c r="C29" s="1"/>
       <c r="E29">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G29" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1036,28 +1021,28 @@
       </c>
       <c r="C30" s="1"/>
       <c r="E30">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G30" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C31" s="1"/>
       <c r="E31">
-        <v>884</v>
+        <v>536</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G31" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1066,13 +1051,13 @@
       </c>
       <c r="C32" s="1"/>
       <c r="E32">
-        <v>310</v>
+        <v>444</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G32" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1081,13 +1066,13 @@
       </c>
       <c r="C33" s="1"/>
       <c r="E33">
-        <v>328</v>
+        <v>562</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="G33" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1096,13 +1081,13 @@
       </c>
       <c r="C34" s="1"/>
       <c r="E34">
-        <v>440</v>
+        <v>368</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G34" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1111,44 +1096,44 @@
       </c>
       <c r="C35" s="1"/>
       <c r="E35">
-        <v>562</v>
+        <v>383</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G35" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
-      <c r="B36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0.3298611111111111</v>
-      </c>
-      <c r="D36">
-        <v>549</v>
-      </c>
-      <c r="G36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="E36">
+        <v>522</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="E37">
-        <v>368</v>
-      </c>
-      <c r="F37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="D37">
+        <v>581</v>
+      </c>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -1156,13 +1141,13 @@
       </c>
       <c r="C38" s="1"/>
       <c r="E38">
-        <v>383</v>
+        <v>564</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G38" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.33680555555555558</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1171,29 +1156,29 @@
       </c>
       <c r="C39" s="1"/>
       <c r="E39">
-        <v>522</v>
+        <v>454</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G39" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0.33680555555555558</v>
-      </c>
-      <c r="D40">
-        <v>601</v>
-      </c>
-      <c r="G40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="E40">
+        <v>554</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.34027777777777779</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -1201,13 +1186,13 @@
       </c>
       <c r="C41" s="1"/>
       <c r="E41">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G41" s="1">
-        <v>0.33680555555555558</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1216,74 +1201,74 @@
       </c>
       <c r="C42" s="1"/>
       <c r="E42">
-        <v>454</v>
+        <v>324</v>
       </c>
       <c r="F42" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G42" s="1">
-        <v>0.34027777777777779</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C43" s="1"/>
       <c r="E43">
-        <v>572</v>
+        <v>884</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G43" s="1">
-        <v>0.34027777777777779</v>
+        <v>0.35833333333333334</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="E44">
-        <v>324</v>
-      </c>
-      <c r="F44" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0.34375</v>
-      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="D44">
+        <v>551</v>
+      </c>
+      <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>9</v>
       </c>
-      <c r="B45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0.37152777777777779</v>
-      </c>
-      <c r="D45">
-        <v>309</v>
-      </c>
-      <c r="G45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="E45">
+        <v>422</v>
+      </c>
+      <c r="F45" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.36458333333333331</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="E46">
-        <v>526</v>
-      </c>
-      <c r="F46" t="s">
-        <v>46</v>
-      </c>
-      <c r="G46" s="1">
-        <v>0.375</v>
-      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.37847222222222221</v>
+      </c>
+      <c r="D46">
+        <v>559</v>
+      </c>
+      <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -1294,7 +1279,7 @@
         <v>369</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G47" s="1">
         <v>0.37847222222222221</v>
@@ -1309,7 +1294,7 @@
         <v>430</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="G48" s="1">
         <v>0.37847222222222221</v>
@@ -1321,36 +1306,36 @@
       </c>
       <c r="C49" s="1"/>
       <c r="E49">
-        <v>582</v>
+        <v>524</v>
       </c>
       <c r="F49" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G49" s="1">
-        <v>0.39930555555555558</v>
+        <v>0.38194444444444442</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0.40277777777777773</v>
-      </c>
-      <c r="D50">
-        <v>741</v>
-      </c>
-      <c r="G50" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="E50">
+        <v>582</v>
+      </c>
+      <c r="F50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.39930555555555558</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C51" s="1">
         <v>0.41319444444444442</v>
@@ -1369,7 +1354,7 @@
         <v>392</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G52" s="1">
         <v>0.41319444444444442</v>
@@ -1381,57 +1366,57 @@
       </c>
       <c r="C53" s="1"/>
       <c r="E53">
-        <v>408</v>
+        <v>613</v>
       </c>
       <c r="F53" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G53" s="1">
-        <v>0.41666666666666669</v>
+        <v>0.4236111111111111</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="E54">
-        <v>609</v>
-      </c>
-      <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" s="1">
-        <v>0.4236111111111111</v>
-      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D54">
+        <v>537</v>
+      </c>
+      <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="E55">
-        <v>4320</v>
-      </c>
-      <c r="F55" t="s">
-        <v>34</v>
-      </c>
-      <c r="G55" s="1">
-        <v>0.4236111111111111</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="D55">
+        <v>255</v>
+      </c>
+      <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C56" s="1">
-        <v>0.44791666666666669</v>
+        <v>0.46111111111111108</v>
       </c>
       <c r="D56">
-        <v>455</v>
+        <v>916</v>
       </c>
       <c r="G56" s="1"/>
     </row>
@@ -1440,58 +1425,58 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C57" s="1">
-        <v>0.4513888888888889</v>
+        <v>0.46180555555555558</v>
       </c>
       <c r="D57">
-        <v>320</v>
+        <v>70</v>
       </c>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="D58">
-        <v>327</v>
-      </c>
-      <c r="G58" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="E58">
+        <v>256</v>
+      </c>
+      <c r="F58" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.47430555555555554</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C59" s="1">
-        <v>0.4513888888888889</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="D59">
-        <v>573</v>
+        <v>857</v>
       </c>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B60" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C60" s="1">
-        <v>0.45347222222222222</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="D60">
-        <v>4337</v>
+        <v>4053</v>
       </c>
       <c r="G60" s="1"/>
     </row>
@@ -1499,30 +1484,30 @@
       <c r="A61" t="s">
         <v>9</v>
       </c>
-      <c r="B61" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61" s="1">
-        <v>0.46180555555555558</v>
-      </c>
-      <c r="D61">
-        <v>70</v>
-      </c>
-      <c r="G61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="E61">
+        <v>584</v>
+      </c>
+      <c r="F61" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.49305555555555558</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C62" s="1"/>
       <c r="E62">
-        <v>740</v>
+        <v>424</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G62" s="1">
-        <v>0.46527777777777773</v>
+        <v>0.50347222222222221</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -1531,13 +1516,13 @@
       </c>
       <c r="C63" s="1"/>
       <c r="E63">
-        <v>584</v>
+        <v>71</v>
       </c>
       <c r="F63" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G63" s="1">
-        <v>0.49305555555555558</v>
+        <v>0.50347222222222221</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -1546,223 +1531,223 @@
       </c>
       <c r="C64" s="1"/>
       <c r="E64">
-        <v>650</v>
+        <v>319</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="G64" s="1">
-        <v>0.49305555555555558</v>
+        <v>0.51041666666666663</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C65" s="1"/>
       <c r="E65">
-        <v>424</v>
+        <v>915</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G65" s="1">
-        <v>0.50347222222222221</v>
+        <v>0.5131944444444444</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="1"/>
-      <c r="E66">
-        <v>442</v>
-      </c>
-      <c r="F66" t="s">
-        <v>36</v>
-      </c>
-      <c r="G66" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="D66">
+        <v>339</v>
+      </c>
+      <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" s="1"/>
-      <c r="E67">
-        <v>71</v>
-      </c>
-      <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B67" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="D67">
+        <v>816</v>
+      </c>
+      <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" s="1"/>
-      <c r="E68">
-        <v>619</v>
-      </c>
-      <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" s="1">
-        <v>0.51041666666666663</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B68" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="D68">
+        <v>1910</v>
+      </c>
+      <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>27</v>
-      </c>
-      <c r="B69" t="s">
-        <v>23</v>
-      </c>
-      <c r="C69" s="1">
-        <v>0.52152777777777781</v>
-      </c>
-      <c r="D69">
-        <v>339</v>
-      </c>
-      <c r="G69" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="E69">
+        <v>856</v>
+      </c>
+      <c r="F69" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.54861111111111105</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B70" t="s">
         <v>29</v>
       </c>
       <c r="C70" s="1">
-        <v>0.52777777777777779</v>
+        <v>0.55486111111111114</v>
       </c>
       <c r="D70">
-        <v>420</v>
+        <v>1441</v>
       </c>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>30</v>
-      </c>
-      <c r="B71" t="s">
-        <v>31</v>
-      </c>
-      <c r="C71" s="1">
-        <v>0.52847222222222223</v>
-      </c>
-      <c r="D71">
-        <v>816</v>
-      </c>
-      <c r="G71" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="E71">
+        <v>4053</v>
+      </c>
+      <c r="F71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0.55555555555555558</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B72" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C72" s="1">
-        <v>0.54861111111111105</v>
+        <v>0.5625</v>
       </c>
       <c r="D72">
-        <v>1910</v>
+        <v>760</v>
       </c>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C73" s="1"/>
       <c r="E73">
-        <v>421</v>
+        <v>348</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G73" s="1">
-        <v>0.55208333333333337</v>
+        <v>0.56319444444444444</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C74" s="1">
-        <v>0.55486111111111114</v>
+        <v>0.57847222222222217</v>
       </c>
       <c r="D74">
-        <v>1441</v>
+        <v>628</v>
       </c>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C75" s="1"/>
       <c r="E75">
-        <v>348</v>
+        <v>4</v>
       </c>
       <c r="F75" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G75" s="1">
-        <v>0.56319444444444444</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>49</v>
-      </c>
-      <c r="B76" t="s">
-        <v>18</v>
-      </c>
-      <c r="C76" s="1">
-        <v>0.56666666666666665</v>
-      </c>
-      <c r="D76">
-        <v>8139</v>
-      </c>
-      <c r="G76" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="E76">
+        <v>871</v>
+      </c>
+      <c r="F76" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.58611111111111114</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C77" s="1">
-        <v>0.57847222222222217</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="D77">
-        <v>628</v>
+        <v>1035</v>
       </c>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C78" s="1"/>
       <c r="E78">
-        <v>4</v>
+        <v>1978</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G78" s="1">
-        <v>0.58333333333333337</v>
+        <v>0.60763888888888895</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -1771,194 +1756,194 @@
       </c>
       <c r="C79" s="1"/>
       <c r="E79">
-        <v>871</v>
+        <v>761</v>
       </c>
       <c r="F79" t="s">
         <v>31</v>
       </c>
       <c r="G79" s="1">
-        <v>0.58611111111111114</v>
+        <v>0.61111111111111105</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B80" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C80" s="1">
-        <v>0.59791666666666665</v>
+        <v>0.61736111111111114</v>
       </c>
       <c r="D80">
-        <v>1035</v>
+        <v>3151</v>
       </c>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C81" s="1"/>
       <c r="E81">
-        <v>1978</v>
+        <v>1468</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G81" s="1">
-        <v>0.60763888888888895</v>
+        <v>0.61805555555555558</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C82" s="1">
-        <v>0.61736111111111114</v>
+        <v>0.62222222222222223</v>
       </c>
       <c r="D82">
-        <v>3151</v>
+        <v>4319</v>
       </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C83" s="1"/>
       <c r="E83">
-        <v>1468</v>
+        <v>629</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G83" s="1">
-        <v>0.61805555555555558</v>
+        <v>0.63055555555555554</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>37</v>
-      </c>
-      <c r="B84" t="s">
-        <v>38</v>
-      </c>
-      <c r="C84" s="1">
-        <v>0.61944444444444446</v>
-      </c>
-      <c r="D84">
-        <v>1031</v>
-      </c>
-      <c r="G84" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="E84">
+        <v>1104</v>
+      </c>
+      <c r="F84" t="s">
+        <v>34</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0.63958333333333328</v>
+      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>35</v>
-      </c>
-      <c r="C85" s="1"/>
-      <c r="E85">
-        <v>629</v>
-      </c>
-      <c r="F85" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" s="1">
-        <v>0.63055555555555554</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B85" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0.64166666666666672</v>
+      </c>
+      <c r="D85">
+        <v>1290</v>
+      </c>
+      <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>27</v>
-      </c>
-      <c r="C86" s="1"/>
-      <c r="E86">
-        <v>1104</v>
-      </c>
-      <c r="F86" t="s">
-        <v>36</v>
-      </c>
-      <c r="G86" s="1">
-        <v>0.63958333333333328</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D86">
+        <v>382</v>
+      </c>
+      <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>14</v>
-      </c>
-      <c r="B87" t="s">
-        <v>34</v>
-      </c>
-      <c r="C87" s="1">
-        <v>0.64166666666666672</v>
-      </c>
-      <c r="D87">
-        <v>1290</v>
-      </c>
-      <c r="G87" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="E87">
+        <v>317</v>
+      </c>
+      <c r="F87" t="s">
+        <v>26</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0.65625</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>9</v>
-      </c>
-      <c r="B88" t="s">
-        <v>19</v>
-      </c>
-      <c r="C88" s="1">
-        <v>0.65277777777777779</v>
-      </c>
-      <c r="D88">
-        <v>382</v>
-      </c>
-      <c r="G88" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="E88">
+        <v>356</v>
+      </c>
+      <c r="F88" t="s">
+        <v>24</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0.65902777777777777</v>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>9</v>
       </c>
-      <c r="C89" s="1"/>
-      <c r="E89">
-        <v>317</v>
-      </c>
-      <c r="F89" t="s">
-        <v>31</v>
-      </c>
-      <c r="G89" s="1">
-        <v>0.65625</v>
-      </c>
+      <c r="B89" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D89">
+        <v>367</v>
+      </c>
+      <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>27</v>
-      </c>
-      <c r="C90" s="1"/>
-      <c r="E90">
-        <v>356</v>
-      </c>
-      <c r="F90" t="s">
-        <v>23</v>
-      </c>
-      <c r="G90" s="1">
-        <v>0.65902777777777777</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B90" t="s">
+        <v>35</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D90">
+        <v>370</v>
+      </c>
+      <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>49</v>
-      </c>
-      <c r="C91" s="1"/>
-      <c r="E91">
-        <v>7139</v>
-      </c>
-      <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" s="1">
-        <v>0.66527777777777775</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="D91">
+        <v>397</v>
+      </c>
+      <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
@@ -1968,55 +1953,55 @@
         <v>34</v>
       </c>
       <c r="C92" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.68055555555555558</v>
       </c>
       <c r="D92">
-        <v>367</v>
+        <v>441</v>
       </c>
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>9</v>
-      </c>
-      <c r="B93" t="s">
-        <v>39</v>
-      </c>
-      <c r="C93" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D93">
-        <v>370</v>
-      </c>
-      <c r="G93" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="E93">
+        <v>4322</v>
+      </c>
+      <c r="F93" t="s">
+        <v>46</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0.68611111111111112</v>
+      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>37</v>
-      </c>
-      <c r="C94" s="1"/>
-      <c r="E94">
-        <v>1032</v>
-      </c>
-      <c r="F94" t="s">
-        <v>38</v>
-      </c>
-      <c r="G94" s="1">
-        <v>0.66805555555555551</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="D94">
+        <v>311</v>
+      </c>
+      <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C95" s="1">
-        <v>0.67361111111111116</v>
+        <v>0.6875</v>
       </c>
       <c r="D95">
-        <v>397</v>
+        <v>318</v>
       </c>
       <c r="G95" s="1"/>
     </row>
@@ -2028,10 +2013,10 @@
         <v>36</v>
       </c>
       <c r="C96" s="1">
-        <v>0.68055555555555558</v>
+        <v>0.69097222222222221</v>
       </c>
       <c r="D96">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="G96" s="1"/>
     </row>
@@ -2040,105 +2025,105 @@
         <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C97" s="1">
-        <v>0.68402777777777779</v>
+        <v>0.69097222222222221</v>
       </c>
       <c r="D97">
-        <v>651</v>
+        <v>555</v>
       </c>
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>9</v>
-      </c>
-      <c r="B98" t="s">
-        <v>23</v>
-      </c>
-      <c r="C98" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="D98">
-        <v>311</v>
-      </c>
-      <c r="G98" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="E98">
+        <v>1130</v>
+      </c>
+      <c r="F98" t="s">
+        <v>29</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0.69444444444444453</v>
+      </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B99" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C99" s="1">
-        <v>0.6875</v>
+        <v>0.69722222222222219</v>
       </c>
       <c r="D99">
-        <v>618</v>
+        <v>4327</v>
       </c>
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>14</v>
-      </c>
-      <c r="C100" s="1"/>
-      <c r="E100">
-        <v>1130</v>
-      </c>
-      <c r="F100" t="s">
-        <v>34</v>
-      </c>
-      <c r="G100" s="1">
-        <v>0.69444444444444453</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D100">
+        <v>322</v>
+      </c>
+      <c r="G100" s="1"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>7</v>
-      </c>
-      <c r="B101" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="1">
-        <v>0.69722222222222219</v>
-      </c>
-      <c r="D101">
-        <v>4327</v>
-      </c>
-      <c r="G101" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="E101">
+        <v>548</v>
+      </c>
+      <c r="F101" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0.71875</v>
+      </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>9</v>
       </c>
-      <c r="B102" t="s">
-        <v>31</v>
-      </c>
-      <c r="C102" s="1">
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="D102">
-        <v>322</v>
-      </c>
-      <c r="G102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="E102">
+        <v>560</v>
+      </c>
+      <c r="F102" t="s">
+        <v>19</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>50</v>
-      </c>
-      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="E103">
+        <v>617</v>
+      </c>
+      <c r="F103" t="s">
         <v>18</v>
       </c>
-      <c r="C103" s="1">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D103">
-        <v>4</v>
-      </c>
-      <c r="G103" s="1"/>
+      <c r="G103" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
@@ -2146,10 +2131,10 @@
       </c>
       <c r="C104" s="1"/>
       <c r="E104">
-        <v>530</v>
+        <v>620</v>
       </c>
       <c r="F104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G104" s="1">
         <v>0.73263888888888884</v>
@@ -2157,18 +2142,18 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105" s="1"/>
-      <c r="E105">
-        <v>532</v>
-      </c>
-      <c r="F105" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B105" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="D105">
+        <v>4351</v>
+      </c>
+      <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
@@ -2176,13 +2161,13 @@
       </c>
       <c r="C106" s="1"/>
       <c r="E106">
-        <v>550</v>
+        <v>448</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G106" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.74305555555555558</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -2191,42 +2176,42 @@
       </c>
       <c r="C107" s="1"/>
       <c r="E107">
-        <v>560</v>
+        <v>534</v>
       </c>
       <c r="F107" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G107" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.74305555555555558</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C108" s="1"/>
       <c r="E108">
-        <v>620</v>
+        <v>4308</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G108" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.74583333333333335</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C109" s="1">
-        <v>0.73472222222222228</v>
+        <v>0.74652777777777779</v>
       </c>
       <c r="D109">
-        <v>4321</v>
+        <v>612</v>
       </c>
       <c r="G109" s="1"/>
     </row>
@@ -2236,13 +2221,13 @@
       </c>
       <c r="C110" s="1"/>
       <c r="E110">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="F110" t="s">
         <v>11</v>
       </c>
       <c r="G110" s="1">
-        <v>0.74305555555555558</v>
+        <v>0.76041666666666663</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -2251,132 +2236,132 @@
       </c>
       <c r="C111" s="1"/>
       <c r="E111">
-        <v>4308</v>
+        <v>4312</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G111" s="1">
-        <v>0.74583333333333335</v>
+        <v>0.77638888888888891</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" s="1"/>
-      <c r="E112">
-        <v>528</v>
-      </c>
-      <c r="F112" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" s="1">
-        <v>0.76041666666666663</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B112" t="s">
+        <v>45</v>
+      </c>
+      <c r="C112" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="D112">
+        <v>931</v>
+      </c>
+      <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B113" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C113" s="1">
-        <v>0.7631944444444444</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D113">
-        <v>4040</v>
+        <v>222</v>
       </c>
       <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" s="1"/>
-      <c r="E114">
-        <v>4312</v>
-      </c>
-      <c r="F114" t="s">
-        <v>8</v>
-      </c>
-      <c r="G114" s="1">
-        <v>0.77638888888888891</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B114" t="s">
+        <v>33</v>
+      </c>
+      <c r="C114" s="1">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="D114">
+        <v>431</v>
+      </c>
+      <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C115" s="1">
-        <v>0.78125</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="D115">
-        <v>931</v>
+        <v>565</v>
       </c>
       <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>52</v>
-      </c>
-      <c r="B116" t="s">
-        <v>19</v>
-      </c>
-      <c r="C116" s="1">
-        <v>0.78541666666666665</v>
-      </c>
-      <c r="D116">
-        <v>4158</v>
-      </c>
-      <c r="G116" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C116" s="1"/>
+      <c r="E116">
+        <v>670</v>
+      </c>
+      <c r="F116" t="s">
+        <v>20</v>
+      </c>
+      <c r="G116" s="1">
+        <v>0.8125</v>
+      </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>9</v>
       </c>
-      <c r="C117" s="1"/>
-      <c r="E117">
-        <v>558</v>
-      </c>
-      <c r="F117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G117" s="1">
-        <v>0.78819444444444442</v>
-      </c>
+      <c r="B117" t="s">
+        <v>29</v>
+      </c>
+      <c r="C117" s="1">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="D117">
+        <v>425</v>
+      </c>
+      <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C118" s="1">
-        <v>0.79027777777777775</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="D118">
-        <v>4331</v>
+        <v>523</v>
       </c>
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C119" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.82986111111111116</v>
       </c>
       <c r="D119">
-        <v>222</v>
+        <v>583</v>
       </c>
       <c r="G119" s="1"/>
     </row>
@@ -2385,30 +2370,30 @@
         <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C120" s="1">
-        <v>0.79513888888888884</v>
+        <v>0.84375</v>
       </c>
       <c r="D120">
-        <v>431</v>
+        <v>325</v>
       </c>
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>42</v>
-      </c>
-      <c r="C121" s="1"/>
-      <c r="E121">
-        <v>4041</v>
-      </c>
-      <c r="F121" t="s">
-        <v>21</v>
-      </c>
-      <c r="G121" s="1">
-        <v>0.79513888888888884</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B121" t="s">
+        <v>39</v>
+      </c>
+      <c r="C121" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="D121">
+        <v>445</v>
+      </c>
+      <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
@@ -2416,13 +2401,13 @@
       </c>
       <c r="C122" s="1"/>
       <c r="E122">
-        <v>670</v>
+        <v>590</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G122" s="1">
-        <v>0.8125</v>
+        <v>0.85069444444444442</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -2430,13 +2415,13 @@
         <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C123" s="1">
-        <v>0.81944444444444442</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D123">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="G123" s="1"/>
     </row>
@@ -2445,28 +2430,28 @@
         <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C124" s="1">
-        <v>0.82638888888888884</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D124">
-        <v>523</v>
+        <v>449</v>
       </c>
       <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C125" s="1">
-        <v>0.82986111111111116</v>
+        <v>0.85972222222222217</v>
       </c>
       <c r="D125">
-        <v>583</v>
+        <v>881</v>
       </c>
       <c r="G125" s="1"/>
     </row>
@@ -2475,13 +2460,13 @@
         <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C126" s="1">
-        <v>0.83680555555555558</v>
+        <v>0.86805555555555558</v>
       </c>
       <c r="D126">
-        <v>329</v>
+        <v>563</v>
       </c>
       <c r="G126" s="1"/>
     </row>
@@ -2490,44 +2475,44 @@
         <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C127" s="1">
-        <v>0.84375</v>
+        <v>0.87152777777777779</v>
       </c>
       <c r="D127">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>52</v>
-      </c>
-      <c r="C128" s="1"/>
-      <c r="E128">
-        <v>4158</v>
-      </c>
-      <c r="F128" t="s">
-        <v>12</v>
-      </c>
-      <c r="G128" s="1">
-        <v>0.84791666666666665</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B128" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="D128">
+        <v>535</v>
+      </c>
+      <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C129" s="1"/>
       <c r="E129">
-        <v>590</v>
+        <v>222</v>
       </c>
       <c r="F129" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="G129" s="1">
-        <v>0.85069444444444442</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -2535,28 +2520,28 @@
         <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C130" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D130">
-        <v>393</v>
+        <v>525</v>
       </c>
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C131" s="1">
-        <v>0.85972222222222217</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D131">
-        <v>881</v>
+        <v>557</v>
       </c>
       <c r="G131" s="1"/>
     </row>
@@ -2565,28 +2550,28 @@
         <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C132" s="1">
-        <v>0.86805555555555558</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D132">
-        <v>443</v>
+        <v>616</v>
       </c>
       <c r="G132" s="1"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C133" s="1">
-        <v>0.86805555555555558</v>
+        <v>0.8881944444444444</v>
       </c>
       <c r="D133">
-        <v>563</v>
+        <v>1461</v>
       </c>
       <c r="G133" s="1"/>
     </row>
@@ -2595,13 +2580,13 @@
         <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C134" s="1">
-        <v>0.87152777777777779</v>
+        <v>0.91319444444444442</v>
       </c>
       <c r="D134">
-        <v>316</v>
+        <v>585</v>
       </c>
       <c r="G134" s="1"/>
     </row>
@@ -2609,106 +2594,106 @@
       <c r="A135" t="s">
         <v>9</v>
       </c>
-      <c r="B135" t="s">
-        <v>11</v>
-      </c>
-      <c r="C135" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="D135">
-        <v>535</v>
-      </c>
-      <c r="G135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="E135">
+        <v>365</v>
+      </c>
+      <c r="F135" t="s">
+        <v>15</v>
+      </c>
+      <c r="G135" s="1">
+        <v>0.92013888888888884</v>
+      </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C136" s="1"/>
       <c r="E136">
-        <v>222</v>
+        <v>600</v>
       </c>
       <c r="F136" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="G136" s="1">
-        <v>0.875</v>
+        <v>0.92013888888888884</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>9</v>
       </c>
-      <c r="B137" t="s">
-        <v>45</v>
-      </c>
-      <c r="C137" s="1">
-        <v>0.87847222222222221</v>
-      </c>
-      <c r="D137">
-        <v>409</v>
-      </c>
-      <c r="G137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="E137">
+        <v>429</v>
+      </c>
+      <c r="F137" t="s">
+        <v>17</v>
+      </c>
+      <c r="G137" s="1">
+        <v>0.92361111111111116</v>
+      </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B138" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C138" s="1">
-        <v>0.87847222222222221</v>
+        <v>0.92986111111111114</v>
       </c>
       <c r="D138">
-        <v>527</v>
+        <v>4339</v>
       </c>
       <c r="G138" s="1"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="1"/>
+      <c r="E139">
+        <v>578</v>
+      </c>
+      <c r="F139" t="s">
         <v>14</v>
       </c>
-      <c r="B139" t="s">
-        <v>34</v>
-      </c>
-      <c r="C139" s="1">
-        <v>0.8881944444444444</v>
-      </c>
-      <c r="D139">
-        <v>1461</v>
-      </c>
-      <c r="G139" s="1"/>
+      <c r="G139" s="1">
+        <v>0.93055555555555558</v>
+      </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>9</v>
       </c>
-      <c r="B140" t="s">
-        <v>21</v>
-      </c>
-      <c r="C140" s="1">
-        <v>0.89236111111111116</v>
-      </c>
-      <c r="D140">
-        <v>608</v>
-      </c>
-      <c r="G140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="E140">
+        <v>627</v>
+      </c>
+      <c r="F140" t="s">
+        <v>18</v>
+      </c>
+      <c r="G140" s="1">
+        <v>0.93402777777777779</v>
+      </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>9</v>
       </c>
-      <c r="B141" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="1">
-        <v>0.91319444444444442</v>
-      </c>
-      <c r="D141">
-        <v>585</v>
-      </c>
-      <c r="G141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="E141">
+        <v>574</v>
+      </c>
+      <c r="F141" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="1">
+        <v>0.9375</v>
+      </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
@@ -2716,13 +2701,13 @@
       </c>
       <c r="C142" s="1"/>
       <c r="E142">
-        <v>365</v>
+        <v>315</v>
       </c>
       <c r="F142" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G142" s="1">
-        <v>0.92013888888888884</v>
+        <v>0.94097222222222221</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -2731,29 +2716,29 @@
       </c>
       <c r="C143" s="1"/>
       <c r="E143">
-        <v>580</v>
+        <v>658</v>
       </c>
       <c r="F143" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G143" s="1">
-        <v>0.92013888888888884</v>
+        <v>0.94444444444444442</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>9</v>
-      </c>
-      <c r="C144" s="1"/>
-      <c r="E144">
-        <v>429</v>
-      </c>
-      <c r="F144" t="s">
-        <v>20</v>
-      </c>
-      <c r="G144" s="1">
-        <v>0.92361111111111116</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B144" t="s">
+        <v>41</v>
+      </c>
+      <c r="C144" s="1">
+        <v>0.94930555555555562</v>
+      </c>
+      <c r="D144">
+        <v>1425</v>
+      </c>
+      <c r="G144" s="1"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
@@ -2761,13 +2746,13 @@
       </c>
       <c r="C145" s="1"/>
       <c r="E145">
-        <v>578</v>
+        <v>452</v>
       </c>
       <c r="F145" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G145" s="1">
-        <v>0.93055555555555558</v>
+        <v>0.95486111111111116</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -2776,13 +2761,13 @@
       </c>
       <c r="C146" s="1"/>
       <c r="E146">
-        <v>651</v>
+        <v>457</v>
       </c>
       <c r="F146" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G146" s="1">
-        <v>0.93402777777777779</v>
+        <v>0.95486111111111116</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -2791,28 +2776,28 @@
       </c>
       <c r="C147" s="1"/>
       <c r="E147">
-        <v>574</v>
+        <v>432</v>
       </c>
       <c r="F147" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G147" s="1">
-        <v>0.9375</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C148" s="1"/>
       <c r="E148">
-        <v>315</v>
+        <v>4336</v>
       </c>
       <c r="F148" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G148" s="1">
-        <v>0.94097222222222221</v>
+        <v>0.97152777777777777</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -2821,59 +2806,44 @@
       </c>
       <c r="C149" s="1"/>
       <c r="E149">
-        <v>658</v>
+        <v>326</v>
       </c>
       <c r="F149" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G149" s="1">
-        <v>0.94444444444444442</v>
+        <v>0.97569444444444442</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>9</v>
-      </c>
-      <c r="C150" s="1"/>
-      <c r="E150">
-        <v>452</v>
-      </c>
-      <c r="F150" t="s">
-        <v>24</v>
-      </c>
-      <c r="G150" s="1">
-        <v>0.95486111111111116</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B150" t="s">
+        <v>26</v>
+      </c>
+      <c r="C150" s="1">
+        <v>0.98333333333333339</v>
+      </c>
+      <c r="D150">
+        <v>878</v>
+      </c>
+      <c r="G150" s="1"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C151" s="1"/>
       <c r="E151">
-        <v>457</v>
+        <v>339</v>
       </c>
       <c r="F151" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G151" s="1">
-        <v>0.95486111111111116</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>30</v>
-      </c>
-      <c r="B152" t="s">
-        <v>31</v>
-      </c>
-      <c r="C152" s="1">
-        <v>0.98333333333333339</v>
-      </c>
-      <c r="D152">
-        <v>878</v>
-      </c>
-      <c r="G152" s="1"/>
+        <v>0.99583333333333324</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/operaciones.xlsx
+++ b/public/operaciones.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulm\Desktop\Itinerarios_2026-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AE192B0-3BCB-4A1E-8D2E-13F35DB4DB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF69E05C-30F2-4151-8F35-A998D64A19BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EE31FA6F-D9A7-492E-9190-E18B51EF2D5F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{13210586-4E95-422C-8EB1-3CC34E54F18D}"/>
   </bookViews>
   <sheets>
-    <sheet name="30-01" sheetId="1" r:id="rId1"/>
+    <sheet name="31-01" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="51">
   <si>
     <t>AEROLINEA</t>
   </si>
@@ -59,13 +59,19 @@
     <t>ETD</t>
   </si>
   <si>
+    <t>AVA</t>
+  </si>
+  <si>
+    <t>MHPR</t>
+  </si>
+  <si>
     <t>VOS</t>
   </si>
   <si>
     <t>KIAD</t>
   </si>
   <si>
-    <t>AVA</t>
+    <t>KONT</t>
   </si>
   <si>
     <t>MHLM</t>
@@ -80,109 +86,109 @@
     <t>SEQM</t>
   </si>
   <si>
+    <t>MMMX</t>
+  </si>
+  <si>
     <t>MGGT</t>
   </si>
   <si>
     <t>SKBO</t>
   </si>
   <si>
+    <t>SPJC</t>
+  </si>
+  <si>
+    <t>MROC</t>
+  </si>
+  <si>
+    <t>KSFO</t>
+  </si>
+  <si>
+    <t>KJFK</t>
+  </si>
+  <si>
+    <t>FFT</t>
+  </si>
+  <si>
+    <t>KIAH</t>
+  </si>
+  <si>
+    <t>NKS</t>
+  </si>
+  <si>
+    <t>KFLL</t>
+  </si>
+  <si>
+    <t>KMIA</t>
+  </si>
+  <si>
+    <t>CYYZ</t>
+  </si>
+  <si>
+    <t>KEWR</t>
+  </si>
+  <si>
+    <t>KDFW</t>
+  </si>
+  <si>
+    <t>KMCO</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>MPTO</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>KATL</t>
+  </si>
+  <si>
+    <t>AMX</t>
+  </si>
+  <si>
+    <t>SKRG</t>
+  </si>
+  <si>
     <t>MNMG</t>
   </si>
   <si>
-    <t>SPJC</t>
-  </si>
-  <si>
-    <t>MROC</t>
-  </si>
-  <si>
-    <t>KSFO</t>
-  </si>
-  <si>
-    <t>KJFK</t>
-  </si>
-  <si>
-    <t>NKS</t>
-  </si>
-  <si>
-    <t>KFLL</t>
-  </si>
-  <si>
-    <t>AAL</t>
-  </si>
-  <si>
-    <t>KMIA</t>
-  </si>
-  <si>
-    <t>CMP</t>
-  </si>
-  <si>
-    <t>MPTO</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>KATL</t>
-  </si>
-  <si>
-    <t>KIAH</t>
-  </si>
-  <si>
-    <t>TSC</t>
+    <t>MMUN</t>
+  </si>
+  <si>
+    <t>VOC</t>
+  </si>
+  <si>
+    <t>IBE</t>
   </si>
   <si>
     <t>CYUL</t>
   </si>
   <si>
-    <t>AMX</t>
-  </si>
-  <si>
-    <t>MMMX</t>
-  </si>
-  <si>
-    <t>KDFW</t>
-  </si>
-  <si>
-    <t>SKRG</t>
-  </si>
-  <si>
-    <t>KMCO</t>
-  </si>
-  <si>
-    <t>IBE</t>
-  </si>
-  <si>
-    <t>CYYZ</t>
-  </si>
-  <si>
-    <t>KBOS</t>
-  </si>
-  <si>
-    <t>MHPR</t>
-  </si>
-  <si>
-    <t>KEWR</t>
+    <t>KORD</t>
+  </si>
+  <si>
+    <t>KLAS</t>
+  </si>
+  <si>
+    <t>DHL</t>
+  </si>
+  <si>
+    <t>AJT</t>
+  </si>
+  <si>
+    <t>FDX</t>
+  </si>
+  <si>
+    <t>LEMD</t>
   </si>
   <si>
     <t>TPA</t>
-  </si>
-  <si>
-    <t>DHL</t>
-  </si>
-  <si>
-    <t>AJT</t>
-  </si>
-  <si>
-    <t>MHTG</t>
-  </si>
-  <si>
-    <t>KOAK</t>
-  </si>
-  <si>
-    <t>LEMD</t>
-  </si>
-  <si>
-    <t>ARM</t>
   </si>
 </sst>
 </file>
@@ -557,8 +563,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB2EA14-AF6F-4C03-BA9A-EF3DC3EDB02F}">
-  <dimension ref="A1:G151"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB812BE8-E88D-4F27-A6FE-DC1D6ACB6313}">
+  <dimension ref="A1:G152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,40 +603,40 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1">
-        <v>7.8472222222222221E-2</v>
-      </c>
-      <c r="D2">
-        <v>4156</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="E2">
+        <v>1670</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1"/>
       <c r="E3">
-        <v>1670</v>
+        <v>4156</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1">
-        <v>0.125</v>
+        <v>0.14791666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1">
         <v>0.15972222222222224</v>
@@ -642,33 +648,33 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.20972222222222223</v>
-      </c>
-      <c r="D5">
-        <v>4313</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="E5">
+        <v>224</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.20138888888888887</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="E6">
-        <v>879</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.21041666666666667</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D6">
+        <v>453</v>
+      </c>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -678,70 +684,70 @@
         <v>10</v>
       </c>
       <c r="C7" s="1">
-        <v>0.22222222222222221</v>
+        <v>0.20972222222222223</v>
       </c>
       <c r="D7">
-        <v>575</v>
+        <v>4313</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1"/>
       <c r="E8">
-        <v>556</v>
+        <v>879</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G8" s="1">
-        <v>0.22916666666666666</v>
+        <v>0.21041666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="E9">
-        <v>4350</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.22916666666666666</v>
-      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D9">
+        <v>531</v>
+      </c>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
-        <v>0.23541666666666666</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="D10">
-        <v>4309</v>
+        <v>575</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
-        <v>0.23958333333333334</v>
+        <v>0.22569444444444445</v>
       </c>
       <c r="D11">
-        <v>1266</v>
+        <v>533</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -753,70 +759,70 @@
         <v>13</v>
       </c>
       <c r="C12" s="1">
-        <v>0.24652777777777779</v>
+        <v>0.23541666666666666</v>
       </c>
       <c r="D12">
-        <v>456</v>
+        <v>4309</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1">
-        <v>0.25694444444444442</v>
+        <v>0.23958333333333334</v>
       </c>
       <c r="D13">
-        <v>579</v>
+        <v>1266</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.24652777777777779</v>
       </c>
       <c r="D14">
-        <v>366</v>
+        <v>456</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="D15">
-        <v>529</v>
+        <v>433</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>0.2638888888888889</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="D16">
-        <v>314</v>
+        <v>579</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -824,29 +830,29 @@
       <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="E17">
-        <v>4326</v>
-      </c>
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.2638888888888889</v>
-      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="D17">
+        <v>366</v>
+      </c>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C18" s="1">
-        <v>0.2673611111111111</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D18">
-        <v>428</v>
+        <v>529</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -854,59 +860,59 @@
       <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.2673611111111111</v>
-      </c>
-      <c r="D19">
-        <v>626</v>
-      </c>
-      <c r="G19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="E19">
+        <v>4326</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.2638888888888889</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D20">
-        <v>561</v>
+        <v>428</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D21">
-        <v>591</v>
+        <v>650</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1">
         <v>0.27083333333333331</v>
       </c>
       <c r="D22">
-        <v>671</v>
+        <v>561</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -914,61 +920,61 @@
       <c r="A23" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="E23">
-        <v>4318</v>
-      </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.28611111111111109</v>
-      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D23">
+        <v>591</v>
+      </c>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="E24">
-        <v>1467</v>
-      </c>
-      <c r="F24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.28819444444444448</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D24">
+        <v>671</v>
+      </c>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="D25">
-        <v>621</v>
-      </c>
-      <c r="G25" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="E25">
+        <v>1467</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.28819444444444448</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="E26">
-        <v>323</v>
-      </c>
-      <c r="F26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0.3125</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D26">
+        <v>621</v>
+      </c>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -976,13 +982,13 @@
       </c>
       <c r="C27" s="1"/>
       <c r="E27">
-        <v>396</v>
+        <v>4330</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G27" s="1">
-        <v>0.3125</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -991,295 +997,295 @@
       </c>
       <c r="C28" s="1"/>
       <c r="E28">
-        <v>4338</v>
+        <v>321</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G28" s="1">
-        <v>0.31527777777777777</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1"/>
       <c r="E29">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G29" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C30" s="1"/>
       <c r="E30">
-        <v>440</v>
+        <v>396</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G30" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C31" s="1"/>
       <c r="E31">
-        <v>536</v>
+        <v>884</v>
       </c>
       <c r="F31" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="G31" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1"/>
       <c r="E32">
-        <v>444</v>
+        <v>310</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G32" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C33" s="1"/>
       <c r="E33">
-        <v>562</v>
+        <v>328</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G33" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C34" s="1"/>
       <c r="E34">
-        <v>368</v>
+        <v>440</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G34" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C35" s="1"/>
       <c r="E35">
-        <v>383</v>
+        <v>536</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G35" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C36" s="1"/>
       <c r="E36">
-        <v>522</v>
+        <v>562</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G36" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C37" s="1">
-        <v>0.33680555555555558</v>
+        <v>0.3298611111111111</v>
       </c>
       <c r="D37">
-        <v>581</v>
+        <v>549</v>
       </c>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C38" s="1"/>
       <c r="E38">
-        <v>564</v>
+        <v>383</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G38" s="1">
-        <v>0.33680555555555558</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C39" s="1"/>
       <c r="E39">
-        <v>454</v>
+        <v>522</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G39" s="1">
-        <v>0.34027777777777779</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="E40">
-        <v>554</v>
-      </c>
-      <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0.34027777777777779</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="D40">
+        <v>601</v>
+      </c>
+      <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C41" s="1"/>
       <c r="E41">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G41" s="1">
-        <v>0.34027777777777779</v>
+        <v>0.33680555555555558</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C42" s="1"/>
       <c r="E42">
-        <v>324</v>
+        <v>454</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="G42" s="1">
-        <v>0.34375</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C43" s="1"/>
       <c r="E43">
-        <v>884</v>
+        <v>572</v>
       </c>
       <c r="F43" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G43" s="1">
-        <v>0.35833333333333334</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="D44">
-        <v>551</v>
-      </c>
-      <c r="G44" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="E44">
+        <v>324</v>
+      </c>
+      <c r="F44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.34375</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C45" s="1"/>
       <c r="E45">
-        <v>422</v>
+        <v>526</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G45" s="1">
-        <v>0.36458333333333331</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="1">
+        <v>7</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="E46">
+        <v>369</v>
+      </c>
+      <c r="F46" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="1">
         <v>0.37847222222222221</v>
       </c>
-      <c r="D46">
-        <v>559</v>
-      </c>
-      <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C47" s="1"/>
       <c r="E47">
-        <v>369</v>
+        <v>430</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G47" s="1">
         <v>0.37847222222222221</v>
@@ -1287,437 +1293,437 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C48" s="1"/>
       <c r="E48">
-        <v>430</v>
+        <v>582</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G48" s="1">
-        <v>0.37847222222222221</v>
+        <v>0.39930555555555558</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="E49">
-        <v>524</v>
-      </c>
-      <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="1">
-        <v>0.38194444444444442</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="D49">
+        <v>659</v>
+      </c>
+      <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C50" s="1"/>
       <c r="E50">
-        <v>582</v>
+        <v>392</v>
       </c>
       <c r="F50" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="G50" s="1">
-        <v>0.39930555555555558</v>
+        <v>0.41319444444444442</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0.41319444444444442</v>
-      </c>
-      <c r="D51">
-        <v>659</v>
-      </c>
-      <c r="G51" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="E51">
+        <v>408</v>
+      </c>
+      <c r="F51" t="s">
+        <v>44</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.41666666666666669</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="1"/>
-      <c r="E52">
-        <v>392</v>
-      </c>
-      <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" s="1">
-        <v>0.41319444444444442</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="D52">
+        <v>348</v>
+      </c>
+      <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="E53">
-        <v>613</v>
-      </c>
-      <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="1">
+        <v>47</v>
+      </c>
+      <c r="B53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="1">
         <v>0.4236111111111111</v>
       </c>
+      <c r="D53">
+        <v>761</v>
+      </c>
+      <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="D54">
-        <v>537</v>
-      </c>
-      <c r="G54" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="E54">
+        <v>609</v>
+      </c>
+      <c r="F54" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.4236111111111111</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" s="1">
-        <v>0.43611111111111112</v>
-      </c>
-      <c r="D55">
-        <v>255</v>
-      </c>
-      <c r="G55" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="E55">
+        <v>4320</v>
+      </c>
+      <c r="F55" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.4236111111111111</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C56" s="1">
-        <v>0.46111111111111108</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D56">
-        <v>916</v>
+        <v>537</v>
       </c>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C57" s="1">
-        <v>0.46180555555555558</v>
+        <v>0.43611111111111112</v>
       </c>
       <c r="D57">
-        <v>70</v>
+        <v>255</v>
       </c>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>21</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="E58">
-        <v>256</v>
-      </c>
-      <c r="F58" t="s">
-        <v>29</v>
-      </c>
-      <c r="G58" s="1">
-        <v>0.47430555555555554</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.43680555555555556</v>
+      </c>
+      <c r="D58">
+        <v>353</v>
+      </c>
+      <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C59" s="1">
-        <v>0.4861111111111111</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="D59">
-        <v>857</v>
+        <v>455</v>
       </c>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C60" s="1">
-        <v>0.49305555555555558</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="D60">
-        <v>4053</v>
+        <v>320</v>
       </c>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="E61">
-        <v>584</v>
-      </c>
-      <c r="F61" t="s">
-        <v>8</v>
-      </c>
-      <c r="G61" s="1">
-        <v>0.49305555555555558</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D61">
+        <v>327</v>
+      </c>
+      <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="1"/>
-      <c r="E62">
-        <v>424</v>
-      </c>
-      <c r="F62" t="s">
-        <v>29</v>
-      </c>
-      <c r="G62" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D62">
+        <v>573</v>
+      </c>
+      <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="1"/>
-      <c r="E63">
-        <v>71</v>
-      </c>
-      <c r="F63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+      <c r="B63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="D63">
+        <v>4337</v>
+      </c>
+      <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="1"/>
-      <c r="E64">
-        <v>319</v>
-      </c>
-      <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" s="1">
-        <v>0.51041666666666663</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="D64">
+        <v>8139</v>
+      </c>
+      <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65" s="1"/>
-      <c r="E65">
-        <v>915</v>
-      </c>
-      <c r="F65" t="s">
-        <v>26</v>
-      </c>
-      <c r="G65" s="1">
-        <v>0.5131944444444444</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="D65">
+        <v>70</v>
+      </c>
+      <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>23</v>
       </c>
-      <c r="B66" t="s">
-        <v>24</v>
-      </c>
-      <c r="C66" s="1">
-        <v>0.52152777777777781</v>
-      </c>
-      <c r="D66">
-        <v>339</v>
-      </c>
-      <c r="G66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="E66">
+        <v>352</v>
+      </c>
+      <c r="F66" t="s">
+        <v>27</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.46527777777777779</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>25</v>
       </c>
-      <c r="B67" t="s">
-        <v>26</v>
-      </c>
-      <c r="C67" s="1">
-        <v>0.52847222222222223</v>
-      </c>
-      <c r="D67">
-        <v>816</v>
-      </c>
-      <c r="G67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="E67">
+        <v>256</v>
+      </c>
+      <c r="F67" t="s">
+        <v>24</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0.47430555555555554</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C68" s="1">
-        <v>0.54861111111111105</v>
+        <v>0.48333333333333334</v>
       </c>
       <c r="D68">
-        <v>1910</v>
+        <v>342</v>
       </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C69" s="1"/>
       <c r="E69">
-        <v>856</v>
+        <v>760</v>
       </c>
       <c r="F69" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G69" s="1">
-        <v>0.54861111111111105</v>
+        <v>0.4861111111111111</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>12</v>
-      </c>
-      <c r="B70" t="s">
-        <v>29</v>
-      </c>
-      <c r="C70" s="1">
-        <v>0.55486111111111114</v>
-      </c>
-      <c r="D70">
-        <v>1441</v>
-      </c>
-      <c r="G70" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="E70">
+        <v>584</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.49305555555555558</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C71" s="1"/>
       <c r="E71">
-        <v>4053</v>
+        <v>650</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G71" s="1">
-        <v>0.55555555555555558</v>
+        <v>0.49305555555555558</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>30</v>
-      </c>
-      <c r="B72" t="s">
-        <v>31</v>
-      </c>
-      <c r="C72" s="1">
-        <v>0.5625</v>
-      </c>
-      <c r="D72">
-        <v>760</v>
-      </c>
-      <c r="G72" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="E72">
+        <v>349</v>
+      </c>
+      <c r="F72" t="s">
+        <v>24</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.49583333333333335</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C73" s="1"/>
       <c r="E73">
-        <v>348</v>
+        <v>424</v>
       </c>
       <c r="F73" t="s">
         <v>24</v>
       </c>
       <c r="G73" s="1">
-        <v>0.56319444444444444</v>
+        <v>0.50347222222222221</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>32</v>
-      </c>
-      <c r="B74" t="s">
-        <v>33</v>
-      </c>
-      <c r="C74" s="1">
-        <v>0.57847222222222217</v>
-      </c>
-      <c r="D74">
-        <v>628</v>
-      </c>
-      <c r="G74" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="E74">
+        <v>442</v>
+      </c>
+      <c r="F74" t="s">
+        <v>30</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C75" s="1"/>
       <c r="E75">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G75" s="1">
-        <v>0.58333333333333337</v>
+        <v>0.50347222222222221</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C76" s="1"/>
       <c r="E76">
-        <v>871</v>
+        <v>619</v>
       </c>
       <c r="F76" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G76" s="1">
-        <v>0.58611111111111114</v>
+        <v>0.51041666666666663</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -1725,509 +1731,509 @@
         <v>23</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C77" s="1">
-        <v>0.59791666666666665</v>
+        <v>0.51458333333333328</v>
       </c>
       <c r="D77">
-        <v>1035</v>
+        <v>63</v>
       </c>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>32</v>
+      </c>
+      <c r="B78" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="1"/>
-      <c r="E78">
-        <v>1978</v>
-      </c>
-      <c r="F78" t="s">
-        <v>28</v>
-      </c>
-      <c r="G78" s="1">
-        <v>0.60763888888888895</v>
-      </c>
+      <c r="C78" s="1">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="D78">
+        <v>339</v>
+      </c>
+      <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>30</v>
-      </c>
-      <c r="C79" s="1"/>
-      <c r="E79">
-        <v>761</v>
-      </c>
-      <c r="F79" t="s">
-        <v>31</v>
-      </c>
-      <c r="G79" s="1">
-        <v>0.61111111111111105</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B79" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="D79">
+        <v>816</v>
+      </c>
+      <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>23</v>
       </c>
-      <c r="B80" t="s">
-        <v>24</v>
-      </c>
-      <c r="C80" s="1">
-        <v>0.61736111111111114</v>
-      </c>
-      <c r="D80">
-        <v>3151</v>
-      </c>
-      <c r="G80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="E80">
+        <v>343</v>
+      </c>
+      <c r="F80" t="s">
+        <v>30</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0.53541666666666665</v>
+      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81" s="1"/>
-      <c r="E81">
-        <v>1468</v>
-      </c>
-      <c r="F81" t="s">
-        <v>29</v>
-      </c>
-      <c r="G81" s="1">
-        <v>0.61805555555555558</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B81" t="s">
+        <v>36</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="D81">
+        <v>1910</v>
+      </c>
+      <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C82" s="1">
-        <v>0.62222222222222223</v>
+        <v>0.55486111111111114</v>
       </c>
       <c r="D82">
-        <v>4319</v>
+        <v>1441</v>
       </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>32</v>
-      </c>
-      <c r="C83" s="1"/>
-      <c r="E83">
-        <v>629</v>
-      </c>
-      <c r="F83" t="s">
-        <v>33</v>
-      </c>
-      <c r="G83" s="1">
-        <v>0.63055555555555554</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B83" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.56319444444444444</v>
+      </c>
+      <c r="D83">
+        <v>219</v>
+      </c>
+      <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C84" s="1"/>
       <c r="E84">
-        <v>1104</v>
+        <v>348</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G84" s="1">
-        <v>0.63958333333333328</v>
+        <v>0.56319444444444444</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>12</v>
-      </c>
-      <c r="B85" t="s">
-        <v>29</v>
-      </c>
-      <c r="C85" s="1">
-        <v>0.64166666666666672</v>
-      </c>
-      <c r="D85">
-        <v>1290</v>
-      </c>
-      <c r="G85" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="E85">
+        <v>62</v>
+      </c>
+      <c r="F85" t="s">
+        <v>31</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0.56666666666666665</v>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B86" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C86" s="1">
-        <v>0.65277777777777779</v>
+        <v>0.5805555555555556</v>
       </c>
       <c r="D86">
-        <v>382</v>
+        <v>628</v>
       </c>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C87" s="1"/>
       <c r="E87">
-        <v>317</v>
+        <v>871</v>
       </c>
       <c r="F87" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G87" s="1">
-        <v>0.65625</v>
+        <v>0.58611111111111114</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>23</v>
-      </c>
-      <c r="C88" s="1"/>
-      <c r="E88">
-        <v>356</v>
-      </c>
-      <c r="F88" t="s">
-        <v>24</v>
-      </c>
-      <c r="G88" s="1">
-        <v>0.65902777777777777</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="D88">
+        <v>1035</v>
+      </c>
+      <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>9</v>
-      </c>
-      <c r="B89" t="s">
-        <v>29</v>
-      </c>
-      <c r="C89" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D89">
-        <v>367</v>
-      </c>
-      <c r="G89" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="E89">
+        <v>1978</v>
+      </c>
+      <c r="F89" t="s">
+        <v>36</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0.60763888888888895</v>
+      </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B90" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C90" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.61736111111111114</v>
       </c>
       <c r="D90">
-        <v>370</v>
+        <v>3151</v>
       </c>
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>9</v>
-      </c>
-      <c r="B91" t="s">
-        <v>16</v>
-      </c>
-      <c r="C91" s="1">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="D91">
-        <v>397</v>
-      </c>
-      <c r="G91" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="E91">
+        <v>1468</v>
+      </c>
+      <c r="F91" t="s">
+        <v>24</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0.61805555555555558</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>9</v>
-      </c>
-      <c r="B92" t="s">
-        <v>34</v>
-      </c>
-      <c r="C92" s="1">
-        <v>0.68055555555555558</v>
-      </c>
-      <c r="D92">
-        <v>441</v>
-      </c>
-      <c r="G92" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="E92">
+        <v>218</v>
+      </c>
+      <c r="F92" t="s">
+        <v>36</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0.61944444444444446</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C93" s="1"/>
       <c r="E93">
-        <v>4322</v>
+        <v>7138</v>
       </c>
       <c r="F93" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="G93" s="1">
-        <v>0.68611111111111112</v>
+        <v>0.62083333333333335</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>9</v>
-      </c>
-      <c r="B94" t="s">
-        <v>24</v>
-      </c>
-      <c r="C94" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="D94">
-        <v>311</v>
-      </c>
-      <c r="G94" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="E94">
+        <v>629</v>
+      </c>
+      <c r="F94" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0.63055555555555554</v>
+      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>9</v>
-      </c>
-      <c r="B95" t="s">
-        <v>18</v>
-      </c>
-      <c r="C95" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="D95">
-        <v>318</v>
-      </c>
-      <c r="G95" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="E95">
+        <v>1104</v>
+      </c>
+      <c r="F95" t="s">
+        <v>30</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0.63958333333333328</v>
+      </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B96" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C96" s="1">
-        <v>0.69097222222222221</v>
+        <v>0.64166666666666672</v>
       </c>
       <c r="D96">
-        <v>423</v>
+        <v>1290</v>
       </c>
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C97" s="1">
-        <v>0.69097222222222221</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="D97">
-        <v>555</v>
+        <v>382</v>
       </c>
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C98" s="1"/>
       <c r="E98">
-        <v>1130</v>
+        <v>317</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G98" s="1">
-        <v>0.69444444444444453</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>7</v>
-      </c>
-      <c r="B99" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="1">
-        <v>0.69722222222222219</v>
-      </c>
-      <c r="D99">
-        <v>4327</v>
-      </c>
-      <c r="G99" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="E99">
+        <v>356</v>
+      </c>
+      <c r="F99" t="s">
+        <v>27</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0.65902777777777777</v>
+      </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B100" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C100" s="1">
-        <v>0.70138888888888884</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D100">
-        <v>322</v>
+        <v>370</v>
       </c>
       <c r="G100" s="1"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" s="1"/>
-      <c r="E101">
-        <v>548</v>
-      </c>
-      <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" s="1">
-        <v>0.71875</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B101" t="s">
+        <v>39</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="D101">
+        <v>397</v>
+      </c>
+      <c r="G101" s="1"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102" s="1"/>
-      <c r="E102">
-        <v>560</v>
-      </c>
-      <c r="F102" t="s">
-        <v>19</v>
-      </c>
-      <c r="G102" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B102" t="s">
+        <v>30</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="D102">
+        <v>441</v>
+      </c>
+      <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="1"/>
-      <c r="E103">
-        <v>617</v>
-      </c>
-      <c r="F103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B103" t="s">
+        <v>40</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="D103">
+        <v>651</v>
+      </c>
+      <c r="G103" s="1"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104" s="1"/>
-      <c r="E104">
-        <v>620</v>
-      </c>
-      <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B104" t="s">
+        <v>27</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="D104">
+        <v>311</v>
+      </c>
+      <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C105" s="1">
-        <v>0.73333333333333328</v>
+        <v>0.6875</v>
       </c>
       <c r="D105">
-        <v>4351</v>
+        <v>618</v>
       </c>
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C106" s="1"/>
       <c r="E106">
-        <v>448</v>
+        <v>1130</v>
       </c>
       <c r="F106" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G106" s="1">
-        <v>0.74305555555555558</v>
+        <v>0.69444444444444453</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>9</v>
       </c>
-      <c r="C107" s="1"/>
-      <c r="E107">
-        <v>534</v>
-      </c>
-      <c r="F107" t="s">
+      <c r="B107" t="s">
         <v>10</v>
       </c>
-      <c r="G107" s="1">
-        <v>0.74305555555555558</v>
-      </c>
+      <c r="C107" s="1">
+        <v>0.69722222222222219</v>
+      </c>
+      <c r="D107">
+        <v>4327</v>
+      </c>
+      <c r="G107" s="1"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>7</v>
       </c>
-      <c r="C108" s="1"/>
-      <c r="E108">
-        <v>4308</v>
-      </c>
-      <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" s="1">
-        <v>0.74583333333333335</v>
-      </c>
+      <c r="B108" t="s">
+        <v>34</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D108">
+        <v>322</v>
+      </c>
+      <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>9</v>
-      </c>
-      <c r="B109" t="s">
-        <v>18</v>
-      </c>
-      <c r="C109" s="1">
-        <v>0.74652777777777779</v>
-      </c>
-      <c r="D109">
-        <v>612</v>
-      </c>
-      <c r="G109" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="E109">
+        <v>530</v>
+      </c>
+      <c r="F109" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C110" s="1"/>
       <c r="E110">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G110" s="1">
-        <v>0.76041666666666663</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -2236,57 +2242,57 @@
       </c>
       <c r="C111" s="1"/>
       <c r="E111">
-        <v>4312</v>
+        <v>550</v>
       </c>
       <c r="F111" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G111" s="1">
-        <v>0.77638888888888891</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>43</v>
-      </c>
-      <c r="B112" t="s">
-        <v>45</v>
-      </c>
-      <c r="C112" s="1">
-        <v>0.78125</v>
-      </c>
-      <c r="D112">
-        <v>931</v>
-      </c>
-      <c r="G112" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="E112">
+        <v>560</v>
+      </c>
+      <c r="F112" t="s">
+        <v>21</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>37</v>
-      </c>
-      <c r="B113" t="s">
-        <v>14</v>
-      </c>
-      <c r="C113" s="1">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D113">
-        <v>222</v>
-      </c>
-      <c r="G113" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="E113">
+        <v>620</v>
+      </c>
+      <c r="F113" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C114" s="1">
-        <v>0.79513888888888884</v>
+        <v>0.73472222222222228</v>
       </c>
       <c r="D114">
-        <v>431</v>
+        <v>4321</v>
       </c>
       <c r="G114" s="1"/>
     </row>
@@ -2294,44 +2300,44 @@
       <c r="A115" t="s">
         <v>9</v>
       </c>
-      <c r="B115" t="s">
-        <v>20</v>
-      </c>
-      <c r="C115" s="1">
-        <v>0.79513888888888884</v>
-      </c>
-      <c r="D115">
-        <v>565</v>
-      </c>
-      <c r="G115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="E115">
+        <v>4308</v>
+      </c>
+      <c r="F115" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" s="1">
+        <v>0.74583333333333335</v>
+      </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C116" s="1"/>
       <c r="E116">
-        <v>670</v>
+        <v>528</v>
       </c>
       <c r="F116" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G116" s="1">
-        <v>0.8125</v>
+        <v>0.76041666666666663</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B117" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C117" s="1">
-        <v>0.81944444444444442</v>
+        <v>0.7631944444444444</v>
       </c>
       <c r="D117">
-        <v>425</v>
+        <v>4040</v>
       </c>
       <c r="G117" s="1"/>
     </row>
@@ -2339,300 +2345,300 @@
       <c r="A118" t="s">
         <v>9</v>
       </c>
-      <c r="B118" t="s">
-        <v>11</v>
-      </c>
-      <c r="C118" s="1">
-        <v>0.82638888888888884</v>
-      </c>
-      <c r="D118">
-        <v>523</v>
-      </c>
-      <c r="G118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="E118">
+        <v>4312</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="1">
+        <v>0.77638888888888891</v>
+      </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>9</v>
-      </c>
-      <c r="B119" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" s="1">
-        <v>0.82986111111111116</v>
-      </c>
-      <c r="D119">
-        <v>583</v>
-      </c>
-      <c r="G119" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C119" s="1"/>
+      <c r="E119">
+        <v>558</v>
+      </c>
+      <c r="F119" t="s">
+        <v>21</v>
+      </c>
+      <c r="G119" s="1">
+        <v>0.78819444444444442</v>
+      </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C120" s="1">
-        <v>0.84375</v>
+        <v>0.79027777777777775</v>
       </c>
       <c r="D120">
-        <v>325</v>
+        <v>4331</v>
       </c>
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B121" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C121" s="1">
-        <v>0.84375</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D121">
-        <v>445</v>
+        <v>222</v>
       </c>
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>9</v>
-      </c>
-      <c r="C122" s="1"/>
-      <c r="E122">
-        <v>590</v>
-      </c>
-      <c r="F122" t="s">
-        <v>8</v>
-      </c>
-      <c r="G122" s="1">
-        <v>0.85069444444444442</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B122" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" s="1">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="D122">
+        <v>431</v>
+      </c>
+      <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B123" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C123" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="D123">
-        <v>393</v>
+        <v>565</v>
       </c>
       <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>9</v>
-      </c>
-      <c r="B124" t="s">
-        <v>40</v>
-      </c>
-      <c r="C124" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D124">
-        <v>449</v>
-      </c>
-      <c r="G124" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C124" s="1"/>
+      <c r="E124">
+        <v>4041</v>
+      </c>
+      <c r="F124" t="s">
+        <v>20</v>
+      </c>
+      <c r="G124" s="1">
+        <v>0.79513888888888884</v>
+      </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>25</v>
-      </c>
-      <c r="B125" t="s">
-        <v>26</v>
-      </c>
-      <c r="C125" s="1">
-        <v>0.85972222222222217</v>
-      </c>
-      <c r="D125">
-        <v>881</v>
-      </c>
-      <c r="G125" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="E125">
+        <v>670</v>
+      </c>
+      <c r="F125" t="s">
+        <v>22</v>
+      </c>
+      <c r="G125" s="1">
+        <v>0.8125</v>
+      </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B126" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C126" s="1">
-        <v>0.86805555555555558</v>
+        <v>0.81944444444444442</v>
       </c>
       <c r="D126">
-        <v>563</v>
+        <v>425</v>
       </c>
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B127" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C127" s="1">
-        <v>0.87152777777777779</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="D127">
-        <v>316</v>
+        <v>523</v>
       </c>
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B128" t="s">
         <v>10</v>
       </c>
       <c r="C128" s="1">
-        <v>0.875</v>
+        <v>0.82986111111111116</v>
       </c>
       <c r="D128">
-        <v>535</v>
+        <v>583</v>
       </c>
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>37</v>
-      </c>
-      <c r="C129" s="1"/>
-      <c r="E129">
-        <v>222</v>
-      </c>
-      <c r="F129" t="s">
-        <v>47</v>
-      </c>
-      <c r="G129" s="1">
-        <v>0.875</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B129" t="s">
+        <v>43</v>
+      </c>
+      <c r="C129" s="1">
+        <v>0.83680555555555558</v>
+      </c>
+      <c r="D129">
+        <v>329</v>
+      </c>
+      <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B130" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C130" s="1">
-        <v>0.87847222222222221</v>
+        <v>0.84375</v>
       </c>
       <c r="D130">
-        <v>525</v>
+        <v>325</v>
       </c>
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>9</v>
-      </c>
-      <c r="B131" t="s">
-        <v>14</v>
-      </c>
-      <c r="C131" s="1">
-        <v>0.87847222222222221</v>
-      </c>
-      <c r="D131">
-        <v>557</v>
-      </c>
-      <c r="G131" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C131" s="1"/>
+      <c r="E131">
+        <v>590</v>
+      </c>
+      <c r="F131" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="1">
+        <v>0.85069444444444442</v>
+      </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B132" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C132" s="1">
-        <v>0.87847222222222221</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D132">
-        <v>616</v>
+        <v>393</v>
       </c>
       <c r="G132" s="1"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B133" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C133" s="1">
-        <v>0.8881944444444444</v>
+        <v>0.85972222222222217</v>
       </c>
       <c r="D133">
-        <v>1461</v>
+        <v>881</v>
       </c>
       <c r="G133" s="1"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C134" s="1">
-        <v>0.91319444444444442</v>
+        <v>0.86805555555555558</v>
       </c>
       <c r="D134">
-        <v>585</v>
+        <v>443</v>
       </c>
       <c r="G134" s="1"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>9</v>
-      </c>
-      <c r="C135" s="1"/>
-      <c r="E135">
-        <v>365</v>
-      </c>
-      <c r="F135" t="s">
-        <v>15</v>
-      </c>
-      <c r="G135" s="1">
-        <v>0.92013888888888884</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B135" t="s">
+        <v>21</v>
+      </c>
+      <c r="C135" s="1">
+        <v>0.86805555555555558</v>
+      </c>
+      <c r="D135">
+        <v>563</v>
+      </c>
+      <c r="G135" s="1"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>9</v>
-      </c>
-      <c r="C136" s="1"/>
-      <c r="E136">
-        <v>600</v>
-      </c>
-      <c r="F136" t="s">
-        <v>8</v>
-      </c>
-      <c r="G136" s="1">
-        <v>0.92013888888888884</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B136" t="s">
+        <v>34</v>
+      </c>
+      <c r="C136" s="1">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="D136">
+        <v>316</v>
+      </c>
+      <c r="G136" s="1"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C137" s="1"/>
       <c r="E137">
-        <v>429</v>
+        <v>222</v>
       </c>
       <c r="F137" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="G137" s="1">
-        <v>0.92361111111111116</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -2640,149 +2646,149 @@
         <v>7</v>
       </c>
       <c r="B138" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C138" s="1">
-        <v>0.92986111111111114</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D138">
-        <v>4339</v>
+        <v>409</v>
       </c>
       <c r="G138" s="1"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>9</v>
-      </c>
-      <c r="C139" s="1"/>
-      <c r="E139">
-        <v>578</v>
-      </c>
-      <c r="F139" t="s">
-        <v>14</v>
-      </c>
-      <c r="G139" s="1">
-        <v>0.93055555555555558</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B139" t="s">
+        <v>45</v>
+      </c>
+      <c r="C139" s="1">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="D139">
+        <v>527</v>
+      </c>
+      <c r="G139" s="1"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>9</v>
-      </c>
-      <c r="C140" s="1"/>
-      <c r="E140">
-        <v>627</v>
-      </c>
-      <c r="F140" t="s">
-        <v>18</v>
-      </c>
-      <c r="G140" s="1">
-        <v>0.93402777777777779</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B140" t="s">
+        <v>24</v>
+      </c>
+      <c r="C140" s="1">
+        <v>0.8881944444444444</v>
+      </c>
+      <c r="D140">
+        <v>1461</v>
+      </c>
+      <c r="G140" s="1"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>9</v>
-      </c>
-      <c r="C141" s="1"/>
-      <c r="E141">
-        <v>574</v>
-      </c>
-      <c r="F141" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="1">
-        <v>0.9375</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B141" t="s">
+        <v>20</v>
+      </c>
+      <c r="C141" s="1">
+        <v>0.89236111111111116</v>
+      </c>
+      <c r="D141">
+        <v>608</v>
+      </c>
+      <c r="G141" s="1"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>9</v>
-      </c>
-      <c r="C142" s="1"/>
-      <c r="E142">
-        <v>315</v>
-      </c>
-      <c r="F142" t="s">
-        <v>16</v>
-      </c>
-      <c r="G142" s="1">
-        <v>0.94097222222222221</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B142" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" s="1">
+        <v>0.91319444444444442</v>
+      </c>
+      <c r="D142">
+        <v>585</v>
+      </c>
+      <c r="G142" s="1"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C143" s="1"/>
       <c r="E143">
-        <v>658</v>
+        <v>365</v>
       </c>
       <c r="F143" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G143" s="1">
-        <v>0.94444444444444442</v>
+        <v>0.92013888888888884</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>12</v>
-      </c>
-      <c r="B144" t="s">
-        <v>41</v>
-      </c>
-      <c r="C144" s="1">
-        <v>0.94930555555555562</v>
-      </c>
-      <c r="D144">
-        <v>1425</v>
-      </c>
-      <c r="G144" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C144" s="1"/>
+      <c r="E144">
+        <v>580</v>
+      </c>
+      <c r="F144" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="1">
+        <v>0.92013888888888884</v>
+      </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C145" s="1"/>
       <c r="E145">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="F145" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="G145" s="1">
-        <v>0.95486111111111116</v>
+        <v>0.92361111111111116</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C146" s="1"/>
       <c r="E146">
-        <v>457</v>
+        <v>578</v>
       </c>
       <c r="F146" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G146" s="1">
-        <v>0.95486111111111116</v>
+        <v>0.93055555555555558</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C147" s="1"/>
       <c r="E147">
-        <v>432</v>
+        <v>651</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="G147" s="1">
-        <v>0.95833333333333337</v>
+        <v>0.93402777777777779</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -2791,59 +2797,74 @@
       </c>
       <c r="C148" s="1"/>
       <c r="E148">
-        <v>4336</v>
+        <v>315</v>
       </c>
       <c r="F148" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G148" s="1">
-        <v>0.97152777777777777</v>
+        <v>0.94097222222222221</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C149" s="1"/>
       <c r="E149">
-        <v>326</v>
+        <v>658</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="G149" s="1">
-        <v>0.97569444444444442</v>
+        <v>0.94444444444444442</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>25</v>
-      </c>
-      <c r="B150" t="s">
-        <v>26</v>
-      </c>
-      <c r="C150" s="1">
-        <v>0.98333333333333339</v>
-      </c>
-      <c r="D150">
-        <v>878</v>
-      </c>
-      <c r="G150" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C150" s="1"/>
+      <c r="E150">
+        <v>452</v>
+      </c>
+      <c r="F150" t="s">
+        <v>8</v>
+      </c>
+      <c r="G150" s="1">
+        <v>0.95486111111111116</v>
+      </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C151" s="1"/>
       <c r="E151">
-        <v>339</v>
+        <v>457</v>
       </c>
       <c r="F151" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="G151" s="1">
-        <v>0.99583333333333324</v>
-      </c>
+        <v>0.95486111111111116</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>33</v>
+      </c>
+      <c r="B152" t="s">
+        <v>34</v>
+      </c>
+      <c r="C152" s="1">
+        <v>0.98333333333333339</v>
+      </c>
+      <c r="D152">
+        <v>878</v>
+      </c>
+      <c r="G152" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/operaciones.xlsx
+++ b/public/operaciones.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulm\Desktop\Itinerarios_2026-01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulm\Desktop\Itinerarios_2026-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF69E05C-30F2-4151-8F35-A998D64A19BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C11080-1361-40F1-BC12-DC8431731263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{13210586-4E95-422C-8EB1-3CC34E54F18D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F6E9FF54-FAB0-4FF7-9FD5-EF8E2C7A7446}"/>
   </bookViews>
   <sheets>
-    <sheet name="31-01" sheetId="1" r:id="rId1"/>
+    <sheet name="03-02" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="47">
   <si>
     <t>AEROLINEA</t>
   </si>
@@ -77,6 +77,9 @@
     <t>MHLM</t>
   </si>
   <si>
+    <t>KOAK</t>
+  </si>
+  <si>
     <t>KLAX</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
     <t>SEQM</t>
   </si>
   <si>
+    <t>KJFK</t>
+  </si>
+  <si>
     <t>MMMX</t>
   </si>
   <si>
@@ -95,6 +101,9 @@
     <t>SKBO</t>
   </si>
   <si>
+    <t>MNMG</t>
+  </si>
+  <si>
     <t>SPJC</t>
   </si>
   <si>
@@ -104,78 +113,54 @@
     <t>KSFO</t>
   </si>
   <si>
-    <t>KJFK</t>
-  </si>
-  <si>
-    <t>FFT</t>
+    <t>KEWR</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>KMIA</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>MPTO</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>KATL</t>
   </si>
   <si>
     <t>KIAH</t>
   </si>
   <si>
+    <t>AMX</t>
+  </si>
+  <si>
+    <t>KDFW</t>
+  </si>
+  <si>
     <t>NKS</t>
   </si>
   <si>
     <t>KFLL</t>
   </si>
   <si>
-    <t>KMIA</t>
+    <t>SKRG</t>
+  </si>
+  <si>
+    <t>MMUN</t>
+  </si>
+  <si>
+    <t>IBE</t>
   </si>
   <si>
     <t>CYYZ</t>
   </si>
   <si>
-    <t>KEWR</t>
-  </si>
-  <si>
-    <t>KDFW</t>
-  </si>
-  <si>
-    <t>KMCO</t>
-  </si>
-  <si>
-    <t>AAL</t>
-  </si>
-  <si>
-    <t>CMP</t>
-  </si>
-  <si>
-    <t>MPTO</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>KATL</t>
-  </si>
-  <si>
-    <t>AMX</t>
-  </si>
-  <si>
-    <t>SKRG</t>
-  </si>
-  <si>
-    <t>MNMG</t>
-  </si>
-  <si>
-    <t>MMUN</t>
-  </si>
-  <si>
-    <t>VOC</t>
-  </si>
-  <si>
-    <t>IBE</t>
-  </si>
-  <si>
-    <t>CYUL</t>
-  </si>
-  <si>
-    <t>KORD</t>
-  </si>
-  <si>
-    <t>KLAS</t>
-  </si>
-  <si>
     <t>DHL</t>
   </si>
   <si>
@@ -185,19 +170,19 @@
     <t>FDX</t>
   </si>
   <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>MHTG</t>
+  </si>
+  <si>
     <t>LEMD</t>
-  </si>
-  <si>
-    <t>TPA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="hh:mm"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -229,7 +214,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,10 +548,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB812BE8-E88D-4F27-A6FE-DC1D6ACB6313}">
-  <dimension ref="A1:G152"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CB4DE2-CCC6-49F1-9379-41504D29A093}">
+  <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A121" activeCellId="3" sqref="A53:XFD53 A64:XFD64 A90:XFD90 A121:XFD121"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -603,14 +590,14 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1"/>
       <c r="E2">
         <v>1670</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1">
         <v>0.125</v>
@@ -618,166 +605,166 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="E3">
-        <v>4156</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.14791666666666667</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.18402777777777779</v>
+      </c>
+      <c r="D3">
+        <v>222</v>
+      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
-        <v>0.15972222222222224</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="D4">
-        <v>222</v>
+        <v>453</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1"/>
       <c r="E5">
-        <v>224</v>
+        <v>879</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1">
-        <v>0.20138888888888887</v>
+        <v>0.20972222222222223</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>0.20833333333333334</v>
+        <v>0.21875</v>
       </c>
       <c r="D6">
-        <v>453</v>
+        <v>4313</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1">
-        <v>0.20972222222222223</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="D7">
-        <v>4313</v>
+        <v>531</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="E8">
-        <v>879</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.21041666666666667</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D8">
+        <v>575</v>
+      </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1">
-        <v>0.22222222222222221</v>
+        <v>0.22569444444444445</v>
       </c>
       <c r="D9">
-        <v>531</v>
+        <v>224</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1">
-        <v>0.22222222222222221</v>
+        <v>0.23472222222222222</v>
       </c>
       <c r="D10">
-        <v>575</v>
+        <v>4323</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
-        <v>0.22569444444444445</v>
+        <v>0.23541666666666666</v>
       </c>
       <c r="D11">
-        <v>533</v>
+        <v>4309</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1">
-        <v>0.23541666666666666</v>
+        <v>0.23958333333333334</v>
       </c>
       <c r="D12">
-        <v>4309</v>
+        <v>1266</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1">
-        <v>0.23958333333333334</v>
+        <v>0.24652777777777779</v>
       </c>
       <c r="D13">
-        <v>1266</v>
+        <v>456</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -786,13 +773,13 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1">
         <v>0.24652777777777779</v>
       </c>
       <c r="D14">
-        <v>456</v>
+        <v>567</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -801,7 +788,7 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1">
         <v>0.25347222222222221</v>
@@ -816,7 +803,7 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1">
         <v>0.25694444444444442</v>
@@ -831,7 +818,7 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1">
         <v>0.26041666666666669</v>
@@ -846,7 +833,7 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1">
         <v>0.26041666666666669</v>
@@ -858,46 +845,46 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="E19">
-        <v>4326</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="1">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1">
         <v>0.2638888888888889</v>
       </c>
+      <c r="D19">
+        <v>314</v>
+      </c>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.2673611111111111</v>
-      </c>
-      <c r="D20">
-        <v>428</v>
-      </c>
-      <c r="G20" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="E20">
+        <v>4326</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.2638888888888889</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1">
         <v>0.2673611111111111</v>
       </c>
       <c r="D21">
-        <v>650</v>
+        <v>428</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -906,13 +893,13 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D22">
-        <v>561</v>
+        <v>650</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -921,13 +908,13 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1">
         <v>0.27083333333333331</v>
       </c>
       <c r="D23">
-        <v>591</v>
+        <v>561</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -936,45 +923,45 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1">
         <v>0.27083333333333331</v>
       </c>
       <c r="D24">
-        <v>671</v>
+        <v>571</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="E25">
-        <v>1467</v>
-      </c>
-      <c r="F25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.28819444444444448</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D25">
+        <v>591</v>
+      </c>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="D26">
-        <v>621</v>
-      </c>
-      <c r="G26" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="E26">
+        <v>1467</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.28819444444444448</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -985,7 +972,7 @@
         <v>4330</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G27" s="1">
         <v>0.29166666666666669</v>
@@ -997,10 +984,10 @@
       </c>
       <c r="C28" s="1"/>
       <c r="E28">
-        <v>321</v>
+        <v>396</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G28" s="1">
         <v>0.3125</v>
@@ -1012,13 +999,13 @@
       </c>
       <c r="C29" s="1"/>
       <c r="E29">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G29" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1027,28 +1014,28 @@
       </c>
       <c r="C30" s="1"/>
       <c r="E30">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G30" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C31" s="1"/>
       <c r="E31">
-        <v>884</v>
+        <v>536</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="G31" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1057,13 +1044,13 @@
       </c>
       <c r="C32" s="1"/>
       <c r="E32">
-        <v>310</v>
+        <v>562</v>
       </c>
       <c r="F32" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G32" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1072,13 +1059,13 @@
       </c>
       <c r="C33" s="1"/>
       <c r="E33">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G33" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1087,13 +1074,13 @@
       </c>
       <c r="C34" s="1"/>
       <c r="E34">
-        <v>440</v>
+        <v>383</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G34" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1102,44 +1089,44 @@
       </c>
       <c r="C35" s="1"/>
       <c r="E35">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G35" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="E36">
-        <v>562</v>
-      </c>
-      <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0.32291666666666669</v>
-      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="D36">
+        <v>581</v>
+      </c>
+      <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="1"/>
+      <c r="E37">
+        <v>660</v>
+      </c>
+      <c r="F37" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="1">
-        <v>0.3298611111111111</v>
-      </c>
-      <c r="D37">
-        <v>549</v>
-      </c>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1">
+        <v>0.33680555555555558</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -1147,13 +1134,13 @@
       </c>
       <c r="C38" s="1"/>
       <c r="E38">
-        <v>383</v>
+        <v>454</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G38" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1162,43 +1149,43 @@
       </c>
       <c r="C39" s="1"/>
       <c r="E39">
-        <v>522</v>
+        <v>572</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G39" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0.33680555555555558</v>
-      </c>
-      <c r="D40">
-        <v>601</v>
-      </c>
-      <c r="G40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="E40">
+        <v>324</v>
+      </c>
+      <c r="F40" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.34375</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C41" s="1"/>
       <c r="E41">
-        <v>564</v>
+        <v>884</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G41" s="1">
-        <v>0.33680555555555558</v>
+        <v>0.3576388888888889</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1207,13 +1194,13 @@
       </c>
       <c r="C42" s="1"/>
       <c r="E42">
-        <v>454</v>
+        <v>369</v>
       </c>
       <c r="F42" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="G42" s="1">
-        <v>0.34027777777777779</v>
+        <v>0.37847222222222221</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1222,13 +1209,13 @@
       </c>
       <c r="C43" s="1"/>
       <c r="E43">
-        <v>572</v>
+        <v>430</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G43" s="1">
-        <v>0.34027777777777779</v>
+        <v>0.37847222222222221</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1237,29 +1224,29 @@
       </c>
       <c r="C44" s="1"/>
       <c r="E44">
-        <v>324</v>
+        <v>582</v>
       </c>
       <c r="F44" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G44" s="1">
-        <v>0.34375</v>
+        <v>0.39930555555555558</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="E45">
-        <v>526</v>
-      </c>
-      <c r="F45" t="s">
-        <v>45</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0.375</v>
-      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="D45">
+        <v>659</v>
+      </c>
+      <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -1267,13 +1254,13 @@
       </c>
       <c r="C46" s="1"/>
       <c r="E46">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="G46" s="1">
-        <v>0.37847222222222221</v>
+        <v>0.41319444444444442</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1282,28 +1269,28 @@
       </c>
       <c r="C47" s="1"/>
       <c r="E47">
-        <v>430</v>
+        <v>609</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G47" s="1">
-        <v>0.37847222222222221</v>
+        <v>0.4236111111111111</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C48" s="1"/>
       <c r="E48">
-        <v>582</v>
+        <v>4320</v>
       </c>
       <c r="F48" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G48" s="1">
-        <v>0.39930555555555558</v>
+        <v>0.4236111111111111</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1311,13 +1298,13 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C49" s="1">
-        <v>0.41319444444444442</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D49">
-        <v>659</v>
+        <v>537</v>
       </c>
       <c r="G49" s="1"/>
     </row>
@@ -1325,59 +1312,59 @@
       <c r="A50" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="E50">
-        <v>392</v>
-      </c>
-      <c r="F50" t="s">
-        <v>39</v>
-      </c>
-      <c r="G50" s="1">
-        <v>0.41319444444444442</v>
-      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D50">
+        <v>455</v>
+      </c>
+      <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="E51">
-        <v>408</v>
-      </c>
-      <c r="F51" t="s">
-        <v>44</v>
-      </c>
-      <c r="G51" s="1">
-        <v>0.41666666666666669</v>
-      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D51">
+        <v>573</v>
+      </c>
+      <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C52" s="1">
-        <v>0.4201388888888889</v>
+        <v>0.45347222222222222</v>
       </c>
       <c r="D52">
-        <v>348</v>
+        <v>4337</v>
       </c>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B53" t="s">
         <v>27</v>
       </c>
       <c r="C53" s="1">
-        <v>0.4236111111111111</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="D53">
-        <v>761</v>
+        <v>721</v>
       </c>
       <c r="G53" s="1"/>
     </row>
@@ -1387,159 +1374,159 @@
       </c>
       <c r="C54" s="1"/>
       <c r="E54">
-        <v>609</v>
+        <v>584</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G54" s="1">
-        <v>0.4236111111111111</v>
+        <v>0.49305555555555558</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C55" s="1"/>
       <c r="E55">
-        <v>4320</v>
+        <v>650</v>
       </c>
       <c r="F55" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G55" s="1">
-        <v>0.4236111111111111</v>
+        <v>0.49305555555555558</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7</v>
       </c>
-      <c r="B56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="D56">
-        <v>537</v>
-      </c>
-      <c r="G56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="E56">
+        <v>385</v>
+      </c>
+      <c r="F56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>25</v>
-      </c>
-      <c r="B57" t="s">
-        <v>26</v>
-      </c>
-      <c r="C57" s="1">
-        <v>0.43611111111111112</v>
-      </c>
-      <c r="D57">
-        <v>255</v>
-      </c>
-      <c r="G57" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="E57">
+        <v>442</v>
+      </c>
+      <c r="F57" t="s">
+        <v>34</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="E58">
+        <v>319</v>
+      </c>
+      <c r="F58" t="s">
         <v>23</v>
       </c>
-      <c r="B58" t="s">
-        <v>27</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0.43680555555555556</v>
-      </c>
-      <c r="D58">
-        <v>353</v>
-      </c>
-      <c r="G58" s="1"/>
+      <c r="G58" s="1">
+        <v>0.51041666666666663</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C59" s="1">
-        <v>0.44791666666666669</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="D59">
-        <v>455</v>
+        <v>4</v>
       </c>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C60" s="1">
-        <v>0.4513888888888889</v>
+        <v>0.52152777777777781</v>
       </c>
       <c r="D60">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C61" s="1">
-        <v>0.4513888888888889</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="D61">
-        <v>327</v>
+        <v>720</v>
       </c>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C62" s="1">
-        <v>0.4513888888888889</v>
+        <v>0.52986111111111112</v>
       </c>
       <c r="D62">
-        <v>573</v>
+        <v>816</v>
       </c>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C63" s="1">
-        <v>0.45347222222222222</v>
+        <v>0.55486111111111114</v>
       </c>
       <c r="D63">
-        <v>4337</v>
+        <v>1441</v>
       </c>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C64" s="1">
-        <v>0.45555555555555555</v>
+        <v>0.56041666666666667</v>
       </c>
       <c r="D64">
         <v>8139</v>
@@ -1548,556 +1535,556 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" t="s">
-        <v>18</v>
-      </c>
-      <c r="C65" s="1">
-        <v>0.46180555555555558</v>
-      </c>
-      <c r="D65">
-        <v>70</v>
-      </c>
-      <c r="G65" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="E65">
+        <v>348</v>
+      </c>
+      <c r="F65" t="s">
+        <v>27</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.56319444444444444</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C66" s="1"/>
       <c r="E66">
-        <v>352</v>
+        <v>871</v>
       </c>
       <c r="F66" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G66" s="1">
-        <v>0.46527777777777779</v>
+        <v>0.57291666666666663</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67" s="1"/>
-      <c r="E67">
-        <v>256</v>
-      </c>
-      <c r="F67" t="s">
-        <v>24</v>
-      </c>
-      <c r="G67" s="1">
-        <v>0.47430555555555554</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.5805555555555556</v>
+      </c>
+      <c r="D67">
+        <v>628</v>
+      </c>
+      <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C68" s="1">
-        <v>0.48333333333333334</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="D68">
-        <v>342</v>
+        <v>1035</v>
       </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C69" s="1"/>
       <c r="E69">
-        <v>760</v>
+        <v>1978</v>
       </c>
       <c r="F69" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G69" s="1">
-        <v>0.4861111111111111</v>
+        <v>0.60763888888888895</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C70" s="1"/>
       <c r="E70">
-        <v>584</v>
+        <v>1468</v>
       </c>
       <c r="F70" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G70" s="1">
-        <v>0.49305555555555558</v>
+        <v>0.61805555555555558</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="1"/>
-      <c r="E71">
-        <v>650</v>
-      </c>
-      <c r="F71" t="s">
-        <v>40</v>
-      </c>
-      <c r="G71" s="1">
-        <v>0.49305555555555558</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B71" t="s">
+        <v>36</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.61944444444444446</v>
+      </c>
+      <c r="D71">
+        <v>1031</v>
+      </c>
+      <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C72" s="1"/>
       <c r="E72">
-        <v>349</v>
+        <v>629</v>
       </c>
       <c r="F72" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G72" s="1">
-        <v>0.49583333333333335</v>
+        <v>0.63055555555555554</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C73" s="1"/>
       <c r="E73">
-        <v>424</v>
+        <v>1104</v>
       </c>
       <c r="F73" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G73" s="1">
-        <v>0.50347222222222221</v>
+        <v>0.63958333333333328</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" s="1"/>
-      <c r="E74">
-        <v>442</v>
-      </c>
-      <c r="F74" t="s">
-        <v>30</v>
-      </c>
-      <c r="G74" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.64166666666666672</v>
+      </c>
+      <c r="D74">
+        <v>1290</v>
+      </c>
+      <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="1"/>
-      <c r="E75">
-        <v>71</v>
-      </c>
-      <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="1"/>
-      <c r="E76">
-        <v>619</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="B76" t="s">
         <v>20</v>
       </c>
-      <c r="G76" s="1">
-        <v>0.51041666666666663</v>
-      </c>
+      <c r="C76" s="1">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D76">
+        <v>382</v>
+      </c>
+      <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>23</v>
-      </c>
-      <c r="B77" t="s">
-        <v>31</v>
-      </c>
-      <c r="C77" s="1">
-        <v>0.51458333333333328</v>
-      </c>
-      <c r="D77">
-        <v>63</v>
-      </c>
-      <c r="G77" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="E77">
+        <v>317</v>
+      </c>
+      <c r="F77" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.65625</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B78" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C78" s="1">
-        <v>0.52152777777777781</v>
+        <v>0.66527777777777775</v>
       </c>
       <c r="D78">
-        <v>339</v>
+        <v>7139</v>
       </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C79" s="1">
-        <v>0.52847222222222223</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D79">
-        <v>816</v>
+        <v>367</v>
       </c>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>23</v>
-      </c>
-      <c r="C80" s="1"/>
-      <c r="E80">
-        <v>343</v>
-      </c>
-      <c r="F80" t="s">
-        <v>30</v>
-      </c>
-      <c r="G80" s="1">
-        <v>0.53541666666666665</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>37</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D80">
+        <v>370</v>
+      </c>
+      <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>35</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" s="1"/>
+      <c r="E81">
+        <v>1032</v>
+      </c>
+      <c r="F81" t="s">
         <v>36</v>
       </c>
-      <c r="C81" s="1">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="D81">
-        <v>1910</v>
-      </c>
-      <c r="G81" s="1"/>
+      <c r="G81" s="1">
+        <v>0.66805555555555562</v>
+      </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C82" s="1">
-        <v>0.55486111111111114</v>
+        <v>0.68055555555555558</v>
       </c>
       <c r="D82">
-        <v>1441</v>
+        <v>441</v>
       </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C83" s="1">
-        <v>0.56319444444444444</v>
+        <v>0.68402777777777779</v>
       </c>
       <c r="D83">
-        <v>219</v>
+        <v>651</v>
       </c>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>32</v>
-      </c>
-      <c r="C84" s="1"/>
-      <c r="E84">
-        <v>348</v>
-      </c>
-      <c r="F84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" t="s">
         <v>27</v>
       </c>
-      <c r="G84" s="1">
-        <v>0.56319444444444444</v>
-      </c>
+      <c r="C84" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="D84">
+        <v>311</v>
+      </c>
+      <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" t="s">
         <v>23</v>
       </c>
-      <c r="C85" s="1"/>
-      <c r="E85">
-        <v>62</v>
-      </c>
-      <c r="F85" t="s">
-        <v>31</v>
-      </c>
-      <c r="G85" s="1">
-        <v>0.56666666666666665</v>
-      </c>
+      <c r="C85" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="D85">
+        <v>318</v>
+      </c>
+      <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>37</v>
-      </c>
-      <c r="B86" t="s">
-        <v>16</v>
-      </c>
-      <c r="C86" s="1">
-        <v>0.5805555555555556</v>
-      </c>
-      <c r="D86">
-        <v>628</v>
-      </c>
-      <c r="G86" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="E86">
+        <v>1130</v>
+      </c>
+      <c r="F86" t="s">
+        <v>32</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0.69444444444444453</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>33</v>
-      </c>
-      <c r="C87" s="1"/>
-      <c r="E87">
-        <v>871</v>
-      </c>
-      <c r="F87" t="s">
-        <v>34</v>
-      </c>
-      <c r="G87" s="1">
-        <v>0.58611111111111114</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.69722222222222219</v>
+      </c>
+      <c r="D87">
+        <v>4327</v>
+      </c>
+      <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>32</v>
-      </c>
-      <c r="B88" t="s">
-        <v>30</v>
-      </c>
-      <c r="C88" s="1">
-        <v>0.59791666666666665</v>
-      </c>
-      <c r="D88">
-        <v>1035</v>
-      </c>
-      <c r="G88" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="E88">
+        <v>530</v>
+      </c>
+      <c r="F88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C89" s="1"/>
       <c r="E89">
-        <v>1978</v>
+        <v>560</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G89" s="1">
-        <v>0.60763888888888895</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>32</v>
-      </c>
-      <c r="B90" t="s">
-        <v>27</v>
-      </c>
-      <c r="C90" s="1">
-        <v>0.61736111111111114</v>
-      </c>
-      <c r="D90">
-        <v>3151</v>
-      </c>
-      <c r="G90" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="E90">
+        <v>588</v>
+      </c>
+      <c r="F90" t="s">
+        <v>19</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C91" s="1"/>
       <c r="E91">
-        <v>1468</v>
+        <v>615</v>
       </c>
       <c r="F91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G91" s="1">
-        <v>0.61805555555555558</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>23</v>
-      </c>
-      <c r="C92" s="1"/>
-      <c r="E92">
-        <v>218</v>
-      </c>
-      <c r="F92" t="s">
-        <v>36</v>
-      </c>
-      <c r="G92" s="1">
-        <v>0.61944444444444446</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B92" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.73472222222222228</v>
+      </c>
+      <c r="D92">
+        <v>4321</v>
+      </c>
+      <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C93" s="1"/>
       <c r="E93">
-        <v>7138</v>
+        <v>448</v>
       </c>
       <c r="F93" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G93" s="1">
-        <v>0.62083333333333335</v>
+        <v>0.74305555555555558</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C94" s="1"/>
       <c r="E94">
-        <v>629</v>
+        <v>534</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G94" s="1">
-        <v>0.63055555555555554</v>
+        <v>0.74305555555555558</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C95" s="1"/>
       <c r="E95">
-        <v>1104</v>
+        <v>4308</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G95" s="1">
-        <v>0.63958333333333328</v>
+        <v>0.74583333333333335</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="E96">
+        <v>528</v>
+      </c>
+      <c r="F96" t="s">
         <v>14</v>
       </c>
-      <c r="B96" t="s">
-        <v>24</v>
-      </c>
-      <c r="C96" s="1">
-        <v>0.64166666666666672</v>
-      </c>
-      <c r="D96">
-        <v>1290</v>
-      </c>
-      <c r="G96" s="1"/>
+      <c r="G96" s="1">
+        <v>0.76041666666666663</v>
+      </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C97" s="1">
-        <v>0.65277777777777779</v>
+        <v>0.7631944444444444</v>
       </c>
       <c r="D97">
-        <v>382</v>
+        <v>4040</v>
       </c>
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C98" s="1"/>
       <c r="E98">
-        <v>317</v>
+        <v>4312</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G98" s="1">
-        <v>0.65625</v>
+        <v>0.77638888888888891</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>32</v>
-      </c>
-      <c r="C99" s="1"/>
-      <c r="E99">
-        <v>356</v>
-      </c>
-      <c r="F99" t="s">
-        <v>27</v>
-      </c>
-      <c r="G99" s="1">
-        <v>0.65902777777777777</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B99" t="s">
+        <v>45</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="D99">
+        <v>930</v>
+      </c>
+      <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>7</v>
       </c>
-      <c r="B100" t="s">
-        <v>38</v>
-      </c>
-      <c r="C100" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D100">
-        <v>370</v>
-      </c>
-      <c r="G100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="E100">
+        <v>558</v>
+      </c>
+      <c r="F100" t="s">
+        <v>24</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0.78819444444444442</v>
+      </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C101" s="1">
-        <v>0.67361111111111116</v>
+        <v>0.79027777777777775</v>
       </c>
       <c r="D101">
-        <v>397</v>
+        <v>4331</v>
       </c>
       <c r="G101" s="1"/>
     </row>
@@ -2106,13 +2093,13 @@
         <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C102" s="1">
-        <v>0.68055555555555558</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="D102">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="G102" s="1"/>
     </row>
@@ -2121,88 +2108,88 @@
         <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C103" s="1">
-        <v>0.68402777777777779</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="D103">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="G103" s="1"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>7</v>
-      </c>
-      <c r="B104" t="s">
-        <v>27</v>
-      </c>
-      <c r="C104" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="D104">
-        <v>311</v>
-      </c>
-      <c r="G104" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="E104">
+        <v>4041</v>
+      </c>
+      <c r="F104" t="s">
+        <v>23</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0.79513888888888884</v>
+      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>7</v>
-      </c>
-      <c r="B105" t="s">
-        <v>20</v>
-      </c>
-      <c r="C105" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="D105">
-        <v>618</v>
-      </c>
-      <c r="G105" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="E105">
+        <v>4300</v>
+      </c>
+      <c r="F105" t="s">
+        <v>18</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0.81180555555555556</v>
+      </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>14</v>
-      </c>
-      <c r="C106" s="1"/>
-      <c r="E106">
-        <v>1130</v>
-      </c>
-      <c r="F106" t="s">
-        <v>24</v>
-      </c>
-      <c r="G106" s="1">
-        <v>0.69444444444444453</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B106" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="D106">
+        <v>222</v>
+      </c>
+      <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>9</v>
-      </c>
-      <c r="B107" t="s">
-        <v>10</v>
-      </c>
-      <c r="C107" s="1">
-        <v>0.69722222222222219</v>
-      </c>
-      <c r="D107">
-        <v>4327</v>
-      </c>
-      <c r="G107" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="E107">
+        <v>570</v>
+      </c>
+      <c r="F107" t="s">
+        <v>17</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0.8125</v>
+      </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B108" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C108" s="1">
-        <v>0.70138888888888884</v>
+        <v>0.82291666666666663</v>
       </c>
       <c r="D108">
-        <v>322</v>
+        <v>932</v>
       </c>
       <c r="G108" s="1"/>
     </row>
@@ -2210,46 +2197,46 @@
       <c r="A109" t="s">
         <v>7</v>
       </c>
-      <c r="C109" s="1"/>
-      <c r="E109">
-        <v>530</v>
-      </c>
-      <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+      <c r="B109" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="D109">
+        <v>523</v>
+      </c>
+      <c r="G109" s="1"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>7</v>
       </c>
-      <c r="C110" s="1"/>
-      <c r="E110">
-        <v>532</v>
-      </c>
-      <c r="F110" t="s">
-        <v>13</v>
-      </c>
-      <c r="G110" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+      <c r="B110" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="D110">
+        <v>583</v>
+      </c>
+      <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>7</v>
       </c>
-      <c r="C111" s="1"/>
-      <c r="E111">
-        <v>550</v>
-      </c>
-      <c r="F111" t="s">
-        <v>17</v>
-      </c>
-      <c r="G111" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+      <c r="B111" t="s">
+        <v>40</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="D111">
+        <v>325</v>
+      </c>
+      <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -2257,162 +2244,162 @@
       </c>
       <c r="C112" s="1"/>
       <c r="E112">
-        <v>560</v>
+        <v>590</v>
       </c>
       <c r="F112" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G112" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.85069444444444442</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>7</v>
       </c>
-      <c r="C113" s="1"/>
-      <c r="E113">
-        <v>620</v>
-      </c>
-      <c r="F113" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+      <c r="B113" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D113">
+        <v>393</v>
+      </c>
+      <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B114" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C114" s="1">
-        <v>0.73472222222222228</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D114">
-        <v>4321</v>
+        <v>449</v>
       </c>
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>9</v>
-      </c>
-      <c r="C115" s="1"/>
-      <c r="E115">
-        <v>4308</v>
-      </c>
-      <c r="F115" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" s="1">
-        <v>0.74583333333333335</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B115" t="s">
+        <v>29</v>
+      </c>
+      <c r="C115" s="1">
+        <v>0.86041666666666661</v>
+      </c>
+      <c r="D115">
+        <v>881</v>
+      </c>
+      <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>7</v>
       </c>
-      <c r="C116" s="1"/>
-      <c r="E116">
-        <v>528</v>
-      </c>
-      <c r="F116" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116" s="1">
-        <v>0.76041666666666663</v>
-      </c>
+      <c r="B116" t="s">
+        <v>34</v>
+      </c>
+      <c r="C116" s="1">
+        <v>0.86805555555555558</v>
+      </c>
+      <c r="D116">
+        <v>443</v>
+      </c>
+      <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B117" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C117" s="1">
-        <v>0.7631944444444444</v>
+        <v>0.86805555555555558</v>
       </c>
       <c r="D117">
-        <v>4040</v>
+        <v>563</v>
       </c>
       <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>9</v>
-      </c>
-      <c r="C118" s="1"/>
-      <c r="E118">
-        <v>4312</v>
-      </c>
-      <c r="F118" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="1">
-        <v>0.77638888888888891</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="D118">
+        <v>535</v>
+      </c>
+      <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C119" s="1"/>
       <c r="E119">
-        <v>558</v>
+        <v>222</v>
       </c>
       <c r="F119" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="G119" s="1">
-        <v>0.78819444444444442</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C120" s="1">
-        <v>0.79027777777777775</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D120">
-        <v>4331</v>
+        <v>589</v>
       </c>
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B121" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C121" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D121">
-        <v>222</v>
+        <v>614</v>
       </c>
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B122" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C122" s="1">
-        <v>0.79513888888888884</v>
+        <v>0.8881944444444444</v>
       </c>
       <c r="D122">
-        <v>431</v>
+        <v>1461</v>
       </c>
       <c r="G122" s="1"/>
     </row>
@@ -2421,30 +2408,30 @@
         <v>7</v>
       </c>
       <c r="B123" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C123" s="1">
-        <v>0.79513888888888884</v>
+        <v>0.89236111111111116</v>
       </c>
       <c r="D123">
-        <v>565</v>
+        <v>608</v>
       </c>
       <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>41</v>
-      </c>
-      <c r="C124" s="1"/>
-      <c r="E124">
-        <v>4041</v>
-      </c>
-      <c r="F124" t="s">
-        <v>20</v>
-      </c>
-      <c r="G124" s="1">
-        <v>0.79513888888888884</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B124" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="1">
+        <v>0.91319444444444442</v>
+      </c>
+      <c r="D124">
+        <v>585</v>
+      </c>
+      <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -2452,419 +2439,149 @@
       </c>
       <c r="C125" s="1"/>
       <c r="E125">
-        <v>670</v>
+        <v>578</v>
       </c>
       <c r="F125" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G125" s="1">
-        <v>0.8125</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>7</v>
       </c>
-      <c r="B126" t="s">
-        <v>24</v>
-      </c>
-      <c r="C126" s="1">
-        <v>0.81944444444444442</v>
-      </c>
-      <c r="D126">
-        <v>425</v>
-      </c>
-      <c r="G126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="E126">
+        <v>365</v>
+      </c>
+      <c r="F126" t="s">
+        <v>20</v>
+      </c>
+      <c r="G126" s="1">
+        <v>0.92013888888888884</v>
+      </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>7</v>
       </c>
-      <c r="B127" t="s">
-        <v>13</v>
-      </c>
-      <c r="C127" s="1">
-        <v>0.82638888888888884</v>
-      </c>
-      <c r="D127">
-        <v>523</v>
-      </c>
-      <c r="G127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="E127">
+        <v>580</v>
+      </c>
+      <c r="F127" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="1">
+        <v>0.92013888888888884</v>
+      </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>7</v>
       </c>
-      <c r="B128" t="s">
-        <v>10</v>
-      </c>
-      <c r="C128" s="1">
-        <v>0.82986111111111116</v>
-      </c>
-      <c r="D128">
-        <v>583</v>
-      </c>
-      <c r="G128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="E128">
+        <v>574</v>
+      </c>
+      <c r="F128" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" s="1">
+        <v>0.92013888888888884</v>
+      </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>7</v>
       </c>
-      <c r="B129" t="s">
-        <v>43</v>
-      </c>
-      <c r="C129" s="1">
-        <v>0.83680555555555558</v>
-      </c>
-      <c r="D129">
-        <v>329</v>
-      </c>
-      <c r="G129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="E129">
+        <v>315</v>
+      </c>
+      <c r="F129" t="s">
+        <v>21</v>
+      </c>
+      <c r="G129" s="1">
+        <v>0.92013888888888884</v>
+      </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>7</v>
       </c>
-      <c r="B130" t="s">
-        <v>28</v>
-      </c>
-      <c r="C130" s="1">
-        <v>0.84375</v>
-      </c>
-      <c r="D130">
-        <v>325</v>
-      </c>
-      <c r="G130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="E130">
+        <v>457</v>
+      </c>
+      <c r="F130" t="s">
+        <v>16</v>
+      </c>
+      <c r="G130" s="1">
+        <v>0.92013888888888884</v>
+      </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>7</v>
-      </c>
-      <c r="C131" s="1"/>
-      <c r="E131">
-        <v>590</v>
-      </c>
-      <c r="F131" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="1">
-        <v>0.85069444444444442</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B131" t="s">
+        <v>29</v>
+      </c>
+      <c r="C131" s="1">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="D131">
+        <v>878</v>
+      </c>
+      <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>7</v>
       </c>
-      <c r="B132" t="s">
-        <v>39</v>
-      </c>
-      <c r="C132" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D132">
-        <v>393</v>
-      </c>
-      <c r="G132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="E132">
+        <v>429</v>
+      </c>
+      <c r="F132" t="s">
+        <v>22</v>
+      </c>
+      <c r="G132" s="1">
+        <v>0.92361111111111116</v>
+      </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>33</v>
-      </c>
-      <c r="B133" t="s">
-        <v>34</v>
-      </c>
-      <c r="C133" s="1">
-        <v>0.85972222222222217</v>
-      </c>
-      <c r="D133">
-        <v>881</v>
-      </c>
-      <c r="G133" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C133" s="1"/>
+      <c r="E133">
+        <v>658</v>
+      </c>
+      <c r="F133" t="s">
+        <v>17</v>
+      </c>
+      <c r="G133" s="1">
+        <v>0.92361111111111116</v>
+      </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
-      <c r="B134" t="s">
-        <v>30</v>
-      </c>
-      <c r="C134" s="1">
-        <v>0.86805555555555558</v>
-      </c>
-      <c r="D134">
-        <v>443</v>
-      </c>
-      <c r="G134" s="1"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>7</v>
-      </c>
-      <c r="B135" t="s">
-        <v>21</v>
-      </c>
-      <c r="C135" s="1">
-        <v>0.86805555555555558</v>
-      </c>
-      <c r="D135">
-        <v>563</v>
-      </c>
-      <c r="G135" s="1"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>7</v>
-      </c>
-      <c r="B136" t="s">
-        <v>34</v>
-      </c>
-      <c r="C136" s="1">
-        <v>0.87152777777777779</v>
-      </c>
-      <c r="D136">
-        <v>316</v>
-      </c>
-      <c r="G136" s="1"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>42</v>
-      </c>
-      <c r="C137" s="1"/>
-      <c r="E137">
-        <v>222</v>
-      </c>
-      <c r="F137" t="s">
-        <v>49</v>
-      </c>
-      <c r="G137" s="1">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>7</v>
-      </c>
-      <c r="B138" t="s">
-        <v>44</v>
-      </c>
-      <c r="C138" s="1">
-        <v>0.87847222222222221</v>
-      </c>
-      <c r="D138">
-        <v>409</v>
-      </c>
-      <c r="G138" s="1"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>7</v>
-      </c>
-      <c r="B139" t="s">
-        <v>45</v>
-      </c>
-      <c r="C139" s="1">
-        <v>0.87847222222222221</v>
-      </c>
-      <c r="D139">
-        <v>527</v>
-      </c>
-      <c r="G139" s="1"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>14</v>
-      </c>
-      <c r="B140" t="s">
-        <v>24</v>
-      </c>
-      <c r="C140" s="1">
-        <v>0.8881944444444444</v>
-      </c>
-      <c r="D140">
-        <v>1461</v>
-      </c>
-      <c r="G140" s="1"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>7</v>
-      </c>
-      <c r="B141" t="s">
-        <v>20</v>
-      </c>
-      <c r="C141" s="1">
-        <v>0.89236111111111116</v>
-      </c>
-      <c r="D141">
-        <v>608</v>
-      </c>
-      <c r="G141" s="1"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>7</v>
-      </c>
-      <c r="B142" t="s">
-        <v>10</v>
-      </c>
-      <c r="C142" s="1">
-        <v>0.91319444444444442</v>
-      </c>
-      <c r="D142">
-        <v>585</v>
-      </c>
-      <c r="G142" s="1"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>7</v>
-      </c>
-      <c r="C143" s="1"/>
-      <c r="E143">
-        <v>365</v>
-      </c>
-      <c r="F143" t="s">
-        <v>18</v>
-      </c>
-      <c r="G143" s="1">
-        <v>0.92013888888888884</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>7</v>
-      </c>
-      <c r="C144" s="1"/>
-      <c r="E144">
-        <v>580</v>
-      </c>
-      <c r="F144" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="1">
-        <v>0.92013888888888884</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>7</v>
-      </c>
-      <c r="C145" s="1"/>
-      <c r="E145">
-        <v>429</v>
-      </c>
-      <c r="F145" t="s">
-        <v>19</v>
-      </c>
-      <c r="G145" s="1">
-        <v>0.92361111111111116</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>7</v>
-      </c>
-      <c r="C146" s="1"/>
-      <c r="E146">
-        <v>578</v>
-      </c>
-      <c r="F146" t="s">
-        <v>17</v>
-      </c>
-      <c r="G146" s="1">
-        <v>0.93055555555555558</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>7</v>
-      </c>
-      <c r="C147" s="1"/>
-      <c r="E147">
+      <c r="C134" s="1"/>
+      <c r="E134">
         <v>651</v>
       </c>
-      <c r="F147" t="s">
-        <v>20</v>
-      </c>
-      <c r="G147" s="1">
-        <v>0.93402777777777779</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>7</v>
-      </c>
-      <c r="C148" s="1"/>
-      <c r="E148">
-        <v>315</v>
-      </c>
-      <c r="F148" t="s">
-        <v>39</v>
-      </c>
-      <c r="G148" s="1">
-        <v>0.94097222222222221</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>7</v>
-      </c>
-      <c r="C149" s="1"/>
-      <c r="E149">
-        <v>658</v>
-      </c>
-      <c r="F149" t="s">
-        <v>22</v>
-      </c>
-      <c r="G149" s="1">
-        <v>0.94444444444444442</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>7</v>
-      </c>
-      <c r="C150" s="1"/>
-      <c r="E150">
-        <v>452</v>
-      </c>
-      <c r="F150" t="s">
-        <v>8</v>
-      </c>
-      <c r="G150" s="1">
-        <v>0.95486111111111116</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>7</v>
-      </c>
-      <c r="C151" s="1"/>
-      <c r="E151">
-        <v>457</v>
-      </c>
-      <c r="F151" t="s">
-        <v>15</v>
-      </c>
-      <c r="G151" s="1">
-        <v>0.95486111111111116</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>33</v>
-      </c>
-      <c r="B152" t="s">
-        <v>34</v>
-      </c>
-      <c r="C152" s="1">
-        <v>0.98333333333333339</v>
-      </c>
-      <c r="D152">
-        <v>878</v>
-      </c>
-      <c r="G152" s="1"/>
+      <c r="F134" t="s">
+        <v>23</v>
+      </c>
+      <c r="G134" s="1">
+        <v>0.92708333333333337</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/operaciones.xlsx
+++ b/public/operaciones.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulm\Desktop\Itinerarios_2026-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C11080-1361-40F1-BC12-DC8431731263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26B621EF-B075-4B9A-AA6B-A455BC48371A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F6E9FF54-FAB0-4FF7-9FD5-EF8E2C7A7446}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D1975307-14C9-44A8-B86C-823E69D387AA}"/>
   </bookViews>
   <sheets>
-    <sheet name="03-02" sheetId="1" r:id="rId1"/>
+    <sheet name="04-02" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="46">
   <si>
     <t>AEROLINEA</t>
   </si>
@@ -59,121 +59,118 @@
     <t>ETD</t>
   </si>
   <si>
+    <t>VOS</t>
+  </si>
+  <si>
+    <t>KIAD</t>
+  </si>
+  <si>
     <t>AVA</t>
   </si>
   <si>
+    <t>MHLM</t>
+  </si>
+  <si>
+    <t>KLAX</t>
+  </si>
+  <si>
+    <t>UAL</t>
+  </si>
+  <si>
+    <t>SEQM</t>
+  </si>
+  <si>
+    <t>MGGT</t>
+  </si>
+  <si>
+    <t>SKBO</t>
+  </si>
+  <si>
+    <t>MNMG</t>
+  </si>
+  <si>
+    <t>SPJC</t>
+  </si>
+  <si>
+    <t>MROC</t>
+  </si>
+  <si>
+    <t>KSFO</t>
+  </si>
+  <si>
+    <t>KJFK</t>
+  </si>
+  <si>
     <t>MHPR</t>
   </si>
   <si>
-    <t>VOS</t>
-  </si>
-  <si>
-    <t>KIAD</t>
-  </si>
-  <si>
-    <t>KONT</t>
-  </si>
-  <si>
-    <t>MHLM</t>
+    <t>MMMX</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>KMIA</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>MPTO</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>KATL</t>
+  </si>
+  <si>
+    <t>KIAH</t>
+  </si>
+  <si>
+    <t>FFT</t>
+  </si>
+  <si>
+    <t>AMX</t>
+  </si>
+  <si>
+    <t>KDFW</t>
+  </si>
+  <si>
+    <t>SKRG</t>
+  </si>
+  <si>
+    <t>IBE</t>
+  </si>
+  <si>
+    <t>CYYZ</t>
+  </si>
+  <si>
+    <t>KBOS</t>
+  </si>
+  <si>
+    <t>KEWR</t>
+  </si>
+  <si>
+    <t>TPA</t>
+  </si>
+  <si>
+    <t>DHL</t>
+  </si>
+  <si>
+    <t>AJT</t>
+  </si>
+  <si>
+    <t>FDX</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>MHTG</t>
   </si>
   <si>
     <t>KOAK</t>
-  </si>
-  <si>
-    <t>KLAX</t>
-  </si>
-  <si>
-    <t>UAL</t>
-  </si>
-  <si>
-    <t>SEQM</t>
-  </si>
-  <si>
-    <t>KJFK</t>
-  </si>
-  <si>
-    <t>MMMX</t>
-  </si>
-  <si>
-    <t>MGGT</t>
-  </si>
-  <si>
-    <t>SKBO</t>
-  </si>
-  <si>
-    <t>MNMG</t>
-  </si>
-  <si>
-    <t>SPJC</t>
-  </si>
-  <si>
-    <t>MROC</t>
-  </si>
-  <si>
-    <t>KSFO</t>
-  </si>
-  <si>
-    <t>KEWR</t>
-  </si>
-  <si>
-    <t>AAL</t>
-  </si>
-  <si>
-    <t>KMIA</t>
-  </si>
-  <si>
-    <t>CMP</t>
-  </si>
-  <si>
-    <t>MPTO</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>KATL</t>
-  </si>
-  <si>
-    <t>KIAH</t>
-  </si>
-  <si>
-    <t>AMX</t>
-  </si>
-  <si>
-    <t>KDFW</t>
-  </si>
-  <si>
-    <t>NKS</t>
-  </si>
-  <si>
-    <t>KFLL</t>
-  </si>
-  <si>
-    <t>SKRG</t>
-  </si>
-  <si>
-    <t>MMUN</t>
-  </si>
-  <si>
-    <t>IBE</t>
-  </si>
-  <si>
-    <t>CYYZ</t>
-  </si>
-  <si>
-    <t>DHL</t>
-  </si>
-  <si>
-    <t>AJT</t>
-  </si>
-  <si>
-    <t>FDX</t>
-  </si>
-  <si>
-    <t>ARM</t>
-  </si>
-  <si>
-    <t>MHTG</t>
   </si>
   <si>
     <t>LEMD</t>
@@ -183,6 +180,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="hh:mm"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -214,7 +214,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,12 +548,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CB4DE2-CCC6-49F1-9379-41504D29A093}">
-  <dimension ref="A1:G134"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44462E92-2E62-4035-8414-A31F8BE962A9}">
+  <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A121" activeCellId="3" sqref="A53:XFD53 A64:XFD64 A90:XFD90 A121:XFD121"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -590,25 +588,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="E2">
-        <v>1670</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.125</v>
-      </c>
+      <c r="C2" s="1">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="D2">
+        <v>4156</v>
+      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1">
         <v>0.18402777777777779</v>
@@ -620,33 +618,33 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="D4">
-        <v>453</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="E4">
+        <v>879</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.20972222222222223</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="E5">
-        <v>879</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.20972222222222223</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.21875</v>
+      </c>
+      <c r="D5">
+        <v>4313</v>
+      </c>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -656,25 +654,25 @@
         <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>0.21875</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="D6">
-        <v>4313</v>
+        <v>575</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
-        <v>0.22222222222222221</v>
+        <v>0.22569444444444445</v>
       </c>
       <c r="D7">
-        <v>531</v>
+        <v>224</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -683,28 +681,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
-        <v>0.22222222222222221</v>
+        <v>0.23541666666666666</v>
       </c>
       <c r="D8">
-        <v>575</v>
+        <v>4309</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1">
-        <v>0.22569444444444445</v>
+        <v>0.23958333333333334</v>
       </c>
       <c r="D9">
-        <v>224</v>
+        <v>1266</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -716,10 +714,10 @@
         <v>13</v>
       </c>
       <c r="C10" s="1">
-        <v>0.23472222222222222</v>
+        <v>0.24652777777777779</v>
       </c>
       <c r="D10">
-        <v>4323</v>
+        <v>456</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -731,55 +729,55 @@
         <v>14</v>
       </c>
       <c r="C11" s="1">
-        <v>0.23541666666666666</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="D11">
-        <v>4309</v>
+        <v>579</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
       <c r="C12" s="1">
-        <v>0.23958333333333334</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D12">
-        <v>1266</v>
+        <v>366</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
-        <v>0.24652777777777779</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D13">
-        <v>456</v>
+        <v>529</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1">
-        <v>0.24652777777777779</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="D14">
-        <v>567</v>
+        <v>314</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -787,74 +785,74 @@
       <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.25347222222222221</v>
-      </c>
-      <c r="D15">
-        <v>433</v>
-      </c>
-      <c r="G15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="E15">
+        <v>4326</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.2638888888888889</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>0.25694444444444442</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D16">
-        <v>579</v>
+        <v>428</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D17">
-        <v>366</v>
+        <v>626</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D18">
-        <v>529</v>
+        <v>561</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1">
-        <v>0.2638888888888889</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D19">
-        <v>314</v>
+        <v>571</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -862,105 +860,105 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="E20">
-        <v>4326</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.2638888888888889</v>
-      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D20">
+        <v>591</v>
+      </c>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.2673611111111111</v>
-      </c>
-      <c r="D21">
-        <v>428</v>
-      </c>
-      <c r="G21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="E21">
+        <v>4318</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.28611111111111109</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.2673611111111111</v>
-      </c>
-      <c r="D22">
-        <v>650</v>
-      </c>
-      <c r="G22" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="E22">
+        <v>1467</v>
+      </c>
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.28819444444444448</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C23" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="D23">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D24">
-        <v>571</v>
-      </c>
-      <c r="G24" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="E24">
+        <v>396</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D25">
-        <v>591</v>
-      </c>
-      <c r="G25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="E25">
+        <v>4338</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.31527777777777777</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C26" s="1"/>
       <c r="E26">
-        <v>1467</v>
+        <v>310</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G26" s="1">
-        <v>0.28819444444444448</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -969,100 +967,100 @@
       </c>
       <c r="C27" s="1"/>
       <c r="E27">
-        <v>4330</v>
+        <v>440</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G27" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C28" s="1"/>
       <c r="E28">
-        <v>396</v>
+        <v>536</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G28" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C29" s="1"/>
       <c r="E29">
-        <v>310</v>
+        <v>444</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G29" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C30" s="1"/>
       <c r="E30">
-        <v>440</v>
+        <v>562</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G30" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="E31">
-        <v>536</v>
-      </c>
-      <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0.31597222222222221</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="D31">
+        <v>4053</v>
+      </c>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C32" s="1"/>
       <c r="E32">
-        <v>562</v>
+        <v>368</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G32" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C33" s="1"/>
       <c r="E33">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G33" s="1">
         <v>0.33333333333333331</v>
@@ -1070,14 +1068,14 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C34" s="1"/>
       <c r="E34">
-        <v>383</v>
+        <v>522</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G34" s="1">
         <v>0.33333333333333331</v>
@@ -1085,59 +1083,59 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="E35">
-        <v>522</v>
-      </c>
-      <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0.33333333333333331</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="D35">
+        <v>581</v>
+      </c>
+      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="1">
+        <v>9</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="E36">
+        <v>660</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="1">
         <v>0.33680555555555558</v>
       </c>
-      <c r="D36">
-        <v>581</v>
-      </c>
-      <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C37" s="1"/>
       <c r="E37">
-        <v>660</v>
+        <v>454</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G37" s="1">
-        <v>0.33680555555555558</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C38" s="1"/>
       <c r="E38">
-        <v>454</v>
+        <v>554</v>
       </c>
       <c r="F38" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G38" s="1">
         <v>0.34027777777777779</v>
@@ -1145,74 +1143,74 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C39" s="1"/>
       <c r="E39">
-        <v>572</v>
+        <v>324</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G39" s="1">
-        <v>0.34027777777777779</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C40" s="1"/>
       <c r="E40">
-        <v>324</v>
+        <v>884</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G40" s="1">
-        <v>0.34375</v>
+        <v>0.3576388888888889</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C41" s="1"/>
       <c r="E41">
-        <v>884</v>
+        <v>1467</v>
       </c>
       <c r="F41" t="s">
         <v>29</v>
       </c>
       <c r="G41" s="1">
-        <v>0.3576388888888889</v>
+        <v>0.37152777777777773</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="E42">
-        <v>369</v>
-      </c>
-      <c r="F42" t="s">
-        <v>37</v>
-      </c>
-      <c r="G42" s="1">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="1">
         <v>0.37847222222222221</v>
       </c>
+      <c r="D42">
+        <v>559</v>
+      </c>
+      <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C43" s="1"/>
       <c r="E43">
-        <v>430</v>
+        <v>369</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G43" s="1">
         <v>0.37847222222222221</v>
@@ -1220,63 +1218,63 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C44" s="1"/>
       <c r="E44">
-        <v>582</v>
+        <v>430</v>
       </c>
       <c r="F44" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G44" s="1">
-        <v>0.39930555555555558</v>
+        <v>0.37847222222222221</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C45" s="1">
-        <v>0.41319444444444442</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="D45">
-        <v>659</v>
+        <v>4053</v>
       </c>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C46" s="1"/>
       <c r="E46">
-        <v>392</v>
+        <v>582</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G46" s="1">
-        <v>0.41319444444444442</v>
+        <v>0.39930555555555558</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="E47">
-        <v>609</v>
-      </c>
-      <c r="F47" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" s="1">
-        <v>0.4236111111111111</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="D47">
+        <v>659</v>
+      </c>
+      <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -1284,57 +1282,57 @@
       </c>
       <c r="C48" s="1"/>
       <c r="E48">
-        <v>4320</v>
+        <v>392</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G48" s="1">
-        <v>0.4236111111111111</v>
+        <v>0.41319444444444442</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C49" s="1">
-        <v>0.42708333333333331</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D49">
-        <v>537</v>
+        <v>731</v>
       </c>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="D50">
-        <v>455</v>
-      </c>
-      <c r="G50" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="E50">
+        <v>613</v>
+      </c>
+      <c r="F50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.4236111111111111</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C51" s="1">
-        <v>0.4513888888888889</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D51">
-        <v>573</v>
+        <v>537</v>
       </c>
       <c r="G51" s="1"/>
     </row>
@@ -1343,86 +1341,86 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C52" s="1">
-        <v>0.45347222222222222</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="D52">
-        <v>4337</v>
+        <v>455</v>
       </c>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C53" s="1">
-        <v>0.46527777777777773</v>
+        <v>0.46180555555555558</v>
       </c>
       <c r="D53">
-        <v>721</v>
+        <v>384</v>
       </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="E54">
-        <v>584</v>
-      </c>
-      <c r="F54" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="1">
-        <v>0.49305555555555558</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="D54">
+        <v>730</v>
+      </c>
+      <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="1"/>
-      <c r="E55">
-        <v>650</v>
-      </c>
-      <c r="F55" t="s">
-        <v>38</v>
-      </c>
-      <c r="G55" s="1">
-        <v>0.49305555555555558</v>
-      </c>
+      <c r="B55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="D55">
+        <v>4301</v>
+      </c>
+      <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="E56">
-        <v>385</v>
-      </c>
-      <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D56">
+        <v>916</v>
+      </c>
+      <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C57" s="1"/>
       <c r="E57">
-        <v>442</v>
+        <v>385</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="G57" s="1">
         <v>0.50347222222222221</v>
@@ -1430,451 +1428,451 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C58" s="1"/>
       <c r="E58">
-        <v>319</v>
+        <v>424</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G58" s="1">
-        <v>0.51041666666666663</v>
+        <v>0.50347222222222221</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>44</v>
-      </c>
-      <c r="B59" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="D59">
-        <v>4</v>
-      </c>
-      <c r="G59" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="E59">
+        <v>319</v>
+      </c>
+      <c r="F59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.51041666666666663</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C60" s="1">
-        <v>0.52152777777777781</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="D60">
-        <v>339</v>
+        <v>4</v>
       </c>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C61" s="1">
-        <v>0.52777777777777779</v>
+        <v>0.52152777777777781</v>
       </c>
       <c r="D61">
-        <v>720</v>
+        <v>339</v>
       </c>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>28</v>
-      </c>
-      <c r="B62" t="s">
-        <v>29</v>
-      </c>
-      <c r="C62" s="1">
-        <v>0.52986111111111112</v>
-      </c>
-      <c r="D62">
-        <v>816</v>
-      </c>
-      <c r="G62" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="E62">
+        <v>4340</v>
+      </c>
+      <c r="F62" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0.52569444444444446</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C63" s="1">
-        <v>0.55486111111111114</v>
+        <v>0.52986111111111112</v>
       </c>
       <c r="D63">
-        <v>1441</v>
+        <v>816</v>
       </c>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C64" s="1">
-        <v>0.56041666666666667</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="D64">
-        <v>8139</v>
+        <v>1910</v>
       </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>26</v>
-      </c>
-      <c r="C65" s="1"/>
-      <c r="E65">
-        <v>348</v>
-      </c>
-      <c r="F65" t="s">
-        <v>27</v>
-      </c>
-      <c r="G65" s="1">
-        <v>0.56319444444444444</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D65">
+        <v>916</v>
+      </c>
+      <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>28</v>
-      </c>
-      <c r="C66" s="1"/>
-      <c r="E66">
-        <v>871</v>
-      </c>
-      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" t="s">
         <v>29</v>
       </c>
-      <c r="G66" s="1">
-        <v>0.57291666666666663</v>
-      </c>
+      <c r="C66" s="1">
+        <v>0.55486111111111114</v>
+      </c>
+      <c r="D66">
+        <v>1441</v>
+      </c>
+      <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C67" s="1">
-        <v>0.5805555555555556</v>
+        <v>0.55625000000000002</v>
       </c>
       <c r="D67">
-        <v>628</v>
+        <v>219</v>
       </c>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>26</v>
-      </c>
-      <c r="B68" t="s">
-        <v>34</v>
-      </c>
-      <c r="C68" s="1">
-        <v>0.59791666666666665</v>
-      </c>
-      <c r="D68">
-        <v>1035</v>
-      </c>
-      <c r="G68" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="E68">
+        <v>348</v>
+      </c>
+      <c r="F68" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.56319444444444444</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>30</v>
-      </c>
-      <c r="C69" s="1"/>
-      <c r="E69">
-        <v>1978</v>
-      </c>
-      <c r="F69" t="s">
-        <v>31</v>
-      </c>
-      <c r="G69" s="1">
-        <v>0.60763888888888895</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="D69">
+        <v>8139</v>
+      </c>
+      <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C70" s="1"/>
       <c r="E70">
-        <v>1468</v>
+        <v>871</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G70" s="1">
-        <v>0.61805555555555558</v>
+        <v>0.57291666666666663</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B71" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C71" s="1">
-        <v>0.61944444444444446</v>
+        <v>0.5805555555555556</v>
       </c>
       <c r="D71">
-        <v>1031</v>
+        <v>628</v>
       </c>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>33</v>
-      </c>
-      <c r="C72" s="1"/>
-      <c r="E72">
-        <v>629</v>
-      </c>
-      <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" s="1">
-        <v>0.63055555555555554</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B72" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="D72">
+        <v>1035</v>
+      </c>
+      <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C73" s="1"/>
       <c r="E73">
-        <v>1104</v>
+        <v>1978</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G73" s="1">
-        <v>0.63958333333333328</v>
+        <v>0.60763888888888895</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>15</v>
-      </c>
-      <c r="B74" t="s">
-        <v>32</v>
-      </c>
-      <c r="C74" s="1">
-        <v>0.64166666666666672</v>
-      </c>
-      <c r="D74">
-        <v>1290</v>
-      </c>
-      <c r="G74" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="E74">
+        <v>218</v>
+      </c>
+      <c r="F74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.61527777777777781</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>44</v>
-      </c>
-      <c r="B75" t="s">
-        <v>19</v>
-      </c>
-      <c r="C75" s="1">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="D75">
-        <v>4</v>
-      </c>
-      <c r="G75" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="E75">
+        <v>1468</v>
+      </c>
+      <c r="F75" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.61805555555555558</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C76" s="1">
-        <v>0.65277777777777779</v>
+        <v>0.62222222222222223</v>
       </c>
       <c r="D76">
-        <v>382</v>
+        <v>4319</v>
       </c>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C77" s="1"/>
       <c r="E77">
-        <v>317</v>
+        <v>629</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G77" s="1">
-        <v>0.65625</v>
+        <v>0.63055555555555554</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>43</v>
-      </c>
-      <c r="B78" t="s">
-        <v>12</v>
-      </c>
-      <c r="C78" s="1">
-        <v>0.66527777777777775</v>
-      </c>
-      <c r="D78">
-        <v>7139</v>
-      </c>
-      <c r="G78" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="E78">
+        <v>1104</v>
+      </c>
+      <c r="F78" t="s">
+        <v>32</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0.63958333333333328</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C79" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.64166666666666672</v>
       </c>
       <c r="D79">
-        <v>367</v>
+        <v>1290</v>
       </c>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B80" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C80" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="D80">
-        <v>370</v>
+        <v>4</v>
       </c>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>35</v>
-      </c>
-      <c r="C81" s="1"/>
-      <c r="E81">
-        <v>1032</v>
-      </c>
-      <c r="F81" t="s">
-        <v>36</v>
-      </c>
-      <c r="G81" s="1">
-        <v>0.66805555555555562</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D81">
+        <v>382</v>
+      </c>
+      <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82" t="s">
-        <v>34</v>
-      </c>
-      <c r="C82" s="1">
-        <v>0.68055555555555558</v>
-      </c>
-      <c r="D82">
-        <v>441</v>
-      </c>
-      <c r="G82" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="E82">
+        <v>317</v>
+      </c>
+      <c r="F82" t="s">
+        <v>26</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0.65625</v>
+      </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B83" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C83" s="1">
-        <v>0.68402777777777779</v>
+        <v>0.66527777777777775</v>
       </c>
       <c r="D83">
-        <v>651</v>
+        <v>7139</v>
       </c>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C84" s="1">
-        <v>0.6875</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D84">
-        <v>311</v>
+        <v>367</v>
       </c>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C85" s="1">
-        <v>0.6875</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D85">
-        <v>318</v>
+        <v>370</v>
       </c>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>15</v>
-      </c>
-      <c r="C86" s="1"/>
-      <c r="E86">
-        <v>1130</v>
-      </c>
-      <c r="F86" t="s">
-        <v>32</v>
-      </c>
-      <c r="G86" s="1">
-        <v>0.69444444444444453</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.66736111111111107</v>
+      </c>
+      <c r="D86">
+        <v>4341</v>
+      </c>
+      <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C87" s="1">
-        <v>0.69722222222222219</v>
+        <v>0.68055555555555558</v>
       </c>
       <c r="D87">
-        <v>4327</v>
+        <v>441</v>
       </c>
       <c r="G87" s="1"/>
     </row>
@@ -1884,104 +1882,104 @@
       </c>
       <c r="C88" s="1"/>
       <c r="E88">
-        <v>530</v>
+        <v>4322</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="G88" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.68611111111111112</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" s="1"/>
-      <c r="E89">
-        <v>560</v>
-      </c>
-      <c r="F89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" t="s">
         <v>24</v>
       </c>
-      <c r="G89" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+      <c r="C89" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="D89">
+        <v>311</v>
+      </c>
+      <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" s="1"/>
-      <c r="E90">
-        <v>588</v>
-      </c>
-      <c r="F90" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B90" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="D90">
+        <v>318</v>
+      </c>
+      <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" s="1"/>
-      <c r="E91">
-        <v>615</v>
-      </c>
-      <c r="F91" t="s">
-        <v>23</v>
-      </c>
-      <c r="G91" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B91" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="D91">
+        <v>555</v>
+      </c>
+      <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>9</v>
-      </c>
-      <c r="B92" t="s">
-        <v>32</v>
-      </c>
-      <c r="C92" s="1">
-        <v>0.73472222222222228</v>
-      </c>
-      <c r="D92">
-        <v>4321</v>
-      </c>
-      <c r="G92" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="E92">
+        <v>1130</v>
+      </c>
+      <c r="F92" t="s">
+        <v>29</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0.69444444444444453</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="1"/>
-      <c r="E93">
-        <v>448</v>
-      </c>
-      <c r="F93" t="s">
+      <c r="B93" t="s">
         <v>8</v>
       </c>
-      <c r="G93" s="1">
-        <v>0.74305555555555558</v>
-      </c>
+      <c r="C93" s="1">
+        <v>0.69722222222222219</v>
+      </c>
+      <c r="D93">
+        <v>4327</v>
+      </c>
+      <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" s="1"/>
-      <c r="E94">
-        <v>534</v>
-      </c>
-      <c r="F94" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" s="1">
-        <v>0.74305555555555558</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B94" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D94">
+        <v>322</v>
+      </c>
+      <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -1989,44 +1987,44 @@
       </c>
       <c r="C95" s="1"/>
       <c r="E95">
-        <v>4308</v>
+        <v>520</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G95" s="1">
-        <v>0.74583333333333335</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C96" s="1"/>
       <c r="E96">
-        <v>528</v>
+        <v>560</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G96" s="1">
-        <v>0.76041666666666663</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>9</v>
       </c>
-      <c r="B97" t="s">
-        <v>23</v>
-      </c>
-      <c r="C97" s="1">
-        <v>0.7631944444444444</v>
-      </c>
-      <c r="D97">
-        <v>4040</v>
-      </c>
-      <c r="G97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="E97">
+        <v>588</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -2034,445 +2032,445 @@
       </c>
       <c r="C98" s="1"/>
       <c r="E98">
-        <v>4312</v>
+        <v>617</v>
       </c>
       <c r="F98" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G98" s="1">
-        <v>0.77638888888888891</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>41</v>
-      </c>
-      <c r="B99" t="s">
-        <v>45</v>
-      </c>
-      <c r="C99" s="1">
-        <v>0.78125</v>
-      </c>
-      <c r="D99">
-        <v>930</v>
-      </c>
-      <c r="G99" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="E99">
+        <v>448</v>
+      </c>
+      <c r="F99" t="s">
+        <v>21</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0.74305555555555558</v>
+      </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C100" s="1"/>
       <c r="E100">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="F100" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G100" s="1">
-        <v>0.78819444444444442</v>
+        <v>0.74305555555555558</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>9</v>
-      </c>
-      <c r="B101" t="s">
-        <v>14</v>
-      </c>
-      <c r="C101" s="1">
-        <v>0.79027777777777775</v>
-      </c>
-      <c r="D101">
-        <v>4331</v>
-      </c>
-      <c r="G101" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="E101">
+        <v>4308</v>
+      </c>
+      <c r="F101" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0.74583333333333335</v>
+      </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B102" t="s">
         <v>18</v>
       </c>
       <c r="C102" s="1">
-        <v>0.79513888888888884</v>
+        <v>0.74652777777777779</v>
       </c>
       <c r="D102">
-        <v>431</v>
+        <v>612</v>
       </c>
       <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>7</v>
-      </c>
-      <c r="B103" t="s">
-        <v>17</v>
-      </c>
-      <c r="C103" s="1">
-        <v>0.79513888888888884</v>
-      </c>
-      <c r="D103">
-        <v>661</v>
-      </c>
-      <c r="G103" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="E103">
+        <v>528</v>
+      </c>
+      <c r="F103" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0.76041666666666663</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C104" s="1"/>
       <c r="E104">
-        <v>4041</v>
+        <v>4312</v>
       </c>
       <c r="F104" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G104" s="1">
-        <v>0.79513888888888884</v>
+        <v>0.77638888888888891</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105" s="1"/>
-      <c r="E105">
-        <v>4300</v>
-      </c>
-      <c r="F105" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" s="1">
-        <v>0.81180555555555556</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B105" t="s">
+        <v>43</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="D105">
+        <v>930</v>
+      </c>
+      <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C106" s="1">
-        <v>0.8125</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="D106">
-        <v>222</v>
+        <v>431</v>
       </c>
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" s="1"/>
-      <c r="E107">
-        <v>570</v>
-      </c>
-      <c r="F107" t="s">
-        <v>17</v>
-      </c>
-      <c r="G107" s="1">
+        <v>34</v>
+      </c>
+      <c r="B107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" s="1">
         <v>0.8125</v>
       </c>
+      <c r="D107">
+        <v>222</v>
+      </c>
+      <c r="G107" s="1"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>41</v>
-      </c>
-      <c r="B108" t="s">
-        <v>19</v>
-      </c>
-      <c r="C108" s="1">
-        <v>0.82291666666666663</v>
-      </c>
-      <c r="D108">
-        <v>932</v>
-      </c>
-      <c r="G108" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="E108">
+        <v>570</v>
+      </c>
+      <c r="F108" t="s">
+        <v>20</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0.8125</v>
+      </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C109" s="1">
-        <v>0.82638888888888884</v>
+        <v>0.81944444444444442</v>
       </c>
       <c r="D109">
-        <v>523</v>
+        <v>425</v>
       </c>
       <c r="G109" s="1"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B110" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C110" s="1">
-        <v>0.82986111111111116</v>
+        <v>0.82291666666666663</v>
       </c>
       <c r="D110">
-        <v>583</v>
+        <v>932</v>
       </c>
       <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C111" s="1">
-        <v>0.84375</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="D111">
-        <v>325</v>
+        <v>523</v>
       </c>
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" s="1"/>
-      <c r="E112">
-        <v>590</v>
-      </c>
-      <c r="F112" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="1">
-        <v>0.85069444444444442</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="1">
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="D112">
+        <v>583</v>
+      </c>
+      <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C113" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.84375</v>
       </c>
       <c r="D113">
-        <v>393</v>
+        <v>325</v>
       </c>
       <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C114" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.84375</v>
       </c>
       <c r="D114">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>28</v>
-      </c>
-      <c r="B115" t="s">
-        <v>29</v>
-      </c>
-      <c r="C115" s="1">
-        <v>0.86041666666666661</v>
-      </c>
-      <c r="D115">
-        <v>881</v>
-      </c>
-      <c r="G115" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="E115">
+        <v>590</v>
+      </c>
+      <c r="F115" t="s">
+        <v>8</v>
+      </c>
+      <c r="G115" s="1">
+        <v>0.85069444444444442</v>
+      </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C116" s="1">
-        <v>0.86805555555555558</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D116">
-        <v>443</v>
+        <v>393</v>
       </c>
       <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C117" s="1">
-        <v>0.86805555555555558</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D117">
-        <v>563</v>
+        <v>449</v>
       </c>
       <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C118" s="1">
-        <v>0.875</v>
+        <v>0.86041666666666661</v>
       </c>
       <c r="D118">
-        <v>535</v>
+        <v>881</v>
       </c>
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>39</v>
-      </c>
-      <c r="C119" s="1"/>
-      <c r="E119">
-        <v>222</v>
-      </c>
-      <c r="F119" t="s">
-        <v>46</v>
-      </c>
-      <c r="G119" s="1">
-        <v>0.875</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B119" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119" s="1">
+        <v>0.86805555555555558</v>
+      </c>
+      <c r="D119">
+        <v>563</v>
+      </c>
+      <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C120" s="1">
-        <v>0.87847222222222221</v>
+        <v>0.87152777777777779</v>
       </c>
       <c r="D120">
-        <v>589</v>
+        <v>316</v>
       </c>
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C121" s="1">
-        <v>0.87847222222222221</v>
+        <v>0.875</v>
       </c>
       <c r="D121">
-        <v>614</v>
+        <v>535</v>
       </c>
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>15</v>
-      </c>
-      <c r="B122" t="s">
-        <v>32</v>
-      </c>
-      <c r="C122" s="1">
-        <v>0.8881944444444444</v>
-      </c>
-      <c r="D122">
-        <v>1461</v>
-      </c>
-      <c r="G122" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C122" s="1"/>
+      <c r="E122">
+        <v>222</v>
+      </c>
+      <c r="F122" t="s">
+        <v>45</v>
+      </c>
+      <c r="G122" s="1">
+        <v>0.875</v>
+      </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C123" s="1">
-        <v>0.89236111111111116</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D123">
-        <v>608</v>
+        <v>589</v>
       </c>
       <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C124" s="1">
-        <v>0.91319444444444442</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D124">
-        <v>585</v>
+        <v>616</v>
       </c>
       <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125" s="1"/>
-      <c r="E125">
-        <v>578</v>
-      </c>
-      <c r="F125" t="s">
-        <v>19</v>
-      </c>
-      <c r="G125" s="1">
-        <v>0.91666666666666663</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B125" t="s">
+        <v>20</v>
+      </c>
+      <c r="C125" s="1">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="D125">
+        <v>661</v>
+      </c>
+      <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126" s="1"/>
-      <c r="E126">
-        <v>365</v>
-      </c>
-      <c r="F126" t="s">
-        <v>20</v>
-      </c>
-      <c r="G126" s="1">
-        <v>0.92013888888888884</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B126" t="s">
+        <v>29</v>
+      </c>
+      <c r="C126" s="1">
+        <v>0.8881944444444444</v>
+      </c>
+      <c r="D126">
+        <v>1461</v>
+      </c>
+      <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C127" s="1"/>
       <c r="E127">
-        <v>580</v>
+        <v>365</v>
       </c>
       <c r="F127" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G127" s="1">
         <v>0.92013888888888884</v>
@@ -2480,14 +2478,14 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C128" s="1"/>
       <c r="E128">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="F128" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G128" s="1">
         <v>0.92013888888888884</v>
@@ -2495,92 +2493,227 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C129" s="1"/>
       <c r="E129">
-        <v>315</v>
+        <v>429</v>
       </c>
       <c r="F129" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G129" s="1">
-        <v>0.92013888888888884</v>
+        <v>0.92361111111111116</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>7</v>
       </c>
-      <c r="C130" s="1"/>
-      <c r="E130">
-        <v>457</v>
-      </c>
-      <c r="F130" t="s">
-        <v>16</v>
-      </c>
-      <c r="G130" s="1">
-        <v>0.92013888888888884</v>
-      </c>
+      <c r="B130" t="s">
+        <v>24</v>
+      </c>
+      <c r="C130" s="1">
+        <v>0.92986111111111114</v>
+      </c>
+      <c r="D130">
+        <v>4339</v>
+      </c>
+      <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>28</v>
-      </c>
-      <c r="B131" t="s">
-        <v>29</v>
-      </c>
-      <c r="C131" s="1">
-        <v>0.92361111111111116</v>
-      </c>
-      <c r="D131">
-        <v>878</v>
-      </c>
-      <c r="G131" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C131" s="1"/>
+      <c r="E131">
+        <v>578</v>
+      </c>
+      <c r="F131" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131" s="1">
+        <v>0.93055555555555558</v>
+      </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C132" s="1"/>
       <c r="E132">
-        <v>429</v>
+        <v>627</v>
       </c>
       <c r="F132" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G132" s="1">
-        <v>0.92361111111111116</v>
+        <v>0.93402777777777779</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C133" s="1"/>
       <c r="E133">
-        <v>658</v>
+        <v>574</v>
       </c>
       <c r="F133" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G133" s="1">
-        <v>0.92361111111111116</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C134" s="1"/>
       <c r="E134">
-        <v>651</v>
+        <v>315</v>
       </c>
       <c r="F134" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G134" s="1">
-        <v>0.92708333333333337</v>
+        <v>0.94097222222222221</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" s="1"/>
+      <c r="E135">
+        <v>568</v>
+      </c>
+      <c r="F135" t="s">
+        <v>20</v>
+      </c>
+      <c r="G135" s="1">
+        <v>0.94444444444444442</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="1"/>
+      <c r="E136">
+        <v>658</v>
+      </c>
+      <c r="F136" t="s">
+        <v>20</v>
+      </c>
+      <c r="G136" s="1">
+        <v>0.94444444444444442</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" t="s">
+        <v>37</v>
+      </c>
+      <c r="C137" s="1">
+        <v>0.94930555555555562</v>
+      </c>
+      <c r="D137">
+        <v>1425</v>
+      </c>
+      <c r="G137" s="1"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="1"/>
+      <c r="E138">
+        <v>452</v>
+      </c>
+      <c r="F138" t="s">
+        <v>21</v>
+      </c>
+      <c r="G138" s="1">
+        <v>0.95486111111111116</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="1"/>
+      <c r="E139">
+        <v>457</v>
+      </c>
+      <c r="F139" t="s">
+        <v>13</v>
+      </c>
+      <c r="G139" s="1">
+        <v>0.95486111111111116</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" s="1"/>
+      <c r="E140">
+        <v>432</v>
+      </c>
+      <c r="F140" t="s">
+        <v>22</v>
+      </c>
+      <c r="G140" s="1">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" s="1"/>
+      <c r="E141">
+        <v>4336</v>
+      </c>
+      <c r="F141" t="s">
+        <v>37</v>
+      </c>
+      <c r="G141" s="1">
+        <v>0.97152777777777777</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>25</v>
+      </c>
+      <c r="B142" t="s">
+        <v>26</v>
+      </c>
+      <c r="C142" s="1">
+        <v>0.98402777777777783</v>
+      </c>
+      <c r="D142">
+        <v>878</v>
+      </c>
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" s="1"/>
+      <c r="E143">
+        <v>339</v>
+      </c>
+      <c r="F143" t="s">
+        <v>37</v>
+      </c>
+      <c r="G143" s="1">
+        <v>0.99583333333333324</v>
       </c>
     </row>
   </sheetData>

--- a/public/operaciones.xlsx
+++ b/public/operaciones.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulm\Desktop\Itinerarios_2026-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26B621EF-B075-4B9A-AA6B-A455BC48371A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D32A725-CDDD-4E39-AA97-852121A082E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D1975307-14C9-44A8-B86C-823E69D387AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7A7DD2A2-B0BB-42A9-803B-A955D021DBB5}"/>
   </bookViews>
   <sheets>
-    <sheet name="04-02" sheetId="1" r:id="rId1"/>
+    <sheet name="05-02" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="50">
   <si>
     <t>AEROLINEA</t>
   </si>
@@ -59,18 +59,27 @@
     <t>ETD</t>
   </si>
   <si>
+    <t>AVA</t>
+  </si>
+  <si>
+    <t>MHPR</t>
+  </si>
+  <si>
     <t>VOS</t>
   </si>
   <si>
     <t>KIAD</t>
   </si>
   <si>
-    <t>AVA</t>
+    <t>KONT</t>
   </si>
   <si>
     <t>MHLM</t>
   </si>
   <si>
+    <t>KOAK</t>
+  </si>
+  <si>
     <t>KLAX</t>
   </si>
   <si>
@@ -80,6 +89,9 @@
     <t>SEQM</t>
   </si>
   <si>
+    <t>MMMX</t>
+  </si>
+  <si>
     <t>MGGT</t>
   </si>
   <si>
@@ -101,10 +113,13 @@
     <t>KJFK</t>
   </si>
   <si>
-    <t>MHPR</t>
-  </si>
-  <si>
-    <t>MMMX</t>
+    <t>KEWR</t>
+  </si>
+  <si>
+    <t>TAG</t>
+  </si>
+  <si>
+    <t>MHRO</t>
   </si>
   <si>
     <t>AAL</t>
@@ -128,49 +143,46 @@
     <t>KIAH</t>
   </si>
   <si>
-    <t>FFT</t>
-  </si>
-  <si>
     <t>AMX</t>
   </si>
   <si>
     <t>KDFW</t>
   </si>
   <si>
+    <t>NKS</t>
+  </si>
+  <si>
+    <t>KFLL</t>
+  </si>
+  <si>
     <t>SKRG</t>
   </si>
   <si>
+    <t>MMUN</t>
+  </si>
+  <si>
     <t>IBE</t>
   </si>
   <si>
     <t>CYYZ</t>
   </si>
   <si>
-    <t>KBOS</t>
-  </si>
-  <si>
-    <t>KEWR</t>
+    <t>DHL</t>
+  </si>
+  <si>
+    <t>AJT</t>
+  </si>
+  <si>
+    <t>FDX</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>MHTG</t>
   </si>
   <si>
     <t>TPA</t>
-  </si>
-  <si>
-    <t>DHL</t>
-  </si>
-  <si>
-    <t>AJT</t>
-  </si>
-  <si>
-    <t>FDX</t>
-  </si>
-  <si>
-    <t>ARM</t>
-  </si>
-  <si>
-    <t>MHTG</t>
-  </si>
-  <si>
-    <t>KOAK</t>
   </si>
   <si>
     <t>LEMD</t>
@@ -548,8 +560,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44462E92-2E62-4035-8414-A31F8BE962A9}">
-  <dimension ref="A1:G143"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170D81C6-F2F2-42AF-966F-830C05A1523C}">
+  <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,13 +600,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
-        <v>2.013888888888889E-2</v>
+        <v>8.2638888888888887E-2</v>
       </c>
       <c r="D2">
         <v>4156</v>
@@ -603,33 +615,33 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.18402777777777779</v>
-      </c>
-      <c r="D3">
-        <v>222</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="E3">
+        <v>1670</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="E4">
-        <v>879</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.20972222222222223</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.18402777777777779</v>
+      </c>
+      <c r="D4">
+        <v>222</v>
+      </c>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -639,40 +651,40 @@
         <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>0.21875</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="D5">
-        <v>4313</v>
+        <v>453</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="D6">
-        <v>575</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="E6">
+        <v>879</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.20972222222222223</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
-        <v>0.22569444444444445</v>
+        <v>0.21875</v>
       </c>
       <c r="D7">
-        <v>224</v>
+        <v>4313</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -684,40 +696,40 @@
         <v>11</v>
       </c>
       <c r="C8" s="1">
-        <v>0.23541666666666666</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="D8">
-        <v>4309</v>
+        <v>531</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
       <c r="C9" s="1">
-        <v>0.23958333333333334</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="D9">
-        <v>1266</v>
+        <v>575</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1">
-        <v>0.24652777777777779</v>
+        <v>0.22569444444444445</v>
       </c>
       <c r="D10">
-        <v>456</v>
+        <v>224</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -726,13 +738,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
-        <v>0.25694444444444442</v>
+        <v>0.23472222222222222</v>
       </c>
       <c r="D11">
-        <v>579</v>
+        <v>4323</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -741,43 +753,43 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.23541666666666666</v>
       </c>
       <c r="D12">
-        <v>366</v>
+        <v>4309</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.23958333333333334</v>
       </c>
       <c r="D13">
-        <v>529</v>
+        <v>1266</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="1">
-        <v>0.2638888888888889</v>
+        <v>0.24652777777777779</v>
       </c>
       <c r="D14">
-        <v>314</v>
+        <v>456</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -785,74 +797,74 @@
       <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="E15">
-        <v>4326</v>
-      </c>
-      <c r="F15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.2638888888888889</v>
-      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="D15">
+        <v>433</v>
+      </c>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1">
-        <v>0.2673611111111111</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="D16">
-        <v>428</v>
+        <v>579</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1">
-        <v>0.2673611111111111</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D17">
-        <v>626</v>
+        <v>366</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D18">
-        <v>561</v>
+        <v>529</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="D19">
-        <v>571</v>
+        <v>314</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -860,121 +872,121 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D20">
-        <v>591</v>
-      </c>
-      <c r="G20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="E20">
+        <v>4326</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.2638888888888889</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="E21">
-        <v>4318</v>
-      </c>
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.28611111111111109</v>
-      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="D21">
+        <v>428</v>
+      </c>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="E22">
-        <v>1467</v>
-      </c>
-      <c r="F22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.28819444444444448</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="D22">
+        <v>650</v>
+      </c>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D23">
-        <v>521</v>
+        <v>561</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="E24">
-        <v>396</v>
-      </c>
-      <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.3125</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D24">
+        <v>571</v>
+      </c>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="E25">
-        <v>4338</v>
-      </c>
-      <c r="F25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.31527777777777777</v>
-      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D25">
+        <v>591</v>
+      </c>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1"/>
       <c r="E26">
-        <v>310</v>
+        <v>1467</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G26" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.28819444444444448</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="E27">
-        <v>440</v>
-      </c>
-      <c r="F27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0.31597222222222221</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D27">
+        <v>521</v>
+      </c>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -982,340 +994,340 @@
       </c>
       <c r="C28" s="1"/>
       <c r="E28">
-        <v>536</v>
+        <v>4330</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G28" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1"/>
       <c r="E29">
-        <v>444</v>
+        <v>321</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G29" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C30" s="1"/>
       <c r="E30">
-        <v>562</v>
+        <v>323</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G30" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="D31">
-        <v>4053</v>
-      </c>
-      <c r="G31" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="E31">
+        <v>396</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1"/>
       <c r="E32">
-        <v>368</v>
+        <v>884</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G32" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C33" s="1"/>
       <c r="E33">
-        <v>383</v>
+        <v>310</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G33" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C34" s="1"/>
       <c r="E34">
-        <v>522</v>
+        <v>440</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="G34" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0.33680555555555558</v>
-      </c>
-      <c r="D35">
-        <v>581</v>
-      </c>
-      <c r="G35" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="E35">
+        <v>536</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.31597222222222221</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C36" s="1"/>
       <c r="E36">
-        <v>660</v>
+        <v>562</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G36" s="1">
-        <v>0.33680555555555558</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C37" s="1"/>
       <c r="E37">
-        <v>454</v>
+        <v>368</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G37" s="1">
-        <v>0.34027777777777779</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C38" s="1"/>
       <c r="E38">
-        <v>554</v>
+        <v>383</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G38" s="1">
-        <v>0.34027777777777779</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C39" s="1"/>
       <c r="E39">
-        <v>324</v>
+        <v>522</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="G39" s="1">
-        <v>0.34375</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="E40">
-        <v>884</v>
-      </c>
-      <c r="F40" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0.3576388888888889</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="D40">
+        <v>581</v>
+      </c>
+      <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C41" s="1"/>
       <c r="E41">
-        <v>1467</v>
+        <v>660</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G41" s="1">
-        <v>0.37152777777777773</v>
+        <v>0.33680555555555558</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0.37847222222222221</v>
-      </c>
-      <c r="D42">
-        <v>559</v>
-      </c>
-      <c r="G42" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="E42">
+        <v>454</v>
+      </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.34027777777777779</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C43" s="1"/>
       <c r="E43">
-        <v>369</v>
+        <v>572</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G43" s="1">
-        <v>0.37847222222222221</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C44" s="1"/>
       <c r="E44">
-        <v>430</v>
+        <v>324</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G44" s="1">
-        <v>0.37847222222222221</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="D45">
-        <v>4053</v>
-      </c>
-      <c r="G45" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="E45">
+        <v>369</v>
+      </c>
+      <c r="F45" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.37847222222222221</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C46" s="1"/>
       <c r="E46">
-        <v>582</v>
+        <v>430</v>
       </c>
       <c r="F46" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G46" s="1">
-        <v>0.39930555555555558</v>
+        <v>0.37847222222222221</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0.41319444444444442</v>
-      </c>
-      <c r="D47">
-        <v>659</v>
-      </c>
-      <c r="G47" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="E47">
+        <v>582</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.39930555555555558</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="E48">
-        <v>392</v>
-      </c>
-      <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" s="1">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="1">
         <v>0.41319444444444442</v>
       </c>
+      <c r="D48">
+        <v>569</v>
+      </c>
+      <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>40</v>
-      </c>
-      <c r="B49" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" s="1">
-        <v>0.4236111111111111</v>
-      </c>
-      <c r="D49">
-        <v>731</v>
-      </c>
-      <c r="G49" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="E49">
+        <v>392</v>
+      </c>
+      <c r="F49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.41319444444444442</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C50" s="1"/>
       <c r="E50">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G50" s="1">
         <v>0.4236111111111111</v>
@@ -1325,59 +1337,59 @@
       <c r="A51" t="s">
         <v>9</v>
       </c>
-      <c r="B51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="D51">
-        <v>537</v>
-      </c>
-      <c r="G51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="E51">
+        <v>4320</v>
+      </c>
+      <c r="F51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.4236111111111111</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C52" s="1">
-        <v>0.44791666666666669</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D52">
-        <v>455</v>
+        <v>537</v>
       </c>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C53" s="1">
-        <v>0.46180555555555558</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="D53">
-        <v>384</v>
+        <v>455</v>
       </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C54" s="1">
-        <v>0.4861111111111111</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="D54">
-        <v>730</v>
+        <v>320</v>
       </c>
       <c r="G54" s="1"/>
     </row>
@@ -1386,105 +1398,105 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C55" s="1">
-        <v>0.49444444444444446</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="D55">
-        <v>4301</v>
+        <v>573</v>
       </c>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
         <v>25</v>
       </c>
-      <c r="B56" t="s">
-        <v>26</v>
-      </c>
       <c r="C56" s="1">
-        <v>0.5</v>
+        <v>0.45347222222222222</v>
       </c>
       <c r="D56">
-        <v>916</v>
+        <v>4337</v>
       </c>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="1"/>
-      <c r="E57">
-        <v>385</v>
-      </c>
-      <c r="F57" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="D57">
+        <v>384</v>
+      </c>
+      <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="E58">
-        <v>424</v>
-      </c>
-      <c r="F58" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" t="s">
         <v>29</v>
       </c>
-      <c r="G58" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+      <c r="C58" s="1">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="D58">
+        <v>741</v>
+      </c>
+      <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C59" s="1"/>
       <c r="E59">
-        <v>319</v>
+        <v>584</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G59" s="1">
-        <v>0.51041666666666663</v>
+        <v>0.49305555555555558</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>42</v>
-      </c>
-      <c r="B60" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="D60">
-        <v>4</v>
-      </c>
-      <c r="G60" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="E60">
+        <v>650</v>
+      </c>
+      <c r="F60" t="s">
+        <v>40</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.49305555555555558</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>23</v>
-      </c>
-      <c r="B61" t="s">
-        <v>24</v>
-      </c>
-      <c r="C61" s="1">
-        <v>0.52152777777777781</v>
-      </c>
-      <c r="D61">
-        <v>339</v>
-      </c>
-      <c r="G61" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="E61">
+        <v>385</v>
+      </c>
+      <c r="F61" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -1492,179 +1504,179 @@
       </c>
       <c r="C62" s="1"/>
       <c r="E62">
-        <v>4340</v>
+        <v>442</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G62" s="1">
-        <v>0.52569444444444446</v>
+        <v>0.50347222222222221</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>25</v>
-      </c>
-      <c r="B63" t="s">
-        <v>26</v>
-      </c>
-      <c r="C63" s="1">
-        <v>0.52986111111111112</v>
-      </c>
-      <c r="D63">
-        <v>816</v>
-      </c>
-      <c r="G63" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="E63">
+        <v>319</v>
+      </c>
+      <c r="F63" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0.51041666666666663</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" t="s">
         <v>27</v>
       </c>
-      <c r="B64" t="s">
-        <v>28</v>
-      </c>
       <c r="C64" s="1">
-        <v>0.54861111111111105</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="D64">
-        <v>1910</v>
+        <v>420</v>
       </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C65" s="1">
-        <v>0.55208333333333337</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="D65">
-        <v>916</v>
+        <v>4</v>
       </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B66" t="s">
         <v>29</v>
       </c>
       <c r="C66" s="1">
-        <v>0.55486111111111114</v>
+        <v>0.52152777777777781</v>
       </c>
       <c r="D66">
-        <v>1441</v>
+        <v>339</v>
       </c>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C67" s="1">
-        <v>0.55625000000000002</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="D67">
-        <v>219</v>
+        <v>740</v>
       </c>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>23</v>
-      </c>
-      <c r="C68" s="1"/>
-      <c r="E68">
-        <v>348</v>
-      </c>
-      <c r="F68" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68" s="1">
-        <v>0.56319444444444444</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B68" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="D68">
+        <v>816</v>
+      </c>
+      <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C69" s="1">
-        <v>0.56666666666666665</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="D69">
-        <v>8139</v>
+        <v>1910</v>
       </c>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>25</v>
-      </c>
-      <c r="C70" s="1"/>
-      <c r="E70">
-        <v>871</v>
-      </c>
-      <c r="F70" t="s">
-        <v>26</v>
-      </c>
-      <c r="G70" s="1">
-        <v>0.57291666666666663</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.55486111111111114</v>
+      </c>
+      <c r="D70">
+        <v>1441</v>
+      </c>
+      <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>31</v>
-      </c>
-      <c r="B71" t="s">
-        <v>22</v>
-      </c>
-      <c r="C71" s="1">
-        <v>0.5805555555555556</v>
-      </c>
-      <c r="D71">
-        <v>628</v>
-      </c>
-      <c r="G71" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="E71">
+        <v>421</v>
+      </c>
+      <c r="F71" t="s">
+        <v>27</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0.5625</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>23</v>
-      </c>
-      <c r="B72" t="s">
-        <v>32</v>
-      </c>
-      <c r="C72" s="1">
-        <v>0.59791666666666665</v>
-      </c>
-      <c r="D72">
-        <v>1035</v>
-      </c>
-      <c r="G72" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="E72">
+        <v>348</v>
+      </c>
+      <c r="F72" t="s">
+        <v>29</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.56319444444444444</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>27</v>
-      </c>
-      <c r="C73" s="1"/>
-      <c r="E73">
-        <v>1978</v>
-      </c>
-      <c r="F73" t="s">
-        <v>28</v>
-      </c>
-      <c r="G73" s="1">
-        <v>0.60763888888888895</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="D73">
+        <v>8139</v>
+      </c>
+      <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -1672,177 +1684,177 @@
       </c>
       <c r="C74" s="1"/>
       <c r="E74">
-        <v>218</v>
+        <v>871</v>
       </c>
       <c r="F74" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G74" s="1">
-        <v>0.61527777777777781</v>
+        <v>0.57291666666666663</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" s="1"/>
-      <c r="E75">
-        <v>1468</v>
-      </c>
-      <c r="F75" t="s">
-        <v>29</v>
-      </c>
-      <c r="G75" s="1">
-        <v>0.61805555555555558</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="D75">
+        <v>628</v>
+      </c>
+      <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C76" s="1">
-        <v>0.62222222222222223</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="D76">
-        <v>4319</v>
+        <v>1035</v>
       </c>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C77" s="1"/>
       <c r="E77">
-        <v>629</v>
+        <v>1978</v>
       </c>
       <c r="F77" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G77" s="1">
-        <v>0.63055555555555554</v>
+        <v>0.60763888888888895</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>23</v>
-      </c>
-      <c r="C78" s="1"/>
-      <c r="E78">
-        <v>1104</v>
-      </c>
-      <c r="F78" t="s">
-        <v>32</v>
-      </c>
-      <c r="G78" s="1">
-        <v>0.63958333333333328</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B78" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.61736111111111114</v>
+      </c>
+      <c r="D78">
+        <v>3151</v>
+      </c>
+      <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>12</v>
-      </c>
-      <c r="B79" t="s">
-        <v>29</v>
-      </c>
-      <c r="C79" s="1">
-        <v>0.64166666666666672</v>
-      </c>
-      <c r="D79">
-        <v>1290</v>
-      </c>
-      <c r="G79" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="E79">
+        <v>1468</v>
+      </c>
+      <c r="F79" t="s">
+        <v>34</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0.61805555555555558</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C80" s="1">
-        <v>0.64583333333333337</v>
+        <v>0.61944444444444446</v>
       </c>
       <c r="D80">
-        <v>4</v>
+        <v>1031</v>
       </c>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>9</v>
-      </c>
-      <c r="B81" t="s">
-        <v>15</v>
-      </c>
-      <c r="C81" s="1">
-        <v>0.65277777777777779</v>
-      </c>
-      <c r="D81">
-        <v>382</v>
-      </c>
-      <c r="G81" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="E81">
+        <v>629</v>
+      </c>
+      <c r="F81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0.63263888888888886</v>
+      </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C82" s="1"/>
       <c r="E82">
-        <v>317</v>
+        <v>1104</v>
       </c>
       <c r="F82" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G82" s="1">
-        <v>0.65625</v>
+        <v>0.63958333333333328</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C83" s="1">
-        <v>0.66527777777777775</v>
+        <v>0.64166666666666672</v>
       </c>
       <c r="D83">
-        <v>7139</v>
+        <v>1290</v>
       </c>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B84" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C84" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="D84">
-        <v>367</v>
+        <v>4</v>
       </c>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C85" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="D85">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="G85" s="1"/>
     </row>
@@ -1850,225 +1862,225 @@
       <c r="A86" t="s">
         <v>7</v>
       </c>
-      <c r="B86" t="s">
-        <v>18</v>
-      </c>
-      <c r="C86" s="1">
-        <v>0.66736111111111107</v>
-      </c>
-      <c r="D86">
-        <v>4341</v>
-      </c>
-      <c r="G86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="E86">
+        <v>317</v>
+      </c>
+      <c r="F86" t="s">
+        <v>31</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0.65625</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>9</v>
-      </c>
-      <c r="B87" t="s">
-        <v>32</v>
-      </c>
-      <c r="C87" s="1">
-        <v>0.68055555555555558</v>
-      </c>
-      <c r="D87">
-        <v>441</v>
-      </c>
-      <c r="G87" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="E87">
+        <v>356</v>
+      </c>
+      <c r="F87" t="s">
+        <v>29</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0.65902777777777777</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" s="1"/>
-      <c r="E88">
-        <v>4322</v>
-      </c>
-      <c r="F88" t="s">
-        <v>44</v>
-      </c>
-      <c r="G88" s="1">
-        <v>0.68611111111111112</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0.66527777777777775</v>
+      </c>
+      <c r="D88">
+        <v>7139</v>
+      </c>
+      <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B89" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C89" s="1">
-        <v>0.6875</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D89">
-        <v>311</v>
+        <v>367</v>
       </c>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C90" s="1">
-        <v>0.6875</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D90">
-        <v>318</v>
+        <v>370</v>
       </c>
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>9</v>
-      </c>
-      <c r="B91" t="s">
-        <v>14</v>
-      </c>
-      <c r="C91" s="1">
-        <v>0.69097222222222221</v>
-      </c>
-      <c r="D91">
-        <v>555</v>
-      </c>
-      <c r="G91" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="E91">
+        <v>1032</v>
+      </c>
+      <c r="F91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0.66805555555555562</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>12</v>
-      </c>
-      <c r="C92" s="1"/>
-      <c r="E92">
-        <v>1130</v>
-      </c>
-      <c r="F92" t="s">
-        <v>29</v>
-      </c>
-      <c r="G92" s="1">
-        <v>0.69444444444444453</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B92" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="D92">
+        <v>397</v>
+      </c>
+      <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C93" s="1">
-        <v>0.69722222222222219</v>
+        <v>0.68055555555555558</v>
       </c>
       <c r="D93">
-        <v>4327</v>
+        <v>441</v>
       </c>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B94" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C94" s="1">
-        <v>0.70138888888888884</v>
+        <v>0.68402777777777779</v>
       </c>
       <c r="D94">
-        <v>322</v>
+        <v>651</v>
       </c>
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95" s="1"/>
-      <c r="E95">
-        <v>520</v>
-      </c>
-      <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B95" t="s">
+        <v>29</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="D95">
+        <v>311</v>
+      </c>
+      <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96" s="1"/>
-      <c r="E96">
-        <v>560</v>
-      </c>
-      <c r="F96" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="D96">
+        <v>318</v>
+      </c>
+      <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C97" s="1"/>
       <c r="E97">
-        <v>588</v>
+        <v>1130</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G97" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.69444444444444453</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>9</v>
       </c>
-      <c r="C98" s="1"/>
-      <c r="E98">
-        <v>617</v>
-      </c>
-      <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+      <c r="B98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0.69722222222222219</v>
+      </c>
+      <c r="D98">
+        <v>4327</v>
+      </c>
+      <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99" s="1"/>
-      <c r="E99">
-        <v>448</v>
-      </c>
-      <c r="F99" t="s">
-        <v>21</v>
-      </c>
-      <c r="G99" s="1">
-        <v>0.74305555555555558</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B99" t="s">
+        <v>31</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D99">
+        <v>322</v>
+      </c>
+      <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C100" s="1"/>
       <c r="E100">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="F100" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G100" s="1">
-        <v>0.74305555555555558</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -2077,43 +2089,43 @@
       </c>
       <c r="C101" s="1"/>
       <c r="E101">
-        <v>4308</v>
+        <v>530</v>
       </c>
       <c r="F101" t="s">
         <v>11</v>
       </c>
       <c r="G101" s="1">
-        <v>0.74583333333333335</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>9</v>
-      </c>
-      <c r="B102" t="s">
-        <v>18</v>
-      </c>
-      <c r="C102" s="1">
-        <v>0.74652777777777779</v>
-      </c>
-      <c r="D102">
-        <v>612</v>
-      </c>
-      <c r="G102" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="E102">
+        <v>560</v>
+      </c>
+      <c r="F102" t="s">
+        <v>23</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C103" s="1"/>
       <c r="E103">
-        <v>528</v>
+        <v>588</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G103" s="1">
-        <v>0.76041666666666663</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -2122,73 +2134,73 @@
       </c>
       <c r="C104" s="1"/>
       <c r="E104">
-        <v>4312</v>
+        <v>615</v>
       </c>
       <c r="F104" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G104" s="1">
-        <v>0.77638888888888891</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C105" s="1">
-        <v>0.78125</v>
+        <v>0.73472222222222228</v>
       </c>
       <c r="D105">
-        <v>930</v>
+        <v>4321</v>
       </c>
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>9</v>
-      </c>
-      <c r="B106" t="s">
-        <v>22</v>
-      </c>
-      <c r="C106" s="1">
-        <v>0.79513888888888884</v>
-      </c>
-      <c r="D106">
-        <v>431</v>
-      </c>
-      <c r="G106" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="E106">
+        <v>534</v>
+      </c>
+      <c r="F106" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0.74305555555555558</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>34</v>
-      </c>
-      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="E107">
+        <v>4308</v>
+      </c>
+      <c r="F107" t="s">
         <v>14</v>
       </c>
-      <c r="C107" s="1">
-        <v>0.8125</v>
-      </c>
-      <c r="D107">
-        <v>222</v>
-      </c>
-      <c r="G107" s="1"/>
+      <c r="G107" s="1">
+        <v>0.74583333333333335</v>
+      </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C108" s="1"/>
       <c r="E108">
-        <v>570</v>
+        <v>528</v>
       </c>
       <c r="F108" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G108" s="1">
-        <v>0.8125</v>
+        <v>0.76041666666666663</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -2196,479 +2208,479 @@
         <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C109" s="1">
-        <v>0.81944444444444442</v>
+        <v>0.7631944444444444</v>
       </c>
       <c r="D109">
-        <v>425</v>
+        <v>4040</v>
       </c>
       <c r="G109" s="1"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>39</v>
-      </c>
-      <c r="B110" t="s">
-        <v>14</v>
-      </c>
-      <c r="C110" s="1">
-        <v>0.82291666666666663</v>
-      </c>
-      <c r="D110">
-        <v>932</v>
-      </c>
-      <c r="G110" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="E110">
+        <v>4312</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0.77638888888888891</v>
+      </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B111" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C111" s="1">
-        <v>0.82638888888888884</v>
+        <v>0.78125</v>
       </c>
       <c r="D111">
-        <v>523</v>
+        <v>930</v>
       </c>
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C112" s="1">
-        <v>0.82986111111111116</v>
+        <v>0.78541666666666665</v>
       </c>
       <c r="D112">
-        <v>583</v>
+        <v>4158</v>
       </c>
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>9</v>
-      </c>
-      <c r="B113" t="s">
-        <v>35</v>
-      </c>
-      <c r="C113" s="1">
-        <v>0.84375</v>
-      </c>
-      <c r="D113">
-        <v>325</v>
-      </c>
-      <c r="G113" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="E113">
+        <v>558</v>
+      </c>
+      <c r="F113" t="s">
+        <v>23</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0.78819444444444442</v>
+      </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C114" s="1">
-        <v>0.84375</v>
+        <v>0.79027777777777775</v>
       </c>
       <c r="D114">
-        <v>445</v>
+        <v>4331</v>
       </c>
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>9</v>
-      </c>
-      <c r="C115" s="1"/>
-      <c r="E115">
-        <v>590</v>
-      </c>
-      <c r="F115" t="s">
-        <v>8</v>
-      </c>
-      <c r="G115" s="1">
-        <v>0.85069444444444442</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B115" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" s="1">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="D115">
+        <v>431</v>
+      </c>
+      <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>9</v>
       </c>
-      <c r="B116" t="s">
-        <v>16</v>
-      </c>
-      <c r="C116" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D116">
-        <v>393</v>
-      </c>
-      <c r="G116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="E116">
+        <v>4041</v>
+      </c>
+      <c r="F116" t="s">
+        <v>22</v>
+      </c>
+      <c r="G116" s="1">
+        <v>0.79513888888888884</v>
+      </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B117" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C117" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.8125</v>
       </c>
       <c r="D117">
-        <v>449</v>
+        <v>222</v>
       </c>
       <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>25</v>
-      </c>
-      <c r="B118" t="s">
-        <v>26</v>
-      </c>
-      <c r="C118" s="1">
-        <v>0.86041666666666661</v>
-      </c>
-      <c r="D118">
-        <v>881</v>
-      </c>
-      <c r="G118" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="E118">
+        <v>570</v>
+      </c>
+      <c r="F118" t="s">
+        <v>24</v>
+      </c>
+      <c r="G118" s="1">
+        <v>0.8125</v>
+      </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B119" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C119" s="1">
-        <v>0.86805555555555558</v>
+        <v>0.82291666666666663</v>
       </c>
       <c r="D119">
-        <v>563</v>
+        <v>932</v>
       </c>
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B120" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C120" s="1">
-        <v>0.87152777777777779</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="D120">
-        <v>316</v>
+        <v>523</v>
       </c>
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B121" t="s">
         <v>10</v>
       </c>
       <c r="C121" s="1">
-        <v>0.875</v>
+        <v>0.82986111111111116</v>
       </c>
       <c r="D121">
-        <v>535</v>
+        <v>583</v>
       </c>
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>34</v>
-      </c>
-      <c r="C122" s="1"/>
-      <c r="E122">
-        <v>222</v>
-      </c>
-      <c r="F122" t="s">
-        <v>45</v>
-      </c>
-      <c r="G122" s="1">
-        <v>0.875</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B122" t="s">
+        <v>42</v>
+      </c>
+      <c r="C122" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="D122">
+        <v>325</v>
+      </c>
+      <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B123" t="s">
         <v>14</v>
       </c>
       <c r="C123" s="1">
-        <v>0.87847222222222221</v>
+        <v>0.84791666666666665</v>
       </c>
       <c r="D123">
-        <v>589</v>
+        <v>4158</v>
       </c>
       <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>9</v>
-      </c>
-      <c r="B124" t="s">
-        <v>18</v>
-      </c>
-      <c r="C124" s="1">
-        <v>0.87847222222222221</v>
-      </c>
-      <c r="D124">
-        <v>616</v>
-      </c>
-      <c r="G124" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C124" s="1"/>
+      <c r="E124">
+        <v>590</v>
+      </c>
+      <c r="F124" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="1">
+        <v>0.85069444444444442</v>
+      </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B125" t="s">
         <v>20</v>
       </c>
       <c r="C125" s="1">
-        <v>0.87847222222222221</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D125">
-        <v>661</v>
+        <v>393</v>
       </c>
       <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B126" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C126" s="1">
-        <v>0.8881944444444444</v>
+        <v>0.86041666666666661</v>
       </c>
       <c r="D126">
-        <v>1461</v>
+        <v>881</v>
       </c>
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>9</v>
-      </c>
-      <c r="C127" s="1"/>
-      <c r="E127">
-        <v>365</v>
-      </c>
-      <c r="F127" t="s">
-        <v>15</v>
-      </c>
-      <c r="G127" s="1">
-        <v>0.92013888888888884</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B127" t="s">
+        <v>36</v>
+      </c>
+      <c r="C127" s="1">
+        <v>0.86805555555555558</v>
+      </c>
+      <c r="D127">
+        <v>443</v>
+      </c>
+      <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>9</v>
-      </c>
-      <c r="C128" s="1"/>
-      <c r="E128">
-        <v>580</v>
-      </c>
-      <c r="F128" t="s">
-        <v>8</v>
-      </c>
-      <c r="G128" s="1">
-        <v>0.92013888888888884</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B128" t="s">
+        <v>23</v>
+      </c>
+      <c r="C128" s="1">
+        <v>0.86805555555555558</v>
+      </c>
+      <c r="D128">
+        <v>563</v>
+      </c>
+      <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>9</v>
-      </c>
-      <c r="C129" s="1"/>
-      <c r="E129">
-        <v>429</v>
-      </c>
-      <c r="F129" t="s">
-        <v>17</v>
-      </c>
-      <c r="G129" s="1">
-        <v>0.92361111111111116</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B129" t="s">
+        <v>31</v>
+      </c>
+      <c r="C129" s="1">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="D129">
+        <v>316</v>
+      </c>
+      <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>7</v>
       </c>
       <c r="B130" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C130" s="1">
-        <v>0.92986111111111114</v>
+        <v>0.875</v>
       </c>
       <c r="D130">
-        <v>4339</v>
+        <v>535</v>
       </c>
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C131" s="1"/>
       <c r="E131">
-        <v>578</v>
+        <v>222</v>
       </c>
       <c r="F131" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="G131" s="1">
-        <v>0.93055555555555558</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>9</v>
-      </c>
-      <c r="C132" s="1"/>
-      <c r="E132">
-        <v>627</v>
-      </c>
-      <c r="F132" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" t="s">
         <v>18</v>
       </c>
-      <c r="G132" s="1">
-        <v>0.93402777777777779</v>
-      </c>
+      <c r="C132" s="1">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="D132">
+        <v>589</v>
+      </c>
+      <c r="G132" s="1"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>9</v>
-      </c>
-      <c r="C133" s="1"/>
-      <c r="E133">
-        <v>574</v>
-      </c>
-      <c r="F133" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="1">
-        <v>0.9375</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B133" t="s">
+        <v>22</v>
+      </c>
+      <c r="C133" s="1">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="D133">
+        <v>614</v>
+      </c>
+      <c r="G133" s="1"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>9</v>
-      </c>
-      <c r="C134" s="1"/>
-      <c r="E134">
-        <v>315</v>
-      </c>
-      <c r="F134" t="s">
-        <v>16</v>
-      </c>
-      <c r="G134" s="1">
-        <v>0.94097222222222221</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B134" t="s">
+        <v>24</v>
+      </c>
+      <c r="C134" s="1">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="D134">
+        <v>661</v>
+      </c>
+      <c r="G134" s="1"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>9</v>
-      </c>
-      <c r="C135" s="1"/>
-      <c r="E135">
-        <v>568</v>
-      </c>
-      <c r="F135" t="s">
-        <v>20</v>
-      </c>
-      <c r="G135" s="1">
-        <v>0.94444444444444442</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B135" t="s">
+        <v>34</v>
+      </c>
+      <c r="C135" s="1">
+        <v>0.8881944444444444</v>
+      </c>
+      <c r="D135">
+        <v>1461</v>
+      </c>
+      <c r="G135" s="1"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>9</v>
-      </c>
-      <c r="C136" s="1"/>
-      <c r="E136">
-        <v>658</v>
-      </c>
-      <c r="F136" t="s">
-        <v>20</v>
-      </c>
-      <c r="G136" s="1">
-        <v>0.94444444444444442</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B136" t="s">
+        <v>22</v>
+      </c>
+      <c r="C136" s="1">
+        <v>0.89236111111111116</v>
+      </c>
+      <c r="D136">
+        <v>608</v>
+      </c>
+      <c r="G136" s="1"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C137" s="1">
-        <v>0.94930555555555562</v>
+        <v>0.91319444444444442</v>
       </c>
       <c r="D137">
-        <v>1425</v>
+        <v>585</v>
       </c>
       <c r="G137" s="1"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C138" s="1"/>
       <c r="E138">
-        <v>452</v>
+        <v>578</v>
       </c>
       <c r="F138" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G138" s="1">
-        <v>0.95486111111111116</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C139" s="1"/>
       <c r="E139">
-        <v>457</v>
+        <v>365</v>
       </c>
       <c r="F139" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G139" s="1">
-        <v>0.95486111111111116</v>
+        <v>0.92013888888888884</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C140" s="1"/>
       <c r="E140">
-        <v>432</v>
+        <v>580</v>
       </c>
       <c r="F140" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G140" s="1">
-        <v>0.95833333333333337</v>
+        <v>0.92013888888888884</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -2677,43 +2689,103 @@
       </c>
       <c r="C141" s="1"/>
       <c r="E141">
-        <v>4336</v>
+        <v>315</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G141" s="1">
-        <v>0.97152777777777777</v>
+        <v>0.92013888888888884</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>25</v>
-      </c>
-      <c r="B142" t="s">
-        <v>26</v>
-      </c>
-      <c r="C142" s="1">
-        <v>0.98402777777777783</v>
-      </c>
-      <c r="D142">
-        <v>878</v>
-      </c>
-      <c r="G142" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C142" s="1"/>
+      <c r="E142">
+        <v>457</v>
+      </c>
+      <c r="F142" t="s">
+        <v>16</v>
+      </c>
+      <c r="G142" s="1">
+        <v>0.92013888888888884</v>
+      </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>12</v>
-      </c>
-      <c r="C143" s="1"/>
-      <c r="E143">
-        <v>339</v>
-      </c>
-      <c r="F143" t="s">
-        <v>37</v>
-      </c>
-      <c r="G143" s="1">
-        <v>0.99583333333333324</v>
+        <v>30</v>
+      </c>
+      <c r="B143" t="s">
+        <v>31</v>
+      </c>
+      <c r="C143" s="1">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="D143">
+        <v>878</v>
+      </c>
+      <c r="G143" s="1"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" s="1"/>
+      <c r="E144">
+        <v>429</v>
+      </c>
+      <c r="F144" t="s">
+        <v>21</v>
+      </c>
+      <c r="G144" s="1">
+        <v>0.92361111111111116</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" s="1"/>
+      <c r="E145">
+        <v>658</v>
+      </c>
+      <c r="F145" t="s">
+        <v>24</v>
+      </c>
+      <c r="G145" s="1">
+        <v>0.92361111111111116</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" s="1"/>
+      <c r="E146">
+        <v>452</v>
+      </c>
+      <c r="F146" t="s">
+        <v>8</v>
+      </c>
+      <c r="G146" s="1">
+        <v>0.92361111111111116</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" s="1"/>
+      <c r="E147">
+        <v>651</v>
+      </c>
+      <c r="F147" t="s">
+        <v>22</v>
+      </c>
+      <c r="G147" s="1">
+        <v>0.92708333333333337</v>
       </c>
     </row>
   </sheetData>

--- a/public/operaciones.xlsx
+++ b/public/operaciones.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulm\Desktop\Itinerarios_2026-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D32A725-CDDD-4E39-AA97-852121A082E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85977903-1CF1-4E04-90B9-E17BB7456512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7A7DD2A2-B0BB-42A9-803B-A955D021DBB5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{514F8404-1347-4DC7-B5F9-8720E5149FA5}"/>
   </bookViews>
   <sheets>
-    <sheet name="05-02" sheetId="1" r:id="rId1"/>
+    <sheet name="06-02" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="46">
   <si>
     <t>AEROLINEA</t>
   </si>
@@ -71,118 +71,106 @@
     <t>KIAD</t>
   </si>
   <si>
-    <t>KONT</t>
+    <t>KLAX</t>
+  </si>
+  <si>
+    <t>UAL</t>
+  </si>
+  <si>
+    <t>SEQM</t>
+  </si>
+  <si>
+    <t>MGGT</t>
+  </si>
+  <si>
+    <t>SKBO</t>
+  </si>
+  <si>
+    <t>MNMG</t>
+  </si>
+  <si>
+    <t>SPJC</t>
+  </si>
+  <si>
+    <t>MROC</t>
+  </si>
+  <si>
+    <t>KSFO</t>
+  </si>
+  <si>
+    <t>KJFK</t>
   </si>
   <si>
     <t>MHLM</t>
   </si>
   <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>KMIA</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>MPTO</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>KATL</t>
+  </si>
+  <si>
+    <t>KIAH</t>
+  </si>
+  <si>
+    <t>TSC</t>
+  </si>
+  <si>
+    <t>CYUL</t>
+  </si>
+  <si>
+    <t>AMX</t>
+  </si>
+  <si>
+    <t>MMMX</t>
+  </si>
+  <si>
+    <t>KDFW</t>
+  </si>
+  <si>
+    <t>IBE</t>
+  </si>
+  <si>
+    <t>CYYZ</t>
+  </si>
+  <si>
+    <t>KBOS</t>
+  </si>
+  <si>
+    <t>KEWR</t>
+  </si>
+  <si>
+    <t>TPA</t>
+  </si>
+  <si>
+    <t>DHL</t>
+  </si>
+  <si>
+    <t>AJT</t>
+  </si>
+  <si>
+    <t>MHTG</t>
+  </si>
+  <si>
+    <t>SKRG</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
     <t>KOAK</t>
-  </si>
-  <si>
-    <t>KLAX</t>
-  </si>
-  <si>
-    <t>UAL</t>
-  </si>
-  <si>
-    <t>SEQM</t>
-  </si>
-  <si>
-    <t>MMMX</t>
-  </si>
-  <si>
-    <t>MGGT</t>
-  </si>
-  <si>
-    <t>SKBO</t>
-  </si>
-  <si>
-    <t>MNMG</t>
-  </si>
-  <si>
-    <t>SPJC</t>
-  </si>
-  <si>
-    <t>MROC</t>
-  </si>
-  <si>
-    <t>KSFO</t>
-  </si>
-  <si>
-    <t>KJFK</t>
-  </si>
-  <si>
-    <t>KEWR</t>
-  </si>
-  <si>
-    <t>TAG</t>
-  </si>
-  <si>
-    <t>MHRO</t>
-  </si>
-  <si>
-    <t>AAL</t>
-  </si>
-  <si>
-    <t>KMIA</t>
-  </si>
-  <si>
-    <t>CMP</t>
-  </si>
-  <si>
-    <t>MPTO</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>KATL</t>
-  </si>
-  <si>
-    <t>KIAH</t>
-  </si>
-  <si>
-    <t>AMX</t>
-  </si>
-  <si>
-    <t>KDFW</t>
-  </si>
-  <si>
-    <t>NKS</t>
-  </si>
-  <si>
-    <t>KFLL</t>
-  </si>
-  <si>
-    <t>SKRG</t>
-  </si>
-  <si>
-    <t>MMUN</t>
-  </si>
-  <si>
-    <t>IBE</t>
-  </si>
-  <si>
-    <t>CYYZ</t>
-  </si>
-  <si>
-    <t>DHL</t>
-  </si>
-  <si>
-    <t>AJT</t>
-  </si>
-  <si>
-    <t>FDX</t>
-  </si>
-  <si>
-    <t>ARM</t>
-  </si>
-  <si>
-    <t>MHTG</t>
-  </si>
-  <si>
-    <t>TPA</t>
   </si>
   <si>
     <t>LEMD</t>
@@ -560,8 +548,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170D81C6-F2F2-42AF-966F-830C05A1523C}">
-  <dimension ref="A1:G147"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC4879D-9AA1-481E-9FB9-4DD72B0E1FAD}">
+  <dimension ref="A1:G141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,13 +588,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>8.2638888888888887E-2</v>
+        <v>6.1111111111111109E-2</v>
       </c>
       <c r="D2">
         <v>4156</v>
@@ -615,63 +603,63 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="E3">
-        <v>1670</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.125</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.18402777777777779</v>
+      </c>
+      <c r="D3">
+        <v>222</v>
+      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.18402777777777779</v>
-      </c>
-      <c r="D4">
-        <v>222</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="E4">
+        <v>1670</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.20833333333333334</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="D5">
-        <v>453</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="E5">
+        <v>879</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.20972222222222223</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="E6">
-        <v>879</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.20972222222222223</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="D6">
+        <v>453</v>
+      </c>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -690,16 +678,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1">
-        <v>0.22222222222222221</v>
+        <v>0.22569444444444445</v>
       </c>
       <c r="D8">
-        <v>531</v>
+        <v>224</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -707,74 +695,74 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="D9">
-        <v>575</v>
-      </c>
-      <c r="G9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="E9">
+        <v>556</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.22916666666666666</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="E10">
+        <v>4350</v>
+      </c>
+      <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1">
-        <v>0.22569444444444445</v>
-      </c>
-      <c r="D10">
-        <v>224</v>
-      </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>0.22916666666666666</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1">
-        <v>0.23472222222222222</v>
+        <v>0.23541666666666666</v>
       </c>
       <c r="D11">
-        <v>4323</v>
+        <v>4309</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
-        <v>0.23541666666666666</v>
+        <v>0.23958333333333334</v>
       </c>
       <c r="D12">
-        <v>4309</v>
+        <v>1266</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1">
-        <v>0.23958333333333334</v>
+        <v>0.24652777777777779</v>
       </c>
       <c r="D13">
-        <v>1266</v>
+        <v>456</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -783,13 +771,13 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1">
-        <v>0.24652777777777779</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="D14">
-        <v>456</v>
+        <v>579</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -798,13 +786,13 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1">
-        <v>0.25347222222222221</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D15">
-        <v>433</v>
+        <v>366</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -813,13 +801,13 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1">
-        <v>0.25694444444444442</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D16">
-        <v>579</v>
+        <v>529</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -828,73 +816,73 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="D17">
-        <v>366</v>
+        <v>314</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.26041666666666669</v>
-      </c>
-      <c r="D18">
-        <v>529</v>
-      </c>
-      <c r="G18" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="E18">
+        <v>4326</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.2638888888888889</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1">
-        <v>0.2638888888888889</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D19">
-        <v>314</v>
+        <v>428</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="E20">
-        <v>4326</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.2638888888888889</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="D20">
+        <v>626</v>
+      </c>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1">
-        <v>0.2673611111111111</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D21">
-        <v>428</v>
+        <v>561</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -903,13 +891,13 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
-        <v>0.2673611111111111</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D22">
-        <v>650</v>
+        <v>571</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -918,104 +906,104 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C23" s="1">
         <v>0.27083333333333331</v>
       </c>
       <c r="D23">
-        <v>561</v>
+        <v>591</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D24">
-        <v>571</v>
-      </c>
-      <c r="G24" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="E24">
+        <v>4318</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.28611111111111109</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D25">
-        <v>591</v>
-      </c>
-      <c r="G25" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="E25">
+        <v>1467</v>
+      </c>
+      <c r="F25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.28819444444444448</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="E26">
-        <v>1467</v>
-      </c>
-      <c r="F26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0.28819444444444448</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D26">
+        <v>521</v>
+      </c>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="D27">
-        <v>521</v>
-      </c>
-      <c r="G27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="E27">
+        <v>323</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1"/>
       <c r="E28">
-        <v>4330</v>
+        <v>396</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G28" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C29" s="1"/>
       <c r="E29">
-        <v>321</v>
+        <v>4338</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G29" s="1">
-        <v>0.3125</v>
+        <v>0.31527777777777777</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1024,13 +1012,13 @@
       </c>
       <c r="C30" s="1"/>
       <c r="E30">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G30" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1039,28 +1027,28 @@
       </c>
       <c r="C31" s="1"/>
       <c r="E31">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G31" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1"/>
       <c r="E32">
-        <v>884</v>
+        <v>536</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G32" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1069,13 +1057,13 @@
       </c>
       <c r="C33" s="1"/>
       <c r="E33">
-        <v>310</v>
+        <v>444</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G33" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1084,13 +1072,13 @@
       </c>
       <c r="C34" s="1"/>
       <c r="E34">
-        <v>440</v>
+        <v>562</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G34" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1099,13 +1087,13 @@
       </c>
       <c r="C35" s="1"/>
       <c r="E35">
-        <v>536</v>
+        <v>368</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G35" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1114,13 +1102,13 @@
       </c>
       <c r="C36" s="1"/>
       <c r="E36">
-        <v>562</v>
+        <v>383</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G36" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1129,10 +1117,10 @@
       </c>
       <c r="C37" s="1"/>
       <c r="E37">
-        <v>368</v>
+        <v>522</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="G37" s="1">
         <v>0.33333333333333331</v>
@@ -1142,16 +1130,16 @@
       <c r="A38" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="E38">
-        <v>383</v>
-      </c>
-      <c r="F38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="D38">
+        <v>581</v>
+      </c>
+      <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1159,29 +1147,29 @@
       </c>
       <c r="C39" s="1"/>
       <c r="E39">
-        <v>522</v>
+        <v>660</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G39" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.33680555555555558</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0.33680555555555558</v>
-      </c>
-      <c r="D40">
-        <v>581</v>
-      </c>
-      <c r="G40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="E40">
+        <v>554</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.34027777777777779</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -1189,59 +1177,59 @@
       </c>
       <c r="C41" s="1"/>
       <c r="E41">
-        <v>660</v>
+        <v>324</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G41" s="1">
-        <v>0.33680555555555558</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="E42">
-        <v>454</v>
-      </c>
-      <c r="F42" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0.34027777777777779</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.34722222222222221</v>
+      </c>
+      <c r="D42">
+        <v>4053</v>
+      </c>
+      <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C43" s="1"/>
       <c r="E43">
-        <v>572</v>
+        <v>884</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G43" s="1">
-        <v>0.34027777777777779</v>
+        <v>0.3576388888888889</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="E44">
-        <v>324</v>
-      </c>
-      <c r="F44" t="s">
-        <v>42</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0.34375</v>
-      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.37847222222222221</v>
+      </c>
+      <c r="D44">
+        <v>559</v>
+      </c>
+      <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -1249,10 +1237,10 @@
       </c>
       <c r="C45" s="1"/>
       <c r="E45">
-        <v>369</v>
+        <v>430</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G45" s="1">
         <v>0.37847222222222221</v>
@@ -1264,42 +1252,42 @@
       </c>
       <c r="C46" s="1"/>
       <c r="E46">
-        <v>430</v>
+        <v>582</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G46" s="1">
-        <v>0.37847222222222221</v>
+        <v>0.39930555555555558</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="E47">
-        <v>582</v>
-      </c>
-      <c r="F47" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="1">
-        <v>0.39930555555555558</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="D47">
+        <v>4053</v>
+      </c>
+      <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C48" s="1">
         <v>0.41319444444444442</v>
       </c>
       <c r="D48">
-        <v>569</v>
+        <v>659</v>
       </c>
       <c r="G48" s="1"/>
     </row>
@@ -1312,7 +1300,7 @@
         <v>392</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G49" s="1">
         <v>0.41319444444444442</v>
@@ -1324,10 +1312,10 @@
       </c>
       <c r="C50" s="1"/>
       <c r="E50">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G50" s="1">
         <v>0.4236111111111111</v>
@@ -1335,31 +1323,31 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="E51">
-        <v>4320</v>
-      </c>
-      <c r="F51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G51" s="1">
-        <v>0.4236111111111111</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D51">
+        <v>537</v>
+      </c>
+      <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C52" s="1">
-        <v>0.42708333333333331</v>
+        <v>0.46111111111111108</v>
       </c>
       <c r="D52">
-        <v>537</v>
+        <v>916</v>
       </c>
       <c r="G52" s="1"/>
     </row>
@@ -1368,28 +1356,28 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C53" s="1">
-        <v>0.44791666666666669</v>
+        <v>0.46180555555555558</v>
       </c>
       <c r="D53">
-        <v>455</v>
+        <v>384</v>
       </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C54" s="1">
-        <v>0.4513888888888889</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="D54">
-        <v>320</v>
+        <v>857</v>
       </c>
       <c r="G54" s="1"/>
     </row>
@@ -1397,464 +1385,464 @@
       <c r="A55" t="s">
         <v>7</v>
       </c>
-      <c r="B55" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55" s="1">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="D55">
-        <v>573</v>
-      </c>
-      <c r="G55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="E55">
+        <v>385</v>
+      </c>
+      <c r="F55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0.45347222222222222</v>
-      </c>
-      <c r="D56">
-        <v>4337</v>
-      </c>
-      <c r="G56" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="E56">
+        <v>424</v>
+      </c>
+      <c r="F56" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
-      <c r="B57" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" s="1">
-        <v>0.46180555555555558</v>
-      </c>
-      <c r="D57">
-        <v>384</v>
-      </c>
-      <c r="G57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="E57">
+        <v>319</v>
+      </c>
+      <c r="F57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.51041666666666663</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C58" s="1">
-        <v>0.46527777777777773</v>
+        <v>0.5131944444444444</v>
       </c>
       <c r="D58">
-        <v>741</v>
+        <v>915</v>
       </c>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="1"/>
-      <c r="E59">
-        <v>584</v>
-      </c>
-      <c r="F59" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="1">
-        <v>0.49305555555555558</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="D59">
+        <v>339</v>
+      </c>
+      <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="E60">
-        <v>650</v>
-      </c>
-      <c r="F60" t="s">
-        <v>40</v>
-      </c>
-      <c r="G60" s="1">
-        <v>0.49305555555555558</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="D60">
+        <v>816</v>
+      </c>
+      <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="E61">
-        <v>385</v>
-      </c>
-      <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="D61">
+        <v>1910</v>
+      </c>
+      <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="1"/>
-      <c r="E62">
-        <v>442</v>
-      </c>
-      <c r="F62" t="s">
-        <v>36</v>
-      </c>
-      <c r="G62" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="D62">
+        <v>856</v>
+      </c>
+      <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="1"/>
-      <c r="E63">
-        <v>319</v>
-      </c>
-      <c r="F63" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" s="1">
-        <v>0.51041666666666663</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.55486111111111114</v>
+      </c>
+      <c r="D63">
+        <v>1441</v>
+      </c>
+      <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C64" s="1">
-        <v>0.52083333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="D64">
-        <v>420</v>
+        <v>760</v>
       </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C65" s="1">
-        <v>0.52083333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>28</v>
-      </c>
-      <c r="B66" t="s">
-        <v>29</v>
-      </c>
-      <c r="C66" s="1">
-        <v>0.52152777777777781</v>
-      </c>
-      <c r="D66">
-        <v>339</v>
-      </c>
-      <c r="G66" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="E66">
+        <v>348</v>
+      </c>
+      <c r="F66" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.56319444444444444</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>44</v>
-      </c>
-      <c r="B67" t="s">
-        <v>29</v>
-      </c>
-      <c r="C67" s="1">
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="D67">
-        <v>740</v>
-      </c>
-      <c r="G67" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="E67">
+        <v>871</v>
+      </c>
+      <c r="F67" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0.57291666666666663</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C68" s="1">
-        <v>0.52986111111111112</v>
+        <v>0.57986111111111105</v>
       </c>
       <c r="D68">
-        <v>816</v>
+        <v>628</v>
       </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B69" t="s">
         <v>33</v>
       </c>
       <c r="C69" s="1">
-        <v>0.54861111111111105</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="D69">
-        <v>1910</v>
+        <v>1035</v>
       </c>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>15</v>
-      </c>
-      <c r="B70" t="s">
-        <v>34</v>
-      </c>
-      <c r="C70" s="1">
-        <v>0.55486111111111114</v>
-      </c>
-      <c r="D70">
-        <v>1441</v>
-      </c>
-      <c r="G70" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="E70">
+        <v>1978</v>
+      </c>
+      <c r="F70" t="s">
+        <v>27</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.60763888888888895</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C71" s="1"/>
       <c r="E71">
-        <v>421</v>
+        <v>761</v>
       </c>
       <c r="F71" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G71" s="1">
-        <v>0.5625</v>
+        <v>0.61111111111111105</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>28</v>
-      </c>
-      <c r="C72" s="1"/>
-      <c r="E72">
-        <v>348</v>
-      </c>
-      <c r="F72" t="s">
-        <v>29</v>
-      </c>
-      <c r="G72" s="1">
-        <v>0.56319444444444444</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0.61736111111111114</v>
+      </c>
+      <c r="D72">
+        <v>3151</v>
+      </c>
+      <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>45</v>
-      </c>
-      <c r="B73" t="s">
-        <v>18</v>
-      </c>
-      <c r="C73" s="1">
-        <v>0.56666666666666665</v>
-      </c>
-      <c r="D73">
-        <v>8139</v>
-      </c>
-      <c r="G73" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="E73">
+        <v>1468</v>
+      </c>
+      <c r="F73" t="s">
+        <v>28</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.61805555555555558</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>30</v>
-      </c>
-      <c r="C74" s="1"/>
-      <c r="E74">
-        <v>871</v>
-      </c>
-      <c r="F74" t="s">
-        <v>31</v>
-      </c>
-      <c r="G74" s="1">
-        <v>0.57291666666666663</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="D74">
+        <v>4319</v>
+      </c>
+      <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>35</v>
-      </c>
-      <c r="B75" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" s="1">
-        <v>0.57986111111111105</v>
-      </c>
-      <c r="D75">
-        <v>628</v>
-      </c>
-      <c r="G75" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="E75">
+        <v>629</v>
+      </c>
+      <c r="F75" t="s">
+        <v>32</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.63263888888888886</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>28</v>
-      </c>
-      <c r="B76" t="s">
-        <v>36</v>
-      </c>
-      <c r="C76" s="1">
-        <v>0.59791666666666665</v>
-      </c>
-      <c r="D76">
-        <v>1035</v>
-      </c>
-      <c r="G76" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="E76">
+        <v>1104</v>
+      </c>
+      <c r="F76" t="s">
+        <v>33</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.63958333333333328</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>32</v>
-      </c>
-      <c r="C77" s="1"/>
-      <c r="E77">
-        <v>1978</v>
-      </c>
-      <c r="F77" t="s">
-        <v>33</v>
-      </c>
-      <c r="G77" s="1">
-        <v>0.60763888888888895</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B77" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.64166666666666672</v>
+      </c>
+      <c r="D77">
+        <v>1290</v>
+      </c>
+      <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C78" s="1">
-        <v>0.61736111111111114</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="D78">
-        <v>3151</v>
+        <v>382</v>
       </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C79" s="1"/>
       <c r="E79">
-        <v>1468</v>
+        <v>317</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G79" s="1">
-        <v>0.61805555555555558</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>37</v>
-      </c>
-      <c r="B80" t="s">
-        <v>38</v>
-      </c>
-      <c r="C80" s="1">
-        <v>0.61944444444444446</v>
-      </c>
-      <c r="D80">
-        <v>1031</v>
-      </c>
-      <c r="G80" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="E80">
+        <v>356</v>
+      </c>
+      <c r="F80" t="s">
+        <v>23</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0.65902777777777777</v>
+      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>35</v>
-      </c>
-      <c r="C81" s="1"/>
-      <c r="E81">
-        <v>629</v>
-      </c>
-      <c r="F81" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" s="1">
-        <v>0.63263888888888886</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D81">
+        <v>367</v>
+      </c>
+      <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>28</v>
-      </c>
-      <c r="C82" s="1"/>
-      <c r="E82">
-        <v>1104</v>
-      </c>
-      <c r="F82" t="s">
-        <v>36</v>
-      </c>
-      <c r="G82" s="1">
-        <v>0.63958333333333328</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="D82">
+        <v>397</v>
+      </c>
+      <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C83" s="1">
-        <v>0.64166666666666672</v>
+        <v>0.68055555555555558</v>
       </c>
       <c r="D83">
-        <v>1290</v>
+        <v>441</v>
       </c>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>46</v>
-      </c>
-      <c r="B84" t="s">
-        <v>18</v>
-      </c>
-      <c r="C84" s="1">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="D84">
-        <v>4</v>
-      </c>
-      <c r="G84" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="E84">
+        <v>4322</v>
+      </c>
+      <c r="F84" t="s">
+        <v>44</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0.68611111111111112</v>
+      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C85" s="1">
-        <v>0.65277777777777779</v>
+        <v>0.6875</v>
       </c>
       <c r="D85">
-        <v>382</v>
+        <v>311</v>
       </c>
       <c r="G85" s="1"/>
     </row>
@@ -1862,59 +1850,59 @@
       <c r="A86" t="s">
         <v>7</v>
       </c>
-      <c r="C86" s="1"/>
-      <c r="E86">
-        <v>317</v>
-      </c>
-      <c r="F86" t="s">
-        <v>31</v>
-      </c>
-      <c r="G86" s="1">
-        <v>0.65625</v>
-      </c>
+      <c r="B86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="D86">
+        <v>318</v>
+      </c>
+      <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>28</v>
-      </c>
-      <c r="C87" s="1"/>
-      <c r="E87">
-        <v>356</v>
-      </c>
-      <c r="F87" t="s">
-        <v>29</v>
-      </c>
-      <c r="G87" s="1">
-        <v>0.65902777777777777</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B87" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="D87">
+        <v>555</v>
+      </c>
+      <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>45</v>
-      </c>
-      <c r="B88" t="s">
         <v>12</v>
       </c>
-      <c r="C88" s="1">
-        <v>0.66527777777777775</v>
-      </c>
-      <c r="D88">
-        <v>7139</v>
-      </c>
-      <c r="G88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="E88">
+        <v>1130</v>
+      </c>
+      <c r="F88" t="s">
+        <v>28</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0.69444444444444453</v>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C89" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.69722222222222219</v>
       </c>
       <c r="D89">
-        <v>367</v>
+        <v>4327</v>
       </c>
       <c r="G89" s="1"/>
     </row>
@@ -1923,88 +1911,88 @@
         <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C90" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="D90">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C91" s="1"/>
       <c r="E91">
-        <v>1032</v>
+        <v>520</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="G91" s="1">
-        <v>0.66805555555555562</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>7</v>
       </c>
-      <c r="B92" t="s">
-        <v>20</v>
-      </c>
-      <c r="C92" s="1">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="D92">
-        <v>397</v>
-      </c>
-      <c r="G92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="E92">
+        <v>560</v>
+      </c>
+      <c r="F92" t="s">
+        <v>19</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
-      <c r="B93" t="s">
-        <v>36</v>
-      </c>
-      <c r="C93" s="1">
-        <v>0.68055555555555558</v>
-      </c>
-      <c r="D93">
-        <v>441</v>
-      </c>
-      <c r="G93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="E93">
+        <v>588</v>
+      </c>
+      <c r="F93" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>7</v>
       </c>
-      <c r="B94" t="s">
-        <v>40</v>
-      </c>
-      <c r="C94" s="1">
-        <v>0.68402777777777779</v>
-      </c>
-      <c r="D94">
-        <v>651</v>
-      </c>
-      <c r="G94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="E94">
+        <v>617</v>
+      </c>
+      <c r="F94" t="s">
+        <v>18</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C95" s="1">
-        <v>0.6875</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="D95">
-        <v>311</v>
+        <v>4351</v>
       </c>
       <c r="G95" s="1"/>
     </row>
@@ -2012,59 +2000,59 @@
       <c r="A96" t="s">
         <v>7</v>
       </c>
-      <c r="B96" t="s">
-        <v>22</v>
-      </c>
-      <c r="C96" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="D96">
-        <v>318</v>
-      </c>
-      <c r="G96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="E96">
+        <v>448</v>
+      </c>
+      <c r="F96" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0.74305555555555558</v>
+      </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C97" s="1"/>
       <c r="E97">
-        <v>1130</v>
+        <v>534</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G97" s="1">
-        <v>0.69444444444444453</v>
+        <v>0.74305555555555558</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>9</v>
       </c>
-      <c r="B98" t="s">
-        <v>10</v>
-      </c>
-      <c r="C98" s="1">
-        <v>0.69722222222222219</v>
-      </c>
-      <c r="D98">
-        <v>4327</v>
-      </c>
-      <c r="G98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="E98">
+        <v>4308</v>
+      </c>
+      <c r="F98" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0.74583333333333335</v>
+      </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>7</v>
       </c>
       <c r="B99" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C99" s="1">
-        <v>0.70138888888888884</v>
+        <v>0.74652777777777779</v>
       </c>
       <c r="D99">
-        <v>322</v>
+        <v>612</v>
       </c>
       <c r="G99" s="1"/>
     </row>
@@ -2074,13 +2062,13 @@
       </c>
       <c r="C100" s="1"/>
       <c r="E100">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G100" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.76041666666666663</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -2089,177 +2077,177 @@
       </c>
       <c r="C101" s="1"/>
       <c r="E101">
-        <v>530</v>
+        <v>566</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G101" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C102" s="1"/>
       <c r="E102">
-        <v>560</v>
+        <v>4312</v>
       </c>
       <c r="F102" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G102" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.77638888888888891</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" s="1"/>
-      <c r="E103">
-        <v>588</v>
-      </c>
-      <c r="F103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B103" t="s">
+        <v>41</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="D103">
+        <v>930</v>
+      </c>
+      <c r="G103" s="1"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>7</v>
       </c>
-      <c r="C104" s="1"/>
-      <c r="E104">
-        <v>615</v>
-      </c>
-      <c r="F104" t="s">
-        <v>22</v>
-      </c>
-      <c r="G104" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+      <c r="B104" t="s">
+        <v>32</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="D104">
+        <v>431</v>
+      </c>
+      <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C105" s="1">
-        <v>0.73472222222222228</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="D105">
-        <v>4321</v>
+        <v>661</v>
       </c>
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" s="1"/>
-      <c r="E106">
-        <v>534</v>
-      </c>
-      <c r="F106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" s="1">
-        <v>0.74305555555555558</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="D106">
+        <v>222</v>
+      </c>
+      <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C107" s="1"/>
       <c r="E107">
-        <v>4308</v>
+        <v>570</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G107" s="1">
-        <v>0.74583333333333335</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>7</v>
       </c>
-      <c r="C108" s="1"/>
-      <c r="E108">
-        <v>528</v>
-      </c>
-      <c r="F108" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" s="1">
-        <v>0.76041666666666663</v>
-      </c>
+      <c r="B108" t="s">
+        <v>28</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="D108">
+        <v>425</v>
+      </c>
+      <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B109" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C109" s="1">
-        <v>0.7631944444444444</v>
+        <v>0.82291666666666663</v>
       </c>
       <c r="D109">
-        <v>4040</v>
+        <v>932</v>
       </c>
       <c r="G109" s="1"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" s="1"/>
-      <c r="E110">
-        <v>4312</v>
-      </c>
-      <c r="F110" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="1">
-        <v>0.77638888888888891</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="D110">
+        <v>523</v>
+      </c>
+      <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B111" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C111" s="1">
-        <v>0.78125</v>
+        <v>0.82986111111111116</v>
       </c>
       <c r="D111">
-        <v>930</v>
+        <v>583</v>
       </c>
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="B112" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C112" s="1">
-        <v>0.78541666666666665</v>
+        <v>0.84375</v>
       </c>
       <c r="D112">
-        <v>4158</v>
+        <v>325</v>
       </c>
       <c r="G112" s="1"/>
     </row>
@@ -2267,74 +2255,74 @@
       <c r="A113" t="s">
         <v>7</v>
       </c>
-      <c r="C113" s="1"/>
-      <c r="E113">
-        <v>558</v>
-      </c>
-      <c r="F113" t="s">
-        <v>23</v>
-      </c>
-      <c r="G113" s="1">
-        <v>0.78819444444444442</v>
-      </c>
+      <c r="B113" t="s">
+        <v>36</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="D113">
+        <v>445</v>
+      </c>
+      <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>9</v>
-      </c>
-      <c r="B114" t="s">
-        <v>14</v>
-      </c>
-      <c r="C114" s="1">
-        <v>0.79027777777777775</v>
-      </c>
-      <c r="D114">
-        <v>4331</v>
-      </c>
-      <c r="G114" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="E114">
+        <v>590</v>
+      </c>
+      <c r="F114" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0.85069444444444442</v>
+      </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>7</v>
       </c>
       <c r="B115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C115" s="1">
-        <v>0.79513888888888884</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D115">
-        <v>431</v>
+        <v>393</v>
       </c>
       <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>9</v>
-      </c>
-      <c r="C116" s="1"/>
-      <c r="E116">
-        <v>4041</v>
-      </c>
-      <c r="F116" t="s">
-        <v>22</v>
-      </c>
-      <c r="G116" s="1">
-        <v>0.79513888888888884</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D116">
+        <v>449</v>
+      </c>
+      <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B117" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C117" s="1">
-        <v>0.8125</v>
+        <v>0.86041666666666661</v>
       </c>
       <c r="D117">
-        <v>222</v>
+        <v>881</v>
       </c>
       <c r="G117" s="1"/>
     </row>
@@ -2342,29 +2330,29 @@
       <c r="A118" t="s">
         <v>7</v>
       </c>
-      <c r="C118" s="1"/>
-      <c r="E118">
-        <v>570</v>
-      </c>
-      <c r="F118" t="s">
-        <v>24</v>
-      </c>
-      <c r="G118" s="1">
-        <v>0.8125</v>
-      </c>
+      <c r="B118" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" s="1">
+        <v>0.86805555555555558</v>
+      </c>
+      <c r="D118">
+        <v>563</v>
+      </c>
+      <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B119" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C119" s="1">
-        <v>0.82291666666666663</v>
+        <v>0.87152777777777779</v>
       </c>
       <c r="D119">
-        <v>932</v>
+        <v>316</v>
       </c>
       <c r="G119" s="1"/>
     </row>
@@ -2373,58 +2361,58 @@
         <v>7</v>
       </c>
       <c r="B120" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C120" s="1">
-        <v>0.82638888888888884</v>
+        <v>0.875</v>
       </c>
       <c r="D120">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>7</v>
-      </c>
-      <c r="B121" t="s">
-        <v>10</v>
-      </c>
-      <c r="C121" s="1">
-        <v>0.82986111111111116</v>
-      </c>
-      <c r="D121">
-        <v>583</v>
-      </c>
-      <c r="G121" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C121" s="1"/>
+      <c r="E121">
+        <v>222</v>
+      </c>
+      <c r="F121" t="s">
+        <v>45</v>
+      </c>
+      <c r="G121" s="1">
+        <v>0.875</v>
+      </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>7</v>
       </c>
       <c r="B122" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C122" s="1">
-        <v>0.84375</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D122">
-        <v>325</v>
+        <v>557</v>
       </c>
       <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="B123" t="s">
         <v>14</v>
       </c>
       <c r="C123" s="1">
-        <v>0.84791666666666665</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D123">
-        <v>4158</v>
+        <v>589</v>
       </c>
       <c r="G123" s="1"/>
     </row>
@@ -2432,89 +2420,89 @@
       <c r="A124" t="s">
         <v>7</v>
       </c>
-      <c r="C124" s="1"/>
-      <c r="E124">
-        <v>590</v>
-      </c>
-      <c r="F124" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="1">
-        <v>0.85069444444444442</v>
-      </c>
+      <c r="B124" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124" s="1">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="D124">
+        <v>616</v>
+      </c>
+      <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B125" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C125" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.8881944444444444</v>
       </c>
       <c r="D125">
-        <v>393</v>
+        <v>1461</v>
       </c>
       <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>30</v>
-      </c>
-      <c r="B126" t="s">
-        <v>31</v>
-      </c>
-      <c r="C126" s="1">
-        <v>0.86041666666666661</v>
-      </c>
-      <c r="D126">
-        <v>881</v>
-      </c>
-      <c r="G126" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C126" s="1"/>
+      <c r="E126">
+        <v>365</v>
+      </c>
+      <c r="F126" t="s">
+        <v>15</v>
+      </c>
+      <c r="G126" s="1">
+        <v>0.92013888888888884</v>
+      </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>7</v>
       </c>
-      <c r="B127" t="s">
-        <v>36</v>
-      </c>
-      <c r="C127" s="1">
-        <v>0.86805555555555558</v>
-      </c>
-      <c r="D127">
-        <v>443</v>
-      </c>
-      <c r="G127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="E127">
+        <v>580</v>
+      </c>
+      <c r="F127" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="1">
+        <v>0.92013888888888884</v>
+      </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>7</v>
       </c>
-      <c r="B128" t="s">
-        <v>23</v>
-      </c>
-      <c r="C128" s="1">
-        <v>0.86805555555555558</v>
-      </c>
-      <c r="D128">
-        <v>563</v>
-      </c>
-      <c r="G128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="E128">
+        <v>429</v>
+      </c>
+      <c r="F128" t="s">
+        <v>17</v>
+      </c>
+      <c r="G128" s="1">
+        <v>0.92361111111111116</v>
+      </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C129" s="1">
-        <v>0.87152777777777779</v>
+        <v>0.92986111111111114</v>
       </c>
       <c r="D129">
-        <v>316</v>
+        <v>4339</v>
       </c>
       <c r="G129" s="1"/>
     </row>
@@ -2522,89 +2510,89 @@
       <c r="A130" t="s">
         <v>7</v>
       </c>
-      <c r="B130" t="s">
-        <v>12</v>
-      </c>
-      <c r="C130" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="D130">
-        <v>535</v>
-      </c>
-      <c r="G130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="E130">
+        <v>578</v>
+      </c>
+      <c r="F130" t="s">
+        <v>14</v>
+      </c>
+      <c r="G130" s="1">
+        <v>0.93055555555555558</v>
+      </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C131" s="1"/>
       <c r="E131">
-        <v>222</v>
+        <v>627</v>
       </c>
       <c r="F131" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="G131" s="1">
-        <v>0.875</v>
+        <v>0.93402777777777779</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>7</v>
       </c>
-      <c r="B132" t="s">
-        <v>18</v>
-      </c>
-      <c r="C132" s="1">
-        <v>0.87847222222222221</v>
-      </c>
-      <c r="D132">
-        <v>589</v>
-      </c>
-      <c r="G132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="E132">
+        <v>574</v>
+      </c>
+      <c r="F132" t="s">
+        <v>21</v>
+      </c>
+      <c r="G132" s="1">
+        <v>0.9375</v>
+      </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>7</v>
       </c>
-      <c r="B133" t="s">
-        <v>22</v>
-      </c>
-      <c r="C133" s="1">
-        <v>0.87847222222222221</v>
-      </c>
-      <c r="D133">
-        <v>614</v>
-      </c>
-      <c r="G133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="E133">
+        <v>315</v>
+      </c>
+      <c r="F133" t="s">
+        <v>16</v>
+      </c>
+      <c r="G133" s="1">
+        <v>0.94097222222222221</v>
+      </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
-      <c r="B134" t="s">
-        <v>24</v>
-      </c>
-      <c r="C134" s="1">
-        <v>0.87847222222222221</v>
-      </c>
-      <c r="D134">
-        <v>661</v>
-      </c>
-      <c r="G134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="E134">
+        <v>658</v>
+      </c>
+      <c r="F134" t="s">
+        <v>20</v>
+      </c>
+      <c r="G134" s="1">
+        <v>0.94444444444444442</v>
+      </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B135" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C135" s="1">
-        <v>0.8881944444444444</v>
+        <v>0.94930555555555562</v>
       </c>
       <c r="D135">
-        <v>1461</v>
+        <v>1425</v>
       </c>
       <c r="G135" s="1"/>
     </row>
@@ -2612,31 +2600,31 @@
       <c r="A136" t="s">
         <v>7</v>
       </c>
-      <c r="B136" t="s">
-        <v>22</v>
-      </c>
-      <c r="C136" s="1">
-        <v>0.89236111111111116</v>
-      </c>
-      <c r="D136">
-        <v>608</v>
-      </c>
-      <c r="G136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="E136">
+        <v>452</v>
+      </c>
+      <c r="F136" t="s">
+        <v>8</v>
+      </c>
+      <c r="G136" s="1">
+        <v>0.95486111111111116</v>
+      </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>7</v>
       </c>
-      <c r="B137" t="s">
-        <v>10</v>
-      </c>
-      <c r="C137" s="1">
-        <v>0.91319444444444442</v>
-      </c>
-      <c r="D137">
-        <v>585</v>
-      </c>
-      <c r="G137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="E137">
+        <v>457</v>
+      </c>
+      <c r="F137" t="s">
+        <v>13</v>
+      </c>
+      <c r="G137" s="1">
+        <v>0.95486111111111116</v>
+      </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
@@ -2644,148 +2632,58 @@
       </c>
       <c r="C138" s="1"/>
       <c r="E138">
-        <v>578</v>
+        <v>432</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G138" s="1">
-        <v>0.91666666666666663</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C139" s="1"/>
       <c r="E139">
-        <v>365</v>
+        <v>4336</v>
       </c>
       <c r="F139" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="G139" s="1">
-        <v>0.92013888888888884</v>
+        <v>0.97152777777777777</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>7</v>
-      </c>
-      <c r="C140" s="1"/>
-      <c r="E140">
-        <v>580</v>
-      </c>
-      <c r="F140" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="1">
-        <v>0.92013888888888884</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B140" t="s">
+        <v>25</v>
+      </c>
+      <c r="C140" s="1">
+        <v>0.98402777777777783</v>
+      </c>
+      <c r="D140">
+        <v>878</v>
+      </c>
+      <c r="G140" s="1"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C141" s="1"/>
       <c r="E141">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="F141" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G141" s="1">
-        <v>0.92013888888888884</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>7</v>
-      </c>
-      <c r="C142" s="1"/>
-      <c r="E142">
-        <v>457</v>
-      </c>
-      <c r="F142" t="s">
-        <v>16</v>
-      </c>
-      <c r="G142" s="1">
-        <v>0.92013888888888884</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>30</v>
-      </c>
-      <c r="B143" t="s">
-        <v>31</v>
-      </c>
-      <c r="C143" s="1">
-        <v>0.92361111111111116</v>
-      </c>
-      <c r="D143">
-        <v>878</v>
-      </c>
-      <c r="G143" s="1"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>7</v>
-      </c>
-      <c r="C144" s="1"/>
-      <c r="E144">
-        <v>429</v>
-      </c>
-      <c r="F144" t="s">
-        <v>21</v>
-      </c>
-      <c r="G144" s="1">
-        <v>0.92361111111111116</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>7</v>
-      </c>
-      <c r="C145" s="1"/>
-      <c r="E145">
-        <v>658</v>
-      </c>
-      <c r="F145" t="s">
-        <v>24</v>
-      </c>
-      <c r="G145" s="1">
-        <v>0.92361111111111116</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>7</v>
-      </c>
-      <c r="C146" s="1"/>
-      <c r="E146">
-        <v>452</v>
-      </c>
-      <c r="F146" t="s">
-        <v>8</v>
-      </c>
-      <c r="G146" s="1">
-        <v>0.92361111111111116</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>7</v>
-      </c>
-      <c r="C147" s="1"/>
-      <c r="E147">
-        <v>651</v>
-      </c>
-      <c r="F147" t="s">
-        <v>22</v>
-      </c>
-      <c r="G147" s="1">
-        <v>0.92708333333333337</v>
+        <v>0.99583333333333324</v>
       </c>
     </row>
   </sheetData>

--- a/public/operaciones.xlsx
+++ b/public/operaciones.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulm\Desktop\Itinerarios_2026-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85977903-1CF1-4E04-90B9-E17BB7456512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02D1B7C9-95D9-4E82-86E0-B31C5D04ACA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{514F8404-1347-4DC7-B5F9-8720E5149FA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FA69FCF4-A16E-43FE-AB47-D2D23CD9C543}"/>
   </bookViews>
   <sheets>
-    <sheet name="06-02" sheetId="1" r:id="rId1"/>
+    <sheet name="07-02" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="44">
   <si>
     <t>AEROLINEA</t>
   </si>
@@ -71,6 +71,15 @@
     <t>KIAD</t>
   </si>
   <si>
+    <t>KONT</t>
+  </si>
+  <si>
+    <t>MHLM</t>
+  </si>
+  <si>
+    <t>KOAK</t>
+  </si>
+  <si>
     <t>KLAX</t>
   </si>
   <si>
@@ -80,6 +89,12 @@
     <t>SEQM</t>
   </si>
   <si>
+    <t>KJFK</t>
+  </si>
+  <si>
+    <t>MMMX</t>
+  </si>
+  <si>
     <t>MGGT</t>
   </si>
   <si>
@@ -98,18 +113,27 @@
     <t>KSFO</t>
   </si>
   <si>
-    <t>KJFK</t>
-  </si>
-  <si>
-    <t>MHLM</t>
+    <t>FFT</t>
+  </si>
+  <si>
+    <t>KIAH</t>
+  </si>
+  <si>
+    <t>KMIA</t>
+  </si>
+  <si>
+    <t>KEWR</t>
+  </si>
+  <si>
+    <t>KDFW</t>
+  </si>
+  <si>
+    <t>KMCO</t>
   </si>
   <si>
     <t>AAL</t>
   </si>
   <si>
-    <t>KMIA</t>
-  </si>
-  <si>
     <t>CMP</t>
   </si>
   <si>
@@ -122,22 +146,10 @@
     <t>KATL</t>
   </si>
   <si>
-    <t>KIAH</t>
-  </si>
-  <si>
-    <t>TSC</t>
-  </si>
-  <si>
-    <t>CYUL</t>
-  </si>
-  <si>
     <t>AMX</t>
   </si>
   <si>
-    <t>MMMX</t>
-  </si>
-  <si>
-    <t>KDFW</t>
+    <t>MMUN</t>
   </si>
   <si>
     <t>IBE</t>
@@ -146,31 +158,13 @@
     <t>CYYZ</t>
   </si>
   <si>
-    <t>KBOS</t>
-  </si>
-  <si>
-    <t>KEWR</t>
+    <t>FDX</t>
+  </si>
+  <si>
+    <t>AJT</t>
   </si>
   <si>
     <t>TPA</t>
-  </si>
-  <si>
-    <t>DHL</t>
-  </si>
-  <si>
-    <t>AJT</t>
-  </si>
-  <si>
-    <t>MHTG</t>
-  </si>
-  <si>
-    <t>SKRG</t>
-  </si>
-  <si>
-    <t>ARM</t>
-  </si>
-  <si>
-    <t>KOAK</t>
   </si>
   <si>
     <t>LEMD</t>
@@ -548,8 +542,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC4879D-9AA1-481E-9FB9-4DD72B0E1FAD}">
-  <dimension ref="A1:G141"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F832AB2D-4A1D-405D-B51E-34E59BD78230}">
+  <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,59 +582,59 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1">
-        <v>6.1111111111111109E-2</v>
-      </c>
-      <c r="D2">
-        <v>4156</v>
-      </c>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="E2">
+        <v>1670</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
-        <v>0.18402777777777779</v>
+        <v>0.13055555555555556</v>
       </c>
       <c r="D3">
-        <v>222</v>
+        <v>4156</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="E4">
-        <v>1670</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
         <v>0.20833333333333334</v>
       </c>
+      <c r="D4">
+        <v>453</v>
+      </c>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1"/>
       <c r="E5">
         <v>879</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G5" s="1">
         <v>0.20972222222222223</v>
@@ -648,106 +642,106 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>0.21527777777777779</v>
+        <v>0.21875</v>
       </c>
       <c r="D6">
-        <v>453</v>
+        <v>4313</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1">
-        <v>0.21875</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="D7">
-        <v>4313</v>
+        <v>531</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
-        <v>0.22569444444444445</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="D8">
-        <v>224</v>
+        <v>575</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="E9">
-        <v>556</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.22916666666666666</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.23472222222222222</v>
+      </c>
+      <c r="D9">
+        <v>4323</v>
+      </c>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="E10">
-        <v>4350</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.22916666666666666</v>
-      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.23541666666666666</v>
+      </c>
+      <c r="D10">
+        <v>4309</v>
+      </c>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
-        <v>0.23541666666666666</v>
+        <v>0.23958333333333334</v>
       </c>
       <c r="D11">
-        <v>4309</v>
+        <v>1266</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1">
-        <v>0.23958333333333334</v>
+        <v>0.24652777777777779</v>
       </c>
       <c r="D12">
-        <v>1266</v>
+        <v>456</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -756,13 +750,13 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1">
         <v>0.24652777777777779</v>
       </c>
       <c r="D13">
-        <v>456</v>
+        <v>567</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -771,13 +765,13 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1">
-        <v>0.25694444444444442</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="D14">
-        <v>579</v>
+        <v>433</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -786,13 +780,13 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="D15">
-        <v>366</v>
+        <v>579</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -801,13 +795,13 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1">
         <v>0.26041666666666669</v>
       </c>
       <c r="D16">
-        <v>529</v>
+        <v>366</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -816,58 +810,58 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1">
-        <v>0.2638888888888889</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D17">
-        <v>314</v>
+        <v>529</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="E18">
-        <v>4326</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="1">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1">
         <v>0.2638888888888889</v>
       </c>
+      <c r="D18">
+        <v>314</v>
+      </c>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.2673611111111111</v>
-      </c>
-      <c r="D19">
-        <v>428</v>
-      </c>
-      <c r="G19" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="E19">
+        <v>4326</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.2638888888888889</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1">
         <v>0.2673611111111111</v>
       </c>
       <c r="D20">
-        <v>626</v>
+        <v>428</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -876,13 +870,13 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D21">
-        <v>561</v>
+        <v>650</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -891,13 +885,13 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1">
         <v>0.27083333333333331</v>
       </c>
       <c r="D22">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -906,41 +900,41 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1">
         <v>0.27083333333333331</v>
       </c>
       <c r="D23">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="E24">
-        <v>4318</v>
-      </c>
-      <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.28611111111111109</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D24">
+        <v>591</v>
+      </c>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C25" s="1"/>
       <c r="E25">
         <v>1467</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G25" s="1">
         <v>0.28819444444444448</v>
@@ -951,7 +945,7 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C26" s="1">
         <v>0.29166666666666669</v>
@@ -963,17 +957,17 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C27" s="1"/>
       <c r="E27">
-        <v>323</v>
+        <v>4330</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G27" s="1">
-        <v>0.3125</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -982,10 +976,10 @@
       </c>
       <c r="C28" s="1"/>
       <c r="E28">
-        <v>396</v>
+        <v>321</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G28" s="1">
         <v>0.3125</v>
@@ -993,17 +987,17 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1"/>
       <c r="E29">
-        <v>4338</v>
+        <v>323</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G29" s="1">
-        <v>0.31527777777777777</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1012,28 +1006,28 @@
       </c>
       <c r="C30" s="1"/>
       <c r="E30">
-        <v>310</v>
+        <v>396</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G30" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1"/>
       <c r="E31">
-        <v>440</v>
+        <v>884</v>
       </c>
       <c r="F31" t="s">
         <v>33</v>
       </c>
       <c r="G31" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1042,10 +1036,10 @@
       </c>
       <c r="C32" s="1"/>
       <c r="E32">
-        <v>536</v>
+        <v>310</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G32" s="1">
         <v>0.31597222222222221</v>
@@ -1057,13 +1051,13 @@
       </c>
       <c r="C33" s="1"/>
       <c r="E33">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G33" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1072,13 +1066,13 @@
       </c>
       <c r="C34" s="1"/>
       <c r="E34">
-        <v>562</v>
+        <v>536</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G34" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1087,13 +1081,13 @@
       </c>
       <c r="C35" s="1"/>
       <c r="E35">
-        <v>368</v>
+        <v>562</v>
       </c>
       <c r="F35" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G35" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1102,10 +1096,10 @@
       </c>
       <c r="C36" s="1"/>
       <c r="E36">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G36" s="1">
         <v>0.33333333333333331</v>
@@ -1117,10 +1111,10 @@
       </c>
       <c r="C37" s="1"/>
       <c r="E37">
-        <v>522</v>
+        <v>383</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G37" s="1">
         <v>0.33333333333333331</v>
@@ -1130,31 +1124,31 @@
       <c r="A38" t="s">
         <v>7</v>
       </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0.33680555555555558</v>
-      </c>
-      <c r="D38">
-        <v>581</v>
-      </c>
-      <c r="G38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="E38">
+        <v>522</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="E39">
-        <v>660</v>
-      </c>
-      <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="1">
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1">
         <v>0.33680555555555558</v>
       </c>
+      <c r="D39">
+        <v>581</v>
+      </c>
+      <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1162,13 +1156,13 @@
       </c>
       <c r="C40" s="1"/>
       <c r="E40">
-        <v>554</v>
+        <v>660</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G40" s="1">
-        <v>0.34027777777777779</v>
+        <v>0.33680555555555558</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1177,59 +1171,59 @@
       </c>
       <c r="C41" s="1"/>
       <c r="E41">
-        <v>324</v>
+        <v>454</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="G41" s="1">
-        <v>0.34375</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0.34722222222222221</v>
-      </c>
-      <c r="D42">
-        <v>4053</v>
-      </c>
-      <c r="G42" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="E42">
+        <v>538</v>
+      </c>
+      <c r="F42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.34027777777777779</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C43" s="1"/>
       <c r="E43">
-        <v>884</v>
+        <v>324</v>
       </c>
       <c r="F43" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G43" s="1">
-        <v>0.3576388888888889</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
-      <c r="B44" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="1">
+      <c r="C44" s="1"/>
+      <c r="E44">
+        <v>430</v>
+      </c>
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="1">
         <v>0.37847222222222221</v>
       </c>
-      <c r="D44">
-        <v>559</v>
-      </c>
-      <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -1237,57 +1231,57 @@
       </c>
       <c r="C45" s="1"/>
       <c r="E45">
-        <v>430</v>
+        <v>582</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G45" s="1">
-        <v>0.37847222222222221</v>
+        <v>0.39930555555555558</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="E46">
-        <v>582</v>
-      </c>
-      <c r="F46" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="1">
-        <v>0.39930555555555558</v>
-      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="D46">
+        <v>659</v>
+      </c>
+      <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0.40972222222222221</v>
-      </c>
-      <c r="D47">
-        <v>4053</v>
-      </c>
-      <c r="G47" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="E47">
+        <v>392</v>
+      </c>
+      <c r="F47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.41319444444444442</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C48" s="1">
-        <v>0.41319444444444442</v>
+        <v>0.4201388888888889</v>
       </c>
       <c r="D48">
-        <v>659</v>
+        <v>348</v>
       </c>
       <c r="G48" s="1"/>
     </row>
@@ -1297,25 +1291,25 @@
       </c>
       <c r="C49" s="1"/>
       <c r="E49">
-        <v>392</v>
+        <v>609</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G49" s="1">
-        <v>0.41319444444444442</v>
+        <v>0.4236111111111111</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C50" s="1"/>
       <c r="E50">
-        <v>613</v>
+        <v>4320</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G50" s="1">
         <v>0.4236111111111111</v>
@@ -1326,7 +1320,7 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C51" s="1">
         <v>0.42708333333333331</v>
@@ -1338,16 +1332,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C52" s="1">
-        <v>0.46111111111111108</v>
+        <v>0.4368055555555555</v>
       </c>
       <c r="D52">
-        <v>916</v>
+        <v>353</v>
       </c>
       <c r="G52" s="1"/>
     </row>
@@ -1356,28 +1350,28 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C53" s="1">
-        <v>0.46180555555555558</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="D53">
-        <v>384</v>
+        <v>455</v>
       </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
         <v>23</v>
       </c>
       <c r="C54" s="1">
-        <v>0.4861111111111111</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="D54">
-        <v>857</v>
+        <v>320</v>
       </c>
       <c r="G54" s="1"/>
     </row>
@@ -1385,479 +1379,479 @@
       <c r="A55" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="1"/>
-      <c r="E55">
-        <v>385</v>
-      </c>
-      <c r="F55" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D55">
+        <v>539</v>
+      </c>
+      <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="E56">
-        <v>424</v>
-      </c>
-      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
         <v>28</v>
       </c>
-      <c r="G56" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+      <c r="C56" s="1">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="D56">
+        <v>4337</v>
+      </c>
+      <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="1"/>
-      <c r="E57">
-        <v>319</v>
-      </c>
-      <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" s="1">
-        <v>0.51041666666666663</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="D57">
+        <v>8139</v>
+      </c>
+      <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C58" s="1">
-        <v>0.5131944444444444</v>
+        <v>0.46180555555555558</v>
       </c>
       <c r="D58">
-        <v>915</v>
+        <v>384</v>
       </c>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C59" s="1">
-        <v>0.52152777777777781</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="D59">
-        <v>339</v>
+        <v>761</v>
       </c>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="1">
-        <v>0.52986111111111112</v>
-      </c>
-      <c r="D60">
-        <v>816</v>
-      </c>
-      <c r="G60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="E60">
+        <v>349</v>
+      </c>
+      <c r="F60" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.46527777777777773</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C61" s="1">
-        <v>0.54861111111111105</v>
+        <v>0.48333333333333334</v>
       </c>
       <c r="D61">
-        <v>1910</v>
+        <v>342</v>
       </c>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>40</v>
-      </c>
-      <c r="B62" t="s">
-        <v>23</v>
-      </c>
-      <c r="C62" s="1">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="D62">
-        <v>856</v>
-      </c>
-      <c r="G62" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="E62">
+        <v>584</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0.49305555555555558</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>12</v>
-      </c>
-      <c r="B63" t="s">
-        <v>28</v>
-      </c>
-      <c r="C63" s="1">
-        <v>0.55486111111111114</v>
-      </c>
-      <c r="D63">
-        <v>1441</v>
-      </c>
-      <c r="G63" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="E63">
+        <v>650</v>
+      </c>
+      <c r="F63" t="s">
+        <v>37</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0.49305555555555558</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>29</v>
-      </c>
-      <c r="B64" t="s">
-        <v>30</v>
-      </c>
-      <c r="C64" s="1">
-        <v>0.5625</v>
-      </c>
-      <c r="D64">
-        <v>760</v>
-      </c>
-      <c r="G64" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="E64">
+        <v>352</v>
+      </c>
+      <c r="F64" t="s">
+        <v>27</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0.49583333333333335</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>43</v>
-      </c>
-      <c r="B65" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65" s="1">
-        <v>0.5625</v>
-      </c>
-      <c r="D65">
-        <v>3</v>
-      </c>
-      <c r="G65" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="E65">
+        <v>385</v>
+      </c>
+      <c r="F65" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C66" s="1"/>
       <c r="E66">
-        <v>348</v>
+        <v>442</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G66" s="1">
-        <v>0.56319444444444444</v>
+        <v>0.50347222222222221</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>24</v>
-      </c>
-      <c r="C67" s="1"/>
-      <c r="E67">
-        <v>871</v>
-      </c>
-      <c r="F67" t="s">
         <v>25</v>
       </c>
-      <c r="G67" s="1">
-        <v>0.57291666666666663</v>
-      </c>
+      <c r="B67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.51458333333333328</v>
+      </c>
+      <c r="D67">
+        <v>63</v>
+      </c>
+      <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>31</v>
       </c>
       <c r="B68" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C68" s="1">
-        <v>0.57986111111111105</v>
+        <v>0.52152777777777781</v>
       </c>
       <c r="D68">
-        <v>628</v>
+        <v>339</v>
       </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B69" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C69" s="1">
-        <v>0.59791666666666665</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="D69">
-        <v>1035</v>
+        <v>760</v>
       </c>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>26</v>
-      </c>
-      <c r="C70" s="1"/>
-      <c r="E70">
-        <v>1978</v>
-      </c>
-      <c r="F70" t="s">
-        <v>27</v>
-      </c>
-      <c r="G70" s="1">
-        <v>0.60763888888888895</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B70" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="D70">
+        <v>816</v>
+      </c>
+      <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C71" s="1"/>
       <c r="E71">
-        <v>761</v>
+        <v>343</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G71" s="1">
-        <v>0.61111111111111105</v>
+        <v>0.53541666666666665</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B72" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C72" s="1">
-        <v>0.61736111111111114</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="D72">
-        <v>3151</v>
+        <v>1910</v>
       </c>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" s="1"/>
-      <c r="E73">
-        <v>1468</v>
-      </c>
-      <c r="F73" t="s">
-        <v>28</v>
-      </c>
-      <c r="G73" s="1">
-        <v>0.61805555555555558</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.55486111111111114</v>
+      </c>
+      <c r="D73">
+        <v>1441</v>
+      </c>
+      <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>9</v>
-      </c>
-      <c r="B74" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74" s="1">
-        <v>0.62222222222222223</v>
-      </c>
-      <c r="D74">
-        <v>4319</v>
-      </c>
-      <c r="G74" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="E74">
+        <v>348</v>
+      </c>
+      <c r="F74" t="s">
+        <v>27</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.56319444444444444</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>31</v>
-      </c>
-      <c r="C75" s="1"/>
-      <c r="E75">
-        <v>629</v>
-      </c>
-      <c r="F75" t="s">
-        <v>32</v>
-      </c>
-      <c r="G75" s="1">
-        <v>0.63263888888888886</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="D75">
+        <v>219</v>
+      </c>
+      <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C76" s="1"/>
       <c r="E76">
-        <v>1104</v>
+        <v>62</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G76" s="1">
-        <v>0.63958333333333328</v>
+        <v>0.56666666666666665</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>12</v>
-      </c>
-      <c r="B77" t="s">
-        <v>28</v>
-      </c>
-      <c r="C77" s="1">
-        <v>0.64166666666666672</v>
-      </c>
-      <c r="D77">
-        <v>1290</v>
-      </c>
-      <c r="G77" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="E77">
+        <v>871</v>
+      </c>
+      <c r="F77" t="s">
+        <v>33</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.57291666666666663</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C78" s="1">
-        <v>0.65277777777777779</v>
+        <v>0.57986111111111105</v>
       </c>
       <c r="D78">
-        <v>382</v>
+        <v>628</v>
       </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" s="1"/>
-      <c r="E79">
-        <v>317</v>
-      </c>
-      <c r="F79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G79" s="1">
-        <v>0.65625</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B79" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="D79">
+        <v>1035</v>
+      </c>
+      <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C80" s="1"/>
       <c r="E80">
-        <v>356</v>
+        <v>1978</v>
       </c>
       <c r="F80" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G80" s="1">
-        <v>0.65902777777777777</v>
+        <v>0.60763888888888895</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C81" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.61736111111111114</v>
       </c>
       <c r="D81">
-        <v>367</v>
+        <v>3151</v>
       </c>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82" t="s">
-        <v>16</v>
-      </c>
-      <c r="C82" s="1">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="D82">
-        <v>397</v>
-      </c>
-      <c r="G82" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="E82">
+        <v>1468</v>
+      </c>
+      <c r="F82" t="s">
+        <v>26</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0.61805555555555558</v>
+      </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83" t="s">
-        <v>33</v>
-      </c>
-      <c r="C83" s="1">
-        <v>0.68055555555555558</v>
-      </c>
-      <c r="D83">
-        <v>441</v>
-      </c>
-      <c r="G83" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="E83">
+        <v>218</v>
+      </c>
+      <c r="F83" t="s">
+        <v>35</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0.61875000000000002</v>
+      </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C84" s="1"/>
       <c r="E84">
-        <v>4322</v>
+        <v>629</v>
       </c>
       <c r="F84" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G84" s="1">
-        <v>0.68611111111111112</v>
+        <v>0.63263888888888886</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" t="s">
-        <v>23</v>
-      </c>
-      <c r="C85" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="D85">
-        <v>311</v>
-      </c>
-      <c r="G85" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="E85">
+        <v>1104</v>
+      </c>
+      <c r="F85" t="s">
+        <v>29</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0.63958333333333328</v>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C86" s="1">
-        <v>0.6875</v>
+        <v>0.64166666666666672</v>
       </c>
       <c r="D86">
-        <v>318</v>
+        <v>1290</v>
       </c>
       <c r="G86" s="1"/>
     </row>
@@ -1866,58 +1860,58 @@
         <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C87" s="1">
-        <v>0.69097222222222221</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="D87">
-        <v>555</v>
+        <v>382</v>
       </c>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C88" s="1"/>
       <c r="E88">
-        <v>1130</v>
+        <v>317</v>
       </c>
       <c r="F88" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G88" s="1">
-        <v>0.69444444444444453</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>9</v>
-      </c>
-      <c r="B89" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" s="1">
-        <v>0.69722222222222219</v>
-      </c>
-      <c r="D89">
-        <v>4327</v>
-      </c>
-      <c r="G89" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="E89">
+        <v>356</v>
+      </c>
+      <c r="F89" t="s">
+        <v>27</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0.65902777777777777</v>
+      </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C90" s="1">
-        <v>0.70138888888888884</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D90">
-        <v>322</v>
+        <v>367</v>
       </c>
       <c r="G90" s="1"/>
     </row>
@@ -1925,136 +1919,136 @@
       <c r="A91" t="s">
         <v>7</v>
       </c>
-      <c r="C91" s="1"/>
-      <c r="E91">
-        <v>520</v>
-      </c>
-      <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+      <c r="B91" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="D91">
+        <v>397</v>
+      </c>
+      <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>7</v>
       </c>
-      <c r="C92" s="1"/>
-      <c r="E92">
-        <v>560</v>
-      </c>
-      <c r="F92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+      <c r="B92" t="s">
+        <v>29</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="D92">
+        <v>441</v>
+      </c>
+      <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="1"/>
-      <c r="E93">
-        <v>588</v>
-      </c>
-      <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+      <c r="B93" t="s">
+        <v>37</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="D93">
+        <v>651</v>
+      </c>
+      <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>7</v>
       </c>
-      <c r="C94" s="1"/>
-      <c r="E94">
-        <v>617</v>
-      </c>
-      <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+      <c r="B94" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="D94">
+        <v>311</v>
+      </c>
+      <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>9</v>
-      </c>
-      <c r="B95" t="s">
-        <v>18</v>
-      </c>
-      <c r="C95" s="1">
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="D95">
-        <v>4351</v>
-      </c>
-      <c r="G95" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="E95">
+        <v>1130</v>
+      </c>
+      <c r="F95" t="s">
+        <v>26</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0.69444444444444453</v>
+      </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" s="1"/>
-      <c r="E96">
-        <v>448</v>
-      </c>
-      <c r="F96" t="s">
-        <v>8</v>
-      </c>
-      <c r="G96" s="1">
-        <v>0.74305555555555558</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0.69722222222222219</v>
+      </c>
+      <c r="D96">
+        <v>4327</v>
+      </c>
+      <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="1"/>
-      <c r="E97">
-        <v>534</v>
-      </c>
-      <c r="F97" t="s">
-        <v>21</v>
-      </c>
-      <c r="G97" s="1">
-        <v>0.74305555555555558</v>
-      </c>
+      <c r="B97" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D97">
+        <v>322</v>
+      </c>
+      <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C98" s="1"/>
       <c r="E98">
-        <v>4308</v>
+        <v>520</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G98" s="1">
-        <v>0.74583333333333335</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>7</v>
       </c>
-      <c r="B99" t="s">
-        <v>18</v>
-      </c>
-      <c r="C99" s="1">
-        <v>0.74652777777777779</v>
-      </c>
-      <c r="D99">
-        <v>612</v>
-      </c>
-      <c r="G99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="E99">
+        <v>530</v>
+      </c>
+      <c r="F99" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
@@ -2062,13 +2056,13 @@
       </c>
       <c r="C100" s="1"/>
       <c r="E100">
-        <v>528</v>
+        <v>560</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G100" s="1">
-        <v>0.76041666666666663</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -2077,87 +2071,87 @@
       </c>
       <c r="C101" s="1"/>
       <c r="E101">
-        <v>566</v>
+        <v>615</v>
       </c>
       <c r="F101" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G101" s="1">
-        <v>0.77083333333333337</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>9</v>
       </c>
-      <c r="C102" s="1"/>
-      <c r="E102">
-        <v>4312</v>
-      </c>
-      <c r="F102" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="1">
-        <v>0.77638888888888891</v>
-      </c>
+      <c r="B102" t="s">
+        <v>26</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.73472222222222228</v>
+      </c>
+      <c r="D102">
+        <v>4321</v>
+      </c>
+      <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>39</v>
-      </c>
-      <c r="B103" t="s">
-        <v>41</v>
-      </c>
-      <c r="C103" s="1">
-        <v>0.78125</v>
-      </c>
-      <c r="D103">
-        <v>930</v>
-      </c>
-      <c r="G103" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="E103">
+        <v>448</v>
+      </c>
+      <c r="F103" t="s">
+        <v>8</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0.74305555555555558</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>7</v>
-      </c>
-      <c r="B104" t="s">
-        <v>32</v>
-      </c>
-      <c r="C104" s="1">
-        <v>0.79513888888888884</v>
-      </c>
-      <c r="D104">
-        <v>431</v>
-      </c>
-      <c r="G104" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="E104">
+        <v>4308</v>
+      </c>
+      <c r="F104" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0.74583333333333335</v>
+      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>7</v>
       </c>
-      <c r="B105" t="s">
-        <v>20</v>
-      </c>
-      <c r="C105" s="1">
-        <v>0.79513888888888884</v>
-      </c>
-      <c r="D105">
-        <v>661</v>
-      </c>
-      <c r="G105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="E105">
+        <v>528</v>
+      </c>
+      <c r="F105" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0.76041666666666663</v>
+      </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C106" s="1">
-        <v>0.8125</v>
+        <v>0.7631944444444444</v>
       </c>
       <c r="D106">
-        <v>222</v>
+        <v>4040</v>
       </c>
       <c r="G106" s="1"/>
     </row>
@@ -2167,57 +2161,57 @@
       </c>
       <c r="C107" s="1"/>
       <c r="E107">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G107" s="1">
-        <v>0.8125</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>7</v>
-      </c>
-      <c r="B108" t="s">
-        <v>28</v>
-      </c>
-      <c r="C108" s="1">
-        <v>0.81944444444444442</v>
-      </c>
-      <c r="D108">
-        <v>425</v>
-      </c>
-      <c r="G108" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="E108">
+        <v>4312</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0.77638888888888891</v>
+      </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>39</v>
-      </c>
-      <c r="B109" t="s">
-        <v>14</v>
-      </c>
-      <c r="C109" s="1">
-        <v>0.82291666666666663</v>
-      </c>
-      <c r="D109">
-        <v>932</v>
-      </c>
-      <c r="G109" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="E109">
+        <v>558</v>
+      </c>
+      <c r="F109" t="s">
+        <v>24</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0.78819444444444442</v>
+      </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C110" s="1">
-        <v>0.82638888888888884</v>
+        <v>0.79027777777777775</v>
       </c>
       <c r="D110">
-        <v>523</v>
+        <v>4331</v>
       </c>
       <c r="G110" s="1"/>
     </row>
@@ -2226,13 +2220,13 @@
         <v>7</v>
       </c>
       <c r="B111" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C111" s="1">
-        <v>0.82986111111111116</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="D111">
-        <v>583</v>
+        <v>431</v>
       </c>
       <c r="G111" s="1"/>
     </row>
@@ -2241,88 +2235,88 @@
         <v>7</v>
       </c>
       <c r="B112" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C112" s="1">
-        <v>0.84375</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="D112">
-        <v>325</v>
+        <v>661</v>
       </c>
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>7</v>
-      </c>
-      <c r="B113" t="s">
-        <v>36</v>
-      </c>
-      <c r="C113" s="1">
-        <v>0.84375</v>
-      </c>
-      <c r="D113">
-        <v>445</v>
-      </c>
-      <c r="G113" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="E113">
+        <v>4041</v>
+      </c>
+      <c r="F113" t="s">
+        <v>23</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0.79513888888888884</v>
+      </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" s="1"/>
-      <c r="E114">
-        <v>590</v>
-      </c>
-      <c r="F114" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="1">
-        <v>0.85069444444444442</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B114" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="D114">
+        <v>222</v>
+      </c>
+      <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>7</v>
       </c>
-      <c r="B115" t="s">
-        <v>16</v>
-      </c>
-      <c r="C115" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D115">
-        <v>393</v>
-      </c>
-      <c r="G115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="E115">
+        <v>570</v>
+      </c>
+      <c r="F115" t="s">
+        <v>17</v>
+      </c>
+      <c r="G115" s="1">
+        <v>0.8125</v>
+      </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>7</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C116" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="D116">
-        <v>449</v>
+        <v>523</v>
       </c>
       <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B117" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C117" s="1">
-        <v>0.86041666666666661</v>
+        <v>0.82986111111111116</v>
       </c>
       <c r="D117">
-        <v>881</v>
+        <v>583</v>
       </c>
       <c r="G117" s="1"/>
     </row>
@@ -2331,13 +2325,13 @@
         <v>7</v>
       </c>
       <c r="B118" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C118" s="1">
-        <v>0.86805555555555558</v>
+        <v>0.84375</v>
       </c>
       <c r="D118">
-        <v>563</v>
+        <v>325</v>
       </c>
       <c r="G118" s="1"/>
     </row>
@@ -2345,16 +2339,16 @@
       <c r="A119" t="s">
         <v>7</v>
       </c>
-      <c r="B119" t="s">
-        <v>25</v>
-      </c>
-      <c r="C119" s="1">
-        <v>0.87152777777777779</v>
-      </c>
-      <c r="D119">
-        <v>316</v>
-      </c>
-      <c r="G119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="E119">
+        <v>590</v>
+      </c>
+      <c r="F119" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="1">
+        <v>0.85069444444444442</v>
+      </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
@@ -2364,40 +2358,40 @@
         <v>21</v>
       </c>
       <c r="C120" s="1">
-        <v>0.875</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D120">
-        <v>535</v>
+        <v>393</v>
       </c>
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>34</v>
-      </c>
-      <c r="C121" s="1"/>
-      <c r="E121">
-        <v>222</v>
-      </c>
-      <c r="F121" t="s">
-        <v>45</v>
-      </c>
-      <c r="G121" s="1">
-        <v>0.875</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D121">
+        <v>449</v>
+      </c>
+      <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C122" s="1">
-        <v>0.87847222222222221</v>
+        <v>0.86041666666666661</v>
       </c>
       <c r="D122">
-        <v>557</v>
+        <v>881</v>
       </c>
       <c r="G122" s="1"/>
     </row>
@@ -2406,13 +2400,13 @@
         <v>7</v>
       </c>
       <c r="B123" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C123" s="1">
-        <v>0.87847222222222221</v>
+        <v>0.86805555555555558</v>
       </c>
       <c r="D123">
-        <v>589</v>
+        <v>443</v>
       </c>
       <c r="G123" s="1"/>
     </row>
@@ -2421,88 +2415,88 @@
         <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C124" s="1">
-        <v>0.87847222222222221</v>
+        <v>0.86805555555555558</v>
       </c>
       <c r="D124">
-        <v>616</v>
+        <v>563</v>
       </c>
       <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C125" s="1">
-        <v>0.8881944444444444</v>
+        <v>0.87152777777777779</v>
       </c>
       <c r="D125">
-        <v>1461</v>
+        <v>316</v>
       </c>
       <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C126" s="1"/>
       <c r="E126">
-        <v>365</v>
+        <v>222</v>
       </c>
       <c r="F126" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G126" s="1">
-        <v>0.92013888888888884</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>7</v>
       </c>
-      <c r="C127" s="1"/>
-      <c r="E127">
-        <v>580</v>
-      </c>
-      <c r="F127" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="1">
-        <v>0.92013888888888884</v>
-      </c>
+      <c r="B127" t="s">
+        <v>23</v>
+      </c>
+      <c r="C127" s="1">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="D127">
+        <v>614</v>
+      </c>
+      <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>7</v>
-      </c>
-      <c r="C128" s="1"/>
-      <c r="E128">
-        <v>429</v>
-      </c>
-      <c r="F128" t="s">
-        <v>17</v>
-      </c>
-      <c r="G128" s="1">
-        <v>0.92361111111111116</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B128" t="s">
+        <v>26</v>
+      </c>
+      <c r="C128" s="1">
+        <v>0.8881944444444444</v>
+      </c>
+      <c r="D128">
+        <v>1461</v>
+      </c>
+      <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B129" t="s">
         <v>23</v>
       </c>
       <c r="C129" s="1">
-        <v>0.92986111111111114</v>
+        <v>0.89236111111111116</v>
       </c>
       <c r="D129">
-        <v>4339</v>
+        <v>608</v>
       </c>
       <c r="G129" s="1"/>
     </row>
@@ -2510,16 +2504,16 @@
       <c r="A130" t="s">
         <v>7</v>
       </c>
-      <c r="C130" s="1"/>
-      <c r="E130">
-        <v>578</v>
-      </c>
-      <c r="F130" t="s">
-        <v>14</v>
-      </c>
-      <c r="G130" s="1">
-        <v>0.93055555555555558</v>
-      </c>
+      <c r="B130" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" s="1">
+        <v>0.91319444444444442</v>
+      </c>
+      <c r="D130">
+        <v>585</v>
+      </c>
+      <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
@@ -2527,13 +2521,13 @@
       </c>
       <c r="C131" s="1"/>
       <c r="E131">
-        <v>627</v>
+        <v>578</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G131" s="1">
-        <v>0.93402777777777779</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -2542,13 +2536,13 @@
       </c>
       <c r="C132" s="1"/>
       <c r="E132">
-        <v>574</v>
+        <v>365</v>
       </c>
       <c r="F132" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G132" s="1">
-        <v>0.9375</v>
+        <v>0.92013888888888884</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -2557,13 +2551,13 @@
       </c>
       <c r="C133" s="1"/>
       <c r="E133">
-        <v>315</v>
+        <v>580</v>
       </c>
       <c r="F133" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G133" s="1">
-        <v>0.94097222222222221</v>
+        <v>0.92013888888888884</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -2572,44 +2566,44 @@
       </c>
       <c r="C134" s="1"/>
       <c r="E134">
-        <v>658</v>
+        <v>315</v>
       </c>
       <c r="F134" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G134" s="1">
-        <v>0.94444444444444442</v>
+        <v>0.92013888888888884</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>12</v>
-      </c>
-      <c r="B135" t="s">
-        <v>37</v>
-      </c>
-      <c r="C135" s="1">
-        <v>0.94930555555555562</v>
-      </c>
-      <c r="D135">
-        <v>1425</v>
-      </c>
-      <c r="G135" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C135" s="1"/>
+      <c r="E135">
+        <v>457</v>
+      </c>
+      <c r="F135" t="s">
+        <v>16</v>
+      </c>
+      <c r="G135" s="1">
+        <v>0.92013888888888884</v>
+      </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>7</v>
-      </c>
-      <c r="C136" s="1"/>
-      <c r="E136">
-        <v>452</v>
-      </c>
-      <c r="F136" t="s">
-        <v>8</v>
-      </c>
-      <c r="G136" s="1">
-        <v>0.95486111111111116</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B136" t="s">
+        <v>33</v>
+      </c>
+      <c r="C136" s="1">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="D136">
+        <v>878</v>
+      </c>
+      <c r="G136" s="1"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
@@ -2617,13 +2611,13 @@
       </c>
       <c r="C137" s="1"/>
       <c r="E137">
-        <v>457</v>
+        <v>429</v>
       </c>
       <c r="F137" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G137" s="1">
-        <v>0.95486111111111116</v>
+        <v>0.92361111111111116</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -2632,58 +2626,43 @@
       </c>
       <c r="C138" s="1"/>
       <c r="E138">
-        <v>432</v>
+        <v>658</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G138" s="1">
-        <v>0.95833333333333337</v>
+        <v>0.92361111111111116</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C139" s="1"/>
       <c r="E139">
-        <v>4336</v>
+        <v>452</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="G139" s="1">
-        <v>0.97152777777777777</v>
+        <v>0.92361111111111116</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>24</v>
-      </c>
-      <c r="B140" t="s">
-        <v>25</v>
-      </c>
-      <c r="C140" s="1">
-        <v>0.98402777777777783</v>
-      </c>
-      <c r="D140">
-        <v>878</v>
-      </c>
-      <c r="G140" s="1"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>12</v>
-      </c>
-      <c r="C141" s="1"/>
-      <c r="E141">
-        <v>339</v>
-      </c>
-      <c r="F141" t="s">
-        <v>37</v>
-      </c>
-      <c r="G141" s="1">
-        <v>0.99583333333333324</v>
+        <v>7</v>
+      </c>
+      <c r="C140" s="1"/>
+      <c r="E140">
+        <v>651</v>
+      </c>
+      <c r="F140" t="s">
+        <v>23</v>
+      </c>
+      <c r="G140" s="1">
+        <v>0.92708333333333337</v>
       </c>
     </row>
   </sheetData>

--- a/public/operaciones.xlsx
+++ b/public/operaciones.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulm\Desktop\Itinerarios_2026-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02D1B7C9-95D9-4E82-86E0-B31C5D04ACA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F851F4E9-CF84-4AAB-A887-2AF7B8203FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FA69FCF4-A16E-43FE-AB47-D2D23CD9C543}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ABD931B1-5E63-4E13-882C-40465289FDD1}"/>
   </bookViews>
   <sheets>
-    <sheet name="07-02" sheetId="1" r:id="rId1"/>
+    <sheet name="08-02" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="46">
   <si>
     <t>AEROLINEA</t>
   </si>
@@ -71,100 +71,106 @@
     <t>KIAD</t>
   </si>
   <si>
-    <t>KONT</t>
+    <t>KLAX</t>
+  </si>
+  <si>
+    <t>UAL</t>
+  </si>
+  <si>
+    <t>SEQM</t>
+  </si>
+  <si>
+    <t>KJFK</t>
+  </si>
+  <si>
+    <t>MGGT</t>
+  </si>
+  <si>
+    <t>SKBO</t>
+  </si>
+  <si>
+    <t>MNMG</t>
+  </si>
+  <si>
+    <t>SPJC</t>
+  </si>
+  <si>
+    <t>MROC</t>
+  </si>
+  <si>
+    <t>KSFO</t>
   </si>
   <si>
     <t>MHLM</t>
   </si>
   <si>
+    <t>TAG</t>
+  </si>
+  <si>
+    <t>MHRO</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>KMIA</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>MPTO</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>KATL</t>
+  </si>
+  <si>
+    <t>KIAH</t>
+  </si>
+  <si>
+    <t>AMX</t>
+  </si>
+  <si>
+    <t>MMMX</t>
+  </si>
+  <si>
+    <t>KDFW</t>
+  </si>
+  <si>
+    <t>NKS</t>
+  </si>
+  <si>
+    <t>KFLL</t>
+  </si>
+  <si>
+    <t>IBE</t>
+  </si>
+  <si>
+    <t>CYYZ</t>
+  </si>
+  <si>
+    <t>KBOS</t>
+  </si>
+  <si>
+    <t>KEWR</t>
+  </si>
+  <si>
+    <t>DHL</t>
+  </si>
+  <si>
+    <t>TPA</t>
+  </si>
+  <si>
+    <t>AJT</t>
+  </si>
+  <si>
+    <t>SKRG</t>
+  </si>
+  <si>
     <t>KOAK</t>
-  </si>
-  <si>
-    <t>KLAX</t>
-  </si>
-  <si>
-    <t>UAL</t>
-  </si>
-  <si>
-    <t>SEQM</t>
-  </si>
-  <si>
-    <t>KJFK</t>
-  </si>
-  <si>
-    <t>MMMX</t>
-  </si>
-  <si>
-    <t>MGGT</t>
-  </si>
-  <si>
-    <t>SKBO</t>
-  </si>
-  <si>
-    <t>MNMG</t>
-  </si>
-  <si>
-    <t>SPJC</t>
-  </si>
-  <si>
-    <t>MROC</t>
-  </si>
-  <si>
-    <t>KSFO</t>
-  </si>
-  <si>
-    <t>FFT</t>
-  </si>
-  <si>
-    <t>KIAH</t>
-  </si>
-  <si>
-    <t>KMIA</t>
-  </si>
-  <si>
-    <t>KEWR</t>
-  </si>
-  <si>
-    <t>KDFW</t>
-  </si>
-  <si>
-    <t>KMCO</t>
-  </si>
-  <si>
-    <t>AAL</t>
-  </si>
-  <si>
-    <t>CMP</t>
-  </si>
-  <si>
-    <t>MPTO</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>KATL</t>
-  </si>
-  <si>
-    <t>AMX</t>
-  </si>
-  <si>
-    <t>MMUN</t>
-  </si>
-  <si>
-    <t>IBE</t>
-  </si>
-  <si>
-    <t>CYYZ</t>
-  </si>
-  <si>
-    <t>FDX</t>
-  </si>
-  <si>
-    <t>AJT</t>
-  </si>
-  <si>
-    <t>TPA</t>
   </si>
   <si>
     <t>LEMD</t>
@@ -542,8 +548,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F832AB2D-4A1D-405D-B51E-34E59BD78230}">
-  <dimension ref="A1:G140"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6DF9A8-5932-41AE-B184-C3261913A392}">
+  <dimension ref="A1:G139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,63 +588,63 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="E2">
-        <v>1670</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.125</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.18402777777777779</v>
+      </c>
+      <c r="D2">
+        <v>222</v>
+      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.13055555555555556</v>
-      </c>
-      <c r="D3">
-        <v>4156</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="E3">
+        <v>1670</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.20833333333333334</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="D4">
-        <v>453</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="E4">
+        <v>879</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.20972222222222223</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="E5">
-        <v>879</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.20972222222222223</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="D5">
+        <v>453</v>
+      </c>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -657,16 +663,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
-        <v>0.22222222222222221</v>
+        <v>0.22569444444444445</v>
       </c>
       <c r="D7">
-        <v>531</v>
+        <v>224</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -674,38 +680,38 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="D8">
-        <v>575</v>
-      </c>
-      <c r="G8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="E8">
+        <v>556</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.22916666666666666</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.23472222222222222</v>
-      </c>
-      <c r="D9">
-        <v>4323</v>
-      </c>
-      <c r="G9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="E9">
+        <v>4350</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.22916666666666666</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
         <v>0.23541666666666666</v>
@@ -717,10 +723,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1">
         <v>0.23958333333333334</v>
@@ -735,7 +741,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
         <v>0.24652777777777779</v>
@@ -750,7 +756,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <v>0.24652777777777779</v>
@@ -765,13 +771,13 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>0.25347222222222221</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="D14">
-        <v>433</v>
+        <v>579</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -780,13 +786,13 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
-        <v>0.25694444444444442</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D15">
-        <v>579</v>
+        <v>366</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -795,13 +801,13 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1">
         <v>0.26041666666666669</v>
       </c>
       <c r="D16">
-        <v>366</v>
+        <v>529</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -810,58 +816,58 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="D17">
-        <v>529</v>
+        <v>314</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="1">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="E18">
+        <v>4326</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1">
         <v>0.2638888888888889</v>
       </c>
-      <c r="D18">
-        <v>314</v>
-      </c>
-      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="E19">
-        <v>4326</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.2638888888888889</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="D19">
+        <v>428</v>
+      </c>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1">
         <v>0.2673611111111111</v>
       </c>
       <c r="D20">
-        <v>428</v>
+        <v>626</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -870,13 +876,13 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
-        <v>0.2673611111111111</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D21">
-        <v>650</v>
+        <v>561</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -885,13 +891,13 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1">
         <v>0.27083333333333331</v>
       </c>
       <c r="D22">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -900,41 +906,41 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C23" s="1">
         <v>0.27083333333333331</v>
       </c>
       <c r="D23">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D24">
-        <v>591</v>
-      </c>
-      <c r="G24" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="E24">
+        <v>4318</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.28611111111111109</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C25" s="1"/>
       <c r="E25">
         <v>1467</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G25" s="1">
         <v>0.28819444444444448</v>
@@ -945,7 +951,7 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C26" s="1">
         <v>0.29166666666666669</v>
@@ -957,17 +963,17 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1"/>
       <c r="E27">
-        <v>4330</v>
+        <v>323</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G27" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -976,10 +982,10 @@
       </c>
       <c r="C28" s="1"/>
       <c r="E28">
-        <v>321</v>
+        <v>396</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G28" s="1">
         <v>0.3125</v>
@@ -987,17 +993,17 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C29" s="1"/>
       <c r="E29">
-        <v>323</v>
+        <v>4338</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G29" s="1">
-        <v>0.3125</v>
+        <v>0.31527777777777777</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1006,28 +1012,28 @@
       </c>
       <c r="C30" s="1"/>
       <c r="E30">
-        <v>396</v>
+        <v>310</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G30" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C31" s="1"/>
       <c r="E31">
-        <v>884</v>
+        <v>440</v>
       </c>
       <c r="F31" t="s">
         <v>33</v>
       </c>
       <c r="G31" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1036,10 +1042,10 @@
       </c>
       <c r="C32" s="1"/>
       <c r="E32">
-        <v>310</v>
+        <v>536</v>
       </c>
       <c r="F32" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G32" s="1">
         <v>0.31597222222222221</v>
@@ -1051,13 +1057,13 @@
       </c>
       <c r="C33" s="1"/>
       <c r="E33">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G33" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1066,13 +1072,13 @@
       </c>
       <c r="C34" s="1"/>
       <c r="E34">
-        <v>536</v>
+        <v>562</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G34" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1081,13 +1087,13 @@
       </c>
       <c r="C35" s="1"/>
       <c r="E35">
-        <v>562</v>
+        <v>368</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G35" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1096,10 +1102,10 @@
       </c>
       <c r="C36" s="1"/>
       <c r="E36">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="F36" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G36" s="1">
         <v>0.33333333333333331</v>
@@ -1111,10 +1117,10 @@
       </c>
       <c r="C37" s="1"/>
       <c r="E37">
-        <v>383</v>
+        <v>522</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G37" s="1">
         <v>0.33333333333333331</v>
@@ -1124,31 +1130,31 @@
       <c r="A38" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="E38">
-        <v>522</v>
-      </c>
-      <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="D38">
+        <v>581</v>
+      </c>
+      <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="1">
+      <c r="C39" s="1"/>
+      <c r="E39">
+        <v>660</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="1">
         <v>0.33680555555555558</v>
       </c>
-      <c r="D39">
-        <v>581</v>
-      </c>
-      <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1156,13 +1162,13 @@
       </c>
       <c r="C40" s="1"/>
       <c r="E40">
-        <v>660</v>
+        <v>454</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G40" s="1">
-        <v>0.33680555555555558</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1171,10 +1177,10 @@
       </c>
       <c r="C41" s="1"/>
       <c r="E41">
-        <v>454</v>
+        <v>554</v>
       </c>
       <c r="F41" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G41" s="1">
         <v>0.34027777777777779</v>
@@ -1186,72 +1192,72 @@
       </c>
       <c r="C42" s="1"/>
       <c r="E42">
-        <v>538</v>
+        <v>324</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="G42" s="1">
-        <v>0.34027777777777779</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="E43">
-        <v>324</v>
-      </c>
-      <c r="F43" t="s">
-        <v>39</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0.34375</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.34722222222222221</v>
+      </c>
+      <c r="D43">
+        <v>4053</v>
+      </c>
+      <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C44" s="1"/>
       <c r="E44">
-        <v>430</v>
+        <v>884</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G44" s="1">
-        <v>0.37847222222222221</v>
+        <v>0.3576388888888889</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="E45">
-        <v>582</v>
-      </c>
-      <c r="F45" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0.39930555555555558</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="D45">
+        <v>916</v>
+      </c>
+      <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C46" s="1">
-        <v>0.41319444444444442</v>
+        <v>0.37847222222222221</v>
       </c>
       <c r="D46">
-        <v>659</v>
+        <v>559</v>
       </c>
       <c r="G46" s="1"/>
     </row>
@@ -1261,117 +1267,117 @@
       </c>
       <c r="C47" s="1"/>
       <c r="E47">
-        <v>392</v>
+        <v>430</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G47" s="1">
-        <v>0.41319444444444442</v>
+        <v>0.37847222222222221</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0.4201388888888889</v>
-      </c>
-      <c r="D48">
-        <v>348</v>
-      </c>
-      <c r="G48" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="E48">
+        <v>582</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.39930555555555558</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="E49">
-        <v>609</v>
-      </c>
-      <c r="F49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" s="1">
-        <v>0.4236111111111111</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="D49">
+        <v>4053</v>
+      </c>
+      <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="E50">
-        <v>4320</v>
-      </c>
-      <c r="F50" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" s="1">
-        <v>0.4236111111111111</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="D50">
+        <v>659</v>
+      </c>
+      <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
-      <c r="B51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="D51">
-        <v>537</v>
-      </c>
-      <c r="G51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="E51">
+        <v>392</v>
+      </c>
+      <c r="F51" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.41319444444444442</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0.4368055555555555</v>
-      </c>
-      <c r="D52">
-        <v>353</v>
-      </c>
-      <c r="G52" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="E52">
+        <v>611</v>
+      </c>
+      <c r="F52" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.4236111111111111</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C53" s="1">
-        <v>0.44791666666666669</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D53">
-        <v>455</v>
+        <v>537</v>
       </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C54" s="1">
-        <v>0.4513888888888889</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D54">
-        <v>320</v>
+        <v>916</v>
       </c>
       <c r="G54" s="1"/>
     </row>
@@ -1380,358 +1386,358 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C55" s="1">
-        <v>0.4513888888888889</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="D55">
-        <v>539</v>
+        <v>455</v>
       </c>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C56" s="1">
-        <v>0.45347222222222222</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="D56">
-        <v>4337</v>
+        <v>4053</v>
       </c>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C57" s="1">
-        <v>0.45555555555555555</v>
+        <v>0.46180555555555558</v>
       </c>
       <c r="D57">
-        <v>8139</v>
+        <v>70</v>
       </c>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C58" s="1">
-        <v>0.46180555555555558</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="D58">
-        <v>384</v>
+        <v>771</v>
       </c>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>41</v>
-      </c>
-      <c r="B59" t="s">
-        <v>27</v>
-      </c>
-      <c r="C59" s="1">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="D59">
-        <v>761</v>
-      </c>
-      <c r="G59" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="E59">
+        <v>424</v>
+      </c>
+      <c r="F59" t="s">
+        <v>30</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C60" s="1"/>
       <c r="E60">
-        <v>349</v>
+        <v>71</v>
       </c>
       <c r="F60" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G60" s="1">
-        <v>0.46527777777777773</v>
+        <v>0.50347222222222221</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>25</v>
-      </c>
-      <c r="B61" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" s="1">
-        <v>0.48333333333333334</v>
-      </c>
-      <c r="D61">
-        <v>342</v>
-      </c>
-      <c r="G61" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="E61">
+        <v>319</v>
+      </c>
+      <c r="F61" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.51041666666666663</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="1"/>
-      <c r="E62">
-        <v>584</v>
-      </c>
-      <c r="F62" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="1">
-        <v>0.49305555555555558</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="D62">
+        <v>4053</v>
+      </c>
+      <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="1"/>
-      <c r="E63">
-        <v>650</v>
-      </c>
-      <c r="F63" t="s">
-        <v>37</v>
-      </c>
-      <c r="G63" s="1">
-        <v>0.49305555555555558</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D63">
+        <v>420</v>
+      </c>
+      <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="1"/>
-      <c r="E64">
-        <v>352</v>
-      </c>
-      <c r="F64" t="s">
-        <v>27</v>
-      </c>
-      <c r="G64" s="1">
-        <v>0.49583333333333335</v>
-      </c>
+      <c r="C64" s="1">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="D64">
+        <v>339</v>
+      </c>
+      <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="1"/>
-      <c r="E65">
-        <v>385</v>
-      </c>
-      <c r="F65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="D65">
+        <v>816</v>
+      </c>
+      <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="1"/>
-      <c r="E66">
-        <v>442</v>
-      </c>
-      <c r="F66" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" t="s">
         <v>29</v>
       </c>
-      <c r="G66" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+      <c r="C66" s="1">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="D66">
+        <v>1910</v>
+      </c>
+      <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>42</v>
+      </c>
+      <c r="B67" t="s">
         <v>25</v>
       </c>
-      <c r="B67" t="s">
-        <v>30</v>
-      </c>
       <c r="C67" s="1">
-        <v>0.51458333333333328</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="D67">
-        <v>63</v>
+        <v>770</v>
       </c>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C68" s="1">
-        <v>0.52152777777777781</v>
+        <v>0.55486111111111114</v>
       </c>
       <c r="D68">
-        <v>339</v>
+        <v>1441</v>
       </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>41</v>
-      </c>
-      <c r="B69" t="s">
-        <v>27</v>
-      </c>
-      <c r="C69" s="1">
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="D69">
-        <v>760</v>
-      </c>
-      <c r="G69" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="E69">
+        <v>421</v>
+      </c>
+      <c r="F69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.5625</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>32</v>
-      </c>
-      <c r="B70" t="s">
-        <v>33</v>
-      </c>
-      <c r="C70" s="1">
-        <v>0.52986111111111112</v>
-      </c>
-      <c r="D70">
-        <v>816</v>
-      </c>
-      <c r="G70" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="E70">
+        <v>348</v>
+      </c>
+      <c r="F70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.56319444444444444</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C71" s="1"/>
       <c r="E71">
-        <v>343</v>
+        <v>871</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G71" s="1">
-        <v>0.53541666666666665</v>
+        <v>0.57291666666666663</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B72" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C72" s="1">
-        <v>0.54861111111111105</v>
+        <v>0.57986111111111105</v>
       </c>
       <c r="D72">
-        <v>1910</v>
+        <v>628</v>
       </c>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B73" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C73" s="1">
-        <v>0.55486111111111114</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="D73">
-        <v>1441</v>
+        <v>1035</v>
       </c>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C74" s="1"/>
       <c r="E74">
-        <v>348</v>
+        <v>1978</v>
       </c>
       <c r="F74" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G74" s="1">
-        <v>0.56319444444444444</v>
+        <v>0.60763888888888895</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" t="s">
         <v>25</v>
       </c>
-      <c r="B75" t="s">
-        <v>35</v>
-      </c>
       <c r="C75" s="1">
-        <v>0.56666666666666665</v>
+        <v>0.61736111111111114</v>
       </c>
       <c r="D75">
-        <v>219</v>
+        <v>3151</v>
       </c>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C76" s="1"/>
       <c r="E76">
-        <v>62</v>
+        <v>1468</v>
       </c>
       <c r="F76" t="s">
         <v>30</v>
       </c>
       <c r="G76" s="1">
-        <v>0.56666666666666665</v>
+        <v>0.61805555555555558</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>32</v>
-      </c>
-      <c r="C77" s="1"/>
-      <c r="E77">
-        <v>871</v>
-      </c>
-      <c r="F77" t="s">
-        <v>33</v>
-      </c>
-      <c r="G77" s="1">
-        <v>0.57291666666666663</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B77" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.61944444444444446</v>
+      </c>
+      <c r="D77">
+        <v>1031</v>
+      </c>
+      <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C78" s="1">
-        <v>0.57986111111111105</v>
+        <v>0.62222222222222223</v>
       </c>
       <c r="D78">
-        <v>628</v>
+        <v>4319</v>
       </c>
       <c r="G78" s="1"/>
     </row>
@@ -1739,134 +1745,134 @@
       <c r="A79" t="s">
         <v>31</v>
       </c>
-      <c r="B79" t="s">
-        <v>29</v>
-      </c>
-      <c r="C79" s="1">
-        <v>0.59791666666666665</v>
-      </c>
-      <c r="D79">
-        <v>1035</v>
-      </c>
-      <c r="G79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="E79">
+        <v>629</v>
+      </c>
+      <c r="F79" t="s">
+        <v>32</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0.63263888888888886</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C80" s="1"/>
       <c r="E80">
-        <v>1978</v>
+        <v>1104</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G80" s="1">
-        <v>0.60763888888888895</v>
+        <v>0.63958333333333328</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C81" s="1">
-        <v>0.61736111111111114</v>
+        <v>0.64166666666666672</v>
       </c>
       <c r="D81">
-        <v>3151</v>
+        <v>1290</v>
       </c>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>15</v>
-      </c>
-      <c r="C82" s="1"/>
-      <c r="E82">
-        <v>1468</v>
-      </c>
-      <c r="F82" t="s">
-        <v>26</v>
-      </c>
-      <c r="G82" s="1">
-        <v>0.61805555555555558</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D82">
+        <v>382</v>
+      </c>
+      <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C83" s="1"/>
       <c r="E83">
-        <v>218</v>
+        <v>317</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G83" s="1">
-        <v>0.61875000000000002</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C84" s="1"/>
       <c r="E84">
-        <v>629</v>
+        <v>356</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G84" s="1">
-        <v>0.63263888888888886</v>
+        <v>0.65902777777777777</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>31</v>
-      </c>
-      <c r="C85" s="1"/>
-      <c r="E85">
-        <v>1104</v>
-      </c>
-      <c r="F85" t="s">
-        <v>29</v>
-      </c>
-      <c r="G85" s="1">
-        <v>0.63958333333333328</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B85" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D85">
+        <v>367</v>
+      </c>
+      <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>15</v>
-      </c>
-      <c r="B86" t="s">
-        <v>26</v>
-      </c>
-      <c r="C86" s="1">
-        <v>0.64166666666666672</v>
-      </c>
-      <c r="D86">
-        <v>1290</v>
-      </c>
-      <c r="G86" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="E86">
+        <v>1032</v>
+      </c>
+      <c r="F86" t="s">
+        <v>35</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0.66805555555555562</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C87" s="1">
-        <v>0.65277777777777779</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="D87">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="G87" s="1"/>
     </row>
@@ -1874,30 +1880,30 @@
       <c r="A88" t="s">
         <v>7</v>
       </c>
-      <c r="C88" s="1"/>
-      <c r="E88">
-        <v>317</v>
-      </c>
-      <c r="F88" t="s">
+      <c r="B88" t="s">
         <v>33</v>
       </c>
-      <c r="G88" s="1">
-        <v>0.65625</v>
-      </c>
+      <c r="C88" s="1">
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="D88">
+        <v>441</v>
+      </c>
+      <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C89" s="1"/>
       <c r="E89">
-        <v>356</v>
+        <v>4322</v>
       </c>
       <c r="F89" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="G89" s="1">
-        <v>0.65902777777777777</v>
+        <v>0.68611111111111112</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -1905,13 +1911,13 @@
         <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C90" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="D90">
-        <v>367</v>
+        <v>311</v>
       </c>
       <c r="G90" s="1"/>
     </row>
@@ -1920,13 +1926,13 @@
         <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C91" s="1">
-        <v>0.67361111111111116</v>
+        <v>0.6875</v>
       </c>
       <c r="D91">
-        <v>397</v>
+        <v>318</v>
       </c>
       <c r="G91" s="1"/>
     </row>
@@ -1935,90 +1941,90 @@
         <v>7</v>
       </c>
       <c r="B92" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C92" s="1">
-        <v>0.68055555555555558</v>
+        <v>0.69097222222222221</v>
       </c>
       <c r="D92">
-        <v>441</v>
+        <v>555</v>
       </c>
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>7</v>
-      </c>
-      <c r="B93" t="s">
-        <v>37</v>
-      </c>
-      <c r="C93" s="1">
-        <v>0.68402777777777779</v>
-      </c>
-      <c r="D93">
-        <v>651</v>
-      </c>
-      <c r="G93" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="E93">
+        <v>1130</v>
+      </c>
+      <c r="F93" t="s">
+        <v>30</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0.69444444444444453</v>
+      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C94" s="1">
-        <v>0.6875</v>
+        <v>0.69722222222222219</v>
       </c>
       <c r="D94">
-        <v>311</v>
+        <v>4327</v>
       </c>
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>15</v>
-      </c>
-      <c r="C95" s="1"/>
-      <c r="E95">
-        <v>1130</v>
-      </c>
-      <c r="F95" t="s">
-        <v>26</v>
-      </c>
-      <c r="G95" s="1">
-        <v>0.69444444444444453</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B95" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D95">
+        <v>322</v>
+      </c>
+      <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>9</v>
-      </c>
-      <c r="B96" t="s">
-        <v>10</v>
-      </c>
-      <c r="C96" s="1">
-        <v>0.69722222222222219</v>
-      </c>
-      <c r="D96">
-        <v>4327</v>
-      </c>
-      <c r="G96" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="E96">
+        <v>520</v>
+      </c>
+      <c r="F96" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>7</v>
       </c>
-      <c r="B97" t="s">
-        <v>33</v>
-      </c>
-      <c r="C97" s="1">
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="D97">
-        <v>322</v>
-      </c>
-      <c r="G97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="E97">
+        <v>560</v>
+      </c>
+      <c r="F97" t="s">
+        <v>20</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -2026,10 +2032,10 @@
       </c>
       <c r="C98" s="1"/>
       <c r="E98">
-        <v>520</v>
+        <v>617</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G98" s="1">
         <v>0.73263888888888884</v>
@@ -2037,18 +2043,18 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" s="1"/>
-      <c r="E99">
-        <v>530</v>
-      </c>
-      <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="D99">
+        <v>4351</v>
+      </c>
+      <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
@@ -2056,13 +2062,13 @@
       </c>
       <c r="C100" s="1"/>
       <c r="E100">
-        <v>560</v>
+        <v>448</v>
       </c>
       <c r="F100" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G100" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.74305555555555558</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -2071,29 +2077,29 @@
       </c>
       <c r="C101" s="1"/>
       <c r="E101">
-        <v>615</v>
+        <v>534</v>
       </c>
       <c r="F101" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G101" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.74305555555555558</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>9</v>
       </c>
-      <c r="B102" t="s">
-        <v>26</v>
-      </c>
-      <c r="C102" s="1">
-        <v>0.73472222222222228</v>
-      </c>
-      <c r="D102">
-        <v>4321</v>
-      </c>
-      <c r="G102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="E102">
+        <v>4308</v>
+      </c>
+      <c r="F102" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0.74583333333333335</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
@@ -2101,57 +2107,57 @@
       </c>
       <c r="C103" s="1"/>
       <c r="E103">
-        <v>448</v>
+        <v>528</v>
       </c>
       <c r="F103" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G103" s="1">
-        <v>0.74305555555555558</v>
+        <v>0.76041666666666663</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C104" s="1"/>
       <c r="E104">
-        <v>4308</v>
+        <v>566</v>
       </c>
       <c r="F104" t="s">
         <v>14</v>
       </c>
       <c r="G104" s="1">
-        <v>0.74583333333333335</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C105" s="1"/>
       <c r="E105">
-        <v>528</v>
+        <v>4312</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G105" s="1">
-        <v>0.76041666666666663</v>
+        <v>0.77638888888888891</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B106" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C106" s="1">
-        <v>0.7631944444444444</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="D106">
-        <v>4040</v>
+        <v>431</v>
       </c>
       <c r="G106" s="1"/>
     </row>
@@ -2159,31 +2165,31 @@
       <c r="A107" t="s">
         <v>7</v>
       </c>
-      <c r="C107" s="1"/>
-      <c r="E107">
-        <v>566</v>
-      </c>
-      <c r="F107" t="s">
-        <v>17</v>
-      </c>
-      <c r="G107" s="1">
-        <v>0.77083333333333337</v>
-      </c>
+      <c r="B107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="D107">
+        <v>661</v>
+      </c>
+      <c r="G107" s="1"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" s="1"/>
-      <c r="E108">
-        <v>4312</v>
-      </c>
-      <c r="F108" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="1">
-        <v>0.77638888888888891</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="D108">
+        <v>222</v>
+      </c>
+      <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -2191,27 +2197,27 @@
       </c>
       <c r="C109" s="1"/>
       <c r="E109">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="F109" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G109" s="1">
-        <v>0.78819444444444442</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B110" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C110" s="1">
-        <v>0.79027777777777775</v>
+        <v>0.81944444444444442</v>
       </c>
       <c r="D110">
-        <v>4331</v>
+        <v>425</v>
       </c>
       <c r="G110" s="1"/>
     </row>
@@ -2220,13 +2226,13 @@
         <v>7</v>
       </c>
       <c r="B111" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C111" s="1">
-        <v>0.79513888888888884</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="D111">
-        <v>431</v>
+        <v>523</v>
       </c>
       <c r="G111" s="1"/>
     </row>
@@ -2235,43 +2241,43 @@
         <v>7</v>
       </c>
       <c r="B112" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C112" s="1">
-        <v>0.79513888888888884</v>
+        <v>0.82986111111111116</v>
       </c>
       <c r="D112">
-        <v>661</v>
+        <v>583</v>
       </c>
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" s="1"/>
-      <c r="E113">
-        <v>4041</v>
-      </c>
-      <c r="F113" t="s">
-        <v>23</v>
-      </c>
-      <c r="G113" s="1">
-        <v>0.79513888888888884</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B113" t="s">
+        <v>37</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="D113">
+        <v>325</v>
+      </c>
+      <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" t="s">
         <v>38</v>
       </c>
-      <c r="B114" t="s">
-        <v>19</v>
-      </c>
       <c r="C114" s="1">
-        <v>0.8125</v>
+        <v>0.84375</v>
       </c>
       <c r="D114">
-        <v>222</v>
+        <v>445</v>
       </c>
       <c r="G114" s="1"/>
     </row>
@@ -2281,13 +2287,13 @@
       </c>
       <c r="C115" s="1"/>
       <c r="E115">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="F115" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G115" s="1">
-        <v>0.8125</v>
+        <v>0.85069444444444442</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -2295,13 +2301,13 @@
         <v>7</v>
       </c>
       <c r="B116" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C116" s="1">
-        <v>0.82638888888888884</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D116">
-        <v>523</v>
+        <v>393</v>
       </c>
       <c r="G116" s="1"/>
     </row>
@@ -2310,28 +2316,28 @@
         <v>7</v>
       </c>
       <c r="B117" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C117" s="1">
-        <v>0.82986111111111116</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D117">
-        <v>583</v>
+        <v>449</v>
       </c>
       <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B118" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C118" s="1">
-        <v>0.84375</v>
+        <v>0.86041666666666661</v>
       </c>
       <c r="D118">
-        <v>325</v>
+        <v>881</v>
       </c>
       <c r="G118" s="1"/>
     </row>
@@ -2339,29 +2345,29 @@
       <c r="A119" t="s">
         <v>7</v>
       </c>
-      <c r="C119" s="1"/>
-      <c r="E119">
-        <v>590</v>
-      </c>
-      <c r="F119" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="1">
-        <v>0.85069444444444442</v>
-      </c>
+      <c r="B119" t="s">
+        <v>20</v>
+      </c>
+      <c r="C119" s="1">
+        <v>0.86805555555555558</v>
+      </c>
+      <c r="D119">
+        <v>563</v>
+      </c>
+      <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>7</v>
       </c>
       <c r="B120" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C120" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.87152777777777779</v>
       </c>
       <c r="D120">
-        <v>393</v>
+        <v>316</v>
       </c>
       <c r="G120" s="1"/>
     </row>
@@ -2370,43 +2376,43 @@
         <v>7</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C121" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="D121">
-        <v>449</v>
+        <v>535</v>
       </c>
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>32</v>
-      </c>
-      <c r="B122" t="s">
-        <v>33</v>
-      </c>
-      <c r="C122" s="1">
-        <v>0.86041666666666661</v>
-      </c>
-      <c r="D122">
-        <v>881</v>
-      </c>
-      <c r="G122" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C122" s="1"/>
+      <c r="E122">
+        <v>222</v>
+      </c>
+      <c r="F122" t="s">
+        <v>45</v>
+      </c>
+      <c r="G122" s="1">
+        <v>0.875</v>
+      </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>7</v>
       </c>
       <c r="B123" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C123" s="1">
-        <v>0.86805555555555558</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D123">
-        <v>443</v>
+        <v>557</v>
       </c>
       <c r="G123" s="1"/>
     </row>
@@ -2415,88 +2421,88 @@
         <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C124" s="1">
-        <v>0.86805555555555558</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D124">
-        <v>563</v>
+        <v>616</v>
       </c>
       <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B125" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C125" s="1">
-        <v>0.87152777777777779</v>
+        <v>0.8881944444444444</v>
       </c>
       <c r="D125">
-        <v>316</v>
+        <v>1461</v>
       </c>
       <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C126" s="1"/>
       <c r="E126">
-        <v>222</v>
+        <v>365</v>
       </c>
       <c r="F126" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="G126" s="1">
-        <v>0.875</v>
+        <v>0.92013888888888884</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>7</v>
       </c>
-      <c r="B127" t="s">
-        <v>23</v>
-      </c>
-      <c r="C127" s="1">
-        <v>0.87847222222222221</v>
-      </c>
-      <c r="D127">
-        <v>614</v>
-      </c>
-      <c r="G127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="E127">
+        <v>580</v>
+      </c>
+      <c r="F127" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="1">
+        <v>0.92013888888888884</v>
+      </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>15</v>
-      </c>
-      <c r="B128" t="s">
-        <v>26</v>
-      </c>
-      <c r="C128" s="1">
-        <v>0.8881944444444444</v>
-      </c>
-      <c r="D128">
-        <v>1461</v>
-      </c>
-      <c r="G128" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C128" s="1"/>
+      <c r="E128">
+        <v>429</v>
+      </c>
+      <c r="F128" t="s">
+        <v>18</v>
+      </c>
+      <c r="G128" s="1">
+        <v>0.92361111111111116</v>
+      </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C129" s="1">
-        <v>0.89236111111111116</v>
+        <v>0.92986111111111114</v>
       </c>
       <c r="D129">
-        <v>608</v>
+        <v>4339</v>
       </c>
       <c r="G129" s="1"/>
     </row>
@@ -2504,16 +2510,16 @@
       <c r="A130" t="s">
         <v>7</v>
       </c>
-      <c r="B130" t="s">
-        <v>10</v>
-      </c>
-      <c r="C130" s="1">
-        <v>0.91319444444444442</v>
-      </c>
-      <c r="D130">
-        <v>585</v>
-      </c>
-      <c r="G130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="E130">
+        <v>578</v>
+      </c>
+      <c r="F130" t="s">
+        <v>15</v>
+      </c>
+      <c r="G130" s="1">
+        <v>0.93055555555555558</v>
+      </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
@@ -2521,13 +2527,13 @@
       </c>
       <c r="C131" s="1"/>
       <c r="E131">
-        <v>578</v>
+        <v>627</v>
       </c>
       <c r="F131" t="s">
         <v>19</v>
       </c>
       <c r="G131" s="1">
-        <v>0.91666666666666663</v>
+        <v>0.93402777777777779</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -2536,13 +2542,13 @@
       </c>
       <c r="C132" s="1"/>
       <c r="E132">
-        <v>365</v>
+        <v>574</v>
       </c>
       <c r="F132" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G132" s="1">
-        <v>0.92013888888888884</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -2551,13 +2557,13 @@
       </c>
       <c r="C133" s="1"/>
       <c r="E133">
-        <v>580</v>
+        <v>315</v>
       </c>
       <c r="F133" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G133" s="1">
-        <v>0.92013888888888884</v>
+        <v>0.94097222222222221</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -2566,44 +2572,44 @@
       </c>
       <c r="C134" s="1"/>
       <c r="E134">
-        <v>315</v>
+        <v>658</v>
       </c>
       <c r="F134" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G134" s="1">
-        <v>0.92013888888888884</v>
+        <v>0.94444444444444442</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>7</v>
-      </c>
-      <c r="C135" s="1"/>
-      <c r="E135">
-        <v>457</v>
-      </c>
-      <c r="F135" t="s">
-        <v>16</v>
-      </c>
-      <c r="G135" s="1">
-        <v>0.92013888888888884</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B135" t="s">
+        <v>39</v>
+      </c>
+      <c r="C135" s="1">
+        <v>0.94930555555555562</v>
+      </c>
+      <c r="D135">
+        <v>1425</v>
+      </c>
+      <c r="G135" s="1"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>32</v>
-      </c>
-      <c r="B136" t="s">
-        <v>33</v>
-      </c>
-      <c r="C136" s="1">
-        <v>0.92361111111111116</v>
-      </c>
-      <c r="D136">
-        <v>878</v>
-      </c>
-      <c r="G136" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C136" s="1"/>
+      <c r="E136">
+        <v>452</v>
+      </c>
+      <c r="F136" t="s">
+        <v>8</v>
+      </c>
+      <c r="G136" s="1">
+        <v>0.95486111111111116</v>
+      </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
@@ -2611,58 +2617,43 @@
       </c>
       <c r="C137" s="1"/>
       <c r="E137">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="F137" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G137" s="1">
-        <v>0.92361111111111116</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>7</v>
-      </c>
-      <c r="C138" s="1"/>
-      <c r="E138">
-        <v>658</v>
-      </c>
-      <c r="F138" t="s">
-        <v>17</v>
-      </c>
-      <c r="G138" s="1">
-        <v>0.92361111111111116</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B138" t="s">
+        <v>27</v>
+      </c>
+      <c r="C138" s="1">
+        <v>0.98402777777777783</v>
+      </c>
+      <c r="D138">
+        <v>878</v>
+      </c>
+      <c r="G138" s="1"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C139" s="1"/>
       <c r="E139">
-        <v>452</v>
+        <v>339</v>
       </c>
       <c r="F139" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="G139" s="1">
-        <v>0.92361111111111116</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>7</v>
-      </c>
-      <c r="C140" s="1"/>
-      <c r="E140">
-        <v>651</v>
-      </c>
-      <c r="F140" t="s">
-        <v>23</v>
-      </c>
-      <c r="G140" s="1">
-        <v>0.92708333333333337</v>
+        <v>0.99583333333333324</v>
       </c>
     </row>
   </sheetData>

--- a/public/operaciones.xlsx
+++ b/public/operaciones.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulm\Desktop\Itinerarios_2026-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F851F4E9-CF84-4AAB-A887-2AF7B8203FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDD5DD9A-22CA-4F10-BA23-CA2C6EA92D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ABD931B1-5E63-4E13-882C-40465289FDD1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{81F270B5-D76A-49E5-9F62-F81E3E294F71}"/>
   </bookViews>
   <sheets>
-    <sheet name="08-02" sheetId="1" r:id="rId1"/>
+    <sheet name="09-02" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="47">
   <si>
     <t>AEROLINEA</t>
   </si>
@@ -59,121 +59,124 @@
     <t>ETD</t>
   </si>
   <si>
+    <t>VOS</t>
+  </si>
+  <si>
+    <t>KIAD</t>
+  </si>
+  <si>
     <t>AVA</t>
   </si>
   <si>
+    <t>MHLM</t>
+  </si>
+  <si>
+    <t>KOAK</t>
+  </si>
+  <si>
+    <t>KLAX</t>
+  </si>
+  <si>
+    <t>UAL</t>
+  </si>
+  <si>
+    <t>SEQM</t>
+  </si>
+  <si>
+    <t>KJFK</t>
+  </si>
+  <si>
+    <t>MMMX</t>
+  </si>
+  <si>
+    <t>MGGT</t>
+  </si>
+  <si>
+    <t>SKBO</t>
+  </si>
+  <si>
+    <t>MNMG</t>
+  </si>
+  <si>
+    <t>SPJC</t>
+  </si>
+  <si>
+    <t>MROC</t>
+  </si>
+  <si>
+    <t>KSFO</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>KMIA</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>MPTO</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>KATL</t>
+  </si>
+  <si>
+    <t>KIAH</t>
+  </si>
+  <si>
+    <t>TSC</t>
+  </si>
+  <si>
+    <t>CYUL</t>
+  </si>
+  <si>
+    <t>AMX</t>
+  </si>
+  <si>
+    <t>KDFW</t>
+  </si>
+  <si>
+    <t>IBE</t>
+  </si>
+  <si>
+    <t>CYYZ</t>
+  </si>
+  <si>
+    <t>KBOS</t>
+  </si>
+  <si>
     <t>MHPR</t>
   </si>
   <si>
-    <t>VOS</t>
-  </si>
-  <si>
-    <t>KIAD</t>
-  </si>
-  <si>
-    <t>KLAX</t>
-  </si>
-  <si>
-    <t>UAL</t>
-  </si>
-  <si>
-    <t>SEQM</t>
-  </si>
-  <si>
-    <t>KJFK</t>
-  </si>
-  <si>
-    <t>MGGT</t>
-  </si>
-  <si>
-    <t>SKBO</t>
-  </si>
-  <si>
-    <t>MNMG</t>
-  </si>
-  <si>
-    <t>SPJC</t>
-  </si>
-  <si>
-    <t>MROC</t>
-  </si>
-  <si>
-    <t>KSFO</t>
-  </si>
-  <si>
-    <t>MHLM</t>
-  </si>
-  <si>
-    <t>TAG</t>
-  </si>
-  <si>
-    <t>MHRO</t>
-  </si>
-  <si>
-    <t>AAL</t>
-  </si>
-  <si>
-    <t>KMIA</t>
-  </si>
-  <si>
-    <t>CMP</t>
-  </si>
-  <si>
-    <t>MPTO</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>KATL</t>
-  </si>
-  <si>
-    <t>KIAH</t>
-  </si>
-  <si>
-    <t>AMX</t>
-  </si>
-  <si>
-    <t>MMMX</t>
-  </si>
-  <si>
-    <t>KDFW</t>
-  </si>
-  <si>
-    <t>NKS</t>
-  </si>
-  <si>
-    <t>KFLL</t>
-  </si>
-  <si>
-    <t>IBE</t>
-  </si>
-  <si>
-    <t>CYYZ</t>
-  </si>
-  <si>
-    <t>KBOS</t>
+    <t>TPA</t>
+  </si>
+  <si>
+    <t>AJT</t>
+  </si>
+  <si>
+    <t>MKJP</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>FDX</t>
+  </si>
+  <si>
+    <t>DHL</t>
+  </si>
+  <si>
+    <t>MHTG</t>
+  </si>
+  <si>
+    <t>LEMD</t>
   </si>
   <si>
     <t>KEWR</t>
-  </si>
-  <si>
-    <t>DHL</t>
-  </si>
-  <si>
-    <t>TPA</t>
-  </si>
-  <si>
-    <t>AJT</t>
-  </si>
-  <si>
-    <t>SKRG</t>
-  </si>
-  <si>
-    <t>KOAK</t>
-  </si>
-  <si>
-    <t>LEMD</t>
   </si>
 </sst>
 </file>
@@ -548,8 +551,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6DF9A8-5932-41AE-B184-C3261913A392}">
-  <dimension ref="A1:G139"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44039981-D9AB-4FF3-9D9A-CAAA02A8A11B}">
+  <dimension ref="A1:G134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,44 +591,44 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.18402777777777779</v>
-      </c>
-      <c r="D2">
-        <v>222</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="E2">
+        <v>1670</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="E3">
-        <v>1670</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.20833333333333334</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.19583333333333333</v>
+      </c>
+      <c r="D3">
+        <v>4156</v>
+      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1"/>
       <c r="E4">
         <v>879</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1">
         <v>0.20972222222222223</v>
@@ -639,10 +642,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>0.21527777777777779</v>
+        <v>0.21875</v>
       </c>
       <c r="D5">
-        <v>453</v>
+        <v>4313</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -654,124 +657,124 @@
         <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>0.21875</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="D6">
-        <v>4313</v>
+        <v>575</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.22569444444444445</v>
-      </c>
-      <c r="D7">
-        <v>224</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="E7">
+        <v>4350</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.22916666666666666</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="E8">
-        <v>556</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.22916666666666666</v>
-      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.23472222222222222</v>
+      </c>
+      <c r="D8">
+        <v>4323</v>
+      </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="E9">
-        <v>4350</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.22916666666666666</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.23541666666666666</v>
+      </c>
+      <c r="D9">
+        <v>4309</v>
+      </c>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
-        <v>0.23541666666666666</v>
+        <v>0.23958333333333334</v>
       </c>
       <c r="D10">
-        <v>4309</v>
+        <v>1266</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
-        <v>0.23958333333333334</v>
+        <v>0.24652777777777779</v>
       </c>
       <c r="D11">
-        <v>1266</v>
+        <v>456</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1">
         <v>0.24652777777777779</v>
       </c>
       <c r="D12">
-        <v>456</v>
+        <v>567</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1">
-        <v>0.24652777777777779</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="D13">
-        <v>567</v>
+        <v>433</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1">
         <v>0.25694444444444442</v>
@@ -783,46 +786,46 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.25833333333333336</v>
       </c>
       <c r="D15">
-        <v>366</v>
+        <v>4156</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1">
         <v>0.26041666666666669</v>
       </c>
       <c r="D16">
-        <v>529</v>
+        <v>366</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1">
-        <v>0.2638888888888889</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D17">
-        <v>314</v>
+        <v>529</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -830,89 +833,89 @@
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="E18">
-        <v>4326</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1">
         <v>0.2638888888888889</v>
       </c>
+      <c r="D18">
+        <v>314</v>
+      </c>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.2673611111111111</v>
-      </c>
-      <c r="D19">
-        <v>428</v>
-      </c>
-      <c r="G19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="E19">
+        <v>4326</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.2638888888888889</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1">
         <v>0.2673611111111111</v>
       </c>
       <c r="D20">
-        <v>626</v>
+        <v>428</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D21">
-        <v>561</v>
+        <v>626</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1">
         <v>0.27083333333333331</v>
       </c>
       <c r="D22">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1">
         <v>0.27083333333333331</v>
       </c>
       <c r="D23">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -920,72 +923,72 @@
       <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="E24">
-        <v>4318</v>
-      </c>
-      <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.28611111111111109</v>
-      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D24">
+        <v>591</v>
+      </c>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1"/>
       <c r="E25">
-        <v>1467</v>
+        <v>4318</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G25" s="1">
-        <v>0.28819444444444448</v>
+        <v>0.28611111111111109</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="D26">
-        <v>521</v>
-      </c>
-      <c r="G26" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="E26">
+        <v>1467</v>
+      </c>
+      <c r="F26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.28819444444444448</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="E27">
-        <v>323</v>
-      </c>
-      <c r="F27" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0.3125</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D27">
+        <v>521</v>
+      </c>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C28" s="1"/>
       <c r="E28">
-        <v>396</v>
+        <v>321</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G28" s="1">
         <v>0.3125</v>
@@ -997,43 +1000,43 @@
       </c>
       <c r="C29" s="1"/>
       <c r="E29">
-        <v>4338</v>
+        <v>323</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G29" s="1">
-        <v>0.31527777777777777</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C30" s="1"/>
       <c r="E30">
-        <v>310</v>
+        <v>396</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G30" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C31" s="1"/>
       <c r="E31">
-        <v>440</v>
+        <v>884</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G31" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1042,85 +1045,85 @@
       </c>
       <c r="C32" s="1"/>
       <c r="E32">
-        <v>536</v>
+        <v>4338</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G32" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.31527777777777777</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C33" s="1"/>
       <c r="E33">
-        <v>444</v>
+        <v>310</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G33" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C34" s="1"/>
       <c r="E34">
-        <v>562</v>
+        <v>440</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G34" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C35" s="1"/>
       <c r="E35">
-        <v>368</v>
+        <v>444</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G35" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C36" s="1"/>
       <c r="E36">
-        <v>383</v>
+        <v>562</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G36" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C37" s="1"/>
       <c r="E37">
-        <v>522</v>
+        <v>368</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G37" s="1">
         <v>0.33333333333333331</v>
@@ -1128,301 +1131,301 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0.33680555555555558</v>
-      </c>
-      <c r="D38">
-        <v>581</v>
-      </c>
-      <c r="G38" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="E38">
+        <v>383</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C39" s="1"/>
       <c r="E39">
-        <v>660</v>
+        <v>522</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G39" s="1">
-        <v>0.33680555555555558</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="E40">
-        <v>454</v>
-      </c>
-      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="1">
-        <v>0.34027777777777779</v>
-      </c>
+      <c r="C40" s="1">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="D40">
+        <v>581</v>
+      </c>
+      <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C41" s="1"/>
       <c r="E41">
-        <v>554</v>
+        <v>660</v>
       </c>
       <c r="F41" t="s">
         <v>15</v>
       </c>
       <c r="G41" s="1">
-        <v>0.34027777777777779</v>
+        <v>0.33680555555555558</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C42" s="1"/>
       <c r="E42">
-        <v>324</v>
+        <v>554</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="G42" s="1">
-        <v>0.34375</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0.34722222222222221</v>
-      </c>
-      <c r="D43">
-        <v>4053</v>
-      </c>
-      <c r="G43" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="E43">
+        <v>324</v>
+      </c>
+      <c r="F43" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.34375</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C44" s="1"/>
       <c r="E44">
-        <v>884</v>
+        <v>430</v>
       </c>
       <c r="F44" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G44" s="1">
-        <v>0.3576388888888889</v>
+        <v>0.37847222222222221</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="D45">
-        <v>916</v>
-      </c>
-      <c r="G45" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="E45">
+        <v>582</v>
+      </c>
+      <c r="F45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.39930555555555558</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C46" s="1">
-        <v>0.37847222222222221</v>
+        <v>0.41319444444444442</v>
       </c>
       <c r="D46">
-        <v>559</v>
+        <v>659</v>
       </c>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C47" s="1"/>
       <c r="E47">
-        <v>430</v>
+        <v>392</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G47" s="1">
-        <v>0.37847222222222221</v>
+        <v>0.41319444444444442</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C48" s="1"/>
       <c r="E48">
-        <v>582</v>
+        <v>613</v>
       </c>
       <c r="F48" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G48" s="1">
-        <v>0.39930555555555558</v>
+        <v>0.4236111111111111</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C49" s="1">
-        <v>0.40972222222222221</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="D49">
-        <v>4053</v>
+        <v>8111</v>
       </c>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C50" s="1">
-        <v>0.41319444444444442</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="D50">
-        <v>659</v>
+        <v>320</v>
       </c>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="E51">
-        <v>392</v>
-      </c>
-      <c r="F51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" t="s">
         <v>17</v>
       </c>
-      <c r="G51" s="1">
-        <v>0.41319444444444442</v>
-      </c>
+      <c r="C51" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="1"/>
-      <c r="E52">
-        <v>611</v>
-      </c>
-      <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" s="1">
-        <v>0.4236111111111111</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="D52">
+        <v>384</v>
+      </c>
+      <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C53" s="1">
-        <v>0.42708333333333331</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="D53">
-        <v>537</v>
+        <v>8110</v>
       </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>26</v>
-      </c>
-      <c r="B54" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="D54">
-        <v>916</v>
-      </c>
-      <c r="G54" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="E54">
+        <v>385</v>
+      </c>
+      <c r="F54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="1">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="D55">
-        <v>455</v>
-      </c>
-      <c r="G55" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="E55">
+        <v>424</v>
+      </c>
+      <c r="F55" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C56" s="1">
-        <v>0.4513888888888889</v>
+        <v>0.52152777777777781</v>
       </c>
       <c r="D56">
-        <v>4053</v>
+        <v>339</v>
       </c>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C57" s="1">
-        <v>0.46180555555555558</v>
+        <v>0.52986111111111112</v>
       </c>
       <c r="D57">
-        <v>70</v>
+        <v>816</v>
       </c>
       <c r="G57" s="1"/>
     </row>
@@ -1431,404 +1434,404 @@
         <v>42</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C58" s="1">
-        <v>0.48958333333333331</v>
+        <v>0.5395833333333333</v>
       </c>
       <c r="D58">
-        <v>771</v>
+        <v>8138</v>
       </c>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="1"/>
-      <c r="E59">
-        <v>424</v>
-      </c>
-      <c r="F59" t="s">
-        <v>30</v>
-      </c>
-      <c r="G59" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="D59">
+        <v>1910</v>
+      </c>
+      <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="E60">
-        <v>71</v>
-      </c>
-      <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.55486111111111114</v>
+      </c>
+      <c r="D60">
+        <v>1441</v>
+      </c>
+      <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="E61">
-        <v>319</v>
-      </c>
-      <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" s="1">
-        <v>0.51041666666666663</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="D61">
+        <v>760</v>
+      </c>
+      <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>41</v>
-      </c>
-      <c r="B62" t="s">
-        <v>43</v>
-      </c>
-      <c r="C62" s="1">
-        <v>0.51388888888888884</v>
-      </c>
-      <c r="D62">
-        <v>4053</v>
-      </c>
-      <c r="G62" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="E62">
+        <v>348</v>
+      </c>
+      <c r="F62" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0.56319444444444444</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>22</v>
-      </c>
-      <c r="B63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C63" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="D63">
-        <v>420</v>
-      </c>
-      <c r="G63" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="E63">
+        <v>871</v>
+      </c>
+      <c r="F63" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0.57291666666666663</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C64" s="1">
-        <v>0.52152777777777781</v>
+        <v>0.57986111111111105</v>
       </c>
       <c r="D64">
-        <v>339</v>
+        <v>628</v>
       </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C65" s="1">
-        <v>0.52986111111111112</v>
+        <v>0.58124999999999993</v>
       </c>
       <c r="D65">
-        <v>816</v>
+        <v>8138</v>
       </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C66" s="1">
-        <v>0.54861111111111105</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="D66">
-        <v>1910</v>
+        <v>1035</v>
       </c>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>42</v>
-      </c>
-      <c r="B67" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67" s="1">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="D67">
-        <v>770</v>
-      </c>
-      <c r="G67" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="E67">
+        <v>1978</v>
+      </c>
+      <c r="F67" t="s">
+        <v>28</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0.60763888888888895</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>12</v>
-      </c>
-      <c r="B68" t="s">
         <v>30</v>
       </c>
-      <c r="C68" s="1">
-        <v>0.55486111111111114</v>
-      </c>
-      <c r="D68">
-        <v>1441</v>
-      </c>
-      <c r="G68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="E68">
+        <v>761</v>
+      </c>
+      <c r="F68" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.61111111111111105</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>22</v>
-      </c>
-      <c r="C69" s="1"/>
-      <c r="E69">
-        <v>421</v>
-      </c>
-      <c r="F69" t="s">
         <v>23</v>
       </c>
-      <c r="G69" s="1">
-        <v>0.5625</v>
-      </c>
+      <c r="B69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.61736111111111114</v>
+      </c>
+      <c r="D69">
+        <v>3151</v>
+      </c>
+      <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C70" s="1"/>
       <c r="E70">
-        <v>348</v>
+        <v>1468</v>
       </c>
       <c r="F70" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G70" s="1">
-        <v>0.56319444444444444</v>
+        <v>0.61805555555555558</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>26</v>
-      </c>
-      <c r="C71" s="1"/>
-      <c r="E71">
-        <v>871</v>
-      </c>
-      <c r="F71" t="s">
-        <v>27</v>
-      </c>
-      <c r="G71" s="1">
-        <v>0.57291666666666663</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B71" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="D71">
+        <v>4319</v>
+      </c>
+      <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>31</v>
-      </c>
-      <c r="B72" t="s">
         <v>32</v>
       </c>
-      <c r="C72" s="1">
-        <v>0.57986111111111105</v>
-      </c>
-      <c r="D72">
-        <v>628</v>
-      </c>
-      <c r="G72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="E72">
+        <v>629</v>
+      </c>
+      <c r="F72" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.63263888888888886</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>24</v>
-      </c>
-      <c r="B73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="E73">
+        <v>1104</v>
+      </c>
+      <c r="F73" t="s">
         <v>33</v>
       </c>
-      <c r="C73" s="1">
-        <v>0.59791666666666665</v>
-      </c>
-      <c r="D73">
-        <v>1035</v>
-      </c>
-      <c r="G73" s="1"/>
+      <c r="G73" s="1">
+        <v>0.63958333333333328</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>28</v>
-      </c>
-      <c r="C74" s="1"/>
-      <c r="E74">
-        <v>1978</v>
-      </c>
-      <c r="F74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" t="s">
         <v>29</v>
       </c>
-      <c r="G74" s="1">
-        <v>0.60763888888888895</v>
-      </c>
+      <c r="C74" s="1">
+        <v>0.64166666666666672</v>
+      </c>
+      <c r="D74">
+        <v>1290</v>
+      </c>
+      <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C75" s="1">
-        <v>0.61736111111111114</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="D75">
-        <v>3151</v>
+        <v>382</v>
       </c>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C76" s="1"/>
       <c r="E76">
-        <v>1468</v>
+        <v>317</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G76" s="1">
-        <v>0.61805555555555558</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>34</v>
-      </c>
-      <c r="B77" t="s">
-        <v>35</v>
-      </c>
-      <c r="C77" s="1">
-        <v>0.61944444444444446</v>
-      </c>
-      <c r="D77">
-        <v>1031</v>
-      </c>
-      <c r="G77" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="E77">
+        <v>356</v>
+      </c>
+      <c r="F77" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.65902777777777777</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C78" s="1">
-        <v>0.62222222222222223</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D78">
-        <v>4319</v>
+        <v>367</v>
       </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>31</v>
-      </c>
-      <c r="C79" s="1"/>
-      <c r="E79">
-        <v>629</v>
-      </c>
-      <c r="F79" t="s">
-        <v>32</v>
-      </c>
-      <c r="G79" s="1">
-        <v>0.63263888888888886</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B79" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="D79">
+        <v>441</v>
+      </c>
+      <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C80" s="1"/>
       <c r="E80">
-        <v>1104</v>
+        <v>4322</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G80" s="1">
-        <v>0.63958333333333328</v>
+        <v>0.68611111111111112</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C81" s="1">
-        <v>0.64166666666666672</v>
+        <v>0.6875</v>
       </c>
       <c r="D81">
-        <v>1290</v>
+        <v>311</v>
       </c>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C82" s="1">
-        <v>0.65277777777777779</v>
+        <v>0.6875</v>
       </c>
       <c r="D82">
-        <v>382</v>
+        <v>610</v>
       </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" s="1"/>
-      <c r="E83">
-        <v>317</v>
-      </c>
-      <c r="F83" t="s">
-        <v>27</v>
-      </c>
-      <c r="G83" s="1">
-        <v>0.65625</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="D83">
+        <v>555</v>
+      </c>
+      <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C84" s="1"/>
       <c r="E84">
-        <v>356</v>
+        <v>1130</v>
       </c>
       <c r="F84" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G84" s="1">
-        <v>0.65902777777777777</v>
+        <v>0.69444444444444453</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -1836,60 +1839,60 @@
         <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C85" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.69722222222222219</v>
       </c>
       <c r="D85">
-        <v>367</v>
+        <v>4327</v>
       </c>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>34</v>
-      </c>
-      <c r="C86" s="1"/>
-      <c r="E86">
-        <v>1032</v>
-      </c>
-      <c r="F86" t="s">
-        <v>35</v>
-      </c>
-      <c r="G86" s="1">
-        <v>0.66805555555555562</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B86" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D86">
+        <v>322</v>
+      </c>
+      <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>7</v>
-      </c>
-      <c r="B87" t="s">
-        <v>17</v>
-      </c>
-      <c r="C87" s="1">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="D87">
-        <v>397</v>
-      </c>
-      <c r="G87" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="E87">
+        <v>520</v>
+      </c>
+      <c r="F87" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" t="s">
-        <v>33</v>
-      </c>
-      <c r="C88" s="1">
-        <v>0.68055555555555558</v>
-      </c>
-      <c r="D88">
-        <v>441</v>
-      </c>
-      <c r="G88" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="E88">
+        <v>560</v>
+      </c>
+      <c r="F88" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -1897,133 +1900,133 @@
       </c>
       <c r="C89" s="1"/>
       <c r="E89">
-        <v>4322</v>
+        <v>588</v>
       </c>
       <c r="F89" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="G89" s="1">
-        <v>0.68611111111111112</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>7</v>
-      </c>
-      <c r="B90" t="s">
-        <v>25</v>
-      </c>
-      <c r="C90" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="D90">
-        <v>311</v>
-      </c>
-      <c r="G90" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="E90">
+        <v>617</v>
+      </c>
+      <c r="F90" t="s">
+        <v>21</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C91" s="1">
-        <v>0.6875</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="D91">
-        <v>318</v>
+        <v>4351</v>
       </c>
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>7</v>
-      </c>
-      <c r="B92" t="s">
-        <v>15</v>
-      </c>
-      <c r="C92" s="1">
-        <v>0.69097222222222221</v>
-      </c>
-      <c r="D92">
-        <v>555</v>
-      </c>
-      <c r="G92" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="E92">
+        <v>448</v>
+      </c>
+      <c r="F92" t="s">
+        <v>37</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0.74305555555555558</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C93" s="1"/>
       <c r="E93">
-        <v>1130</v>
+        <v>534</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G93" s="1">
-        <v>0.69444444444444453</v>
+        <v>0.74305555555555558</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>9</v>
-      </c>
-      <c r="B94" t="s">
-        <v>10</v>
-      </c>
-      <c r="C94" s="1">
-        <v>0.69722222222222219</v>
-      </c>
-      <c r="D94">
-        <v>4327</v>
-      </c>
-      <c r="G94" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="E94">
+        <v>4308</v>
+      </c>
+      <c r="F94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0.74583333333333335</v>
+      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C95" s="1">
-        <v>0.70138888888888884</v>
+        <v>0.74652777777777779</v>
       </c>
       <c r="D95">
-        <v>322</v>
+        <v>612</v>
       </c>
       <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C96" s="1"/>
       <c r="E96">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G96" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.76041666666666663</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C97" s="1"/>
       <c r="E97">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G97" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -2032,523 +2035,523 @@
       </c>
       <c r="C98" s="1"/>
       <c r="E98">
-        <v>617</v>
+        <v>4312</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G98" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.77638888888888891</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B99" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C99" s="1">
-        <v>0.73333333333333328</v>
+        <v>0.78125</v>
       </c>
       <c r="D99">
-        <v>4351</v>
+        <v>930</v>
       </c>
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" s="1"/>
-      <c r="E100">
-        <v>448</v>
-      </c>
-      <c r="F100" t="s">
-        <v>8</v>
-      </c>
-      <c r="G100" s="1">
-        <v>0.74305555555555558</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="D100">
+        <v>431</v>
+      </c>
+      <c r="G100" s="1"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" s="1"/>
-      <c r="E101">
-        <v>534</v>
-      </c>
-      <c r="F101" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101" s="1">
-        <v>0.74305555555555558</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="D101">
+        <v>661</v>
+      </c>
+      <c r="G101" s="1"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102" s="1"/>
-      <c r="E102">
-        <v>4308</v>
-      </c>
-      <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" s="1">
-        <v>0.74583333333333335</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B102" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="D102">
+        <v>222</v>
+      </c>
+      <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C103" s="1"/>
       <c r="E103">
-        <v>528</v>
+        <v>570</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G103" s="1">
-        <v>0.76041666666666663</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" s="1"/>
-      <c r="E104">
-        <v>566</v>
-      </c>
-      <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" s="1">
-        <v>0.77083333333333337</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B104" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="D104">
+        <v>425</v>
+      </c>
+      <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105" s="1"/>
-      <c r="E105">
-        <v>4312</v>
-      </c>
-      <c r="F105" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="1">
-        <v>0.77638888888888891</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D105">
+        <v>932</v>
+      </c>
+      <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C106" s="1">
-        <v>0.79513888888888884</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="D106">
-        <v>431</v>
+        <v>523</v>
       </c>
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C107" s="1">
-        <v>0.79513888888888884</v>
+        <v>0.82986111111111116</v>
       </c>
       <c r="D107">
-        <v>661</v>
+        <v>583</v>
       </c>
       <c r="G107" s="1"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C108" s="1">
-        <v>0.8125</v>
+        <v>0.84375</v>
       </c>
       <c r="D108">
-        <v>222</v>
+        <v>325</v>
       </c>
       <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" s="1"/>
-      <c r="E109">
-        <v>570</v>
-      </c>
-      <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" s="1">
-        <v>0.8125</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B109" t="s">
+        <v>36</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="D109">
+        <v>445</v>
+      </c>
+      <c r="G109" s="1"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>7</v>
-      </c>
-      <c r="B110" t="s">
-        <v>30</v>
-      </c>
-      <c r="C110" s="1">
-        <v>0.81944444444444442</v>
-      </c>
-      <c r="D110">
-        <v>425</v>
-      </c>
-      <c r="G110" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="E110">
+        <v>590</v>
+      </c>
+      <c r="F110" t="s">
+        <v>8</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0.85069444444444442</v>
+      </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C111" s="1">
-        <v>0.82638888888888884</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D111">
-        <v>523</v>
+        <v>393</v>
       </c>
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C112" s="1">
-        <v>0.82986111111111116</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D112">
-        <v>583</v>
+        <v>449</v>
       </c>
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B113" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C113" s="1">
-        <v>0.84375</v>
+        <v>0.86041666666666661</v>
       </c>
       <c r="D113">
-        <v>325</v>
+        <v>881</v>
       </c>
       <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C114" s="1">
-        <v>0.84375</v>
+        <v>0.86805555555555558</v>
       </c>
       <c r="D114">
-        <v>445</v>
+        <v>563</v>
       </c>
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115" s="1"/>
-      <c r="E115">
-        <v>590</v>
-      </c>
-      <c r="F115" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="1">
-        <v>0.85069444444444442</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B115" t="s">
+        <v>26</v>
+      </c>
+      <c r="C115" s="1">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="D115">
+        <v>316</v>
+      </c>
+      <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C116" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="D116">
-        <v>393</v>
+        <v>535</v>
       </c>
       <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>7</v>
-      </c>
-      <c r="B117" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D117">
-        <v>449</v>
-      </c>
-      <c r="G117" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="E117">
+        <v>222</v>
+      </c>
+      <c r="F117" t="s">
+        <v>45</v>
+      </c>
+      <c r="G117" s="1">
+        <v>0.875</v>
+      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C118" s="1">
-        <v>0.86041666666666661</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D118">
-        <v>881</v>
+        <v>589</v>
       </c>
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C119" s="1">
-        <v>0.86805555555555558</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D119">
-        <v>563</v>
+        <v>616</v>
       </c>
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B120" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C120" s="1">
-        <v>0.87152777777777779</v>
+        <v>0.8881944444444444</v>
       </c>
       <c r="D120">
-        <v>316</v>
+        <v>1461</v>
       </c>
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>7</v>
-      </c>
-      <c r="B121" t="s">
-        <v>21</v>
-      </c>
-      <c r="C121" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="D121">
-        <v>535</v>
-      </c>
-      <c r="G121" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C121" s="1"/>
+      <c r="E121">
+        <v>365</v>
+      </c>
+      <c r="F121" t="s">
+        <v>18</v>
+      </c>
+      <c r="G121" s="1">
+        <v>0.92013888888888884</v>
+      </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C122" s="1"/>
       <c r="E122">
-        <v>222</v>
+        <v>580</v>
       </c>
       <c r="F122" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="G122" s="1">
-        <v>0.875</v>
+        <v>0.92013888888888884</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>7</v>
-      </c>
-      <c r="B123" t="s">
-        <v>15</v>
-      </c>
-      <c r="C123" s="1">
-        <v>0.87847222222222221</v>
-      </c>
-      <c r="D123">
-        <v>557</v>
-      </c>
-      <c r="G123" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C123" s="1"/>
+      <c r="E123">
+        <v>429</v>
+      </c>
+      <c r="F123" t="s">
+        <v>20</v>
+      </c>
+      <c r="G123" s="1">
+        <v>0.92361111111111116</v>
+      </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C124" s="1">
-        <v>0.87847222222222221</v>
+        <v>0.92986111111111114</v>
       </c>
       <c r="D124">
-        <v>616</v>
+        <v>4339</v>
       </c>
       <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>12</v>
-      </c>
-      <c r="B125" t="s">
-        <v>30</v>
-      </c>
-      <c r="C125" s="1">
-        <v>0.8881944444444444</v>
-      </c>
-      <c r="D125">
-        <v>1461</v>
-      </c>
-      <c r="G125" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="E125">
+        <v>578</v>
+      </c>
+      <c r="F125" t="s">
+        <v>17</v>
+      </c>
+      <c r="G125" s="1">
+        <v>0.93055555555555558</v>
+      </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C126" s="1"/>
       <c r="E126">
-        <v>365</v>
+        <v>627</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G126" s="1">
-        <v>0.92013888888888884</v>
+        <v>0.93402777777777779</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C127" s="1"/>
       <c r="E127">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="F127" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="1">
-        <v>0.92013888888888884</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C128" s="1"/>
       <c r="E128">
-        <v>429</v>
+        <v>315</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G128" s="1">
-        <v>0.92361111111111116</v>
+        <v>0.94097222222222221</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>9</v>
       </c>
-      <c r="B129" t="s">
-        <v>25</v>
-      </c>
-      <c r="C129" s="1">
-        <v>0.92986111111111114</v>
-      </c>
-      <c r="D129">
-        <v>4339</v>
-      </c>
-      <c r="G129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="E129">
+        <v>658</v>
+      </c>
+      <c r="F129" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" s="1">
+        <v>0.94444444444444442</v>
+      </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C130" s="1"/>
       <c r="E130">
-        <v>578</v>
+        <v>452</v>
       </c>
       <c r="F130" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G130" s="1">
-        <v>0.93055555555555558</v>
+        <v>0.95486111111111116</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C131" s="1"/>
       <c r="E131">
-        <v>627</v>
+        <v>457</v>
       </c>
       <c r="F131" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G131" s="1">
-        <v>0.93402777777777779</v>
+        <v>0.95486111111111116</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C132" s="1"/>
       <c r="E132">
-        <v>574</v>
+        <v>432</v>
       </c>
       <c r="F132" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G132" s="1">
-        <v>0.9375</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -2557,104 +2560,29 @@
       </c>
       <c r="C133" s="1"/>
       <c r="E133">
-        <v>315</v>
+        <v>4336</v>
       </c>
       <c r="F133" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="G133" s="1">
-        <v>0.94097222222222221</v>
+        <v>0.97152777777777777</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>7</v>
-      </c>
-      <c r="C134" s="1"/>
-      <c r="E134">
-        <v>658</v>
-      </c>
-      <c r="F134" t="s">
-        <v>14</v>
-      </c>
-      <c r="G134" s="1">
-        <v>0.94444444444444442</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>12</v>
-      </c>
-      <c r="B135" t="s">
-        <v>39</v>
-      </c>
-      <c r="C135" s="1">
-        <v>0.94930555555555562</v>
-      </c>
-      <c r="D135">
-        <v>1425</v>
-      </c>
-      <c r="G135" s="1"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>7</v>
-      </c>
-      <c r="C136" s="1"/>
-      <c r="E136">
-        <v>452</v>
-      </c>
-      <c r="F136" t="s">
-        <v>8</v>
-      </c>
-      <c r="G136" s="1">
-        <v>0.95486111111111116</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>7</v>
-      </c>
-      <c r="C137" s="1"/>
-      <c r="E137">
-        <v>432</v>
-      </c>
-      <c r="F137" t="s">
-        <v>32</v>
-      </c>
-      <c r="G137" s="1">
-        <v>0.95833333333333337</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+        <v>25</v>
+      </c>
+      <c r="B134" t="s">
         <v>26</v>
       </c>
-      <c r="B138" t="s">
-        <v>27</v>
-      </c>
-      <c r="C138" s="1">
+      <c r="C134" s="1">
         <v>0.98402777777777783</v>
       </c>
-      <c r="D138">
+      <c r="D134">
         <v>878</v>
       </c>
-      <c r="G138" s="1"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>12</v>
-      </c>
-      <c r="C139" s="1"/>
-      <c r="E139">
-        <v>339</v>
-      </c>
-      <c r="F139" t="s">
-        <v>39</v>
-      </c>
-      <c r="G139" s="1">
-        <v>0.99583333333333324</v>
-      </c>
+      <c r="G134" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/operaciones.xlsx
+++ b/public/operaciones.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulm\Desktop\Itinerarios_2026-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDD5DD9A-22CA-4F10-BA23-CA2C6EA92D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F4B0155-0076-4EFE-8278-C31764F54787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{81F270B5-D76A-49E5-9F62-F81E3E294F71}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A797D56A-A303-43A1-B33E-C6EFB15A9313}"/>
   </bookViews>
   <sheets>
-    <sheet name="09-02" sheetId="1" r:id="rId1"/>
+    <sheet name="10-02" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="47">
   <si>
     <t>AEROLINEA</t>
   </si>
@@ -59,13 +59,19 @@
     <t>ETD</t>
   </si>
   <si>
+    <t>AVA</t>
+  </si>
+  <si>
+    <t>MHPR</t>
+  </si>
+  <si>
     <t>VOS</t>
   </si>
   <si>
     <t>KIAD</t>
   </si>
   <si>
-    <t>AVA</t>
+    <t>KONT</t>
   </si>
   <si>
     <t>MHLM</t>
@@ -107,6 +113,9 @@
     <t>KSFO</t>
   </si>
   <si>
+    <t>KEWR</t>
+  </si>
+  <si>
     <t>AAL</t>
   </si>
   <si>
@@ -128,55 +137,46 @@
     <t>KIAH</t>
   </si>
   <si>
-    <t>TSC</t>
-  </si>
-  <si>
-    <t>CYUL</t>
-  </si>
-  <si>
     <t>AMX</t>
   </si>
   <si>
     <t>KDFW</t>
   </si>
   <si>
+    <t>NKS</t>
+  </si>
+  <si>
+    <t>KFLL</t>
+  </si>
+  <si>
+    <t>SKRG</t>
+  </si>
+  <si>
+    <t>MMUN</t>
+  </si>
+  <si>
     <t>IBE</t>
   </si>
   <si>
     <t>CYYZ</t>
   </si>
   <si>
-    <t>KBOS</t>
-  </si>
-  <si>
-    <t>MHPR</t>
-  </si>
-  <si>
-    <t>TPA</t>
+    <t>DHL</t>
   </si>
   <si>
     <t>AJT</t>
   </si>
   <si>
-    <t>MKJP</t>
+    <t>FDX</t>
   </si>
   <si>
     <t>ARM</t>
   </si>
   <si>
-    <t>FDX</t>
-  </si>
-  <si>
-    <t>DHL</t>
-  </si>
-  <si>
     <t>MHTG</t>
   </si>
   <si>
     <t>LEMD</t>
-  </si>
-  <si>
-    <t>KEWR</t>
   </si>
 </sst>
 </file>
@@ -551,8 +551,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44039981-D9AB-4FF3-9D9A-CAAA02A8A11B}">
-  <dimension ref="A1:G134"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E53F21-55EB-4657-A225-3F726B40363F}">
+  <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -591,14 +591,14 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1"/>
       <c r="E2">
         <v>1670</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1">
         <v>0.125</v>
@@ -606,48 +606,48 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1">
-        <v>0.19583333333333333</v>
+        <v>0.18402777777777779</v>
       </c>
       <c r="D3">
-        <v>4156</v>
+        <v>222</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="E4">
-        <v>879</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.20972222222222223</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D4">
+        <v>453</v>
+      </c>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.21875</v>
-      </c>
-      <c r="D5">
-        <v>4313</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="E5">
+        <v>879</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.20972222222222223</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -657,10 +657,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>0.22222222222222221</v>
+        <v>0.21875</v>
       </c>
       <c r="D6">
-        <v>575</v>
+        <v>4313</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -668,59 +668,59 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="E7">
-        <v>4350</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.22916666666666666</v>
-      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D7">
+        <v>531</v>
+      </c>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
-        <v>0.23472222222222222</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="D8">
-        <v>4323</v>
+        <v>575</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1">
-        <v>0.23541666666666666</v>
+        <v>0.22569444444444445</v>
       </c>
       <c r="D9">
-        <v>4309</v>
+        <v>224</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
       <c r="C10" s="1">
-        <v>0.23958333333333334</v>
+        <v>0.23472222222222222</v>
       </c>
       <c r="D10">
-        <v>1266</v>
+        <v>4323</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -732,115 +732,115 @@
         <v>14</v>
       </c>
       <c r="C11" s="1">
-        <v>0.24652777777777779</v>
+        <v>0.23541666666666666</v>
       </c>
       <c r="D11">
-        <v>456</v>
+        <v>4309</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1">
-        <v>0.24652777777777779</v>
+        <v>0.23958333333333334</v>
       </c>
       <c r="D12">
-        <v>567</v>
+        <v>1266</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="1">
-        <v>0.25347222222222221</v>
+        <v>0.24652777777777779</v>
       </c>
       <c r="D13">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="1">
-        <v>0.25694444444444442</v>
+        <v>0.24652777777777779</v>
       </c>
       <c r="D14">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1">
-        <v>0.25833333333333336</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="D15">
-        <v>4156</v>
+        <v>433</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="D16">
-        <v>366</v>
+        <v>579</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1">
         <v>0.26041666666666669</v>
       </c>
       <c r="D17">
-        <v>529</v>
+        <v>366</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1">
-        <v>0.2638888888888889</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D18">
-        <v>314</v>
+        <v>529</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -848,89 +848,89 @@
       <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="E19">
-        <v>4326</v>
-      </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1">
         <v>0.2638888888888889</v>
       </c>
+      <c r="D19">
+        <v>314</v>
+      </c>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.2673611111111111</v>
-      </c>
-      <c r="D20">
-        <v>428</v>
-      </c>
-      <c r="G20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="E20">
+        <v>4326</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.2638888888888889</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1">
         <v>0.2673611111111111</v>
       </c>
       <c r="D21">
-        <v>626</v>
+        <v>428</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D22">
-        <v>561</v>
+        <v>650</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1">
         <v>0.27083333333333331</v>
       </c>
       <c r="D23">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1">
         <v>0.27083333333333331</v>
       </c>
       <c r="D24">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -938,27 +938,27 @@
       <c r="A25" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="E25">
-        <v>4318</v>
-      </c>
-      <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.28611111111111109</v>
-      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D25">
+        <v>591</v>
+      </c>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1"/>
       <c r="E26">
         <v>1467</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G26" s="1">
         <v>0.28819444444444448</v>
@@ -968,27 +968,27 @@
       <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="C27" s="1"/>
+      <c r="E27">
+        <v>4330</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="1">
         <v>0.29166666666666669</v>
       </c>
-      <c r="D27">
-        <v>521</v>
-      </c>
-      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1"/>
       <c r="E28">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G28" s="1">
         <v>0.3125</v>
@@ -996,14 +996,14 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1"/>
       <c r="E29">
-        <v>323</v>
+        <v>396</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G29" s="1">
         <v>0.3125</v>
@@ -1011,32 +1011,32 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C30" s="1"/>
       <c r="E30">
-        <v>396</v>
+        <v>310</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G30" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C31" s="1"/>
       <c r="E31">
-        <v>884</v>
+        <v>440</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G31" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1045,190 +1045,190 @@
       </c>
       <c r="C32" s="1"/>
       <c r="E32">
-        <v>4338</v>
+        <v>536</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G32" s="1">
-        <v>0.31527777777777777</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C33" s="1"/>
       <c r="E33">
-        <v>310</v>
+        <v>562</v>
       </c>
       <c r="F33" t="s">
         <v>24</v>
       </c>
       <c r="G33" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C34" s="1"/>
       <c r="E34">
-        <v>440</v>
+        <v>368</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G34" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C35" s="1"/>
       <c r="E35">
-        <v>444</v>
+        <v>383</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G35" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C36" s="1"/>
       <c r="E36">
-        <v>562</v>
+        <v>522</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G36" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="E37">
-        <v>368</v>
-      </c>
-      <c r="F37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0.33333333333333331</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="D37">
+        <v>581</v>
+      </c>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C38" s="1"/>
       <c r="E38">
-        <v>383</v>
+        <v>660</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G38" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.33680555555555558</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C39" s="1"/>
       <c r="E39">
-        <v>522</v>
+        <v>454</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G39" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0.33680555555555558</v>
-      </c>
-      <c r="D40">
-        <v>581</v>
-      </c>
-      <c r="G40" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="E40">
+        <v>572</v>
+      </c>
+      <c r="F40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.34027777777777779</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C41" s="1"/>
       <c r="E41">
-        <v>660</v>
+        <v>324</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G41" s="1">
-        <v>0.33680555555555558</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C42" s="1"/>
       <c r="E42">
-        <v>554</v>
+        <v>884</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G42" s="1">
-        <v>0.34027777777777779</v>
+        <v>0.3576388888888889</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C43" s="1"/>
       <c r="E43">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G43" s="1">
-        <v>0.34375</v>
+        <v>0.37847222222222221</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C44" s="1"/>
       <c r="E44">
         <v>430</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G44" s="1">
         <v>0.37847222222222221</v>
@@ -1236,14 +1236,14 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C45" s="1"/>
       <c r="E45">
         <v>582</v>
       </c>
       <c r="F45" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G45" s="1">
         <v>0.39930555555555558</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C46" s="1">
         <v>0.41319444444444442</v>
@@ -1266,14 +1266,14 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C47" s="1"/>
       <c r="E47">
         <v>392</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G47" s="1">
         <v>0.41319444444444442</v>
@@ -1281,14 +1281,14 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C48" s="1"/>
       <c r="E48">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G48" s="1">
         <v>0.4236111111111111</v>
@@ -1296,466 +1296,466 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="1">
-        <v>0.43055555555555558</v>
-      </c>
-      <c r="D49">
-        <v>8111</v>
-      </c>
-      <c r="G49" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="E49">
+        <v>4320</v>
+      </c>
+      <c r="F49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.4236111111111111</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C50" s="1">
-        <v>0.4513888888888889</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D50">
-        <v>320</v>
+        <v>537</v>
       </c>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C51" s="1">
-        <v>0.45833333333333331</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>455</v>
       </c>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C52" s="1">
-        <v>0.46180555555555558</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="D52">
-        <v>384</v>
+        <v>573</v>
       </c>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C53" s="1">
-        <v>0.49305555555555558</v>
+        <v>0.45347222222222222</v>
       </c>
       <c r="D53">
-        <v>8110</v>
+        <v>4337</v>
       </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="E54">
-        <v>385</v>
-      </c>
-      <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="D54">
+        <v>384</v>
+      </c>
+      <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="E55">
-        <v>424</v>
-      </c>
-      <c r="F55" t="s">
-        <v>29</v>
-      </c>
-      <c r="G55" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="D55">
+        <v>721</v>
+      </c>
+      <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>23</v>
-      </c>
-      <c r="B56" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0.52152777777777781</v>
-      </c>
-      <c r="D56">
-        <v>339</v>
-      </c>
-      <c r="G56" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="E56">
+        <v>584</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.49305555555555558</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>25</v>
-      </c>
-      <c r="B57" t="s">
-        <v>26</v>
-      </c>
-      <c r="C57" s="1">
-        <v>0.52986111111111112</v>
-      </c>
-      <c r="D57">
-        <v>816</v>
-      </c>
-      <c r="G57" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="E57">
+        <v>650</v>
+      </c>
+      <c r="F57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.49305555555555558</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>42</v>
-      </c>
-      <c r="B58" t="s">
-        <v>24</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0.5395833333333333</v>
-      </c>
-      <c r="D58">
-        <v>8138</v>
-      </c>
-      <c r="G58" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="E58">
+        <v>385</v>
+      </c>
+      <c r="F58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" t="s">
-        <v>28</v>
-      </c>
-      <c r="C59" s="1">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="D59">
-        <v>1910</v>
-      </c>
-      <c r="G59" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="E59">
+        <v>442</v>
+      </c>
+      <c r="F59" t="s">
+        <v>34</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0.55486111111111114</v>
-      </c>
-      <c r="D60">
-        <v>1441</v>
-      </c>
-      <c r="G60" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="E60">
+        <v>319</v>
+      </c>
+      <c r="F60" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.51041666666666663</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C61" s="1">
-        <v>0.5625</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="D61">
-        <v>760</v>
+        <v>4</v>
       </c>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>23</v>
-      </c>
-      <c r="C62" s="1"/>
-      <c r="E62">
-        <v>348</v>
-      </c>
-      <c r="F62" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62" s="1">
-        <v>0.56319444444444444</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="D62">
+        <v>339</v>
+      </c>
+      <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>25</v>
-      </c>
-      <c r="C63" s="1"/>
-      <c r="E63">
-        <v>871</v>
-      </c>
-      <c r="F63" t="s">
-        <v>26</v>
-      </c>
-      <c r="G63" s="1">
-        <v>0.57291666666666663</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="D63">
+        <v>720</v>
+      </c>
+      <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C64" s="1">
-        <v>0.57986111111111105</v>
+        <v>0.52986111111111112</v>
       </c>
       <c r="D64">
-        <v>628</v>
+        <v>816</v>
       </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C65" s="1">
-        <v>0.58124999999999993</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="D65">
-        <v>8138</v>
+        <v>1910</v>
       </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C66" s="1">
-        <v>0.59791666666666665</v>
+        <v>0.55486111111111114</v>
       </c>
       <c r="D66">
-        <v>1035</v>
+        <v>1441</v>
       </c>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" t="s">
         <v>27</v>
       </c>
-      <c r="C67" s="1"/>
-      <c r="E67">
-        <v>1978</v>
-      </c>
-      <c r="F67" t="s">
-        <v>28</v>
-      </c>
-      <c r="G67" s="1">
-        <v>0.60763888888888895</v>
-      </c>
+      <c r="C67" s="1">
+        <v>0.56041666666666667</v>
+      </c>
+      <c r="D67">
+        <v>8139</v>
+      </c>
+      <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C68" s="1"/>
       <c r="E68">
-        <v>761</v>
+        <v>348</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G68" s="1">
-        <v>0.61111111111111105</v>
+        <v>0.56319444444444444</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" s="1">
-        <v>0.61736111111111114</v>
-      </c>
-      <c r="D69">
-        <v>3151</v>
-      </c>
-      <c r="G69" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="E69">
+        <v>871</v>
+      </c>
+      <c r="F69" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.57291666666666663</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>13</v>
-      </c>
-      <c r="C70" s="1"/>
-      <c r="E70">
-        <v>1468</v>
-      </c>
-      <c r="F70" t="s">
-        <v>29</v>
-      </c>
-      <c r="G70" s="1">
-        <v>0.61805555555555558</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="D70">
+        <v>628</v>
+      </c>
+      <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C71" s="1">
-        <v>0.62222222222222223</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="D71">
-        <v>4319</v>
+        <v>1035</v>
       </c>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C72" s="1"/>
       <c r="E72">
-        <v>629</v>
+        <v>1978</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G72" s="1">
-        <v>0.63263888888888886</v>
+        <v>0.60763888888888895</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C73" s="1"/>
       <c r="E73">
-        <v>1104</v>
+        <v>1468</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G73" s="1">
-        <v>0.63958333333333328</v>
+        <v>0.61805555555555558</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B74" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C74" s="1">
-        <v>0.64166666666666672</v>
+        <v>0.61944444444444446</v>
       </c>
       <c r="D74">
-        <v>1290</v>
+        <v>1031</v>
       </c>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>9</v>
-      </c>
-      <c r="B75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="E75">
+        <v>629</v>
+      </c>
+      <c r="F75" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="1">
-        <v>0.65277777777777779</v>
-      </c>
-      <c r="D75">
-        <v>382</v>
-      </c>
-      <c r="G75" s="1"/>
+      <c r="G75" s="1">
+        <v>0.63263888888888886</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C76" s="1"/>
       <c r="E76">
-        <v>317</v>
+        <v>1104</v>
       </c>
       <c r="F76" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G76" s="1">
-        <v>0.65625</v>
+        <v>0.63958333333333328</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>23</v>
-      </c>
-      <c r="C77" s="1"/>
-      <c r="E77">
-        <v>356</v>
-      </c>
-      <c r="F77" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77" s="1">
-        <v>0.65902777777777777</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B77" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.64166666666666672</v>
+      </c>
+      <c r="D77">
+        <v>1290</v>
+      </c>
+      <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B78" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C78" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="D78">
-        <v>367</v>
+        <v>4</v>
       </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C79" s="1">
-        <v>0.68055555555555558</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="D79">
-        <v>441</v>
+        <v>382</v>
       </c>
       <c r="G79" s="1"/>
     </row>
@@ -1765,73 +1765,73 @@
       </c>
       <c r="C80" s="1"/>
       <c r="E80">
-        <v>4322</v>
+        <v>317</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G80" s="1">
-        <v>0.68611111111111112</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B81" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C81" s="1">
-        <v>0.6875</v>
+        <v>0.66527777777777775</v>
       </c>
       <c r="D81">
-        <v>311</v>
+        <v>7139</v>
       </c>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C82" s="1">
-        <v>0.6875</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D82">
-        <v>610</v>
+        <v>367</v>
       </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C83" s="1">
-        <v>0.69097222222222221</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D83">
-        <v>555</v>
+        <v>370</v>
       </c>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C84" s="1"/>
       <c r="E84">
-        <v>1130</v>
+        <v>1032</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G84" s="1">
-        <v>0.69444444444444453</v>
+        <v>0.66805555555555562</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -1839,134 +1839,134 @@
         <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C85" s="1">
-        <v>0.69722222222222219</v>
+        <v>0.68055555555555558</v>
       </c>
       <c r="D85">
-        <v>4327</v>
+        <v>441</v>
       </c>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C86" s="1">
-        <v>0.70138888888888884</v>
+        <v>0.68402777777777779</v>
       </c>
       <c r="D86">
-        <v>322</v>
+        <v>651</v>
       </c>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" s="1"/>
-      <c r="E87">
-        <v>520</v>
-      </c>
-      <c r="F87" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B87" t="s">
+        <v>27</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="D87">
+        <v>311</v>
+      </c>
+      <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="1"/>
-      <c r="E88">
-        <v>560</v>
-      </c>
-      <c r="F88" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B88" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="D88">
+        <v>318</v>
+      </c>
+      <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C89" s="1"/>
       <c r="E89">
-        <v>588</v>
+        <v>1130</v>
       </c>
       <c r="F89" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G89" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.69444444444444453</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>9</v>
       </c>
-      <c r="C90" s="1"/>
-      <c r="E90">
-        <v>617</v>
-      </c>
-      <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.69722222222222219</v>
+      </c>
+      <c r="D90">
+        <v>4327</v>
+      </c>
+      <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C91" s="1">
-        <v>0.73333333333333328</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="D91">
-        <v>4351</v>
+        <v>322</v>
       </c>
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C92" s="1"/>
       <c r="E92">
-        <v>448</v>
+        <v>530</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G92" s="1">
-        <v>0.74305555555555558</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C93" s="1"/>
       <c r="E93">
-        <v>534</v>
+        <v>560</v>
       </c>
       <c r="F93" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G93" s="1">
-        <v>0.74305555555555558</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -1975,58 +1975,58 @@
       </c>
       <c r="C94" s="1"/>
       <c r="E94">
-        <v>4308</v>
+        <v>588</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G94" s="1">
-        <v>0.74583333333333335</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>9</v>
-      </c>
-      <c r="B95" t="s">
-        <v>21</v>
-      </c>
-      <c r="C95" s="1">
-        <v>0.74652777777777779</v>
-      </c>
-      <c r="D95">
-        <v>612</v>
-      </c>
-      <c r="G95" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="E95">
+        <v>615</v>
+      </c>
+      <c r="F95" t="s">
+        <v>23</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>9</v>
       </c>
-      <c r="C96" s="1"/>
-      <c r="E96">
-        <v>528</v>
-      </c>
-      <c r="F96" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" s="1">
-        <v>0.76041666666666663</v>
-      </c>
+      <c r="B96" t="s">
+        <v>32</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0.73472222222222228</v>
+      </c>
+      <c r="D96">
+        <v>4321</v>
+      </c>
+      <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C97" s="1"/>
       <c r="E97">
-        <v>566</v>
+        <v>448</v>
       </c>
       <c r="F97" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G97" s="1">
-        <v>0.77083333333333337</v>
+        <v>0.74305555555555558</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -2035,147 +2035,147 @@
       </c>
       <c r="C98" s="1"/>
       <c r="E98">
-        <v>4312</v>
+        <v>534</v>
       </c>
       <c r="F98" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G98" s="1">
-        <v>0.77638888888888891</v>
+        <v>0.74305555555555558</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>43</v>
-      </c>
-      <c r="B99" t="s">
-        <v>44</v>
-      </c>
-      <c r="C99" s="1">
-        <v>0.78125</v>
-      </c>
-      <c r="D99">
-        <v>930</v>
-      </c>
-      <c r="G99" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="E99">
+        <v>4308</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0.74583333333333335</v>
+      </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>9</v>
-      </c>
-      <c r="B100" t="s">
-        <v>16</v>
-      </c>
-      <c r="C100" s="1">
-        <v>0.79513888888888884</v>
-      </c>
-      <c r="D100">
-        <v>431</v>
-      </c>
-      <c r="G100" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="E100">
+        <v>528</v>
+      </c>
+      <c r="F100" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0.76041666666666663</v>
+      </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C101" s="1">
-        <v>0.79513888888888884</v>
+        <v>0.7631944444444444</v>
       </c>
       <c r="D101">
-        <v>661</v>
+        <v>4040</v>
       </c>
       <c r="G101" s="1"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>34</v>
-      </c>
-      <c r="B102" t="s">
-        <v>17</v>
-      </c>
-      <c r="C102" s="1">
-        <v>0.8125</v>
-      </c>
-      <c r="D102">
-        <v>222</v>
-      </c>
-      <c r="G102" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="E102">
+        <v>4312</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0.77638888888888891</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="1"/>
-      <c r="E103">
-        <v>570</v>
-      </c>
-      <c r="F103" t="s">
-        <v>15</v>
-      </c>
-      <c r="G103" s="1">
-        <v>0.8125</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B103" t="s">
+        <v>45</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="D103">
+        <v>930</v>
+      </c>
+      <c r="G103" s="1"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>9</v>
-      </c>
-      <c r="B104" t="s">
-        <v>29</v>
-      </c>
-      <c r="C104" s="1">
-        <v>0.81944444444444442</v>
-      </c>
-      <c r="D104">
-        <v>425</v>
-      </c>
-      <c r="G104" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="E104">
+        <v>558</v>
+      </c>
+      <c r="F104" t="s">
+        <v>24</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0.78819444444444442</v>
+      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C105" s="1">
-        <v>0.82291666666666663</v>
+        <v>0.79027777777777775</v>
       </c>
       <c r="D105">
-        <v>932</v>
+        <v>4331</v>
       </c>
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C106" s="1">
-        <v>0.82638888888888884</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="D106">
-        <v>523</v>
+        <v>431</v>
       </c>
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C107" s="1">
-        <v>0.82986111111111116</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="D107">
-        <v>583</v>
+        <v>661</v>
       </c>
       <c r="G107" s="1"/>
     </row>
@@ -2183,375 +2183,375 @@
       <c r="A108" t="s">
         <v>9</v>
       </c>
-      <c r="B108" t="s">
-        <v>35</v>
-      </c>
-      <c r="C108" s="1">
-        <v>0.84375</v>
-      </c>
-      <c r="D108">
-        <v>325</v>
-      </c>
-      <c r="G108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="E108">
+        <v>4041</v>
+      </c>
+      <c r="F108" t="s">
+        <v>23</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0.79513888888888884</v>
+      </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>9</v>
       </c>
-      <c r="B109" t="s">
-        <v>36</v>
-      </c>
-      <c r="C109" s="1">
-        <v>0.84375</v>
-      </c>
-      <c r="D109">
-        <v>445</v>
-      </c>
-      <c r="G109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="E109">
+        <v>4300</v>
+      </c>
+      <c r="F109" t="s">
+        <v>18</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0.81180555555555556</v>
+      </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" s="1"/>
-      <c r="E110">
-        <v>590</v>
-      </c>
-      <c r="F110" t="s">
-        <v>8</v>
-      </c>
-      <c r="G110" s="1">
-        <v>0.85069444444444442</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B110" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="D110">
+        <v>222</v>
+      </c>
+      <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>9</v>
-      </c>
-      <c r="B111" t="s">
-        <v>19</v>
-      </c>
-      <c r="C111" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D111">
-        <v>393</v>
-      </c>
-      <c r="G111" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C111" s="1"/>
+      <c r="E111">
+        <v>570</v>
+      </c>
+      <c r="F111" t="s">
+        <v>17</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0.8125</v>
+      </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B112" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C112" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.82291666666666663</v>
       </c>
       <c r="D112">
-        <v>449</v>
+        <v>932</v>
       </c>
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B113" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C113" s="1">
-        <v>0.86041666666666661</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="D113">
-        <v>881</v>
+        <v>523</v>
       </c>
       <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B114" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C114" s="1">
-        <v>0.86805555555555558</v>
+        <v>0.82986111111111116</v>
       </c>
       <c r="D114">
-        <v>563</v>
+        <v>583</v>
       </c>
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B115" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C115" s="1">
-        <v>0.87152777777777779</v>
+        <v>0.84375</v>
       </c>
       <c r="D115">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>9</v>
-      </c>
-      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="1"/>
+      <c r="E116">
+        <v>590</v>
+      </c>
+      <c r="F116" t="s">
         <v>10</v>
       </c>
-      <c r="C116" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="D116">
-        <v>535</v>
-      </c>
-      <c r="G116" s="1"/>
+      <c r="G116" s="1">
+        <v>0.85069444444444442</v>
+      </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>34</v>
-      </c>
-      <c r="C117" s="1"/>
-      <c r="E117">
-        <v>222</v>
-      </c>
-      <c r="F117" t="s">
-        <v>45</v>
-      </c>
-      <c r="G117" s="1">
-        <v>0.875</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B117" t="s">
+        <v>21</v>
+      </c>
+      <c r="C117" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D117">
+        <v>393</v>
+      </c>
+      <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B118" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C118" s="1">
-        <v>0.87847222222222221</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D118">
-        <v>589</v>
+        <v>449</v>
       </c>
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B119" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C119" s="1">
-        <v>0.87847222222222221</v>
+        <v>0.86041666666666661</v>
       </c>
       <c r="D119">
-        <v>616</v>
+        <v>881</v>
       </c>
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B120" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C120" s="1">
-        <v>0.8881944444444444</v>
+        <v>0.86805555555555558</v>
       </c>
       <c r="D120">
-        <v>1461</v>
+        <v>443</v>
       </c>
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>9</v>
-      </c>
-      <c r="C121" s="1"/>
-      <c r="E121">
-        <v>365</v>
-      </c>
-      <c r="F121" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" s="1">
-        <v>0.92013888888888884</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B121" t="s">
+        <v>24</v>
+      </c>
+      <c r="C121" s="1">
+        <v>0.86805555555555558</v>
+      </c>
+      <c r="D121">
+        <v>563</v>
+      </c>
+      <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>9</v>
-      </c>
-      <c r="C122" s="1"/>
-      <c r="E122">
-        <v>580</v>
-      </c>
-      <c r="F122" t="s">
-        <v>8</v>
-      </c>
-      <c r="G122" s="1">
-        <v>0.92013888888888884</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B122" t="s">
+        <v>29</v>
+      </c>
+      <c r="C122" s="1">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="D122">
+        <v>316</v>
+      </c>
+      <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>9</v>
-      </c>
-      <c r="C123" s="1"/>
-      <c r="E123">
-        <v>429</v>
-      </c>
-      <c r="F123" t="s">
-        <v>20</v>
-      </c>
-      <c r="G123" s="1">
-        <v>0.92361111111111116</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B123" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="D123">
+        <v>535</v>
+      </c>
+      <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>7</v>
-      </c>
-      <c r="B124" t="s">
-        <v>24</v>
-      </c>
-      <c r="C124" s="1">
-        <v>0.92986111111111114</v>
-      </c>
-      <c r="D124">
-        <v>4339</v>
-      </c>
-      <c r="G124" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="C124" s="1"/>
+      <c r="E124">
+        <v>222</v>
+      </c>
+      <c r="F124" t="s">
+        <v>46</v>
+      </c>
+      <c r="G124" s="1">
+        <v>0.875</v>
+      </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>9</v>
-      </c>
-      <c r="C125" s="1"/>
-      <c r="E125">
-        <v>578</v>
-      </c>
-      <c r="F125" t="s">
-        <v>17</v>
-      </c>
-      <c r="G125" s="1">
-        <v>0.93055555555555558</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B125" t="s">
+        <v>19</v>
+      </c>
+      <c r="C125" s="1">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="D125">
+        <v>589</v>
+      </c>
+      <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>9</v>
-      </c>
-      <c r="C126" s="1"/>
-      <c r="E126">
-        <v>627</v>
-      </c>
-      <c r="F126" t="s">
-        <v>21</v>
-      </c>
-      <c r="G126" s="1">
-        <v>0.93402777777777779</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B126" t="s">
+        <v>23</v>
+      </c>
+      <c r="C126" s="1">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="D126">
+        <v>614</v>
+      </c>
+      <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>9</v>
-      </c>
-      <c r="C127" s="1"/>
-      <c r="E127">
-        <v>574</v>
-      </c>
-      <c r="F127" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="1">
-        <v>0.9375</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B127" t="s">
+        <v>32</v>
+      </c>
+      <c r="C127" s="1">
+        <v>0.8881944444444444</v>
+      </c>
+      <c r="D127">
+        <v>1461</v>
+      </c>
+      <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>9</v>
-      </c>
-      <c r="C128" s="1"/>
-      <c r="E128">
-        <v>315</v>
-      </c>
-      <c r="F128" t="s">
-        <v>19</v>
-      </c>
-      <c r="G128" s="1">
-        <v>0.94097222222222221</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B128" t="s">
+        <v>23</v>
+      </c>
+      <c r="C128" s="1">
+        <v>0.89236111111111116</v>
+      </c>
+      <c r="D128">
+        <v>608</v>
+      </c>
+      <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>9</v>
-      </c>
-      <c r="C129" s="1"/>
-      <c r="E129">
-        <v>658</v>
-      </c>
-      <c r="F129" t="s">
-        <v>15</v>
-      </c>
-      <c r="G129" s="1">
-        <v>0.94444444444444442</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B129" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" s="1">
+        <v>0.91319444444444442</v>
+      </c>
+      <c r="D129">
+        <v>585</v>
+      </c>
+      <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C130" s="1"/>
       <c r="E130">
-        <v>452</v>
+        <v>578</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="G130" s="1">
-        <v>0.95486111111111116</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C131" s="1"/>
       <c r="E131">
-        <v>457</v>
+        <v>365</v>
       </c>
       <c r="F131" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G131" s="1">
-        <v>0.95486111111111116</v>
+        <v>0.92013888888888884</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C132" s="1"/>
       <c r="E132">
-        <v>432</v>
+        <v>580</v>
       </c>
       <c r="F132" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G132" s="1">
-        <v>0.95833333333333337</v>
+        <v>0.92013888888888884</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -2560,29 +2560,119 @@
       </c>
       <c r="C133" s="1"/>
       <c r="E133">
-        <v>4336</v>
+        <v>574</v>
       </c>
       <c r="F133" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="G133" s="1">
-        <v>0.97152777777777777</v>
+        <v>0.92013888888888884</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>25</v>
-      </c>
-      <c r="B134" t="s">
-        <v>26</v>
-      </c>
-      <c r="C134" s="1">
-        <v>0.98402777777777783</v>
-      </c>
-      <c r="D134">
+        <v>7</v>
+      </c>
+      <c r="C134" s="1"/>
+      <c r="E134">
+        <v>315</v>
+      </c>
+      <c r="F134" t="s">
+        <v>21</v>
+      </c>
+      <c r="G134" s="1">
+        <v>0.92013888888888884</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" s="1"/>
+      <c r="E135">
+        <v>457</v>
+      </c>
+      <c r="F135" t="s">
+        <v>16</v>
+      </c>
+      <c r="G135" s="1">
+        <v>0.92013888888888884</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>28</v>
+      </c>
+      <c r="B136" t="s">
+        <v>29</v>
+      </c>
+      <c r="C136" s="1">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="D136">
         <v>878</v>
       </c>
-      <c r="G134" s="1"/>
+      <c r="G136" s="1"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" s="1"/>
+      <c r="E137">
+        <v>429</v>
+      </c>
+      <c r="F137" t="s">
+        <v>22</v>
+      </c>
+      <c r="G137" s="1">
+        <v>0.92361111111111116</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" s="1"/>
+      <c r="E138">
+        <v>658</v>
+      </c>
+      <c r="F138" t="s">
+        <v>17</v>
+      </c>
+      <c r="G138" s="1">
+        <v>0.92361111111111116</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" s="1"/>
+      <c r="E139">
+        <v>452</v>
+      </c>
+      <c r="F139" t="s">
+        <v>8</v>
+      </c>
+      <c r="G139" s="1">
+        <v>0.92361111111111116</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" s="1"/>
+      <c r="E140">
+        <v>651</v>
+      </c>
+      <c r="F140" t="s">
+        <v>23</v>
+      </c>
+      <c r="G140" s="1">
+        <v>0.92708333333333337</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/operaciones.xlsx
+++ b/public/operaciones.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulm\Desktop\Itinerarios_2026-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F4B0155-0076-4EFE-8278-C31764F54787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EE66B49-CF9B-4189-99C4-F05CEA7CEB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A797D56A-A303-43A1-B33E-C6EFB15A9313}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{047B6AFD-DC25-446B-B490-CE9721E3D43E}"/>
   </bookViews>
   <sheets>
-    <sheet name="10-02" sheetId="1" r:id="rId1"/>
+    <sheet name="11-02" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="46">
   <si>
     <t>AEROLINEA</t>
   </si>
@@ -71,109 +71,106 @@
     <t>KIAD</t>
   </si>
   <si>
-    <t>KONT</t>
-  </si>
-  <si>
     <t>MHLM</t>
   </si>
   <si>
+    <t>KLAX</t>
+  </si>
+  <si>
+    <t>UAL</t>
+  </si>
+  <si>
+    <t>SEQM</t>
+  </si>
+  <si>
+    <t>MGGT</t>
+  </si>
+  <si>
+    <t>SKBO</t>
+  </si>
+  <si>
+    <t>MNMG</t>
+  </si>
+  <si>
+    <t>SPJC</t>
+  </si>
+  <si>
+    <t>MROC</t>
+  </si>
+  <si>
+    <t>KSFO</t>
+  </si>
+  <si>
+    <t>KJFK</t>
+  </si>
+  <si>
+    <t>VOI</t>
+  </si>
+  <si>
+    <t>MMMX</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>KMIA</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>MPTO</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>KATL</t>
+  </si>
+  <si>
+    <t>KIAH</t>
+  </si>
+  <si>
+    <t>AMX</t>
+  </si>
+  <si>
+    <t>KDFW</t>
+  </si>
+  <si>
+    <t>IBE</t>
+  </si>
+  <si>
+    <t>CYYZ</t>
+  </si>
+  <si>
+    <t>KBOS</t>
+  </si>
+  <si>
+    <t>KEWR</t>
+  </si>
+  <si>
+    <t>TPA</t>
+  </si>
+  <si>
+    <t>DHL</t>
+  </si>
+  <si>
+    <t>AJT</t>
+  </si>
+  <si>
+    <t>FDX</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>MHTG</t>
+  </si>
+  <si>
+    <t>SKRG</t>
+  </si>
+  <si>
     <t>KOAK</t>
-  </si>
-  <si>
-    <t>KLAX</t>
-  </si>
-  <si>
-    <t>UAL</t>
-  </si>
-  <si>
-    <t>SEQM</t>
-  </si>
-  <si>
-    <t>KJFK</t>
-  </si>
-  <si>
-    <t>MMMX</t>
-  </si>
-  <si>
-    <t>MGGT</t>
-  </si>
-  <si>
-    <t>SKBO</t>
-  </si>
-  <si>
-    <t>MNMG</t>
-  </si>
-  <si>
-    <t>SPJC</t>
-  </si>
-  <si>
-    <t>MROC</t>
-  </si>
-  <si>
-    <t>KSFO</t>
-  </si>
-  <si>
-    <t>KEWR</t>
-  </si>
-  <si>
-    <t>AAL</t>
-  </si>
-  <si>
-    <t>KMIA</t>
-  </si>
-  <si>
-    <t>CMP</t>
-  </si>
-  <si>
-    <t>MPTO</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>KATL</t>
-  </si>
-  <si>
-    <t>KIAH</t>
-  </si>
-  <si>
-    <t>AMX</t>
-  </si>
-  <si>
-    <t>KDFW</t>
-  </si>
-  <si>
-    <t>NKS</t>
-  </si>
-  <si>
-    <t>KFLL</t>
-  </si>
-  <si>
-    <t>SKRG</t>
-  </si>
-  <si>
-    <t>MMUN</t>
-  </si>
-  <si>
-    <t>IBE</t>
-  </si>
-  <si>
-    <t>CYYZ</t>
-  </si>
-  <si>
-    <t>DHL</t>
-  </si>
-  <si>
-    <t>AJT</t>
-  </si>
-  <si>
-    <t>FDX</t>
-  </si>
-  <si>
-    <t>ARM</t>
-  </si>
-  <si>
-    <t>MHTG</t>
   </si>
   <si>
     <t>LEMD</t>
@@ -551,8 +548,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E53F21-55EB-4657-A225-3F726B40363F}">
-  <dimension ref="A1:G140"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4BE954-F71E-418D-B458-2BA81A05C6F5}">
+  <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -591,25 +588,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="E2">
-        <v>1670</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.125</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="D2">
+        <v>4156</v>
+      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1">
         <v>0.18402777777777779</v>
@@ -621,29 +618,29 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="E4">
+        <v>1670</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D4">
-        <v>453</v>
-      </c>
-      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1"/>
       <c r="E5">
         <v>879</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1">
         <v>0.20972222222222223</v>
@@ -651,31 +648,31 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
-        <v>0.21875</v>
+        <v>0.21527777777777779</v>
       </c>
       <c r="D6">
-        <v>4313</v>
+        <v>453</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
-        <v>0.22222222222222221</v>
+        <v>0.21875</v>
       </c>
       <c r="D7">
-        <v>531</v>
+        <v>4313</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -684,7 +681,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
         <v>0.22222222222222221</v>
@@ -696,10 +693,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
         <v>0.22569444444444445</v>
@@ -714,43 +711,43 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
-        <v>0.23472222222222222</v>
+        <v>0.23541666666666666</v>
       </c>
       <c r="D10">
-        <v>4323</v>
+        <v>4309</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1">
-        <v>0.23541666666666666</v>
+        <v>0.23958333333333334</v>
       </c>
       <c r="D11">
-        <v>4309</v>
+        <v>1266</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="1">
-        <v>0.23958333333333334</v>
+        <v>0.24652777777777779</v>
       </c>
       <c r="D12">
-        <v>1266</v>
+        <v>456</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -759,13 +756,13 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1">
-        <v>0.24652777777777779</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="D13">
-        <v>456</v>
+        <v>579</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -774,13 +771,13 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1">
-        <v>0.24652777777777779</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D14">
-        <v>567</v>
+        <v>366</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -789,13 +786,13 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1">
-        <v>0.25347222222222221</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D15">
-        <v>433</v>
+        <v>529</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -804,43 +801,43 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>0.25694444444444442</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="D16">
-        <v>579</v>
+        <v>314</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.26041666666666669</v>
-      </c>
-      <c r="D17">
-        <v>366</v>
-      </c>
-      <c r="G17" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="E17">
+        <v>4326</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.2638888888888889</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D18">
-        <v>529</v>
+        <v>428</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -849,43 +846,43 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1">
-        <v>0.2638888888888889</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D19">
-        <v>314</v>
+        <v>626</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="E20">
-        <v>4326</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.2638888888888889</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D20">
+        <v>561</v>
+      </c>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1">
-        <v>0.2673611111111111</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D21">
-        <v>428</v>
+        <v>571</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -894,104 +891,104 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C22" s="1">
-        <v>0.2673611111111111</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D22">
-        <v>650</v>
+        <v>591</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D23">
-        <v>561</v>
-      </c>
-      <c r="G23" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="E23">
+        <v>4318</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.28611111111111109</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D24">
-        <v>571</v>
-      </c>
-      <c r="G24" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="E24">
+        <v>1467</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.28819444444444448</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C25" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="D25">
-        <v>591</v>
+        <v>521</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1"/>
       <c r="E26">
-        <v>1467</v>
+        <v>323</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G26" s="1">
-        <v>0.28819444444444448</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1"/>
       <c r="E27">
-        <v>4330</v>
+        <v>396</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G27" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C28" s="1"/>
       <c r="E28">
-        <v>323</v>
+        <v>4338</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G28" s="1">
-        <v>0.3125</v>
+        <v>0.31527777777777777</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1000,13 +997,13 @@
       </c>
       <c r="C29" s="1"/>
       <c r="E29">
-        <v>396</v>
+        <v>310</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G29" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1015,10 +1012,10 @@
       </c>
       <c r="C30" s="1"/>
       <c r="E30">
-        <v>310</v>
+        <v>440</v>
       </c>
       <c r="F30" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G30" s="1">
         <v>0.31597222222222221</v>
@@ -1030,10 +1027,10 @@
       </c>
       <c r="C31" s="1"/>
       <c r="E31">
-        <v>440</v>
+        <v>536</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="G31" s="1">
         <v>0.31597222222222221</v>
@@ -1045,13 +1042,13 @@
       </c>
       <c r="C32" s="1"/>
       <c r="E32">
-        <v>536</v>
+        <v>444</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G32" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1063,7 +1060,7 @@
         <v>562</v>
       </c>
       <c r="F33" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G33" s="1">
         <v>0.32291666666666669</v>
@@ -1071,18 +1068,18 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="E34">
-        <v>368</v>
-      </c>
-      <c r="F34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="1">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="1">
         <v>0.33333333333333331</v>
       </c>
+      <c r="D34">
+        <v>5300</v>
+      </c>
+      <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -1090,10 +1087,10 @@
       </c>
       <c r="C35" s="1"/>
       <c r="E35">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G35" s="1">
         <v>0.33333333333333331</v>
@@ -1105,10 +1102,10 @@
       </c>
       <c r="C36" s="1"/>
       <c r="E36">
-        <v>522</v>
+        <v>383</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G36" s="1">
         <v>0.33333333333333331</v>
@@ -1118,46 +1115,46 @@
       <c r="A37" t="s">
         <v>7</v>
       </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0.33680555555555558</v>
-      </c>
-      <c r="D37">
-        <v>581</v>
-      </c>
-      <c r="G37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="E37">
+        <v>522</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C38" s="1"/>
       <c r="E38">
-        <v>660</v>
+        <v>5300</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G38" s="1">
-        <v>0.33680555555555558</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="E39">
-        <v>454</v>
-      </c>
-      <c r="F39" t="s">
-        <v>8</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0.34027777777777779</v>
-      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="D39">
+        <v>581</v>
+      </c>
+      <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1165,13 +1162,13 @@
       </c>
       <c r="C40" s="1"/>
       <c r="E40">
-        <v>572</v>
+        <v>660</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G40" s="1">
-        <v>0.34027777777777779</v>
+        <v>0.33680555555555558</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1180,28 +1177,28 @@
       </c>
       <c r="C41" s="1"/>
       <c r="E41">
-        <v>324</v>
+        <v>454</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="G41" s="1">
-        <v>0.34375</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C42" s="1"/>
       <c r="E42">
-        <v>884</v>
+        <v>554</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G42" s="1">
-        <v>0.3576388888888889</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1210,43 +1207,43 @@
       </c>
       <c r="C43" s="1"/>
       <c r="E43">
-        <v>369</v>
+        <v>324</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G43" s="1">
-        <v>0.37847222222222221</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="E44">
-        <v>430</v>
-      </c>
-      <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0.37847222222222221</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.34722222222222221</v>
+      </c>
+      <c r="D44">
+        <v>4053</v>
+      </c>
+      <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C45" s="1"/>
       <c r="E45">
-        <v>582</v>
+        <v>884</v>
       </c>
       <c r="F45" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G45" s="1">
-        <v>0.39930555555555558</v>
+        <v>0.3576388888888889</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1254,13 +1251,13 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C46" s="1">
-        <v>0.41319444444444442</v>
+        <v>0.37847222222222221</v>
       </c>
       <c r="D46">
-        <v>659</v>
+        <v>559</v>
       </c>
       <c r="G46" s="1"/>
     </row>
@@ -1270,13 +1267,13 @@
       </c>
       <c r="C47" s="1"/>
       <c r="E47">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="G47" s="1">
-        <v>0.41319444444444442</v>
+        <v>0.37847222222222221</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1285,42 +1282,42 @@
       </c>
       <c r="C48" s="1"/>
       <c r="E48">
-        <v>609</v>
+        <v>430</v>
       </c>
       <c r="F48" t="s">
         <v>23</v>
       </c>
       <c r="G48" s="1">
-        <v>0.4236111111111111</v>
+        <v>0.37847222222222221</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C49" s="1"/>
       <c r="E49">
-        <v>4320</v>
+        <v>582</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G49" s="1">
-        <v>0.4236111111111111</v>
+        <v>0.39930555555555558</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C50" s="1">
-        <v>0.42708333333333331</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="D50">
-        <v>537</v>
+        <v>4053</v>
       </c>
       <c r="G50" s="1"/>
     </row>
@@ -1329,13 +1326,13 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C51" s="1">
-        <v>0.44791666666666669</v>
+        <v>0.41319444444444442</v>
       </c>
       <c r="D51">
-        <v>455</v>
+        <v>659</v>
       </c>
       <c r="G51" s="1"/>
     </row>
@@ -1343,29 +1340,29 @@
       <c r="A52" t="s">
         <v>7</v>
       </c>
-      <c r="B52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="D52">
-        <v>573</v>
-      </c>
-      <c r="G52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="E52">
+        <v>392</v>
+      </c>
+      <c r="F52" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.41319444444444442</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B53" t="s">
         <v>25</v>
       </c>
       <c r="C53" s="1">
-        <v>0.45347222222222222</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D53">
-        <v>4337</v>
+        <v>731</v>
       </c>
       <c r="G53" s="1"/>
     </row>
@@ -1373,29 +1370,29 @@
       <c r="A54" t="s">
         <v>7</v>
       </c>
-      <c r="B54" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0.46180555555555558</v>
-      </c>
-      <c r="D54">
-        <v>384</v>
-      </c>
-      <c r="G54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="E54">
+        <v>613</v>
+      </c>
+      <c r="F54" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.4236111111111111</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C55" s="1">
-        <v>0.46527777777777773</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D55">
-        <v>721</v>
+        <v>537</v>
       </c>
       <c r="G55" s="1"/>
     </row>
@@ -1403,404 +1400,404 @@
       <c r="A56" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="E56">
-        <v>584</v>
-      </c>
-      <c r="F56" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="1">
-        <v>0.49305555555555558</v>
-      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D56">
+        <v>455</v>
+      </c>
+      <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="1"/>
-      <c r="E57">
-        <v>650</v>
-      </c>
-      <c r="F57" t="s">
-        <v>38</v>
-      </c>
-      <c r="G57" s="1">
-        <v>0.49305555555555558</v>
-      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="D57">
+        <v>384</v>
+      </c>
+      <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="E58">
-        <v>385</v>
-      </c>
-      <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="D58">
+        <v>730</v>
+      </c>
+      <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="1"/>
-      <c r="E59">
-        <v>442</v>
-      </c>
-      <c r="F59" t="s">
-        <v>34</v>
-      </c>
-      <c r="G59" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="D59">
+        <v>4301</v>
+      </c>
+      <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="E60">
-        <v>319</v>
-      </c>
-      <c r="F60" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" s="1">
-        <v>0.51041666666666663</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D60">
+        <v>916</v>
+      </c>
+      <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>44</v>
-      </c>
-      <c r="B61" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="D61">
-        <v>4</v>
-      </c>
-      <c r="G61" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="E61">
+        <v>385</v>
+      </c>
+      <c r="F61" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B62" t="s">
-        <v>27</v>
-      </c>
-      <c r="C62" s="1">
-        <v>0.52152777777777781</v>
-      </c>
-      <c r="D62">
-        <v>339</v>
-      </c>
-      <c r="G62" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="E62">
+        <v>424</v>
+      </c>
+      <c r="F62" t="s">
+        <v>30</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>42</v>
-      </c>
-      <c r="B63" t="s">
-        <v>27</v>
-      </c>
-      <c r="C63" s="1">
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="D63">
-        <v>720</v>
-      </c>
-      <c r="G63" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="E63">
+        <v>319</v>
+      </c>
+      <c r="F63" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0.51041666666666663</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C64" s="1">
-        <v>0.52986111111111112</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="D64">
-        <v>816</v>
+        <v>4</v>
       </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B65" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C65" s="1">
-        <v>0.54861111111111105</v>
+        <v>0.52152777777777781</v>
       </c>
       <c r="D65">
-        <v>1910</v>
+        <v>339</v>
       </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>15</v>
-      </c>
-      <c r="B66" t="s">
-        <v>32</v>
-      </c>
-      <c r="C66" s="1">
-        <v>0.55486111111111114</v>
-      </c>
-      <c r="D66">
-        <v>1441</v>
-      </c>
-      <c r="G66" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="E66">
+        <v>4340</v>
+      </c>
+      <c r="F66" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.52569444444444446</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B67" t="s">
         <v>27</v>
       </c>
       <c r="C67" s="1">
-        <v>0.56041666666666667</v>
+        <v>0.52986111111111112</v>
       </c>
       <c r="D67">
-        <v>8139</v>
+        <v>816</v>
       </c>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>26</v>
-      </c>
-      <c r="C68" s="1"/>
-      <c r="E68">
-        <v>348</v>
-      </c>
-      <c r="F68" t="s">
-        <v>27</v>
-      </c>
-      <c r="G68" s="1">
-        <v>0.56319444444444444</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B68" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="D68">
+        <v>1910</v>
+      </c>
+      <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>28</v>
-      </c>
-      <c r="C69" s="1"/>
-      <c r="E69">
-        <v>871</v>
-      </c>
-      <c r="F69" t="s">
-        <v>29</v>
-      </c>
-      <c r="G69" s="1">
-        <v>0.57291666666666663</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D69">
+        <v>916</v>
+      </c>
+      <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C70" s="1">
-        <v>0.57986111111111105</v>
+        <v>0.55486111111111114</v>
       </c>
       <c r="D70">
-        <v>628</v>
+        <v>1441</v>
       </c>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>26</v>
-      </c>
-      <c r="B71" t="s">
-        <v>34</v>
-      </c>
-      <c r="C71" s="1">
-        <v>0.59791666666666665</v>
-      </c>
-      <c r="D71">
-        <v>1035</v>
-      </c>
-      <c r="G71" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="E71">
+        <v>348</v>
+      </c>
+      <c r="F71" t="s">
+        <v>25</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0.56319444444444444</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>30</v>
-      </c>
-      <c r="C72" s="1"/>
-      <c r="E72">
-        <v>1978</v>
-      </c>
-      <c r="F72" t="s">
-        <v>31</v>
-      </c>
-      <c r="G72" s="1">
-        <v>0.60763888888888895</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="D72">
+        <v>8139</v>
+      </c>
+      <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C73" s="1"/>
       <c r="E73">
-        <v>1468</v>
+        <v>871</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G73" s="1">
-        <v>0.61805555555555558</v>
+        <v>0.57291666666666663</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B74" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C74" s="1">
-        <v>0.61944444444444446</v>
+        <v>0.58680555555555558</v>
       </c>
       <c r="D74">
-        <v>1031</v>
+        <v>628</v>
       </c>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>33</v>
-      </c>
-      <c r="C75" s="1"/>
-      <c r="E75">
-        <v>629</v>
-      </c>
-      <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" s="1">
-        <v>0.63263888888888886</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B75" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="D75">
+        <v>1035</v>
+      </c>
+      <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C76" s="1"/>
       <c r="E76">
-        <v>1104</v>
+        <v>1978</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G76" s="1">
-        <v>0.63958333333333328</v>
+        <v>0.60763888888888895</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>15</v>
-      </c>
-      <c r="B77" t="s">
-        <v>32</v>
-      </c>
-      <c r="C77" s="1">
-        <v>0.64166666666666672</v>
-      </c>
-      <c r="D77">
-        <v>1290</v>
-      </c>
-      <c r="G77" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="E77">
+        <v>1468</v>
+      </c>
+      <c r="F77" t="s">
+        <v>30</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.61805555555555558</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C78" s="1">
-        <v>0.64583333333333337</v>
+        <v>0.62222222222222223</v>
       </c>
       <c r="D78">
-        <v>4</v>
+        <v>4319</v>
       </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79" t="s">
-        <v>20</v>
-      </c>
-      <c r="C79" s="1">
-        <v>0.65277777777777779</v>
-      </c>
-      <c r="D79">
-        <v>382</v>
-      </c>
-      <c r="G79" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="E79">
+        <v>629</v>
+      </c>
+      <c r="F79" t="s">
+        <v>23</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0.63263888888888886</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C80" s="1"/>
       <c r="E80">
-        <v>317</v>
+        <v>1104</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G80" s="1">
-        <v>0.65625</v>
+        <v>0.63958333333333328</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C81" s="1">
-        <v>0.66527777777777775</v>
+        <v>0.64166666666666672</v>
       </c>
       <c r="D81">
-        <v>7139</v>
+        <v>1290</v>
       </c>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C82" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="D82">
-        <v>367</v>
+        <v>4</v>
       </c>
       <c r="G82" s="1"/>
     </row>
@@ -1809,43 +1806,43 @@
         <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C83" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="D83">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C84" s="1"/>
       <c r="E84">
-        <v>1032</v>
+        <v>317</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G84" s="1">
-        <v>0.66805555555555562</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C85" s="1">
-        <v>0.68055555555555558</v>
+        <v>0.66527777777777775</v>
       </c>
       <c r="D85">
-        <v>441</v>
+        <v>7139</v>
       </c>
       <c r="G85" s="1"/>
     </row>
@@ -1854,88 +1851,88 @@
         <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C86" s="1">
-        <v>0.68402777777777779</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D86">
-        <v>651</v>
+        <v>367</v>
       </c>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C87" s="1">
-        <v>0.6875</v>
+        <v>0.66736111111111107</v>
       </c>
       <c r="D87">
-        <v>311</v>
+        <v>4341</v>
       </c>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C88" s="1">
-        <v>0.6875</v>
+        <v>0.66736111111111107</v>
       </c>
       <c r="D88">
-        <v>318</v>
+        <v>4082</v>
       </c>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>15</v>
-      </c>
-      <c r="C89" s="1"/>
-      <c r="E89">
-        <v>1130</v>
-      </c>
-      <c r="F89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" t="s">
         <v>32</v>
       </c>
-      <c r="G89" s="1">
-        <v>0.69444444444444453</v>
-      </c>
+      <c r="C89" s="1">
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="D89">
+        <v>441</v>
+      </c>
+      <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>9</v>
       </c>
-      <c r="B90" t="s">
-        <v>10</v>
-      </c>
-      <c r="C90" s="1">
-        <v>0.69722222222222219</v>
-      </c>
-      <c r="D90">
-        <v>4327</v>
-      </c>
-      <c r="G90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="E90">
+        <v>4322</v>
+      </c>
+      <c r="F90" t="s">
+        <v>44</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0.68611111111111112</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C91" s="1">
-        <v>0.70138888888888884</v>
+        <v>0.6875</v>
       </c>
       <c r="D91">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="G91" s="1"/>
     </row>
@@ -1943,74 +1940,74 @@
       <c r="A92" t="s">
         <v>7</v>
       </c>
-      <c r="C92" s="1"/>
-      <c r="E92">
-        <v>530</v>
-      </c>
-      <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+      <c r="B92" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="D92">
+        <v>318</v>
+      </c>
+      <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="1"/>
-      <c r="E93">
-        <v>560</v>
-      </c>
-      <c r="F93" t="s">
-        <v>24</v>
-      </c>
-      <c r="G93" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+      <c r="B93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="D93">
+        <v>555</v>
+      </c>
+      <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C94" s="1"/>
       <c r="E94">
-        <v>588</v>
+        <v>1130</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G94" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.69444444444444453</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" s="1"/>
-      <c r="E95">
-        <v>615</v>
-      </c>
-      <c r="F95" t="s">
-        <v>23</v>
-      </c>
-      <c r="G95" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0.69722222222222219</v>
+      </c>
+      <c r="D95">
+        <v>4327</v>
+      </c>
+      <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B96" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C96" s="1">
-        <v>0.73472222222222228</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="D96">
-        <v>4321</v>
+        <v>322</v>
       </c>
       <c r="G96" s="1"/>
     </row>
@@ -2020,13 +2017,13 @@
       </c>
       <c r="C97" s="1"/>
       <c r="E97">
-        <v>448</v>
+        <v>520</v>
       </c>
       <c r="F97" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G97" s="1">
-        <v>0.74305555555555558</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -2035,28 +2032,28 @@
       </c>
       <c r="C98" s="1"/>
       <c r="E98">
-        <v>534</v>
+        <v>560</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G98" s="1">
-        <v>0.74305555555555558</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C99" s="1"/>
       <c r="E99">
-        <v>4308</v>
+        <v>588</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G99" s="1">
-        <v>0.74583333333333335</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -2065,156 +2062,156 @@
       </c>
       <c r="C100" s="1"/>
       <c r="E100">
-        <v>528</v>
+        <v>617</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G100" s="1">
-        <v>0.76041666666666663</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>9</v>
-      </c>
-      <c r="B101" t="s">
-        <v>23</v>
-      </c>
-      <c r="C101" s="1">
-        <v>0.7631944444444444</v>
-      </c>
-      <c r="D101">
-        <v>4040</v>
-      </c>
-      <c r="G101" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="E101">
+        <v>448</v>
+      </c>
+      <c r="F101" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0.74305555555555558</v>
+      </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C102" s="1"/>
       <c r="E102">
-        <v>4312</v>
+        <v>534</v>
       </c>
       <c r="F102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G102" s="1">
-        <v>0.77638888888888891</v>
+        <v>0.74305555555555558</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>41</v>
-      </c>
-      <c r="B103" t="s">
-        <v>45</v>
-      </c>
-      <c r="C103" s="1">
-        <v>0.78125</v>
-      </c>
-      <c r="D103">
-        <v>930</v>
-      </c>
-      <c r="G103" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="E103">
+        <v>4308</v>
+      </c>
+      <c r="F103" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0.74583333333333335</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>7</v>
       </c>
-      <c r="C104" s="1"/>
-      <c r="E104">
-        <v>558</v>
-      </c>
-      <c r="F104" t="s">
-        <v>24</v>
-      </c>
-      <c r="G104" s="1">
-        <v>0.78819444444444442</v>
-      </c>
+      <c r="B104" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0.74652777777777779</v>
+      </c>
+      <c r="D104">
+        <v>612</v>
+      </c>
+      <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>9</v>
-      </c>
-      <c r="B105" t="s">
-        <v>14</v>
-      </c>
-      <c r="C105" s="1">
-        <v>0.79027777777777775</v>
-      </c>
-      <c r="D105">
-        <v>4331</v>
-      </c>
-      <c r="G105" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="E105">
+        <v>528</v>
+      </c>
+      <c r="F105" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0.76041666666666663</v>
+      </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>7</v>
-      </c>
-      <c r="B106" t="s">
-        <v>18</v>
-      </c>
-      <c r="C106" s="1">
-        <v>0.79513888888888884</v>
-      </c>
-      <c r="D106">
-        <v>431</v>
-      </c>
-      <c r="G106" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="E106">
+        <v>4312</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0.77638888888888891</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>7</v>
-      </c>
-      <c r="B107" t="s">
-        <v>17</v>
-      </c>
-      <c r="C107" s="1">
-        <v>0.79513888888888884</v>
-      </c>
-      <c r="D107">
-        <v>661</v>
-      </c>
-      <c r="G107" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="E107">
+        <v>4082</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0.77638888888888891</v>
+      </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" s="1"/>
-      <c r="E108">
-        <v>4041</v>
-      </c>
-      <c r="F108" t="s">
-        <v>23</v>
-      </c>
-      <c r="G108" s="1">
-        <v>0.79513888888888884</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B108" t="s">
+        <v>42</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="D108">
+        <v>930</v>
+      </c>
+      <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109" s="1"/>
-      <c r="E109">
-        <v>4300</v>
-      </c>
-      <c r="F109" t="s">
-        <v>18</v>
-      </c>
-      <c r="G109" s="1">
-        <v>0.81180555555555556</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="D109">
+        <v>431</v>
+      </c>
+      <c r="G109" s="1"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B110" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C110" s="1">
         <v>0.8125</v>
@@ -2233,7 +2230,7 @@
         <v>570</v>
       </c>
       <c r="F111" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G111" s="1">
         <v>0.8125</v>
@@ -2241,31 +2238,31 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B112" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C112" s="1">
-        <v>0.82291666666666663</v>
+        <v>0.81944444444444442</v>
       </c>
       <c r="D112">
-        <v>932</v>
+        <v>425</v>
       </c>
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C113" s="1">
-        <v>0.82638888888888884</v>
+        <v>0.82291666666666663</v>
       </c>
       <c r="D113">
-        <v>523</v>
+        <v>932</v>
       </c>
       <c r="G113" s="1"/>
     </row>
@@ -2274,13 +2271,13 @@
         <v>7</v>
       </c>
       <c r="B114" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C114" s="1">
-        <v>0.82986111111111116</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="D114">
-        <v>583</v>
+        <v>523</v>
       </c>
       <c r="G114" s="1"/>
     </row>
@@ -2289,13 +2286,13 @@
         <v>7</v>
       </c>
       <c r="B115" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C115" s="1">
-        <v>0.84375</v>
+        <v>0.82986111111111116</v>
       </c>
       <c r="D115">
-        <v>325</v>
+        <v>583</v>
       </c>
       <c r="G115" s="1"/>
     </row>
@@ -2303,29 +2300,29 @@
       <c r="A116" t="s">
         <v>7</v>
       </c>
-      <c r="C116" s="1"/>
-      <c r="E116">
-        <v>590</v>
-      </c>
-      <c r="F116" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="1">
-        <v>0.85069444444444442</v>
-      </c>
+      <c r="B116" t="s">
+        <v>34</v>
+      </c>
+      <c r="C116" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="D116">
+        <v>325</v>
+      </c>
+      <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>7</v>
       </c>
       <c r="B117" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C117" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.84375</v>
       </c>
       <c r="D117">
-        <v>393</v>
+        <v>445</v>
       </c>
       <c r="G117" s="1"/>
     </row>
@@ -2333,29 +2330,29 @@
       <c r="A118" t="s">
         <v>7</v>
       </c>
-      <c r="B118" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D118">
-        <v>449</v>
-      </c>
-      <c r="G118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="E118">
+        <v>590</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="1">
+        <v>0.85069444444444442</v>
+      </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B119" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C119" s="1">
-        <v>0.86041666666666661</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D119">
-        <v>881</v>
+        <v>393</v>
       </c>
       <c r="G119" s="1"/>
     </row>
@@ -2364,28 +2361,28 @@
         <v>7</v>
       </c>
       <c r="B120" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C120" s="1">
-        <v>0.86805555555555558</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D120">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B121" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C121" s="1">
-        <v>0.86805555555555558</v>
+        <v>0.86041666666666661</v>
       </c>
       <c r="D121">
-        <v>563</v>
+        <v>881</v>
       </c>
       <c r="G121" s="1"/>
     </row>
@@ -2394,13 +2391,13 @@
         <v>7</v>
       </c>
       <c r="B122" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C122" s="1">
-        <v>0.87152777777777779</v>
+        <v>0.86805555555555558</v>
       </c>
       <c r="D122">
-        <v>316</v>
+        <v>563</v>
       </c>
       <c r="G122" s="1"/>
     </row>
@@ -2409,73 +2406,73 @@
         <v>7</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C123" s="1">
-        <v>0.875</v>
+        <v>0.87152777777777779</v>
       </c>
       <c r="D123">
-        <v>535</v>
+        <v>316</v>
       </c>
       <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>39</v>
-      </c>
-      <c r="C124" s="1"/>
-      <c r="E124">
-        <v>222</v>
-      </c>
-      <c r="F124" t="s">
-        <v>46</v>
-      </c>
-      <c r="G124" s="1">
+        <v>7</v>
+      </c>
+      <c r="B124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" s="1">
         <v>0.875</v>
       </c>
+      <c r="D124">
+        <v>535</v>
+      </c>
+      <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>7</v>
-      </c>
-      <c r="B125" t="s">
-        <v>19</v>
-      </c>
-      <c r="C125" s="1">
-        <v>0.87847222222222221</v>
-      </c>
-      <c r="D125">
-        <v>589</v>
-      </c>
-      <c r="G125" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="E125">
+        <v>222</v>
+      </c>
+      <c r="F125" t="s">
+        <v>45</v>
+      </c>
+      <c r="G125" s="1">
+        <v>0.875</v>
+      </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>7</v>
       </c>
       <c r="B126" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C126" s="1">
         <v>0.87847222222222221</v>
       </c>
       <c r="D126">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B127" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C127" s="1">
-        <v>0.8881944444444444</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D127">
-        <v>1461</v>
+        <v>616</v>
       </c>
       <c r="G127" s="1"/>
     </row>
@@ -2484,28 +2481,28 @@
         <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C128" s="1">
-        <v>0.89236111111111116</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D128">
-        <v>608</v>
+        <v>661</v>
       </c>
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C129" s="1">
-        <v>0.91319444444444442</v>
+        <v>0.8881944444444444</v>
       </c>
       <c r="D129">
-        <v>585</v>
+        <v>1461</v>
       </c>
       <c r="G129" s="1"/>
     </row>
@@ -2515,13 +2512,13 @@
       </c>
       <c r="C130" s="1"/>
       <c r="E130">
-        <v>578</v>
+        <v>365</v>
       </c>
       <c r="F130" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G130" s="1">
-        <v>0.91666666666666663</v>
+        <v>0.92013888888888884</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -2530,10 +2527,10 @@
       </c>
       <c r="C131" s="1"/>
       <c r="E131">
-        <v>365</v>
+        <v>580</v>
       </c>
       <c r="F131" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G131" s="1">
         <v>0.92013888888888884</v>
@@ -2545,29 +2542,29 @@
       </c>
       <c r="C132" s="1"/>
       <c r="E132">
-        <v>580</v>
+        <v>429</v>
       </c>
       <c r="F132" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G132" s="1">
-        <v>0.92013888888888884</v>
+        <v>0.92361111111111116</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>7</v>
-      </c>
-      <c r="C133" s="1"/>
-      <c r="E133">
-        <v>574</v>
-      </c>
-      <c r="F133" t="s">
-        <v>12</v>
-      </c>
-      <c r="G133" s="1">
-        <v>0.92013888888888884</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B133" t="s">
+        <v>25</v>
+      </c>
+      <c r="C133" s="1">
+        <v>0.92986111111111114</v>
+      </c>
+      <c r="D133">
+        <v>4339</v>
+      </c>
+      <c r="G133" s="1"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
@@ -2575,13 +2572,13 @@
       </c>
       <c r="C134" s="1"/>
       <c r="E134">
-        <v>315</v>
+        <v>578</v>
       </c>
       <c r="F134" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G134" s="1">
-        <v>0.92013888888888884</v>
+        <v>0.93055555555555558</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -2590,29 +2587,29 @@
       </c>
       <c r="C135" s="1"/>
       <c r="E135">
-        <v>457</v>
+        <v>627</v>
       </c>
       <c r="F135" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G135" s="1">
-        <v>0.92013888888888884</v>
+        <v>0.93402777777777779</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>28</v>
-      </c>
-      <c r="B136" t="s">
-        <v>29</v>
-      </c>
-      <c r="C136" s="1">
-        <v>0.92361111111111116</v>
-      </c>
-      <c r="D136">
-        <v>878</v>
-      </c>
-      <c r="G136" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C136" s="1"/>
+      <c r="E136">
+        <v>574</v>
+      </c>
+      <c r="F136" t="s">
+        <v>11</v>
+      </c>
+      <c r="G136" s="1">
+        <v>0.9375</v>
+      </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
@@ -2620,13 +2617,13 @@
       </c>
       <c r="C137" s="1"/>
       <c r="E137">
-        <v>429</v>
+        <v>315</v>
       </c>
       <c r="F137" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G137" s="1">
-        <v>0.92361111111111116</v>
+        <v>0.94097222222222221</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -2635,13 +2632,13 @@
       </c>
       <c r="C138" s="1"/>
       <c r="E138">
-        <v>658</v>
+        <v>568</v>
       </c>
       <c r="F138" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G138" s="1">
-        <v>0.92361111111111116</v>
+        <v>0.94444444444444442</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -2650,28 +2647,118 @@
       </c>
       <c r="C139" s="1"/>
       <c r="E139">
-        <v>452</v>
+        <v>658</v>
       </c>
       <c r="F139" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G139" s="1">
-        <v>0.92361111111111116</v>
+        <v>0.94444444444444442</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>7</v>
-      </c>
-      <c r="C140" s="1"/>
-      <c r="E140">
-        <v>651</v>
-      </c>
-      <c r="F140" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140" t="s">
+        <v>36</v>
+      </c>
+      <c r="C140" s="1">
+        <v>0.94930555555555562</v>
+      </c>
+      <c r="D140">
+        <v>1425</v>
+      </c>
+      <c r="G140" s="1"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" s="1"/>
+      <c r="E141">
+        <v>452</v>
+      </c>
+      <c r="F141" t="s">
+        <v>8</v>
+      </c>
+      <c r="G141" s="1">
+        <v>0.95486111111111116</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" s="1"/>
+      <c r="E142">
+        <v>457</v>
+      </c>
+      <c r="F142" t="s">
+        <v>14</v>
+      </c>
+      <c r="G142" s="1">
+        <v>0.95486111111111116</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" s="1"/>
+      <c r="E143">
+        <v>432</v>
+      </c>
+      <c r="F143" t="s">
         <v>23</v>
       </c>
-      <c r="G140" s="1">
-        <v>0.92708333333333337</v>
+      <c r="G143" s="1">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" s="1"/>
+      <c r="E144">
+        <v>4336</v>
+      </c>
+      <c r="F144" t="s">
+        <v>36</v>
+      </c>
+      <c r="G144" s="1">
+        <v>0.97152777777777777</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>26</v>
+      </c>
+      <c r="B145" t="s">
+        <v>27</v>
+      </c>
+      <c r="C145" s="1">
+        <v>0.98402777777777783</v>
+      </c>
+      <c r="D145">
+        <v>878</v>
+      </c>
+      <c r="G145" s="1"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" s="1"/>
+      <c r="E146">
+        <v>339</v>
+      </c>
+      <c r="F146" t="s">
+        <v>36</v>
+      </c>
+      <c r="G146" s="1">
+        <v>0.99583333333333324</v>
       </c>
     </row>
   </sheetData>

--- a/public/operaciones.xlsx
+++ b/public/operaciones.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulm\Desktop\Itinerarios_2026-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EE66B49-CF9B-4189-99C4-F05CEA7CEB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D2C14FE-AC88-4C63-BFCC-7FE7D22EAB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{047B6AFD-DC25-446B-B490-CE9721E3D43E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FE410091-1E31-46A6-A894-58DBD3F66523}"/>
   </bookViews>
   <sheets>
-    <sheet name="11-02" sheetId="1" r:id="rId1"/>
+    <sheet name="12-02" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="50">
   <si>
     <t>AEROLINEA</t>
   </si>
@@ -71,9 +71,15 @@
     <t>KIAD</t>
   </si>
   <si>
+    <t>KONT</t>
+  </si>
+  <si>
     <t>MHLM</t>
   </si>
   <si>
+    <t>KOAK</t>
+  </si>
+  <si>
     <t>KLAX</t>
   </si>
   <si>
@@ -83,6 +89,9 @@
     <t>SEQM</t>
   </si>
   <si>
+    <t>MMMX</t>
+  </si>
+  <si>
     <t>MGGT</t>
   </si>
   <si>
@@ -104,10 +113,13 @@
     <t>KJFK</t>
   </si>
   <si>
-    <t>VOI</t>
-  </si>
-  <si>
-    <t>MMMX</t>
+    <t>KEWR</t>
+  </si>
+  <si>
+    <t>TAG</t>
+  </si>
+  <si>
+    <t>MHRO</t>
   </si>
   <si>
     <t>AAL</t>
@@ -137,40 +149,40 @@
     <t>KDFW</t>
   </si>
   <si>
+    <t>NKS</t>
+  </si>
+  <si>
+    <t>KFLL</t>
+  </si>
+  <si>
+    <t>SKRG</t>
+  </si>
+  <si>
+    <t>MMUN</t>
+  </si>
+  <si>
     <t>IBE</t>
   </si>
   <si>
     <t>CYYZ</t>
   </si>
   <si>
-    <t>KBOS</t>
-  </si>
-  <si>
-    <t>KEWR</t>
+    <t>DHL</t>
+  </si>
+  <si>
+    <t>AJT</t>
+  </si>
+  <si>
+    <t>FDX</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>MHTG</t>
   </si>
   <si>
     <t>TPA</t>
-  </si>
-  <si>
-    <t>DHL</t>
-  </si>
-  <si>
-    <t>AJT</t>
-  </si>
-  <si>
-    <t>FDX</t>
-  </si>
-  <si>
-    <t>ARM</t>
-  </si>
-  <si>
-    <t>MHTG</t>
-  </si>
-  <si>
-    <t>SKRG</t>
-  </si>
-  <si>
-    <t>KOAK</t>
   </si>
   <si>
     <t>LEMD</t>
@@ -548,8 +560,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4BE954-F71E-418D-B458-2BA81A05C6F5}">
-  <dimension ref="A1:G146"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A45A6B5-1915-43B3-A74C-B323DC5E0476}">
+  <dimension ref="A1:G149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,13 +600,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
-        <v>2.013888888888889E-2</v>
+        <v>8.2638888888888887E-2</v>
       </c>
       <c r="D2">
         <v>4156</v>
@@ -603,63 +615,63 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.18402777777777779</v>
-      </c>
-      <c r="D3">
-        <v>222</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="E3">
+        <v>1670</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="E4">
-        <v>1670</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.20833333333333334</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.18402777777777779</v>
+      </c>
+      <c r="D4">
+        <v>222</v>
+      </c>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="E5">
-        <v>879</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.20972222222222223</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D5">
+        <v>453</v>
+      </c>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.21527777777777779</v>
-      </c>
-      <c r="D6">
-        <v>453</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="E6">
+        <v>879</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.20972222222222223</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -687,82 +699,82 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="D8">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1">
-        <v>0.22569444444444445</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="D9">
-        <v>224</v>
+        <v>575</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1">
-        <v>0.23541666666666666</v>
+        <v>0.22569444444444445</v>
       </c>
       <c r="D10">
-        <v>4309</v>
+        <v>224</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
       <c r="C11" s="1">
-        <v>0.23958333333333334</v>
+        <v>0.23472222222222222</v>
       </c>
       <c r="D11">
-        <v>1266</v>
+        <v>4323</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="1">
-        <v>0.24652777777777779</v>
+        <v>0.23541666666666666</v>
       </c>
       <c r="D12">
-        <v>456</v>
+        <v>4309</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
-        <v>0.25694444444444442</v>
+        <v>0.23958333333333334</v>
       </c>
       <c r="D13">
-        <v>579</v>
+        <v>1266</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -774,10 +786,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.24652777777777779</v>
       </c>
       <c r="D14">
-        <v>366</v>
+        <v>456</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -786,13 +798,13 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="D15">
-        <v>529</v>
+        <v>433</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -801,43 +813,43 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1">
-        <v>0.2638888888888889</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="D16">
-        <v>314</v>
+        <v>579</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="E17">
-        <v>4326</v>
-      </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.2638888888888889</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="D17">
+        <v>366</v>
+      </c>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1">
-        <v>0.2673611111111111</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D18">
-        <v>428</v>
+        <v>529</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -846,30 +858,30 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1">
-        <v>0.2673611111111111</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="D19">
-        <v>626</v>
+        <v>314</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D20">
-        <v>561</v>
-      </c>
-      <c r="G20" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="E20">
+        <v>4326</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.2638888888888889</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -879,10 +891,10 @@
         <v>21</v>
       </c>
       <c r="C21" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D21">
-        <v>571</v>
+        <v>428</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -891,90 +903,90 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D22">
-        <v>591</v>
+        <v>650</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="E23">
-        <v>4318</v>
-      </c>
-      <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.28611111111111109</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D23">
+        <v>561</v>
+      </c>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="E24">
-        <v>1467</v>
-      </c>
-      <c r="F24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.28819444444444448</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D24">
+        <v>571</v>
+      </c>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D25">
-        <v>521</v>
+        <v>591</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1"/>
       <c r="E26">
-        <v>323</v>
+        <v>1467</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G26" s="1">
-        <v>0.3125</v>
+        <v>0.28819444444444448</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="E27">
-        <v>396</v>
-      </c>
-      <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0.3125</v>
-      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D27">
+        <v>521</v>
+      </c>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -982,13 +994,13 @@
       </c>
       <c r="C28" s="1"/>
       <c r="E28">
-        <v>4338</v>
+        <v>4330</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G28" s="1">
-        <v>0.31527777777777777</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -997,13 +1009,13 @@
       </c>
       <c r="C29" s="1"/>
       <c r="E29">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G29" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1012,13 +1024,13 @@
       </c>
       <c r="C30" s="1"/>
       <c r="E30">
-        <v>440</v>
+        <v>323</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1027,28 +1039,28 @@
       </c>
       <c r="C31" s="1"/>
       <c r="E31">
-        <v>536</v>
+        <v>396</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G31" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1"/>
       <c r="E32">
-        <v>444</v>
+        <v>884</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G32" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1057,29 +1069,29 @@
       </c>
       <c r="C33" s="1"/>
       <c r="E33">
-        <v>562</v>
+        <v>310</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G33" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D34">
-        <v>5300</v>
-      </c>
-      <c r="G34" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="E34">
+        <v>440</v>
+      </c>
+      <c r="F34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.31597222222222221</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -1087,13 +1099,13 @@
       </c>
       <c r="C35" s="1"/>
       <c r="E35">
-        <v>368</v>
+        <v>536</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G35" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1102,13 +1114,13 @@
       </c>
       <c r="C36" s="1"/>
       <c r="E36">
-        <v>383</v>
+        <v>562</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G36" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1117,10 +1129,10 @@
       </c>
       <c r="C37" s="1"/>
       <c r="E37">
-        <v>522</v>
+        <v>368</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G37" s="1">
         <v>0.33333333333333331</v>
@@ -1128,14 +1140,14 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C38" s="1"/>
       <c r="E38">
-        <v>5300</v>
+        <v>383</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G38" s="1">
         <v>0.33333333333333331</v>
@@ -1145,31 +1157,31 @@
       <c r="A39" t="s">
         <v>7</v>
       </c>
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0.33680555555555558</v>
-      </c>
-      <c r="D39">
-        <v>581</v>
-      </c>
-      <c r="G39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="E39">
+        <v>522</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="E40">
-        <v>660</v>
-      </c>
-      <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" s="1">
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1">
         <v>0.33680555555555558</v>
       </c>
+      <c r="D40">
+        <v>581</v>
+      </c>
+      <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -1177,13 +1189,13 @@
       </c>
       <c r="C41" s="1"/>
       <c r="E41">
-        <v>454</v>
+        <v>660</v>
       </c>
       <c r="F41" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G41" s="1">
-        <v>0.34027777777777779</v>
+        <v>0.33680555555555558</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1192,10 +1204,10 @@
       </c>
       <c r="C42" s="1"/>
       <c r="E42">
-        <v>554</v>
+        <v>454</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G42" s="1">
         <v>0.34027777777777779</v>
@@ -1207,59 +1219,59 @@
       </c>
       <c r="C43" s="1"/>
       <c r="E43">
-        <v>324</v>
+        <v>572</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="G43" s="1">
-        <v>0.34375</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0.34722222222222221</v>
-      </c>
-      <c r="D44">
-        <v>4053</v>
-      </c>
-      <c r="G44" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="E44">
+        <v>324</v>
+      </c>
+      <c r="F44" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.34375</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C45" s="1"/>
       <c r="E45">
-        <v>884</v>
+        <v>369</v>
       </c>
       <c r="F45" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G45" s="1">
-        <v>0.3576388888888889</v>
+        <v>0.37847222222222221</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
-      <c r="B46" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="1">
+      <c r="C46" s="1"/>
+      <c r="E46">
+        <v>430</v>
+      </c>
+      <c r="F46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="1">
         <v>0.37847222222222221</v>
       </c>
-      <c r="D46">
-        <v>559</v>
-      </c>
-      <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -1267,29 +1279,29 @@
       </c>
       <c r="C47" s="1"/>
       <c r="E47">
-        <v>369</v>
+        <v>582</v>
       </c>
       <c r="F47" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G47" s="1">
-        <v>0.37847222222222221</v>
+        <v>0.39930555555555558</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="E48">
-        <v>430</v>
-      </c>
-      <c r="F48" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" s="1">
-        <v>0.37847222222222221</v>
-      </c>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="D48">
+        <v>569</v>
+      </c>
+      <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -1297,72 +1309,72 @@
       </c>
       <c r="C49" s="1"/>
       <c r="E49">
-        <v>582</v>
+        <v>392</v>
       </c>
       <c r="F49" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G49" s="1">
-        <v>0.39930555555555558</v>
+        <v>0.41319444444444442</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>37</v>
-      </c>
-      <c r="B50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0.40972222222222221</v>
-      </c>
-      <c r="D50">
-        <v>4053</v>
-      </c>
-      <c r="G50" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="E50">
+        <v>609</v>
+      </c>
+      <c r="F50" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.4236111111111111</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0.41319444444444442</v>
-      </c>
-      <c r="D51">
-        <v>659</v>
-      </c>
-      <c r="G51" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="E51">
+        <v>4320</v>
+      </c>
+      <c r="F51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.4236111111111111</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="1"/>
-      <c r="E52">
-        <v>392</v>
-      </c>
-      <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" s="1">
-        <v>0.41319444444444442</v>
-      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D52">
+        <v>537</v>
+      </c>
+      <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C53" s="1">
-        <v>0.4236111111111111</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="D53">
-        <v>731</v>
+        <v>455</v>
       </c>
       <c r="G53" s="1"/>
     </row>
@@ -1370,44 +1382,44 @@
       <c r="A54" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="E54">
-        <v>613</v>
-      </c>
-      <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" s="1">
-        <v>0.4236111111111111</v>
-      </c>
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D54">
+        <v>320</v>
+      </c>
+      <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C55" s="1">
-        <v>0.42708333333333331</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="D55">
-        <v>537</v>
+        <v>573</v>
       </c>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C56" s="1">
-        <v>0.44791666666666669</v>
+        <v>0.45347222222222222</v>
       </c>
       <c r="D56">
-        <v>455</v>
+        <v>4337</v>
       </c>
       <c r="G56" s="1"/>
     </row>
@@ -1416,7 +1428,7 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C57" s="1">
         <v>0.46180555555555558</v>
@@ -1428,48 +1440,48 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C58" s="1">
-        <v>0.4861111111111111</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="D58">
-        <v>730</v>
+        <v>741</v>
       </c>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" s="1">
-        <v>0.49444444444444446</v>
-      </c>
-      <c r="D59">
-        <v>4301</v>
-      </c>
-      <c r="G59" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="E59">
+        <v>584</v>
+      </c>
+      <c r="F59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.49305555555555558</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>26</v>
-      </c>
-      <c r="B60" t="s">
-        <v>27</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D60">
-        <v>916</v>
-      </c>
-      <c r="G60" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="E60">
+        <v>650</v>
+      </c>
+      <c r="F60" t="s">
+        <v>40</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.49305555555555558</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -1480,7 +1492,7 @@
         <v>385</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G61" s="1">
         <v>0.50347222222222221</v>
@@ -1492,10 +1504,10 @@
       </c>
       <c r="C62" s="1"/>
       <c r="E62">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G62" s="1">
         <v>0.50347222222222221</v>
@@ -1510,7 +1522,7 @@
         <v>319</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G63" s="1">
         <v>0.51041666666666663</v>
@@ -1518,100 +1530,100 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C64" s="1">
         <v>0.52083333333333337</v>
       </c>
       <c r="D64">
-        <v>4</v>
+        <v>420</v>
       </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C65" s="1">
-        <v>0.52152777777777781</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="D65">
-        <v>339</v>
+        <v>4</v>
       </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="1"/>
-      <c r="E66">
-        <v>4340</v>
-      </c>
-      <c r="F66" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" s="1">
+        <v>28</v>
+      </c>
+      <c r="B66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="1">
         <v>0.52569444444444446</v>
       </c>
+      <c r="D66">
+        <v>739</v>
+      </c>
+      <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C67" s="1">
-        <v>0.52986111111111112</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="D67">
-        <v>816</v>
+        <v>740</v>
       </c>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C68" s="1">
-        <v>0.54861111111111105</v>
+        <v>0.52986111111111112</v>
       </c>
       <c r="D68">
-        <v>1910</v>
+        <v>816</v>
       </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C69" s="1">
-        <v>0.55208333333333337</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="D69">
-        <v>916</v>
+        <v>1910</v>
       </c>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C70" s="1">
         <v>0.55486111111111114</v>
@@ -1623,25 +1635,25 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C71" s="1"/>
       <c r="E71">
-        <v>348</v>
+        <v>421</v>
       </c>
       <c r="F71" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G71" s="1">
-        <v>0.56319444444444444</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C72" s="1">
         <v>0.56666666666666665</v>
@@ -1653,46 +1665,46 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C73" s="1"/>
       <c r="E73">
-        <v>871</v>
+        <v>2820</v>
       </c>
       <c r="F73" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G73" s="1">
-        <v>0.57291666666666663</v>
+        <v>0.56736111111111109</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="E74">
+        <v>871</v>
+      </c>
+      <c r="F74" t="s">
         <v>31</v>
       </c>
-      <c r="B74" t="s">
-        <v>23</v>
-      </c>
-      <c r="C74" s="1">
-        <v>0.58680555555555558</v>
-      </c>
-      <c r="D74">
-        <v>628</v>
-      </c>
-      <c r="G74" s="1"/>
+      <c r="G74" s="1">
+        <v>0.57291666666666663</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B75" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C75" s="1">
-        <v>0.59791666666666665</v>
+        <v>0.57986111111111105</v>
       </c>
       <c r="D75">
-        <v>1035</v>
+        <v>628</v>
       </c>
       <c r="G75" s="1"/>
     </row>
@@ -1700,149 +1712,149 @@
       <c r="A76" t="s">
         <v>28</v>
       </c>
-      <c r="C76" s="1"/>
-      <c r="E76">
-        <v>1978</v>
-      </c>
-      <c r="F76" t="s">
-        <v>29</v>
-      </c>
-      <c r="G76" s="1">
-        <v>0.60763888888888895</v>
-      </c>
+      <c r="B76" t="s">
+        <v>36</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0.58402777777777781</v>
+      </c>
+      <c r="D76">
+        <v>1035</v>
+      </c>
+      <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C77" s="1"/>
       <c r="E77">
-        <v>1468</v>
+        <v>1978</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G77" s="1">
-        <v>0.61805555555555558</v>
+        <v>0.60763888888888895</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C78" s="1">
-        <v>0.62222222222222223</v>
+        <v>0.61597222222222225</v>
       </c>
       <c r="D78">
-        <v>4319</v>
+        <v>3151</v>
       </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C79" s="1"/>
       <c r="E79">
-        <v>629</v>
+        <v>1468</v>
       </c>
       <c r="F79" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G79" s="1">
-        <v>0.63263888888888886</v>
+        <v>0.61805555555555558</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>24</v>
-      </c>
-      <c r="C80" s="1"/>
-      <c r="E80">
-        <v>1104</v>
-      </c>
-      <c r="F80" t="s">
-        <v>32</v>
-      </c>
-      <c r="G80" s="1">
-        <v>0.63958333333333328</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B80" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="D80">
+        <v>1031</v>
+      </c>
+      <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81" t="s">
-        <v>30</v>
-      </c>
-      <c r="C81" s="1">
-        <v>0.64166666666666672</v>
-      </c>
-      <c r="D81">
-        <v>1290</v>
-      </c>
-      <c r="G81" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="E81">
+        <v>1104</v>
+      </c>
+      <c r="F81" t="s">
+        <v>36</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0.62777777777777777</v>
+      </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>41</v>
-      </c>
-      <c r="B82" t="s">
-        <v>15</v>
-      </c>
-      <c r="C82" s="1">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="D82">
-        <v>4</v>
-      </c>
-      <c r="G82" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="E82">
+        <v>629</v>
+      </c>
+      <c r="F82" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0.63263888888888886</v>
+      </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C83" s="1">
-        <v>0.65277777777777779</v>
+        <v>0.64166666666666672</v>
       </c>
       <c r="D83">
-        <v>382</v>
+        <v>1290</v>
       </c>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" s="1"/>
-      <c r="E84">
-        <v>317</v>
-      </c>
-      <c r="F84" t="s">
-        <v>27</v>
-      </c>
-      <c r="G84" s="1">
-        <v>0.65625</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D84">
+        <v>4</v>
+      </c>
+      <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C85" s="1">
-        <v>0.66527777777777775</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="D85">
-        <v>7139</v>
+        <v>382</v>
       </c>
       <c r="G85" s="1"/>
     </row>
@@ -1850,44 +1862,44 @@
       <c r="A86" t="s">
         <v>7</v>
       </c>
-      <c r="B86" t="s">
-        <v>30</v>
-      </c>
-      <c r="C86" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D86">
-        <v>367</v>
-      </c>
-      <c r="G86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="E86">
+        <v>317</v>
+      </c>
+      <c r="F86" t="s">
+        <v>31</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0.65625</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>9</v>
-      </c>
-      <c r="B87" t="s">
-        <v>19</v>
-      </c>
-      <c r="C87" s="1">
-        <v>0.66736111111111107</v>
-      </c>
-      <c r="D87">
-        <v>4341</v>
-      </c>
-      <c r="G87" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="E87">
+        <v>352</v>
+      </c>
+      <c r="F87" t="s">
+        <v>29</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0.65763888888888888</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C88" s="1">
-        <v>0.66736111111111107</v>
+        <v>0.66527777777777775</v>
       </c>
       <c r="D88">
-        <v>4082</v>
+        <v>7139</v>
       </c>
       <c r="G88" s="1"/>
     </row>
@@ -1896,58 +1908,58 @@
         <v>7</v>
       </c>
       <c r="B89" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C89" s="1">
-        <v>0.68055555555555558</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D89">
-        <v>441</v>
+        <v>367</v>
       </c>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" s="1"/>
-      <c r="E90">
-        <v>4322</v>
-      </c>
-      <c r="F90" t="s">
-        <v>44</v>
-      </c>
-      <c r="G90" s="1">
-        <v>0.68611111111111112</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B90" t="s">
+        <v>39</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D90">
+        <v>370</v>
+      </c>
+      <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>7</v>
-      </c>
-      <c r="B91" t="s">
-        <v>25</v>
-      </c>
-      <c r="C91" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="D91">
-        <v>311</v>
-      </c>
-      <c r="G91" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="E91">
+        <v>1032</v>
+      </c>
+      <c r="F91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0.66805555555555562</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>7</v>
       </c>
       <c r="B92" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C92" s="1">
-        <v>0.6875</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="D92">
-        <v>318</v>
+        <v>397</v>
       </c>
       <c r="G92" s="1"/>
     </row>
@@ -1956,43 +1968,43 @@
         <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C93" s="1">
-        <v>0.69097222222222221</v>
+        <v>0.68055555555555558</v>
       </c>
       <c r="D93">
-        <v>555</v>
+        <v>441</v>
       </c>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>13</v>
-      </c>
-      <c r="C94" s="1"/>
-      <c r="E94">
-        <v>1130</v>
-      </c>
-      <c r="F94" t="s">
-        <v>30</v>
-      </c>
-      <c r="G94" s="1">
-        <v>0.69444444444444453</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B94" t="s">
+        <v>40</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="D94">
+        <v>651</v>
+      </c>
+      <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C95" s="1">
-        <v>0.69722222222222219</v>
+        <v>0.6875</v>
       </c>
       <c r="D95">
-        <v>4327</v>
+        <v>311</v>
       </c>
       <c r="G95" s="1"/>
     </row>
@@ -2001,75 +2013,75 @@
         <v>7</v>
       </c>
       <c r="B96" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C96" s="1">
-        <v>0.70138888888888884</v>
+        <v>0.6875</v>
       </c>
       <c r="D96">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C97" s="1"/>
       <c r="E97">
-        <v>520</v>
+        <v>1130</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G97" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.69444444444444453</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" s="1"/>
-      <c r="E98">
-        <v>560</v>
-      </c>
-      <c r="F98" t="s">
-        <v>20</v>
-      </c>
-      <c r="G98" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0.69722222222222219</v>
+      </c>
+      <c r="D98">
+        <v>4327</v>
+      </c>
+      <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" s="1"/>
-      <c r="E99">
-        <v>588</v>
-      </c>
-      <c r="F99" t="s">
-        <v>15</v>
-      </c>
-      <c r="G99" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0.69722222222222219</v>
+      </c>
+      <c r="D99">
+        <v>4083</v>
+      </c>
+      <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>7</v>
       </c>
-      <c r="C100" s="1"/>
-      <c r="E100">
-        <v>617</v>
-      </c>
-      <c r="F100" t="s">
-        <v>19</v>
-      </c>
-      <c r="G100" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+      <c r="B100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D100">
+        <v>322</v>
+      </c>
+      <c r="G100" s="1"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -2077,13 +2089,13 @@
       </c>
       <c r="C101" s="1"/>
       <c r="E101">
-        <v>448</v>
+        <v>520</v>
       </c>
       <c r="F101" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G101" s="1">
-        <v>0.74305555555555558</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -2092,44 +2104,44 @@
       </c>
       <c r="C102" s="1"/>
       <c r="E102">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="F102" t="s">
         <v>11</v>
       </c>
       <c r="G102" s="1">
-        <v>0.74305555555555558</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C103" s="1"/>
       <c r="E103">
-        <v>4308</v>
+        <v>560</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G103" s="1">
-        <v>0.74583333333333335</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>7</v>
       </c>
-      <c r="B104" t="s">
-        <v>19</v>
-      </c>
-      <c r="C104" s="1">
-        <v>0.74652777777777779</v>
-      </c>
-      <c r="D104">
-        <v>612</v>
-      </c>
-      <c r="G104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="E104">
+        <v>588</v>
+      </c>
+      <c r="F104" t="s">
+        <v>18</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
@@ -2137,132 +2149,132 @@
       </c>
       <c r="C105" s="1"/>
       <c r="E105">
-        <v>528</v>
+        <v>615</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G105" s="1">
-        <v>0.76041666666666663</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>9</v>
       </c>
-      <c r="C106" s="1"/>
-      <c r="E106">
-        <v>4312</v>
-      </c>
-      <c r="F106" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="1">
-        <v>0.77638888888888891</v>
-      </c>
+      <c r="B106" t="s">
+        <v>34</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0.73472222222222228</v>
+      </c>
+      <c r="D106">
+        <v>4321</v>
+      </c>
+      <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C107" s="1"/>
       <c r="E107">
-        <v>4082</v>
+        <v>534</v>
       </c>
       <c r="F107" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G107" s="1">
-        <v>0.77638888888888891</v>
+        <v>0.74305555555555558</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>38</v>
-      </c>
-      <c r="B108" t="s">
-        <v>42</v>
-      </c>
-      <c r="C108" s="1">
-        <v>0.78125</v>
-      </c>
-      <c r="D108">
-        <v>930</v>
-      </c>
-      <c r="G108" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="E108">
+        <v>4308</v>
+      </c>
+      <c r="F108" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0.74583333333333335</v>
+      </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>7</v>
       </c>
-      <c r="B109" t="s">
-        <v>23</v>
-      </c>
-      <c r="C109" s="1">
-        <v>0.79513888888888884</v>
-      </c>
-      <c r="D109">
-        <v>431</v>
-      </c>
-      <c r="G109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="E109">
+        <v>528</v>
+      </c>
+      <c r="F109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0.76041666666666663</v>
+      </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C110" s="1">
-        <v>0.8125</v>
+        <v>0.7631944444444444</v>
       </c>
       <c r="D110">
-        <v>222</v>
+        <v>4040</v>
       </c>
       <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C111" s="1"/>
       <c r="E111">
-        <v>570</v>
+        <v>4312</v>
       </c>
       <c r="F111" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G111" s="1">
-        <v>0.8125</v>
+        <v>0.77638888888888891</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B112" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C112" s="1">
-        <v>0.81944444444444442</v>
+        <v>0.78125</v>
       </c>
       <c r="D112">
-        <v>425</v>
+        <v>930</v>
       </c>
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C113" s="1">
-        <v>0.82291666666666663</v>
+        <v>0.78541666666666665</v>
       </c>
       <c r="D113">
-        <v>932</v>
+        <v>4158</v>
       </c>
       <c r="G113" s="1"/>
     </row>
@@ -2270,29 +2282,29 @@
       <c r="A114" t="s">
         <v>7</v>
       </c>
-      <c r="B114" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114" s="1">
-        <v>0.82638888888888884</v>
-      </c>
-      <c r="D114">
-        <v>523</v>
-      </c>
-      <c r="G114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="E114">
+        <v>558</v>
+      </c>
+      <c r="F114" t="s">
+        <v>23</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0.78819444444444442</v>
+      </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C115" s="1">
-        <v>0.82986111111111116</v>
+        <v>0.79027777777777775</v>
       </c>
       <c r="D115">
-        <v>583</v>
+        <v>4331</v>
       </c>
       <c r="G115" s="1"/>
     </row>
@@ -2301,58 +2313,58 @@
         <v>7</v>
       </c>
       <c r="B116" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C116" s="1">
-        <v>0.84375</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="D116">
-        <v>325</v>
+        <v>431</v>
       </c>
       <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>7</v>
-      </c>
-      <c r="B117" t="s">
-        <v>35</v>
-      </c>
-      <c r="C117" s="1">
-        <v>0.84375</v>
-      </c>
-      <c r="D117">
-        <v>445</v>
-      </c>
-      <c r="G117" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="E117">
+        <v>4041</v>
+      </c>
+      <c r="F117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G117" s="1">
+        <v>0.79513888888888884</v>
+      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C118" s="1"/>
       <c r="E118">
-        <v>590</v>
+        <v>4083</v>
       </c>
       <c r="F118" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G118" s="1">
-        <v>0.85069444444444442</v>
+        <v>0.79513888888888884</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B119" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C119" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.8125</v>
       </c>
       <c r="D119">
-        <v>393</v>
+        <v>222</v>
       </c>
       <c r="G119" s="1"/>
     </row>
@@ -2360,29 +2372,29 @@
       <c r="A120" t="s">
         <v>7</v>
       </c>
-      <c r="B120" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D120">
-        <v>449</v>
-      </c>
-      <c r="G120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="E120">
+        <v>570</v>
+      </c>
+      <c r="F120" t="s">
+        <v>24</v>
+      </c>
+      <c r="G120" s="1">
+        <v>0.8125</v>
+      </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B121" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C121" s="1">
-        <v>0.86041666666666661</v>
+        <v>0.82291666666666663</v>
       </c>
       <c r="D121">
-        <v>881</v>
+        <v>932</v>
       </c>
       <c r="G121" s="1"/>
     </row>
@@ -2391,13 +2403,13 @@
         <v>7</v>
       </c>
       <c r="B122" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C122" s="1">
-        <v>0.86805555555555558</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="D122">
-        <v>563</v>
+        <v>523</v>
       </c>
       <c r="G122" s="1"/>
     </row>
@@ -2406,13 +2418,13 @@
         <v>7</v>
       </c>
       <c r="B123" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C123" s="1">
-        <v>0.87152777777777779</v>
+        <v>0.82986111111111116</v>
       </c>
       <c r="D123">
-        <v>316</v>
+        <v>583</v>
       </c>
       <c r="G123" s="1"/>
     </row>
@@ -2421,88 +2433,88 @@
         <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C124" s="1">
-        <v>0.875</v>
+        <v>0.84375</v>
       </c>
       <c r="D124">
-        <v>535</v>
+        <v>325</v>
       </c>
       <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>33</v>
-      </c>
-      <c r="C125" s="1"/>
-      <c r="E125">
-        <v>222</v>
-      </c>
-      <c r="F125" t="s">
-        <v>45</v>
-      </c>
-      <c r="G125" s="1">
-        <v>0.875</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B125" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" s="1">
+        <v>0.84791666666666665</v>
+      </c>
+      <c r="D125">
+        <v>4158</v>
+      </c>
+      <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>7</v>
       </c>
-      <c r="B126" t="s">
-        <v>15</v>
-      </c>
-      <c r="C126" s="1">
-        <v>0.87847222222222221</v>
-      </c>
-      <c r="D126">
-        <v>589</v>
-      </c>
-      <c r="G126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="E126">
+        <v>590</v>
+      </c>
+      <c r="F126" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="1">
+        <v>0.85069444444444442</v>
+      </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>7</v>
       </c>
       <c r="B127" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C127" s="1">
-        <v>0.87847222222222221</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D127">
-        <v>616</v>
+        <v>393</v>
       </c>
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B128" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C128" s="1">
-        <v>0.87847222222222221</v>
+        <v>0.86041666666666661</v>
       </c>
       <c r="D128">
-        <v>661</v>
+        <v>881</v>
       </c>
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B129" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C129" s="1">
-        <v>0.8881944444444444</v>
+        <v>0.86805555555555558</v>
       </c>
       <c r="D129">
-        <v>1461</v>
+        <v>443</v>
       </c>
       <c r="G129" s="1"/>
     </row>
@@ -2510,166 +2522,166 @@
       <c r="A130" t="s">
         <v>7</v>
       </c>
-      <c r="C130" s="1"/>
-      <c r="E130">
-        <v>365</v>
-      </c>
-      <c r="F130" t="s">
-        <v>16</v>
-      </c>
-      <c r="G130" s="1">
-        <v>0.92013888888888884</v>
-      </c>
+      <c r="B130" t="s">
+        <v>23</v>
+      </c>
+      <c r="C130" s="1">
+        <v>0.86805555555555558</v>
+      </c>
+      <c r="D130">
+        <v>563</v>
+      </c>
+      <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>7</v>
       </c>
-      <c r="C131" s="1"/>
-      <c r="E131">
-        <v>580</v>
-      </c>
-      <c r="F131" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="1">
-        <v>0.92013888888888884</v>
-      </c>
+      <c r="B131" t="s">
+        <v>31</v>
+      </c>
+      <c r="C131" s="1">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="D131">
+        <v>316</v>
+      </c>
+      <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>7</v>
       </c>
-      <c r="C132" s="1"/>
-      <c r="E132">
-        <v>429</v>
-      </c>
-      <c r="F132" t="s">
-        <v>18</v>
-      </c>
-      <c r="G132" s="1">
-        <v>0.92361111111111116</v>
-      </c>
+      <c r="B132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="D132">
+        <v>535</v>
+      </c>
+      <c r="G132" s="1"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>9</v>
-      </c>
-      <c r="B133" t="s">
-        <v>25</v>
-      </c>
-      <c r="C133" s="1">
-        <v>0.92986111111111114</v>
-      </c>
-      <c r="D133">
-        <v>4339</v>
-      </c>
-      <c r="G133" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C133" s="1"/>
+      <c r="E133">
+        <v>222</v>
+      </c>
+      <c r="F133" t="s">
+        <v>49</v>
+      </c>
+      <c r="G133" s="1">
+        <v>0.875</v>
+      </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
-      <c r="C134" s="1"/>
-      <c r="E134">
-        <v>578</v>
-      </c>
-      <c r="F134" t="s">
-        <v>15</v>
-      </c>
-      <c r="G134" s="1">
-        <v>0.93055555555555558</v>
-      </c>
+      <c r="B134" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134" s="1">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="D134">
+        <v>589</v>
+      </c>
+      <c r="G134" s="1"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>7</v>
       </c>
-      <c r="C135" s="1"/>
-      <c r="E135">
-        <v>627</v>
-      </c>
-      <c r="F135" t="s">
-        <v>19</v>
-      </c>
-      <c r="G135" s="1">
-        <v>0.93402777777777779</v>
-      </c>
+      <c r="B135" t="s">
+        <v>22</v>
+      </c>
+      <c r="C135" s="1">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="D135">
+        <v>614</v>
+      </c>
+      <c r="G135" s="1"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>7</v>
       </c>
-      <c r="C136" s="1"/>
-      <c r="E136">
-        <v>574</v>
-      </c>
-      <c r="F136" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" s="1">
-        <v>0.9375</v>
-      </c>
+      <c r="B136" t="s">
+        <v>24</v>
+      </c>
+      <c r="C136" s="1">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="D136">
+        <v>661</v>
+      </c>
+      <c r="G136" s="1"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>7</v>
-      </c>
-      <c r="C137" s="1"/>
-      <c r="E137">
-        <v>315</v>
-      </c>
-      <c r="F137" t="s">
-        <v>17</v>
-      </c>
-      <c r="G137" s="1">
-        <v>0.94097222222222221</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B137" t="s">
+        <v>34</v>
+      </c>
+      <c r="C137" s="1">
+        <v>0.8881944444444444</v>
+      </c>
+      <c r="D137">
+        <v>1461</v>
+      </c>
+      <c r="G137" s="1"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>7</v>
       </c>
-      <c r="C138" s="1"/>
-      <c r="E138">
-        <v>568</v>
-      </c>
-      <c r="F138" t="s">
-        <v>21</v>
-      </c>
-      <c r="G138" s="1">
-        <v>0.94444444444444442</v>
-      </c>
+      <c r="B138" t="s">
+        <v>22</v>
+      </c>
+      <c r="C138" s="1">
+        <v>0.89236111111111116</v>
+      </c>
+      <c r="D138">
+        <v>608</v>
+      </c>
+      <c r="G138" s="1"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>7</v>
       </c>
-      <c r="C139" s="1"/>
-      <c r="E139">
-        <v>658</v>
-      </c>
-      <c r="F139" t="s">
-        <v>21</v>
-      </c>
-      <c r="G139" s="1">
-        <v>0.94444444444444442</v>
-      </c>
+      <c r="B139" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" s="1">
+        <v>0.91319444444444442</v>
+      </c>
+      <c r="D139">
+        <v>585</v>
+      </c>
+      <c r="G139" s="1"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>13</v>
-      </c>
-      <c r="B140" t="s">
-        <v>36</v>
-      </c>
-      <c r="C140" s="1">
-        <v>0.94930555555555562</v>
-      </c>
-      <c r="D140">
-        <v>1425</v>
-      </c>
-      <c r="G140" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C140" s="1"/>
+      <c r="E140">
+        <v>578</v>
+      </c>
+      <c r="F140" t="s">
+        <v>18</v>
+      </c>
+      <c r="G140" s="1">
+        <v>0.91666666666666663</v>
+      </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
@@ -2677,13 +2689,13 @@
       </c>
       <c r="C141" s="1"/>
       <c r="E141">
-        <v>452</v>
+        <v>365</v>
       </c>
       <c r="F141" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G141" s="1">
-        <v>0.95486111111111116</v>
+        <v>0.92013888888888884</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -2692,13 +2704,13 @@
       </c>
       <c r="C142" s="1"/>
       <c r="E142">
-        <v>457</v>
+        <v>580</v>
       </c>
       <c r="F142" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G142" s="1">
-        <v>0.95486111111111116</v>
+        <v>0.92013888888888884</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -2707,39 +2719,39 @@
       </c>
       <c r="C143" s="1"/>
       <c r="E143">
-        <v>432</v>
+        <v>315</v>
       </c>
       <c r="F143" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G143" s="1">
-        <v>0.95833333333333337</v>
+        <v>0.92013888888888884</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C144" s="1"/>
       <c r="E144">
-        <v>4336</v>
+        <v>457</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="G144" s="1">
-        <v>0.97152777777777777</v>
+        <v>0.92013888888888884</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B145" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C145" s="1">
-        <v>0.98402777777777783</v>
+        <v>0.92361111111111116</v>
       </c>
       <c r="D145">
         <v>878</v>
@@ -2748,17 +2760,62 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C146" s="1"/>
       <c r="E146">
-        <v>339</v>
+        <v>429</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G146" s="1">
-        <v>0.99583333333333324</v>
+        <v>0.92361111111111116</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" s="1"/>
+      <c r="E147">
+        <v>658</v>
+      </c>
+      <c r="F147" t="s">
+        <v>24</v>
+      </c>
+      <c r="G147" s="1">
+        <v>0.92361111111111116</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" s="1"/>
+      <c r="E148">
+        <v>452</v>
+      </c>
+      <c r="F148" t="s">
+        <v>8</v>
+      </c>
+      <c r="G148" s="1">
+        <v>0.92361111111111116</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" s="1"/>
+      <c r="E149">
+        <v>651</v>
+      </c>
+      <c r="F149" t="s">
+        <v>22</v>
+      </c>
+      <c r="G149" s="1">
+        <v>0.92708333333333337</v>
       </c>
     </row>
   </sheetData>

--- a/public/operaciones.xlsx
+++ b/public/operaciones.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulm\Desktop\Itinerarios_2026-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D2C14FE-AC88-4C63-BFCC-7FE7D22EAB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A81D23D2-D1D5-44CB-BD7D-BBC76041480F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FE410091-1E31-46A6-A894-58DBD3F66523}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8FE1E120-D4FC-47BE-A51E-B2426302A89E}"/>
   </bookViews>
   <sheets>
-    <sheet name="12-02" sheetId="1" r:id="rId1"/>
+    <sheet name="13-02" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="46">
   <si>
     <t>AEROLINEA</t>
   </si>
@@ -71,118 +71,106 @@
     <t>KIAD</t>
   </si>
   <si>
-    <t>KONT</t>
+    <t>KLAX</t>
+  </si>
+  <si>
+    <t>UAL</t>
+  </si>
+  <si>
+    <t>SEQM</t>
+  </si>
+  <si>
+    <t>MGGT</t>
+  </si>
+  <si>
+    <t>SKBO</t>
+  </si>
+  <si>
+    <t>MNMG</t>
+  </si>
+  <si>
+    <t>SPJC</t>
+  </si>
+  <si>
+    <t>MROC</t>
+  </si>
+  <si>
+    <t>KSFO</t>
+  </si>
+  <si>
+    <t>KJFK</t>
   </si>
   <si>
     <t>MHLM</t>
   </si>
   <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>KMIA</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>MPTO</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>KATL</t>
+  </si>
+  <si>
+    <t>KIAH</t>
+  </si>
+  <si>
+    <t>TSC</t>
+  </si>
+  <si>
+    <t>CYUL</t>
+  </si>
+  <si>
+    <t>AMX</t>
+  </si>
+  <si>
+    <t>MMMX</t>
+  </si>
+  <si>
+    <t>KDFW</t>
+  </si>
+  <si>
+    <t>IBE</t>
+  </si>
+  <si>
+    <t>CYYZ</t>
+  </si>
+  <si>
+    <t>KBOS</t>
+  </si>
+  <si>
+    <t>KEWR</t>
+  </si>
+  <si>
+    <t>DHL</t>
+  </si>
+  <si>
+    <t>TPA</t>
+  </si>
+  <si>
+    <t>AJT</t>
+  </si>
+  <si>
+    <t>MHTG</t>
+  </si>
+  <si>
+    <t>SKRG</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
     <t>KOAK</t>
-  </si>
-  <si>
-    <t>KLAX</t>
-  </si>
-  <si>
-    <t>UAL</t>
-  </si>
-  <si>
-    <t>SEQM</t>
-  </si>
-  <si>
-    <t>MMMX</t>
-  </si>
-  <si>
-    <t>MGGT</t>
-  </si>
-  <si>
-    <t>SKBO</t>
-  </si>
-  <si>
-    <t>MNMG</t>
-  </si>
-  <si>
-    <t>SPJC</t>
-  </si>
-  <si>
-    <t>MROC</t>
-  </si>
-  <si>
-    <t>KSFO</t>
-  </si>
-  <si>
-    <t>KJFK</t>
-  </si>
-  <si>
-    <t>KEWR</t>
-  </si>
-  <si>
-    <t>TAG</t>
-  </si>
-  <si>
-    <t>MHRO</t>
-  </si>
-  <si>
-    <t>AAL</t>
-  </si>
-  <si>
-    <t>KMIA</t>
-  </si>
-  <si>
-    <t>CMP</t>
-  </si>
-  <si>
-    <t>MPTO</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>KATL</t>
-  </si>
-  <si>
-    <t>KIAH</t>
-  </si>
-  <si>
-    <t>AMX</t>
-  </si>
-  <si>
-    <t>KDFW</t>
-  </si>
-  <si>
-    <t>NKS</t>
-  </si>
-  <si>
-    <t>KFLL</t>
-  </si>
-  <si>
-    <t>SKRG</t>
-  </si>
-  <si>
-    <t>MMUN</t>
-  </si>
-  <si>
-    <t>IBE</t>
-  </si>
-  <si>
-    <t>CYYZ</t>
-  </si>
-  <si>
-    <t>DHL</t>
-  </si>
-  <si>
-    <t>AJT</t>
-  </si>
-  <si>
-    <t>FDX</t>
-  </si>
-  <si>
-    <t>ARM</t>
-  </si>
-  <si>
-    <t>MHTG</t>
-  </si>
-  <si>
-    <t>TPA</t>
   </si>
   <si>
     <t>LEMD</t>
@@ -560,8 +548,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A45A6B5-1915-43B3-A74C-B323DC5E0476}">
-  <dimension ref="A1:G149"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18458445-A597-414E-ADB9-35EC6F312CC8}">
+  <dimension ref="A1:G141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,48 +588,48 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1">
-        <v>8.2638888888888887E-2</v>
+        <v>0.18402777777777779</v>
       </c>
       <c r="D2">
-        <v>4156</v>
+        <v>222</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1"/>
       <c r="E3">
         <v>1670</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1">
-        <v>0.125</v>
+        <v>0.20833333333333334</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.18402777777777779</v>
-      </c>
-      <c r="D4">
-        <v>222</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="E4">
+        <v>879</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.20972222222222223</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -651,7 +639,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>0.20833333333333334</v>
+        <v>0.21527777777777779</v>
       </c>
       <c r="D5">
         <v>453</v>
@@ -660,31 +648,31 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="E6">
-        <v>879</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.20972222222222223</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.21875</v>
+      </c>
+      <c r="D6">
+        <v>4313</v>
+      </c>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
-        <v>0.21875</v>
+        <v>0.22569444444444445</v>
       </c>
       <c r="D7">
-        <v>4313</v>
+        <v>224</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -692,89 +680,89 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="D8">
-        <v>531</v>
-      </c>
-      <c r="G8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="E8">
+        <v>556</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.22916666666666666</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="D9">
-        <v>575</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="E9">
+        <v>4350</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.22916666666666666</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>0.22569444444444445</v>
+        <v>0.23541666666666666</v>
       </c>
       <c r="D10">
-        <v>224</v>
+        <v>4309</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1">
-        <v>0.23472222222222222</v>
+        <v>0.23958333333333334</v>
       </c>
       <c r="D11">
-        <v>4323</v>
+        <v>1266</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
-        <v>0.23541666666666666</v>
+        <v>0.24652777777777779</v>
       </c>
       <c r="D12">
-        <v>4309</v>
+        <v>456</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1">
-        <v>0.23958333333333334</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="D13">
-        <v>1266</v>
+        <v>579</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -783,13 +771,13 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>0.24652777777777779</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D14">
-        <v>456</v>
+        <v>366</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -798,13 +786,13 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1">
-        <v>0.25347222222222221</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D15">
-        <v>433</v>
+        <v>529</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -813,43 +801,43 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1">
-        <v>0.25694444444444442</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="D16">
-        <v>579</v>
+        <v>314</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.26041666666666669</v>
-      </c>
-      <c r="D17">
-        <v>366</v>
-      </c>
-      <c r="G17" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="E17">
+        <v>4326</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.2638888888888889</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D18">
-        <v>529</v>
+        <v>428</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -858,43 +846,43 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1">
-        <v>0.2638888888888889</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D19">
-        <v>314</v>
+        <v>626</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="E20">
-        <v>4326</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.2638888888888889</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D20">
+        <v>561</v>
+      </c>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
-        <v>0.2673611111111111</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D21">
-        <v>428</v>
+        <v>571</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -903,90 +891,90 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C22" s="1">
-        <v>0.2673611111111111</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D22">
-        <v>650</v>
+        <v>591</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D23">
-        <v>561</v>
-      </c>
-      <c r="G23" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="E23">
+        <v>4318</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.28611111111111109</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D24">
-        <v>571</v>
-      </c>
-      <c r="G24" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="E24">
+        <v>1467</v>
+      </c>
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.28819444444444448</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="D25">
-        <v>591</v>
+        <v>521</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1"/>
       <c r="E26">
-        <v>1467</v>
+        <v>323</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G26" s="1">
-        <v>0.28819444444444448</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="D27">
-        <v>521</v>
-      </c>
-      <c r="G27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="E27">
+        <v>396</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -994,13 +982,13 @@
       </c>
       <c r="C28" s="1"/>
       <c r="E28">
-        <v>4330</v>
+        <v>4338</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G28" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.31527777777777777</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1009,13 +997,13 @@
       </c>
       <c r="C29" s="1"/>
       <c r="E29">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G29" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1024,13 +1012,13 @@
       </c>
       <c r="C30" s="1"/>
       <c r="E30">
-        <v>323</v>
+        <v>440</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G30" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1039,28 +1027,28 @@
       </c>
       <c r="C31" s="1"/>
       <c r="E31">
-        <v>396</v>
+        <v>536</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G31" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1"/>
       <c r="E32">
-        <v>884</v>
+        <v>444</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G32" s="1">
-        <v>0.3125</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1069,13 +1057,13 @@
       </c>
       <c r="C33" s="1"/>
       <c r="E33">
-        <v>310</v>
+        <v>562</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G33" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1084,13 +1072,13 @@
       </c>
       <c r="C34" s="1"/>
       <c r="E34">
-        <v>440</v>
+        <v>368</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G34" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1099,13 +1087,13 @@
       </c>
       <c r="C35" s="1"/>
       <c r="E35">
-        <v>536</v>
+        <v>383</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G35" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1114,29 +1102,29 @@
       </c>
       <c r="C36" s="1"/>
       <c r="E36">
-        <v>562</v>
+        <v>522</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G36" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="E37">
-        <v>368</v>
-      </c>
-      <c r="F37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="D37">
+        <v>581</v>
+      </c>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -1144,13 +1132,13 @@
       </c>
       <c r="C38" s="1"/>
       <c r="E38">
-        <v>383</v>
+        <v>660</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G38" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.33680555555555558</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1159,74 +1147,74 @@
       </c>
       <c r="C39" s="1"/>
       <c r="E39">
-        <v>522</v>
+        <v>554</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
       </c>
       <c r="G39" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0.33680555555555558</v>
-      </c>
-      <c r="D40">
-        <v>581</v>
-      </c>
-      <c r="G40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="E40">
+        <v>324</v>
+      </c>
+      <c r="F40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.34375</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C41" s="1"/>
       <c r="E41">
-        <v>660</v>
+        <v>884</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G41" s="1">
-        <v>0.33680555555555558</v>
+        <v>0.3576388888888889</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="E42">
-        <v>454</v>
-      </c>
-      <c r="F42" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0.34027777777777779</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="D42">
+        <v>4053</v>
+      </c>
+      <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="E43">
-        <v>572</v>
-      </c>
-      <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0.34027777777777779</v>
-      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.37847222222222221</v>
+      </c>
+      <c r="D43">
+        <v>559</v>
+      </c>
+      <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -1234,13 +1222,13 @@
       </c>
       <c r="C44" s="1"/>
       <c r="E44">
-        <v>324</v>
+        <v>430</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G44" s="1">
-        <v>0.34375</v>
+        <v>0.37847222222222221</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1249,29 +1237,29 @@
       </c>
       <c r="C45" s="1"/>
       <c r="E45">
-        <v>369</v>
+        <v>582</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="G45" s="1">
-        <v>0.37847222222222221</v>
+        <v>0.39930555555555558</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="E46">
-        <v>430</v>
-      </c>
-      <c r="F46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" s="1">
-        <v>0.37847222222222221</v>
-      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="D46">
+        <v>659</v>
+      </c>
+      <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -1279,102 +1267,102 @@
       </c>
       <c r="C47" s="1"/>
       <c r="E47">
-        <v>582</v>
+        <v>392</v>
       </c>
       <c r="F47" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G47" s="1">
-        <v>0.39930555555555558</v>
+        <v>0.41319444444444442</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
-      <c r="B48" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0.41319444444444442</v>
-      </c>
-      <c r="D48">
-        <v>569</v>
-      </c>
-      <c r="G48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="E48">
+        <v>613</v>
+      </c>
+      <c r="F48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.4236111111111111</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="E49">
-        <v>392</v>
-      </c>
-      <c r="F49" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" s="1">
-        <v>0.41319444444444442</v>
-      </c>
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D49">
+        <v>537</v>
+      </c>
+      <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="E50">
-        <v>609</v>
-      </c>
-      <c r="F50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" s="1">
-        <v>0.4236111111111111</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="D50">
+        <v>4053</v>
+      </c>
+      <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="E51">
-        <v>4320</v>
-      </c>
-      <c r="F51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G51" s="1">
-        <v>0.4236111111111111</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="D51">
+        <v>916</v>
+      </c>
+      <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C52" s="1">
-        <v>0.42708333333333331</v>
+        <v>0.46180555555555558</v>
       </c>
       <c r="D52">
-        <v>537</v>
+        <v>384</v>
       </c>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C53" s="1">
-        <v>0.44791666666666669</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="D53">
-        <v>455</v>
+        <v>857</v>
       </c>
       <c r="G53" s="1"/>
     </row>
@@ -1382,464 +1370,464 @@
       <c r="A54" t="s">
         <v>7</v>
       </c>
-      <c r="B54" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="D54">
-        <v>320</v>
-      </c>
-      <c r="G54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="E54">
+        <v>385</v>
+      </c>
+      <c r="F54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
-      <c r="B55" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55" s="1">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="D55">
-        <v>573</v>
-      </c>
-      <c r="G55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="E55">
+        <v>424</v>
+      </c>
+      <c r="F55" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0.45347222222222222</v>
-      </c>
-      <c r="D56">
-        <v>4337</v>
-      </c>
-      <c r="G56" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="E56">
+        <v>319</v>
+      </c>
+      <c r="F56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.51041666666666663</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C57" s="1">
-        <v>0.46180555555555558</v>
+        <v>0.5131944444444444</v>
       </c>
       <c r="D57">
-        <v>384</v>
+        <v>915</v>
       </c>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C58" s="1">
-        <v>0.46527777777777773</v>
+        <v>0.52569444444444446</v>
       </c>
       <c r="D58">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="1"/>
-      <c r="E59">
-        <v>584</v>
-      </c>
-      <c r="F59" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="1">
-        <v>0.49305555555555558</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="D59">
+        <v>816</v>
+      </c>
+      <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="E60">
-        <v>650</v>
-      </c>
-      <c r="F60" t="s">
-        <v>40</v>
-      </c>
-      <c r="G60" s="1">
-        <v>0.49305555555555558</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="D60">
+        <v>1910</v>
+      </c>
+      <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="E61">
-        <v>385</v>
-      </c>
-      <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="D61">
+        <v>856</v>
+      </c>
+      <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="1"/>
-      <c r="E62">
-        <v>442</v>
-      </c>
-      <c r="F62" t="s">
-        <v>36</v>
-      </c>
-      <c r="G62" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.55486111111111114</v>
+      </c>
+      <c r="D62">
+        <v>1441</v>
+      </c>
+      <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="1"/>
-      <c r="E63">
-        <v>319</v>
-      </c>
-      <c r="F63" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" s="1">
-        <v>0.51041666666666663</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="D63">
+        <v>760</v>
+      </c>
+      <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C64" s="1">
-        <v>0.52083333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="D64">
-        <v>420</v>
+        <v>3</v>
       </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65" t="s">
-        <v>18</v>
-      </c>
-      <c r="C65" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="D65">
-        <v>4</v>
-      </c>
-      <c r="G65" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="E65">
+        <v>2820</v>
+      </c>
+      <c r="F65" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.56736111111111109</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>28</v>
-      </c>
-      <c r="B66" t="s">
-        <v>29</v>
-      </c>
-      <c r="C66" s="1">
-        <v>0.52569444444444446</v>
-      </c>
-      <c r="D66">
-        <v>739</v>
-      </c>
-      <c r="G66" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="E66">
+        <v>871</v>
+      </c>
+      <c r="F66" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.57291666666666663</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C67" s="1">
-        <v>0.52777777777777779</v>
+        <v>0.57986111111111105</v>
       </c>
       <c r="D67">
-        <v>740</v>
+        <v>628</v>
       </c>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C68" s="1">
-        <v>0.52986111111111112</v>
+        <v>0.58402777777777781</v>
       </c>
       <c r="D68">
-        <v>816</v>
+        <v>1035</v>
       </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>32</v>
-      </c>
-      <c r="B69" t="s">
-        <v>33</v>
-      </c>
-      <c r="C69" s="1">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="D69">
-        <v>1910</v>
-      </c>
-      <c r="G69" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="E69">
+        <v>1978</v>
+      </c>
+      <c r="F69" t="s">
+        <v>27</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.60763888888888895</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>15</v>
-      </c>
-      <c r="B70" t="s">
-        <v>34</v>
-      </c>
-      <c r="C70" s="1">
-        <v>0.55486111111111114</v>
-      </c>
-      <c r="D70">
-        <v>1441</v>
-      </c>
-      <c r="G70" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="E70">
+        <v>761</v>
+      </c>
+      <c r="F70" t="s">
+        <v>30</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.61111111111111105</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>26</v>
-      </c>
-      <c r="C71" s="1"/>
-      <c r="E71">
-        <v>421</v>
-      </c>
-      <c r="F71" t="s">
-        <v>27</v>
-      </c>
-      <c r="G71" s="1">
-        <v>0.5625</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B71" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.61597222222222225</v>
+      </c>
+      <c r="D71">
+        <v>3151</v>
+      </c>
+      <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>45</v>
-      </c>
-      <c r="B72" t="s">
-        <v>18</v>
-      </c>
-      <c r="C72" s="1">
-        <v>0.56666666666666665</v>
-      </c>
-      <c r="D72">
-        <v>8139</v>
-      </c>
-      <c r="G72" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="E72">
+        <v>1468</v>
+      </c>
+      <c r="F72" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.61805555555555558</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>28</v>
-      </c>
-      <c r="C73" s="1"/>
-      <c r="E73">
-        <v>2820</v>
-      </c>
-      <c r="F73" t="s">
-        <v>29</v>
-      </c>
-      <c r="G73" s="1">
-        <v>0.56736111111111109</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="D73">
+        <v>4319</v>
+      </c>
+      <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C74" s="1"/>
       <c r="E74">
-        <v>871</v>
+        <v>1104</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G74" s="1">
-        <v>0.57291666666666663</v>
+        <v>0.62777777777777777</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>35</v>
-      </c>
-      <c r="B75" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" s="1">
-        <v>0.57986111111111105</v>
-      </c>
-      <c r="D75">
-        <v>628</v>
-      </c>
-      <c r="G75" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="E75">
+        <v>629</v>
+      </c>
+      <c r="F75" t="s">
+        <v>32</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.63263888888888886</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" t="s">
         <v>28</v>
       </c>
-      <c r="B76" t="s">
-        <v>36</v>
-      </c>
       <c r="C76" s="1">
-        <v>0.58402777777777781</v>
+        <v>0.64166666666666672</v>
       </c>
       <c r="D76">
-        <v>1035</v>
+        <v>1290</v>
       </c>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>32</v>
-      </c>
-      <c r="C77" s="1"/>
-      <c r="E77">
-        <v>1978</v>
-      </c>
-      <c r="F77" t="s">
-        <v>33</v>
-      </c>
-      <c r="G77" s="1">
-        <v>0.60763888888888895</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D77">
+        <v>382</v>
+      </c>
+      <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>28</v>
-      </c>
-      <c r="B78" t="s">
-        <v>29</v>
-      </c>
-      <c r="C78" s="1">
-        <v>0.61597222222222225</v>
-      </c>
-      <c r="D78">
-        <v>3151</v>
-      </c>
-      <c r="G78" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="E78">
+        <v>317</v>
+      </c>
+      <c r="F78" t="s">
+        <v>25</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0.65625</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C79" s="1"/>
       <c r="E79">
-        <v>1468</v>
+        <v>352</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G79" s="1">
-        <v>0.61805555555555558</v>
+        <v>0.65763888888888888</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C80" s="1">
-        <v>0.62222222222222223</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D80">
-        <v>1031</v>
+        <v>367</v>
       </c>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>28</v>
-      </c>
-      <c r="C81" s="1"/>
-      <c r="E81">
-        <v>1104</v>
-      </c>
-      <c r="F81" t="s">
-        <v>36</v>
-      </c>
-      <c r="G81" s="1">
-        <v>0.62777777777777777</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="D81">
+        <v>397</v>
+      </c>
+      <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>35</v>
-      </c>
-      <c r="C82" s="1"/>
-      <c r="E82">
-        <v>629</v>
-      </c>
-      <c r="F82" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" s="1">
-        <v>0.63263888888888886</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="D82">
+        <v>441</v>
+      </c>
+      <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>15</v>
-      </c>
-      <c r="B83" t="s">
-        <v>34</v>
-      </c>
-      <c r="C83" s="1">
-        <v>0.64166666666666672</v>
-      </c>
-      <c r="D83">
-        <v>1290</v>
-      </c>
-      <c r="G83" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="E83">
+        <v>4322</v>
+      </c>
+      <c r="F83" t="s">
+        <v>44</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0.68611111111111112</v>
+      </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C84" s="1">
-        <v>0.64583333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="D84">
-        <v>4</v>
+        <v>311</v>
       </c>
       <c r="G84" s="1"/>
     </row>
@@ -1848,13 +1836,13 @@
         <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C85" s="1">
-        <v>0.65277777777777779</v>
+        <v>0.6875</v>
       </c>
       <c r="D85">
-        <v>382</v>
+        <v>318</v>
       </c>
       <c r="G85" s="1"/>
     </row>
@@ -1862,44 +1850,44 @@
       <c r="A86" t="s">
         <v>7</v>
       </c>
-      <c r="C86" s="1"/>
-      <c r="E86">
-        <v>317</v>
-      </c>
-      <c r="F86" t="s">
-        <v>31</v>
-      </c>
-      <c r="G86" s="1">
-        <v>0.65625</v>
-      </c>
+      <c r="B86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="D86">
+        <v>555</v>
+      </c>
+      <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C87" s="1"/>
       <c r="E87">
-        <v>352</v>
+        <v>1130</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G87" s="1">
-        <v>0.65763888888888888</v>
+        <v>0.69444444444444453</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C88" s="1">
-        <v>0.66527777777777775</v>
+        <v>0.69722222222222219</v>
       </c>
       <c r="D88">
-        <v>7139</v>
+        <v>4327</v>
       </c>
       <c r="G88" s="1"/>
     </row>
@@ -1908,13 +1896,13 @@
         <v>7</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C89" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="D89">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="G89" s="1"/>
     </row>
@@ -1922,74 +1910,74 @@
       <c r="A90" t="s">
         <v>7</v>
       </c>
-      <c r="B90" t="s">
-        <v>39</v>
-      </c>
-      <c r="C90" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D90">
-        <v>370</v>
-      </c>
-      <c r="G90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="E90">
+        <v>520</v>
+      </c>
+      <c r="F90" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C91" s="1"/>
       <c r="E91">
-        <v>1032</v>
+        <v>560</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G91" s="1">
-        <v>0.66805555555555562</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>7</v>
       </c>
-      <c r="B92" t="s">
-        <v>20</v>
-      </c>
-      <c r="C92" s="1">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="D92">
-        <v>397</v>
-      </c>
-      <c r="G92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="E92">
+        <v>588</v>
+      </c>
+      <c r="F92" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
-      <c r="B93" t="s">
-        <v>36</v>
-      </c>
-      <c r="C93" s="1">
-        <v>0.68055555555555558</v>
-      </c>
-      <c r="D93">
-        <v>441</v>
-      </c>
-      <c r="G93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="E93">
+        <v>617</v>
+      </c>
+      <c r="F93" t="s">
+        <v>18</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C94" s="1">
-        <v>0.68402777777777779</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="D94">
-        <v>651</v>
+        <v>4351</v>
       </c>
       <c r="G94" s="1"/>
     </row>
@@ -1997,404 +1985,404 @@
       <c r="A95" t="s">
         <v>7</v>
       </c>
-      <c r="B95" t="s">
-        <v>29</v>
-      </c>
-      <c r="C95" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="D95">
-        <v>311</v>
-      </c>
-      <c r="G95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="E95">
+        <v>448</v>
+      </c>
+      <c r="F95" t="s">
+        <v>8</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0.74305555555555558</v>
+      </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>7</v>
       </c>
-      <c r="B96" t="s">
-        <v>22</v>
-      </c>
-      <c r="C96" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="D96">
-        <v>318</v>
-      </c>
-      <c r="G96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="E96">
+        <v>534</v>
+      </c>
+      <c r="F96" t="s">
+        <v>21</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0.74305555555555558</v>
+      </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C97" s="1"/>
       <c r="E97">
-        <v>1130</v>
+        <v>4308</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="G97" s="1">
-        <v>0.69444444444444453</v>
+        <v>0.74583333333333335</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C98" s="1">
-        <v>0.69722222222222219</v>
+        <v>0.74652777777777779</v>
       </c>
       <c r="D98">
-        <v>4327</v>
+        <v>612</v>
       </c>
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>9</v>
-      </c>
-      <c r="B99" t="s">
-        <v>10</v>
-      </c>
-      <c r="C99" s="1">
-        <v>0.69722222222222219</v>
-      </c>
-      <c r="D99">
-        <v>4083</v>
-      </c>
-      <c r="G99" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="E99">
+        <v>528</v>
+      </c>
+      <c r="F99" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0.76041666666666663</v>
+      </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>7</v>
       </c>
-      <c r="B100" t="s">
-        <v>31</v>
-      </c>
-      <c r="C100" s="1">
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="D100">
-        <v>322</v>
-      </c>
-      <c r="G100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="E100">
+        <v>566</v>
+      </c>
+      <c r="F100" t="s">
+        <v>20</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0.77083333333333337</v>
+      </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C101" s="1"/>
       <c r="E101">
-        <v>520</v>
+        <v>4312</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G101" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.77638888888888891</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" s="1"/>
-      <c r="E102">
-        <v>530</v>
-      </c>
-      <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B102" t="s">
+        <v>41</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="D102">
+        <v>930</v>
+      </c>
+      <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>7</v>
       </c>
-      <c r="C103" s="1"/>
-      <c r="E103">
-        <v>560</v>
-      </c>
-      <c r="F103" t="s">
-        <v>23</v>
-      </c>
-      <c r="G103" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+      <c r="B103" t="s">
+        <v>32</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="D103">
+        <v>431</v>
+      </c>
+      <c r="G103" s="1"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>7</v>
       </c>
-      <c r="C104" s="1"/>
-      <c r="E104">
-        <v>588</v>
-      </c>
-      <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+      <c r="B104" t="s">
+        <v>20</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="D104">
+        <v>661</v>
+      </c>
+      <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" s="1"/>
-      <c r="E105">
-        <v>615</v>
-      </c>
-      <c r="F105" t="s">
-        <v>22</v>
-      </c>
-      <c r="G105" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="D105">
+        <v>222</v>
+      </c>
+      <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>9</v>
-      </c>
-      <c r="B106" t="s">
-        <v>34</v>
-      </c>
-      <c r="C106" s="1">
-        <v>0.73472222222222228</v>
-      </c>
-      <c r="D106">
-        <v>4321</v>
-      </c>
-      <c r="G106" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="E106">
+        <v>570</v>
+      </c>
+      <c r="F106" t="s">
+        <v>20</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0.8125</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>7</v>
       </c>
-      <c r="C107" s="1"/>
-      <c r="E107">
-        <v>534</v>
-      </c>
-      <c r="F107" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" s="1">
-        <v>0.74305555555555558</v>
-      </c>
+      <c r="B107" t="s">
+        <v>28</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="D107">
+        <v>425</v>
+      </c>
+      <c r="G107" s="1"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" s="1"/>
-      <c r="E108">
-        <v>4308</v>
-      </c>
-      <c r="F108" t="s">
+        <v>38</v>
+      </c>
+      <c r="B108" t="s">
         <v>14</v>
       </c>
-      <c r="G108" s="1">
-        <v>0.74583333333333335</v>
-      </c>
+      <c r="C108" s="1">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D108">
+        <v>932</v>
+      </c>
+      <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>7</v>
       </c>
-      <c r="C109" s="1"/>
-      <c r="E109">
-        <v>528</v>
-      </c>
-      <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" s="1">
-        <v>0.76041666666666663</v>
-      </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="D109">
+        <v>523</v>
+      </c>
+      <c r="G109" s="1"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B110" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C110" s="1">
-        <v>0.7631944444444444</v>
+        <v>0.82986111111111116</v>
       </c>
       <c r="D110">
-        <v>4040</v>
+        <v>583</v>
       </c>
       <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" s="1"/>
-      <c r="E111">
-        <v>4312</v>
-      </c>
-      <c r="F111" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="1">
-        <v>0.77638888888888891</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B111" t="s">
+        <v>35</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="D111">
+        <v>325</v>
+      </c>
+      <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B112" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C112" s="1">
-        <v>0.78125</v>
+        <v>0.84375</v>
       </c>
       <c r="D112">
-        <v>930</v>
+        <v>445</v>
       </c>
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>48</v>
-      </c>
-      <c r="B113" t="s">
-        <v>19</v>
-      </c>
-      <c r="C113" s="1">
-        <v>0.78541666666666665</v>
-      </c>
-      <c r="D113">
-        <v>4158</v>
-      </c>
-      <c r="G113" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="E113">
+        <v>590</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0.85069444444444442</v>
+      </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>7</v>
       </c>
-      <c r="C114" s="1"/>
-      <c r="E114">
-        <v>558</v>
-      </c>
-      <c r="F114" t="s">
-        <v>23</v>
-      </c>
-      <c r="G114" s="1">
-        <v>0.78819444444444442</v>
-      </c>
+      <c r="B114" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D114">
+        <v>393</v>
+      </c>
+      <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B115" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C115" s="1">
-        <v>0.79027777777777775</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D115">
-        <v>4331</v>
+        <v>449</v>
       </c>
       <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B116" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C116" s="1">
-        <v>0.79513888888888884</v>
+        <v>0.86041666666666661</v>
       </c>
       <c r="D116">
-        <v>431</v>
+        <v>881</v>
       </c>
       <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>9</v>
-      </c>
-      <c r="C117" s="1"/>
-      <c r="E117">
-        <v>4041</v>
-      </c>
-      <c r="F117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G117" s="1">
-        <v>0.79513888888888884</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B117" t="s">
+        <v>19</v>
+      </c>
+      <c r="C117" s="1">
+        <v>0.86805555555555558</v>
+      </c>
+      <c r="D117">
+        <v>563</v>
+      </c>
+      <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>9</v>
-      </c>
-      <c r="C118" s="1"/>
-      <c r="E118">
-        <v>4083</v>
-      </c>
-      <c r="F118" t="s">
-        <v>22</v>
-      </c>
-      <c r="G118" s="1">
-        <v>0.79513888888888884</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B118" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118" s="1">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="D118">
+        <v>316</v>
+      </c>
+      <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B119" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C119" s="1">
-        <v>0.8125</v>
+        <v>0.875</v>
       </c>
       <c r="D119">
-        <v>222</v>
+        <v>535</v>
       </c>
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C120" s="1"/>
       <c r="E120">
-        <v>570</v>
+        <v>222</v>
       </c>
       <c r="F120" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="G120" s="1">
-        <v>0.8125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B121" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C121" s="1">
-        <v>0.82291666666666663</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D121">
-        <v>932</v>
+        <v>557</v>
       </c>
       <c r="G121" s="1"/>
     </row>
@@ -2406,10 +2394,10 @@
         <v>14</v>
       </c>
       <c r="C122" s="1">
-        <v>0.82638888888888884</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D122">
-        <v>523</v>
+        <v>589</v>
       </c>
       <c r="G122" s="1"/>
     </row>
@@ -2418,45 +2406,45 @@
         <v>7</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C123" s="1">
-        <v>0.82986111111111116</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D123">
-        <v>583</v>
+        <v>616</v>
       </c>
       <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B124" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C124" s="1">
-        <v>0.84375</v>
+        <v>0.8881944444444444</v>
       </c>
       <c r="D124">
-        <v>325</v>
+        <v>1461</v>
       </c>
       <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>48</v>
-      </c>
-      <c r="B125" t="s">
-        <v>14</v>
-      </c>
-      <c r="C125" s="1">
-        <v>0.84791666666666665</v>
-      </c>
-      <c r="D125">
-        <v>4158</v>
-      </c>
-      <c r="G125" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="E125">
+        <v>365</v>
+      </c>
+      <c r="F125" t="s">
+        <v>15</v>
+      </c>
+      <c r="G125" s="1">
+        <v>0.92013888888888884</v>
+      </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
@@ -2464,42 +2452,42 @@
       </c>
       <c r="C126" s="1"/>
       <c r="E126">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="F126" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="1">
-        <v>0.85069444444444442</v>
+        <v>0.92013888888888884</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>7</v>
       </c>
-      <c r="B127" t="s">
-        <v>20</v>
-      </c>
-      <c r="C127" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D127">
-        <v>393</v>
-      </c>
-      <c r="G127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="E127">
+        <v>429</v>
+      </c>
+      <c r="F127" t="s">
+        <v>17</v>
+      </c>
+      <c r="G127" s="1">
+        <v>0.92361111111111116</v>
+      </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C128" s="1">
-        <v>0.86041666666666661</v>
+        <v>0.92986111111111114</v>
       </c>
       <c r="D128">
-        <v>881</v>
+        <v>4339</v>
       </c>
       <c r="G128" s="1"/>
     </row>
@@ -2507,89 +2495,89 @@
       <c r="A129" t="s">
         <v>7</v>
       </c>
-      <c r="B129" t="s">
-        <v>36</v>
-      </c>
-      <c r="C129" s="1">
-        <v>0.86805555555555558</v>
-      </c>
-      <c r="D129">
-        <v>443</v>
-      </c>
-      <c r="G129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="E129">
+        <v>578</v>
+      </c>
+      <c r="F129" t="s">
+        <v>14</v>
+      </c>
+      <c r="G129" s="1">
+        <v>0.93055555555555558</v>
+      </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>7</v>
       </c>
-      <c r="B130" t="s">
-        <v>23</v>
-      </c>
-      <c r="C130" s="1">
-        <v>0.86805555555555558</v>
-      </c>
-      <c r="D130">
-        <v>563</v>
-      </c>
-      <c r="G130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="E130">
+        <v>627</v>
+      </c>
+      <c r="F130" t="s">
+        <v>18</v>
+      </c>
+      <c r="G130" s="1">
+        <v>0.93402777777777779</v>
+      </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>7</v>
       </c>
-      <c r="B131" t="s">
-        <v>31</v>
-      </c>
-      <c r="C131" s="1">
-        <v>0.87152777777777779</v>
-      </c>
-      <c r="D131">
-        <v>316</v>
-      </c>
-      <c r="G131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="E131">
+        <v>574</v>
+      </c>
+      <c r="F131" t="s">
+        <v>21</v>
+      </c>
+      <c r="G131" s="1">
+        <v>0.9375</v>
+      </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>7</v>
       </c>
-      <c r="B132" t="s">
-        <v>12</v>
-      </c>
-      <c r="C132" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="D132">
-        <v>535</v>
-      </c>
-      <c r="G132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="E132">
+        <v>315</v>
+      </c>
+      <c r="F132" t="s">
+        <v>16</v>
+      </c>
+      <c r="G132" s="1">
+        <v>0.94097222222222221</v>
+      </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C133" s="1"/>
       <c r="E133">
-        <v>222</v>
+        <v>658</v>
       </c>
       <c r="F133" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="G133" s="1">
-        <v>0.875</v>
+        <v>0.94444444444444442</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C134" s="1">
-        <v>0.87847222222222221</v>
+        <v>0.94930555555555562</v>
       </c>
       <c r="D134">
-        <v>589</v>
+        <v>1425</v>
       </c>
       <c r="G134" s="1"/>
     </row>
@@ -2597,225 +2585,105 @@
       <c r="A135" t="s">
         <v>7</v>
       </c>
-      <c r="B135" t="s">
-        <v>22</v>
-      </c>
-      <c r="C135" s="1">
-        <v>0.87847222222222221</v>
-      </c>
-      <c r="D135">
-        <v>614</v>
-      </c>
-      <c r="G135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="E135">
+        <v>452</v>
+      </c>
+      <c r="F135" t="s">
+        <v>8</v>
+      </c>
+      <c r="G135" s="1">
+        <v>0.95486111111111116</v>
+      </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>7</v>
       </c>
-      <c r="B136" t="s">
-        <v>24</v>
-      </c>
-      <c r="C136" s="1">
-        <v>0.87847222222222221</v>
-      </c>
-      <c r="D136">
-        <v>661</v>
-      </c>
-      <c r="G136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="E136">
+        <v>457</v>
+      </c>
+      <c r="F136" t="s">
+        <v>13</v>
+      </c>
+      <c r="G136" s="1">
+        <v>0.95486111111111116</v>
+      </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>15</v>
-      </c>
-      <c r="B137" t="s">
-        <v>34</v>
-      </c>
-      <c r="C137" s="1">
-        <v>0.8881944444444444</v>
-      </c>
-      <c r="D137">
-        <v>1461</v>
-      </c>
-      <c r="G137" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C137" s="1"/>
+      <c r="E137">
+        <v>432</v>
+      </c>
+      <c r="F137" t="s">
+        <v>32</v>
+      </c>
+      <c r="G137" s="1">
+        <v>0.95833333333333337</v>
+      </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>7</v>
-      </c>
-      <c r="B138" t="s">
-        <v>22</v>
-      </c>
-      <c r="C138" s="1">
-        <v>0.89236111111111116</v>
-      </c>
-      <c r="D138">
-        <v>608</v>
-      </c>
-      <c r="G138" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C138" s="1"/>
+      <c r="E138">
+        <v>4336</v>
+      </c>
+      <c r="F138" t="s">
+        <v>37</v>
+      </c>
+      <c r="G138" s="1">
+        <v>0.97152777777777777</v>
+      </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B139" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C139" s="1">
-        <v>0.91319444444444442</v>
+        <v>0.98402777777777772</v>
       </c>
       <c r="D139">
-        <v>585</v>
+        <v>4156</v>
       </c>
       <c r="G139" s="1"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>7</v>
-      </c>
-      <c r="C140" s="1"/>
-      <c r="E140">
-        <v>578</v>
-      </c>
-      <c r="F140" t="s">
-        <v>18</v>
-      </c>
-      <c r="G140" s="1">
-        <v>0.91666666666666663</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B140" t="s">
+        <v>25</v>
+      </c>
+      <c r="C140" s="1">
+        <v>0.98402777777777783</v>
+      </c>
+      <c r="D140">
+        <v>878</v>
+      </c>
+      <c r="G140" s="1"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C141" s="1"/>
       <c r="E141">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="F141" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="G141" s="1">
-        <v>0.92013888888888884</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>7</v>
-      </c>
-      <c r="C142" s="1"/>
-      <c r="E142">
-        <v>580</v>
-      </c>
-      <c r="F142" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="1">
-        <v>0.92013888888888884</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>7</v>
-      </c>
-      <c r="C143" s="1"/>
-      <c r="E143">
-        <v>315</v>
-      </c>
-      <c r="F143" t="s">
-        <v>20</v>
-      </c>
-      <c r="G143" s="1">
-        <v>0.92013888888888884</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>7</v>
-      </c>
-      <c r="C144" s="1"/>
-      <c r="E144">
-        <v>457</v>
-      </c>
-      <c r="F144" t="s">
-        <v>16</v>
-      </c>
-      <c r="G144" s="1">
-        <v>0.92013888888888884</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>30</v>
-      </c>
-      <c r="B145" t="s">
-        <v>31</v>
-      </c>
-      <c r="C145" s="1">
-        <v>0.92361111111111116</v>
-      </c>
-      <c r="D145">
-        <v>878</v>
-      </c>
-      <c r="G145" s="1"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>7</v>
-      </c>
-      <c r="C146" s="1"/>
-      <c r="E146">
-        <v>429</v>
-      </c>
-      <c r="F146" t="s">
-        <v>21</v>
-      </c>
-      <c r="G146" s="1">
-        <v>0.92361111111111116</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>7</v>
-      </c>
-      <c r="C147" s="1"/>
-      <c r="E147">
-        <v>658</v>
-      </c>
-      <c r="F147" t="s">
-        <v>24</v>
-      </c>
-      <c r="G147" s="1">
-        <v>0.92361111111111116</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>7</v>
-      </c>
-      <c r="C148" s="1"/>
-      <c r="E148">
-        <v>452</v>
-      </c>
-      <c r="F148" t="s">
-        <v>8</v>
-      </c>
-      <c r="G148" s="1">
-        <v>0.92361111111111116</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>7</v>
-      </c>
-      <c r="C149" s="1"/>
-      <c r="E149">
-        <v>651</v>
-      </c>
-      <c r="F149" t="s">
-        <v>22</v>
-      </c>
-      <c r="G149" s="1">
-        <v>0.92708333333333337</v>
+        <v>0.99583333333333324</v>
       </c>
     </row>
   </sheetData>

--- a/public/operaciones.xlsx
+++ b/public/operaciones.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulm\Desktop\Itinerarios_2026-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A81D23D2-D1D5-44CB-BD7D-BBC76041480F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{686F0B8D-6F9A-4182-A510-BA8218192307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8FE1E120-D4FC-47BE-A51E-B2426302A89E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E277E208-7B9C-401A-B427-64B1343326AD}"/>
   </bookViews>
   <sheets>
-    <sheet name="13-02" sheetId="1" r:id="rId1"/>
+    <sheet name="14-02" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="43">
   <si>
     <t>AEROLINEA</t>
   </si>
@@ -71,6 +71,15 @@
     <t>KIAD</t>
   </si>
   <si>
+    <t>KONT</t>
+  </si>
+  <si>
+    <t>MHLM</t>
+  </si>
+  <si>
+    <t>KOAK</t>
+  </si>
+  <si>
     <t>KLAX</t>
   </si>
   <si>
@@ -80,6 +89,12 @@
     <t>SEQM</t>
   </si>
   <si>
+    <t>KJFK</t>
+  </si>
+  <si>
+    <t>MMMX</t>
+  </si>
+  <si>
     <t>MGGT</t>
   </si>
   <si>
@@ -98,10 +113,7 @@
     <t>KSFO</t>
   </si>
   <si>
-    <t>KJFK</t>
-  </si>
-  <si>
-    <t>MHLM</t>
+    <t>KEWR</t>
   </si>
   <si>
     <t>AAL</t>
@@ -122,55 +134,34 @@
     <t>KATL</t>
   </si>
   <si>
+    <t>FFT</t>
+  </si>
+  <si>
     <t>KIAH</t>
   </si>
   <si>
-    <t>TSC</t>
-  </si>
-  <si>
-    <t>CYUL</t>
-  </si>
-  <si>
     <t>AMX</t>
   </si>
   <si>
-    <t>MMMX</t>
-  </si>
-  <si>
     <t>KDFW</t>
   </si>
   <si>
+    <t>MMUN</t>
+  </si>
+  <si>
     <t>IBE</t>
   </si>
   <si>
     <t>CYYZ</t>
   </si>
   <si>
-    <t>KBOS</t>
-  </si>
-  <si>
-    <t>KEWR</t>
-  </si>
-  <si>
-    <t>DHL</t>
+    <t>FDX</t>
+  </si>
+  <si>
+    <t>AJT</t>
   </si>
   <si>
     <t>TPA</t>
-  </si>
-  <si>
-    <t>AJT</t>
-  </si>
-  <si>
-    <t>MHTG</t>
-  </si>
-  <si>
-    <t>SKRG</t>
-  </si>
-  <si>
-    <t>ARM</t>
-  </si>
-  <si>
-    <t>KOAK</t>
   </si>
   <si>
     <t>LEMD</t>
@@ -548,8 +539,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18458445-A597-414E-ADB9-35EC6F312CC8}">
-  <dimension ref="A1:G141"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF1BEF8-FAEC-49EE-82BD-2FDBE7B2C5A5}">
+  <dimension ref="A1:G132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,63 +579,63 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.18402777777777779</v>
-      </c>
-      <c r="D2">
-        <v>222</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="E2">
+        <v>1670</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="E3">
-        <v>1670</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.20833333333333334</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.13055555555555556</v>
+      </c>
+      <c r="D3">
+        <v>4156</v>
+      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="E4">
-        <v>879</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.20972222222222223</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D4">
+        <v>453</v>
+      </c>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.21527777777777779</v>
-      </c>
-      <c r="D5">
-        <v>453</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="E5">
+        <v>879</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.20972222222222223</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -663,16 +654,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1">
-        <v>0.22569444444444445</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="D7">
-        <v>224</v>
+        <v>531</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -680,38 +671,38 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="E8">
-        <v>556</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.22916666666666666</v>
-      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D8">
+        <v>575</v>
+      </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="E9">
-        <v>4350</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.22916666666666666</v>
-      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.23472222222222222</v>
+      </c>
+      <c r="D9">
+        <v>4323</v>
+      </c>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1">
         <v>0.23541666666666666</v>
@@ -723,10 +714,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
         <v>0.23958333333333334</v>
@@ -741,7 +732,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1">
         <v>0.24652777777777779</v>
@@ -756,13 +747,13 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1">
-        <v>0.25694444444444442</v>
+        <v>0.24652777777777779</v>
       </c>
       <c r="D13">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -771,13 +762,13 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="D14">
-        <v>366</v>
+        <v>433</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -786,13 +777,13 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="D15">
-        <v>529</v>
+        <v>579</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -801,73 +792,73 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1">
-        <v>0.2638888888888889</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D16">
-        <v>314</v>
+        <v>366</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="E17">
-        <v>4326</v>
-      </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.2638888888888889</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="D17">
+        <v>529</v>
+      </c>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1">
-        <v>0.2673611111111111</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="D18">
-        <v>428</v>
+        <v>314</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.2673611111111111</v>
-      </c>
-      <c r="D19">
-        <v>626</v>
-      </c>
-      <c r="G19" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="E19">
+        <v>4326</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.2638888888888889</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D20">
-        <v>561</v>
+        <v>428</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -876,13 +867,13 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D21">
-        <v>571</v>
+        <v>650</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -891,104 +882,104 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1">
         <v>0.27083333333333331</v>
       </c>
       <c r="D22">
-        <v>591</v>
+        <v>561</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="E23">
-        <v>4318</v>
-      </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.28611111111111109</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D23">
+        <v>571</v>
+      </c>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="E24">
-        <v>1467</v>
-      </c>
-      <c r="F24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.28819444444444448</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D24">
+        <v>591</v>
+      </c>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="D25">
-        <v>521</v>
-      </c>
-      <c r="G25" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="E25">
+        <v>1467</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.28819444444444448</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="E26">
-        <v>323</v>
-      </c>
-      <c r="F26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0.3125</v>
-      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D26">
+        <v>521</v>
+      </c>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C27" s="1"/>
       <c r="E27">
-        <v>396</v>
+        <v>4330</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G27" s="1">
-        <v>0.3125</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1"/>
       <c r="E28">
-        <v>4338</v>
+        <v>321</v>
       </c>
       <c r="F28" t="s">
         <v>23</v>
       </c>
       <c r="G28" s="1">
-        <v>0.31527777777777777</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -997,13 +988,13 @@
       </c>
       <c r="C29" s="1"/>
       <c r="E29">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G29" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1012,28 +1003,28 @@
       </c>
       <c r="C30" s="1"/>
       <c r="E30">
-        <v>440</v>
+        <v>396</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G30" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1"/>
       <c r="E31">
-        <v>536</v>
+        <v>884</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G31" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1042,13 +1033,13 @@
       </c>
       <c r="C32" s="1"/>
       <c r="E32">
-        <v>444</v>
+        <v>310</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G32" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1057,13 +1048,13 @@
       </c>
       <c r="C33" s="1"/>
       <c r="E33">
-        <v>562</v>
+        <v>440</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G33" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1072,13 +1063,13 @@
       </c>
       <c r="C34" s="1"/>
       <c r="E34">
-        <v>368</v>
+        <v>536</v>
       </c>
       <c r="F34" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G34" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1087,13 +1078,13 @@
       </c>
       <c r="C35" s="1"/>
       <c r="E35">
-        <v>383</v>
+        <v>562</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G35" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1102,10 +1093,10 @@
       </c>
       <c r="C36" s="1"/>
       <c r="E36">
-        <v>522</v>
+        <v>368</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G36" s="1">
         <v>0.33333333333333331</v>
@@ -1115,16 +1106,16 @@
       <c r="A37" t="s">
         <v>7</v>
       </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0.33680555555555558</v>
-      </c>
-      <c r="D37">
-        <v>581</v>
-      </c>
-      <c r="G37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="E37">
+        <v>383</v>
+      </c>
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -1132,29 +1123,29 @@
       </c>
       <c r="C38" s="1"/>
       <c r="E38">
-        <v>660</v>
+        <v>522</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G38" s="1">
-        <v>0.33680555555555558</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="E39">
-        <v>554</v>
-      </c>
-      <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0.34027777777777779</v>
-      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="D39">
+        <v>581</v>
+      </c>
+      <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1162,59 +1153,59 @@
       </c>
       <c r="C40" s="1"/>
       <c r="E40">
-        <v>324</v>
+        <v>660</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G40" s="1">
-        <v>0.34375</v>
+        <v>0.33680555555555558</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C41" s="1"/>
       <c r="E41">
-        <v>884</v>
+        <v>454</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G41" s="1">
-        <v>0.3576388888888889</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0.36805555555555558</v>
-      </c>
-      <c r="D42">
-        <v>4053</v>
-      </c>
-      <c r="G42" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="E42">
+        <v>538</v>
+      </c>
+      <c r="F42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.34027777777777779</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
-      <c r="B43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0.37847222222222221</v>
-      </c>
-      <c r="D43">
-        <v>559</v>
-      </c>
-      <c r="G43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="E43">
+        <v>324</v>
+      </c>
+      <c r="F43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.34375</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -1225,7 +1216,7 @@
         <v>430</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G44" s="1">
         <v>0.37847222222222221</v>
@@ -1251,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C46" s="1">
         <v>0.41319444444444442</v>
@@ -1270,7 +1261,7 @@
         <v>392</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G47" s="1">
         <v>0.41319444444444442</v>
@@ -1282,10 +1273,10 @@
       </c>
       <c r="C48" s="1"/>
       <c r="E48">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G48" s="1">
         <v>0.4236111111111111</v>
@@ -1293,46 +1284,46 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="1">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="D49">
-        <v>537</v>
-      </c>
-      <c r="G49" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="E49">
+        <v>4320</v>
+      </c>
+      <c r="F49" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.4236111111111111</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C50" s="1">
-        <v>0.43055555555555558</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D50">
-        <v>4053</v>
+        <v>537</v>
       </c>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C51" s="1">
-        <v>0.46111111111111108</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="D51">
-        <v>916</v>
+        <v>455</v>
       </c>
       <c r="G51" s="1"/>
     </row>
@@ -1341,175 +1332,175 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C52" s="1">
-        <v>0.46180555555555558</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="D52">
-        <v>384</v>
+        <v>320</v>
       </c>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C53" s="1">
-        <v>0.4861111111111111</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="D53">
-        <v>857</v>
+        <v>539</v>
       </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="E54">
-        <v>385</v>
-      </c>
-      <c r="F54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="D54">
+        <v>4337</v>
+      </c>
+      <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="E55">
-        <v>424</v>
-      </c>
-      <c r="F55" t="s">
-        <v>28</v>
-      </c>
-      <c r="G55" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="D55">
+        <v>8139</v>
+      </c>
+      <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="E56">
-        <v>319</v>
-      </c>
-      <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" s="1">
-        <v>0.51041666666666663</v>
-      </c>
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="D56">
+        <v>384</v>
+      </c>
+      <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C57" s="1">
-        <v>0.5131944444444444</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="D57">
-        <v>915</v>
+        <v>761</v>
       </c>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>22</v>
-      </c>
-      <c r="B58" t="s">
-        <v>23</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0.52569444444444446</v>
-      </c>
-      <c r="D58">
-        <v>739</v>
-      </c>
-      <c r="G58" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="E58">
+        <v>584</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.49305555555555558</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>24</v>
-      </c>
-      <c r="B59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59" s="1">
-        <v>0.52986111111111112</v>
-      </c>
-      <c r="D59">
-        <v>816</v>
-      </c>
-      <c r="G59" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="E59">
+        <v>650</v>
+      </c>
+      <c r="F59" t="s">
+        <v>36</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.49305555555555558</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>26</v>
-      </c>
-      <c r="B60" t="s">
-        <v>27</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="D60">
-        <v>1910</v>
-      </c>
-      <c r="G60" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="E60">
+        <v>385</v>
+      </c>
+      <c r="F60" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>40</v>
-      </c>
-      <c r="B61" t="s">
-        <v>23</v>
-      </c>
-      <c r="C61" s="1">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="D61">
-        <v>856</v>
-      </c>
-      <c r="G61" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="E61">
+        <v>442</v>
+      </c>
+      <c r="F61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C62" s="1">
-        <v>0.55486111111111114</v>
+        <v>0.52569444444444446</v>
       </c>
       <c r="D62">
-        <v>1441</v>
+        <v>739</v>
       </c>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C63" s="1">
-        <v>0.5625</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="D63">
         <v>760</v>
@@ -1518,273 +1509,273 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C64" s="1">
-        <v>0.5625</v>
+        <v>0.52986111111111112</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>816</v>
       </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>22</v>
-      </c>
-      <c r="C65" s="1"/>
-      <c r="E65">
-        <v>2820</v>
-      </c>
-      <c r="F65" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" s="1">
-        <v>0.56736111111111109</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B65" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="D65">
+        <v>1910</v>
+      </c>
+      <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>24</v>
-      </c>
-      <c r="C66" s="1"/>
-      <c r="E66">
-        <v>871</v>
-      </c>
-      <c r="F66" t="s">
-        <v>25</v>
-      </c>
-      <c r="G66" s="1">
-        <v>0.57291666666666663</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.5493055555555556</v>
+      </c>
+      <c r="D66">
+        <v>219</v>
+      </c>
+      <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C67" s="1">
-        <v>0.57986111111111105</v>
+        <v>0.55486111111111114</v>
       </c>
       <c r="D67">
-        <v>628</v>
+        <v>1441</v>
       </c>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>22</v>
-      </c>
-      <c r="B68" t="s">
-        <v>33</v>
-      </c>
-      <c r="C68" s="1">
-        <v>0.58402777777777781</v>
-      </c>
-      <c r="D68">
-        <v>1035</v>
-      </c>
-      <c r="G68" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="E68">
+        <v>2820</v>
+      </c>
+      <c r="F68" t="s">
+        <v>27</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.56736111111111109</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C69" s="1"/>
       <c r="E69">
-        <v>1978</v>
+        <v>871</v>
       </c>
       <c r="F69" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G69" s="1">
-        <v>0.60763888888888895</v>
+        <v>0.57291666666666663</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>29</v>
-      </c>
-      <c r="C70" s="1"/>
-      <c r="E70">
-        <v>761</v>
-      </c>
-      <c r="F70" t="s">
-        <v>30</v>
-      </c>
-      <c r="G70" s="1">
-        <v>0.61111111111111105</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="D70">
+        <v>628</v>
+      </c>
+      <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B71" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C71" s="1">
-        <v>0.61597222222222225</v>
+        <v>0.58402777777777781</v>
       </c>
       <c r="D71">
-        <v>3151</v>
+        <v>1035</v>
       </c>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C72" s="1"/>
       <c r="E72">
-        <v>1468</v>
+        <v>218</v>
       </c>
       <c r="F72" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G72" s="1">
-        <v>0.61805555555555558</v>
+        <v>0.59444444444444444</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>9</v>
-      </c>
-      <c r="B73" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" s="1">
-        <v>0.62222222222222223</v>
-      </c>
-      <c r="D73">
-        <v>4319</v>
-      </c>
-      <c r="G73" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="E73">
+        <v>1978</v>
+      </c>
+      <c r="F73" t="s">
+        <v>31</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.60763888888888895</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>22</v>
-      </c>
-      <c r="C74" s="1"/>
-      <c r="E74">
-        <v>1104</v>
-      </c>
-      <c r="F74" t="s">
-        <v>33</v>
-      </c>
-      <c r="G74" s="1">
-        <v>0.62777777777777777</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B74" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.61597222222222225</v>
+      </c>
+      <c r="D74">
+        <v>3151</v>
+      </c>
+      <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C75" s="1"/>
       <c r="E75">
-        <v>629</v>
+        <v>1468</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G75" s="1">
-        <v>0.63263888888888886</v>
+        <v>0.61805555555555558</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>12</v>
-      </c>
-      <c r="B76" t="s">
-        <v>28</v>
-      </c>
-      <c r="C76" s="1">
-        <v>0.64166666666666672</v>
-      </c>
-      <c r="D76">
-        <v>1290</v>
-      </c>
-      <c r="G76" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="E76">
+        <v>1104</v>
+      </c>
+      <c r="F76" t="s">
+        <v>35</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.62777777777777777</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" s="1">
-        <v>0.65277777777777779</v>
-      </c>
-      <c r="D77">
-        <v>382</v>
-      </c>
-      <c r="G77" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="E77">
+        <v>629</v>
+      </c>
+      <c r="F77" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.63263888888888886</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="1"/>
-      <c r="E78">
-        <v>317</v>
-      </c>
-      <c r="F78" t="s">
-        <v>25</v>
-      </c>
-      <c r="G78" s="1">
-        <v>0.65625</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B78" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.64166666666666672</v>
+      </c>
+      <c r="D78">
+        <v>1290</v>
+      </c>
+      <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>22</v>
-      </c>
-      <c r="C79" s="1"/>
-      <c r="E79">
-        <v>352</v>
-      </c>
-      <c r="F79" t="s">
-        <v>23</v>
-      </c>
-      <c r="G79" s="1">
-        <v>0.65763888888888888</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D79">
+        <v>382</v>
+      </c>
+      <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>7</v>
       </c>
-      <c r="B80" t="s">
-        <v>28</v>
-      </c>
-      <c r="C80" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D80">
-        <v>367</v>
-      </c>
-      <c r="G80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="E80">
+        <v>317</v>
+      </c>
+      <c r="F80" t="s">
+        <v>29</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0.65625</v>
+      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>7</v>
-      </c>
-      <c r="B81" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" s="1">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="D81">
-        <v>397</v>
-      </c>
-      <c r="G81" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="E81">
+        <v>352</v>
+      </c>
+      <c r="F81" t="s">
+        <v>27</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0.65763888888888888</v>
+      </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
@@ -1794,40 +1785,40 @@
         <v>33</v>
       </c>
       <c r="C82" s="1">
-        <v>0.68055555555555558</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D82">
-        <v>441</v>
+        <v>367</v>
       </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83" s="1"/>
-      <c r="E83">
-        <v>4322</v>
-      </c>
-      <c r="F83" t="s">
-        <v>44</v>
-      </c>
-      <c r="G83" s="1">
-        <v>0.68611111111111112</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="D83">
+        <v>397</v>
+      </c>
+      <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C84" s="1">
-        <v>0.6875</v>
+        <v>0.68055555555555558</v>
       </c>
       <c r="D84">
-        <v>311</v>
+        <v>441</v>
       </c>
       <c r="G84" s="1"/>
     </row>
@@ -1836,13 +1827,13 @@
         <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C85" s="1">
-        <v>0.6875</v>
+        <v>0.68402777777777779</v>
       </c>
       <c r="D85">
-        <v>318</v>
+        <v>651</v>
       </c>
       <c r="G85" s="1"/>
     </row>
@@ -1851,26 +1842,26 @@
         <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C86" s="1">
-        <v>0.69097222222222221</v>
+        <v>0.6875</v>
       </c>
       <c r="D86">
-        <v>555</v>
+        <v>311</v>
       </c>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C87" s="1"/>
       <c r="E87">
         <v>1130</v>
       </c>
       <c r="F87" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G87" s="1">
         <v>0.69444444444444453</v>
@@ -1896,7 +1887,7 @@
         <v>7</v>
       </c>
       <c r="B89" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C89" s="1">
         <v>0.70138888888888884</v>
@@ -1915,7 +1906,7 @@
         <v>520</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G90" s="1">
         <v>0.73263888888888884</v>
@@ -1927,10 +1918,10 @@
       </c>
       <c r="C91" s="1"/>
       <c r="E91">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="F91" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G91" s="1">
         <v>0.73263888888888884</v>
@@ -1942,10 +1933,10 @@
       </c>
       <c r="C92" s="1"/>
       <c r="E92">
-        <v>588</v>
+        <v>560</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G92" s="1">
         <v>0.73263888888888884</v>
@@ -1957,10 +1948,10 @@
       </c>
       <c r="C93" s="1"/>
       <c r="E93">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G93" s="1">
         <v>0.73263888888888884</v>
@@ -1971,13 +1962,13 @@
         <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C94" s="1">
-        <v>0.73333333333333328</v>
+        <v>0.73472222222222228</v>
       </c>
       <c r="D94">
-        <v>4351</v>
+        <v>4321</v>
       </c>
       <c r="G94" s="1"/>
     </row>
@@ -1998,46 +1989,46 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C96" s="1"/>
       <c r="E96">
-        <v>534</v>
+        <v>4308</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G96" s="1">
-        <v>0.74305555555555558</v>
+        <v>0.74583333333333335</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C97" s="1"/>
       <c r="E97">
-        <v>4308</v>
+        <v>528</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G97" s="1">
-        <v>0.74583333333333335</v>
+        <v>0.76041666666666663</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C98" s="1">
-        <v>0.74652777777777779</v>
+        <v>0.7631944444444444</v>
       </c>
       <c r="D98">
-        <v>612</v>
+        <v>4040</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -2047,57 +2038,57 @@
       </c>
       <c r="C99" s="1"/>
       <c r="E99">
-        <v>528</v>
+        <v>566</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G99" s="1">
-        <v>0.76041666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C100" s="1"/>
       <c r="E100">
-        <v>566</v>
+        <v>4312</v>
       </c>
       <c r="F100" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G100" s="1">
-        <v>0.77083333333333337</v>
+        <v>0.77638888888888891</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C101" s="1"/>
       <c r="E101">
-        <v>4312</v>
+        <v>558</v>
       </c>
       <c r="F101" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G101" s="1">
-        <v>0.77638888888888891</v>
+        <v>0.78819444444444442</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C102" s="1">
-        <v>0.78125</v>
+        <v>0.79027777777777775</v>
       </c>
       <c r="D102">
-        <v>930</v>
+        <v>4331</v>
       </c>
       <c r="G102" s="1"/>
     </row>
@@ -2106,7 +2097,7 @@
         <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C103" s="1">
         <v>0.79513888888888884</v>
@@ -2121,7 +2112,7 @@
         <v>7</v>
       </c>
       <c r="B104" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C104" s="1">
         <v>0.79513888888888884</v>
@@ -2133,61 +2124,61 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>34</v>
-      </c>
-      <c r="B105" t="s">
-        <v>14</v>
-      </c>
-      <c r="C105" s="1">
-        <v>0.8125</v>
-      </c>
-      <c r="D105">
-        <v>222</v>
-      </c>
-      <c r="G105" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="E105">
+        <v>4041</v>
+      </c>
+      <c r="F105" t="s">
+        <v>23</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0.79513888888888884</v>
+      </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" s="1"/>
-      <c r="E106">
-        <v>570</v>
-      </c>
-      <c r="F106" t="s">
-        <v>20</v>
-      </c>
-      <c r="G106" s="1">
+        <v>37</v>
+      </c>
+      <c r="B106" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" s="1">
         <v>0.8125</v>
       </c>
+      <c r="D106">
+        <v>222</v>
+      </c>
+      <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>7</v>
       </c>
-      <c r="B107" t="s">
-        <v>28</v>
-      </c>
-      <c r="C107" s="1">
-        <v>0.81944444444444442</v>
-      </c>
-      <c r="D107">
-        <v>425</v>
-      </c>
-      <c r="G107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="E107">
+        <v>570</v>
+      </c>
+      <c r="F107" t="s">
+        <v>17</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0.8125</v>
+      </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B108" t="s">
         <v>14</v>
       </c>
       <c r="C108" s="1">
-        <v>0.82291666666666663</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="D108">
-        <v>932</v>
+        <v>523</v>
       </c>
       <c r="G108" s="1"/>
     </row>
@@ -2196,13 +2187,13 @@
         <v>7</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C109" s="1">
-        <v>0.82638888888888884</v>
+        <v>0.82986111111111116</v>
       </c>
       <c r="D109">
-        <v>523</v>
+        <v>583</v>
       </c>
       <c r="G109" s="1"/>
     </row>
@@ -2211,13 +2202,13 @@
         <v>7</v>
       </c>
       <c r="B110" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C110" s="1">
-        <v>0.82986111111111116</v>
+        <v>0.84375</v>
       </c>
       <c r="D110">
-        <v>583</v>
+        <v>325</v>
       </c>
       <c r="G110" s="1"/>
     </row>
@@ -2225,29 +2216,29 @@
       <c r="A111" t="s">
         <v>7</v>
       </c>
-      <c r="B111" t="s">
-        <v>35</v>
-      </c>
-      <c r="C111" s="1">
-        <v>0.84375</v>
-      </c>
-      <c r="D111">
-        <v>325</v>
-      </c>
-      <c r="G111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="E111">
+        <v>590</v>
+      </c>
+      <c r="F111" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0.85069444444444442</v>
+      </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>7</v>
       </c>
       <c r="B112" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C112" s="1">
-        <v>0.84375</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D112">
-        <v>445</v>
+        <v>393</v>
       </c>
       <c r="G112" s="1"/>
     </row>
@@ -2255,29 +2246,29 @@
       <c r="A113" t="s">
         <v>7</v>
       </c>
-      <c r="C113" s="1"/>
-      <c r="E113">
-        <v>590</v>
-      </c>
-      <c r="F113" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="1">
-        <v>0.85069444444444442</v>
-      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D113">
+        <v>449</v>
+      </c>
+      <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B114" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C114" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.86041666666666661</v>
       </c>
       <c r="D114">
-        <v>393</v>
+        <v>881</v>
       </c>
       <c r="G114" s="1"/>
     </row>
@@ -2286,28 +2277,28 @@
         <v>7</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C115" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.86805555555555558</v>
       </c>
       <c r="D115">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" t="s">
         <v>24</v>
       </c>
-      <c r="B116" t="s">
-        <v>25</v>
-      </c>
       <c r="C116" s="1">
-        <v>0.86041666666666661</v>
+        <v>0.86805555555555558</v>
       </c>
       <c r="D116">
-        <v>881</v>
+        <v>563</v>
       </c>
       <c r="G116" s="1"/>
     </row>
@@ -2316,73 +2307,73 @@
         <v>7</v>
       </c>
       <c r="B117" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C117" s="1">
-        <v>0.86805555555555558</v>
+        <v>0.87152777777777779</v>
       </c>
       <c r="D117">
-        <v>563</v>
+        <v>316</v>
       </c>
       <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>7</v>
-      </c>
-      <c r="B118" t="s">
-        <v>25</v>
-      </c>
-      <c r="C118" s="1">
-        <v>0.87152777777777779</v>
-      </c>
-      <c r="D118">
-        <v>316</v>
-      </c>
-      <c r="G118" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="E118">
+        <v>222</v>
+      </c>
+      <c r="F118" t="s">
+        <v>42</v>
+      </c>
+      <c r="G118" s="1">
+        <v>0.875</v>
+      </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>7</v>
       </c>
       <c r="B119" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C119" s="1">
-        <v>0.875</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D119">
-        <v>535</v>
+        <v>614</v>
       </c>
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>34</v>
-      </c>
-      <c r="C120" s="1"/>
-      <c r="E120">
-        <v>222</v>
-      </c>
-      <c r="F120" t="s">
-        <v>45</v>
-      </c>
-      <c r="G120" s="1">
-        <v>0.875</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B120" t="s">
+        <v>33</v>
+      </c>
+      <c r="C120" s="1">
+        <v>0.8881944444444444</v>
+      </c>
+      <c r="D120">
+        <v>1461</v>
+      </c>
+      <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>7</v>
       </c>
       <c r="B121" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C121" s="1">
-        <v>0.87847222222222221</v>
+        <v>0.89236111111111116</v>
       </c>
       <c r="D121">
-        <v>557</v>
+        <v>608</v>
       </c>
       <c r="G121" s="1"/>
     </row>
@@ -2391,13 +2382,13 @@
         <v>7</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C122" s="1">
-        <v>0.87847222222222221</v>
+        <v>0.91319444444444442</v>
       </c>
       <c r="D122">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="G122" s="1"/>
     </row>
@@ -2405,31 +2396,31 @@
       <c r="A123" t="s">
         <v>7</v>
       </c>
-      <c r="B123" t="s">
-        <v>18</v>
-      </c>
-      <c r="C123" s="1">
-        <v>0.87847222222222221</v>
-      </c>
-      <c r="D123">
-        <v>616</v>
-      </c>
-      <c r="G123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="E123">
+        <v>578</v>
+      </c>
+      <c r="F123" t="s">
+        <v>19</v>
+      </c>
+      <c r="G123" s="1">
+        <v>0.91666666666666663</v>
+      </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>12</v>
-      </c>
-      <c r="B124" t="s">
-        <v>28</v>
-      </c>
-      <c r="C124" s="1">
-        <v>0.8881944444444444</v>
-      </c>
-      <c r="D124">
-        <v>1461</v>
-      </c>
-      <c r="G124" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C124" s="1"/>
+      <c r="E124">
+        <v>365</v>
+      </c>
+      <c r="F124" t="s">
+        <v>20</v>
+      </c>
+      <c r="G124" s="1">
+        <v>0.92013888888888884</v>
+      </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -2437,10 +2428,10 @@
       </c>
       <c r="C125" s="1"/>
       <c r="E125">
-        <v>365</v>
+        <v>580</v>
       </c>
       <c r="F125" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G125" s="1">
         <v>0.92013888888888884</v>
@@ -2452,10 +2443,10 @@
       </c>
       <c r="C126" s="1"/>
       <c r="E126">
-        <v>580</v>
+        <v>315</v>
       </c>
       <c r="F126" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G126" s="1">
         <v>0.92013888888888884</v>
@@ -2467,27 +2458,27 @@
       </c>
       <c r="C127" s="1"/>
       <c r="E127">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="F127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G127" s="1">
-        <v>0.92361111111111116</v>
+        <v>0.92013888888888884</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B128" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C128" s="1">
-        <v>0.92986111111111114</v>
+        <v>0.92361111111111116</v>
       </c>
       <c r="D128">
-        <v>4339</v>
+        <v>878</v>
       </c>
       <c r="G128" s="1"/>
     </row>
@@ -2497,13 +2488,13 @@
       </c>
       <c r="C129" s="1"/>
       <c r="E129">
-        <v>578</v>
+        <v>429</v>
       </c>
       <c r="F129" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G129" s="1">
-        <v>0.93055555555555558</v>
+        <v>0.92361111111111116</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -2512,13 +2503,13 @@
       </c>
       <c r="C130" s="1"/>
       <c r="E130">
-        <v>627</v>
+        <v>658</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G130" s="1">
-        <v>0.93402777777777779</v>
+        <v>0.92361111111111116</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -2527,13 +2518,13 @@
       </c>
       <c r="C131" s="1"/>
       <c r="E131">
-        <v>574</v>
+        <v>452</v>
       </c>
       <c r="F131" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G131" s="1">
-        <v>0.9375</v>
+        <v>0.92361111111111116</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -2542,148 +2533,13 @@
       </c>
       <c r="C132" s="1"/>
       <c r="E132">
-        <v>315</v>
+        <v>651</v>
       </c>
       <c r="F132" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G132" s="1">
-        <v>0.94097222222222221</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>7</v>
-      </c>
-      <c r="C133" s="1"/>
-      <c r="E133">
-        <v>658</v>
-      </c>
-      <c r="F133" t="s">
-        <v>20</v>
-      </c>
-      <c r="G133" s="1">
-        <v>0.94444444444444442</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>12</v>
-      </c>
-      <c r="B134" t="s">
-        <v>37</v>
-      </c>
-      <c r="C134" s="1">
-        <v>0.94930555555555562</v>
-      </c>
-      <c r="D134">
-        <v>1425</v>
-      </c>
-      <c r="G134" s="1"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>7</v>
-      </c>
-      <c r="C135" s="1"/>
-      <c r="E135">
-        <v>452</v>
-      </c>
-      <c r="F135" t="s">
-        <v>8</v>
-      </c>
-      <c r="G135" s="1">
-        <v>0.95486111111111116</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>7</v>
-      </c>
-      <c r="C136" s="1"/>
-      <c r="E136">
-        <v>457</v>
-      </c>
-      <c r="F136" t="s">
-        <v>13</v>
-      </c>
-      <c r="G136" s="1">
-        <v>0.95486111111111116</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>7</v>
-      </c>
-      <c r="C137" s="1"/>
-      <c r="E137">
-        <v>432</v>
-      </c>
-      <c r="F137" t="s">
-        <v>32</v>
-      </c>
-      <c r="G137" s="1">
-        <v>0.95833333333333337</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>9</v>
-      </c>
-      <c r="C138" s="1"/>
-      <c r="E138">
-        <v>4336</v>
-      </c>
-      <c r="F138" t="s">
-        <v>37</v>
-      </c>
-      <c r="G138" s="1">
-        <v>0.97152777777777777</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>39</v>
-      </c>
-      <c r="B139" t="s">
-        <v>15</v>
-      </c>
-      <c r="C139" s="1">
-        <v>0.98402777777777772</v>
-      </c>
-      <c r="D139">
-        <v>4156</v>
-      </c>
-      <c r="G139" s="1"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>24</v>
-      </c>
-      <c r="B140" t="s">
-        <v>25</v>
-      </c>
-      <c r="C140" s="1">
-        <v>0.98402777777777783</v>
-      </c>
-      <c r="D140">
-        <v>878</v>
-      </c>
-      <c r="G140" s="1"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>12</v>
-      </c>
-      <c r="C141" s="1"/>
-      <c r="E141">
-        <v>339</v>
-      </c>
-      <c r="F141" t="s">
-        <v>37</v>
-      </c>
-      <c r="G141" s="1">
-        <v>0.99583333333333324</v>
+        <v>0.92708333333333337</v>
       </c>
     </row>
   </sheetData>

--- a/public/operaciones.xlsx
+++ b/public/operaciones.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulm\Desktop\Itinerarios_2026-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{686F0B8D-6F9A-4182-A510-BA8218192307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88C24652-7988-4556-854F-15986135FB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E277E208-7B9C-401A-B427-64B1343326AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D07ED9BE-AB05-4ACB-A406-79A38B2931C2}"/>
   </bookViews>
   <sheets>
-    <sheet name="14-02" sheetId="1" r:id="rId1"/>
+    <sheet name="15-02" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="47">
   <si>
     <t>AEROLINEA</t>
   </si>
@@ -71,97 +71,109 @@
     <t>KIAD</t>
   </si>
   <si>
-    <t>KONT</t>
+    <t>KLAX</t>
+  </si>
+  <si>
+    <t>UAL</t>
+  </si>
+  <si>
+    <t>SEQM</t>
+  </si>
+  <si>
+    <t>KJFK</t>
+  </si>
+  <si>
+    <t>MGGT</t>
+  </si>
+  <si>
+    <t>SKBO</t>
+  </si>
+  <si>
+    <t>MNMG</t>
+  </si>
+  <si>
+    <t>SPJC</t>
+  </si>
+  <si>
+    <t>MROC</t>
+  </si>
+  <si>
+    <t>KSFO</t>
   </si>
   <si>
     <t>MHLM</t>
   </si>
   <si>
+    <t>TAG</t>
+  </si>
+  <si>
+    <t>MHRO</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>KMIA</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>MPTO</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>KATL</t>
+  </si>
+  <si>
+    <t>FFT</t>
+  </si>
+  <si>
+    <t>KIAH</t>
+  </si>
+  <si>
+    <t>AMX</t>
+  </si>
+  <si>
+    <t>MMMX</t>
+  </si>
+  <si>
+    <t>KDFW</t>
+  </si>
+  <si>
+    <t>NKS</t>
+  </si>
+  <si>
+    <t>KFLL</t>
+  </si>
+  <si>
+    <t>IBE</t>
+  </si>
+  <si>
+    <t>CYYZ</t>
+  </si>
+  <si>
+    <t>KBOS</t>
+  </si>
+  <si>
+    <t>KEWR</t>
+  </si>
+  <si>
+    <t>DHL</t>
+  </si>
+  <si>
+    <t>TPA</t>
+  </si>
+  <si>
+    <t>AJT</t>
+  </si>
+  <si>
+    <t>SKRG</t>
+  </si>
+  <si>
     <t>KOAK</t>
-  </si>
-  <si>
-    <t>KLAX</t>
-  </si>
-  <si>
-    <t>UAL</t>
-  </si>
-  <si>
-    <t>SEQM</t>
-  </si>
-  <si>
-    <t>KJFK</t>
-  </si>
-  <si>
-    <t>MMMX</t>
-  </si>
-  <si>
-    <t>MGGT</t>
-  </si>
-  <si>
-    <t>SKBO</t>
-  </si>
-  <si>
-    <t>MNMG</t>
-  </si>
-  <si>
-    <t>SPJC</t>
-  </si>
-  <si>
-    <t>MROC</t>
-  </si>
-  <si>
-    <t>KSFO</t>
-  </si>
-  <si>
-    <t>KEWR</t>
-  </si>
-  <si>
-    <t>AAL</t>
-  </si>
-  <si>
-    <t>KMIA</t>
-  </si>
-  <si>
-    <t>CMP</t>
-  </si>
-  <si>
-    <t>MPTO</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>KATL</t>
-  </si>
-  <si>
-    <t>FFT</t>
-  </si>
-  <si>
-    <t>KIAH</t>
-  </si>
-  <si>
-    <t>AMX</t>
-  </si>
-  <si>
-    <t>KDFW</t>
-  </si>
-  <si>
-    <t>MMUN</t>
-  </si>
-  <si>
-    <t>IBE</t>
-  </si>
-  <si>
-    <t>CYYZ</t>
-  </si>
-  <si>
-    <t>FDX</t>
-  </si>
-  <si>
-    <t>AJT</t>
-  </si>
-  <si>
-    <t>TPA</t>
   </si>
   <si>
     <t>LEMD</t>
@@ -539,8 +551,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF1BEF8-FAEC-49EE-82BD-2FDBE7B2C5A5}">
-  <dimension ref="A1:G132"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2806CD6D-596F-43AE-AE13-3A87209035AD}">
+  <dimension ref="A1:G139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -579,63 +591,63 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="E2">
-        <v>1670</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.125</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.18402777777777779</v>
+      </c>
+      <c r="D2">
+        <v>222</v>
+      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.13055555555555556</v>
-      </c>
-      <c r="D3">
-        <v>4156</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="E3">
+        <v>1670</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.20833333333333334</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="D4">
-        <v>453</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="E4">
+        <v>879</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.20972222222222223</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="E5">
-        <v>879</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.20972222222222223</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="D5">
+        <v>453</v>
+      </c>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -654,16 +666,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
-        <v>0.22222222222222221</v>
+        <v>0.22569444444444445</v>
       </c>
       <c r="D7">
-        <v>531</v>
+        <v>224</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -671,38 +683,38 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="D8">
-        <v>575</v>
-      </c>
-      <c r="G8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="E8">
+        <v>556</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.22916666666666666</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.23472222222222222</v>
-      </c>
-      <c r="D9">
-        <v>4323</v>
-      </c>
-      <c r="G9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="E9">
+        <v>4350</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.22916666666666666</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
         <v>0.23541666666666666</v>
@@ -714,10 +726,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1">
         <v>0.23958333333333334</v>
@@ -732,7 +744,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
         <v>0.24652777777777779</v>
@@ -747,7 +759,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <v>0.24652777777777779</v>
@@ -762,13 +774,13 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>0.25347222222222221</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="D14">
-        <v>433</v>
+        <v>579</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -777,13 +789,13 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
-        <v>0.25694444444444442</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D15">
-        <v>579</v>
+        <v>366</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -792,13 +804,13 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1">
         <v>0.26041666666666669</v>
       </c>
       <c r="D16">
-        <v>366</v>
+        <v>529</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -807,58 +819,58 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="D17">
-        <v>529</v>
+        <v>314</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="1">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="E18">
+        <v>4326</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1">
         <v>0.2638888888888889</v>
       </c>
-      <c r="D18">
-        <v>314</v>
-      </c>
-      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="E19">
-        <v>4326</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.2638888888888889</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="D19">
+        <v>428</v>
+      </c>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1">
         <v>0.2673611111111111</v>
       </c>
       <c r="D20">
-        <v>428</v>
+        <v>626</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -867,13 +879,13 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
-        <v>0.2673611111111111</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D21">
-        <v>650</v>
+        <v>561</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -882,13 +894,13 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1">
         <v>0.27083333333333331</v>
       </c>
       <c r="D22">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -897,41 +909,41 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C23" s="1">
         <v>0.27083333333333331</v>
       </c>
       <c r="D23">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D24">
-        <v>591</v>
-      </c>
-      <c r="G24" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="E24">
+        <v>4318</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.28611111111111109</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C25" s="1"/>
       <c r="E25">
         <v>1467</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G25" s="1">
         <v>0.28819444444444448</v>
@@ -942,7 +954,7 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C26" s="1">
         <v>0.29166666666666669</v>
@@ -954,17 +966,17 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1"/>
       <c r="E27">
-        <v>4330</v>
+        <v>323</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G27" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -973,10 +985,10 @@
       </c>
       <c r="C28" s="1"/>
       <c r="E28">
-        <v>321</v>
+        <v>396</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G28" s="1">
         <v>0.3125</v>
@@ -984,17 +996,17 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C29" s="1"/>
       <c r="E29">
-        <v>323</v>
+        <v>4338</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G29" s="1">
-        <v>0.3125</v>
+        <v>0.31527777777777777</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1003,28 +1015,28 @@
       </c>
       <c r="C30" s="1"/>
       <c r="E30">
-        <v>396</v>
+        <v>310</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G30" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C31" s="1"/>
       <c r="E31">
-        <v>884</v>
+        <v>440</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G31" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1033,10 +1045,10 @@
       </c>
       <c r="C32" s="1"/>
       <c r="E32">
-        <v>310</v>
+        <v>536</v>
       </c>
       <c r="F32" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G32" s="1">
         <v>0.31597222222222221</v>
@@ -1048,13 +1060,13 @@
       </c>
       <c r="C33" s="1"/>
       <c r="E33">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G33" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1063,13 +1075,13 @@
       </c>
       <c r="C34" s="1"/>
       <c r="E34">
-        <v>536</v>
+        <v>562</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G34" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1078,13 +1090,13 @@
       </c>
       <c r="C35" s="1"/>
       <c r="E35">
-        <v>562</v>
+        <v>368</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G35" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1093,10 +1105,10 @@
       </c>
       <c r="C36" s="1"/>
       <c r="E36">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G36" s="1">
         <v>0.33333333333333331</v>
@@ -1108,10 +1120,10 @@
       </c>
       <c r="C37" s="1"/>
       <c r="E37">
-        <v>383</v>
+        <v>522</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G37" s="1">
         <v>0.33333333333333331</v>
@@ -1121,31 +1133,31 @@
       <c r="A38" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="E38">
-        <v>522</v>
-      </c>
-      <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="D38">
+        <v>581</v>
+      </c>
+      <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="1">
+      <c r="C39" s="1"/>
+      <c r="E39">
+        <v>660</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="1">
         <v>0.33680555555555558</v>
       </c>
-      <c r="D39">
-        <v>581</v>
-      </c>
-      <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1153,13 +1165,13 @@
       </c>
       <c r="C40" s="1"/>
       <c r="E40">
-        <v>660</v>
+        <v>454</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G40" s="1">
-        <v>0.33680555555555558</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1168,10 +1180,10 @@
       </c>
       <c r="C41" s="1"/>
       <c r="E41">
-        <v>454</v>
+        <v>554</v>
       </c>
       <c r="F41" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G41" s="1">
         <v>0.34027777777777779</v>
@@ -1183,72 +1195,72 @@
       </c>
       <c r="C42" s="1"/>
       <c r="E42">
-        <v>538</v>
+        <v>324</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G42" s="1">
-        <v>0.34027777777777779</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="E43">
-        <v>324</v>
-      </c>
-      <c r="F43" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0.34375</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.34722222222222221</v>
+      </c>
+      <c r="D43">
+        <v>4053</v>
+      </c>
+      <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C44" s="1"/>
       <c r="E44">
-        <v>430</v>
+        <v>884</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G44" s="1">
-        <v>0.37847222222222221</v>
+        <v>0.3576388888888889</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="E45">
-        <v>582</v>
-      </c>
-      <c r="F45" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0.39930555555555558</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="D45">
+        <v>916</v>
+      </c>
+      <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C46" s="1">
-        <v>0.41319444444444442</v>
+        <v>0.37847222222222221</v>
       </c>
       <c r="D46">
-        <v>659</v>
+        <v>559</v>
       </c>
       <c r="G46" s="1"/>
     </row>
@@ -1258,13 +1270,13 @@
       </c>
       <c r="C47" s="1"/>
       <c r="E47">
-        <v>392</v>
+        <v>430</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G47" s="1">
-        <v>0.41319444444444442</v>
+        <v>0.37847222222222221</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1273,42 +1285,42 @@
       </c>
       <c r="C48" s="1"/>
       <c r="E48">
-        <v>609</v>
+        <v>582</v>
       </c>
       <c r="F48" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G48" s="1">
-        <v>0.4236111111111111</v>
+        <v>0.39930555555555558</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="E49">
-        <v>4320</v>
-      </c>
-      <c r="F49" t="s">
-        <v>33</v>
-      </c>
-      <c r="G49" s="1">
-        <v>0.4236111111111111</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="D49">
+        <v>4053</v>
+      </c>
+      <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C50" s="1">
-        <v>0.42708333333333331</v>
+        <v>0.41319444444444442</v>
       </c>
       <c r="D50">
-        <v>537</v>
+        <v>659</v>
       </c>
       <c r="G50" s="1"/>
     </row>
@@ -1316,74 +1328,74 @@
       <c r="A51" t="s">
         <v>7</v>
       </c>
-      <c r="B51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="D51">
-        <v>455</v>
-      </c>
-      <c r="G51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="E51">
+        <v>392</v>
+      </c>
+      <c r="F51" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.41319444444444442</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
-      <c r="B52" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="D52">
-        <v>320</v>
-      </c>
-      <c r="G52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="E52">
+        <v>611</v>
+      </c>
+      <c r="F52" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.4236111111111111</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C53" s="1">
-        <v>0.4513888888888889</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D53">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C54" s="1">
-        <v>0.45347222222222222</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D54">
-        <v>4337</v>
+        <v>916</v>
       </c>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C55" s="1">
-        <v>0.45555555555555555</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="D55">
-        <v>8139</v>
+        <v>455</v>
       </c>
       <c r="G55" s="1"/>
     </row>
@@ -1392,28 +1404,28 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C56" s="1">
         <v>0.46180555555555558</v>
       </c>
       <c r="D56">
-        <v>384</v>
+        <v>70</v>
       </c>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C57" s="1">
-        <v>0.46527777777777773</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="D57">
-        <v>761</v>
+        <v>771</v>
       </c>
       <c r="G57" s="1"/>
     </row>
@@ -1423,13 +1435,13 @@
       </c>
       <c r="C58" s="1"/>
       <c r="E58">
-        <v>584</v>
+        <v>424</v>
       </c>
       <c r="F58" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G58" s="1">
-        <v>0.49305555555555558</v>
+        <v>0.50347222222222221</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -1438,13 +1450,13 @@
       </c>
       <c r="C59" s="1"/>
       <c r="E59">
-        <v>650</v>
+        <v>71</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="G59" s="1">
-        <v>0.49305555555555558</v>
+        <v>0.50347222222222221</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -1453,36 +1465,36 @@
       </c>
       <c r="C60" s="1"/>
       <c r="E60">
-        <v>385</v>
+        <v>319</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G60" s="1">
-        <v>0.50347222222222221</v>
+        <v>0.51041666666666663</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="E61">
-        <v>442</v>
-      </c>
-      <c r="F61" t="s">
-        <v>35</v>
-      </c>
-      <c r="G61" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D61">
+        <v>420</v>
+      </c>
+      <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C62" s="1">
         <v>0.52569444444444446</v>
@@ -1494,16 +1506,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B63" t="s">
         <v>27</v>
       </c>
       <c r="C63" s="1">
-        <v>0.52777777777777779</v>
+        <v>0.52986111111111112</v>
       </c>
       <c r="D63">
-        <v>760</v>
+        <v>816</v>
       </c>
       <c r="G63" s="1"/>
     </row>
@@ -1515,34 +1527,34 @@
         <v>29</v>
       </c>
       <c r="C64" s="1">
-        <v>0.52986111111111112</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="D64">
-        <v>816</v>
+        <v>1910</v>
       </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B65" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C65" s="1">
         <v>0.54861111111111105</v>
       </c>
       <c r="D65">
-        <v>1910</v>
+        <v>770</v>
       </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C66" s="1">
         <v>0.5493055555555556</v>
@@ -1554,10 +1566,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C67" s="1">
         <v>0.55486111111111114</v>
@@ -1569,78 +1581,78 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C68" s="1"/>
       <c r="E68">
-        <v>2820</v>
+        <v>421</v>
       </c>
       <c r="F68" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G68" s="1">
-        <v>0.56736111111111109</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C69" s="1"/>
       <c r="E69">
-        <v>871</v>
+        <v>2820</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G69" s="1">
-        <v>0.57291666666666663</v>
+        <v>0.56736111111111109</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>34</v>
-      </c>
-      <c r="B70" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70" s="1">
-        <v>0.57986111111111105</v>
-      </c>
-      <c r="D70">
-        <v>628</v>
-      </c>
-      <c r="G70" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="E70">
+        <v>871</v>
+      </c>
+      <c r="F70" t="s">
+        <v>27</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.57291666666666663</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B71" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C71" s="1">
-        <v>0.58402777777777781</v>
+        <v>0.57986111111111105</v>
       </c>
       <c r="D71">
-        <v>1035</v>
+        <v>628</v>
       </c>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>32</v>
-      </c>
-      <c r="C72" s="1"/>
-      <c r="E72">
-        <v>218</v>
-      </c>
-      <c r="F72" t="s">
-        <v>31</v>
-      </c>
-      <c r="G72" s="1">
-        <v>0.59444444444444444</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0.58402777777777781</v>
+      </c>
+      <c r="D72">
+        <v>1035</v>
+      </c>
+      <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -1648,147 +1660,147 @@
       </c>
       <c r="C73" s="1"/>
       <c r="E73">
-        <v>1978</v>
+        <v>218</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G73" s="1">
-        <v>0.60763888888888895</v>
+        <v>0.59444444444444444</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>26</v>
-      </c>
-      <c r="B74" t="s">
-        <v>27</v>
-      </c>
-      <c r="C74" s="1">
-        <v>0.61597222222222225</v>
-      </c>
-      <c r="D74">
-        <v>3151</v>
-      </c>
-      <c r="G74" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="E74">
+        <v>1978</v>
+      </c>
+      <c r="F74" t="s">
+        <v>29</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.60763888888888895</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>15</v>
-      </c>
-      <c r="C75" s="1"/>
-      <c r="E75">
-        <v>1468</v>
-      </c>
-      <c r="F75" t="s">
-        <v>33</v>
-      </c>
-      <c r="G75" s="1">
-        <v>0.61805555555555558</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B75" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.61597222222222225</v>
+      </c>
+      <c r="D75">
+        <v>3151</v>
+      </c>
+      <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C76" s="1"/>
       <c r="E76">
-        <v>1104</v>
+        <v>1468</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G76" s="1">
-        <v>0.62777777777777777</v>
+        <v>0.61805555555555558</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>34</v>
-      </c>
-      <c r="C77" s="1"/>
-      <c r="E77">
-        <v>629</v>
-      </c>
-      <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" s="1">
-        <v>0.63263888888888886</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="D77">
+        <v>1031</v>
+      </c>
+      <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" t="s">
         <v>15</v>
       </c>
-      <c r="B78" t="s">
-        <v>33</v>
-      </c>
       <c r="C78" s="1">
-        <v>0.64166666666666672</v>
+        <v>0.62222222222222223</v>
       </c>
       <c r="D78">
-        <v>1290</v>
+        <v>4319</v>
       </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79" t="s">
-        <v>20</v>
-      </c>
-      <c r="C79" s="1">
-        <v>0.65277777777777779</v>
-      </c>
-      <c r="D79">
-        <v>382</v>
-      </c>
-      <c r="G79" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="E79">
+        <v>1104</v>
+      </c>
+      <c r="F79" t="s">
+        <v>34</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0.62777777777777777</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C80" s="1"/>
       <c r="E80">
-        <v>317</v>
+        <v>629</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G80" s="1">
-        <v>0.65625</v>
+        <v>0.63263888888888886</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>26</v>
-      </c>
-      <c r="C81" s="1"/>
-      <c r="E81">
-        <v>352</v>
-      </c>
-      <c r="F81" t="s">
-        <v>27</v>
-      </c>
-      <c r="G81" s="1">
-        <v>0.65763888888888888</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B81" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.64166666666666672</v>
+      </c>
+      <c r="D81">
+        <v>1290</v>
+      </c>
+      <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C82" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="D82">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="G82" s="1"/>
     </row>
@@ -1796,165 +1808,165 @@
       <c r="A83" t="s">
         <v>7</v>
       </c>
-      <c r="B83" t="s">
-        <v>21</v>
-      </c>
-      <c r="C83" s="1">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="D83">
-        <v>397</v>
-      </c>
-      <c r="G83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="E83">
+        <v>317</v>
+      </c>
+      <c r="F83" t="s">
+        <v>27</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0.65625</v>
+      </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>7</v>
-      </c>
-      <c r="B84" t="s">
-        <v>35</v>
-      </c>
-      <c r="C84" s="1">
-        <v>0.68055555555555558</v>
-      </c>
-      <c r="D84">
-        <v>441</v>
-      </c>
-      <c r="G84" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="E84">
+        <v>352</v>
+      </c>
+      <c r="F84" t="s">
+        <v>25</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0.65763888888888888</v>
+      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C85" s="1">
-        <v>0.68402777777777779</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D85">
-        <v>651</v>
+        <v>367</v>
       </c>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" t="s">
-        <v>27</v>
-      </c>
-      <c r="C86" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="D86">
-        <v>311</v>
-      </c>
-      <c r="G86" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="E86">
+        <v>1032</v>
+      </c>
+      <c r="F86" t="s">
+        <v>36</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0.66805555555555562</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>15</v>
-      </c>
-      <c r="C87" s="1"/>
-      <c r="E87">
-        <v>1130</v>
-      </c>
-      <c r="F87" t="s">
-        <v>33</v>
-      </c>
-      <c r="G87" s="1">
-        <v>0.69444444444444453</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="D87">
+        <v>397</v>
+      </c>
+      <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C88" s="1">
-        <v>0.69722222222222219</v>
+        <v>0.68055555555555558</v>
       </c>
       <c r="D88">
-        <v>4327</v>
+        <v>441</v>
       </c>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89" t="s">
-        <v>29</v>
-      </c>
-      <c r="C89" s="1">
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="D89">
-        <v>322</v>
-      </c>
-      <c r="G89" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="E89">
+        <v>4322</v>
+      </c>
+      <c r="F89" t="s">
+        <v>45</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0.68611111111111112</v>
+      </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="1"/>
-      <c r="E90">
-        <v>520</v>
-      </c>
-      <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+      <c r="B90" t="s">
+        <v>25</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="D90">
+        <v>311</v>
+      </c>
+      <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
-      <c r="C91" s="1"/>
-      <c r="E91">
-        <v>530</v>
-      </c>
-      <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+      <c r="B91" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="D91">
+        <v>318</v>
+      </c>
+      <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>7</v>
       </c>
-      <c r="C92" s="1"/>
-      <c r="E92">
-        <v>560</v>
-      </c>
-      <c r="F92" t="s">
-        <v>24</v>
-      </c>
-      <c r="G92" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+      <c r="B92" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="D92">
+        <v>555</v>
+      </c>
+      <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C93" s="1"/>
       <c r="E93">
-        <v>615</v>
+        <v>1130</v>
       </c>
       <c r="F93" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G93" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.69444444444444453</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -1962,13 +1974,13 @@
         <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C94" s="1">
-        <v>0.73472222222222228</v>
+        <v>0.69722222222222219</v>
       </c>
       <c r="D94">
-        <v>4321</v>
+        <v>4327</v>
       </c>
       <c r="G94" s="1"/>
     </row>
@@ -1976,30 +1988,30 @@
       <c r="A95" t="s">
         <v>7</v>
       </c>
-      <c r="C95" s="1"/>
-      <c r="E95">
-        <v>448</v>
-      </c>
-      <c r="F95" t="s">
-        <v>8</v>
-      </c>
-      <c r="G95" s="1">
-        <v>0.74305555555555558</v>
-      </c>
+      <c r="B95" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D95">
+        <v>322</v>
+      </c>
+      <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C96" s="1"/>
       <c r="E96">
-        <v>4308</v>
+        <v>520</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G96" s="1">
-        <v>0.74583333333333335</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -2008,58 +2020,58 @@
       </c>
       <c r="C97" s="1"/>
       <c r="E97">
-        <v>528</v>
+        <v>560</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G97" s="1">
-        <v>0.76041666666666663</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>9</v>
-      </c>
-      <c r="B98" t="s">
-        <v>23</v>
-      </c>
-      <c r="C98" s="1">
-        <v>0.7631944444444444</v>
-      </c>
-      <c r="D98">
-        <v>4040</v>
-      </c>
-      <c r="G98" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="E98">
+        <v>617</v>
+      </c>
+      <c r="F98" t="s">
+        <v>19</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" s="1"/>
-      <c r="E99">
-        <v>566</v>
-      </c>
-      <c r="F99" t="s">
-        <v>17</v>
-      </c>
-      <c r="G99" s="1">
-        <v>0.77083333333333337</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="D99">
+        <v>4351</v>
+      </c>
+      <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C100" s="1"/>
       <c r="E100">
-        <v>4312</v>
+        <v>448</v>
       </c>
       <c r="F100" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G100" s="1">
-        <v>0.77638888888888891</v>
+        <v>0.74305555555555558</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -2068,59 +2080,59 @@
       </c>
       <c r="C101" s="1"/>
       <c r="E101">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="F101" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G101" s="1">
-        <v>0.78819444444444442</v>
+        <v>0.74305555555555558</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>9</v>
       </c>
-      <c r="B102" t="s">
-        <v>14</v>
-      </c>
-      <c r="C102" s="1">
-        <v>0.79027777777777775</v>
-      </c>
-      <c r="D102">
-        <v>4331</v>
-      </c>
-      <c r="G102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="E102">
+        <v>4308</v>
+      </c>
+      <c r="F102" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0.74583333333333335</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>7</v>
       </c>
-      <c r="B103" t="s">
-        <v>18</v>
-      </c>
-      <c r="C103" s="1">
-        <v>0.79513888888888884</v>
-      </c>
-      <c r="D103">
-        <v>431</v>
-      </c>
-      <c r="G103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="E103">
+        <v>528</v>
+      </c>
+      <c r="F103" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0.76041666666666663</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>7</v>
       </c>
-      <c r="B104" t="s">
-        <v>17</v>
-      </c>
-      <c r="C104" s="1">
-        <v>0.79513888888888884</v>
-      </c>
-      <c r="D104">
-        <v>661</v>
-      </c>
-      <c r="G104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="E104">
+        <v>566</v>
+      </c>
+      <c r="F104" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0.77083333333333337</v>
+      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
@@ -2128,27 +2140,27 @@
       </c>
       <c r="C105" s="1"/>
       <c r="E105">
-        <v>4041</v>
+        <v>4312</v>
       </c>
       <c r="F105" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G105" s="1">
-        <v>0.79513888888888884</v>
+        <v>0.77638888888888891</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B106" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C106" s="1">
-        <v>0.8125</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="D106">
-        <v>222</v>
+        <v>431</v>
       </c>
       <c r="G106" s="1"/>
     </row>
@@ -2156,29 +2168,29 @@
       <c r="A107" t="s">
         <v>7</v>
       </c>
-      <c r="C107" s="1"/>
-      <c r="E107">
-        <v>570</v>
-      </c>
-      <c r="F107" t="s">
-        <v>17</v>
-      </c>
-      <c r="G107" s="1">
-        <v>0.8125</v>
-      </c>
+      <c r="B107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="D107">
+        <v>661</v>
+      </c>
+      <c r="G107" s="1"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C108" s="1">
-        <v>0.82638888888888884</v>
+        <v>0.8125</v>
       </c>
       <c r="D108">
-        <v>523</v>
+        <v>222</v>
       </c>
       <c r="G108" s="1"/>
     </row>
@@ -2186,29 +2198,29 @@
       <c r="A109" t="s">
         <v>7</v>
       </c>
-      <c r="B109" t="s">
-        <v>10</v>
-      </c>
-      <c r="C109" s="1">
-        <v>0.82986111111111116</v>
-      </c>
-      <c r="D109">
-        <v>583</v>
-      </c>
-      <c r="G109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="E109">
+        <v>570</v>
+      </c>
+      <c r="F109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0.8125</v>
+      </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>7</v>
       </c>
       <c r="B110" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C110" s="1">
-        <v>0.84375</v>
+        <v>0.81944444444444442</v>
       </c>
       <c r="D110">
-        <v>325</v>
+        <v>425</v>
       </c>
       <c r="G110" s="1"/>
     </row>
@@ -2216,29 +2228,29 @@
       <c r="A111" t="s">
         <v>7</v>
       </c>
-      <c r="C111" s="1"/>
-      <c r="E111">
-        <v>590</v>
-      </c>
-      <c r="F111" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="1">
-        <v>0.85069444444444442</v>
-      </c>
+      <c r="B111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="D111">
+        <v>523</v>
+      </c>
+      <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>7</v>
       </c>
       <c r="B112" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C112" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.82986111111111116</v>
       </c>
       <c r="D112">
-        <v>393</v>
+        <v>583</v>
       </c>
       <c r="G112" s="1"/>
     </row>
@@ -2247,28 +2259,28 @@
         <v>7</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C113" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.84375</v>
       </c>
       <c r="D113">
-        <v>449</v>
+        <v>325</v>
       </c>
       <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B114" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C114" s="1">
-        <v>0.86041666666666661</v>
+        <v>0.84375</v>
       </c>
       <c r="D114">
-        <v>881</v>
+        <v>445</v>
       </c>
       <c r="G114" s="1"/>
     </row>
@@ -2276,29 +2288,29 @@
       <c r="A115" t="s">
         <v>7</v>
       </c>
-      <c r="B115" t="s">
-        <v>35</v>
-      </c>
-      <c r="C115" s="1">
-        <v>0.86805555555555558</v>
-      </c>
-      <c r="D115">
-        <v>443</v>
-      </c>
-      <c r="G115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="E115">
+        <v>590</v>
+      </c>
+      <c r="F115" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="1">
+        <v>0.85069444444444442</v>
+      </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>7</v>
       </c>
       <c r="B116" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C116" s="1">
-        <v>0.86805555555555558</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D116">
-        <v>563</v>
+        <v>393</v>
       </c>
       <c r="G116" s="1"/>
     </row>
@@ -2307,58 +2319,58 @@
         <v>7</v>
       </c>
       <c r="B117" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C117" s="1">
-        <v>0.87152777777777779</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D117">
-        <v>316</v>
+        <v>449</v>
       </c>
       <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>37</v>
-      </c>
-      <c r="C118" s="1"/>
-      <c r="E118">
-        <v>222</v>
-      </c>
-      <c r="F118" t="s">
-        <v>42</v>
-      </c>
-      <c r="G118" s="1">
-        <v>0.875</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B118" t="s">
+        <v>27</v>
+      </c>
+      <c r="C118" s="1">
+        <v>0.86041666666666661</v>
+      </c>
+      <c r="D118">
+        <v>881</v>
+      </c>
+      <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>7</v>
       </c>
       <c r="B119" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C119" s="1">
-        <v>0.87847222222222221</v>
+        <v>0.86805555555555558</v>
       </c>
       <c r="D119">
-        <v>614</v>
+        <v>563</v>
       </c>
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B120" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C120" s="1">
-        <v>0.8881944444444444</v>
+        <v>0.87152777777777779</v>
       </c>
       <c r="D120">
-        <v>1461</v>
+        <v>316</v>
       </c>
       <c r="G120" s="1"/>
     </row>
@@ -2367,75 +2379,75 @@
         <v>7</v>
       </c>
       <c r="B121" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C121" s="1">
-        <v>0.89236111111111116</v>
+        <v>0.875</v>
       </c>
       <c r="D121">
-        <v>608</v>
+        <v>535</v>
       </c>
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>7</v>
-      </c>
-      <c r="B122" t="s">
-        <v>10</v>
-      </c>
-      <c r="C122" s="1">
-        <v>0.91319444444444442</v>
-      </c>
-      <c r="D122">
-        <v>585</v>
-      </c>
-      <c r="G122" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C122" s="1"/>
+      <c r="E122">
+        <v>222</v>
+      </c>
+      <c r="F122" t="s">
+        <v>46</v>
+      </c>
+      <c r="G122" s="1">
+        <v>0.875</v>
+      </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>7</v>
       </c>
-      <c r="C123" s="1"/>
-      <c r="E123">
-        <v>578</v>
-      </c>
-      <c r="F123" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" s="1">
-        <v>0.91666666666666663</v>
-      </c>
+      <c r="B123" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" s="1">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="D123">
+        <v>557</v>
+      </c>
+      <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>7</v>
       </c>
-      <c r="C124" s="1"/>
-      <c r="E124">
-        <v>365</v>
-      </c>
-      <c r="F124" t="s">
-        <v>20</v>
-      </c>
-      <c r="G124" s="1">
-        <v>0.92013888888888884</v>
-      </c>
+      <c r="B124" t="s">
+        <v>19</v>
+      </c>
+      <c r="C124" s="1">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="D124">
+        <v>616</v>
+      </c>
+      <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125" s="1"/>
-      <c r="E125">
-        <v>580</v>
-      </c>
-      <c r="F125" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="1">
-        <v>0.92013888888888884</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B125" t="s">
+        <v>31</v>
+      </c>
+      <c r="C125" s="1">
+        <v>0.8881944444444444</v>
+      </c>
+      <c r="D125">
+        <v>1461</v>
+      </c>
+      <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
@@ -2443,10 +2455,10 @@
       </c>
       <c r="C126" s="1"/>
       <c r="E126">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="F126" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G126" s="1">
         <v>0.92013888888888884</v>
@@ -2458,10 +2470,10 @@
       </c>
       <c r="C127" s="1"/>
       <c r="E127">
-        <v>457</v>
+        <v>580</v>
       </c>
       <c r="F127" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G127" s="1">
         <v>0.92013888888888884</v>
@@ -2469,33 +2481,33 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>28</v>
-      </c>
-      <c r="B128" t="s">
-        <v>29</v>
-      </c>
-      <c r="C128" s="1">
+        <v>7</v>
+      </c>
+      <c r="C128" s="1"/>
+      <c r="E128">
+        <v>429</v>
+      </c>
+      <c r="F128" t="s">
+        <v>18</v>
+      </c>
+      <c r="G128" s="1">
         <v>0.92361111111111116</v>
       </c>
-      <c r="D128">
-        <v>878</v>
-      </c>
-      <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129" s="1"/>
-      <c r="E129">
-        <v>429</v>
-      </c>
-      <c r="F129" t="s">
-        <v>22</v>
-      </c>
-      <c r="G129" s="1">
-        <v>0.92361111111111116</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B129" t="s">
+        <v>25</v>
+      </c>
+      <c r="C129" s="1">
+        <v>0.92986111111111114</v>
+      </c>
+      <c r="D129">
+        <v>4339</v>
+      </c>
+      <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
@@ -2503,13 +2515,13 @@
       </c>
       <c r="C130" s="1"/>
       <c r="E130">
-        <v>658</v>
+        <v>578</v>
       </c>
       <c r="F130" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G130" s="1">
-        <v>0.92361111111111116</v>
+        <v>0.93055555555555558</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -2518,13 +2530,13 @@
       </c>
       <c r="C131" s="1"/>
       <c r="E131">
-        <v>452</v>
+        <v>627</v>
       </c>
       <c r="F131" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G131" s="1">
-        <v>0.92361111111111116</v>
+        <v>0.93402777777777779</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -2533,13 +2545,118 @@
       </c>
       <c r="C132" s="1"/>
       <c r="E132">
-        <v>651</v>
+        <v>574</v>
       </c>
       <c r="F132" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G132" s="1">
-        <v>0.92708333333333337</v>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" s="1"/>
+      <c r="E133">
+        <v>315</v>
+      </c>
+      <c r="F133" t="s">
+        <v>17</v>
+      </c>
+      <c r="G133" s="1">
+        <v>0.94097222222222221</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" s="1"/>
+      <c r="E134">
+        <v>658</v>
+      </c>
+      <c r="F134" t="s">
+        <v>14</v>
+      </c>
+      <c r="G134" s="1">
+        <v>0.94444444444444442</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" t="s">
+        <v>40</v>
+      </c>
+      <c r="C135" s="1">
+        <v>0.94930555555555562</v>
+      </c>
+      <c r="D135">
+        <v>1425</v>
+      </c>
+      <c r="G135" s="1"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" s="1"/>
+      <c r="E136">
+        <v>452</v>
+      </c>
+      <c r="F136" t="s">
+        <v>8</v>
+      </c>
+      <c r="G136" s="1">
+        <v>0.95486111111111116</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" s="1"/>
+      <c r="E137">
+        <v>432</v>
+      </c>
+      <c r="F137" t="s">
+        <v>33</v>
+      </c>
+      <c r="G137" s="1">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>26</v>
+      </c>
+      <c r="B138" t="s">
+        <v>27</v>
+      </c>
+      <c r="C138" s="1">
+        <v>0.98402777777777783</v>
+      </c>
+      <c r="D138">
+        <v>878</v>
+      </c>
+      <c r="G138" s="1"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" s="1"/>
+      <c r="E139">
+        <v>339</v>
+      </c>
+      <c r="F139" t="s">
+        <v>40</v>
+      </c>
+      <c r="G139" s="1">
+        <v>0.99583333333333324</v>
       </c>
     </row>
   </sheetData>

--- a/public/operaciones.xlsx
+++ b/public/operaciones.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulm\Desktop\Itinerarios_2026-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88C24652-7988-4556-854F-15986135FB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{640E4138-5ADA-429A-BECA-5A77CF6AAA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D07ED9BE-AB05-4ACB-A406-79A38B2931C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B967FD92-013F-469B-AE6C-D826AE7EB0E4}"/>
   </bookViews>
   <sheets>
-    <sheet name="15-02" sheetId="1" r:id="rId1"/>
+    <sheet name="16-02" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="47">
   <si>
     <t>AEROLINEA</t>
   </si>
@@ -59,124 +59,124 @@
     <t>ETD</t>
   </si>
   <si>
+    <t>VOS</t>
+  </si>
+  <si>
+    <t>KIAD</t>
+  </si>
+  <si>
     <t>AVA</t>
   </si>
   <si>
+    <t>MHLM</t>
+  </si>
+  <si>
+    <t>KOAK</t>
+  </si>
+  <si>
+    <t>KLAX</t>
+  </si>
+  <si>
+    <t>UAL</t>
+  </si>
+  <si>
+    <t>SEQM</t>
+  </si>
+  <si>
+    <t>KJFK</t>
+  </si>
+  <si>
+    <t>MMMX</t>
+  </si>
+  <si>
+    <t>MGGT</t>
+  </si>
+  <si>
+    <t>SKBO</t>
+  </si>
+  <si>
+    <t>MNMG</t>
+  </si>
+  <si>
+    <t>SPJC</t>
+  </si>
+  <si>
+    <t>MROC</t>
+  </si>
+  <si>
+    <t>KSFO</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>KMIA</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>MPTO</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>KATL</t>
+  </si>
+  <si>
+    <t>KIAH</t>
+  </si>
+  <si>
+    <t>TSC</t>
+  </si>
+  <si>
+    <t>CYUL</t>
+  </si>
+  <si>
+    <t>AMX</t>
+  </si>
+  <si>
+    <t>KDFW</t>
+  </si>
+  <si>
+    <t>IBE</t>
+  </si>
+  <si>
+    <t>CYYZ</t>
+  </si>
+  <si>
+    <t>KBOS</t>
+  </si>
+  <si>
     <t>MHPR</t>
   </si>
   <si>
-    <t>VOS</t>
-  </si>
-  <si>
-    <t>KIAD</t>
-  </si>
-  <si>
-    <t>KLAX</t>
-  </si>
-  <si>
-    <t>UAL</t>
-  </si>
-  <si>
-    <t>SEQM</t>
-  </si>
-  <si>
-    <t>KJFK</t>
-  </si>
-  <si>
-    <t>MGGT</t>
-  </si>
-  <si>
-    <t>SKBO</t>
-  </si>
-  <si>
-    <t>MNMG</t>
-  </si>
-  <si>
-    <t>SPJC</t>
-  </si>
-  <si>
-    <t>MROC</t>
-  </si>
-  <si>
-    <t>KSFO</t>
-  </si>
-  <si>
-    <t>MHLM</t>
-  </si>
-  <si>
-    <t>TAG</t>
-  </si>
-  <si>
-    <t>MHRO</t>
-  </si>
-  <si>
-    <t>AAL</t>
-  </si>
-  <si>
-    <t>KMIA</t>
-  </si>
-  <si>
-    <t>CMP</t>
-  </si>
-  <si>
-    <t>MPTO</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>KATL</t>
-  </si>
-  <si>
-    <t>FFT</t>
-  </si>
-  <si>
-    <t>KIAH</t>
-  </si>
-  <si>
-    <t>AMX</t>
-  </si>
-  <si>
-    <t>MMMX</t>
-  </si>
-  <si>
-    <t>KDFW</t>
-  </si>
-  <si>
-    <t>NKS</t>
-  </si>
-  <si>
-    <t>KFLL</t>
-  </si>
-  <si>
-    <t>IBE</t>
-  </si>
-  <si>
-    <t>CYYZ</t>
-  </si>
-  <si>
-    <t>KBOS</t>
+    <t>TPA</t>
+  </si>
+  <si>
+    <t>AJT</t>
+  </si>
+  <si>
+    <t>MKJP</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>FDX</t>
+  </si>
+  <si>
+    <t>DHL</t>
+  </si>
+  <si>
+    <t>MHTG</t>
+  </si>
+  <si>
+    <t>LEMD</t>
   </si>
   <si>
     <t>KEWR</t>
-  </si>
-  <si>
-    <t>DHL</t>
-  </si>
-  <si>
-    <t>TPA</t>
-  </si>
-  <si>
-    <t>AJT</t>
-  </si>
-  <si>
-    <t>SKRG</t>
-  </si>
-  <si>
-    <t>KOAK</t>
-  </si>
-  <si>
-    <t>LEMD</t>
   </si>
 </sst>
 </file>
@@ -551,8 +551,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2806CD6D-596F-43AE-AE13-3A87209035AD}">
-  <dimension ref="A1:G139"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25004C41-1566-468D-AA46-592034DB52C1}">
+  <dimension ref="A1:G134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -591,44 +591,44 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.18402777777777779</v>
-      </c>
-      <c r="D2">
-        <v>222</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="E2">
+        <v>1670</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="E3">
-        <v>1670</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.20833333333333334</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.19583333333333333</v>
+      </c>
+      <c r="D3">
+        <v>4156</v>
+      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1"/>
       <c r="E4">
         <v>879</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1">
         <v>0.20972222222222223</v>
@@ -642,10 +642,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>0.21527777777777779</v>
+        <v>0.21875</v>
       </c>
       <c r="D5">
-        <v>453</v>
+        <v>4313</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -657,124 +657,124 @@
         <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>0.21875</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="D6">
-        <v>4313</v>
+        <v>575</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.22569444444444445</v>
-      </c>
-      <c r="D7">
-        <v>224</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="E7">
+        <v>4350</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.22916666666666666</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="E8">
-        <v>556</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.22916666666666666</v>
-      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.23472222222222222</v>
+      </c>
+      <c r="D8">
+        <v>4323</v>
+      </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="E9">
-        <v>4350</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.22916666666666666</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.23541666666666666</v>
+      </c>
+      <c r="D9">
+        <v>4309</v>
+      </c>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
-        <v>0.23541666666666666</v>
+        <v>0.23958333333333334</v>
       </c>
       <c r="D10">
-        <v>4309</v>
+        <v>1266</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
-        <v>0.23958333333333334</v>
+        <v>0.24652777777777779</v>
       </c>
       <c r="D11">
-        <v>1266</v>
+        <v>456</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1">
         <v>0.24652777777777779</v>
       </c>
       <c r="D12">
-        <v>456</v>
+        <v>567</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1">
-        <v>0.24652777777777779</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="D13">
-        <v>567</v>
+        <v>433</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1">
         <v>0.25694444444444442</v>
@@ -786,46 +786,46 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.25833333333333336</v>
       </c>
       <c r="D15">
-        <v>366</v>
+        <v>4156</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1">
         <v>0.26041666666666669</v>
       </c>
       <c r="D16">
-        <v>529</v>
+        <v>366</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1">
-        <v>0.2638888888888889</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D17">
-        <v>314</v>
+        <v>529</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -833,89 +833,89 @@
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="E18">
-        <v>4326</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1">
         <v>0.2638888888888889</v>
       </c>
+      <c r="D18">
+        <v>314</v>
+      </c>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.2673611111111111</v>
-      </c>
-      <c r="D19">
-        <v>428</v>
-      </c>
-      <c r="G19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="E19">
+        <v>4326</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.2638888888888889</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1">
         <v>0.2673611111111111</v>
       </c>
       <c r="D20">
-        <v>626</v>
+        <v>428</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D21">
-        <v>561</v>
+        <v>626</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1">
         <v>0.27083333333333331</v>
       </c>
       <c r="D22">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1">
         <v>0.27083333333333331</v>
       </c>
       <c r="D23">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -923,72 +923,72 @@
       <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="E24">
-        <v>4318</v>
-      </c>
-      <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.28611111111111109</v>
-      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D24">
+        <v>591</v>
+      </c>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1"/>
       <c r="E25">
-        <v>1467</v>
+        <v>4318</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G25" s="1">
-        <v>0.28819444444444448</v>
+        <v>0.28611111111111109</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="D26">
-        <v>521</v>
-      </c>
-      <c r="G26" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="E26">
+        <v>1467</v>
+      </c>
+      <c r="F26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.28819444444444448</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="E27">
-        <v>323</v>
-      </c>
-      <c r="F27" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0.3125</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D27">
+        <v>521</v>
+      </c>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C28" s="1"/>
       <c r="E28">
-        <v>396</v>
+        <v>321</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G28" s="1">
         <v>0.3125</v>
@@ -1000,43 +1000,43 @@
       </c>
       <c r="C29" s="1"/>
       <c r="E29">
-        <v>4338</v>
+        <v>323</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G29" s="1">
-        <v>0.31527777777777777</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C30" s="1"/>
       <c r="E30">
-        <v>310</v>
+        <v>396</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G30" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C31" s="1"/>
       <c r="E31">
-        <v>440</v>
+        <v>884</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G31" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1045,85 +1045,85 @@
       </c>
       <c r="C32" s="1"/>
       <c r="E32">
-        <v>536</v>
+        <v>4338</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G32" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.31527777777777777</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C33" s="1"/>
       <c r="E33">
-        <v>444</v>
+        <v>310</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="G33" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C34" s="1"/>
       <c r="E34">
-        <v>562</v>
+        <v>440</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G34" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C35" s="1"/>
       <c r="E35">
-        <v>368</v>
+        <v>444</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G35" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C36" s="1"/>
       <c r="E36">
-        <v>383</v>
+        <v>562</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G36" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C37" s="1"/>
       <c r="E37">
-        <v>522</v>
+        <v>368</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G37" s="1">
         <v>0.33333333333333331</v>
@@ -1131,707 +1131,707 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0.33680555555555558</v>
-      </c>
-      <c r="D38">
-        <v>581</v>
-      </c>
-      <c r="G38" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="E38">
+        <v>383</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C39" s="1"/>
       <c r="E39">
-        <v>660</v>
+        <v>522</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G39" s="1">
-        <v>0.33680555555555558</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="E40">
-        <v>454</v>
-      </c>
-      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="1">
-        <v>0.34027777777777779</v>
-      </c>
+      <c r="C40" s="1">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="D40">
+        <v>581</v>
+      </c>
+      <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C41" s="1"/>
       <c r="E41">
-        <v>554</v>
+        <v>660</v>
       </c>
       <c r="F41" t="s">
         <v>15</v>
       </c>
       <c r="G41" s="1">
-        <v>0.34027777777777779</v>
+        <v>0.33680555555555558</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C42" s="1"/>
       <c r="E42">
-        <v>324</v>
+        <v>554</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="G42" s="1">
-        <v>0.34375</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0.34722222222222221</v>
-      </c>
-      <c r="D43">
-        <v>4053</v>
-      </c>
-      <c r="G43" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="E43">
+        <v>324</v>
+      </c>
+      <c r="F43" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.34375</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C44" s="1"/>
       <c r="E44">
-        <v>884</v>
+        <v>430</v>
       </c>
       <c r="F44" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G44" s="1">
-        <v>0.3576388888888889</v>
+        <v>0.37847222222222221</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="D45">
-        <v>916</v>
-      </c>
-      <c r="G45" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="E45">
+        <v>582</v>
+      </c>
+      <c r="F45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.39930555555555558</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C46" s="1">
-        <v>0.37847222222222221</v>
+        <v>0.41319444444444442</v>
       </c>
       <c r="D46">
-        <v>559</v>
+        <v>659</v>
       </c>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C47" s="1"/>
       <c r="E47">
-        <v>430</v>
+        <v>392</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G47" s="1">
-        <v>0.37847222222222221</v>
+        <v>0.41319444444444442</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C48" s="1"/>
       <c r="E48">
-        <v>582</v>
+        <v>613</v>
       </c>
       <c r="F48" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G48" s="1">
-        <v>0.39930555555555558</v>
+        <v>0.4236111111111111</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C49" s="1">
-        <v>0.40972222222222221</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="D49">
-        <v>4053</v>
+        <v>8111</v>
       </c>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C50" s="1">
-        <v>0.41319444444444442</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="D50">
-        <v>659</v>
+        <v>320</v>
       </c>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="E51">
-        <v>392</v>
-      </c>
-      <c r="F51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" t="s">
         <v>17</v>
       </c>
-      <c r="G51" s="1">
-        <v>0.41319444444444442</v>
-      </c>
+      <c r="C51" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="1"/>
-      <c r="E52">
-        <v>611</v>
-      </c>
-      <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" s="1">
-        <v>0.4236111111111111</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="D52">
+        <v>384</v>
+      </c>
+      <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C53" s="1">
-        <v>0.42708333333333331</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="D53">
-        <v>537</v>
+        <v>8110</v>
       </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>26</v>
-      </c>
-      <c r="B54" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="D54">
-        <v>916</v>
-      </c>
-      <c r="G54" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="E54">
+        <v>385</v>
+      </c>
+      <c r="F54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="1">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="D55">
-        <v>455</v>
-      </c>
-      <c r="G55" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="E55">
+        <v>424</v>
+      </c>
+      <c r="F55" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C56" s="1">
-        <v>0.46180555555555558</v>
+        <v>0.52569444444444446</v>
       </c>
       <c r="D56">
-        <v>70</v>
+        <v>739</v>
       </c>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C57" s="1">
-        <v>0.48958333333333331</v>
+        <v>0.52986111111111112</v>
       </c>
       <c r="D57">
-        <v>771</v>
+        <v>816</v>
       </c>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="E58">
-        <v>424</v>
-      </c>
-      <c r="F58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G58" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="D58">
+        <v>8138</v>
+      </c>
+      <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="1"/>
-      <c r="E59">
-        <v>71</v>
-      </c>
-      <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="D59">
+        <v>1910</v>
+      </c>
+      <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="E60">
-        <v>319</v>
-      </c>
-      <c r="F60" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" s="1">
-        <v>0.51041666666666663</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.55486111111111114</v>
+      </c>
+      <c r="D60">
+        <v>1441</v>
+      </c>
+      <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B61" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C61" s="1">
-        <v>0.52083333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="D61">
-        <v>420</v>
+        <v>760</v>
       </c>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="E62">
+        <v>2820</v>
+      </c>
+      <c r="F62" t="s">
         <v>24</v>
       </c>
-      <c r="B62" t="s">
-        <v>25</v>
-      </c>
-      <c r="C62" s="1">
-        <v>0.52569444444444446</v>
-      </c>
-      <c r="D62">
-        <v>739</v>
-      </c>
-      <c r="G62" s="1"/>
+      <c r="G62" s="1">
+        <v>0.56736111111111109</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="E63">
+        <v>871</v>
+      </c>
+      <c r="F63" t="s">
         <v>26</v>
       </c>
-      <c r="B63" t="s">
-        <v>27</v>
-      </c>
-      <c r="C63" s="1">
-        <v>0.52986111111111112</v>
-      </c>
-      <c r="D63">
-        <v>816</v>
-      </c>
-      <c r="G63" s="1"/>
+      <c r="G63" s="1">
+        <v>0.57291666666666663</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C64" s="1">
-        <v>0.54861111111111105</v>
+        <v>0.57986111111111105</v>
       </c>
       <c r="D64">
-        <v>1910</v>
+        <v>628</v>
       </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C65" s="1">
-        <v>0.54861111111111105</v>
+        <v>0.58124999999999993</v>
       </c>
       <c r="D65">
-        <v>770</v>
+        <v>8138</v>
       </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C66" s="1">
-        <v>0.5493055555555556</v>
+        <v>0.58402777777777781</v>
       </c>
       <c r="D66">
-        <v>219</v>
+        <v>1035</v>
       </c>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>12</v>
-      </c>
-      <c r="B67" t="s">
-        <v>31</v>
-      </c>
-      <c r="C67" s="1">
-        <v>0.55486111111111114</v>
-      </c>
-      <c r="D67">
-        <v>1441</v>
-      </c>
-      <c r="G67" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="E67">
+        <v>1978</v>
+      </c>
+      <c r="F67" t="s">
+        <v>28</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0.60763888888888895</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C68" s="1"/>
       <c r="E68">
-        <v>421</v>
+        <v>761</v>
       </c>
       <c r="F68" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G68" s="1">
-        <v>0.5625</v>
+        <v>0.61111111111111105</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" t="s">
         <v>24</v>
       </c>
-      <c r="C69" s="1"/>
-      <c r="E69">
-        <v>2820</v>
-      </c>
-      <c r="F69" t="s">
-        <v>25</v>
-      </c>
-      <c r="G69" s="1">
-        <v>0.56736111111111109</v>
-      </c>
+      <c r="C69" s="1">
+        <v>0.61597222222222225</v>
+      </c>
+      <c r="D69">
+        <v>3151</v>
+      </c>
+      <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C70" s="1"/>
       <c r="E70">
-        <v>871</v>
+        <v>1468</v>
       </c>
       <c r="F70" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G70" s="1">
-        <v>0.57291666666666663</v>
+        <v>0.61805555555555558</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C71" s="1">
-        <v>0.57986111111111105</v>
+        <v>0.62222222222222223</v>
       </c>
       <c r="D71">
-        <v>628</v>
+        <v>4319</v>
       </c>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>24</v>
-      </c>
-      <c r="B72" t="s">
-        <v>34</v>
-      </c>
-      <c r="C72" s="1">
-        <v>0.58402777777777781</v>
-      </c>
-      <c r="D72">
-        <v>1035</v>
-      </c>
-      <c r="G72" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="E72">
+        <v>1104</v>
+      </c>
+      <c r="F72" t="s">
+        <v>33</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.62777777777777777</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C73" s="1"/>
       <c r="E73">
-        <v>218</v>
+        <v>629</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G73" s="1">
-        <v>0.59444444444444444</v>
+        <v>0.63263888888888886</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>28</v>
-      </c>
-      <c r="C74" s="1"/>
-      <c r="E74">
-        <v>1978</v>
-      </c>
-      <c r="F74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" t="s">
         <v>29</v>
       </c>
-      <c r="G74" s="1">
-        <v>0.60763888888888895</v>
-      </c>
+      <c r="C74" s="1">
+        <v>0.64166666666666672</v>
+      </c>
+      <c r="D74">
+        <v>1290</v>
+      </c>
+      <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C75" s="1">
-        <v>0.61597222222222225</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="D75">
-        <v>3151</v>
+        <v>382</v>
       </c>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C76" s="1"/>
       <c r="E76">
-        <v>1468</v>
+        <v>317</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G76" s="1">
-        <v>0.61805555555555558</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>35</v>
-      </c>
-      <c r="B77" t="s">
-        <v>36</v>
-      </c>
-      <c r="C77" s="1">
-        <v>0.62222222222222223</v>
-      </c>
-      <c r="D77">
-        <v>1031</v>
-      </c>
-      <c r="G77" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="E77">
+        <v>352</v>
+      </c>
+      <c r="F77" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.65763888888888888</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C78" s="1">
-        <v>0.62222222222222223</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D78">
-        <v>4319</v>
+        <v>367</v>
       </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>24</v>
-      </c>
-      <c r="C79" s="1"/>
-      <c r="E79">
-        <v>1104</v>
-      </c>
-      <c r="F79" t="s">
-        <v>34</v>
-      </c>
-      <c r="G79" s="1">
-        <v>0.62777777777777777</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B79" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="D79">
+        <v>441</v>
+      </c>
+      <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C80" s="1"/>
       <c r="E80">
-        <v>629</v>
+        <v>4322</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G80" s="1">
-        <v>0.63263888888888886</v>
+        <v>0.68611111111111112</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C81" s="1">
-        <v>0.64166666666666672</v>
+        <v>0.6875</v>
       </c>
       <c r="D81">
-        <v>1290</v>
+        <v>311</v>
       </c>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C82" s="1">
-        <v>0.65277777777777779</v>
+        <v>0.6875</v>
       </c>
       <c r="D82">
-        <v>382</v>
+        <v>610</v>
       </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" s="1"/>
-      <c r="E83">
-        <v>317</v>
-      </c>
-      <c r="F83" t="s">
-        <v>27</v>
-      </c>
-      <c r="G83" s="1">
-        <v>0.65625</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="D83">
+        <v>555</v>
+      </c>
+      <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C84" s="1"/>
       <c r="E84">
-        <v>352</v>
+        <v>1130</v>
       </c>
       <c r="F84" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G84" s="1">
-        <v>0.65763888888888888</v>
+        <v>0.69444444444444453</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -1839,60 +1839,60 @@
         <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C85" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.69722222222222219</v>
       </c>
       <c r="D85">
-        <v>367</v>
+        <v>4327</v>
       </c>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>35</v>
-      </c>
-      <c r="C86" s="1"/>
-      <c r="E86">
-        <v>1032</v>
-      </c>
-      <c r="F86" t="s">
-        <v>36</v>
-      </c>
-      <c r="G86" s="1">
-        <v>0.66805555555555562</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B86" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D86">
+        <v>322</v>
+      </c>
+      <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>7</v>
-      </c>
-      <c r="B87" t="s">
-        <v>17</v>
-      </c>
-      <c r="C87" s="1">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="D87">
-        <v>397</v>
-      </c>
-      <c r="G87" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="E87">
+        <v>520</v>
+      </c>
+      <c r="F87" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" t="s">
-        <v>34</v>
-      </c>
-      <c r="C88" s="1">
-        <v>0.68055555555555558</v>
-      </c>
-      <c r="D88">
-        <v>441</v>
-      </c>
-      <c r="G88" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="E88">
+        <v>560</v>
+      </c>
+      <c r="F88" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -1900,133 +1900,133 @@
       </c>
       <c r="C89" s="1"/>
       <c r="E89">
-        <v>4322</v>
+        <v>588</v>
       </c>
       <c r="F89" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G89" s="1">
-        <v>0.68611111111111112</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>7</v>
-      </c>
-      <c r="B90" t="s">
-        <v>25</v>
-      </c>
-      <c r="C90" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="D90">
-        <v>311</v>
-      </c>
-      <c r="G90" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="E90">
+        <v>617</v>
+      </c>
+      <c r="F90" t="s">
+        <v>21</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C91" s="1">
-        <v>0.6875</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="D91">
-        <v>318</v>
+        <v>4351</v>
       </c>
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>7</v>
-      </c>
-      <c r="B92" t="s">
-        <v>15</v>
-      </c>
-      <c r="C92" s="1">
-        <v>0.69097222222222221</v>
-      </c>
-      <c r="D92">
-        <v>555</v>
-      </c>
-      <c r="G92" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="E92">
+        <v>448</v>
+      </c>
+      <c r="F92" t="s">
+        <v>37</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0.74305555555555558</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C93" s="1"/>
       <c r="E93">
-        <v>1130</v>
+        <v>534</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G93" s="1">
-        <v>0.69444444444444453</v>
+        <v>0.74305555555555558</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>9</v>
-      </c>
-      <c r="B94" t="s">
-        <v>10</v>
-      </c>
-      <c r="C94" s="1">
-        <v>0.69722222222222219</v>
-      </c>
-      <c r="D94">
-        <v>4327</v>
-      </c>
-      <c r="G94" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="E94">
+        <v>4308</v>
+      </c>
+      <c r="F94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0.74583333333333335</v>
+      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C95" s="1">
-        <v>0.70138888888888884</v>
+        <v>0.74652777777777779</v>
       </c>
       <c r="D95">
-        <v>322</v>
+        <v>612</v>
       </c>
       <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C96" s="1"/>
       <c r="E96">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G96" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.76041666666666663</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C97" s="1"/>
       <c r="E97">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G97" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -2035,523 +2035,523 @@
       </c>
       <c r="C98" s="1"/>
       <c r="E98">
-        <v>617</v>
+        <v>4312</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G98" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.77638888888888891</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B99" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C99" s="1">
-        <v>0.73333333333333328</v>
+        <v>0.78125</v>
       </c>
       <c r="D99">
-        <v>4351</v>
+        <v>930</v>
       </c>
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" s="1"/>
-      <c r="E100">
-        <v>448</v>
-      </c>
-      <c r="F100" t="s">
-        <v>8</v>
-      </c>
-      <c r="G100" s="1">
-        <v>0.74305555555555558</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="D100">
+        <v>431</v>
+      </c>
+      <c r="G100" s="1"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" s="1"/>
-      <c r="E101">
-        <v>534</v>
-      </c>
-      <c r="F101" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101" s="1">
-        <v>0.74305555555555558</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="D101">
+        <v>661</v>
+      </c>
+      <c r="G101" s="1"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102" s="1"/>
-      <c r="E102">
-        <v>4308</v>
-      </c>
-      <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" s="1">
-        <v>0.74583333333333335</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B102" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="D102">
+        <v>222</v>
+      </c>
+      <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C103" s="1"/>
       <c r="E103">
-        <v>528</v>
+        <v>570</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G103" s="1">
-        <v>0.76041666666666663</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" s="1"/>
-      <c r="E104">
-        <v>566</v>
-      </c>
-      <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" s="1">
-        <v>0.77083333333333337</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B104" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="D104">
+        <v>425</v>
+      </c>
+      <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105" s="1"/>
-      <c r="E105">
-        <v>4312</v>
-      </c>
-      <c r="F105" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="1">
-        <v>0.77638888888888891</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D105">
+        <v>932</v>
+      </c>
+      <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C106" s="1">
-        <v>0.79513888888888884</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="D106">
-        <v>431</v>
+        <v>523</v>
       </c>
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C107" s="1">
-        <v>0.79513888888888884</v>
+        <v>0.82986111111111116</v>
       </c>
       <c r="D107">
-        <v>661</v>
+        <v>583</v>
       </c>
       <c r="G107" s="1"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C108" s="1">
-        <v>0.8125</v>
+        <v>0.84375</v>
       </c>
       <c r="D108">
-        <v>222</v>
+        <v>325</v>
       </c>
       <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" s="1"/>
-      <c r="E109">
-        <v>570</v>
-      </c>
-      <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" s="1">
-        <v>0.8125</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B109" t="s">
+        <v>36</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="D109">
+        <v>445</v>
+      </c>
+      <c r="G109" s="1"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>7</v>
-      </c>
-      <c r="B110" t="s">
-        <v>31</v>
-      </c>
-      <c r="C110" s="1">
-        <v>0.81944444444444442</v>
-      </c>
-      <c r="D110">
-        <v>425</v>
-      </c>
-      <c r="G110" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="E110">
+        <v>590</v>
+      </c>
+      <c r="F110" t="s">
+        <v>8</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0.85069444444444442</v>
+      </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C111" s="1">
-        <v>0.82638888888888884</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D111">
-        <v>523</v>
+        <v>393</v>
       </c>
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C112" s="1">
-        <v>0.82986111111111116</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D112">
-        <v>583</v>
+        <v>449</v>
       </c>
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B113" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C113" s="1">
-        <v>0.84375</v>
+        <v>0.86041666666666661</v>
       </c>
       <c r="D113">
-        <v>325</v>
+        <v>881</v>
       </c>
       <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C114" s="1">
-        <v>0.84375</v>
+        <v>0.86805555555555558</v>
       </c>
       <c r="D114">
-        <v>445</v>
+        <v>563</v>
       </c>
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115" s="1"/>
-      <c r="E115">
-        <v>590</v>
-      </c>
-      <c r="F115" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="1">
-        <v>0.85069444444444442</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B115" t="s">
+        <v>26</v>
+      </c>
+      <c r="C115" s="1">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="D115">
+        <v>316</v>
+      </c>
+      <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C116" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="D116">
-        <v>393</v>
+        <v>535</v>
       </c>
       <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>7</v>
-      </c>
-      <c r="B117" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D117">
-        <v>449</v>
-      </c>
-      <c r="G117" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="E117">
+        <v>222</v>
+      </c>
+      <c r="F117" t="s">
+        <v>45</v>
+      </c>
+      <c r="G117" s="1">
+        <v>0.875</v>
+      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C118" s="1">
-        <v>0.86041666666666661</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D118">
-        <v>881</v>
+        <v>589</v>
       </c>
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C119" s="1">
-        <v>0.86805555555555558</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D119">
-        <v>563</v>
+        <v>616</v>
       </c>
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B120" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C120" s="1">
-        <v>0.87152777777777779</v>
+        <v>0.8881944444444444</v>
       </c>
       <c r="D120">
-        <v>316</v>
+        <v>1461</v>
       </c>
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>7</v>
-      </c>
-      <c r="B121" t="s">
-        <v>21</v>
-      </c>
-      <c r="C121" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="D121">
-        <v>535</v>
-      </c>
-      <c r="G121" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C121" s="1"/>
+      <c r="E121">
+        <v>365</v>
+      </c>
+      <c r="F121" t="s">
+        <v>18</v>
+      </c>
+      <c r="G121" s="1">
+        <v>0.92013888888888884</v>
+      </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C122" s="1"/>
       <c r="E122">
-        <v>222</v>
+        <v>580</v>
       </c>
       <c r="F122" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="G122" s="1">
-        <v>0.875</v>
+        <v>0.92013888888888884</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>7</v>
-      </c>
-      <c r="B123" t="s">
-        <v>15</v>
-      </c>
-      <c r="C123" s="1">
-        <v>0.87847222222222221</v>
-      </c>
-      <c r="D123">
-        <v>557</v>
-      </c>
-      <c r="G123" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C123" s="1"/>
+      <c r="E123">
+        <v>429</v>
+      </c>
+      <c r="F123" t="s">
+        <v>20</v>
+      </c>
+      <c r="G123" s="1">
+        <v>0.92361111111111116</v>
+      </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C124" s="1">
-        <v>0.87847222222222221</v>
+        <v>0.92986111111111114</v>
       </c>
       <c r="D124">
-        <v>616</v>
+        <v>4339</v>
       </c>
       <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>12</v>
-      </c>
-      <c r="B125" t="s">
-        <v>31</v>
-      </c>
-      <c r="C125" s="1">
-        <v>0.8881944444444444</v>
-      </c>
-      <c r="D125">
-        <v>1461</v>
-      </c>
-      <c r="G125" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="E125">
+        <v>578</v>
+      </c>
+      <c r="F125" t="s">
+        <v>17</v>
+      </c>
+      <c r="G125" s="1">
+        <v>0.93055555555555558</v>
+      </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C126" s="1"/>
       <c r="E126">
-        <v>365</v>
+        <v>627</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G126" s="1">
-        <v>0.92013888888888884</v>
+        <v>0.93402777777777779</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C127" s="1"/>
       <c r="E127">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="F127" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="1">
-        <v>0.92013888888888884</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C128" s="1"/>
       <c r="E128">
-        <v>429</v>
+        <v>315</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G128" s="1">
-        <v>0.92361111111111116</v>
+        <v>0.94097222222222221</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>9</v>
       </c>
-      <c r="B129" t="s">
-        <v>25</v>
-      </c>
-      <c r="C129" s="1">
-        <v>0.92986111111111114</v>
-      </c>
-      <c r="D129">
-        <v>4339</v>
-      </c>
-      <c r="G129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="E129">
+        <v>658</v>
+      </c>
+      <c r="F129" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" s="1">
+        <v>0.94444444444444442</v>
+      </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C130" s="1"/>
       <c r="E130">
-        <v>578</v>
+        <v>452</v>
       </c>
       <c r="F130" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G130" s="1">
-        <v>0.93055555555555558</v>
+        <v>0.95486111111111116</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C131" s="1"/>
       <c r="E131">
-        <v>627</v>
+        <v>457</v>
       </c>
       <c r="F131" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G131" s="1">
-        <v>0.93402777777777779</v>
+        <v>0.95486111111111116</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C132" s="1"/>
       <c r="E132">
-        <v>574</v>
+        <v>432</v>
       </c>
       <c r="F132" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G132" s="1">
-        <v>0.9375</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -2560,104 +2560,29 @@
       </c>
       <c r="C133" s="1"/>
       <c r="E133">
-        <v>315</v>
+        <v>4336</v>
       </c>
       <c r="F133" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="G133" s="1">
-        <v>0.94097222222222221</v>
+        <v>0.97152777777777777</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>7</v>
-      </c>
-      <c r="C134" s="1"/>
-      <c r="E134">
-        <v>658</v>
-      </c>
-      <c r="F134" t="s">
-        <v>14</v>
-      </c>
-      <c r="G134" s="1">
-        <v>0.94444444444444442</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>12</v>
-      </c>
-      <c r="B135" t="s">
-        <v>40</v>
-      </c>
-      <c r="C135" s="1">
-        <v>0.94930555555555562</v>
-      </c>
-      <c r="D135">
-        <v>1425</v>
-      </c>
-      <c r="G135" s="1"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>7</v>
-      </c>
-      <c r="C136" s="1"/>
-      <c r="E136">
-        <v>452</v>
-      </c>
-      <c r="F136" t="s">
-        <v>8</v>
-      </c>
-      <c r="G136" s="1">
-        <v>0.95486111111111116</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>7</v>
-      </c>
-      <c r="C137" s="1"/>
-      <c r="E137">
-        <v>432</v>
-      </c>
-      <c r="F137" t="s">
-        <v>33</v>
-      </c>
-      <c r="G137" s="1">
-        <v>0.95833333333333337</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+        <v>25</v>
+      </c>
+      <c r="B134" t="s">
         <v>26</v>
       </c>
-      <c r="B138" t="s">
-        <v>27</v>
-      </c>
-      <c r="C138" s="1">
+      <c r="C134" s="1">
         <v>0.98402777777777783</v>
       </c>
-      <c r="D138">
+      <c r="D134">
         <v>878</v>
       </c>
-      <c r="G138" s="1"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>12</v>
-      </c>
-      <c r="C139" s="1"/>
-      <c r="E139">
-        <v>339</v>
-      </c>
-      <c r="F139" t="s">
-        <v>40</v>
-      </c>
-      <c r="G139" s="1">
-        <v>0.99583333333333324</v>
-      </c>
+      <c r="G134" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/operaciones.xlsx
+++ b/public/operaciones.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulm\Desktop\Itinerarios_2026-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{640E4138-5ADA-429A-BECA-5A77CF6AAA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C706F9F5-F1F2-4869-8D6F-F58D8608D660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B967FD92-013F-469B-AE6C-D826AE7EB0E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F73CF915-FB3C-4AE7-AFB9-AAF3B9301738}"/>
   </bookViews>
   <sheets>
-    <sheet name="16-02" sheetId="1" r:id="rId1"/>
+    <sheet name="17-02" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="47">
   <si>
     <t>AEROLINEA</t>
   </si>
@@ -59,13 +59,19 @@
     <t>ETD</t>
   </si>
   <si>
+    <t>AVA</t>
+  </si>
+  <si>
+    <t>MHPR</t>
+  </si>
+  <si>
     <t>VOS</t>
   </si>
   <si>
     <t>KIAD</t>
   </si>
   <si>
-    <t>AVA</t>
+    <t>KONT</t>
   </si>
   <si>
     <t>MHLM</t>
@@ -107,6 +113,9 @@
     <t>KSFO</t>
   </si>
   <si>
+    <t>KEWR</t>
+  </si>
+  <si>
     <t>AAL</t>
   </si>
   <si>
@@ -128,55 +137,46 @@
     <t>KIAH</t>
   </si>
   <si>
-    <t>TSC</t>
-  </si>
-  <si>
-    <t>CYUL</t>
-  </si>
-  <si>
     <t>AMX</t>
   </si>
   <si>
     <t>KDFW</t>
   </si>
   <si>
+    <t>NKS</t>
+  </si>
+  <si>
+    <t>KFLL</t>
+  </si>
+  <si>
+    <t>SKRG</t>
+  </si>
+  <si>
+    <t>MMUN</t>
+  </si>
+  <si>
     <t>IBE</t>
   </si>
   <si>
     <t>CYYZ</t>
   </si>
   <si>
-    <t>KBOS</t>
-  </si>
-  <si>
-    <t>MHPR</t>
-  </si>
-  <si>
-    <t>TPA</t>
+    <t>DHL</t>
   </si>
   <si>
     <t>AJT</t>
   </si>
   <si>
-    <t>MKJP</t>
+    <t>FDX</t>
   </si>
   <si>
     <t>ARM</t>
   </si>
   <si>
-    <t>FDX</t>
-  </si>
-  <si>
-    <t>DHL</t>
-  </si>
-  <si>
     <t>MHTG</t>
   </si>
   <si>
     <t>LEMD</t>
-  </si>
-  <si>
-    <t>KEWR</t>
   </si>
 </sst>
 </file>
@@ -551,8 +551,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25004C41-1566-468D-AA46-592034DB52C1}">
-  <dimension ref="A1:G134"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F738811-0C18-4E67-99D2-AFAF5BE89C08}">
+  <dimension ref="A1:G139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -591,14 +591,14 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1"/>
       <c r="E2">
         <v>1670</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1">
         <v>0.125</v>
@@ -606,48 +606,48 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1">
-        <v>0.19583333333333333</v>
+        <v>0.18402777777777779</v>
       </c>
       <c r="D3">
-        <v>4156</v>
+        <v>222</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="E4">
-        <v>879</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.20972222222222223</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D4">
+        <v>453</v>
+      </c>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.21875</v>
-      </c>
-      <c r="D5">
-        <v>4313</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="E5">
+        <v>879</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.20972222222222223</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -657,10 +657,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>0.22222222222222221</v>
+        <v>0.21875</v>
       </c>
       <c r="D6">
-        <v>575</v>
+        <v>4313</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -668,59 +668,59 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="E7">
-        <v>4350</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.22916666666666666</v>
-      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D7">
+        <v>531</v>
+      </c>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
-        <v>0.23472222222222222</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="D8">
-        <v>4323</v>
+        <v>575</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1">
-        <v>0.23541666666666666</v>
+        <v>0.22569444444444445</v>
       </c>
       <c r="D9">
-        <v>4309</v>
+        <v>224</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
       <c r="C10" s="1">
-        <v>0.23958333333333334</v>
+        <v>0.23472222222222222</v>
       </c>
       <c r="D10">
-        <v>1266</v>
+        <v>4323</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -732,115 +732,115 @@
         <v>14</v>
       </c>
       <c r="C11" s="1">
-        <v>0.24652777777777779</v>
+        <v>0.23541666666666666</v>
       </c>
       <c r="D11">
-        <v>456</v>
+        <v>4309</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1">
-        <v>0.24652777777777779</v>
+        <v>0.23958333333333334</v>
       </c>
       <c r="D12">
-        <v>567</v>
+        <v>1266</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="1">
-        <v>0.25347222222222221</v>
+        <v>0.24652777777777779</v>
       </c>
       <c r="D13">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="1">
-        <v>0.25694444444444442</v>
+        <v>0.24652777777777779</v>
       </c>
       <c r="D14">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1">
-        <v>0.25833333333333336</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="D15">
-        <v>4156</v>
+        <v>433</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="D16">
-        <v>366</v>
+        <v>579</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1">
         <v>0.26041666666666669</v>
       </c>
       <c r="D17">
-        <v>529</v>
+        <v>366</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1">
-        <v>0.2638888888888889</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D18">
-        <v>314</v>
+        <v>529</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -848,89 +848,89 @@
       <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="E19">
-        <v>4326</v>
-      </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1">
         <v>0.2638888888888889</v>
       </c>
+      <c r="D19">
+        <v>314</v>
+      </c>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.2673611111111111</v>
-      </c>
-      <c r="D20">
-        <v>428</v>
-      </c>
-      <c r="G20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="E20">
+        <v>4326</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.2638888888888889</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1">
         <v>0.2673611111111111</v>
       </c>
       <c r="D21">
-        <v>626</v>
+        <v>428</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D22">
-        <v>561</v>
+        <v>650</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1">
         <v>0.27083333333333331</v>
       </c>
       <c r="D23">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1">
         <v>0.27083333333333331</v>
       </c>
       <c r="D24">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -938,27 +938,27 @@
       <c r="A25" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="E25">
-        <v>4318</v>
-      </c>
-      <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.28611111111111109</v>
-      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D25">
+        <v>591</v>
+      </c>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1"/>
       <c r="E26">
         <v>1467</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G26" s="1">
         <v>0.28819444444444448</v>
@@ -968,27 +968,27 @@
       <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="C27" s="1"/>
+      <c r="E27">
+        <v>4330</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="1">
         <v>0.29166666666666669</v>
       </c>
-      <c r="D27">
-        <v>521</v>
-      </c>
-      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1"/>
       <c r="E28">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G28" s="1">
         <v>0.3125</v>
@@ -996,14 +996,14 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1"/>
       <c r="E29">
-        <v>323</v>
+        <v>396</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G29" s="1">
         <v>0.3125</v>
@@ -1011,32 +1011,32 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C30" s="1"/>
       <c r="E30">
-        <v>396</v>
+        <v>310</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G30" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C31" s="1"/>
       <c r="E31">
-        <v>884</v>
+        <v>440</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G31" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1045,190 +1045,190 @@
       </c>
       <c r="C32" s="1"/>
       <c r="E32">
-        <v>4338</v>
+        <v>536</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G32" s="1">
-        <v>0.31527777777777777</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C33" s="1"/>
       <c r="E33">
-        <v>310</v>
+        <v>562</v>
       </c>
       <c r="F33" t="s">
         <v>24</v>
       </c>
       <c r="G33" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C34" s="1"/>
       <c r="E34">
-        <v>440</v>
+        <v>368</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G34" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C35" s="1"/>
       <c r="E35">
-        <v>444</v>
+        <v>383</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G35" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C36" s="1"/>
       <c r="E36">
-        <v>562</v>
+        <v>522</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G36" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="E37">
-        <v>368</v>
-      </c>
-      <c r="F37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0.33333333333333331</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="D37">
+        <v>581</v>
+      </c>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C38" s="1"/>
       <c r="E38">
-        <v>383</v>
+        <v>660</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G38" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.33680555555555558</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C39" s="1"/>
       <c r="E39">
-        <v>522</v>
+        <v>454</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G39" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0.33680555555555558</v>
-      </c>
-      <c r="D40">
-        <v>581</v>
-      </c>
-      <c r="G40" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="E40">
+        <v>572</v>
+      </c>
+      <c r="F40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.34027777777777779</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C41" s="1"/>
       <c r="E41">
-        <v>660</v>
+        <v>324</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G41" s="1">
-        <v>0.33680555555555558</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C42" s="1"/>
       <c r="E42">
-        <v>554</v>
+        <v>884</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G42" s="1">
-        <v>0.34027777777777779</v>
+        <v>0.3576388888888889</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C43" s="1"/>
       <c r="E43">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G43" s="1">
-        <v>0.34375</v>
+        <v>0.37847222222222221</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C44" s="1"/>
       <c r="E44">
         <v>430</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G44" s="1">
         <v>0.37847222222222221</v>
@@ -1236,14 +1236,14 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C45" s="1"/>
       <c r="E45">
         <v>582</v>
       </c>
       <c r="F45" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G45" s="1">
         <v>0.39930555555555558</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C46" s="1">
         <v>0.41319444444444442</v>
@@ -1266,14 +1266,14 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C47" s="1"/>
       <c r="E47">
         <v>392</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G47" s="1">
         <v>0.41319444444444442</v>
@@ -1281,14 +1281,14 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C48" s="1"/>
       <c r="E48">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G48" s="1">
         <v>0.4236111111111111</v>
@@ -1296,466 +1296,466 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="1">
-        <v>0.43055555555555558</v>
-      </c>
-      <c r="D49">
-        <v>8111</v>
-      </c>
-      <c r="G49" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="E49">
+        <v>4320</v>
+      </c>
+      <c r="F49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.4236111111111111</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C50" s="1">
-        <v>0.4513888888888889</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D50">
-        <v>320</v>
+        <v>537</v>
       </c>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C51" s="1">
-        <v>0.45833333333333331</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>455</v>
       </c>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C52" s="1">
-        <v>0.46180555555555558</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="D52">
-        <v>384</v>
+        <v>573</v>
       </c>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C53" s="1">
-        <v>0.49305555555555558</v>
+        <v>0.45347222222222222</v>
       </c>
       <c r="D53">
-        <v>8110</v>
+        <v>4337</v>
       </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="E54">
-        <v>385</v>
-      </c>
-      <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="D54">
+        <v>384</v>
+      </c>
+      <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="E55">
-        <v>424</v>
-      </c>
-      <c r="F55" t="s">
-        <v>29</v>
-      </c>
-      <c r="G55" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="D55">
+        <v>721</v>
+      </c>
+      <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>23</v>
-      </c>
-      <c r="B56" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0.52569444444444446</v>
-      </c>
-      <c r="D56">
-        <v>739</v>
-      </c>
-      <c r="G56" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="E56">
+        <v>584</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.49305555555555558</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>25</v>
-      </c>
-      <c r="B57" t="s">
-        <v>26</v>
-      </c>
-      <c r="C57" s="1">
-        <v>0.52986111111111112</v>
-      </c>
-      <c r="D57">
-        <v>816</v>
-      </c>
-      <c r="G57" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="E57">
+        <v>650</v>
+      </c>
+      <c r="F57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.49305555555555558</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>42</v>
-      </c>
-      <c r="B58" t="s">
-        <v>24</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0.5395833333333333</v>
-      </c>
-      <c r="D58">
-        <v>8138</v>
-      </c>
-      <c r="G58" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="E58">
+        <v>385</v>
+      </c>
+      <c r="F58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" t="s">
-        <v>28</v>
-      </c>
-      <c r="C59" s="1">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="D59">
-        <v>1910</v>
-      </c>
-      <c r="G59" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="E59">
+        <v>442</v>
+      </c>
+      <c r="F59" t="s">
+        <v>34</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0.55486111111111114</v>
-      </c>
-      <c r="D60">
-        <v>1441</v>
-      </c>
-      <c r="G60" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="E60">
+        <v>319</v>
+      </c>
+      <c r="F60" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.51041666666666663</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C61" s="1">
-        <v>0.5625</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="D61">
-        <v>760</v>
+        <v>4</v>
       </c>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>23</v>
-      </c>
-      <c r="C62" s="1"/>
-      <c r="E62">
-        <v>2820</v>
-      </c>
-      <c r="F62" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62" s="1">
-        <v>0.56736111111111109</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="D62">
+        <v>739</v>
+      </c>
+      <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>25</v>
-      </c>
-      <c r="C63" s="1"/>
-      <c r="E63">
-        <v>871</v>
-      </c>
-      <c r="F63" t="s">
-        <v>26</v>
-      </c>
-      <c r="G63" s="1">
-        <v>0.57291666666666663</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="D63">
+        <v>720</v>
+      </c>
+      <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C64" s="1">
-        <v>0.57986111111111105</v>
+        <v>0.52986111111111112</v>
       </c>
       <c r="D64">
-        <v>628</v>
+        <v>816</v>
       </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C65" s="1">
-        <v>0.58124999999999993</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="D65">
-        <v>8138</v>
+        <v>1910</v>
       </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C66" s="1">
-        <v>0.58402777777777781</v>
+        <v>0.55486111111111114</v>
       </c>
       <c r="D66">
-        <v>1035</v>
+        <v>1441</v>
       </c>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" t="s">
         <v>27</v>
       </c>
-      <c r="C67" s="1"/>
-      <c r="E67">
-        <v>1978</v>
-      </c>
-      <c r="F67" t="s">
-        <v>28</v>
-      </c>
-      <c r="G67" s="1">
-        <v>0.60763888888888895</v>
-      </c>
+      <c r="C67" s="1">
+        <v>0.56041666666666667</v>
+      </c>
+      <c r="D67">
+        <v>8139</v>
+      </c>
+      <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C68" s="1"/>
       <c r="E68">
-        <v>761</v>
+        <v>2820</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G68" s="1">
-        <v>0.61111111111111105</v>
+        <v>0.56736111111111109</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" s="1">
-        <v>0.61597222222222225</v>
-      </c>
-      <c r="D69">
-        <v>3151</v>
-      </c>
-      <c r="G69" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="E69">
+        <v>871</v>
+      </c>
+      <c r="F69" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.57291666666666663</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>13</v>
-      </c>
-      <c r="C70" s="1"/>
-      <c r="E70">
-        <v>1468</v>
-      </c>
-      <c r="F70" t="s">
-        <v>29</v>
-      </c>
-      <c r="G70" s="1">
-        <v>0.61805555555555558</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="D70">
+        <v>628</v>
+      </c>
+      <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C71" s="1">
-        <v>0.62222222222222223</v>
+        <v>0.58125000000000004</v>
       </c>
       <c r="D71">
-        <v>4319</v>
+        <v>1035</v>
       </c>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C72" s="1"/>
       <c r="E72">
-        <v>1104</v>
+        <v>1978</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G72" s="1">
-        <v>0.62777777777777777</v>
+        <v>0.60763888888888895</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C73" s="1"/>
       <c r="E73">
-        <v>629</v>
+        <v>1468</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G73" s="1">
-        <v>0.63263888888888886</v>
+        <v>0.61805555555555558</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B74" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C74" s="1">
-        <v>0.64166666666666672</v>
+        <v>0.62222222222222223</v>
       </c>
       <c r="D74">
-        <v>1290</v>
+        <v>1031</v>
       </c>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>9</v>
-      </c>
-      <c r="B75" t="s">
-        <v>18</v>
-      </c>
-      <c r="C75" s="1">
-        <v>0.65277777777777779</v>
-      </c>
-      <c r="D75">
-        <v>382</v>
-      </c>
-      <c r="G75" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="E75">
+        <v>1104</v>
+      </c>
+      <c r="F75" t="s">
+        <v>34</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.62361111111111112</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C76" s="1"/>
       <c r="E76">
-        <v>317</v>
+        <v>629</v>
       </c>
       <c r="F76" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G76" s="1">
-        <v>0.65625</v>
+        <v>0.63263888888888886</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>23</v>
-      </c>
-      <c r="C77" s="1"/>
-      <c r="E77">
-        <v>352</v>
-      </c>
-      <c r="F77" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77" s="1">
-        <v>0.65763888888888888</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B77" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.64166666666666672</v>
+      </c>
+      <c r="D77">
+        <v>1290</v>
+      </c>
+      <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B78" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C78" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="D78">
-        <v>367</v>
+        <v>4</v>
       </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C79" s="1">
-        <v>0.68055555555555558</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="D79">
-        <v>441</v>
+        <v>382</v>
       </c>
       <c r="G79" s="1"/>
     </row>
@@ -1765,73 +1765,73 @@
       </c>
       <c r="C80" s="1"/>
       <c r="E80">
-        <v>4322</v>
+        <v>317</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G80" s="1">
-        <v>0.68611111111111112</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B81" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C81" s="1">
-        <v>0.6875</v>
+        <v>0.66527777777777775</v>
       </c>
       <c r="D81">
-        <v>311</v>
+        <v>7139</v>
       </c>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C82" s="1">
-        <v>0.6875</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D82">
-        <v>610</v>
+        <v>367</v>
       </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C83" s="1">
-        <v>0.69097222222222221</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D83">
-        <v>555</v>
+        <v>370</v>
       </c>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C84" s="1"/>
       <c r="E84">
-        <v>1130</v>
+        <v>1032</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G84" s="1">
-        <v>0.69444444444444453</v>
+        <v>0.66805555555555562</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -1839,134 +1839,134 @@
         <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C85" s="1">
-        <v>0.69722222222222219</v>
+        <v>0.68055555555555558</v>
       </c>
       <c r="D85">
-        <v>4327</v>
+        <v>441</v>
       </c>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C86" s="1">
-        <v>0.70138888888888884</v>
+        <v>0.68402777777777779</v>
       </c>
       <c r="D86">
-        <v>322</v>
+        <v>651</v>
       </c>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" s="1"/>
-      <c r="E87">
-        <v>520</v>
-      </c>
-      <c r="F87" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B87" t="s">
+        <v>27</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="D87">
+        <v>311</v>
+      </c>
+      <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="1"/>
-      <c r="E88">
-        <v>560</v>
-      </c>
-      <c r="F88" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B88" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="D88">
+        <v>318</v>
+      </c>
+      <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C89" s="1"/>
       <c r="E89">
-        <v>588</v>
+        <v>1130</v>
       </c>
       <c r="F89" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G89" s="1">
-        <v>0.73263888888888884</v>
+        <v>0.69444444444444453</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>9</v>
       </c>
-      <c r="C90" s="1"/>
-      <c r="E90">
-        <v>617</v>
-      </c>
-      <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.69722222222222219</v>
+      </c>
+      <c r="D90">
+        <v>4327</v>
+      </c>
+      <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C91" s="1">
-        <v>0.73333333333333328</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="D91">
-        <v>4351</v>
+        <v>322</v>
       </c>
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C92" s="1"/>
       <c r="E92">
-        <v>448</v>
+        <v>530</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G92" s="1">
-        <v>0.74305555555555558</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C93" s="1"/>
       <c r="E93">
-        <v>534</v>
+        <v>560</v>
       </c>
       <c r="F93" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G93" s="1">
-        <v>0.74305555555555558</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -1975,58 +1975,58 @@
       </c>
       <c r="C94" s="1"/>
       <c r="E94">
-        <v>4308</v>
+        <v>588</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G94" s="1">
-        <v>0.74583333333333335</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>9</v>
-      </c>
-      <c r="B95" t="s">
-        <v>21</v>
-      </c>
-      <c r="C95" s="1">
-        <v>0.74652777777777779</v>
-      </c>
-      <c r="D95">
-        <v>612</v>
-      </c>
-      <c r="G95" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="E95">
+        <v>615</v>
+      </c>
+      <c r="F95" t="s">
+        <v>23</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>9</v>
       </c>
-      <c r="C96" s="1"/>
-      <c r="E96">
-        <v>528</v>
-      </c>
-      <c r="F96" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" s="1">
-        <v>0.76041666666666663</v>
-      </c>
+      <c r="B96" t="s">
+        <v>32</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0.73472222222222228</v>
+      </c>
+      <c r="D96">
+        <v>4321</v>
+      </c>
+      <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C97" s="1"/>
       <c r="E97">
-        <v>566</v>
+        <v>448</v>
       </c>
       <c r="F97" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G97" s="1">
-        <v>0.77083333333333337</v>
+        <v>0.74305555555555558</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -2035,147 +2035,147 @@
       </c>
       <c r="C98" s="1"/>
       <c r="E98">
-        <v>4312</v>
+        <v>534</v>
       </c>
       <c r="F98" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G98" s="1">
-        <v>0.77638888888888891</v>
+        <v>0.74305555555555558</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>43</v>
-      </c>
-      <c r="B99" t="s">
-        <v>44</v>
-      </c>
-      <c r="C99" s="1">
-        <v>0.78125</v>
-      </c>
-      <c r="D99">
-        <v>930</v>
-      </c>
-      <c r="G99" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="E99">
+        <v>4308</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0.74583333333333335</v>
+      </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>9</v>
-      </c>
-      <c r="B100" t="s">
-        <v>16</v>
-      </c>
-      <c r="C100" s="1">
-        <v>0.79513888888888884</v>
-      </c>
-      <c r="D100">
-        <v>431</v>
-      </c>
-      <c r="G100" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="E100">
+        <v>528</v>
+      </c>
+      <c r="F100" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0.76041666666666663</v>
+      </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C101" s="1">
-        <v>0.79513888888888884</v>
+        <v>0.7631944444444444</v>
       </c>
       <c r="D101">
-        <v>661</v>
+        <v>4040</v>
       </c>
       <c r="G101" s="1"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>34</v>
-      </c>
-      <c r="B102" t="s">
-        <v>17</v>
-      </c>
-      <c r="C102" s="1">
-        <v>0.8125</v>
-      </c>
-      <c r="D102">
-        <v>222</v>
-      </c>
-      <c r="G102" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="E102">
+        <v>4312</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0.77638888888888891</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="1"/>
-      <c r="E103">
-        <v>570</v>
-      </c>
-      <c r="F103" t="s">
-        <v>15</v>
-      </c>
-      <c r="G103" s="1">
-        <v>0.8125</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B103" t="s">
+        <v>45</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="D103">
+        <v>930</v>
+      </c>
+      <c r="G103" s="1"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>9</v>
-      </c>
-      <c r="B104" t="s">
-        <v>29</v>
-      </c>
-      <c r="C104" s="1">
-        <v>0.81944444444444442</v>
-      </c>
-      <c r="D104">
-        <v>425</v>
-      </c>
-      <c r="G104" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="E104">
+        <v>558</v>
+      </c>
+      <c r="F104" t="s">
+        <v>24</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0.78819444444444442</v>
+      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C105" s="1">
-        <v>0.82291666666666663</v>
+        <v>0.79027777777777775</v>
       </c>
       <c r="D105">
-        <v>932</v>
+        <v>4331</v>
       </c>
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C106" s="1">
-        <v>0.82638888888888884</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="D106">
-        <v>523</v>
+        <v>431</v>
       </c>
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C107" s="1">
-        <v>0.82986111111111116</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="D107">
-        <v>583</v>
+        <v>661</v>
       </c>
       <c r="G107" s="1"/>
     </row>
@@ -2183,375 +2183,375 @@
       <c r="A108" t="s">
         <v>9</v>
       </c>
-      <c r="B108" t="s">
-        <v>35</v>
-      </c>
-      <c r="C108" s="1">
-        <v>0.84375</v>
-      </c>
-      <c r="D108">
-        <v>325</v>
-      </c>
-      <c r="G108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="E108">
+        <v>4041</v>
+      </c>
+      <c r="F108" t="s">
+        <v>23</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0.79513888888888884</v>
+      </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>9</v>
       </c>
-      <c r="B109" t="s">
-        <v>36</v>
-      </c>
-      <c r="C109" s="1">
-        <v>0.84375</v>
-      </c>
-      <c r="D109">
-        <v>445</v>
-      </c>
-      <c r="G109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="E109">
+        <v>4300</v>
+      </c>
+      <c r="F109" t="s">
+        <v>18</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0.81180555555555556</v>
+      </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" s="1"/>
-      <c r="E110">
-        <v>590</v>
-      </c>
-      <c r="F110" t="s">
-        <v>8</v>
-      </c>
-      <c r="G110" s="1">
-        <v>0.85069444444444442</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B110" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="D110">
+        <v>222</v>
+      </c>
+      <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>9</v>
-      </c>
-      <c r="B111" t="s">
-        <v>19</v>
-      </c>
-      <c r="C111" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D111">
-        <v>393</v>
-      </c>
-      <c r="G111" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C111" s="1"/>
+      <c r="E111">
+        <v>570</v>
+      </c>
+      <c r="F111" t="s">
+        <v>17</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0.8125</v>
+      </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B112" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C112" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.82291666666666663</v>
       </c>
       <c r="D112">
-        <v>449</v>
+        <v>932</v>
       </c>
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B113" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C113" s="1">
-        <v>0.86041666666666661</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="D113">
-        <v>881</v>
+        <v>523</v>
       </c>
       <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B114" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C114" s="1">
-        <v>0.86805555555555558</v>
+        <v>0.82986111111111116</v>
       </c>
       <c r="D114">
-        <v>563</v>
+        <v>583</v>
       </c>
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B115" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C115" s="1">
-        <v>0.87152777777777779</v>
+        <v>0.84375</v>
       </c>
       <c r="D115">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>9</v>
-      </c>
-      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="1"/>
+      <c r="E116">
+        <v>590</v>
+      </c>
+      <c r="F116" t="s">
         <v>10</v>
       </c>
-      <c r="C116" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="D116">
-        <v>535</v>
-      </c>
-      <c r="G116" s="1"/>
+      <c r="G116" s="1">
+        <v>0.85069444444444442</v>
+      </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>34</v>
-      </c>
-      <c r="C117" s="1"/>
-      <c r="E117">
-        <v>222</v>
-      </c>
-      <c r="F117" t="s">
-        <v>45</v>
-      </c>
-      <c r="G117" s="1">
-        <v>0.875</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B117" t="s">
+        <v>21</v>
+      </c>
+      <c r="C117" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D117">
+        <v>393</v>
+      </c>
+      <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B118" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C118" s="1">
-        <v>0.87847222222222221</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D118">
-        <v>589</v>
+        <v>449</v>
       </c>
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B119" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C119" s="1">
-        <v>0.87847222222222221</v>
+        <v>0.86041666666666661</v>
       </c>
       <c r="D119">
-        <v>616</v>
+        <v>881</v>
       </c>
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B120" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C120" s="1">
-        <v>0.8881944444444444</v>
+        <v>0.86805555555555558</v>
       </c>
       <c r="D120">
-        <v>1461</v>
+        <v>443</v>
       </c>
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>9</v>
-      </c>
-      <c r="C121" s="1"/>
-      <c r="E121">
-        <v>365</v>
-      </c>
-      <c r="F121" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" s="1">
-        <v>0.92013888888888884</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B121" t="s">
+        <v>24</v>
+      </c>
+      <c r="C121" s="1">
+        <v>0.86805555555555558</v>
+      </c>
+      <c r="D121">
+        <v>563</v>
+      </c>
+      <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>9</v>
-      </c>
-      <c r="C122" s="1"/>
-      <c r="E122">
-        <v>580</v>
-      </c>
-      <c r="F122" t="s">
-        <v>8</v>
-      </c>
-      <c r="G122" s="1">
-        <v>0.92013888888888884</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B122" t="s">
+        <v>29</v>
+      </c>
+      <c r="C122" s="1">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="D122">
+        <v>316</v>
+      </c>
+      <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>9</v>
-      </c>
-      <c r="C123" s="1"/>
-      <c r="E123">
-        <v>429</v>
-      </c>
-      <c r="F123" t="s">
-        <v>20</v>
-      </c>
-      <c r="G123" s="1">
-        <v>0.92361111111111116</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B123" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="D123">
+        <v>535</v>
+      </c>
+      <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>7</v>
-      </c>
-      <c r="B124" t="s">
-        <v>24</v>
-      </c>
-      <c r="C124" s="1">
-        <v>0.92986111111111114</v>
-      </c>
-      <c r="D124">
-        <v>4339</v>
-      </c>
-      <c r="G124" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="C124" s="1"/>
+      <c r="E124">
+        <v>222</v>
+      </c>
+      <c r="F124" t="s">
+        <v>46</v>
+      </c>
+      <c r="G124" s="1">
+        <v>0.875</v>
+      </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>9</v>
-      </c>
-      <c r="C125" s="1"/>
-      <c r="E125">
-        <v>578</v>
-      </c>
-      <c r="F125" t="s">
-        <v>17</v>
-      </c>
-      <c r="G125" s="1">
-        <v>0.93055555555555558</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B125" t="s">
+        <v>19</v>
+      </c>
+      <c r="C125" s="1">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="D125">
+        <v>589</v>
+      </c>
+      <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>9</v>
-      </c>
-      <c r="C126" s="1"/>
-      <c r="E126">
-        <v>627</v>
-      </c>
-      <c r="F126" t="s">
-        <v>21</v>
-      </c>
-      <c r="G126" s="1">
-        <v>0.93402777777777779</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B126" t="s">
+        <v>23</v>
+      </c>
+      <c r="C126" s="1">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="D126">
+        <v>614</v>
+      </c>
+      <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>9</v>
-      </c>
-      <c r="C127" s="1"/>
-      <c r="E127">
-        <v>574</v>
-      </c>
-      <c r="F127" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="1">
-        <v>0.9375</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B127" t="s">
+        <v>32</v>
+      </c>
+      <c r="C127" s="1">
+        <v>0.8881944444444444</v>
+      </c>
+      <c r="D127">
+        <v>1461</v>
+      </c>
+      <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>9</v>
-      </c>
-      <c r="C128" s="1"/>
-      <c r="E128">
-        <v>315</v>
-      </c>
-      <c r="F128" t="s">
-        <v>19</v>
-      </c>
-      <c r="G128" s="1">
-        <v>0.94097222222222221</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B128" t="s">
+        <v>23</v>
+      </c>
+      <c r="C128" s="1">
+        <v>0.89236111111111116</v>
+      </c>
+      <c r="D128">
+        <v>608</v>
+      </c>
+      <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>9</v>
-      </c>
-      <c r="C129" s="1"/>
-      <c r="E129">
-        <v>658</v>
-      </c>
-      <c r="F129" t="s">
-        <v>15</v>
-      </c>
-      <c r="G129" s="1">
-        <v>0.94444444444444442</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B129" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" s="1">
+        <v>0.91319444444444442</v>
+      </c>
+      <c r="D129">
+        <v>585</v>
+      </c>
+      <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C130" s="1"/>
       <c r="E130">
-        <v>452</v>
+        <v>578</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="G130" s="1">
-        <v>0.95486111111111116</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C131" s="1"/>
       <c r="E131">
-        <v>457</v>
+        <v>365</v>
       </c>
       <c r="F131" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G131" s="1">
-        <v>0.95486111111111116</v>
+        <v>0.92013888888888884</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C132" s="1"/>
       <c r="E132">
-        <v>432</v>
+        <v>580</v>
       </c>
       <c r="F132" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G132" s="1">
-        <v>0.95833333333333337</v>
+        <v>0.92013888888888884</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -2560,29 +2560,104 @@
       </c>
       <c r="C133" s="1"/>
       <c r="E133">
-        <v>4336</v>
+        <v>574</v>
       </c>
       <c r="F133" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="G133" s="1">
-        <v>0.97152777777777777</v>
+        <v>0.92013888888888884</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>25</v>
-      </c>
-      <c r="B134" t="s">
-        <v>26</v>
-      </c>
-      <c r="C134" s="1">
-        <v>0.98402777777777783</v>
-      </c>
-      <c r="D134">
+        <v>7</v>
+      </c>
+      <c r="C134" s="1"/>
+      <c r="E134">
+        <v>315</v>
+      </c>
+      <c r="F134" t="s">
+        <v>21</v>
+      </c>
+      <c r="G134" s="1">
+        <v>0.92013888888888884</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" s="1"/>
+      <c r="E135">
+        <v>457</v>
+      </c>
+      <c r="F135" t="s">
+        <v>16</v>
+      </c>
+      <c r="G135" s="1">
+        <v>0.92013888888888884</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>28</v>
+      </c>
+      <c r="B136" t="s">
+        <v>29</v>
+      </c>
+      <c r="C136" s="1">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="D136">
         <v>878</v>
       </c>
-      <c r="G134" s="1"/>
+      <c r="G136" s="1"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" s="1"/>
+      <c r="E137">
+        <v>429</v>
+      </c>
+      <c r="F137" t="s">
+        <v>22</v>
+      </c>
+      <c r="G137" s="1">
+        <v>0.92361111111111116</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" s="1"/>
+      <c r="E138">
+        <v>658</v>
+      </c>
+      <c r="F138" t="s">
+        <v>17</v>
+      </c>
+      <c r="G138" s="1">
+        <v>0.92361111111111116</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" s="1"/>
+      <c r="E139">
+        <v>651</v>
+      </c>
+      <c r="F139" t="s">
+        <v>23</v>
+      </c>
+      <c r="G139" s="1">
+        <v>0.92708333333333337</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/operaciones.xlsx
+++ b/public/operaciones.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulm\Desktop\Itinerarios_2026-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C706F9F5-F1F2-4869-8D6F-F58D8608D660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACE00318-5B61-43A8-AC66-AAA553FA864F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F73CF915-FB3C-4AE7-AFB9-AAF3B9301738}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2A0F3513-573F-4F5E-BD6E-D7EB84114D8C}"/>
   </bookViews>
   <sheets>
-    <sheet name="17-02" sheetId="1" r:id="rId1"/>
+    <sheet name="18-02" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="45">
   <si>
     <t>AEROLINEA</t>
   </si>
@@ -59,121 +59,115 @@
     <t>ETD</t>
   </si>
   <si>
+    <t>VOS</t>
+  </si>
+  <si>
+    <t>KIAD</t>
+  </si>
+  <si>
     <t>AVA</t>
   </si>
   <si>
+    <t>MHLM</t>
+  </si>
+  <si>
+    <t>KLAX</t>
+  </si>
+  <si>
+    <t>UAL</t>
+  </si>
+  <si>
+    <t>SEQM</t>
+  </si>
+  <si>
+    <t>MGGT</t>
+  </si>
+  <si>
+    <t>SKBO</t>
+  </si>
+  <si>
+    <t>MNMG</t>
+  </si>
+  <si>
+    <t>SPJC</t>
+  </si>
+  <si>
+    <t>MROC</t>
+  </si>
+  <si>
+    <t>KSFO</t>
+  </si>
+  <si>
+    <t>KJFK</t>
+  </si>
+  <si>
     <t>MHPR</t>
   </si>
   <si>
-    <t>VOS</t>
-  </si>
-  <si>
-    <t>KIAD</t>
-  </si>
-  <si>
-    <t>KONT</t>
-  </si>
-  <si>
-    <t>MHLM</t>
+    <t>MMMX</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>KMIA</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>MPTO</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>KATL</t>
+  </si>
+  <si>
+    <t>KIAH</t>
+  </si>
+  <si>
+    <t>KDFW</t>
+  </si>
+  <si>
+    <t>AMX</t>
+  </si>
+  <si>
+    <t>SKRG</t>
+  </si>
+  <si>
+    <t>IBE</t>
+  </si>
+  <si>
+    <t>CYYZ</t>
+  </si>
+  <si>
+    <t>KBOS</t>
+  </si>
+  <si>
+    <t>KEWR</t>
+  </si>
+  <si>
+    <t>TPA</t>
+  </si>
+  <si>
+    <t>DHL</t>
+  </si>
+  <si>
+    <t>AJT</t>
+  </si>
+  <si>
+    <t>FDX</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>MHTG</t>
   </si>
   <si>
     <t>KOAK</t>
-  </si>
-  <si>
-    <t>KLAX</t>
-  </si>
-  <si>
-    <t>UAL</t>
-  </si>
-  <si>
-    <t>SEQM</t>
-  </si>
-  <si>
-    <t>KJFK</t>
-  </si>
-  <si>
-    <t>MMMX</t>
-  </si>
-  <si>
-    <t>MGGT</t>
-  </si>
-  <si>
-    <t>SKBO</t>
-  </si>
-  <si>
-    <t>MNMG</t>
-  </si>
-  <si>
-    <t>SPJC</t>
-  </si>
-  <si>
-    <t>MROC</t>
-  </si>
-  <si>
-    <t>KSFO</t>
-  </si>
-  <si>
-    <t>KEWR</t>
-  </si>
-  <si>
-    <t>AAL</t>
-  </si>
-  <si>
-    <t>KMIA</t>
-  </si>
-  <si>
-    <t>CMP</t>
-  </si>
-  <si>
-    <t>MPTO</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>KATL</t>
-  </si>
-  <si>
-    <t>KIAH</t>
-  </si>
-  <si>
-    <t>AMX</t>
-  </si>
-  <si>
-    <t>KDFW</t>
-  </si>
-  <si>
-    <t>NKS</t>
-  </si>
-  <si>
-    <t>KFLL</t>
-  </si>
-  <si>
-    <t>SKRG</t>
-  </si>
-  <si>
-    <t>MMUN</t>
-  </si>
-  <si>
-    <t>IBE</t>
-  </si>
-  <si>
-    <t>CYYZ</t>
-  </si>
-  <si>
-    <t>DHL</t>
-  </si>
-  <si>
-    <t>AJT</t>
-  </si>
-  <si>
-    <t>FDX</t>
-  </si>
-  <si>
-    <t>ARM</t>
-  </si>
-  <si>
-    <t>MHTG</t>
   </si>
   <si>
     <t>LEMD</t>
@@ -551,8 +545,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F738811-0C18-4E67-99D2-AFAF5BE89C08}">
-  <dimension ref="A1:G139"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E43EBF-0C08-4042-909C-C3278E6B6021}">
+  <dimension ref="A1:G142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -591,25 +585,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="E2">
-        <v>1670</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.125</v>
-      </c>
+      <c r="C2" s="1">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="D2">
+        <v>4156</v>
+      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1">
         <v>0.18402777777777779</v>
@@ -621,29 +615,29 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="E4">
+        <v>1670</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D4">
-        <v>453</v>
-      </c>
-      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1"/>
       <c r="E5">
         <v>879</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1">
         <v>0.20972222222222223</v>
@@ -651,10 +645,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>0.21875</v>
@@ -666,61 +660,61 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <v>0.22222222222222221</v>
       </c>
       <c r="D7">
-        <v>531</v>
+        <v>575</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1">
-        <v>0.22222222222222221</v>
+        <v>0.22569444444444445</v>
       </c>
       <c r="D8">
-        <v>575</v>
+        <v>224</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1">
-        <v>0.22569444444444445</v>
+        <v>0.23541666666666666</v>
       </c>
       <c r="D9">
-        <v>224</v>
+        <v>4309</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>0.23472222222222222</v>
+        <v>0.23958333333333334</v>
       </c>
       <c r="D10">
-        <v>4323</v>
+        <v>1266</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -729,73 +723,73 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
-        <v>0.23541666666666666</v>
+        <v>0.24652777777777779</v>
       </c>
       <c r="D11">
-        <v>4309</v>
+        <v>456</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="1">
-        <v>0.23958333333333334</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="D12">
-        <v>1266</v>
+        <v>579</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1">
-        <v>0.24652777777777779</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D13">
-        <v>456</v>
+        <v>366</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
-        <v>0.24652777777777779</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D14">
-        <v>567</v>
+        <v>529</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
-        <v>0.25347222222222221</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="D15">
-        <v>433</v>
+        <v>314</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -803,59 +797,59 @@
       <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.25694444444444442</v>
-      </c>
-      <c r="D16">
-        <v>579</v>
-      </c>
-      <c r="G16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="E16">
+        <v>4326</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.2638888888888889</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D17">
-        <v>366</v>
+        <v>428</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D18">
-        <v>529</v>
+        <v>626</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1">
-        <v>0.2638888888888889</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D19">
-        <v>314</v>
+        <v>561</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -863,29 +857,29 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="E20">
-        <v>4326</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.2638888888888889</v>
-      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D20">
+        <v>571</v>
+      </c>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C21" s="1">
-        <v>0.2673611111111111</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D21">
-        <v>428</v>
+        <v>591</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -893,132 +887,132 @@
       <c r="A22" t="s">
         <v>7</v>
       </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.2673611111111111</v>
-      </c>
-      <c r="D22">
-        <v>650</v>
-      </c>
-      <c r="G22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="E22">
+        <v>4318</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.28611111111111109</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D23">
-        <v>561</v>
-      </c>
-      <c r="G23" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="E23">
+        <v>1467</v>
+      </c>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.28819444444444448</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C24" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="D24">
-        <v>571</v>
+        <v>521</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D25">
-        <v>591</v>
-      </c>
-      <c r="G25" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="E25">
+        <v>323</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C26" s="1"/>
       <c r="E26">
-        <v>1467</v>
+        <v>396</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G26" s="1">
-        <v>0.28819444444444448</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1"/>
       <c r="E27">
-        <v>4330</v>
+        <v>4338</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G27" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.31527777777777777</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C28" s="1"/>
       <c r="E28">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G28" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C29" s="1"/>
       <c r="E29">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G29" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C30" s="1"/>
       <c r="E30">
-        <v>310</v>
+        <v>536</v>
       </c>
       <c r="F30" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="G30" s="1">
         <v>0.31597222222222221</v>
@@ -1026,59 +1020,59 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C31" s="1"/>
       <c r="E31">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G31" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C32" s="1"/>
       <c r="E32">
-        <v>536</v>
+        <v>562</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G32" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C33" s="1"/>
       <c r="E33">
-        <v>562</v>
+        <v>368</v>
       </c>
       <c r="F33" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G33" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C34" s="1"/>
       <c r="E34">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G34" s="1">
         <v>0.33333333333333331</v>
@@ -1086,14 +1080,14 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C35" s="1"/>
       <c r="E35">
-        <v>383</v>
+        <v>522</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G35" s="1">
         <v>0.33333333333333331</v>
@@ -1101,59 +1095,59 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="E36">
-        <v>522</v>
-      </c>
-      <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0.33333333333333331</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="D36">
+        <v>581</v>
+      </c>
+      <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="1">
+        <v>9</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="E37">
+        <v>660</v>
+      </c>
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="1">
         <v>0.33680555555555558</v>
       </c>
-      <c r="D37">
-        <v>581</v>
-      </c>
-      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C38" s="1"/>
       <c r="E38">
-        <v>660</v>
+        <v>454</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G38" s="1">
-        <v>0.33680555555555558</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C39" s="1"/>
       <c r="E39">
-        <v>454</v>
+        <v>554</v>
       </c>
       <c r="F39" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G39" s="1">
         <v>0.34027777777777779</v>
@@ -1161,44 +1155,44 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C40" s="1"/>
       <c r="E40">
-        <v>572</v>
+        <v>324</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G40" s="1">
-        <v>0.34027777777777779</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="E41">
-        <v>324</v>
-      </c>
-      <c r="F41" t="s">
-        <v>40</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0.34375</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.34722222222222221</v>
+      </c>
+      <c r="D41">
+        <v>4053</v>
+      </c>
+      <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C42" s="1"/>
       <c r="E42">
         <v>884</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G42" s="1">
         <v>0.3576388888888889</v>
@@ -1206,29 +1200,29 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="E43">
-        <v>369</v>
-      </c>
-      <c r="F43" t="s">
-        <v>37</v>
-      </c>
-      <c r="G43" s="1">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="1">
         <v>0.37847222222222221</v>
       </c>
+      <c r="D43">
+        <v>559</v>
+      </c>
+      <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C44" s="1"/>
       <c r="E44">
-        <v>430</v>
+        <v>369</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G44" s="1">
         <v>0.37847222222222221</v>
@@ -1236,63 +1230,63 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C45" s="1"/>
       <c r="E45">
-        <v>582</v>
+        <v>430</v>
       </c>
       <c r="F45" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G45" s="1">
-        <v>0.39930555555555558</v>
+        <v>0.37847222222222221</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0.41319444444444442</v>
-      </c>
-      <c r="D46">
-        <v>659</v>
-      </c>
-      <c r="G46" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="E46">
+        <v>582</v>
+      </c>
+      <c r="F46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.39930555555555558</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="E47">
-        <v>392</v>
-      </c>
-      <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" s="1">
-        <v>0.41319444444444442</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="D47">
+        <v>4053</v>
+      </c>
+      <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="E48">
-        <v>609</v>
-      </c>
-      <c r="F48" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" s="1">
-        <v>0.4236111111111111</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="D48">
+        <v>659</v>
+      </c>
+      <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -1300,57 +1294,57 @@
       </c>
       <c r="C49" s="1"/>
       <c r="E49">
-        <v>4320</v>
+        <v>392</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G49" s="1">
-        <v>0.4236111111111111</v>
+        <v>0.41319444444444442</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C50" s="1">
-        <v>0.42708333333333331</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D50">
-        <v>537</v>
+        <v>731</v>
       </c>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="D51">
-        <v>455</v>
-      </c>
-      <c r="G51" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="E51">
+        <v>613</v>
+      </c>
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.4236111111111111</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C52" s="1">
-        <v>0.4513888888888889</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D52">
-        <v>573</v>
+        <v>537</v>
       </c>
       <c r="G52" s="1"/>
     </row>
@@ -1359,22 +1353,22 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C53" s="1">
-        <v>0.45347222222222222</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="D53">
-        <v>4337</v>
+        <v>455</v>
       </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C54" s="1">
         <v>0.46180555555555558</v>
@@ -1386,16 +1380,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C55" s="1">
-        <v>0.46527777777777773</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="D55">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="G55" s="1"/>
     </row>
@@ -1403,42 +1397,42 @@
       <c r="A56" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="E56">
-        <v>584</v>
-      </c>
-      <c r="F56" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="1">
-        <v>0.49305555555555558</v>
-      </c>
+      <c r="B56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="D56">
+        <v>4301</v>
+      </c>
+      <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="1"/>
-      <c r="E57">
-        <v>650</v>
-      </c>
-      <c r="F57" t="s">
-        <v>38</v>
-      </c>
-      <c r="G57" s="1">
-        <v>0.49305555555555558</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D57">
+        <v>916</v>
+      </c>
+      <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C58" s="1"/>
       <c r="E58">
         <v>385</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G58" s="1">
         <v>0.50347222222222221</v>
@@ -1446,14 +1440,14 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C59" s="1"/>
       <c r="E59">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G59" s="1">
         <v>0.50347222222222221</v>
@@ -1461,14 +1455,14 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C60" s="1"/>
       <c r="E60">
         <v>319</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G60" s="1">
         <v>0.51041666666666663</v>
@@ -1476,10 +1470,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C61" s="1">
         <v>0.52083333333333337</v>
@@ -1491,10 +1485,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C62" s="1">
         <v>0.52569444444444446</v>
@@ -1506,25 +1500,25 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>42</v>
-      </c>
-      <c r="B63" t="s">
-        <v>27</v>
-      </c>
-      <c r="C63" s="1">
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="D63">
-        <v>720</v>
-      </c>
-      <c r="G63" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="E63">
+        <v>4340</v>
+      </c>
+      <c r="F63" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0.52569444444444446</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C64" s="1">
         <v>0.52986111111111112</v>
@@ -1536,10 +1530,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B65" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C65" s="1">
         <v>0.54861111111111105</v>
@@ -1551,88 +1545,88 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C66" s="1">
-        <v>0.55486111111111114</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="D66">
-        <v>1441</v>
+        <v>916</v>
       </c>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C67" s="1">
-        <v>0.56041666666666667</v>
+        <v>0.55486111111111114</v>
       </c>
       <c r="D67">
-        <v>8139</v>
+        <v>1441</v>
       </c>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>26</v>
-      </c>
-      <c r="C68" s="1"/>
-      <c r="E68">
-        <v>2820</v>
-      </c>
-      <c r="F68" t="s">
-        <v>27</v>
-      </c>
-      <c r="G68" s="1">
-        <v>0.56736111111111109</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="D68">
+        <v>8139</v>
+      </c>
+      <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C69" s="1"/>
       <c r="E69">
-        <v>871</v>
+        <v>2820</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G69" s="1">
-        <v>0.57291666666666663</v>
+        <v>0.56736111111111109</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>33</v>
-      </c>
-      <c r="B70" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70" s="1">
-        <v>0.57986111111111105</v>
-      </c>
-      <c r="D70">
-        <v>628</v>
-      </c>
-      <c r="G70" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="E70">
+        <v>871</v>
+      </c>
+      <c r="F70" t="s">
+        <v>26</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.57291666666666663</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C71" s="1">
-        <v>0.58125000000000004</v>
+        <v>0.58402777777777781</v>
       </c>
       <c r="D71">
         <v>1035</v>
@@ -1641,226 +1635,226 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>30</v>
-      </c>
-      <c r="C72" s="1"/>
-      <c r="E72">
-        <v>1978</v>
-      </c>
-      <c r="F72" t="s">
         <v>31</v>
       </c>
-      <c r="G72" s="1">
-        <v>0.60763888888888895</v>
-      </c>
+      <c r="B72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="D72">
+        <v>628</v>
+      </c>
+      <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C73" s="1"/>
       <c r="E73">
-        <v>1468</v>
+        <v>1978</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G73" s="1">
-        <v>0.61805555555555558</v>
+        <v>0.60763888888888895</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>35</v>
-      </c>
-      <c r="B74" t="s">
-        <v>36</v>
-      </c>
-      <c r="C74" s="1">
-        <v>0.62222222222222223</v>
-      </c>
-      <c r="D74">
-        <v>1031</v>
-      </c>
-      <c r="G74" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="E74">
+        <v>1468</v>
+      </c>
+      <c r="F74" t="s">
+        <v>29</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.61805555555555558</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>26</v>
-      </c>
-      <c r="C75" s="1"/>
-      <c r="E75">
-        <v>1104</v>
-      </c>
-      <c r="F75" t="s">
-        <v>34</v>
-      </c>
-      <c r="G75" s="1">
-        <v>0.62361111111111112</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="D75">
+        <v>4319</v>
+      </c>
+      <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C76" s="1"/>
       <c r="E76">
-        <v>629</v>
+        <v>1104</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G76" s="1">
-        <v>0.63263888888888886</v>
+        <v>0.62777777777777777</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>15</v>
-      </c>
-      <c r="B77" t="s">
-        <v>32</v>
-      </c>
-      <c r="C77" s="1">
-        <v>0.64166666666666672</v>
-      </c>
-      <c r="D77">
-        <v>1290</v>
-      </c>
-      <c r="G77" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="E77">
+        <v>629</v>
+      </c>
+      <c r="F77" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.63263888888888886</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C78" s="1">
-        <v>0.64583333333333337</v>
+        <v>0.64166666666666672</v>
       </c>
       <c r="D78">
-        <v>4</v>
+        <v>1290</v>
       </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B79" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C79" s="1">
-        <v>0.65277777777777779</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="D79">
-        <v>382</v>
+        <v>4</v>
       </c>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" s="1"/>
-      <c r="E80">
-        <v>317</v>
-      </c>
-      <c r="F80" t="s">
-        <v>29</v>
-      </c>
-      <c r="G80" s="1">
-        <v>0.65625</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D80">
+        <v>382</v>
+      </c>
+      <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>43</v>
-      </c>
-      <c r="B81" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81" s="1">
-        <v>0.66527777777777775</v>
-      </c>
-      <c r="D81">
-        <v>7139</v>
-      </c>
-      <c r="G81" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="E81">
+        <v>317</v>
+      </c>
+      <c r="F81" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0.65625</v>
+      </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C82" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.66527777777777775</v>
       </c>
       <c r="D82">
-        <v>367</v>
+        <v>7139</v>
       </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C83" s="1">
         <v>0.66666666666666663</v>
       </c>
       <c r="D83">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>35</v>
-      </c>
-      <c r="C84" s="1"/>
-      <c r="E84">
-        <v>1032</v>
-      </c>
-      <c r="F84" t="s">
-        <v>36</v>
-      </c>
-      <c r="G84" s="1">
-        <v>0.66805555555555562</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B84" t="s">
+        <v>32</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D84">
+        <v>370</v>
+      </c>
+      <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C85" s="1">
-        <v>0.68055555555555558</v>
+        <v>0.66736111111111107</v>
       </c>
       <c r="D85">
-        <v>441</v>
+        <v>4341</v>
       </c>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C86" s="1">
-        <v>0.68402777777777779</v>
+        <v>0.68055555555555558</v>
       </c>
       <c r="D86">
-        <v>651</v>
+        <v>441</v>
       </c>
       <c r="G86" s="1"/>
     </row>
@@ -1868,117 +1862,117 @@
       <c r="A87" t="s">
         <v>7</v>
       </c>
-      <c r="B87" t="s">
-        <v>27</v>
-      </c>
-      <c r="C87" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="D87">
-        <v>311</v>
-      </c>
-      <c r="G87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="E87">
+        <v>4322</v>
+      </c>
+      <c r="F87" t="s">
+        <v>43</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0.68611111111111112</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C88" s="1">
         <v>0.6875</v>
       </c>
       <c r="D88">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>15</v>
-      </c>
-      <c r="C89" s="1"/>
-      <c r="E89">
-        <v>1130</v>
-      </c>
-      <c r="F89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G89" s="1">
-        <v>0.69444444444444453</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="D89">
+        <v>318</v>
+      </c>
+      <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C90" s="1">
-        <v>0.69722222222222219</v>
+        <v>0.69097222222222221</v>
       </c>
       <c r="D90">
-        <v>4327</v>
+        <v>555</v>
       </c>
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>7</v>
-      </c>
-      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="E91">
+        <v>1130</v>
+      </c>
+      <c r="F91" t="s">
         <v>29</v>
       </c>
-      <c r="C91" s="1">
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="D91">
-        <v>322</v>
-      </c>
-      <c r="G91" s="1"/>
+      <c r="G91" s="1">
+        <v>0.69444444444444453</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>7</v>
       </c>
-      <c r="C92" s="1"/>
-      <c r="E92">
-        <v>530</v>
-      </c>
-      <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.69722222222222219</v>
+      </c>
+      <c r="D92">
+        <v>4327</v>
+      </c>
+      <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" s="1"/>
-      <c r="E93">
-        <v>560</v>
-      </c>
-      <c r="F93" t="s">
-        <v>24</v>
-      </c>
-      <c r="G93" s="1">
-        <v>0.73263888888888884</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B93" t="s">
+        <v>26</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D93">
+        <v>322</v>
+      </c>
+      <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C94" s="1"/>
       <c r="E94">
-        <v>588</v>
+        <v>520</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G94" s="1">
         <v>0.73263888888888884</v>
@@ -1986,14 +1980,14 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C95" s="1"/>
       <c r="E95">
-        <v>615</v>
+        <v>560</v>
       </c>
       <c r="F95" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G95" s="1">
         <v>0.73263888888888884</v>
@@ -2003,42 +1997,42 @@
       <c r="A96" t="s">
         <v>9</v>
       </c>
-      <c r="B96" t="s">
-        <v>32</v>
-      </c>
-      <c r="C96" s="1">
-        <v>0.73472222222222228</v>
-      </c>
-      <c r="D96">
-        <v>4321</v>
-      </c>
-      <c r="G96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="E96">
+        <v>588</v>
+      </c>
+      <c r="F96" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0.73263888888888884</v>
+      </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C97" s="1"/>
       <c r="E97">
-        <v>448</v>
+        <v>617</v>
       </c>
       <c r="F97" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G97" s="1">
-        <v>0.74305555555555558</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C98" s="1"/>
       <c r="E98">
-        <v>534</v>
+        <v>448</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G98" s="1">
         <v>0.74305555555555558</v>
@@ -2050,13 +2044,13 @@
       </c>
       <c r="C99" s="1"/>
       <c r="E99">
-        <v>4308</v>
+        <v>534</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G99" s="1">
-        <v>0.74583333333333335</v>
+        <v>0.74305555555555558</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -2065,13 +2059,13 @@
       </c>
       <c r="C100" s="1"/>
       <c r="E100">
-        <v>528</v>
+        <v>4308</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G100" s="1">
-        <v>0.76041666666666663</v>
+        <v>0.74583333333333335</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -2079,13 +2073,13 @@
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C101" s="1">
-        <v>0.7631944444444444</v>
+        <v>0.74652777777777779</v>
       </c>
       <c r="D101">
-        <v>4040</v>
+        <v>612</v>
       </c>
       <c r="G101" s="1"/>
     </row>
@@ -2095,568 +2089,613 @@
       </c>
       <c r="C102" s="1"/>
       <c r="E102">
-        <v>4312</v>
+        <v>528</v>
       </c>
       <c r="F102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G102" s="1">
-        <v>0.77638888888888891</v>
+        <v>0.76041666666666663</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>41</v>
-      </c>
-      <c r="B103" t="s">
-        <v>45</v>
-      </c>
-      <c r="C103" s="1">
-        <v>0.78125</v>
-      </c>
-      <c r="D103">
-        <v>930</v>
-      </c>
-      <c r="G103" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="E103">
+        <v>4312</v>
+      </c>
+      <c r="F103" t="s">
+        <v>8</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0.77638888888888891</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" s="1"/>
-      <c r="E104">
-        <v>558</v>
-      </c>
-      <c r="F104" t="s">
-        <v>24</v>
-      </c>
-      <c r="G104" s="1">
-        <v>0.78819444444444442</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B104" t="s">
+        <v>42</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="D104">
+        <v>930</v>
+      </c>
+      <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C105" s="1">
-        <v>0.79027777777777775</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="D105">
-        <v>4331</v>
+        <v>431</v>
       </c>
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B106" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C106" s="1">
-        <v>0.79513888888888884</v>
+        <v>0.8125</v>
       </c>
       <c r="D106">
-        <v>431</v>
+        <v>222</v>
       </c>
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>7</v>
-      </c>
-      <c r="B107" t="s">
-        <v>17</v>
-      </c>
-      <c r="C107" s="1">
-        <v>0.79513888888888884</v>
-      </c>
-      <c r="D107">
-        <v>661</v>
-      </c>
-      <c r="G107" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="E107">
+        <v>570</v>
+      </c>
+      <c r="F107" t="s">
+        <v>20</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0.8125</v>
+      </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>9</v>
       </c>
-      <c r="C108" s="1"/>
-      <c r="E108">
-        <v>4041</v>
-      </c>
-      <c r="F108" t="s">
-        <v>23</v>
-      </c>
-      <c r="G108" s="1">
-        <v>0.79513888888888884</v>
-      </c>
+      <c r="B108" t="s">
+        <v>29</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="D108">
+        <v>425</v>
+      </c>
+      <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109" s="1"/>
-      <c r="E109">
-        <v>4300</v>
-      </c>
-      <c r="F109" t="s">
-        <v>18</v>
-      </c>
-      <c r="G109" s="1">
-        <v>0.81180555555555556</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B109" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D109">
+        <v>932</v>
+      </c>
+      <c r="G109" s="1"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C110" s="1">
-        <v>0.8125</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="D110">
-        <v>222</v>
+        <v>523</v>
       </c>
       <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" s="1"/>
-      <c r="E111">
-        <v>570</v>
-      </c>
-      <c r="F111" t="s">
-        <v>17</v>
-      </c>
-      <c r="G111" s="1">
-        <v>0.8125</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="D111">
+        <v>583</v>
+      </c>
+      <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C112" s="1">
-        <v>0.82291666666666663</v>
+        <v>0.84375</v>
       </c>
       <c r="D112">
-        <v>932</v>
+        <v>325</v>
       </c>
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C113" s="1">
-        <v>0.82638888888888884</v>
+        <v>0.84375</v>
       </c>
       <c r="D113">
-        <v>523</v>
+        <v>445</v>
       </c>
       <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>7</v>
-      </c>
-      <c r="B114" t="s">
-        <v>10</v>
-      </c>
-      <c r="C114" s="1">
-        <v>0.82986111111111116</v>
-      </c>
-      <c r="D114">
-        <v>583</v>
-      </c>
-      <c r="G114" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="E114">
+        <v>590</v>
+      </c>
+      <c r="F114" t="s">
+        <v>8</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0.85069444444444442</v>
+      </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C115" s="1">
-        <v>0.84375</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D115">
-        <v>325</v>
+        <v>393</v>
       </c>
       <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" s="1"/>
-      <c r="E116">
-        <v>590</v>
-      </c>
-      <c r="F116" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="1">
-        <v>0.85069444444444442</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B116" t="s">
+        <v>21</v>
+      </c>
+      <c r="C116" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D116">
+        <v>449</v>
+      </c>
+      <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B117" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C117" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.86041666666666661</v>
       </c>
       <c r="D117">
-        <v>393</v>
+        <v>881</v>
       </c>
       <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C118" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.86805555555555558</v>
       </c>
       <c r="D118">
-        <v>449</v>
+        <v>563</v>
       </c>
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C119" s="1">
-        <v>0.86041666666666661</v>
+        <v>0.87152777777777779</v>
       </c>
       <c r="D119">
-        <v>881</v>
+        <v>316</v>
       </c>
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C120" s="1">
-        <v>0.86805555555555558</v>
+        <v>0.875</v>
       </c>
       <c r="D120">
-        <v>443</v>
+        <v>535</v>
       </c>
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>7</v>
-      </c>
-      <c r="B121" t="s">
-        <v>24</v>
-      </c>
-      <c r="C121" s="1">
-        <v>0.86805555555555558</v>
-      </c>
-      <c r="D121">
-        <v>563</v>
-      </c>
-      <c r="G121" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C121" s="1"/>
+      <c r="E121">
+        <v>222</v>
+      </c>
+      <c r="F121" t="s">
+        <v>44</v>
+      </c>
+      <c r="G121" s="1">
+        <v>0.875</v>
+      </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C122" s="1">
-        <v>0.87152777777777779</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D122">
-        <v>316</v>
+        <v>589</v>
       </c>
       <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C123" s="1">
-        <v>0.875</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="D123">
-        <v>535</v>
+        <v>616</v>
       </c>
       <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>39</v>
-      </c>
-      <c r="C124" s="1"/>
-      <c r="E124">
-        <v>222</v>
-      </c>
-      <c r="F124" t="s">
-        <v>46</v>
-      </c>
-      <c r="G124" s="1">
-        <v>0.875</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B124" t="s">
+        <v>20</v>
+      </c>
+      <c r="C124" s="1">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="D124">
+        <v>661</v>
+      </c>
+      <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B125" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C125" s="1">
-        <v>0.87847222222222221</v>
+        <v>0.8881944444444444</v>
       </c>
       <c r="D125">
-        <v>589</v>
+        <v>1461</v>
       </c>
       <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>7</v>
-      </c>
-      <c r="B126" t="s">
-        <v>23</v>
-      </c>
-      <c r="C126" s="1">
-        <v>0.87847222222222221</v>
-      </c>
-      <c r="D126">
-        <v>614</v>
-      </c>
-      <c r="G126" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C126" s="1"/>
+      <c r="E126">
+        <v>365</v>
+      </c>
+      <c r="F126" t="s">
+        <v>15</v>
+      </c>
+      <c r="G126" s="1">
+        <v>0.92013888888888884</v>
+      </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>15</v>
-      </c>
-      <c r="B127" t="s">
-        <v>32</v>
-      </c>
-      <c r="C127" s="1">
-        <v>0.8881944444444444</v>
-      </c>
-      <c r="D127">
-        <v>1461</v>
-      </c>
-      <c r="G127" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C127" s="1"/>
+      <c r="E127">
+        <v>580</v>
+      </c>
+      <c r="F127" t="s">
+        <v>8</v>
+      </c>
+      <c r="G127" s="1">
+        <v>0.92013888888888884</v>
+      </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>7</v>
-      </c>
-      <c r="B128" t="s">
-        <v>23</v>
-      </c>
-      <c r="C128" s="1">
-        <v>0.89236111111111116</v>
-      </c>
-      <c r="D128">
-        <v>608</v>
-      </c>
-      <c r="G128" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C128" s="1"/>
+      <c r="E128">
+        <v>429</v>
+      </c>
+      <c r="F128" t="s">
+        <v>17</v>
+      </c>
+      <c r="G128" s="1">
+        <v>0.92361111111111116</v>
+      </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>7</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C129" s="1">
-        <v>0.91319444444444442</v>
+        <v>0.92986111111111114</v>
       </c>
       <c r="D129">
-        <v>585</v>
+        <v>4339</v>
       </c>
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C130" s="1"/>
       <c r="E130">
         <v>578</v>
       </c>
       <c r="F130" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G130" s="1">
-        <v>0.91666666666666663</v>
+        <v>0.93055555555555558</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C131" s="1"/>
       <c r="E131">
-        <v>365</v>
+        <v>627</v>
       </c>
       <c r="F131" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G131" s="1">
-        <v>0.92013888888888884</v>
+        <v>0.93402777777777779</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C132" s="1"/>
       <c r="E132">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="F132" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="1">
-        <v>0.92013888888888884</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C133" s="1"/>
       <c r="E133">
-        <v>574</v>
+        <v>315</v>
       </c>
       <c r="F133" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G133" s="1">
-        <v>0.92013888888888884</v>
+        <v>0.94097222222222221</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C134" s="1"/>
       <c r="E134">
-        <v>315</v>
+        <v>568</v>
       </c>
       <c r="F134" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G134" s="1">
-        <v>0.92013888888888884</v>
+        <v>0.94444444444444442</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C135" s="1"/>
       <c r="E135">
-        <v>457</v>
+        <v>658</v>
       </c>
       <c r="F135" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G135" s="1">
-        <v>0.92013888888888884</v>
+        <v>0.94444444444444442</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B136" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C136" s="1">
-        <v>0.92361111111111116</v>
+        <v>0.94930555555555562</v>
       </c>
       <c r="D136">
-        <v>878</v>
+        <v>1425</v>
       </c>
       <c r="G136" s="1"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C137" s="1"/>
       <c r="E137">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="F137" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G137" s="1">
-        <v>0.92361111111111116</v>
+        <v>0.95486111111111116</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C138" s="1"/>
       <c r="E138">
-        <v>658</v>
+        <v>457</v>
       </c>
       <c r="F138" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G138" s="1">
-        <v>0.92361111111111116</v>
+        <v>0.95486111111111116</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C139" s="1"/>
       <c r="E139">
-        <v>651</v>
+        <v>432</v>
       </c>
       <c r="F139" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G139" s="1">
-        <v>0.92708333333333337</v>
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" s="1"/>
+      <c r="E140">
+        <v>4336</v>
+      </c>
+      <c r="F140" t="s">
+        <v>36</v>
+      </c>
+      <c r="G140" s="1">
+        <v>0.97152777777777777</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>25</v>
+      </c>
+      <c r="B141" t="s">
+        <v>26</v>
+      </c>
+      <c r="C141" s="1">
+        <v>0.98402777777777783</v>
+      </c>
+      <c r="D141">
+        <v>878</v>
+      </c>
+      <c r="G141" s="1"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" s="1"/>
+      <c r="E142">
+        <v>339</v>
+      </c>
+      <c r="F142" t="s">
+        <v>36</v>
+      </c>
+      <c r="G142" s="1">
+        <v>0.99583333333333324</v>
       </c>
     </row>
   </sheetData>

--- a/public/operaciones.xlsx
+++ b/public/operaciones.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulm\Desktop\Itinerarios_2026-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C11080-1361-40F1-BC12-DC8431731263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACE00318-5B61-43A8-AC66-AAA553FA864F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F6E9FF54-FAB0-4FF7-9FD5-EF8E2C7A7446}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2A0F3513-573F-4F5E-BD6E-D7EB84114D8C}"/>
   </bookViews>
   <sheets>
-    <sheet name="03-02" sheetId="1" r:id="rId1"/>
+    <sheet name="18-02" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="45">
   <si>
     <t>AEROLINEA</t>
   </si>
@@ -59,121 +59,115 @@
     <t>ETD</t>
   </si>
   <si>
+    <t>VOS</t>
+  </si>
+  <si>
+    <t>KIAD</t>
+  </si>
+  <si>
     <t>AVA</t>
   </si>
   <si>
+    <t>MHLM</t>
+  </si>
+  <si>
+    <t>KLAX</t>
+  </si>
+  <si>
+    <t>UAL</t>
+  </si>
+  <si>
+    <t>SEQM</t>
+  </si>
+  <si>
+    <t>MGGT</t>
+  </si>
+  <si>
+    <t>SKBO</t>
+  </si>
+  <si>
+    <t>MNMG</t>
+  </si>
+  <si>
+    <t>SPJC</t>
+  </si>
+  <si>
+    <t>MROC</t>
+  </si>
+  <si>
+    <t>KSFO</t>
+  </si>
+  <si>
+    <t>KJFK</t>
+  </si>
+  <si>
     <t>MHPR</t>
   </si>
   <si>
-    <t>VOS</t>
-  </si>
-  <si>
-    <t>KIAD</t>
-  </si>
-  <si>
-    <t>KONT</t>
-  </si>
-  <si>
-    <t>MHLM</t>
+    <t>MMMX</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>KMIA</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>MPTO</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>KATL</t>
+  </si>
+  <si>
+    <t>KIAH</t>
+  </si>
+  <si>
+    <t>KDFW</t>
+  </si>
+  <si>
+    <t>AMX</t>
+  </si>
+  <si>
+    <t>SKRG</t>
+  </si>
+  <si>
+    <t>IBE</t>
+  </si>
+  <si>
+    <t>CYYZ</t>
+  </si>
+  <si>
+    <t>KBOS</t>
+  </si>
+  <si>
+    <t>KEWR</t>
+  </si>
+  <si>
+    <t>TPA</t>
+  </si>
+  <si>
+    <t>DHL</t>
+  </si>
+  <si>
+    <t>AJT</t>
+  </si>
+  <si>
+    <t>FDX</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>MHTG</t>
   </si>
   <si>
     <t>KOAK</t>
-  </si>
-  <si>
-    <t>KLAX</t>
-  </si>
-  <si>
-    <t>UAL</t>
-  </si>
-  <si>
-    <t>SEQM</t>
-  </si>
-  <si>
-    <t>KJFK</t>
-  </si>
-  <si>
-    <t>MMMX</t>
-  </si>
-  <si>
-    <t>MGGT</t>
-  </si>
-  <si>
-    <t>SKBO</t>
-  </si>
-  <si>
-    <t>MNMG</t>
-  </si>
-  <si>
-    <t>SPJC</t>
-  </si>
-  <si>
-    <t>MROC</t>
-  </si>
-  <si>
-    <t>KSFO</t>
-  </si>
-  <si>
-    <t>KEWR</t>
-  </si>
-  <si>
-    <t>AAL</t>
-  </si>
-  <si>
-    <t>KMIA</t>
-  </si>
-  <si>
-    <t>CMP</t>
-  </si>
-  <si>
-    <t>MPTO</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>KATL</t>
-  </si>
-  <si>
-    <t>KIAH</t>
-  </si>
-  <si>
-    <t>AMX</t>
-  </si>
-  <si>
-    <t>KDFW</t>
-  </si>
-  <si>
-    <t>NKS</t>
-  </si>
-  <si>
-    <t>KFLL</t>
-  </si>
-  <si>
-    <t>SKRG</t>
-  </si>
-  <si>
-    <t>MMUN</t>
-  </si>
-  <si>
-    <t>IBE</t>
-  </si>
-  <si>
-    <t>CYYZ</t>
-  </si>
-  <si>
-    <t>DHL</t>
-  </si>
-  <si>
-    <t>AJT</t>
-  </si>
-  <si>
-    <t>FDX</t>
-  </si>
-  <si>
-    <t>ARM</t>
-  </si>
-  <si>
-    <t>MHTG</t>
   </si>
   <si>
     <t>LEMD</t>
@@ -183,6 +177,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="hh:mm"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -214,7 +211,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,12 +545,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CB4DE2-CCC6-49F1-9379-41504D29A093}">
-  <dimension ref="A1:G134"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E43EBF-0C08-4042-909C-C3278E6B6021}">
+  <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A121" activeCellId="3" sqref="A53:XFD53 A64:XFD64 A90:XFD90 A121:XFD121"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -590,25 +585,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="E2">
-        <v>1670</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.125</v>
-      </c>
+      <c r="C2" s="1">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="D2">
+        <v>4156</v>
+      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1">
         <v>0.18402777777777779</v>
@@ -620,29 +615,29 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="E4">
+        <v>1670</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D4">
-        <v>453</v>
-      </c>
-      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1"/>
       <c r="E5">
         <v>879</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1">
         <v>0.20972222222222223</v>
@@ -650,10 +645,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>0.21875</v>
@@ -665,61 +660,61 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <v>0.22222222222222221</v>
       </c>
       <c r="D7">
-        <v>531</v>
+        <v>575</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1">
-        <v>0.22222222222222221</v>
+        <v>0.22569444444444445</v>
       </c>
       <c r="D8">
-        <v>575</v>
+        <v>224</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1">
-        <v>0.22569444444444445</v>
+        <v>0.23541666666666666</v>
       </c>
       <c r="D9">
-        <v>224</v>
+        <v>4309</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>0.23472222222222222</v>
+        <v>0.23958333333333334</v>
       </c>
       <c r="D10">
-        <v>4323</v>
+        <v>1266</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -728,73 +723,73 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
-        <v>0.23541666666666666</v>
+        <v>0.24652777777777779</v>
       </c>
       <c r="D11">
-        <v>4309</v>
+        <v>456</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="1">
-        <v>0.23958333333333334</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="D12">
-        <v>1266</v>
+        <v>579</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1">
-        <v>0.24652777777777779</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D13">
-        <v>456</v>
+        <v>366</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
-        <v>0.24652777777777779</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D14">
-        <v>567</v>
+        <v>529</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
-        <v>0.25347222222222221</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="D15">
-        <v>433</v>
+        <v>314</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -802,59 +797,59 @@
       <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.25694444444444442</v>
-      </c>
-      <c r="D16">
-        <v>579</v>
-      </c>
-      <c r="G16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="E16">
+        <v>4326</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.2638888888888889</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D17">
-        <v>366</v>
+        <v>428</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D18">
-        <v>529</v>
+        <v>626</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1">
-        <v>0.2638888888888889</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D19">
-        <v>314</v>
+        <v>561</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -862,29 +857,29 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="E20">
-        <v>4326</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.2638888888888889</v>
-      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D20">
+        <v>571</v>
+      </c>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C21" s="1">
-        <v>0.2673611111111111</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D21">
-        <v>428</v>
+        <v>591</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -892,117 +887,117 @@
       <c r="A22" t="s">
         <v>7</v>
       </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.2673611111111111</v>
-      </c>
-      <c r="D22">
-        <v>650</v>
-      </c>
-      <c r="G22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="E22">
+        <v>4318</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.28611111111111109</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D23">
-        <v>561</v>
-      </c>
-      <c r="G23" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="E23">
+        <v>1467</v>
+      </c>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.28819444444444448</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C24" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="D24">
-        <v>571</v>
+        <v>521</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D25">
-        <v>591</v>
-      </c>
-      <c r="G25" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="E25">
+        <v>323</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C26" s="1"/>
       <c r="E26">
-        <v>1467</v>
+        <v>396</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G26" s="1">
-        <v>0.28819444444444448</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1"/>
       <c r="E27">
-        <v>4330</v>
+        <v>4338</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G27" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.31527777777777777</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C28" s="1"/>
       <c r="E28">
-        <v>396</v>
+        <v>310</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G28" s="1">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C29" s="1"/>
       <c r="E29">
-        <v>310</v>
+        <v>440</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G29" s="1">
         <v>0.31597222222222221</v>
@@ -1010,14 +1005,14 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C30" s="1"/>
       <c r="E30">
-        <v>440</v>
+        <v>536</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G30" s="1">
         <v>0.31597222222222221</v>
@@ -1025,29 +1020,29 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C31" s="1"/>
       <c r="E31">
-        <v>536</v>
+        <v>444</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G31" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C32" s="1"/>
       <c r="E32">
         <v>562</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G32" s="1">
         <v>0.32291666666666669</v>
@@ -1055,14 +1050,14 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C33" s="1"/>
       <c r="E33">
         <v>368</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G33" s="1">
         <v>0.33333333333333331</v>
@@ -1070,14 +1065,14 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C34" s="1"/>
       <c r="E34">
         <v>383</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G34" s="1">
         <v>0.33333333333333331</v>
@@ -1085,14 +1080,14 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C35" s="1"/>
       <c r="E35">
         <v>522</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G35" s="1">
         <v>0.33333333333333331</v>
@@ -1100,10 +1095,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C36" s="1">
         <v>0.33680555555555558</v>
@@ -1115,14 +1110,14 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C37" s="1"/>
       <c r="E37">
         <v>660</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G37" s="1">
         <v>0.33680555555555558</v>
@@ -1130,14 +1125,14 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C38" s="1"/>
       <c r="E38">
         <v>454</v>
       </c>
       <c r="F38" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G38" s="1">
         <v>0.34027777777777779</v>
@@ -1145,14 +1140,14 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C39" s="1"/>
       <c r="E39">
-        <v>572</v>
+        <v>554</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G39" s="1">
         <v>0.34027777777777779</v>
@@ -1160,14 +1155,14 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C40" s="1"/>
       <c r="E40">
         <v>324</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G40" s="1">
         <v>0.34375</v>
@@ -1175,661 +1170,661 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="E41">
-        <v>884</v>
-      </c>
-      <c r="F41" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0.3576388888888889</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.34722222222222221</v>
+      </c>
+      <c r="D41">
+        <v>4053</v>
+      </c>
+      <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C42" s="1"/>
       <c r="E42">
-        <v>369</v>
+        <v>884</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G42" s="1">
-        <v>0.37847222222222221</v>
+        <v>0.3576388888888889</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="E43">
-        <v>430</v>
-      </c>
-      <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="1">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="1">
         <v>0.37847222222222221</v>
       </c>
+      <c r="D43">
+        <v>559</v>
+      </c>
+      <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C44" s="1"/>
       <c r="E44">
-        <v>582</v>
+        <v>369</v>
       </c>
       <c r="F44" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G44" s="1">
-        <v>0.39930555555555558</v>
+        <v>0.37847222222222221</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0.41319444444444442</v>
-      </c>
-      <c r="D45">
-        <v>659</v>
-      </c>
-      <c r="G45" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="E45">
+        <v>430</v>
+      </c>
+      <c r="F45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.37847222222222221</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C46" s="1"/>
       <c r="E46">
-        <v>392</v>
+        <v>582</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G46" s="1">
-        <v>0.41319444444444442</v>
+        <v>0.39930555555555558</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="E47">
-        <v>609</v>
-      </c>
-      <c r="F47" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" s="1">
-        <v>0.4236111111111111</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="D47">
+        <v>4053</v>
+      </c>
+      <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="E48">
-        <v>4320</v>
-      </c>
-      <c r="F48" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48" s="1">
-        <v>0.4236111111111111</v>
-      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="D48">
+        <v>659</v>
+      </c>
+      <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="1">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="D49">
-        <v>537</v>
-      </c>
-      <c r="G49" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="E49">
+        <v>392</v>
+      </c>
+      <c r="F49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.41319444444444442</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C50" s="1">
-        <v>0.44791666666666669</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D50">
-        <v>455</v>
+        <v>731</v>
       </c>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" t="s">
-        <v>19</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="D51">
-        <v>573</v>
-      </c>
-      <c r="G51" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="E51">
+        <v>613</v>
+      </c>
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.4236111111111111</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C52" s="1">
-        <v>0.45347222222222222</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D52">
-        <v>4337</v>
+        <v>537</v>
       </c>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C53" s="1">
-        <v>0.46527777777777773</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="D53">
-        <v>721</v>
+        <v>455</v>
       </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="E54">
-        <v>584</v>
-      </c>
-      <c r="F54" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="1">
-        <v>0.49305555555555558</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="D54">
+        <v>384</v>
+      </c>
+      <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="E55">
-        <v>650</v>
-      </c>
-      <c r="F55" t="s">
-        <v>38</v>
-      </c>
-      <c r="G55" s="1">
-        <v>0.49305555555555558</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="D55">
+        <v>730</v>
+      </c>
+      <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="E56">
-        <v>385</v>
-      </c>
-      <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+      <c r="B56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="D56">
+        <v>4301</v>
+      </c>
+      <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="1"/>
-      <c r="E57">
-        <v>442</v>
-      </c>
-      <c r="F57" t="s">
-        <v>34</v>
-      </c>
-      <c r="G57" s="1">
-        <v>0.50347222222222221</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D57">
+        <v>916</v>
+      </c>
+      <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C58" s="1"/>
       <c r="E58">
-        <v>319</v>
+        <v>385</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G58" s="1">
-        <v>0.51041666666666663</v>
+        <v>0.50347222222222221</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>44</v>
-      </c>
-      <c r="B59" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="D59">
-        <v>4</v>
-      </c>
-      <c r="G59" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="E59">
+        <v>424</v>
+      </c>
+      <c r="F59" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.50347222222222221</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>26</v>
-      </c>
-      <c r="B60" t="s">
-        <v>27</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0.52152777777777781</v>
-      </c>
-      <c r="D60">
-        <v>339</v>
-      </c>
-      <c r="G60" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="E60">
+        <v>319</v>
+      </c>
+      <c r="F60" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.51041666666666663</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C61" s="1">
-        <v>0.52777777777777779</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="D61">
-        <v>720</v>
+        <v>4</v>
       </c>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C62" s="1">
-        <v>0.52986111111111112</v>
+        <v>0.52569444444444446</v>
       </c>
       <c r="D62">
-        <v>816</v>
+        <v>739</v>
       </c>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>15</v>
-      </c>
-      <c r="B63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C63" s="1">
-        <v>0.55486111111111114</v>
-      </c>
-      <c r="D63">
-        <v>1441</v>
-      </c>
-      <c r="G63" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="E63">
+        <v>4340</v>
+      </c>
+      <c r="F63" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0.52569444444444446</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C64" s="1">
-        <v>0.56041666666666667</v>
+        <v>0.52986111111111112</v>
       </c>
       <c r="D64">
-        <v>8139</v>
+        <v>816</v>
       </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>26</v>
-      </c>
-      <c r="C65" s="1"/>
-      <c r="E65">
-        <v>348</v>
-      </c>
-      <c r="F65" t="s">
         <v>27</v>
       </c>
-      <c r="G65" s="1">
-        <v>0.56319444444444444</v>
-      </c>
+      <c r="B65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="D65">
+        <v>1910</v>
+      </c>
+      <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>28</v>
-      </c>
-      <c r="C66" s="1"/>
-      <c r="E66">
-        <v>871</v>
-      </c>
-      <c r="F66" t="s">
-        <v>29</v>
-      </c>
-      <c r="G66" s="1">
-        <v>0.57291666666666663</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D66">
+        <v>916</v>
+      </c>
+      <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C67" s="1">
-        <v>0.5805555555555556</v>
+        <v>0.55486111111111114</v>
       </c>
       <c r="D67">
-        <v>628</v>
+        <v>1441</v>
       </c>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:d